--- a/Cronograma aulas/Aulas v2.xlsx
+++ b/Cronograma aulas/Aulas v2.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21901"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Linux Sab Vesp\Documents\github\aulas-3way\Cronograma aulas\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8EBF071-A8C3-4F62-BD7B-D59F5A1D3B04}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="t7_seg_e_qua" sheetId="1" r:id="rId1"/>
@@ -15,17 +21,24 @@
     <sheet name="t2_Sábado" sheetId="6" r:id="rId6"/>
     <sheet name="t1_Domingo_(finalizada)" sheetId="7" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="114210"/>
+  <calcPr calcId="181029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="D15" authorId="0">
+    <comment ref="D15" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000001000000}">
       <text>
         <r>
           <rPr>
@@ -596,7 +609,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="[$R$-416]\ #,##0.00;[Red]\-[$R$-416]\ #,##0.00"/>
     <numFmt numFmtId="165" formatCode="m/d/yy"/>
@@ -1698,6 +1711,14 @@
       <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1718,7 +1739,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1026" name="shapetype_202" hidden="1"/>
+        <xdr:cNvPr id="1026" name="shapetype_202" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noSelect="1" noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -1750,7 +1777,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1792,7 +1819,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1824,9 +1851,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1858,6 +1903,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2033,7 +2096,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H32"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
@@ -2612,8 +2675,8 @@
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D20" r:id="rId1" display="http://www.universidadejava.com.br/materiais/jpa-exemplo-crud/"/>
-    <hyperlink ref="D22" r:id="rId2" display="http://www.universidadejava.com.br/materiais/jpa-exemplo-crud/"/>
+    <hyperlink ref="D20" r:id="rId1" display="http://www.universidadejava.com.br/materiais/jpa-exemplo-crud/" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="D22" r:id="rId2" display="http://www.universidadejava.com.br/materiais/jpa-exemplo-crud/" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0" right="0" top="0.13888888888888901" bottom="0.13888888888888901" header="0" footer="0"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>
@@ -2625,11 +2688,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="14.25"/>
@@ -2831,7 +2894,7 @@
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="45" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="B11" s="7" t="s">
         <v>48</v>
@@ -2854,7 +2917,7 @@
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="48" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="B12" s="13">
         <v>43673</v>
@@ -2875,7 +2938,7 @@
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="48" t="s">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="B13" s="13">
         <v>43680</v>
@@ -2896,7 +2959,7 @@
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="48" t="s">
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="B14" s="13">
         <v>43687</v>
@@ -2918,8 +2981,8 @@
       <c r="I14" s="2"/>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="12" t="s">
-        <v>55</v>
+      <c r="A15" s="162" t="s">
+        <v>18</v>
       </c>
       <c r="B15" s="13">
         <v>43694</v>
@@ -2941,8 +3004,8 @@
       <c r="I15" s="2"/>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="12" t="s">
-        <v>57</v>
+      <c r="A16" s="162" t="s">
+        <v>20</v>
       </c>
       <c r="B16" s="13">
         <v>43701</v>
@@ -2962,8 +3025,8 @@
       <c r="I16" s="2"/>
     </row>
     <row r="17" spans="1:9" s="27" customFormat="1">
-      <c r="A17" s="12" t="s">
-        <v>59</v>
+      <c r="A17" s="162" t="s">
+        <v>22</v>
       </c>
       <c r="B17" s="24">
         <v>43708</v>
@@ -2979,8 +3042,8 @@
       <c r="I17" s="26"/>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="12" t="s">
-        <v>60</v>
+      <c r="A18" s="162" t="s">
+        <v>24</v>
       </c>
       <c r="B18" s="13">
         <v>43715</v>
@@ -3010,7 +3073,7 @@
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="45" t="s">
-        <v>61</v>
+        <v>8</v>
       </c>
       <c r="B20" s="7">
         <v>43722</v>
@@ -3033,7 +3096,7 @@
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="48" t="s">
-        <v>64</v>
+        <v>12</v>
       </c>
       <c r="B21" s="13">
         <v>43729</v>
@@ -3052,7 +3115,7 @@
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="48" t="s">
-        <v>66</v>
+        <v>14</v>
       </c>
       <c r="B22" s="13">
         <v>43736</v>
@@ -3073,7 +3136,7 @@
     </row>
     <row r="23" spans="1:9">
       <c r="A23" s="48" t="s">
-        <v>69</v>
+        <v>16</v>
       </c>
       <c r="B23" s="13">
         <v>43743</v>
@@ -3093,8 +3156,8 @@
       <c r="I23" s="2"/>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="12" t="s">
-        <v>72</v>
+      <c r="A24" s="162" t="s">
+        <v>18</v>
       </c>
       <c r="B24" s="13">
         <v>43750</v>
@@ -3113,8 +3176,8 @@
       </c>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="12" t="s">
-        <v>75</v>
+      <c r="A25" s="162" t="s">
+        <v>20</v>
       </c>
       <c r="B25" s="13">
         <v>43757</v>
@@ -3133,8 +3196,8 @@
       </c>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="12" t="s">
-        <v>78</v>
+      <c r="A26" s="162" t="s">
+        <v>22</v>
       </c>
       <c r="B26" s="13">
         <v>43764</v>
@@ -3153,8 +3216,8 @@
       </c>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="12" t="s">
-        <v>81</v>
+      <c r="A27" s="162" t="s">
+        <v>24</v>
       </c>
       <c r="B27" s="13">
         <v>43770</v>
@@ -3206,11 +3269,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:I32"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="14.25"/>
@@ -3909,7 +3972,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:J32"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0"/>
@@ -4693,7 +4756,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:K38"/>
   <sheetViews>
     <sheetView zoomScale="95" zoomScaleNormal="95" workbookViewId="0"/>
@@ -5495,7 +5558,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:I26"/>
   <sheetViews>
     <sheetView zoomScale="95" zoomScaleNormal="95" workbookViewId="0"/>
@@ -6068,7 +6131,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:K30"/>
   <sheetViews>
     <sheetView zoomScale="95" zoomScaleNormal="95" workbookViewId="0">

--- a/Cronograma aulas/Aulas v2.xlsx
+++ b/Cronograma aulas/Aulas v2.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21901"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Linux Sab Vesp\Documents\github\aulas-3way\Cronograma aulas\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8EBF071-A8C3-4F62-BD7B-D59F5A1D3B04}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="t7_seg_e_qua" sheetId="1" r:id="rId1"/>
@@ -21,24 +15,17 @@
     <sheet name="t2_Sábado" sheetId="6" r:id="rId6"/>
     <sheet name="t1_Domingo_(finalizada)" sheetId="7" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="114210"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="D15" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000001000000}">
+    <comment ref="D15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -56,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="732" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="731" uniqueCount="171">
   <si>
     <t>Segunda e Quarta – sala 04 (senha javaweb)</t>
   </si>
@@ -218,9 +205,6 @@
     <t>Slides_09_classes_abstratas_internas_e_interfaces_pages_deleted.pdf / slides_10_excecões.pdf</t>
   </si>
   <si>
-    <t>20/7</t>
-  </si>
-  <si>
     <t>BD / JDBC (apensa Fábica e Testa conexão foram implementadas)</t>
   </si>
   <si>
@@ -246,9 +230,6 @@
   </si>
   <si>
     <t>Aula 14</t>
-  </si>
-  <si>
-    <t>Git/Github - 1º CRUD com JPA</t>
   </si>
   <si>
     <t>Aula 15</t>
@@ -605,14 +586,18 @@
   <si>
     <t>pago total em 30/10</t>
   </si>
+  <si>
+    <t>Git/Github - 1º CRUD com JPA (até exercício TestarPersistenceXml)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="[$R$-416]\ #,##0.00;[Red]\-[$R$-416]\ #,##0.00"/>
     <numFmt numFmtId="165" formatCode="m/d/yy"/>
+    <numFmt numFmtId="168" formatCode="dd/mm/yy;@"/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -783,7 +768,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="29">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -896,15 +881,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="hair">
         <color indexed="64"/>
       </left>
@@ -913,80 +889,6 @@
       </right>
       <top/>
       <bottom style="hair">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color indexed="64"/>
-      </left>
-      <right style="hair">
-        <color indexed="64"/>
-      </right>
-      <top style="hair">
-        <color indexed="64"/>
-      </top>
-      <bottom style="hair">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="hair">
-        <color indexed="64"/>
-      </right>
-      <top style="hair">
-        <color indexed="64"/>
-      </top>
-      <bottom style="hair">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="hair">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color indexed="64"/>
-      </left>
-      <right style="hair">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="hair">
-        <color indexed="64"/>
-      </right>
-      <top style="hair">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -1025,38 +927,10 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="hair">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="hair">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
+      <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top/>
       <bottom/>
       <diagonal/>
@@ -1084,25 +958,29 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="hair">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="hair">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
+      <left/>
+      <right style="hair">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom style="thin">
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -1112,7 +990,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="21" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="185">
+  <cellXfs count="177">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1183,9 +1061,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1212,59 +1087,49 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="8" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1295,7 +1160,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1319,7 +1184,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1361,7 +1226,7 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1419,7 +1284,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="1" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1434,7 +1299,7 @@
     <xf numFmtId="165" fontId="19" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="19" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="19" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1451,168 +1316,157 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="8" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="8" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1627,7 +1481,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1711,14 +1565,6 @@
       <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -1739,13 +1585,7 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1026" name="shapetype_202" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002040000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="1026" name="shapetype_202" hidden="1"/>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noSelect="1" noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -1777,7 +1617,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1819,7 +1659,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1851,27 +1691,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1903,24 +1725,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2096,53 +1900,53 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H32"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="8.375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="7.875" customWidth="1"/>
+    <col min="2" max="2" width="10.375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.5" customWidth="1"/>
-    <col min="4" max="4" width="108.625" customWidth="1"/>
-    <col min="5" max="5" width="24.125" customWidth="1"/>
+    <col min="4" max="4" width="94.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.25" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.5" customWidth="1"/>
     <col min="7" max="7" width="7.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="173" t="s">
+      <c r="A1" s="167" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="173"/>
-      <c r="C1" s="173"/>
-      <c r="D1" s="173"/>
-      <c r="E1" s="173"/>
-      <c r="F1" s="173"/>
-      <c r="G1" s="173"/>
+      <c r="B1" s="167"/>
+      <c r="C1" s="167"/>
+      <c r="D1" s="167"/>
+      <c r="E1" s="167"/>
+      <c r="F1" s="167"/>
+      <c r="G1" s="167"/>
     </row>
     <row r="2" spans="1:8" ht="15">
-      <c r="A2" s="83" t="s">
+      <c r="A2" s="78" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="133" t="s">
+      <c r="B2" s="121" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="133" t="s">
+      <c r="C2" s="121" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="133"/>
-      <c r="E2" s="133" t="s">
+      <c r="D2" s="121"/>
+      <c r="E2" s="121" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="133" t="s">
+      <c r="F2" s="121" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="84" t="s">
+      <c r="G2" s="79" t="s">
         <v>6</v>
       </c>
       <c r="H2" s="2" t="s">
@@ -2150,182 +1954,182 @@
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="134" t="s">
+      <c r="A3" s="122" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="135">
+      <c r="B3" s="139">
         <v>43647</v>
       </c>
-      <c r="C3" s="136" t="s">
+      <c r="C3" s="123" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="137" t="s">
+      <c r="D3" s="124" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="138"/>
-      <c r="F3" s="174" t="s">
+      <c r="E3" s="162"/>
+      <c r="F3" s="167" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="139">
+      <c r="G3" s="153">
         <v>140</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="15">
-      <c r="A4" s="140" t="s">
+      <c r="A4" s="125" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="119">
+      <c r="B4" s="140">
         <v>43649</v>
       </c>
-      <c r="C4" s="120" t="s">
+      <c r="C4" s="115" t="s">
         <v>9</v>
       </c>
       <c r="D4" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="121"/>
-      <c r="F4" s="175"/>
-      <c r="G4" s="141">
+      <c r="E4" s="116"/>
+      <c r="F4" s="167"/>
+      <c r="G4" s="154">
         <v>140</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="15">
-      <c r="A5" s="140" t="s">
+      <c r="A5" s="125" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="119">
+      <c r="B5" s="140">
         <v>43654</v>
       </c>
-      <c r="C5" s="120" t="s">
+      <c r="C5" s="115" t="s">
         <v>9</v>
       </c>
       <c r="D5" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="121"/>
-      <c r="F5" s="175"/>
-      <c r="G5" s="141">
+      <c r="E5" s="116"/>
+      <c r="F5" s="167"/>
+      <c r="G5" s="154">
         <v>140</v>
       </c>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="140" t="s">
+      <c r="A6" s="125" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="119">
+      <c r="B6" s="140">
         <v>43656</v>
       </c>
-      <c r="C6" s="120" t="s">
+      <c r="C6" s="115" t="s">
         <v>9</v>
       </c>
       <c r="D6" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="122"/>
-      <c r="F6" s="175"/>
-      <c r="G6" s="141">
+      <c r="E6" s="117"/>
+      <c r="F6" s="167"/>
+      <c r="G6" s="154">
         <v>140</v>
       </c>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="140" t="s">
+      <c r="A7" s="125" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="119">
+      <c r="B7" s="140">
         <v>43661</v>
       </c>
-      <c r="C7" s="120" t="s">
+      <c r="C7" s="115" t="s">
         <v>9</v>
       </c>
       <c r="D7" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="122"/>
-      <c r="F7" s="175"/>
-      <c r="G7" s="141">
+      <c r="E7" s="117"/>
+      <c r="F7" s="167"/>
+      <c r="G7" s="154">
         <v>140</v>
       </c>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="140" t="s">
+      <c r="A8" s="125" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="119">
+      <c r="B8" s="140">
         <v>43668</v>
       </c>
-      <c r="C8" s="120" t="s">
+      <c r="C8" s="115" t="s">
         <v>9</v>
       </c>
       <c r="D8" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="E8" s="122"/>
-      <c r="F8" s="175"/>
-      <c r="G8" s="141">
+      <c r="E8" s="117"/>
+      <c r="F8" s="167"/>
+      <c r="G8" s="154">
         <v>140</v>
       </c>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="140" t="s">
+      <c r="A9" s="125" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="119">
+      <c r="B9" s="140">
         <v>43670</v>
       </c>
-      <c r="C9" s="120" t="s">
+      <c r="C9" s="115" t="s">
         <v>9</v>
       </c>
       <c r="D9" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="E9" s="122"/>
-      <c r="F9" s="175"/>
-      <c r="G9" s="141">
+      <c r="E9" s="117"/>
+      <c r="F9" s="167"/>
+      <c r="G9" s="154">
         <v>140</v>
       </c>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="140" t="s">
+      <c r="A10" s="125" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="119">
+      <c r="B10" s="140">
         <v>43675</v>
       </c>
-      <c r="C10" s="120" t="s">
+      <c r="C10" s="115" t="s">
         <v>9</v>
       </c>
       <c r="D10" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="E10" s="122"/>
-      <c r="F10" s="175"/>
-      <c r="G10" s="141">
+      <c r="E10" s="117"/>
+      <c r="F10" s="167"/>
+      <c r="G10" s="154">
         <v>140</v>
       </c>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="140" t="s">
+      <c r="A11" s="125" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="119">
+      <c r="B11" s="140">
         <v>43677</v>
       </c>
-      <c r="C11" s="120" t="s">
+      <c r="C11" s="115" t="s">
         <v>9</v>
       </c>
       <c r="D11" s="17"/>
-      <c r="E11" s="122"/>
-      <c r="F11" s="175"/>
-      <c r="G11" s="141">
+      <c r="E11" s="117"/>
+      <c r="F11" s="167"/>
+      <c r="G11" s="154">
         <v>140</v>
       </c>
       <c r="H11" s="2"/>
     </row>
     <row r="12" spans="1:8" ht="15">
-      <c r="A12" s="142" t="s">
+      <c r="A12" s="126" t="s">
         <v>27</v>
       </c>
-      <c r="B12" s="119">
+      <c r="B12" s="140">
         <v>43682</v>
       </c>
       <c r="C12" s="19" t="s">
@@ -2335,17 +2139,17 @@
         <v>28</v>
       </c>
       <c r="E12" s="20"/>
-      <c r="F12" s="175"/>
-      <c r="G12" s="141">
+      <c r="F12" s="167"/>
+      <c r="G12" s="154">
         <v>140</v>
       </c>
       <c r="H12" s="21"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="143" t="s">
+      <c r="A13" s="127" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="7">
+      <c r="B13" s="141">
         <v>43684</v>
       </c>
       <c r="C13" s="22" t="s">
@@ -2354,20 +2158,20 @@
       <c r="D13" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="E13" s="10"/>
-      <c r="F13" s="175" t="s">
+      <c r="E13" s="163"/>
+      <c r="F13" s="167" t="s">
         <v>31</v>
       </c>
-      <c r="G13" s="141">
+      <c r="G13" s="154">
         <v>140</v>
       </c>
       <c r="H13" s="2"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="140" t="s">
+      <c r="A14" s="125" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="119">
+      <c r="B14" s="140">
         <v>43691</v>
       </c>
       <c r="C14" s="23" t="s">
@@ -2376,18 +2180,18 @@
       <c r="D14" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="E14" s="122"/>
-      <c r="F14" s="175"/>
-      <c r="G14" s="141">
+      <c r="E14" s="117"/>
+      <c r="F14" s="167"/>
+      <c r="G14" s="154">
         <v>140</v>
       </c>
       <c r="H14" s="2"/>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="140" t="s">
+      <c r="A15" s="125" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="119">
+      <c r="B15" s="140">
         <v>43698</v>
       </c>
       <c r="C15" s="23" t="s">
@@ -2396,275 +2200,279 @@
       <c r="D15" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="E15" s="122"/>
-      <c r="F15" s="175"/>
-      <c r="G15" s="141">
+      <c r="E15" s="117"/>
+      <c r="F15" s="167"/>
+      <c r="G15" s="154">
         <v>140</v>
       </c>
       <c r="H15" s="2"/>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="140" t="s">
+      <c r="A16" s="125" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="119">
+      <c r="B16" s="140">
         <v>43703</v>
       </c>
       <c r="C16" s="23"/>
       <c r="D16" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="E16" s="122" t="s">
+      <c r="E16" s="117" t="s">
         <v>34</v>
       </c>
-      <c r="F16" s="175"/>
-      <c r="G16" s="141">
+      <c r="F16" s="167"/>
+      <c r="G16" s="154">
         <v>140</v>
       </c>
       <c r="H16" s="2"/>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="140" t="s">
+      <c r="A17" s="125" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="123">
+      <c r="B17" s="142">
         <v>43705</v>
       </c>
       <c r="C17" s="23"/>
       <c r="D17" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="E17" s="122" t="s">
+      <c r="E17" s="117" t="s">
         <v>36</v>
       </c>
-      <c r="F17" s="175"/>
-      <c r="G17" s="141">
+      <c r="F17" s="167"/>
+      <c r="G17" s="154">
         <v>140</v>
       </c>
       <c r="H17" s="2"/>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="140" t="s">
+      <c r="A18" s="125" t="s">
         <v>20</v>
       </c>
-      <c r="B18" s="124">
+      <c r="B18" s="143">
         <v>43710</v>
       </c>
       <c r="C18" s="23"/>
       <c r="D18" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="E18" s="122" t="s">
+      <c r="E18" s="117" t="s">
         <v>38</v>
       </c>
-      <c r="F18" s="175"/>
-      <c r="G18" s="141">
+      <c r="F18" s="167"/>
+      <c r="G18" s="154">
         <v>140</v>
       </c>
       <c r="H18" s="2"/>
     </row>
-    <row r="19" spans="1:8" s="27" customFormat="1">
-      <c r="A19" s="140" t="s">
+    <row r="19" spans="1:8" s="26" customFormat="1">
+      <c r="A19" s="125" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="119">
+      <c r="B19" s="140">
         <v>43712</v>
       </c>
-      <c r="C19" s="25"/>
+      <c r="C19" s="24"/>
       <c r="D19" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="E19" s="120" t="s">
+      <c r="E19" s="115" t="s">
         <v>40</v>
       </c>
-      <c r="F19" s="175"/>
-      <c r="G19" s="144">
-        <v>140</v>
-      </c>
-      <c r="H19" s="26"/>
-    </row>
-    <row r="20" spans="1:8" s="30" customFormat="1">
-      <c r="A20" s="140" t="s">
+      <c r="F19" s="167"/>
+      <c r="G19" s="155">
+        <v>140</v>
+      </c>
+      <c r="H19" s="25"/>
+    </row>
+    <row r="20" spans="1:8" s="29" customFormat="1">
+      <c r="A20" s="125" t="s">
         <v>24</v>
       </c>
-      <c r="B20" s="119">
+      <c r="B20" s="140">
         <v>43717</v>
       </c>
-      <c r="C20" s="28"/>
-      <c r="D20" s="29" t="s">
+      <c r="C20" s="27"/>
+      <c r="D20" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="E20" s="125" t="s">
+      <c r="E20" s="118" t="s">
         <v>40</v>
       </c>
-      <c r="F20" s="175"/>
-      <c r="G20" s="145">
+      <c r="F20" s="167"/>
+      <c r="G20" s="156">
         <v>140</v>
       </c>
       <c r="H20" s="1"/>
     </row>
-    <row r="21" spans="1:8" s="34" customFormat="1">
-      <c r="A21" s="146"/>
-      <c r="B21" s="126"/>
-      <c r="C21" s="31"/>
-      <c r="D21" s="32"/>
-      <c r="E21" s="127" t="s">
+    <row r="21" spans="1:8" s="33" customFormat="1">
+      <c r="A21" s="128"/>
+      <c r="B21" s="144"/>
+      <c r="C21" s="30"/>
+      <c r="D21" s="31"/>
+      <c r="E21" s="119" t="s">
         <v>42</v>
       </c>
-      <c r="F21" s="175"/>
-      <c r="G21" s="147"/>
-      <c r="H21" s="33"/>
-    </row>
-    <row r="22" spans="1:8" s="34" customFormat="1" ht="15">
-      <c r="A22" s="148"/>
-      <c r="B22" s="35"/>
-      <c r="C22" s="36"/>
-      <c r="D22" s="37" t="s">
+      <c r="F21" s="167"/>
+      <c r="G21" s="157"/>
+      <c r="H21" s="32"/>
+    </row>
+    <row r="22" spans="1:8" s="33" customFormat="1" ht="15">
+      <c r="A22" s="129"/>
+      <c r="B22" s="145"/>
+      <c r="C22" s="34"/>
+      <c r="D22" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="E22" s="38" t="s">
+      <c r="E22" s="164" t="s">
         <v>44</v>
       </c>
-      <c r="F22" s="175"/>
-      <c r="G22" s="147"/>
-      <c r="H22" s="39"/>
+      <c r="F22" s="167"/>
+      <c r="G22" s="157"/>
+      <c r="H22" s="36"/>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="143" t="s">
+      <c r="A23" s="127" t="s">
         <v>8</v>
       </c>
-      <c r="B23" s="7"/>
+      <c r="B23" s="141">
+        <v>43749</v>
+      </c>
       <c r="C23" s="22"/>
-      <c r="D23" s="128"/>
-      <c r="E23" s="40"/>
-      <c r="F23" s="175" t="s">
+      <c r="D23" s="120"/>
+      <c r="E23" s="165"/>
+      <c r="F23" s="167" t="s">
         <v>45</v>
       </c>
-      <c r="G23" s="141">
+      <c r="G23" s="154">
         <v>140</v>
       </c>
       <c r="H23" s="2"/>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="140" t="s">
+      <c r="A24" s="125" t="s">
         <v>12</v>
       </c>
-      <c r="B24" s="119"/>
+      <c r="B24" s="140">
+        <v>43754</v>
+      </c>
       <c r="C24" s="23"/>
-      <c r="D24" s="15"/>
-      <c r="E24" s="41"/>
-      <c r="F24" s="175"/>
-      <c r="G24" s="141">
+      <c r="D24" s="158"/>
+      <c r="E24" s="159"/>
+      <c r="F24" s="167"/>
+      <c r="G24" s="154">
         <v>140</v>
       </c>
       <c r="H24" s="2"/>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="140" t="s">
+      <c r="A25" s="125" t="s">
         <v>14</v>
       </c>
-      <c r="B25" s="119"/>
+      <c r="B25" s="140"/>
       <c r="C25" s="23"/>
-      <c r="D25" s="17"/>
-      <c r="E25" s="122"/>
-      <c r="F25" s="175"/>
-      <c r="G25" s="141">
+      <c r="D25" s="159"/>
+      <c r="E25" s="160"/>
+      <c r="F25" s="167"/>
+      <c r="G25" s="154">
         <v>140</v>
       </c>
       <c r="H25" s="2"/>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="140" t="s">
+      <c r="A26" s="125" t="s">
         <v>16</v>
       </c>
-      <c r="B26" s="119"/>
+      <c r="B26" s="140"/>
       <c r="C26" s="23"/>
-      <c r="D26" s="17"/>
-      <c r="E26" s="122"/>
-      <c r="F26" s="175"/>
-      <c r="G26" s="141">
+      <c r="D26" s="159"/>
+      <c r="E26" s="160"/>
+      <c r="F26" s="167"/>
+      <c r="G26" s="154">
         <v>140</v>
       </c>
       <c r="H26" s="2"/>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="140" t="s">
+      <c r="A27" s="125" t="s">
         <v>18</v>
       </c>
-      <c r="B27" s="119"/>
+      <c r="B27" s="140"/>
       <c r="C27" s="23"/>
-      <c r="D27" s="17"/>
-      <c r="E27" s="122"/>
-      <c r="F27" s="175"/>
-      <c r="G27" s="141">
+      <c r="D27" s="159"/>
+      <c r="E27" s="160"/>
+      <c r="F27" s="167"/>
+      <c r="G27" s="154">
         <v>140</v>
       </c>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="140" t="s">
+      <c r="A28" s="125" t="s">
         <v>20</v>
       </c>
-      <c r="B28" s="119"/>
+      <c r="B28" s="140"/>
       <c r="C28" s="23"/>
-      <c r="D28" s="17"/>
-      <c r="E28" s="122"/>
-      <c r="F28" s="175"/>
-      <c r="G28" s="141">
+      <c r="D28" s="159"/>
+      <c r="E28" s="160"/>
+      <c r="F28" s="167"/>
+      <c r="G28" s="154">
         <v>140</v>
       </c>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="140" t="s">
+      <c r="A29" s="125" t="s">
         <v>22</v>
       </c>
-      <c r="B29" s="119"/>
+      <c r="B29" s="140"/>
       <c r="C29" s="23"/>
-      <c r="D29" s="17"/>
-      <c r="E29" s="122"/>
-      <c r="F29" s="175"/>
-      <c r="G29" s="141">
+      <c r="D29" s="159"/>
+      <c r="E29" s="160"/>
+      <c r="F29" s="167"/>
+      <c r="G29" s="154">
         <v>140</v>
       </c>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="140" t="s">
+      <c r="A30" s="125" t="s">
         <v>24</v>
       </c>
-      <c r="B30" s="119"/>
+      <c r="B30" s="140"/>
       <c r="C30" s="23"/>
       <c r="D30" s="17"/>
-      <c r="E30" s="122"/>
-      <c r="F30" s="175"/>
-      <c r="G30" s="141">
+      <c r="E30" s="160"/>
+      <c r="F30" s="167"/>
+      <c r="G30" s="154">
         <v>140</v>
       </c>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="140" t="s">
+      <c r="A31" s="125" t="s">
         <v>26</v>
       </c>
-      <c r="B31" s="119"/>
+      <c r="B31" s="140"/>
       <c r="C31" s="23"/>
       <c r="D31" s="17"/>
-      <c r="E31" s="122"/>
-      <c r="F31" s="175"/>
-      <c r="G31" s="141">
+      <c r="E31" s="160"/>
+      <c r="F31" s="167"/>
+      <c r="G31" s="154">
         <v>140</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="15">
-      <c r="A32" s="149" t="s">
+      <c r="A32" s="126" t="s">
         <v>27</v>
       </c>
-      <c r="B32" s="129"/>
-      <c r="C32" s="130"/>
-      <c r="D32" s="131"/>
-      <c r="E32" s="132"/>
-      <c r="F32" s="176"/>
-      <c r="G32" s="150">
-        <v>140</v>
-      </c>
-      <c r="H32" s="43"/>
+      <c r="B32" s="161"/>
+      <c r="C32" s="137"/>
+      <c r="D32" s="37"/>
+      <c r="E32" s="166"/>
+      <c r="F32" s="167"/>
+      <c r="G32" s="152">
+        <v>140</v>
+      </c>
+      <c r="H32" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -2675,8 +2483,8 @@
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D20" r:id="rId1" display="http://www.universidadejava.com.br/materiais/jpa-exemplo-crud/" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="D22" r:id="rId2" display="http://www.universidadejava.com.br/materiais/jpa-exemplo-crud/" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="D20" r:id="rId1" display="http://www.universidadejava.com.br/materiais/jpa-exemplo-crud/"/>
+    <hyperlink ref="D22" r:id="rId2" display="http://www.universidadejava.com.br/materiais/jpa-exemplo-crud/"/>
   </hyperlinks>
   <pageMargins left="0" right="0" top="0.13888888888888901" bottom="0.13888888888888901" header="0" footer="0"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>
@@ -2688,11 +2496,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView showGridLines="0" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="14.25"/>
@@ -2700,24 +2508,24 @@
     <col min="1" max="1" width="8.375" style="2" customWidth="1"/>
     <col min="2" max="2" width="10.75" customWidth="1"/>
     <col min="3" max="3" width="10.5" customWidth="1"/>
-    <col min="4" max="4" width="121.875" customWidth="1"/>
-    <col min="5" max="5" width="19.875" customWidth="1"/>
+    <col min="4" max="4" width="101.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="4.75" customWidth="1"/>
-    <col min="7" max="7" width="10.5" customWidth="1"/>
+    <col min="7" max="7" width="11.125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="7.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="173" t="s">
+      <c r="A1" s="167" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="173"/>
-      <c r="C1" s="173"/>
-      <c r="D1" s="173"/>
-      <c r="E1" s="173"/>
-      <c r="F1" s="173"/>
-      <c r="G1" s="173"/>
-      <c r="H1" s="173"/>
+      <c r="B1" s="167"/>
+      <c r="C1" s="167"/>
+      <c r="D1" s="167"/>
+      <c r="E1" s="167"/>
+      <c r="F1" s="167"/>
+      <c r="G1" s="167"/>
+      <c r="H1" s="167"/>
     </row>
     <row r="2" spans="1:9" ht="15">
       <c r="A2" s="3" t="s">
@@ -2726,15 +2534,15 @@
       <c r="B2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="44" t="s">
+      <c r="C2" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44" t="s">
+      <c r="D2" s="39"/>
+      <c r="E2" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44" t="s">
+      <c r="F2" s="39"/>
+      <c r="G2" s="39" t="s">
         <v>5</v>
       </c>
       <c r="H2" s="5" t="s">
@@ -2745,76 +2553,76 @@
       </c>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="45" t="s">
+      <c r="A3" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="7">
+      <c r="B3" s="141">
         <v>43620</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>9</v>
       </c>
       <c r="D3" s="9"/>
-      <c r="E3" s="46"/>
+      <c r="E3" s="41"/>
       <c r="F3" s="10"/>
-      <c r="G3" s="175" t="s">
+      <c r="G3" s="168" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="47">
+      <c r="H3" s="42">
         <v>175</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="15">
-      <c r="A4" s="48" t="s">
+      <c r="A4" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="13">
+      <c r="B4" s="146">
         <v>43596</v>
       </c>
       <c r="C4" s="14" t="s">
         <v>9</v>
       </c>
       <c r="D4" s="15"/>
-      <c r="E4" s="49"/>
+      <c r="E4" s="44"/>
       <c r="F4" s="2"/>
-      <c r="G4" s="175"/>
-      <c r="H4" s="50">
+      <c r="G4" s="168"/>
+      <c r="H4" s="45">
         <v>175</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="15">
-      <c r="A5" s="48" t="s">
+      <c r="A5" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="13">
+      <c r="B5" s="146">
         <v>43603</v>
       </c>
       <c r="C5" s="14" t="s">
         <v>9</v>
       </c>
       <c r="D5" s="15"/>
-      <c r="E5" s="49"/>
+      <c r="E5" s="44"/>
       <c r="F5" s="2"/>
-      <c r="G5" s="175"/>
-      <c r="H5" s="50">
+      <c r="G5" s="168"/>
+      <c r="H5" s="45">
         <v>175</v>
       </c>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="48" t="s">
+      <c r="A6" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="13">
+      <c r="B6" s="146">
         <v>43617</v>
       </c>
       <c r="C6" s="14" t="s">
         <v>9</v>
       </c>
       <c r="D6" s="17"/>
-      <c r="E6" s="51"/>
+      <c r="E6" s="46"/>
       <c r="F6" s="2"/>
-      <c r="G6" s="175"/>
-      <c r="H6" s="50">
+      <c r="G6" s="168"/>
+      <c r="H6" s="45">
         <v>175</v>
       </c>
     </row>
@@ -2822,17 +2630,17 @@
       <c r="A7" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="13">
+      <c r="B7" s="146">
         <v>43624</v>
       </c>
       <c r="C7" s="14" t="s">
         <v>9</v>
       </c>
       <c r="D7" s="17"/>
-      <c r="E7" s="51"/>
+      <c r="E7" s="46"/>
       <c r="F7" s="2"/>
-      <c r="G7" s="175"/>
-      <c r="H7" s="50">
+      <c r="G7" s="168"/>
+      <c r="H7" s="45">
         <v>175</v>
       </c>
     </row>
@@ -2840,17 +2648,17 @@
       <c r="A8" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="13">
+      <c r="B8" s="146">
         <v>43631</v>
       </c>
       <c r="C8" s="14" t="s">
         <v>9</v>
       </c>
       <c r="D8" s="17"/>
-      <c r="E8" s="51"/>
+      <c r="E8" s="46"/>
       <c r="F8" s="2"/>
-      <c r="G8" s="175"/>
-      <c r="H8" s="50">
+      <c r="G8" s="168"/>
+      <c r="H8" s="45">
         <v>175</v>
       </c>
     </row>
@@ -2858,19 +2666,19 @@
       <c r="A9" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="13">
+      <c r="B9" s="146">
         <v>43645</v>
       </c>
       <c r="C9" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="52" t="s">
+      <c r="D9" s="47" t="s">
         <v>47</v>
       </c>
-      <c r="E9" s="51"/>
+      <c r="E9" s="46"/>
       <c r="F9" s="2"/>
-      <c r="G9" s="175"/>
-      <c r="H9" s="50">
+      <c r="G9" s="168"/>
+      <c r="H9" s="45">
         <v>175</v>
       </c>
     </row>
@@ -2878,36 +2686,36 @@
       <c r="A10" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="13">
+      <c r="B10" s="146">
         <v>43659</v>
       </c>
       <c r="C10" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="53"/>
-      <c r="E10" s="54"/>
-      <c r="F10" s="55"/>
-      <c r="G10" s="175"/>
-      <c r="H10" s="50">
+      <c r="D10" s="48"/>
+      <c r="E10" s="49"/>
+      <c r="F10" s="50"/>
+      <c r="G10" s="168"/>
+      <c r="H10" s="45">
         <v>175</v>
       </c>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="45" t="s">
+      <c r="A11" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="141">
+        <v>43666</v>
+      </c>
+      <c r="C11" s="149" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" s="17" t="s">
         <v>48</v>
-      </c>
-      <c r="C11" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="D11" s="17" t="s">
-        <v>49</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
-      <c r="G11" s="175" t="s">
+      <c r="G11" s="168" t="s">
         <v>31</v>
       </c>
       <c r="H11" s="17">
@@ -2916,13 +2724,13 @@
       <c r="I11" s="2"/>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="48" t="s">
+      <c r="A12" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="13">
+      <c r="B12" s="146">
         <v>43673</v>
       </c>
-      <c r="C12" s="23" t="s">
+      <c r="C12" s="150" t="s">
         <v>29</v>
       </c>
       <c r="D12" s="17" t="s">
@@ -2930,129 +2738,131 @@
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
-      <c r="G12" s="175"/>
+      <c r="G12" s="168"/>
       <c r="H12" s="17">
         <v>175</v>
       </c>
       <c r="I12" s="2"/>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="48" t="s">
+      <c r="A13" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="13">
+      <c r="B13" s="146">
         <v>43680</v>
       </c>
-      <c r="C13" s="23" t="s">
+      <c r="C13" s="150" t="s">
         <v>29</v>
       </c>
       <c r="D13" s="15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
-      <c r="G13" s="175"/>
+      <c r="G13" s="168"/>
       <c r="H13" s="17">
         <v>175</v>
       </c>
       <c r="I13" s="2"/>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="48" t="s">
+      <c r="A14" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="13">
+      <c r="B14" s="146">
         <v>43687</v>
       </c>
-      <c r="C14" s="23" t="s">
+      <c r="C14" s="150" t="s">
         <v>29</v>
       </c>
       <c r="D14" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="E14" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="E14" s="2" t="s">
-        <v>54</v>
-      </c>
       <c r="F14" s="2"/>
-      <c r="G14" s="175"/>
+      <c r="G14" s="168"/>
       <c r="H14" s="17">
         <v>175</v>
       </c>
       <c r="I14" s="2"/>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="162" t="s">
+      <c r="A15" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="13">
+      <c r="B15" s="146">
         <v>43694</v>
       </c>
       <c r="C15" s="23" t="s">
         <v>29</v>
       </c>
       <c r="D15" s="15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>36</v>
       </c>
       <c r="F15" s="2"/>
-      <c r="G15" s="175"/>
+      <c r="G15" s="168"/>
       <c r="H15" s="17">
         <v>175</v>
       </c>
       <c r="I15" s="2"/>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="162" t="s">
+      <c r="A16" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="13">
+      <c r="B16" s="146">
         <v>43701</v>
       </c>
-      <c r="C16" s="23"/>
-      <c r="D16" s="15" t="s">
-        <v>58</v>
+      <c r="C16" s="45" t="s">
+        <v>29</v>
+      </c>
+      <c r="D16" s="17" t="s">
+        <v>170</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>38</v>
       </c>
       <c r="F16" s="2"/>
-      <c r="G16" s="175"/>
+      <c r="G16" s="168"/>
       <c r="H16" s="17">
         <v>175</v>
       </c>
       <c r="I16" s="2"/>
     </row>
-    <row r="17" spans="1:9" s="27" customFormat="1">
-      <c r="A17" s="162" t="s">
+    <row r="17" spans="1:9" s="26" customFormat="1">
+      <c r="A17" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="B17" s="24">
+      <c r="B17" s="147">
         <v>43708</v>
       </c>
-      <c r="C17" s="25"/>
+      <c r="C17" s="24"/>
       <c r="D17" s="15"/>
       <c r="E17" s="2"/>
-      <c r="F17" s="56"/>
-      <c r="G17" s="175"/>
+      <c r="F17" s="51"/>
+      <c r="G17" s="168"/>
       <c r="H17" s="17">
         <v>175</v>
       </c>
-      <c r="I17" s="26"/>
+      <c r="I17" s="25"/>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="162" t="s">
+      <c r="A18" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="B18" s="13">
+      <c r="B18" s="146">
         <v>43715</v>
       </c>
       <c r="C18" s="23"/>
       <c r="D18" s="15"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
-      <c r="G18" s="175"/>
+      <c r="G18" s="168"/>
       <c r="H18" s="17">
         <v>175</v>
       </c>
@@ -3060,194 +2870,192 @@
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="12"/>
-      <c r="B19" s="13"/>
+      <c r="B19" s="146"/>
       <c r="C19" s="23"/>
-      <c r="D19" s="42"/>
+      <c r="D19" s="37"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
-      <c r="G19" s="175"/>
+      <c r="G19" s="168"/>
       <c r="H19" s="17">
         <v>175</v>
       </c>
       <c r="I19" s="2"/>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="45" t="s">
+      <c r="A20" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="B20" s="7">
+      <c r="B20" s="141">
         <v>43722</v>
       </c>
-      <c r="C20" s="47"/>
+      <c r="C20" s="42"/>
       <c r="D20" s="8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E20" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="F20" s="8"/>
+      <c r="G20" s="168" t="s">
+        <v>45</v>
+      </c>
+      <c r="H20" s="45">
+        <v>175</v>
+      </c>
+      <c r="I20" s="2"/>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="43" t="s">
+        <v>12</v>
+      </c>
+      <c r="B21" s="146">
+        <v>43729</v>
+      </c>
+      <c r="C21" s="45"/>
+      <c r="D21" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="F20" s="8"/>
-      <c r="G20" s="175" t="s">
-        <v>45</v>
-      </c>
-      <c r="H20" s="50">
+      <c r="E21" s="46"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="168"/>
+      <c r="H21" s="45">
         <v>175</v>
       </c>
-      <c r="I20" s="2"/>
-    </row>
-    <row r="21" spans="1:9">
-      <c r="A21" s="48" t="s">
-        <v>12</v>
-      </c>
-      <c r="B21" s="13">
-        <v>43729</v>
-      </c>
-      <c r="C21" s="50"/>
-      <c r="D21" s="2" t="s">
+      <c r="I21" s="2"/>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="B22" s="146">
+        <v>43736</v>
+      </c>
+      <c r="C22" s="45"/>
+      <c r="D22" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="E21" s="51"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="175"/>
-      <c r="H21" s="50">
+      <c r="E22" s="46" t="s">
+        <v>66</v>
+      </c>
+      <c r="F22" s="2"/>
+      <c r="G22" s="168"/>
+      <c r="H22" s="45">
         <v>175</v>
       </c>
-      <c r="I21" s="2"/>
-    </row>
-    <row r="22" spans="1:9">
-      <c r="A22" s="48" t="s">
-        <v>14</v>
-      </c>
-      <c r="B22" s="13">
-        <v>43736</v>
-      </c>
-      <c r="C22" s="50"/>
-      <c r="D22" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="E22" s="51" t="s">
+      <c r="I22" s="2"/>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="B23" s="146">
+        <v>43743</v>
+      </c>
+      <c r="C23" s="45"/>
+      <c r="D23" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="F22" s="2"/>
-      <c r="G22" s="175"/>
-      <c r="H22" s="50">
+      <c r="E23" s="46" t="s">
+        <v>69</v>
+      </c>
+      <c r="F23" s="2"/>
+      <c r="G23" s="168"/>
+      <c r="H23" s="45">
         <v>175</v>
       </c>
-      <c r="I22" s="2"/>
-    </row>
-    <row r="23" spans="1:9">
-      <c r="A23" s="48" t="s">
-        <v>16</v>
-      </c>
-      <c r="B23" s="13">
-        <v>43743</v>
-      </c>
-      <c r="C23" s="50"/>
-      <c r="D23" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="E23" s="51" t="s">
-        <v>71</v>
-      </c>
-      <c r="F23" s="2"/>
-      <c r="G23" s="175"/>
-      <c r="H23" s="50">
+      <c r="I23" s="2"/>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B24" s="146">
+        <v>43750</v>
+      </c>
+      <c r="C24" s="52"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="46" t="s">
+        <v>72</v>
+      </c>
+      <c r="F24" s="2"/>
+      <c r="G24" s="168"/>
+      <c r="H24" s="45">
         <v>175</v>
       </c>
-      <c r="I23" s="2"/>
-    </row>
-    <row r="24" spans="1:9">
-      <c r="A24" s="162" t="s">
-        <v>18</v>
-      </c>
-      <c r="B24" s="13">
-        <v>43750</v>
-      </c>
-      <c r="C24" s="57"/>
-      <c r="D24" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="E24" s="51" t="s">
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B25" s="146">
+        <v>43757</v>
+      </c>
+      <c r="C25" s="45"/>
+      <c r="D25" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="F24" s="2"/>
-      <c r="G24" s="175"/>
-      <c r="H24" s="50">
+      <c r="E25" s="46" t="s">
+        <v>75</v>
+      </c>
+      <c r="F25" s="2"/>
+      <c r="G25" s="168"/>
+      <c r="H25" s="45">
         <v>175</v>
       </c>
     </row>
-    <row r="25" spans="1:9">
-      <c r="A25" s="162" t="s">
-        <v>20</v>
-      </c>
-      <c r="B25" s="13">
-        <v>43757</v>
-      </c>
-      <c r="C25" s="50"/>
-      <c r="D25" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="E25" s="51" t="s">
+    <row r="26" spans="1:9">
+      <c r="A26" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B26" s="146">
+        <v>43764</v>
+      </c>
+      <c r="C26" s="45"/>
+      <c r="D26" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="F25" s="2"/>
-      <c r="G25" s="175"/>
-      <c r="H25" s="50">
+      <c r="E26" s="46" t="s">
+        <v>78</v>
+      </c>
+      <c r="F26" s="2"/>
+      <c r="G26" s="168"/>
+      <c r="H26" s="45">
         <v>175</v>
       </c>
     </row>
-    <row r="26" spans="1:9">
-      <c r="A26" s="162" t="s">
-        <v>22</v>
-      </c>
-      <c r="B26" s="13">
-        <v>43764</v>
-      </c>
-      <c r="C26" s="50"/>
-      <c r="D26" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="E26" s="51" t="s">
+    <row r="27" spans="1:9">
+      <c r="A27" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" s="146">
+        <v>43770</v>
+      </c>
+      <c r="C27" s="45"/>
+      <c r="D27" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="F26" s="2"/>
-      <c r="G26" s="175"/>
-      <c r="H26" s="50">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
-      <c r="A27" s="162" t="s">
-        <v>24</v>
-      </c>
-      <c r="B27" s="13">
-        <v>43770</v>
-      </c>
-      <c r="C27" s="50"/>
-      <c r="D27" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="E27" s="51" t="s">
-        <v>80</v>
+      <c r="E27" s="46" t="s">
+        <v>78</v>
       </c>
       <c r="F27" s="2"/>
-      <c r="G27" s="175"/>
-      <c r="H27" s="50">
+      <c r="G27" s="168"/>
+      <c r="H27" s="151">
         <v>175</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="15">
       <c r="A28" s="18"/>
-      <c r="B28" s="58"/>
-      <c r="C28" s="59"/>
-      <c r="D28" s="55" t="s">
-        <v>83</v>
-      </c>
-      <c r="E28" s="54" t="s">
-        <v>84</v>
-      </c>
-      <c r="F28" s="55"/>
-      <c r="G28" s="175"/>
-      <c r="H28" s="50">
+      <c r="B28" s="148"/>
+      <c r="C28" s="54"/>
+      <c r="D28" s="50" t="s">
+        <v>81</v>
+      </c>
+      <c r="E28" s="49" t="s">
+        <v>82</v>
+      </c>
+      <c r="F28" s="50"/>
+      <c r="G28" s="168"/>
+      <c r="H28" s="152">
         <v>175</v>
       </c>
     </row>
@@ -3260,7 +3068,7 @@
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0" right="0" top="0.13888888888888901" bottom="0.13888888888888901" header="0" footer="0"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Arial,Normal"&amp;10&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Arial,Normal"&amp;10Página &amp;P</oddFooter>
@@ -3269,11 +3077,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I32"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="14.25"/>
@@ -3289,16 +3097,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15">
-      <c r="A1" s="177" t="s">
-        <v>85</v>
-      </c>
-      <c r="B1" s="177"/>
-      <c r="C1" s="177"/>
-      <c r="D1" s="177"/>
-      <c r="E1" s="177"/>
-      <c r="F1" s="177"/>
-      <c r="G1" s="177"/>
-      <c r="H1" s="177"/>
+      <c r="A1" s="169" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1" s="169"/>
+      <c r="C1" s="169"/>
+      <c r="D1" s="169"/>
+      <c r="E1" s="169"/>
+      <c r="F1" s="169"/>
+      <c r="G1" s="169"/>
+      <c r="H1" s="169"/>
     </row>
     <row r="2" spans="1:9" ht="15">
       <c r="A2" s="3" t="s">
@@ -3336,11 +3144,11 @@
         <v>29</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E3" s="10"/>
       <c r="F3" s="10"/>
-      <c r="G3" s="175" t="s">
+      <c r="G3" s="168" t="s">
         <v>11</v>
       </c>
       <c r="H3" s="11">
@@ -3357,10 +3165,10 @@
       <c r="C4" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="D4" s="60"/>
+      <c r="D4" s="55"/>
       <c r="E4" s="16"/>
       <c r="F4" s="2"/>
-      <c r="G4" s="175"/>
+      <c r="G4" s="168"/>
       <c r="H4" s="17">
         <v>140</v>
       </c>
@@ -3375,10 +3183,10 @@
       <c r="C5" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="D5" s="60"/>
+      <c r="D5" s="55"/>
       <c r="E5" s="16"/>
       <c r="F5" s="2"/>
-      <c r="G5" s="175"/>
+      <c r="G5" s="168"/>
       <c r="H5" s="17">
         <v>140</v>
       </c>
@@ -3393,10 +3201,10 @@
       <c r="C6" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="D6" s="60"/>
+      <c r="D6" s="55"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
-      <c r="G6" s="175"/>
+      <c r="G6" s="168"/>
       <c r="H6" s="17">
         <v>140</v>
       </c>
@@ -3416,7 +3224,7 @@
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
-      <c r="G7" s="175"/>
+      <c r="G7" s="168"/>
       <c r="H7" s="17">
         <v>140</v>
       </c>
@@ -3436,7 +3244,7 @@
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
-      <c r="G8" s="175"/>
+      <c r="G8" s="168"/>
       <c r="H8" s="17">
         <v>140</v>
       </c>
@@ -3456,7 +3264,7 @@
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
-      <c r="G9" s="175"/>
+      <c r="G9" s="168"/>
       <c r="H9" s="17">
         <v>140</v>
       </c>
@@ -3476,7 +3284,7 @@
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
-      <c r="G10" s="175"/>
+      <c r="G10" s="168"/>
       <c r="H10" s="17">
         <v>140</v>
       </c>
@@ -3494,7 +3302,7 @@
       <c r="D11" s="17"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
-      <c r="G11" s="175"/>
+      <c r="G11" s="168"/>
       <c r="H11" s="17">
         <v>140</v>
       </c>
@@ -3514,8 +3322,8 @@
         <v>28</v>
       </c>
       <c r="E12" s="20"/>
-      <c r="F12" s="55"/>
-      <c r="G12" s="175"/>
+      <c r="F12" s="50"/>
+      <c r="G12" s="168"/>
       <c r="H12" s="17">
         <v>140</v>
       </c>
@@ -3525,7 +3333,7 @@
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B13" s="7">
         <v>43542</v>
@@ -3534,11 +3342,11 @@
         <v>29</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E13" s="10"/>
       <c r="F13" s="10"/>
-      <c r="G13" s="175" t="s">
+      <c r="G13" s="168" t="s">
         <v>31</v>
       </c>
       <c r="H13" s="17">
@@ -3548,7 +3356,7 @@
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B14" s="13">
         <v>43544</v>
@@ -3561,7 +3369,7 @@
       </c>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
-      <c r="G14" s="175"/>
+      <c r="G14" s="168"/>
       <c r="H14" s="17">
         <v>140</v>
       </c>
@@ -3569,7 +3377,7 @@
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B15" s="13">
         <v>43551</v>
@@ -3578,11 +3386,11 @@
         <v>29</v>
       </c>
       <c r="D15" s="15" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
-      <c r="G15" s="175"/>
+      <c r="G15" s="168"/>
       <c r="H15" s="17">
         <v>140</v>
       </c>
@@ -3590,7 +3398,7 @@
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B16" s="13">
         <v>43556</v>
@@ -3599,11 +3407,11 @@
         <v>29</v>
       </c>
       <c r="D16" s="17" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
-      <c r="G16" s="175"/>
+      <c r="G16" s="168"/>
       <c r="H16" s="17">
         <v>140</v>
       </c>
@@ -3611,7 +3419,7 @@
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="12" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B17" s="13">
         <v>43558</v>
@@ -3620,13 +3428,13 @@
         <v>29</v>
       </c>
       <c r="D17" s="15" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>34</v>
       </c>
       <c r="F17" s="2"/>
-      <c r="G17" s="175"/>
+      <c r="G17" s="168"/>
       <c r="H17" s="17">
         <v>140</v>
       </c>
@@ -3634,7 +3442,7 @@
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="12" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B18" s="13">
         <v>43563</v>
@@ -3649,38 +3457,38 @@
         <v>36</v>
       </c>
       <c r="F18" s="2"/>
-      <c r="G18" s="175"/>
+      <c r="G18" s="168"/>
       <c r="H18" s="17">
         <v>140</v>
       </c>
       <c r="I18" s="2"/>
     </row>
-    <row r="19" spans="1:9" s="27" customFormat="1">
-      <c r="A19" s="61" t="s">
-        <v>61</v>
-      </c>
-      <c r="B19" s="62">
+    <row r="19" spans="1:9" s="26" customFormat="1">
+      <c r="A19" s="56" t="s">
+        <v>59</v>
+      </c>
+      <c r="B19" s="57">
         <v>43565</v>
       </c>
-      <c r="C19" s="25" t="s">
-        <v>90</v>
+      <c r="C19" s="24" t="s">
+        <v>88</v>
       </c>
       <c r="D19" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="E19" s="56" t="s">
+        <v>89</v>
+      </c>
+      <c r="E19" s="51" t="s">
         <v>40</v>
       </c>
-      <c r="F19" s="56"/>
-      <c r="G19" s="175"/>
-      <c r="H19" s="63">
-        <v>140</v>
-      </c>
-      <c r="I19" s="26"/>
+      <c r="F19" s="51"/>
+      <c r="G19" s="168"/>
+      <c r="H19" s="58">
+        <v>140</v>
+      </c>
+      <c r="I19" s="25"/>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="12" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B20" s="13">
         <v>43570</v>
@@ -3689,13 +3497,13 @@
         <v>29</v>
       </c>
       <c r="D20" s="15" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>40</v>
       </c>
       <c r="F20" s="2"/>
-      <c r="G20" s="175"/>
+      <c r="G20" s="168"/>
       <c r="H20" s="17">
         <v>140</v>
       </c>
@@ -3703,7 +3511,7 @@
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="12" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B21" s="13">
         <v>43577</v>
@@ -3712,36 +3520,36 @@
         <v>29</v>
       </c>
       <c r="D21" s="15" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>42</v>
       </c>
       <c r="F21" s="2"/>
-      <c r="G21" s="175"/>
+      <c r="G21" s="168"/>
       <c r="H21" s="17">
         <v>140</v>
       </c>
       <c r="I21" s="2"/>
     </row>
     <row r="22" spans="1:9" ht="15">
-      <c r="A22" s="151" t="s">
-        <v>69</v>
-      </c>
-      <c r="B22" s="152">
+      <c r="A22" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="B22" s="114">
         <v>43584</v>
       </c>
-      <c r="C22" s="153" t="s">
+      <c r="C22" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="D22" s="154" t="s">
-        <v>93</v>
+      <c r="D22" s="15" t="s">
+        <v>91</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="F22" s="155"/>
-      <c r="G22" s="178"/>
+        <v>88</v>
+      </c>
+      <c r="F22" s="117"/>
+      <c r="G22" s="170"/>
       <c r="H22" s="17">
         <v>140</v>
       </c>
@@ -3750,209 +3558,209 @@
       </c>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="156" t="s">
+      <c r="A23" s="130" t="s">
+        <v>70</v>
+      </c>
+      <c r="B23" s="131">
+        <v>43591</v>
+      </c>
+      <c r="C23" s="132" t="s">
+        <v>29</v>
+      </c>
+      <c r="D23" s="133" t="s">
+        <v>92</v>
+      </c>
+      <c r="E23" s="134" t="s">
+        <v>61</v>
+      </c>
+      <c r="F23" s="135"/>
+      <c r="G23" s="170" t="s">
+        <v>45</v>
+      </c>
+      <c r="H23" s="17">
+        <v>140</v>
+      </c>
+      <c r="I23" s="2"/>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="B24" s="114">
+        <v>43598</v>
+      </c>
+      <c r="C24" s="23"/>
+      <c r="D24" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="E24" s="117"/>
+      <c r="F24" s="117"/>
+      <c r="G24" s="171"/>
+      <c r="H24" s="17">
+        <v>140</v>
+      </c>
+      <c r="I24" s="2"/>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="B25" s="114">
+        <v>43600</v>
+      </c>
+      <c r="C25" s="23"/>
+      <c r="D25" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="E25" s="117" t="s">
+        <v>66</v>
+      </c>
+      <c r="F25" s="117"/>
+      <c r="G25" s="171"/>
+      <c r="H25" s="17">
+        <v>140</v>
+      </c>
+      <c r="I25" s="2"/>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="B26" s="114">
+        <v>43605</v>
+      </c>
+      <c r="C26" s="23"/>
+      <c r="D26" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="E26" s="117" t="s">
+        <v>69</v>
+      </c>
+      <c r="F26" s="117"/>
+      <c r="G26" s="171"/>
+      <c r="H26" s="17">
+        <v>140</v>
+      </c>
+      <c r="I26" s="2"/>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="B27" s="114">
+        <v>43607</v>
+      </c>
+      <c r="C27" s="23"/>
+      <c r="D27" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="E27" s="117" t="s">
         <v>72</v>
       </c>
-      <c r="B23" s="157">
-        <v>43591</v>
-      </c>
-      <c r="C23" s="158" t="s">
-        <v>29</v>
-      </c>
-      <c r="D23" s="159" t="s">
+      <c r="F27" s="117"/>
+      <c r="G27" s="171"/>
+      <c r="H27" s="17">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="E23" s="160" t="s">
-        <v>63</v>
-      </c>
-      <c r="F23" s="161"/>
-      <c r="G23" s="178" t="s">
-        <v>45</v>
-      </c>
-      <c r="H23" s="17">
-        <v>140</v>
-      </c>
-      <c r="I23" s="2"/>
-    </row>
-    <row r="24" spans="1:9">
-      <c r="A24" s="162" t="s">
+      <c r="B28" s="114">
+        <v>43612</v>
+      </c>
+      <c r="C28" s="23"/>
+      <c r="D28" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="E28" s="117" t="s">
         <v>75</v>
       </c>
-      <c r="B24" s="119">
-        <v>43598</v>
-      </c>
-      <c r="C24" s="163"/>
-      <c r="D24" s="164" t="s">
-        <v>62</v>
-      </c>
-      <c r="E24" s="165"/>
-      <c r="F24" s="122"/>
-      <c r="G24" s="179"/>
-      <c r="H24" s="17">
-        <v>140</v>
-      </c>
-      <c r="I24" s="2"/>
-    </row>
-    <row r="25" spans="1:9">
-      <c r="A25" s="162" t="s">
+      <c r="F28" s="117"/>
+      <c r="G28" s="171"/>
+      <c r="H28" s="17">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="B29" s="114">
+        <v>43614</v>
+      </c>
+      <c r="C29" s="23"/>
+      <c r="D29" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="E29" s="117" t="s">
         <v>78</v>
       </c>
-      <c r="B25" s="119">
-        <v>43600</v>
-      </c>
-      <c r="C25" s="163"/>
-      <c r="D25" s="166" t="s">
-        <v>65</v>
-      </c>
-      <c r="E25" s="122" t="s">
-        <v>68</v>
-      </c>
-      <c r="F25" s="122"/>
-      <c r="G25" s="179"/>
-      <c r="H25" s="17">
-        <v>140</v>
-      </c>
-      <c r="I25" s="2"/>
-    </row>
-    <row r="26" spans="1:9">
-      <c r="A26" s="162" t="s">
+      <c r="F29" s="117"/>
+      <c r="G29" s="171"/>
+      <c r="H29" s="17">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="B30" s="114">
+        <v>43619</v>
+      </c>
+      <c r="C30" s="23"/>
+      <c r="D30" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="E30" s="117" t="s">
+        <v>78</v>
+      </c>
+      <c r="F30" s="117"/>
+      <c r="G30" s="171"/>
+      <c r="H30" s="17">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="B31" s="114">
+        <v>43621</v>
+      </c>
+      <c r="C31" s="23"/>
+      <c r="D31" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="E31" s="117" t="s">
+        <v>98</v>
+      </c>
+      <c r="F31" s="117"/>
+      <c r="G31" s="171"/>
+      <c r="H31" s="17">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="15">
+      <c r="A32" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="B32" s="136"/>
+      <c r="C32" s="137"/>
+      <c r="D32" s="37" t="s">
         <v>81</v>
       </c>
-      <c r="B26" s="119">
-        <v>43605</v>
-      </c>
-      <c r="C26" s="163"/>
-      <c r="D26" s="166" t="s">
-        <v>67</v>
-      </c>
-      <c r="E26" s="122" t="s">
-        <v>71</v>
-      </c>
-      <c r="F26" s="122"/>
-      <c r="G26" s="179"/>
-      <c r="H26" s="17">
-        <v>140</v>
-      </c>
-      <c r="I26" s="2"/>
-    </row>
-    <row r="27" spans="1:9">
-      <c r="A27" s="162" t="s">
-        <v>95</v>
-      </c>
-      <c r="B27" s="119">
-        <v>43607</v>
-      </c>
-      <c r="C27" s="163"/>
-      <c r="D27" s="166" t="s">
-        <v>70</v>
-      </c>
-      <c r="E27" s="122" t="s">
-        <v>74</v>
-      </c>
-      <c r="F27" s="122"/>
-      <c r="G27" s="179"/>
-      <c r="H27" s="17">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
-      <c r="A28" s="162" t="s">
-        <v>96</v>
-      </c>
-      <c r="B28" s="119">
-        <v>43612</v>
-      </c>
-      <c r="C28" s="163"/>
-      <c r="D28" s="166" t="s">
-        <v>73</v>
-      </c>
-      <c r="E28" s="122" t="s">
-        <v>77</v>
-      </c>
-      <c r="F28" s="122"/>
-      <c r="G28" s="179"/>
-      <c r="H28" s="17">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
-      <c r="A29" s="162" t="s">
-        <v>97</v>
-      </c>
-      <c r="B29" s="119">
-        <v>43614</v>
-      </c>
-      <c r="C29" s="163"/>
-      <c r="D29" s="166" t="s">
-        <v>76</v>
-      </c>
-      <c r="E29" s="122" t="s">
-        <v>80</v>
-      </c>
-      <c r="F29" s="122"/>
-      <c r="G29" s="179"/>
-      <c r="H29" s="17">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
-      <c r="A30" s="162" t="s">
-        <v>98</v>
-      </c>
-      <c r="B30" s="119">
-        <v>43619</v>
-      </c>
-      <c r="C30" s="163"/>
-      <c r="D30" s="166" t="s">
-        <v>79</v>
-      </c>
-      <c r="E30" s="122" t="s">
-        <v>80</v>
-      </c>
-      <c r="F30" s="122"/>
-      <c r="G30" s="179"/>
-      <c r="H30" s="17">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
-      <c r="A31" s="162" t="s">
-        <v>99</v>
-      </c>
-      <c r="B31" s="119">
-        <v>43621</v>
-      </c>
-      <c r="C31" s="163"/>
-      <c r="D31" s="166" t="s">
-        <v>82</v>
-      </c>
-      <c r="E31" s="122" t="s">
+      <c r="E32" s="138" t="s">
         <v>100</v>
       </c>
-      <c r="F31" s="122"/>
-      <c r="G31" s="179"/>
-      <c r="H31" s="17">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" ht="15">
-      <c r="A32" s="167" t="s">
-        <v>101</v>
-      </c>
-      <c r="B32" s="168"/>
-      <c r="C32" s="169"/>
-      <c r="D32" s="170" t="s">
-        <v>83</v>
-      </c>
-      <c r="E32" s="171" t="s">
-        <v>102</v>
-      </c>
-      <c r="F32" s="172"/>
-      <c r="G32" s="180"/>
-      <c r="H32" s="42">
-        <v>140</v>
-      </c>
-      <c r="I32" s="43"/>
+      <c r="F32" s="50"/>
+      <c r="G32" s="172"/>
+      <c r="H32" s="37">
+        <v>140</v>
+      </c>
+      <c r="I32" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -3972,7 +3780,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J32"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0"/>
@@ -3991,16 +3799,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12.6" customHeight="1">
-      <c r="A1" s="177" t="s">
-        <v>103</v>
-      </c>
-      <c r="B1" s="177"/>
-      <c r="C1" s="177"/>
-      <c r="D1" s="177"/>
-      <c r="E1" s="177"/>
-      <c r="F1" s="177"/>
-      <c r="G1" s="177"/>
-      <c r="H1" s="177"/>
+      <c r="A1" s="169" t="s">
+        <v>101</v>
+      </c>
+      <c r="B1" s="169"/>
+      <c r="C1" s="169"/>
+      <c r="D1" s="169"/>
+      <c r="E1" s="169"/>
+      <c r="F1" s="169"/>
+      <c r="G1" s="169"/>
+      <c r="H1" s="169"/>
     </row>
     <row r="2" spans="1:10" ht="15">
       <c r="A2" s="3" t="s">
@@ -4028,240 +3836,240 @@
       </c>
     </row>
     <row r="3" spans="1:10" ht="15">
-      <c r="A3" s="67" t="s">
+      <c r="A3" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="68">
+      <c r="B3" s="63">
         <v>43360</v>
       </c>
-      <c r="C3" s="69" t="s">
-        <v>104</v>
+      <c r="C3" s="64" t="s">
+        <v>102</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E3" s="10"/>
       <c r="F3" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="G3" s="175" t="s">
+        <v>104</v>
+      </c>
+      <c r="G3" s="168" t="s">
         <v>11</v>
       </c>
       <c r="H3" s="11">
         <v>140</v>
       </c>
-      <c r="J3" s="70"/>
+      <c r="J3" s="65"/>
     </row>
     <row r="4" spans="1:10" ht="15">
-      <c r="A4" s="71" t="s">
+      <c r="A4" s="66" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="72">
+      <c r="B4" s="67">
         <v>43362</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>104</v>
-      </c>
-      <c r="D4" s="60"/>
+        <v>102</v>
+      </c>
+      <c r="D4" s="55"/>
       <c r="E4" s="16"/>
       <c r="F4" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="G4" s="175"/>
+        <v>105</v>
+      </c>
+      <c r="G4" s="168"/>
       <c r="H4" s="17">
         <v>140</v>
       </c>
-      <c r="J4" s="70"/>
+      <c r="J4" s="65"/>
     </row>
     <row r="5" spans="1:10" ht="15">
-      <c r="A5" s="71" t="s">
+      <c r="A5" s="66" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="72">
+      <c r="B5" s="67">
         <v>43364</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>104</v>
-      </c>
-      <c r="D5" s="60"/>
+        <v>102</v>
+      </c>
+      <c r="D5" s="55"/>
       <c r="E5" s="16"/>
       <c r="F5" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="G5" s="175"/>
+        <v>106</v>
+      </c>
+      <c r="G5" s="168"/>
       <c r="H5" s="17">
         <v>140</v>
       </c>
-      <c r="J5" s="70"/>
+      <c r="J5" s="65"/>
     </row>
     <row r="6" spans="1:10" ht="15">
-      <c r="A6" s="71" t="s">
+      <c r="A6" s="66" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="72">
+      <c r="B6" s="67">
         <v>43369</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>104</v>
-      </c>
-      <c r="D6" s="60" t="s">
+        <v>102</v>
+      </c>
+      <c r="D6" s="55" t="s">
         <v>19</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="G6" s="175"/>
+        <v>107</v>
+      </c>
+      <c r="G6" s="168"/>
       <c r="H6" s="17">
         <v>140</v>
       </c>
-      <c r="J6" s="70"/>
+      <c r="J6" s="65"/>
     </row>
     <row r="7" spans="1:10" ht="15">
-      <c r="A7" s="71" t="s">
+      <c r="A7" s="66" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="72">
+      <c r="B7" s="67">
         <v>43371</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D7" s="17" t="s">
         <v>21</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="G7" s="175"/>
+        <v>108</v>
+      </c>
+      <c r="G7" s="168"/>
       <c r="H7" s="17">
         <v>140</v>
       </c>
-      <c r="J7" s="70"/>
+      <c r="J7" s="65"/>
     </row>
     <row r="8" spans="1:10" ht="15">
-      <c r="A8" s="71" t="s">
+      <c r="A8" s="66" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="72">
+      <c r="B8" s="67">
         <v>43374</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D8" s="17" t="s">
         <v>23</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="G8" s="175"/>
+        <v>109</v>
+      </c>
+      <c r="G8" s="168"/>
       <c r="H8" s="17">
         <v>140</v>
       </c>
-      <c r="J8" s="70"/>
+      <c r="J8" s="65"/>
     </row>
     <row r="9" spans="1:10" ht="15">
-      <c r="A9" s="71" t="s">
+      <c r="A9" s="66" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="72">
+      <c r="B9" s="67">
         <v>43376</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D9" s="17" t="s">
         <v>25</v>
       </c>
       <c r="F9" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="G9" s="168"/>
+      <c r="H9" s="17">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="15">
+      <c r="A10" s="66" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="67">
+        <v>43381</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="D10" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="F10" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="G9" s="175"/>
-      <c r="H9" s="17">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="15">
-      <c r="A10" s="71" t="s">
-        <v>24</v>
-      </c>
-      <c r="B10" s="72">
-        <v>43381</v>
-      </c>
-      <c r="C10" s="16" t="s">
-        <v>104</v>
-      </c>
-      <c r="D10" s="17" t="s">
-        <v>113</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="G10" s="175"/>
+      <c r="G10" s="168"/>
       <c r="H10" s="17">
         <v>140</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="15">
-      <c r="A11" s="71" t="s">
+      <c r="A11" s="66" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="72">
+      <c r="B11" s="67">
         <v>43383</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D11" s="15" t="s">
         <v>28</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="G11" s="175"/>
+        <v>113</v>
+      </c>
+      <c r="G11" s="168"/>
       <c r="H11" s="17">
         <v>140</v>
       </c>
       <c r="I11" s="2"/>
     </row>
     <row r="12" spans="1:10" ht="15">
-      <c r="A12" s="73" t="s">
+      <c r="A12" s="68" t="s">
         <v>27</v>
       </c>
-      <c r="B12" s="72">
+      <c r="B12" s="67">
         <v>43388</v>
       </c>
       <c r="C12" s="20" t="s">
-        <v>104</v>
-      </c>
-      <c r="D12" s="74"/>
+        <v>102</v>
+      </c>
+      <c r="D12" s="69"/>
       <c r="E12" s="20"/>
-      <c r="F12" s="55" t="s">
-        <v>116</v>
-      </c>
-      <c r="G12" s="175"/>
+      <c r="F12" s="50" t="s">
+        <v>114</v>
+      </c>
+      <c r="G12" s="168"/>
       <c r="H12" s="17">
         <v>140</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="15">
-      <c r="A13" s="75" t="s">
-        <v>50</v>
-      </c>
-      <c r="B13" s="76">
+      <c r="A13" s="70" t="s">
+        <v>49</v>
+      </c>
+      <c r="B13" s="71">
         <v>43390</v>
       </c>
-      <c r="C13" s="69" t="s">
-        <v>104</v>
+      <c r="C13" s="64" t="s">
+        <v>102</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E13" s="10"/>
       <c r="F13" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="G13" s="175" t="s">
+        <v>104</v>
+      </c>
+      <c r="G13" s="168" t="s">
         <v>31</v>
       </c>
       <c r="H13" s="17">
@@ -4271,22 +4079,22 @@
       <c r="J13" s="2"/>
     </row>
     <row r="14" spans="1:10" ht="15">
-      <c r="A14" s="77" t="s">
-        <v>52</v>
-      </c>
-      <c r="B14" s="78">
+      <c r="A14" s="72" t="s">
+        <v>51</v>
+      </c>
+      <c r="B14" s="73">
         <v>43395</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D14" s="17" t="s">
         <v>32</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="G14" s="175"/>
+        <v>105</v>
+      </c>
+      <c r="G14" s="168"/>
       <c r="H14" s="17">
         <v>140</v>
       </c>
@@ -4294,222 +4102,222 @@
       <c r="J14" s="2"/>
     </row>
     <row r="15" spans="1:10" ht="15">
-      <c r="A15" s="77" t="s">
-        <v>55</v>
-      </c>
-      <c r="B15" s="78">
+      <c r="A15" s="72" t="s">
+        <v>54</v>
+      </c>
+      <c r="B15" s="73">
         <v>43399</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D15" s="15" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="G15" s="175"/>
+        <v>106</v>
+      </c>
+      <c r="G15" s="168"/>
       <c r="H15" s="17">
         <v>140</v>
       </c>
       <c r="I15" s="2"/>
     </row>
     <row r="16" spans="1:10" ht="15">
-      <c r="A16" s="77" t="s">
+      <c r="A16" s="72" t="s">
+        <v>56</v>
+      </c>
+      <c r="B16" s="73">
+        <v>43404</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="D16" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="G16" s="168"/>
+      <c r="H16" s="17">
+        <v>140</v>
+      </c>
+      <c r="I16" s="2"/>
+    </row>
+    <row r="17" spans="1:10" ht="15">
+      <c r="A17" s="72" t="s">
         <v>57</v>
       </c>
-      <c r="B16" s="78">
-        <v>43404</v>
-      </c>
-      <c r="C16" s="16" t="s">
-        <v>104</v>
-      </c>
-      <c r="D16" s="17" t="s">
-        <v>118</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="G16" s="175"/>
-      <c r="H16" s="17">
-        <v>140</v>
-      </c>
-      <c r="I16" s="2"/>
-    </row>
-    <row r="17" spans="1:10" ht="15">
-      <c r="A17" s="77" t="s">
-        <v>59</v>
-      </c>
-      <c r="B17" s="78">
+      <c r="B17" s="73">
         <v>43409</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D17" s="15" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>34</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="G17" s="175"/>
+        <v>108</v>
+      </c>
+      <c r="G17" s="168"/>
       <c r="H17" s="17">
         <v>140</v>
       </c>
       <c r="I17" s="2"/>
     </row>
     <row r="18" spans="1:10" ht="15">
-      <c r="A18" s="77" t="s">
-        <v>60</v>
-      </c>
-      <c r="B18" s="78">
+      <c r="A18" s="72" t="s">
+        <v>58</v>
+      </c>
+      <c r="B18" s="73">
         <v>43413</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D18" s="15" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>36</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="G18" s="175"/>
+        <v>109</v>
+      </c>
+      <c r="G18" s="168"/>
       <c r="H18" s="17">
         <v>140</v>
       </c>
       <c r="I18" s="2"/>
     </row>
     <row r="19" spans="1:10" ht="15">
-      <c r="A19" s="77" t="s">
-        <v>61</v>
-      </c>
-      <c r="B19" s="78">
+      <c r="A19" s="72" t="s">
+        <v>59</v>
+      </c>
+      <c r="B19" s="73">
         <v>43416</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D19" s="15" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>40</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="G19" s="175"/>
+        <v>110</v>
+      </c>
+      <c r="G19" s="168"/>
       <c r="H19" s="17">
         <v>140</v>
       </c>
       <c r="I19" s="2"/>
     </row>
     <row r="20" spans="1:10" ht="15">
-      <c r="A20" s="77" t="s">
-        <v>64</v>
-      </c>
-      <c r="B20" s="78">
+      <c r="A20" s="72" t="s">
+        <v>62</v>
+      </c>
+      <c r="B20" s="73">
         <v>43423</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D20" s="15" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>42</v>
       </c>
       <c r="F20" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="G20" s="168"/>
+      <c r="H20" s="17">
+        <v>140</v>
+      </c>
+      <c r="I20" s="2"/>
+    </row>
+    <row r="21" spans="1:10" ht="15">
+      <c r="A21" s="72" t="s">
+        <v>64</v>
+      </c>
+      <c r="B21" s="73">
+        <v>43425</v>
+      </c>
+      <c r="C21" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="D21" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="G21" s="168"/>
+      <c r="H21" s="17">
+        <v>140</v>
+      </c>
+      <c r="I21" s="2"/>
+    </row>
+    <row r="22" spans="1:10" ht="15">
+      <c r="A22" s="74" t="s">
+        <v>67</v>
+      </c>
+      <c r="B22" s="73">
+        <v>43427</v>
+      </c>
+      <c r="C22" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="D22" s="37" t="s">
+        <v>119</v>
+      </c>
+      <c r="E22" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="F22" s="50" t="s">
         <v>114</v>
       </c>
-      <c r="G20" s="175"/>
-      <c r="H20" s="17">
-        <v>140</v>
-      </c>
-      <c r="I20" s="2"/>
-    </row>
-    <row r="21" spans="1:10" ht="15">
-      <c r="A21" s="77" t="s">
-        <v>66</v>
-      </c>
-      <c r="B21" s="78">
-        <v>43425</v>
-      </c>
-      <c r="C21" s="16" t="s">
-        <v>104</v>
-      </c>
-      <c r="D21" s="15" t="s">
-        <v>120</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="G21" s="175"/>
-      <c r="H21" s="17">
-        <v>140</v>
-      </c>
-      <c r="I21" s="2"/>
-    </row>
-    <row r="22" spans="1:10" ht="15">
-      <c r="A22" s="79" t="s">
-        <v>69</v>
-      </c>
-      <c r="B22" s="78">
-        <v>43427</v>
-      </c>
-      <c r="C22" s="20" t="s">
-        <v>104</v>
-      </c>
-      <c r="D22" s="42" t="s">
-        <v>121</v>
-      </c>
-      <c r="E22" s="19" t="s">
-        <v>63</v>
-      </c>
-      <c r="F22" s="55" t="s">
-        <v>116</v>
-      </c>
-      <c r="G22" s="175"/>
+      <c r="G22" s="168"/>
       <c r="H22" s="17">
         <v>140</v>
       </c>
-      <c r="I22" s="80">
+      <c r="I22" s="75">
         <v>43438</v>
       </c>
-      <c r="J22" s="81">
+      <c r="J22" s="76">
         <v>1400</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="15">
-      <c r="A23" s="67" t="s">
-        <v>72</v>
-      </c>
-      <c r="B23" s="68">
+      <c r="A23" s="62" t="s">
+        <v>70</v>
+      </c>
+      <c r="B23" s="63">
         <v>43430</v>
       </c>
       <c r="C23" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="D23" s="66" t="s">
-        <v>62</v>
+      <c r="D23" s="61" t="s">
+        <v>60</v>
       </c>
       <c r="E23" s="10"/>
       <c r="F23" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="G23" s="175" t="s">
+        <v>104</v>
+      </c>
+      <c r="G23" s="168" t="s">
         <v>45</v>
       </c>
       <c r="H23" s="17">
@@ -4518,223 +4326,223 @@
       <c r="I23" s="2"/>
     </row>
     <row r="24" spans="1:10" ht="15">
-      <c r="A24" s="71" t="s">
-        <v>75</v>
-      </c>
-      <c r="B24" s="72">
+      <c r="A24" s="66" t="s">
+        <v>73</v>
+      </c>
+      <c r="B24" s="67">
         <v>43432</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="G24" s="175"/>
+        <v>105</v>
+      </c>
+      <c r="G24" s="168"/>
       <c r="H24" s="17">
         <v>140</v>
       </c>
       <c r="I24" s="2"/>
     </row>
     <row r="25" spans="1:10" ht="15">
-      <c r="A25" s="71" t="s">
-        <v>78</v>
-      </c>
-      <c r="B25" s="72">
+      <c r="A25" s="66" t="s">
+        <v>76</v>
+      </c>
+      <c r="B25" s="67">
         <v>43434</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="G25" s="175"/>
+        <v>106</v>
+      </c>
+      <c r="G25" s="168"/>
       <c r="H25" s="17">
         <v>140</v>
       </c>
       <c r="I25" s="2"/>
     </row>
     <row r="26" spans="1:10" ht="15">
-      <c r="A26" s="71" t="s">
-        <v>81</v>
-      </c>
-      <c r="B26" s="72">
+      <c r="A26" s="66" t="s">
+        <v>79</v>
+      </c>
+      <c r="B26" s="67">
         <v>43437</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="G26" s="175"/>
+        <v>107</v>
+      </c>
+      <c r="G26" s="168"/>
       <c r="H26" s="17">
         <v>140</v>
       </c>
       <c r="I26" s="2"/>
     </row>
     <row r="27" spans="1:10" ht="15">
-      <c r="A27" s="71" t="s">
-        <v>95</v>
-      </c>
-      <c r="B27" s="72">
+      <c r="A27" s="66" t="s">
+        <v>93</v>
+      </c>
+      <c r="B27" s="67">
         <v>43439</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="G27" s="175"/>
+        <v>108</v>
+      </c>
+      <c r="G27" s="168"/>
       <c r="H27" s="17">
         <v>140</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="15">
-      <c r="A28" s="71" t="s">
-        <v>96</v>
-      </c>
-      <c r="B28" s="72">
+      <c r="A28" s="66" t="s">
+        <v>94</v>
+      </c>
+      <c r="B28" s="67">
         <v>43441</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="G28" s="175"/>
+        <v>109</v>
+      </c>
+      <c r="G28" s="168"/>
       <c r="H28" s="17">
         <v>140</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="15">
-      <c r="A29" s="71" t="s">
-        <v>97</v>
-      </c>
-      <c r="B29" s="72">
+      <c r="A29" s="66" t="s">
+        <v>95</v>
+      </c>
+      <c r="B29" s="67">
         <v>43444</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="G29" s="175"/>
+        <v>110</v>
+      </c>
+      <c r="G29" s="168"/>
       <c r="H29" s="17">
         <v>140</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="15">
-      <c r="A30" s="71" t="s">
-        <v>98</v>
-      </c>
-      <c r="B30" s="72">
+      <c r="A30" s="66" t="s">
+        <v>96</v>
+      </c>
+      <c r="B30" s="67">
         <v>43446</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="G30" s="175"/>
+        <v>112</v>
+      </c>
+      <c r="G30" s="168"/>
       <c r="H30" s="17">
         <v>140</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="15">
-      <c r="A31" s="71" t="s">
-        <v>99</v>
-      </c>
-      <c r="B31" s="72">
+      <c r="A31" s="66" t="s">
+        <v>97</v>
+      </c>
+      <c r="B31" s="67">
         <v>43448</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>83</v>
-      </c>
-      <c r="E31" s="82" t="s">
-        <v>102</v>
+        <v>81</v>
+      </c>
+      <c r="E31" s="77" t="s">
+        <v>100</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="G31" s="175"/>
+        <v>113</v>
+      </c>
+      <c r="G31" s="168"/>
       <c r="H31" s="17">
         <v>140</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="15">
-      <c r="A32" s="73" t="s">
-        <v>101</v>
-      </c>
-      <c r="B32" s="58">
+      <c r="A32" s="68" t="s">
+        <v>99</v>
+      </c>
+      <c r="B32" s="53">
         <v>43451</v>
       </c>
-      <c r="C32" s="55" t="s">
+      <c r="C32" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="D32" s="42"/>
-      <c r="E32" s="55"/>
-      <c r="F32" s="55" t="s">
-        <v>116</v>
-      </c>
-      <c r="G32" s="175"/>
-      <c r="H32" s="42">
-        <v>140</v>
-      </c>
-      <c r="I32" s="80">
+      <c r="D32" s="37"/>
+      <c r="E32" s="50"/>
+      <c r="F32" s="50" t="s">
+        <v>114</v>
+      </c>
+      <c r="G32" s="168"/>
+      <c r="H32" s="37">
+        <v>140</v>
+      </c>
+      <c r="I32" s="75">
         <v>43461</v>
       </c>
-      <c r="J32" s="81">
+      <c r="J32" s="76">
         <v>1400</v>
       </c>
     </row>
@@ -4756,7 +4564,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K38"/>
   <sheetViews>
     <sheetView zoomScale="95" zoomScaleNormal="95" workbookViewId="0"/>
@@ -4777,248 +4585,248 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="181" t="s">
-        <v>122</v>
-      </c>
-      <c r="B1" s="181"/>
-      <c r="C1" s="181"/>
-      <c r="D1" s="181"/>
-      <c r="E1" s="181"/>
-      <c r="F1" s="181"/>
-      <c r="G1" s="181"/>
-      <c r="H1" s="181"/>
+      <c r="A1" s="173" t="s">
+        <v>120</v>
+      </c>
+      <c r="B1" s="173"/>
+      <c r="C1" s="173"/>
+      <c r="D1" s="173"/>
+      <c r="E1" s="173"/>
+      <c r="F1" s="173"/>
+      <c r="G1" s="173"/>
+      <c r="H1" s="173"/>
     </row>
     <row r="2" spans="1:10" ht="15">
-      <c r="A2" s="83" t="s">
+      <c r="A2" s="78" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="44" t="s">
+      <c r="B2" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="44" t="s">
+      <c r="C2" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44" t="s">
+      <c r="D2" s="39"/>
+      <c r="E2" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="44" t="s">
-        <v>123</v>
-      </c>
-      <c r="G2" s="44" t="s">
+      <c r="F2" s="39" t="s">
+        <v>121</v>
+      </c>
+      <c r="G2" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="84"/>
+      <c r="H2" s="79"/>
     </row>
     <row r="3" spans="1:10" ht="15">
-      <c r="A3" s="67" t="s">
+      <c r="A3" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="68">
+      <c r="B3" s="63">
         <v>43312</v>
       </c>
-      <c r="C3" s="69" t="s">
+      <c r="C3" s="64" t="s">
+        <v>102</v>
+      </c>
+      <c r="D3" s="80"/>
+      <c r="E3" s="64"/>
+      <c r="F3" s="42" t="s">
         <v>104</v>
       </c>
-      <c r="D3" s="85"/>
-      <c r="E3" s="69"/>
-      <c r="F3" s="47" t="s">
+      <c r="G3" s="167" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" s="42">
+        <v>120</v>
+      </c>
+      <c r="J3" s="65"/>
+    </row>
+    <row r="4" spans="1:10" ht="15">
+      <c r="A4" s="66" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="67">
+        <v>43314</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="D4" s="55"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="45" t="s">
+        <v>105</v>
+      </c>
+      <c r="G4" s="167"/>
+      <c r="H4" s="45">
+        <v>120</v>
+      </c>
+      <c r="J4" s="65"/>
+    </row>
+    <row r="5" spans="1:10" ht="15">
+      <c r="A5" s="66" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="67">
+        <v>43319</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="D5" s="55"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="45" t="s">
         <v>106</v>
       </c>
-      <c r="G3" s="173" t="s">
-        <v>11</v>
-      </c>
-      <c r="H3" s="47">
+      <c r="G5" s="167"/>
+      <c r="H5" s="45">
         <v>120</v>
       </c>
-      <c r="J3" s="70"/>
-    </row>
-    <row r="4" spans="1:10" ht="15">
-      <c r="A4" s="71" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="72">
-        <v>43314</v>
-      </c>
-      <c r="C4" s="16" t="s">
-        <v>104</v>
-      </c>
-      <c r="D4" s="60"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="50" t="s">
+      <c r="J5" s="65"/>
+    </row>
+    <row r="6" spans="1:10" ht="15">
+      <c r="A6" s="66" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="67">
+        <v>43321</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="D6" s="55"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="45" t="s">
         <v>107</v>
       </c>
-      <c r="G4" s="173"/>
-      <c r="H4" s="50">
+      <c r="G6" s="167"/>
+      <c r="H6" s="45">
         <v>120</v>
       </c>
-      <c r="J4" s="70"/>
-    </row>
-    <row r="5" spans="1:10" ht="15">
-      <c r="A5" s="71" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="72">
-        <v>43319</v>
-      </c>
-      <c r="C5" s="16" t="s">
-        <v>104</v>
-      </c>
-      <c r="D5" s="60"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="50" t="s">
+      <c r="J6" s="65"/>
+    </row>
+    <row r="7" spans="1:10" ht="15">
+      <c r="A7" s="66" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="67">
+        <v>43326</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="D7" s="55"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="45" t="s">
         <v>108</v>
       </c>
-      <c r="G5" s="173"/>
-      <c r="H5" s="50">
+      <c r="G7" s="167"/>
+      <c r="H7" s="45">
         <v>120</v>
       </c>
-      <c r="J5" s="70"/>
-    </row>
-    <row r="6" spans="1:10" ht="15">
-      <c r="A6" s="71" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" s="72">
-        <v>43321</v>
-      </c>
-      <c r="C6" s="16" t="s">
-        <v>104</v>
-      </c>
-      <c r="D6" s="60"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="50" t="s">
+      <c r="J7" s="65"/>
+    </row>
+    <row r="8" spans="1:10" ht="15">
+      <c r="A8" s="66" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="67">
+        <v>43328</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="D8" s="55"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="45" t="s">
         <v>109</v>
       </c>
-      <c r="G6" s="173"/>
-      <c r="H6" s="50">
+      <c r="G8" s="167"/>
+      <c r="H8" s="45">
         <v>120</v>
       </c>
-      <c r="J6" s="70"/>
-    </row>
-    <row r="7" spans="1:10" ht="15">
-      <c r="A7" s="71" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" s="72">
-        <v>43326</v>
-      </c>
-      <c r="C7" s="16" t="s">
-        <v>104</v>
-      </c>
-      <c r="D7" s="60"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="50" t="s">
+      <c r="J8" s="65"/>
+    </row>
+    <row r="9" spans="1:10" ht="15">
+      <c r="A9" s="66" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="67">
+        <v>43333</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="D9" s="55"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="45" t="s">
         <v>110</v>
       </c>
-      <c r="G7" s="173"/>
-      <c r="H7" s="50">
+      <c r="G9" s="167"/>
+      <c r="H9" s="45">
         <v>120</v>
       </c>
-      <c r="J7" s="70"/>
-    </row>
-    <row r="8" spans="1:10" ht="15">
-      <c r="A8" s="71" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" s="72">
-        <v>43328</v>
-      </c>
-      <c r="C8" s="16" t="s">
-        <v>104</v>
-      </c>
-      <c r="D8" s="60"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="50" t="s">
-        <v>111</v>
-      </c>
-      <c r="G8" s="173"/>
-      <c r="H8" s="50">
+    </row>
+    <row r="10" spans="1:10" ht="15">
+      <c r="A10" s="66" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="67">
+        <v>43335</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="D10" s="55"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="45" t="s">
+        <v>112</v>
+      </c>
+      <c r="G10" s="167"/>
+      <c r="H10" s="45">
         <v>120</v>
       </c>
-      <c r="J8" s="70"/>
-    </row>
-    <row r="9" spans="1:10" ht="15">
-      <c r="A9" s="71" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" s="72">
-        <v>43333</v>
-      </c>
-      <c r="C9" s="16" t="s">
-        <v>104</v>
-      </c>
-      <c r="D9" s="60"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="50" t="s">
-        <v>112</v>
-      </c>
-      <c r="G9" s="173"/>
-      <c r="H9" s="50">
+    </row>
+    <row r="11" spans="1:10" ht="15">
+      <c r="A11" s="66" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="67">
+        <v>43340</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="D11" s="55"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="45" t="s">
+        <v>113</v>
+      </c>
+      <c r="G11" s="167"/>
+      <c r="H11" s="45">
         <v>120</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" ht="15">
-      <c r="A10" s="71" t="s">
-        <v>24</v>
-      </c>
-      <c r="B10" s="72">
-        <v>43335</v>
-      </c>
-      <c r="C10" s="16" t="s">
-        <v>104</v>
-      </c>
-      <c r="D10" s="60"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="50" t="s">
+      <c r="I11" s="2"/>
+    </row>
+    <row r="12" spans="1:10" ht="15">
+      <c r="A12" s="68" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="53">
+        <v>43342</v>
+      </c>
+      <c r="C12" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="D12" s="69"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="54" t="s">
         <v>114</v>
       </c>
-      <c r="G10" s="173"/>
-      <c r="H10" s="50">
+      <c r="G12" s="167"/>
+      <c r="H12" s="45">
         <v>120</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" ht="15">
-      <c r="A11" s="71" t="s">
-        <v>26</v>
-      </c>
-      <c r="B11" s="72">
-        <v>43340</v>
-      </c>
-      <c r="C11" s="16" t="s">
-        <v>104</v>
-      </c>
-      <c r="D11" s="60"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="50" t="s">
-        <v>115</v>
-      </c>
-      <c r="G11" s="173"/>
-      <c r="H11" s="50">
-        <v>120</v>
-      </c>
-      <c r="I11" s="2"/>
-    </row>
-    <row r="12" spans="1:10" ht="15">
-      <c r="A12" s="73" t="s">
-        <v>27</v>
-      </c>
-      <c r="B12" s="58">
-        <v>43342</v>
-      </c>
-      <c r="C12" s="20" t="s">
-        <v>104</v>
-      </c>
-      <c r="D12" s="74"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="59" t="s">
-        <v>116</v>
-      </c>
-      <c r="G12" s="173"/>
-      <c r="H12" s="50">
-        <v>120</v>
-      </c>
-      <c r="I12" s="78">
+      <c r="I12" s="73">
         <v>43356</v>
       </c>
       <c r="J12" s="2">
@@ -5026,504 +4834,504 @@
       </c>
     </row>
     <row r="13" spans="1:10" ht="15">
-      <c r="A13" s="75" t="s">
-        <v>50</v>
-      </c>
-      <c r="B13" s="76">
+      <c r="A13" s="70" t="s">
+        <v>49</v>
+      </c>
+      <c r="B13" s="71">
         <v>43347</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E13" s="10"/>
       <c r="F13" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="G13" s="173" t="s">
+        <v>104</v>
+      </c>
+      <c r="G13" s="167" t="s">
         <v>31</v>
       </c>
-      <c r="H13" s="50">
+      <c r="H13" s="45">
         <v>120</v>
       </c>
       <c r="I13" s="2"/>
     </row>
     <row r="14" spans="1:10" ht="15">
-      <c r="A14" s="77" t="s">
-        <v>52</v>
-      </c>
-      <c r="B14" s="78">
+      <c r="A14" s="72" t="s">
+        <v>51</v>
+      </c>
+      <c r="B14" s="73">
         <v>43349</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D14" s="17" t="s">
         <v>32</v>
       </c>
       <c r="F14" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="G14" s="167"/>
+      <c r="H14" s="45">
+        <v>120</v>
+      </c>
+      <c r="I14" s="2"/>
+    </row>
+    <row r="15" spans="1:10" ht="15">
+      <c r="A15" s="72" t="s">
+        <v>54</v>
+      </c>
+      <c r="B15" s="73">
+        <v>43354</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="D15" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="G15" s="167"/>
+      <c r="H15" s="45">
+        <v>120</v>
+      </c>
+      <c r="I15" s="2"/>
+    </row>
+    <row r="16" spans="1:10" ht="15">
+      <c r="A16" s="72" t="s">
+        <v>56</v>
+      </c>
+      <c r="B16" s="73">
+        <v>43356</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="D16" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="F16" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="G14" s="173"/>
-      <c r="H14" s="50">
+      <c r="G16" s="167"/>
+      <c r="H16" s="45">
         <v>120</v>
       </c>
-      <c r="I14" s="2"/>
-    </row>
-    <row r="15" spans="1:10" ht="15">
-      <c r="A15" s="77" t="s">
-        <v>55</v>
-      </c>
-      <c r="B15" s="78">
-        <v>43354</v>
-      </c>
-      <c r="C15" s="16" t="s">
-        <v>104</v>
-      </c>
-      <c r="D15" s="15" t="s">
-        <v>125</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="G15" s="173"/>
-      <c r="H15" s="50">
-        <v>120</v>
-      </c>
-      <c r="I15" s="2"/>
-    </row>
-    <row r="16" spans="1:10" ht="15">
-      <c r="A16" s="77" t="s">
+      <c r="I16" s="2"/>
+    </row>
+    <row r="17" spans="1:11" ht="15">
+      <c r="A17" s="72" t="s">
         <v>57</v>
       </c>
-      <c r="B16" s="78">
-        <v>43356</v>
-      </c>
-      <c r="C16" s="16" t="s">
-        <v>104</v>
-      </c>
-      <c r="D16" s="17" t="s">
-        <v>118</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="G16" s="173"/>
-      <c r="H16" s="50">
-        <v>120</v>
-      </c>
-      <c r="I16" s="2"/>
-    </row>
-    <row r="17" spans="1:11" ht="15">
-      <c r="A17" s="77" t="s">
-        <v>59</v>
-      </c>
-      <c r="B17" s="78">
+      <c r="B17" s="73">
         <v>43361</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D17" s="15" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>34</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="G17" s="173"/>
-      <c r="H17" s="50">
+        <v>108</v>
+      </c>
+      <c r="G17" s="167"/>
+      <c r="H17" s="45">
         <v>120</v>
       </c>
       <c r="I17" s="2"/>
     </row>
     <row r="18" spans="1:11" ht="15">
-      <c r="A18" s="77" t="s">
-        <v>60</v>
-      </c>
-      <c r="B18" s="78">
+      <c r="A18" s="72" t="s">
+        <v>58</v>
+      </c>
+      <c r="B18" s="73">
         <v>43363</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D18" s="15" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>36</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="G18" s="173"/>
-      <c r="H18" s="50">
+        <v>109</v>
+      </c>
+      <c r="G18" s="167"/>
+      <c r="H18" s="45">
         <v>120</v>
       </c>
       <c r="I18" s="2"/>
     </row>
     <row r="19" spans="1:11" ht="15">
-      <c r="A19" s="77" t="s">
-        <v>61</v>
-      </c>
-      <c r="B19" s="78">
+      <c r="A19" s="72" t="s">
+        <v>59</v>
+      </c>
+      <c r="B19" s="73">
         <v>43368</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D19" s="15" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>40</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="G19" s="173"/>
-      <c r="H19" s="50">
+        <v>110</v>
+      </c>
+      <c r="G19" s="167"/>
+      <c r="H19" s="45">
         <v>120</v>
       </c>
       <c r="I19" s="2"/>
     </row>
     <row r="20" spans="1:11" ht="15">
-      <c r="A20" s="77" t="s">
-        <v>64</v>
-      </c>
-      <c r="B20" s="78">
+      <c r="A20" s="72" t="s">
+        <v>62</v>
+      </c>
+      <c r="B20" s="73">
         <v>43370</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D20" s="15" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>42</v>
       </c>
       <c r="F20" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="G20" s="167"/>
+      <c r="H20" s="45">
+        <v>120</v>
+      </c>
+      <c r="I20" s="2"/>
+    </row>
+    <row r="21" spans="1:11" ht="15">
+      <c r="A21" s="72" t="s">
+        <v>64</v>
+      </c>
+      <c r="B21" s="73">
+        <v>43375</v>
+      </c>
+      <c r="C21" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="D21" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="G21" s="167"/>
+      <c r="H21" s="45">
+        <v>120</v>
+      </c>
+      <c r="I21" s="2"/>
+    </row>
+    <row r="22" spans="1:11" ht="15">
+      <c r="A22" s="74" t="s">
+        <v>67</v>
+      </c>
+      <c r="B22" s="67">
+        <v>43382</v>
+      </c>
+      <c r="C22" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="D22" s="37" t="s">
+        <v>125</v>
+      </c>
+      <c r="E22" s="50" t="s">
+        <v>61</v>
+      </c>
+      <c r="F22" s="50" t="s">
         <v>114</v>
       </c>
-      <c r="G20" s="173"/>
-      <c r="H20" s="50">
+      <c r="G22" s="167"/>
+      <c r="H22" s="45">
         <v>120</v>
       </c>
-      <c r="I20" s="2"/>
-    </row>
-    <row r="21" spans="1:11" ht="15">
-      <c r="A21" s="77" t="s">
-        <v>66</v>
-      </c>
-      <c r="B21" s="78">
-        <v>43375</v>
-      </c>
-      <c r="C21" s="16" t="s">
-        <v>104</v>
-      </c>
-      <c r="D21" s="17" t="s">
-        <v>120</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="G21" s="173"/>
-      <c r="H21" s="50">
-        <v>120</v>
-      </c>
-      <c r="I21" s="2"/>
-    </row>
-    <row r="22" spans="1:11" ht="15">
-      <c r="A22" s="79" t="s">
-        <v>69</v>
-      </c>
-      <c r="B22" s="72">
-        <v>43382</v>
-      </c>
-      <c r="C22" s="20" t="s">
-        <v>104</v>
-      </c>
-      <c r="D22" s="42" t="s">
-        <v>127</v>
-      </c>
-      <c r="E22" s="55" t="s">
-        <v>63</v>
-      </c>
-      <c r="F22" s="55" t="s">
-        <v>116</v>
-      </c>
-      <c r="G22" s="173"/>
-      <c r="H22" s="50">
-        <v>120</v>
-      </c>
-      <c r="I22" s="86">
+      <c r="I22" s="81">
         <v>43396</v>
       </c>
       <c r="J22" s="2">
         <v>1200</v>
       </c>
       <c r="K22" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="15">
+      <c r="A23" s="62" t="s">
+        <v>70</v>
+      </c>
+      <c r="B23" s="63">
+        <v>43384</v>
+      </c>
+      <c r="C23" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="D23" s="61" t="s">
+        <v>60</v>
+      </c>
+      <c r="E23" s="10"/>
+      <c r="F23" s="42" t="s">
+        <v>104</v>
+      </c>
+      <c r="G23" s="167" t="s">
+        <v>45</v>
+      </c>
+      <c r="H23" s="45">
+        <v>120</v>
+      </c>
+      <c r="I23" s="2"/>
+    </row>
+    <row r="24" spans="1:11" ht="15">
+      <c r="A24" s="66" t="s">
+        <v>73</v>
+      </c>
+      <c r="B24" s="67">
+        <v>43389</v>
+      </c>
+      <c r="C24" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="D24" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F24" s="45" t="s">
+        <v>105</v>
+      </c>
+      <c r="G24" s="167"/>
+      <c r="H24" s="45">
+        <v>120</v>
+      </c>
+      <c r="I24" s="2"/>
+    </row>
+    <row r="25" spans="1:11" ht="15">
+      <c r="A25" s="66" t="s">
+        <v>76</v>
+      </c>
+      <c r="B25" s="67">
+        <v>43391</v>
+      </c>
+      <c r="C25" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="D25" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F25" s="45" t="s">
+        <v>106</v>
+      </c>
+      <c r="G25" s="167"/>
+      <c r="H25" s="45">
+        <v>120</v>
+      </c>
+      <c r="I25" s="2"/>
+    </row>
+    <row r="26" spans="1:11" ht="15">
+      <c r="A26" s="66" t="s">
+        <v>79</v>
+      </c>
+      <c r="B26" s="67">
+        <v>43396</v>
+      </c>
+      <c r="C26" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="D26" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F26" s="45" t="s">
+        <v>107</v>
+      </c>
+      <c r="G26" s="167"/>
+      <c r="H26" s="45">
+        <v>120</v>
+      </c>
+      <c r="I26" s="2"/>
+    </row>
+    <row r="27" spans="1:11" ht="15">
+      <c r="A27" s="66" t="s">
+        <v>93</v>
+      </c>
+      <c r="B27" s="67">
+        <v>43398</v>
+      </c>
+      <c r="C27" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="D27" s="17" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="23" spans="1:11" ht="15">
-      <c r="A23" s="67" t="s">
-        <v>72</v>
-      </c>
-      <c r="B23" s="68">
-        <v>43384</v>
-      </c>
-      <c r="C23" s="16" t="s">
-        <v>104</v>
-      </c>
-      <c r="D23" s="66" t="s">
-        <v>62</v>
-      </c>
-      <c r="E23" s="10"/>
-      <c r="F23" s="47" t="s">
-        <v>106</v>
-      </c>
-      <c r="G23" s="173" t="s">
-        <v>45</v>
-      </c>
-      <c r="H23" s="50">
+      <c r="E27" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F27" s="45" t="s">
+        <v>108</v>
+      </c>
+      <c r="G27" s="167"/>
+      <c r="H27" s="45">
         <v>120</v>
       </c>
-      <c r="I23" s="2"/>
-    </row>
-    <row r="24" spans="1:11" ht="15">
-      <c r="A24" s="71" t="s">
-        <v>75</v>
-      </c>
-      <c r="B24" s="72">
-        <v>43389</v>
-      </c>
-      <c r="C24" s="16" t="s">
-        <v>104</v>
-      </c>
-      <c r="D24" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="F24" s="50" t="s">
-        <v>107</v>
-      </c>
-      <c r="G24" s="173"/>
-      <c r="H24" s="50">
+    </row>
+    <row r="28" spans="1:11" ht="15">
+      <c r="A28" s="66" t="s">
+        <v>94</v>
+      </c>
+      <c r="B28" s="67">
+        <v>43403</v>
+      </c>
+      <c r="C28" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="D28" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F28" s="45" t="s">
+        <v>109</v>
+      </c>
+      <c r="G28" s="167"/>
+      <c r="H28" s="45">
         <v>120</v>
       </c>
-      <c r="I24" s="2"/>
-    </row>
-    <row r="25" spans="1:11" ht="15">
-      <c r="A25" s="71" t="s">
+    </row>
+    <row r="29" spans="1:11" ht="15">
+      <c r="A29" s="66" t="s">
+        <v>95</v>
+      </c>
+      <c r="B29" s="73">
+        <v>43405</v>
+      </c>
+      <c r="C29" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="D29" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="E29" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="B25" s="72">
-        <v>43391</v>
-      </c>
-      <c r="C25" s="16" t="s">
-        <v>104</v>
-      </c>
-      <c r="D25" s="17" t="s">
-        <v>129</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="F25" s="50" t="s">
-        <v>108</v>
-      </c>
-      <c r="G25" s="173"/>
-      <c r="H25" s="50">
+      <c r="F29" s="45" t="s">
+        <v>110</v>
+      </c>
+      <c r="G29" s="167"/>
+      <c r="H29" s="45">
         <v>120</v>
       </c>
-      <c r="I25" s="2"/>
-    </row>
-    <row r="26" spans="1:11" ht="15">
-      <c r="A26" s="71" t="s">
+    </row>
+    <row r="30" spans="1:11" ht="15">
+      <c r="A30" s="66" t="s">
+        <v>96</v>
+      </c>
+      <c r="B30" s="73">
+        <v>43417</v>
+      </c>
+      <c r="C30" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="D30" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="B26" s="72">
-        <v>43396</v>
-      </c>
-      <c r="C26" s="16" t="s">
-        <v>104</v>
-      </c>
-      <c r="D26" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="F26" s="50" t="s">
-        <v>109</v>
-      </c>
-      <c r="G26" s="173"/>
-      <c r="H26" s="50">
+      <c r="E30" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F30" s="45" t="s">
+        <v>112</v>
+      </c>
+      <c r="G30" s="167"/>
+      <c r="H30" s="45">
         <v>120</v>
       </c>
-      <c r="I26" s="2"/>
-    </row>
-    <row r="27" spans="1:11" ht="15">
-      <c r="A27" s="71" t="s">
-        <v>95</v>
-      </c>
-      <c r="B27" s="72">
-        <v>43398</v>
-      </c>
-      <c r="C27" s="16" t="s">
-        <v>104</v>
-      </c>
-      <c r="D27" s="17" t="s">
+    </row>
+    <row r="31" spans="1:11" ht="15">
+      <c r="A31" s="66" t="s">
+        <v>97</v>
+      </c>
+      <c r="B31" s="73">
+        <v>43424</v>
+      </c>
+      <c r="C31" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="D31" s="82" t="s">
         <v>130</v>
       </c>
-      <c r="E27" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="F27" s="50" t="s">
-        <v>110</v>
-      </c>
-      <c r="G27" s="173"/>
-      <c r="H27" s="50">
+      <c r="E31" s="77" t="s">
+        <v>100</v>
+      </c>
+      <c r="F31" s="45" t="s">
+        <v>113</v>
+      </c>
+      <c r="G31" s="167"/>
+      <c r="H31" s="45">
         <v>120</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="15">
-      <c r="A28" s="71" t="s">
-        <v>96</v>
-      </c>
-      <c r="B28" s="72">
-        <v>43403</v>
-      </c>
-      <c r="C28" s="16" t="s">
-        <v>104</v>
-      </c>
-      <c r="D28" s="17" t="s">
+    <row r="32" spans="1:11" s="29" customFormat="1" ht="15.75">
+      <c r="A32" s="83" t="s">
+        <v>99</v>
+      </c>
+      <c r="B32" s="84">
+        <v>43426</v>
+      </c>
+      <c r="C32" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="D32" s="85" t="s">
         <v>131</v>
       </c>
-      <c r="E28" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="F28" s="50" t="s">
-        <v>111</v>
-      </c>
-      <c r="G28" s="173"/>
-      <c r="H28" s="50">
+      <c r="E32" s="86"/>
+      <c r="F32" s="87" t="s">
+        <v>114</v>
+      </c>
+      <c r="G32" s="167"/>
+      <c r="H32" s="87">
         <v>120</v>
       </c>
-    </row>
-    <row r="29" spans="1:11" ht="15">
-      <c r="A29" s="71" t="s">
-        <v>97</v>
-      </c>
-      <c r="B29" s="78">
-        <v>43405</v>
-      </c>
-      <c r="C29" s="16" t="s">
-        <v>104</v>
-      </c>
-      <c r="D29" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="F29" s="50" t="s">
-        <v>112</v>
-      </c>
-      <c r="G29" s="173"/>
-      <c r="H29" s="50">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" ht="15">
-      <c r="A30" s="71" t="s">
-        <v>98</v>
-      </c>
-      <c r="B30" s="78">
-        <v>43417</v>
-      </c>
-      <c r="C30" s="16" t="s">
-        <v>104</v>
-      </c>
-      <c r="D30" s="17" t="s">
-        <v>83</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="F30" s="50" t="s">
-        <v>114</v>
-      </c>
-      <c r="G30" s="173"/>
-      <c r="H30" s="50">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" ht="15">
-      <c r="A31" s="71" t="s">
-        <v>99</v>
-      </c>
-      <c r="B31" s="78">
-        <v>43424</v>
-      </c>
-      <c r="C31" s="16" t="s">
-        <v>104</v>
-      </c>
-      <c r="D31" s="87" t="s">
-        <v>132</v>
-      </c>
-      <c r="E31" s="82" t="s">
-        <v>102</v>
-      </c>
-      <c r="F31" s="50" t="s">
-        <v>115</v>
-      </c>
-      <c r="G31" s="173"/>
-      <c r="H31" s="50">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" s="30" customFormat="1" ht="15.75">
-      <c r="A32" s="88" t="s">
-        <v>101</v>
-      </c>
-      <c r="B32" s="89">
-        <v>43426</v>
-      </c>
-      <c r="C32" s="20" t="s">
-        <v>104</v>
-      </c>
-      <c r="D32" s="90" t="s">
-        <v>133</v>
-      </c>
-      <c r="E32" s="91"/>
-      <c r="F32" s="92" t="s">
-        <v>116</v>
-      </c>
-      <c r="G32" s="173"/>
-      <c r="H32" s="92">
-        <v>120</v>
-      </c>
-      <c r="I32" s="93">
+      <c r="I32" s="88">
         <v>43440</v>
       </c>
-      <c r="J32" s="94">
+      <c r="J32" s="89">
         <v>1200</v>
       </c>
     </row>
     <row r="33" spans="1:10" ht="15">
-      <c r="A33" s="95"/>
+      <c r="A33" s="90"/>
     </row>
     <row r="36" spans="1:10">
       <c r="J36">
@@ -5558,7 +5366,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I26"/>
   <sheetViews>
     <sheetView zoomScale="95" zoomScaleNormal="95" workbookViewId="0"/>
@@ -5577,263 +5385,263 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="181" t="s">
+      <c r="A1" s="173" t="s">
+        <v>132</v>
+      </c>
+      <c r="B1" s="173"/>
+      <c r="C1" s="173"/>
+      <c r="D1" s="173"/>
+      <c r="E1" s="173"/>
+      <c r="F1" s="173"/>
+      <c r="G1" s="173"/>
+    </row>
+    <row r="2" spans="1:9" ht="15">
+      <c r="A2" s="78" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39" t="s">
+        <v>133</v>
+      </c>
+      <c r="F2" s="39" t="s">
+        <v>121</v>
+      </c>
+      <c r="G2" s="39" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="B1" s="181"/>
-      <c r="C1" s="181"/>
-      <c r="D1" s="181"/>
-      <c r="E1" s="181"/>
-      <c r="F1" s="181"/>
-      <c r="G1" s="181"/>
-    </row>
-    <row r="2" spans="1:9" ht="15">
-      <c r="A2" s="83" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="44" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="44" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44" t="s">
-        <v>135</v>
-      </c>
-      <c r="F2" s="44" t="s">
-        <v>123</v>
-      </c>
-      <c r="G2" s="44" t="s">
-        <v>5</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>136</v>
-      </c>
     </row>
     <row r="3" spans="1:9" ht="15">
-      <c r="A3" s="75" t="s">
+      <c r="A3" s="70" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="96">
+      <c r="B3" s="91">
         <v>43274</v>
       </c>
-      <c r="C3" s="69" t="s">
-        <v>104</v>
-      </c>
-      <c r="D3" s="85"/>
-      <c r="E3" s="85"/>
+      <c r="C3" s="64" t="s">
+        <v>102</v>
+      </c>
+      <c r="D3" s="80"/>
+      <c r="E3" s="80"/>
       <c r="F3" s="10">
         <v>5</v>
       </c>
-      <c r="G3" s="173" t="s">
+      <c r="G3" s="167" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="15">
-      <c r="A4" s="77" t="s">
+      <c r="A4" s="72" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="97">
+      <c r="B4" s="92">
         <v>43281</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>104</v>
-      </c>
-      <c r="D4" s="60"/>
-      <c r="E4" s="60"/>
+        <v>102</v>
+      </c>
+      <c r="D4" s="55"/>
+      <c r="E4" s="55"/>
       <c r="F4" s="2">
         <v>5</v>
       </c>
-      <c r="G4" s="173"/>
+      <c r="G4" s="167"/>
     </row>
     <row r="5" spans="1:9" ht="15">
-      <c r="A5" s="77" t="s">
+      <c r="A5" s="72" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="97">
+      <c r="B5" s="92">
         <v>43288</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>104</v>
-      </c>
-      <c r="D5" s="60"/>
-      <c r="E5" s="60"/>
+        <v>102</v>
+      </c>
+      <c r="D5" s="55"/>
+      <c r="E5" s="55"/>
       <c r="F5" s="2">
         <v>5</v>
       </c>
-      <c r="G5" s="173"/>
+      <c r="G5" s="167"/>
     </row>
     <row r="6" spans="1:9" ht="15">
-      <c r="A6" s="77" t="s">
+      <c r="A6" s="72" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="97">
+      <c r="B6" s="92">
         <v>43295</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>104</v>
-      </c>
-      <c r="D6" s="60"/>
-      <c r="E6" s="60"/>
+        <v>102</v>
+      </c>
+      <c r="D6" s="55"/>
+      <c r="E6" s="55"/>
       <c r="F6" s="2">
         <v>5</v>
       </c>
-      <c r="G6" s="173"/>
+      <c r="G6" s="167"/>
     </row>
     <row r="7" spans="1:9" ht="15">
-      <c r="A7" s="77" t="s">
+      <c r="A7" s="72" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="98">
+      <c r="B7" s="93">
         <v>43302</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>104</v>
-      </c>
-      <c r="D7" s="99"/>
-      <c r="E7" s="99"/>
+        <v>102</v>
+      </c>
+      <c r="D7" s="94"/>
+      <c r="E7" s="94"/>
       <c r="F7" s="2">
         <v>5</v>
       </c>
-      <c r="G7" s="173"/>
+      <c r="G7" s="167"/>
     </row>
     <row r="8" spans="1:9" ht="15">
-      <c r="A8" s="77" t="s">
+      <c r="A8" s="72" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="98">
+      <c r="B8" s="93">
         <v>43309</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>104</v>
-      </c>
-      <c r="D8" s="99"/>
-      <c r="E8" s="99"/>
+        <v>102</v>
+      </c>
+      <c r="D8" s="94"/>
+      <c r="E8" s="94"/>
       <c r="F8" s="2">
         <v>5</v>
       </c>
-      <c r="G8" s="173"/>
+      <c r="G8" s="167"/>
     </row>
     <row r="9" spans="1:9" ht="15">
-      <c r="A9" s="77" t="s">
+      <c r="A9" s="72" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="98">
+      <c r="B9" s="93">
         <v>43316</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>104</v>
-      </c>
-      <c r="D9" s="99"/>
-      <c r="E9" s="99"/>
+        <v>102</v>
+      </c>
+      <c r="D9" s="94"/>
+      <c r="E9" s="94"/>
       <c r="F9" s="2">
         <v>5</v>
       </c>
-      <c r="G9" s="173"/>
+      <c r="G9" s="167"/>
       <c r="H9" s="2"/>
     </row>
     <row r="10" spans="1:9" ht="15">
-      <c r="A10" s="77" t="s">
+      <c r="A10" s="72" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="98">
+      <c r="B10" s="93">
         <v>43323</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>104</v>
-      </c>
-      <c r="D10" s="99"/>
-      <c r="E10" s="99"/>
+        <v>102</v>
+      </c>
+      <c r="D10" s="94"/>
+      <c r="E10" s="94"/>
       <c r="F10" s="2">
         <v>5</v>
       </c>
-      <c r="G10" s="173"/>
+      <c r="G10" s="167"/>
       <c r="H10" s="2"/>
     </row>
     <row r="11" spans="1:9" ht="15">
-      <c r="A11" s="100" t="s">
+      <c r="A11" s="95" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="101">
+      <c r="B11" s="96">
         <v>43330</v>
       </c>
-      <c r="C11" s="102" t="s">
+      <c r="C11" s="97" t="s">
+        <v>102</v>
+      </c>
+      <c r="D11" s="98" t="s">
+        <v>122</v>
+      </c>
+      <c r="E11" s="98"/>
+      <c r="F11" s="99" t="s">
         <v>104</v>
       </c>
-      <c r="D11" s="103" t="s">
-        <v>124</v>
-      </c>
-      <c r="E11" s="103"/>
-      <c r="F11" s="104" t="s">
+      <c r="G11" s="174" t="s">
+        <v>31</v>
+      </c>
+      <c r="H11" s="2"/>
+    </row>
+    <row r="12" spans="1:9" ht="15">
+      <c r="A12" s="100" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="101">
+        <v>43337</v>
+      </c>
+      <c r="C12" s="102" t="s">
+        <v>102</v>
+      </c>
+      <c r="D12" s="103" t="s">
+        <v>32</v>
+      </c>
+      <c r="E12" s="103"/>
+      <c r="F12" s="104" t="s">
+        <v>105</v>
+      </c>
+      <c r="G12" s="174"/>
+      <c r="H12" s="2"/>
+    </row>
+    <row r="13" spans="1:9" ht="15">
+      <c r="A13" s="100" t="s">
+        <v>49</v>
+      </c>
+      <c r="B13" s="101">
+        <v>43344</v>
+      </c>
+      <c r="C13" s="102" t="s">
+        <v>102</v>
+      </c>
+      <c r="D13" s="103" t="s">
+        <v>85</v>
+      </c>
+      <c r="E13" s="103"/>
+      <c r="F13" s="104" t="s">
         <v>106</v>
       </c>
-      <c r="G11" s="182" t="s">
-        <v>31</v>
-      </c>
-      <c r="H11" s="2"/>
-    </row>
-    <row r="12" spans="1:9" ht="15">
-      <c r="A12" s="105" t="s">
-        <v>27</v>
-      </c>
-      <c r="B12" s="106">
-        <v>43337</v>
-      </c>
-      <c r="C12" s="107" t="s">
-        <v>104</v>
-      </c>
-      <c r="D12" s="108" t="s">
-        <v>32</v>
-      </c>
-      <c r="E12" s="108"/>
-      <c r="F12" s="109" t="s">
+      <c r="G13" s="174"/>
+      <c r="H13" s="2"/>
+    </row>
+    <row r="14" spans="1:9" ht="15">
+      <c r="A14" s="100" t="s">
+        <v>51</v>
+      </c>
+      <c r="B14" s="101">
+        <v>43358</v>
+      </c>
+      <c r="C14" s="102" t="s">
+        <v>102</v>
+      </c>
+      <c r="D14" s="103" t="s">
+        <v>87</v>
+      </c>
+      <c r="E14" s="103" t="s">
+        <v>34</v>
+      </c>
+      <c r="F14" s="104" t="s">
         <v>107</v>
       </c>
-      <c r="G12" s="182"/>
-      <c r="H12" s="2"/>
-    </row>
-    <row r="13" spans="1:9" ht="15">
-      <c r="A13" s="105" t="s">
-        <v>50</v>
-      </c>
-      <c r="B13" s="106">
-        <v>43344</v>
-      </c>
-      <c r="C13" s="107" t="s">
-        <v>104</v>
-      </c>
-      <c r="D13" s="108" t="s">
-        <v>87</v>
-      </c>
-      <c r="E13" s="108"/>
-      <c r="F13" s="109" t="s">
-        <v>108</v>
-      </c>
-      <c r="G13" s="182"/>
-      <c r="H13" s="2"/>
-    </row>
-    <row r="14" spans="1:9" ht="15">
-      <c r="A14" s="105" t="s">
-        <v>52</v>
-      </c>
-      <c r="B14" s="106">
-        <v>43358</v>
-      </c>
-      <c r="C14" s="107" t="s">
-        <v>104</v>
-      </c>
-      <c r="D14" s="108" t="s">
-        <v>89</v>
-      </c>
-      <c r="E14" s="108" t="s">
-        <v>34</v>
-      </c>
-      <c r="F14" s="109" t="s">
-        <v>109</v>
-      </c>
-      <c r="G14" s="182"/>
-      <c r="H14" s="86">
+      <c r="G14" s="174"/>
+      <c r="H14" s="81">
         <v>43371</v>
       </c>
       <c r="I14" s="2">
@@ -5841,92 +5649,92 @@
       </c>
     </row>
     <row r="15" spans="1:9" ht="15">
-      <c r="A15" s="105" t="s">
-        <v>55</v>
-      </c>
-      <c r="B15" s="110">
+      <c r="A15" s="100" t="s">
+        <v>54</v>
+      </c>
+      <c r="B15" s="105">
         <v>43365</v>
       </c>
-      <c r="C15" s="107" t="s">
-        <v>104</v>
-      </c>
-      <c r="D15" s="108" t="s">
+      <c r="C15" s="102" t="s">
+        <v>102</v>
+      </c>
+      <c r="D15" s="103" t="s">
+        <v>135</v>
+      </c>
+      <c r="E15" s="103" t="s">
+        <v>36</v>
+      </c>
+      <c r="F15" s="104" t="s">
+        <v>108</v>
+      </c>
+      <c r="G15" s="174"/>
+      <c r="H15" s="2"/>
+    </row>
+    <row r="16" spans="1:9" ht="15">
+      <c r="A16" s="100" t="s">
+        <v>56</v>
+      </c>
+      <c r="B16" s="105">
+        <v>43372</v>
+      </c>
+      <c r="C16" s="102" t="s">
+        <v>102</v>
+      </c>
+      <c r="D16" s="103" t="s">
+        <v>136</v>
+      </c>
+      <c r="E16" s="103" t="s">
+        <v>40</v>
+      </c>
+      <c r="F16" s="104" t="s">
+        <v>109</v>
+      </c>
+      <c r="G16" s="174"/>
+      <c r="H16" s="2"/>
+    </row>
+    <row r="17" spans="1:9" ht="15">
+      <c r="A17" s="100" t="s">
+        <v>57</v>
+      </c>
+      <c r="B17" s="105">
+        <v>43386</v>
+      </c>
+      <c r="C17" s="102" t="s">
+        <v>102</v>
+      </c>
+      <c r="D17" s="103" t="s">
         <v>137</v>
       </c>
-      <c r="E15" s="108" t="s">
-        <v>36</v>
-      </c>
-      <c r="F15" s="109" t="s">
+      <c r="E17" s="103" t="s">
+        <v>40</v>
+      </c>
+      <c r="F17" s="104" t="s">
         <v>110</v>
       </c>
-      <c r="G15" s="182"/>
-      <c r="H15" s="2"/>
-    </row>
-    <row r="16" spans="1:9" ht="15">
-      <c r="A16" s="105" t="s">
-        <v>57</v>
-      </c>
-      <c r="B16" s="110">
-        <v>43372</v>
-      </c>
-      <c r="C16" s="107" t="s">
-        <v>104</v>
-      </c>
-      <c r="D16" s="108" t="s">
+      <c r="G17" s="174"/>
+      <c r="H17" s="2"/>
+    </row>
+    <row r="18" spans="1:9" ht="15">
+      <c r="A18" s="106" t="s">
+        <v>58</v>
+      </c>
+      <c r="B18" s="107">
+        <v>43393</v>
+      </c>
+      <c r="C18" s="108" t="s">
+        <v>102</v>
+      </c>
+      <c r="D18" s="59" t="s">
         <v>138</v>
       </c>
-      <c r="E16" s="108" t="s">
-        <v>40</v>
-      </c>
-      <c r="F16" s="109" t="s">
-        <v>111</v>
-      </c>
-      <c r="G16" s="182"/>
-      <c r="H16" s="2"/>
-    </row>
-    <row r="17" spans="1:9" ht="15">
-      <c r="A17" s="105" t="s">
-        <v>59</v>
-      </c>
-      <c r="B17" s="110">
-        <v>43386</v>
-      </c>
-      <c r="C17" s="107" t="s">
-        <v>104</v>
-      </c>
-      <c r="D17" s="108" t="s">
+      <c r="E18" s="59" t="s">
         <v>139</v>
       </c>
-      <c r="E17" s="108" t="s">
-        <v>40</v>
-      </c>
-      <c r="F17" s="109" t="s">
+      <c r="F18" s="60" t="s">
         <v>112</v>
       </c>
-      <c r="G17" s="182"/>
-      <c r="H17" s="2"/>
-    </row>
-    <row r="18" spans="1:9" ht="15">
-      <c r="A18" s="111" t="s">
-        <v>60</v>
-      </c>
-      <c r="B18" s="112">
-        <v>43393</v>
-      </c>
-      <c r="C18" s="113" t="s">
-        <v>104</v>
-      </c>
-      <c r="D18" s="64" t="s">
-        <v>140</v>
-      </c>
-      <c r="E18" s="64" t="s">
-        <v>141</v>
-      </c>
-      <c r="F18" s="65" t="s">
-        <v>114</v>
-      </c>
-      <c r="G18" s="182"/>
-      <c r="H18" s="86">
+      <c r="G18" s="174"/>
+      <c r="H18" s="81">
         <v>43409</v>
       </c>
       <c r="I18" s="2">
@@ -5934,179 +5742,179 @@
       </c>
     </row>
     <row r="19" spans="1:9" ht="15">
-      <c r="A19" s="77" t="s">
-        <v>61</v>
-      </c>
-      <c r="B19" s="114">
+      <c r="A19" s="72" t="s">
+        <v>59</v>
+      </c>
+      <c r="B19" s="109">
         <v>43414</v>
       </c>
-      <c r="C19" s="115" t="s">
+      <c r="C19" s="110" t="s">
         <v>29</v>
       </c>
-      <c r="D19" s="66" t="s">
+      <c r="D19" s="61" t="s">
+        <v>60</v>
+      </c>
+      <c r="E19" s="61"/>
+      <c r="F19" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="G19" s="167" t="s">
+        <v>45</v>
+      </c>
+      <c r="H19" s="2"/>
+    </row>
+    <row r="20" spans="1:9" ht="15">
+      <c r="A20" s="72" t="s">
         <v>62</v>
       </c>
-      <c r="E19" s="66"/>
-      <c r="F19" s="2" t="s">
+      <c r="B20" s="109">
+        <v>43421</v>
+      </c>
+      <c r="C20" s="110" t="s">
+        <v>29</v>
+      </c>
+      <c r="D20" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="E20" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="G20" s="167"/>
+      <c r="H20" s="2"/>
+    </row>
+    <row r="21" spans="1:9" ht="15">
+      <c r="A21" s="72" t="s">
+        <v>64</v>
+      </c>
+      <c r="B21" s="109">
+        <v>43428</v>
+      </c>
+      <c r="C21" s="110" t="s">
+        <v>29</v>
+      </c>
+      <c r="D21" s="17" t="s">
+        <v>141</v>
+      </c>
+      <c r="E21" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="F21" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="G19" s="173" t="s">
-        <v>45</v>
-      </c>
-      <c r="H19" s="2"/>
-    </row>
-    <row r="20" spans="1:9" ht="15">
-      <c r="A20" s="77" t="s">
-        <v>64</v>
-      </c>
-      <c r="B20" s="114">
-        <v>43421</v>
-      </c>
-      <c r="C20" s="115" t="s">
+      <c r="G21" s="167"/>
+      <c r="H21" s="2"/>
+    </row>
+    <row r="22" spans="1:9" ht="15">
+      <c r="A22" s="72" t="s">
+        <v>67</v>
+      </c>
+      <c r="B22" s="109">
+        <v>43435</v>
+      </c>
+      <c r="C22" s="110" t="s">
         <v>29</v>
       </c>
-      <c r="D20" s="17" t="s">
+      <c r="D22" s="17" t="s">
         <v>142</v>
       </c>
-      <c r="E20" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="F20" s="2" t="s">
+      <c r="E22" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="F22" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="G20" s="173"/>
-      <c r="H20" s="2"/>
-    </row>
-    <row r="21" spans="1:9" ht="15">
-      <c r="A21" s="77" t="s">
-        <v>66</v>
-      </c>
-      <c r="B21" s="114">
-        <v>43428</v>
-      </c>
-      <c r="C21" s="115" t="s">
-        <v>29</v>
-      </c>
-      <c r="D21" s="17" t="s">
-        <v>143</v>
-      </c>
-      <c r="E21" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="G21" s="173"/>
-      <c r="H21" s="2"/>
-    </row>
-    <row r="22" spans="1:9" ht="15">
-      <c r="A22" s="77" t="s">
-        <v>69</v>
-      </c>
-      <c r="B22" s="114">
-        <v>43435</v>
-      </c>
-      <c r="C22" s="115" t="s">
-        <v>29</v>
-      </c>
-      <c r="D22" s="17" t="s">
-        <v>144</v>
-      </c>
-      <c r="E22" s="17" t="s">
-        <v>145</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="G22" s="173"/>
-      <c r="H22" s="80">
+      <c r="G22" s="167"/>
+      <c r="H22" s="75">
         <v>43448</v>
       </c>
-      <c r="I22" s="81">
+      <c r="I22" s="76">
         <v>600</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="15">
-      <c r="A23" s="77" t="s">
-        <v>72</v>
-      </c>
-      <c r="B23" s="116">
+      <c r="A23" s="72" t="s">
+        <v>70</v>
+      </c>
+      <c r="B23" s="111">
         <v>43442</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E23" s="17" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="G23" s="173"/>
+        <v>108</v>
+      </c>
+      <c r="G23" s="167"/>
       <c r="H23" s="2"/>
     </row>
     <row r="24" spans="1:9" ht="15">
-      <c r="A24" s="77" t="s">
-        <v>75</v>
-      </c>
-      <c r="B24" s="116">
+      <c r="A24" s="72" t="s">
+        <v>73</v>
+      </c>
+      <c r="B24" s="111">
         <v>43449</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E24" s="17" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="G24" s="173"/>
+        <v>109</v>
+      </c>
+      <c r="G24" s="167"/>
       <c r="H24" s="2"/>
     </row>
     <row r="25" spans="1:9" ht="15">
-      <c r="A25" s="77" t="s">
-        <v>78</v>
-      </c>
-      <c r="B25" s="116">
+      <c r="A25" s="72" t="s">
+        <v>76</v>
+      </c>
+      <c r="B25" s="111">
         <v>43477</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="17" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E25" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="G25" s="167"/>
+    </row>
+    <row r="26" spans="1:9" ht="15">
+      <c r="A26" s="74" t="s">
+        <v>79</v>
+      </c>
+      <c r="B26" s="112">
+        <v>43484</v>
+      </c>
+      <c r="C26" s="50"/>
+      <c r="D26" s="37" t="s">
+        <v>148</v>
+      </c>
+      <c r="E26" s="37" t="s">
         <v>100</v>
       </c>
-      <c r="F25" s="2" t="s">
+      <c r="F26" s="50" t="s">
         <v>112</v>
       </c>
-      <c r="G25" s="173"/>
-    </row>
-    <row r="26" spans="1:9" ht="15">
-      <c r="A26" s="79" t="s">
-        <v>81</v>
-      </c>
-      <c r="B26" s="117">
-        <v>43484</v>
-      </c>
-      <c r="C26" s="55"/>
-      <c r="D26" s="42" t="s">
-        <v>150</v>
-      </c>
-      <c r="E26" s="42" t="s">
-        <v>102</v>
-      </c>
-      <c r="F26" s="55" t="s">
-        <v>114</v>
-      </c>
-      <c r="G26" s="173"/>
+      <c r="G26" s="167"/>
       <c r="I26" s="2">
         <v>600</v>
       </c>
@@ -6131,7 +5939,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K30"/>
   <sheetViews>
     <sheetView zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
@@ -6154,614 +5962,614 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="183" t="s">
-        <v>151</v>
-      </c>
-      <c r="B1" s="183"/>
-      <c r="C1" s="183"/>
-      <c r="D1" s="183"/>
-      <c r="E1" s="183"/>
-      <c r="F1" s="183"/>
-      <c r="G1" s="183"/>
-      <c r="H1" s="183"/>
+      <c r="A1" s="175" t="s">
+        <v>149</v>
+      </c>
+      <c r="B1" s="175"/>
+      <c r="C1" s="175"/>
+      <c r="D1" s="175"/>
+      <c r="E1" s="175"/>
+      <c r="F1" s="175"/>
+      <c r="G1" s="175"/>
+      <c r="H1" s="175"/>
     </row>
     <row r="2" spans="1:11" ht="15">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="44" t="s">
+      <c r="B2" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="44" t="s">
+      <c r="C2" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44" t="s">
-        <v>135</v>
-      </c>
-      <c r="F2" s="44" t="s">
-        <v>123</v>
-      </c>
-      <c r="G2" s="44" t="s">
+      <c r="D2" s="39"/>
+      <c r="E2" s="39" t="s">
+        <v>133</v>
+      </c>
+      <c r="F2" s="39" t="s">
+        <v>121</v>
+      </c>
+      <c r="G2" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="44" t="s">
-        <v>152</v>
+      <c r="H2" s="39" t="s">
+        <v>150</v>
       </c>
       <c r="I2" s="16"/>
     </row>
     <row r="3" spans="1:11" ht="15">
-      <c r="A3" s="95" t="s">
+      <c r="A3" s="90" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="95"/>
+      <c r="B3" s="90"/>
       <c r="C3" s="16" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D3" s="16"/>
       <c r="E3" s="16"/>
       <c r="F3" s="2">
         <v>5</v>
       </c>
-      <c r="G3" s="183" t="s">
-        <v>153</v>
-      </c>
-      <c r="J3" s="184" t="s">
-        <v>154</v>
-      </c>
-      <c r="K3" s="184"/>
+      <c r="G3" s="175" t="s">
+        <v>151</v>
+      </c>
+      <c r="J3" s="176" t="s">
+        <v>152</v>
+      </c>
+      <c r="K3" s="176"/>
     </row>
     <row r="4" spans="1:11" ht="15">
-      <c r="A4" s="95" t="s">
+      <c r="A4" s="90" t="s">
         <v>12</v>
       </c>
       <c r="B4" s="16"/>
       <c r="C4" s="16" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D4" s="16"/>
       <c r="E4" s="16"/>
       <c r="F4" s="2">
         <v>5</v>
       </c>
-      <c r="G4" s="183"/>
+      <c r="G4" s="175"/>
       <c r="J4" t="s">
-        <v>155</v>
-      </c>
-      <c r="K4" s="70">
+        <v>153</v>
+      </c>
+      <c r="K4" s="65">
         <f>140/8</f>
         <v>17.5</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="15">
-      <c r="A5" s="95" t="s">
+      <c r="A5" s="90" t="s">
         <v>14</v>
       </c>
       <c r="B5" s="16"/>
       <c r="C5" s="16" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D5" s="16"/>
       <c r="E5" s="16"/>
       <c r="F5" s="2">
         <v>5</v>
       </c>
-      <c r="G5" s="183"/>
+      <c r="G5" s="175"/>
       <c r="J5" t="s">
-        <v>156</v>
-      </c>
-      <c r="K5" s="70">
+        <v>154</v>
+      </c>
+      <c r="K5" s="65">
         <f>K4</f>
         <v>17.5</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="15">
-      <c r="A6" s="95" t="s">
+      <c r="A6" s="90" t="s">
         <v>16</v>
       </c>
       <c r="B6" s="16"/>
       <c r="C6" s="16" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D6" s="16"/>
       <c r="E6" s="16"/>
       <c r="F6" s="2">
         <v>5</v>
       </c>
-      <c r="G6" s="183"/>
+      <c r="G6" s="175"/>
       <c r="J6" t="s">
-        <v>157</v>
-      </c>
-      <c r="K6" s="70">
+        <v>155</v>
+      </c>
+      <c r="K6" s="65">
         <f>K4*2</f>
         <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="15">
-      <c r="A7" s="67" t="s">
+      <c r="A7" s="62" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="69"/>
-      <c r="C7" s="69" t="s">
-        <v>104</v>
-      </c>
-      <c r="D7" s="69"/>
-      <c r="E7" s="69"/>
+      <c r="B7" s="64"/>
+      <c r="C7" s="64" t="s">
+        <v>102</v>
+      </c>
+      <c r="D7" s="64"/>
+      <c r="E7" s="64"/>
       <c r="F7" s="10">
         <v>5</v>
       </c>
-      <c r="G7" s="175" t="s">
+      <c r="G7" s="168" t="s">
         <v>11</v>
       </c>
       <c r="J7" t="s">
-        <v>158</v>
-      </c>
-      <c r="K7" s="70">
+        <v>156</v>
+      </c>
+      <c r="K7" s="65">
         <f>K4*3</f>
         <v>52.5</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="15">
-      <c r="A8" s="71" t="s">
+      <c r="A8" s="66" t="s">
         <v>20</v>
       </c>
       <c r="B8" s="16"/>
       <c r="C8" s="16" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D8" s="16"/>
       <c r="E8" s="16"/>
       <c r="F8" s="2">
         <v>5</v>
       </c>
-      <c r="G8" s="175"/>
+      <c r="G8" s="168"/>
       <c r="J8" t="s">
-        <v>159</v>
-      </c>
-      <c r="K8" s="70">
+        <v>157</v>
+      </c>
+      <c r="K8" s="65">
         <f>K4*4</f>
         <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="15">
-      <c r="A9" s="71" t="s">
+      <c r="A9" s="66" t="s">
         <v>22</v>
       </c>
       <c r="B9" s="16"/>
       <c r="C9" s="16" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D9" s="16"/>
       <c r="E9" s="16"/>
       <c r="F9" s="2">
         <v>5</v>
       </c>
-      <c r="G9" s="175"/>
+      <c r="G9" s="168"/>
       <c r="J9" t="s">
-        <v>160</v>
-      </c>
-      <c r="K9" s="70">
+        <v>158</v>
+      </c>
+      <c r="K9" s="65">
         <f>K4*5</f>
         <v>87.5</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="15">
-      <c r="A10" s="71" t="s">
+      <c r="A10" s="66" t="s">
         <v>24</v>
       </c>
       <c r="B10" s="16"/>
       <c r="C10" s="16" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D10" s="16"/>
       <c r="E10" s="16"/>
       <c r="F10" s="2">
         <v>5</v>
       </c>
-      <c r="G10" s="175"/>
+      <c r="G10" s="168"/>
       <c r="J10" t="s">
-        <v>161</v>
-      </c>
-      <c r="K10" s="70">
+        <v>159</v>
+      </c>
+      <c r="K10" s="65">
         <f>K4*6</f>
         <v>105</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="15">
-      <c r="A11" s="71" t="s">
+      <c r="A11" s="66" t="s">
         <v>26</v>
       </c>
       <c r="B11" s="16"/>
       <c r="C11" s="16" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D11" s="16"/>
       <c r="E11" s="16"/>
       <c r="F11" s="2">
         <v>5</v>
       </c>
-      <c r="G11" s="175"/>
+      <c r="G11" s="168"/>
       <c r="J11" t="s">
-        <v>162</v>
-      </c>
-      <c r="K11" s="70">
+        <v>160</v>
+      </c>
+      <c r="K11" s="65">
         <f>K4*7</f>
         <v>122.5</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="15">
-      <c r="A12" s="71" t="s">
+      <c r="A12" s="66" t="s">
         <v>27</v>
       </c>
       <c r="B12" s="16"/>
       <c r="C12" s="16" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D12" s="16"/>
       <c r="E12" s="16"/>
       <c r="F12" s="2">
         <v>5</v>
       </c>
-      <c r="G12" s="175"/>
+      <c r="G12" s="168"/>
       <c r="J12" t="s">
-        <v>163</v>
-      </c>
-      <c r="K12" s="70">
+        <v>161</v>
+      </c>
+      <c r="K12" s="65">
         <f>K4*8</f>
         <v>140</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="15">
-      <c r="A13" s="71" t="s">
-        <v>50</v>
+      <c r="A13" s="66" t="s">
+        <v>49</v>
       </c>
       <c r="B13" s="16"/>
       <c r="C13" s="16" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D13" s="16"/>
       <c r="E13" s="16"/>
       <c r="F13" s="2">
         <v>5</v>
       </c>
-      <c r="G13" s="175"/>
+      <c r="G13" s="168"/>
     </row>
     <row r="14" spans="1:11" ht="15">
-      <c r="A14" s="73" t="s">
-        <v>52</v>
+      <c r="A14" s="68" t="s">
+        <v>51</v>
       </c>
       <c r="B14" s="20"/>
       <c r="C14" s="20" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
-      <c r="F14" s="55">
+      <c r="F14" s="50">
         <v>5</v>
       </c>
-      <c r="G14" s="175"/>
+      <c r="G14" s="168"/>
     </row>
     <row r="15" spans="1:11" ht="15">
-      <c r="A15" s="67" t="s">
-        <v>55</v>
-      </c>
-      <c r="B15" s="69"/>
-      <c r="C15" s="69" t="s">
-        <v>104</v>
-      </c>
-      <c r="D15" s="69"/>
-      <c r="E15" s="69"/>
+      <c r="A15" s="62" t="s">
+        <v>54</v>
+      </c>
+      <c r="B15" s="64"/>
+      <c r="C15" s="64" t="s">
+        <v>102</v>
+      </c>
+      <c r="D15" s="64"/>
+      <c r="E15" s="64"/>
       <c r="F15" s="10">
         <v>1</v>
       </c>
-      <c r="G15" s="175" t="s">
+      <c r="G15" s="168" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="15">
-      <c r="A16" s="71" t="s">
-        <v>57</v>
-      </c>
-      <c r="B16" s="72">
+      <c r="A16" s="66" t="s">
+        <v>56</v>
+      </c>
+      <c r="B16" s="67">
         <v>43261</v>
       </c>
       <c r="C16" s="16" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D16" s="16"/>
       <c r="E16" s="16"/>
       <c r="F16" s="2">
         <v>2</v>
       </c>
-      <c r="G16" s="175"/>
+      <c r="G16" s="168"/>
     </row>
     <row r="17" spans="1:10" ht="15">
-      <c r="A17" s="71" t="s">
-        <v>59</v>
-      </c>
-      <c r="B17" s="72">
+      <c r="A17" s="66" t="s">
+        <v>57</v>
+      </c>
+      <c r="B17" s="67">
         <v>43268</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D17" s="16"/>
       <c r="E17" s="16"/>
       <c r="F17" s="2">
         <v>3</v>
       </c>
-      <c r="G17" s="175"/>
+      <c r="G17" s="168"/>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
     </row>
     <row r="18" spans="1:10" ht="15">
-      <c r="A18" s="71" t="s">
-        <v>60</v>
-      </c>
-      <c r="B18" s="72">
+      <c r="A18" s="66" t="s">
+        <v>58</v>
+      </c>
+      <c r="B18" s="67">
         <v>43275</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D18" s="16"/>
       <c r="E18" s="16"/>
       <c r="F18" s="2">
         <v>4</v>
       </c>
-      <c r="G18" s="175"/>
+      <c r="G18" s="168"/>
     </row>
     <row r="19" spans="1:10" ht="15">
-      <c r="A19" s="77" t="s">
-        <v>61</v>
-      </c>
-      <c r="B19" s="78">
+      <c r="A19" s="72" t="s">
+        <v>59</v>
+      </c>
+      <c r="B19" s="73">
         <v>43282</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F19" s="2">
         <v>5</v>
       </c>
-      <c r="G19" s="175"/>
+      <c r="G19" s="168"/>
     </row>
     <row r="20" spans="1:10" ht="15">
-      <c r="A20" s="77" t="s">
-        <v>64</v>
-      </c>
-      <c r="B20" s="78">
+      <c r="A20" s="72" t="s">
+        <v>62</v>
+      </c>
+      <c r="B20" s="73">
         <v>43289</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F20" s="2">
         <v>6</v>
       </c>
-      <c r="G20" s="175"/>
+      <c r="G20" s="168"/>
     </row>
     <row r="21" spans="1:10" ht="15">
-      <c r="A21" s="77" t="s">
-        <v>66</v>
-      </c>
-      <c r="B21" s="78">
+      <c r="A21" s="72" t="s">
+        <v>64</v>
+      </c>
+      <c r="B21" s="73">
         <v>43296</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F21" s="2">
         <v>7</v>
       </c>
-      <c r="G21" s="175"/>
+      <c r="G21" s="168"/>
     </row>
     <row r="22" spans="1:10" ht="15">
-      <c r="A22" s="79" t="s">
-        <v>69</v>
-      </c>
-      <c r="B22" s="118">
+      <c r="A22" s="74" t="s">
+        <v>67</v>
+      </c>
+      <c r="B22" s="113">
         <v>43303</v>
       </c>
       <c r="C22" s="20" t="s">
-        <v>104</v>
-      </c>
-      <c r="D22" s="55" t="s">
-        <v>166</v>
-      </c>
-      <c r="E22" s="55"/>
-      <c r="F22" s="55">
+        <v>102</v>
+      </c>
+      <c r="D22" s="50" t="s">
+        <v>164</v>
+      </c>
+      <c r="E22" s="50"/>
+      <c r="F22" s="50">
         <v>8</v>
       </c>
-      <c r="G22" s="175"/>
+      <c r="G22" s="168"/>
     </row>
     <row r="23" spans="1:10" ht="15">
-      <c r="A23" s="75" t="s">
-        <v>72</v>
-      </c>
-      <c r="B23" s="68">
+      <c r="A23" s="70" t="s">
+        <v>70</v>
+      </c>
+      <c r="B23" s="63">
         <v>43310</v>
       </c>
-      <c r="C23" s="69" t="s">
-        <v>104</v>
+      <c r="C23" s="64" t="s">
+        <v>102</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E23" s="10"/>
       <c r="F23" s="10">
         <v>1</v>
       </c>
-      <c r="G23" s="175" t="s">
+      <c r="G23" s="168" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="15">
-      <c r="A24" s="77" t="s">
-        <v>75</v>
-      </c>
-      <c r="B24" s="72">
+      <c r="A24" s="72" t="s">
+        <v>73</v>
+      </c>
+      <c r="B24" s="67">
         <v>43317</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F24" s="2">
         <v>2</v>
       </c>
-      <c r="G24" s="175"/>
+      <c r="G24" s="168"/>
     </row>
     <row r="25" spans="1:10" ht="15">
-      <c r="A25" s="77" t="s">
-        <v>78</v>
-      </c>
-      <c r="B25" s="72">
+      <c r="A25" s="72" t="s">
+        <v>76</v>
+      </c>
+      <c r="B25" s="67">
         <v>43331</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F25" s="2">
         <v>3</v>
       </c>
-      <c r="G25" s="175"/>
+      <c r="G25" s="168"/>
     </row>
     <row r="26" spans="1:10" ht="15">
-      <c r="A26" s="77" t="s">
-        <v>81</v>
-      </c>
-      <c r="B26" s="72">
+      <c r="A26" s="72" t="s">
+        <v>79</v>
+      </c>
+      <c r="B26" s="67">
         <v>43338</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F26" s="2">
         <v>4</v>
       </c>
-      <c r="G26" s="175"/>
+      <c r="G26" s="168"/>
       <c r="H26" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="15">
-      <c r="A27" s="77" t="s">
-        <v>95</v>
-      </c>
-      <c r="B27" s="78">
+      <c r="A27" s="72" t="s">
+        <v>93</v>
+      </c>
+      <c r="B27" s="73">
         <v>43345</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F27" s="2">
         <v>5</v>
       </c>
-      <c r="G27" s="175"/>
+      <c r="G27" s="168"/>
     </row>
     <row r="28" spans="1:10" ht="15">
-      <c r="A28" s="77" t="s">
-        <v>96</v>
-      </c>
-      <c r="B28" s="78">
+      <c r="A28" s="72" t="s">
+        <v>94</v>
+      </c>
+      <c r="B28" s="73">
         <v>43359</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F28" s="2">
         <v>6</v>
       </c>
-      <c r="G28" s="175"/>
+      <c r="G28" s="168"/>
     </row>
     <row r="29" spans="1:10" ht="15">
-      <c r="A29" s="77" t="s">
-        <v>97</v>
-      </c>
-      <c r="B29" s="78">
+      <c r="A29" s="72" t="s">
+        <v>95</v>
+      </c>
+      <c r="B29" s="73">
         <v>43373</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F29" s="2">
         <v>7</v>
       </c>
-      <c r="G29" s="175"/>
+      <c r="G29" s="168"/>
     </row>
     <row r="30" spans="1:10" ht="15">
-      <c r="A30" s="79" t="s">
-        <v>98</v>
-      </c>
-      <c r="B30" s="118">
+      <c r="A30" s="74" t="s">
+        <v>96</v>
+      </c>
+      <c r="B30" s="113">
         <v>43387</v>
       </c>
       <c r="C30" s="20" t="s">
-        <v>104</v>
-      </c>
-      <c r="D30" s="55" t="s">
-        <v>170</v>
-      </c>
-      <c r="E30" s="55" t="s">
-        <v>90</v>
-      </c>
-      <c r="F30" s="55">
+        <v>102</v>
+      </c>
+      <c r="D30" s="50" t="s">
+        <v>168</v>
+      </c>
+      <c r="E30" s="50" t="s">
+        <v>88</v>
+      </c>
+      <c r="F30" s="50">
         <v>8</v>
       </c>
-      <c r="G30" s="175"/>
-      <c r="H30" s="86">
+      <c r="G30" s="168"/>
+      <c r="H30" s="81">
         <v>43396</v>
       </c>
       <c r="I30" s="16">
         <v>600</v>
       </c>
       <c r="J30" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
   </sheetData>

--- a/Cronograma aulas/Aulas v2.xlsx
+++ b/Cronograma aulas/Aulas v2.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21901"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JAVA SEG QUA\Documents\github\aulas-3way\Cronograma aulas\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33FBCD79-A96F-42F0-AB0F-B69BAEC16C36}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="t7_seg_e_qua" sheetId="1" r:id="rId1"/>
@@ -15,17 +21,17 @@
     <sheet name="t2_Sábado" sheetId="6" r:id="rId6"/>
     <sheet name="t1_Domingo_(finalizada)" sheetId="7" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="114210"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="D15" authorId="0">
+    <comment ref="D15" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000001000000}">
       <text>
         <r>
           <rPr>
@@ -43,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="731" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="732" uniqueCount="171">
   <si>
     <t>Segunda e Quarta – sala 04 (senha javaweb)</t>
   </si>
@@ -593,11 +599,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="[$R$-416]\ #,##0.00;[Red]\-[$R$-416]\ #,##0.00"/>
     <numFmt numFmtId="165" formatCode="m/d/yy"/>
-    <numFmt numFmtId="168" formatCode="dd/mm/yy;@"/>
+    <numFmt numFmtId="166" formatCode="dd/mm/yy;@"/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -1378,34 +1384,34 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="8" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="8" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="8" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="8" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1444,7 +1450,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1565,6 +1571,14 @@
       <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1585,7 +1599,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1026" name="shapetype_202" hidden="1"/>
+        <xdr:cNvPr id="1026" name="shapetype_202" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noSelect="1" noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -1617,7 +1637,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1659,7 +1679,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1691,9 +1711,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1725,6 +1763,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1900,11 +1956,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H32"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="14.25"/>
@@ -2214,7 +2270,9 @@
       <c r="B16" s="140">
         <v>43703</v>
       </c>
-      <c r="C16" s="23"/>
+      <c r="C16" s="23" t="s">
+        <v>29</v>
+      </c>
       <c r="D16" s="15" t="s">
         <v>33</v>
       </c>
@@ -2483,8 +2541,8 @@
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D20" r:id="rId1" display="http://www.universidadejava.com.br/materiais/jpa-exemplo-crud/"/>
-    <hyperlink ref="D22" r:id="rId2" display="http://www.universidadejava.com.br/materiais/jpa-exemplo-crud/"/>
+    <hyperlink ref="D20" r:id="rId1" display="http://www.universidadejava.com.br/materiais/jpa-exemplo-crud/" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="D22" r:id="rId2" display="http://www.universidadejava.com.br/materiais/jpa-exemplo-crud/" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0" right="0" top="0.13888888888888901" bottom="0.13888888888888901" header="0" footer="0"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>
@@ -2496,11 +2554,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I28"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="14.25"/>
@@ -3077,7 +3135,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:I32"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
@@ -3780,7 +3838,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:J32"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0"/>
@@ -4564,7 +4622,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:K38"/>
   <sheetViews>
     <sheetView zoomScale="95" zoomScaleNormal="95" workbookViewId="0"/>
@@ -5366,7 +5424,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:I26"/>
   <sheetViews>
     <sheetView zoomScale="95" zoomScaleNormal="95" workbookViewId="0"/>
@@ -5939,7 +5997,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:K30"/>
   <sheetViews>
     <sheetView zoomScale="95" zoomScaleNormal="95" workbookViewId="0">

--- a/Cronograma aulas/Aulas v2.xlsx
+++ b/Cronograma aulas/Aulas v2.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21901"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JAVA SEG QUA\Documents\github\aulas-3way\Cronograma aulas\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33FBCD79-A96F-42F0-AB0F-B69BAEC16C36}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" tabRatio="489"/>
   </bookViews>
   <sheets>
     <sheet name="t7_seg_e_qua" sheetId="1" r:id="rId1"/>
@@ -21,17 +15,17 @@
     <sheet name="t2_Sábado" sheetId="6" r:id="rId6"/>
     <sheet name="t1_Domingo_(finalizada)" sheetId="7" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="114210"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="D15" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000001000000}">
+    <comment ref="D15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -49,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="732" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="727" uniqueCount="171">
   <si>
     <t>Segunda e Quarta – sala 04 (senha javaweb)</t>
   </si>
@@ -150,9 +144,6 @@
     <t>JDBC</t>
   </si>
   <si>
-    <t>Github – HTML, CSS, JS – Servlet, JSP/HTML simples</t>
-  </si>
-  <si>
     <t>Servlet-jsp-v1</t>
   </si>
   <si>
@@ -183,25 +174,6 @@
     <t>Crud com JPA     http://www.universidadejava.com.br/materiais/jpa-exemplo-crud/</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="52"/>
-        <rFont val="Liberation Sans1"/>
-      </rPr>
-      <t xml:space="preserve">Jsp-servlet-crud </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color indexed="52"/>
-        <rFont val="Liberation Sans1"/>
-      </rPr>
-      <t>(com JPA)</t>
-    </r>
-  </si>
-  <si>
     <t>Frameworks</t>
   </si>
   <si>
@@ -311,9 +283,6 @@
   </si>
   <si>
     <t xml:space="preserve"> facelets template header footer (css na aula para ajustar footer)</t>
-  </si>
-  <si>
-    <t>Jpa-jsf-4 /// Jpa-jsf-v5</t>
   </si>
   <si>
     <t>Seg Qua</t>
@@ -595,11 +564,20 @@
   <si>
     <t>Git/Github - 1º CRUD com JPA (até exercício TestarPersistenceXml)</t>
   </si>
+  <si>
+    <t>HTML, CSS, JS - Github</t>
+  </si>
+  <si>
+    <t>Github -Redirecionar, JSP, JSTL c:forEach Git/Github</t>
+  </si>
+  <si>
+    <t>Criar DAO - implementar DAO em cima do exercicio Cliente</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="[$R$-416]\ #,##0.00;[Red]\-[$R$-416]\ #,##0.00"/>
     <numFmt numFmtId="165" formatCode="m/d/yy"/>
@@ -751,12 +729,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="14"/>
-        <bgColor indexed="34"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor indexed="23"/>
         <bgColor indexed="34"/>
       </patternFill>
@@ -771,6 +743,12 @@
       <patternFill patternType="solid">
         <fgColor indexed="26"/>
         <bgColor indexed="26"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="14"/>
+        <bgColor indexed="34"/>
       </patternFill>
     </fill>
   </fills>
@@ -996,7 +974,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="21" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="177">
+  <cellXfs count="172">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1083,22 +1061,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1111,7 +1077,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1120,7 +1086,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1145,9 +1111,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1166,10 +1129,10 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1202,10 +1165,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="11" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="11" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1241,10 +1204,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="15" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="15" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1260,40 +1223,40 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="1" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="1" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="17" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1326,9 +1289,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1351,9 +1311,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1399,40 +1356,10 @@
     <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="8" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="166" fontId="8" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1441,22 +1368,16 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1466,15 +1387,57 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1487,13 +1450,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1571,14 +1534,6 @@
       <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -1599,13 +1554,7 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1026" name="shapetype_202" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002040000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="1026" name="shapetype_202" hidden="1"/>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noSelect="1" noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -1637,7 +1586,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1679,7 +1628,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1711,27 +1660,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1763,24 +1694,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1956,11 +1869,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="B18" sqref="B18:C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="14.25"/>
@@ -1975,34 +1888,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="167" t="s">
+      <c r="A1" s="162" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="167"/>
-      <c r="C1" s="167"/>
-      <c r="D1" s="167"/>
-      <c r="E1" s="167"/>
-      <c r="F1" s="167"/>
-      <c r="G1" s="167"/>
+      <c r="B1" s="162"/>
+      <c r="C1" s="162"/>
+      <c r="D1" s="162"/>
+      <c r="E1" s="162"/>
+      <c r="F1" s="162"/>
+      <c r="G1" s="162"/>
     </row>
     <row r="2" spans="1:8" ht="15">
-      <c r="A2" s="78" t="s">
+      <c r="A2" s="73" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="121" t="s">
+      <c r="B2" s="115" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="121" t="s">
+      <c r="C2" s="115" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="121"/>
-      <c r="E2" s="121" t="s">
+      <c r="D2" s="115"/>
+      <c r="E2" s="115" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="121" t="s">
+      <c r="F2" s="115" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="79" t="s">
+      <c r="G2" s="74" t="s">
         <v>6</v>
       </c>
       <c r="H2" s="2" t="s">
@@ -2010,182 +1923,182 @@
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="122" t="s">
+      <c r="A3" s="116" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="139">
+      <c r="B3" s="132">
         <v>43647</v>
       </c>
-      <c r="C3" s="123" t="s">
+      <c r="C3" s="117" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="124" t="s">
+      <c r="D3" s="118" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="162"/>
-      <c r="F3" s="167" t="s">
+      <c r="E3" s="142"/>
+      <c r="F3" s="162" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="153">
+      <c r="G3" s="11">
         <v>140</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="15">
-      <c r="A4" s="125" t="s">
+      <c r="A4" s="119" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="140">
+      <c r="B4" s="133">
         <v>43649</v>
       </c>
-      <c r="C4" s="115" t="s">
+      <c r="C4" s="110" t="s">
         <v>9</v>
       </c>
       <c r="D4" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="116"/>
-      <c r="F4" s="167"/>
-      <c r="G4" s="154">
+      <c r="E4" s="111"/>
+      <c r="F4" s="162"/>
+      <c r="G4" s="17">
         <v>140</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="15">
-      <c r="A5" s="125" t="s">
+      <c r="A5" s="119" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="140">
+      <c r="B5" s="133">
         <v>43654</v>
       </c>
-      <c r="C5" s="115" t="s">
+      <c r="C5" s="110" t="s">
         <v>9</v>
       </c>
       <c r="D5" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="116"/>
-      <c r="F5" s="167"/>
-      <c r="G5" s="154">
+      <c r="E5" s="111"/>
+      <c r="F5" s="162"/>
+      <c r="G5" s="17">
         <v>140</v>
       </c>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="125" t="s">
+      <c r="A6" s="119" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="140">
+      <c r="B6" s="133">
         <v>43656</v>
       </c>
-      <c r="C6" s="115" t="s">
+      <c r="C6" s="110" t="s">
         <v>9</v>
       </c>
       <c r="D6" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="117"/>
-      <c r="F6" s="167"/>
-      <c r="G6" s="154">
+      <c r="E6" s="112"/>
+      <c r="F6" s="162"/>
+      <c r="G6" s="17">
         <v>140</v>
       </c>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="125" t="s">
+      <c r="A7" s="119" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="140">
+      <c r="B7" s="133">
         <v>43661</v>
       </c>
-      <c r="C7" s="115" t="s">
+      <c r="C7" s="110" t="s">
         <v>9</v>
       </c>
       <c r="D7" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="117"/>
-      <c r="F7" s="167"/>
-      <c r="G7" s="154">
+      <c r="E7" s="112"/>
+      <c r="F7" s="162"/>
+      <c r="G7" s="17">
         <v>140</v>
       </c>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="125" t="s">
+      <c r="A8" s="119" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="140">
+      <c r="B8" s="133">
         <v>43668</v>
       </c>
-      <c r="C8" s="115" t="s">
+      <c r="C8" s="110" t="s">
         <v>9</v>
       </c>
       <c r="D8" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="E8" s="117"/>
-      <c r="F8" s="167"/>
-      <c r="G8" s="154">
+      <c r="E8" s="112"/>
+      <c r="F8" s="162"/>
+      <c r="G8" s="17">
         <v>140</v>
       </c>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="125" t="s">
+      <c r="A9" s="119" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="140">
+      <c r="B9" s="133">
         <v>43670</v>
       </c>
-      <c r="C9" s="115" t="s">
+      <c r="C9" s="110" t="s">
         <v>9</v>
       </c>
       <c r="D9" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="E9" s="117"/>
-      <c r="F9" s="167"/>
-      <c r="G9" s="154">
+      <c r="E9" s="112"/>
+      <c r="F9" s="162"/>
+      <c r="G9" s="17">
         <v>140</v>
       </c>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="125" t="s">
+      <c r="A10" s="119" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="140">
+      <c r="B10" s="133">
         <v>43675</v>
       </c>
-      <c r="C10" s="115" t="s">
+      <c r="C10" s="110" t="s">
         <v>9</v>
       </c>
       <c r="D10" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="E10" s="117"/>
-      <c r="F10" s="167"/>
-      <c r="G10" s="154">
+      <c r="E10" s="112"/>
+      <c r="F10" s="162"/>
+      <c r="G10" s="17">
         <v>140</v>
       </c>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="125" t="s">
+      <c r="A11" s="119" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="140">
+      <c r="B11" s="133">
         <v>43677</v>
       </c>
-      <c r="C11" s="115" t="s">
+      <c r="C11" s="110" t="s">
         <v>9</v>
       </c>
       <c r="D11" s="17"/>
-      <c r="E11" s="117"/>
-      <c r="F11" s="167"/>
-      <c r="G11" s="154">
+      <c r="E11" s="112"/>
+      <c r="F11" s="162"/>
+      <c r="G11" s="17">
         <v>140</v>
       </c>
       <c r="H11" s="2"/>
     </row>
     <row r="12" spans="1:8" ht="15">
-      <c r="A12" s="126" t="s">
+      <c r="A12" s="120" t="s">
         <v>27</v>
       </c>
-      <c r="B12" s="140">
+      <c r="B12" s="133">
         <v>43682</v>
       </c>
       <c r="C12" s="19" t="s">
@@ -2195,17 +2108,17 @@
         <v>28</v>
       </c>
       <c r="E12" s="20"/>
-      <c r="F12" s="167"/>
-      <c r="G12" s="154">
+      <c r="F12" s="162"/>
+      <c r="G12" s="17">
         <v>140</v>
       </c>
       <c r="H12" s="21"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="127" t="s">
+      <c r="A13" s="121" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="141">
+      <c r="B13" s="134">
         <v>43684</v>
       </c>
       <c r="C13" s="22" t="s">
@@ -2214,20 +2127,20 @@
       <c r="D13" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="E13" s="163"/>
-      <c r="F13" s="167" t="s">
+      <c r="E13" s="10"/>
+      <c r="F13" s="162" t="s">
         <v>31</v>
       </c>
-      <c r="G13" s="154">
+      <c r="G13" s="17">
         <v>140</v>
       </c>
       <c r="H13" s="2"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="125" t="s">
+      <c r="A14" s="119" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="140">
+      <c r="B14" s="133">
         <v>43691</v>
       </c>
       <c r="C14" s="23" t="s">
@@ -2236,18 +2149,18 @@
       <c r="D14" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="E14" s="117"/>
-      <c r="F14" s="167"/>
-      <c r="G14" s="154">
+      <c r="E14" s="112"/>
+      <c r="F14" s="162"/>
+      <c r="G14" s="17">
         <v>140</v>
       </c>
       <c r="H14" s="2"/>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="125" t="s">
+      <c r="A15" s="119" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="140">
+      <c r="B15" s="133">
         <v>43698</v>
       </c>
       <c r="C15" s="23" t="s">
@@ -2256,296 +2169,283 @@
       <c r="D15" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="E15" s="117"/>
-      <c r="F15" s="167"/>
-      <c r="G15" s="154">
+      <c r="E15" s="112"/>
+      <c r="F15" s="162"/>
+      <c r="G15" s="17">
         <v>140</v>
       </c>
       <c r="H15" s="2"/>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="125" t="s">
+      <c r="A16" s="119" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="140">
+      <c r="B16" s="133">
         <v>43703</v>
       </c>
       <c r="C16" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="D16" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="E16" s="117" t="s">
-        <v>34</v>
-      </c>
-      <c r="F16" s="167"/>
-      <c r="G16" s="154">
+      <c r="D16" s="17" t="s">
+        <v>168</v>
+      </c>
+      <c r="E16" s="112"/>
+      <c r="F16" s="162"/>
+      <c r="G16" s="17">
         <v>140</v>
       </c>
       <c r="H16" s="2"/>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="125" t="s">
+      <c r="A17" s="119" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="142">
+      <c r="B17" s="135">
         <v>43705</v>
       </c>
       <c r="C17" s="23"/>
-      <c r="D17" s="15" t="s">
+      <c r="D17" s="17" t="s">
+        <v>169</v>
+      </c>
+      <c r="E17" s="112" t="s">
         <v>35</v>
       </c>
-      <c r="E17" s="117" t="s">
-        <v>36</v>
-      </c>
-      <c r="F17" s="167"/>
-      <c r="G17" s="154">
+      <c r="F17" s="162"/>
+      <c r="G17" s="17">
         <v>140</v>
       </c>
       <c r="H17" s="2"/>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="125" t="s">
+      <c r="A18" s="119" t="s">
         <v>20</v>
       </c>
-      <c r="B18" s="143">
+      <c r="B18" s="136">
         <v>43710</v>
       </c>
       <c r="C18" s="23"/>
       <c r="D18" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="E18" s="112" t="s">
         <v>37</v>
       </c>
-      <c r="E18" s="117" t="s">
-        <v>38</v>
-      </c>
-      <c r="F18" s="167"/>
-      <c r="G18" s="154">
+      <c r="F18" s="162"/>
+      <c r="G18" s="17">
         <v>140</v>
       </c>
       <c r="H18" s="2"/>
     </row>
     <row r="19" spans="1:8" s="26" customFormat="1">
-      <c r="A19" s="125" t="s">
+      <c r="A19" s="119" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="140">
+      <c r="B19" s="133">
         <v>43712</v>
       </c>
       <c r="C19" s="24"/>
       <c r="D19" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="E19" s="115" t="s">
-        <v>40</v>
-      </c>
-      <c r="F19" s="167"/>
-      <c r="G19" s="155">
+        <v>38</v>
+      </c>
+      <c r="E19" s="110"/>
+      <c r="F19" s="162"/>
+      <c r="G19" s="15">
         <v>140</v>
       </c>
       <c r="H19" s="25"/>
     </row>
     <row r="20" spans="1:8" s="29" customFormat="1">
-      <c r="A20" s="125" t="s">
+      <c r="A20" s="119" t="s">
         <v>24</v>
       </c>
-      <c r="B20" s="140">
+      <c r="B20" s="133">
         <v>43717</v>
       </c>
       <c r="C20" s="27"/>
       <c r="D20" s="28" t="s">
-        <v>41</v>
-      </c>
-      <c r="E20" s="118" t="s">
         <v>40</v>
       </c>
-      <c r="F20" s="167"/>
-      <c r="G20" s="156">
+      <c r="E20" s="113"/>
+      <c r="F20" s="162"/>
+      <c r="G20" s="139">
         <v>140</v>
       </c>
       <c r="H20" s="1"/>
     </row>
-    <row r="21" spans="1:8" s="33" customFormat="1">
-      <c r="A21" s="128"/>
-      <c r="B21" s="144"/>
-      <c r="C21" s="30"/>
-      <c r="D21" s="31"/>
-      <c r="E21" s="119" t="s">
+    <row r="21" spans="1:8" s="30" customFormat="1" ht="15">
+      <c r="A21" s="122"/>
+      <c r="B21" s="137"/>
+      <c r="C21" s="31"/>
+      <c r="D21" s="45" t="s">
         <v>42</v>
       </c>
-      <c r="F21" s="167"/>
-      <c r="G21" s="157"/>
+      <c r="E21" s="145"/>
+      <c r="F21" s="162"/>
+      <c r="G21" s="140"/>
       <c r="H21" s="32"/>
     </row>
-    <row r="22" spans="1:8" s="33" customFormat="1" ht="15">
-      <c r="A22" s="129"/>
-      <c r="B22" s="145"/>
-      <c r="C22" s="34"/>
-      <c r="D22" s="35" t="s">
+    <row r="22" spans="1:8">
+      <c r="A22" s="121" t="s">
+        <v>8</v>
+      </c>
+      <c r="B22" s="134">
+        <v>43749</v>
+      </c>
+      <c r="C22" s="22"/>
+      <c r="D22" s="114"/>
+      <c r="E22" s="146"/>
+      <c r="F22" s="162" t="s">
         <v>43</v>
       </c>
-      <c r="E22" s="164" t="s">
-        <v>44</v>
-      </c>
-      <c r="F22" s="167"/>
-      <c r="G22" s="157"/>
-      <c r="H22" s="36"/>
+      <c r="G22" s="17">
+        <v>140</v>
+      </c>
+      <c r="H22" s="2"/>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="127" t="s">
-        <v>8</v>
-      </c>
-      <c r="B23" s="141">
-        <v>43749</v>
-      </c>
-      <c r="C23" s="22"/>
-      <c r="D23" s="120"/>
-      <c r="E23" s="165"/>
-      <c r="F23" s="167" t="s">
-        <v>45</v>
-      </c>
-      <c r="G23" s="154">
+      <c r="A23" s="119" t="s">
+        <v>12</v>
+      </c>
+      <c r="B23" s="133">
+        <v>43754</v>
+      </c>
+      <c r="C23" s="23"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="42"/>
+      <c r="F23" s="162"/>
+      <c r="G23" s="17">
         <v>140</v>
       </c>
       <c r="H23" s="2"/>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="125" t="s">
-        <v>12</v>
-      </c>
-      <c r="B24" s="140">
-        <v>43754</v>
+      <c r="A24" s="119" t="s">
+        <v>14</v>
+      </c>
+      <c r="B24" s="133">
+        <v>43759</v>
       </c>
       <c r="C24" s="23"/>
-      <c r="D24" s="158"/>
-      <c r="E24" s="159"/>
-      <c r="F24" s="167"/>
-      <c r="G24" s="154">
+      <c r="D24" s="42"/>
+      <c r="E24" s="42"/>
+      <c r="F24" s="162"/>
+      <c r="G24" s="17">
         <v>140</v>
       </c>
       <c r="H24" s="2"/>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="125" t="s">
-        <v>14</v>
-      </c>
-      <c r="B25" s="140"/>
+      <c r="A25" s="119" t="s">
+        <v>16</v>
+      </c>
+      <c r="B25" s="133">
+        <v>43761</v>
+      </c>
       <c r="C25" s="23"/>
-      <c r="D25" s="159"/>
-      <c r="E25" s="160"/>
-      <c r="F25" s="167"/>
-      <c r="G25" s="154">
+      <c r="D25" s="42"/>
+      <c r="E25" s="42"/>
+      <c r="F25" s="162"/>
+      <c r="G25" s="17">
         <v>140</v>
       </c>
       <c r="H25" s="2"/>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="125" t="s">
-        <v>16</v>
-      </c>
-      <c r="B26" s="140"/>
+      <c r="A26" s="119" t="s">
+        <v>18</v>
+      </c>
+      <c r="B26" s="133">
+        <v>43766</v>
+      </c>
       <c r="C26" s="23"/>
-      <c r="D26" s="159"/>
-      <c r="E26" s="160"/>
-      <c r="F26" s="167"/>
-      <c r="G26" s="154">
-        <v>140</v>
-      </c>
-      <c r="H26" s="2"/>
+      <c r="D26" s="42"/>
+      <c r="E26" s="42"/>
+      <c r="F26" s="162"/>
+      <c r="G26" s="17">
+        <v>140</v>
+      </c>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="125" t="s">
-        <v>18</v>
-      </c>
-      <c r="B27" s="140"/>
+      <c r="A27" s="119" t="s">
+        <v>20</v>
+      </c>
+      <c r="B27" s="133">
+        <v>43768</v>
+      </c>
       <c r="C27" s="23"/>
-      <c r="D27" s="159"/>
-      <c r="E27" s="160"/>
-      <c r="F27" s="167"/>
-      <c r="G27" s="154">
+      <c r="D27" s="42"/>
+      <c r="E27" s="42"/>
+      <c r="F27" s="162"/>
+      <c r="G27" s="17">
         <v>140</v>
       </c>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="125" t="s">
-        <v>20</v>
-      </c>
-      <c r="B28" s="140"/>
+      <c r="A28" s="119" t="s">
+        <v>22</v>
+      </c>
+      <c r="B28" s="133"/>
       <c r="C28" s="23"/>
-      <c r="D28" s="159"/>
-      <c r="E28" s="160"/>
-      <c r="F28" s="167"/>
-      <c r="G28" s="154">
+      <c r="D28" s="42"/>
+      <c r="E28" s="42"/>
+      <c r="F28" s="162"/>
+      <c r="G28" s="17">
         <v>140</v>
       </c>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="125" t="s">
-        <v>22</v>
-      </c>
-      <c r="B29" s="140"/>
+      <c r="A29" s="119" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" s="133"/>
       <c r="C29" s="23"/>
-      <c r="D29" s="159"/>
-      <c r="E29" s="160"/>
-      <c r="F29" s="167"/>
-      <c r="G29" s="154">
+      <c r="D29" s="17"/>
+      <c r="E29" s="42"/>
+      <c r="F29" s="162"/>
+      <c r="G29" s="17">
         <v>140</v>
       </c>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="125" t="s">
-        <v>24</v>
-      </c>
-      <c r="B30" s="140"/>
+      <c r="A30" s="119" t="s">
+        <v>26</v>
+      </c>
+      <c r="B30" s="133"/>
       <c r="C30" s="23"/>
       <c r="D30" s="17"/>
-      <c r="E30" s="160"/>
-      <c r="F30" s="167"/>
-      <c r="G30" s="154">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
-      <c r="A31" s="125" t="s">
-        <v>26</v>
-      </c>
-      <c r="B31" s="140"/>
-      <c r="C31" s="23"/>
-      <c r="D31" s="17"/>
-      <c r="E31" s="160"/>
-      <c r="F31" s="167"/>
-      <c r="G31" s="154">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" ht="15">
-      <c r="A32" s="126" t="s">
+      <c r="E30" s="42"/>
+      <c r="F30" s="162"/>
+      <c r="G30" s="17">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="15">
+      <c r="A31" s="120" t="s">
         <v>27</v>
       </c>
-      <c r="B32" s="161"/>
-      <c r="C32" s="137"/>
-      <c r="D32" s="37"/>
-      <c r="E32" s="166"/>
-      <c r="F32" s="167"/>
-      <c r="G32" s="152">
-        <v>140</v>
-      </c>
-      <c r="H32" s="38"/>
+      <c r="B31" s="141"/>
+      <c r="C31" s="130"/>
+      <c r="D31" s="33"/>
+      <c r="E31" s="147"/>
+      <c r="F31" s="162"/>
+      <c r="G31" s="33">
+        <v>140</v>
+      </c>
+      <c r="H31" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="F3:F12"/>
-    <mergeCell ref="F13:F22"/>
-    <mergeCell ref="F23:F32"/>
+    <mergeCell ref="F13:F21"/>
+    <mergeCell ref="F22:F31"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D20" r:id="rId1" display="http://www.universidadejava.com.br/materiais/jpa-exemplo-crud/" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="D22" r:id="rId2" display="http://www.universidadejava.com.br/materiais/jpa-exemplo-crud/" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="D20" r:id="rId1" display="http://www.universidadejava.com.br/materiais/jpa-exemplo-crud/"/>
   </hyperlinks>
   <pageMargins left="0" right="0" top="0.13888888888888901" bottom="0.13888888888888901" header="0" footer="0"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Arial,Normal"&amp;10&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Arial,Normal"&amp;10Página &amp;P</oddFooter>
@@ -2554,11 +2454,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:I28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="14.25"/>
@@ -2567,562 +2467,510 @@
     <col min="2" max="2" width="10.75" customWidth="1"/>
     <col min="3" max="3" width="10.5" customWidth="1"/>
     <col min="4" max="4" width="101.75" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.75" customWidth="1"/>
-    <col min="7" max="7" width="11.125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.75" customWidth="1"/>
+    <col min="5" max="5" width="23.75" customWidth="1"/>
+    <col min="6" max="6" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
-      <c r="A1" s="167" t="s">
-        <v>46</v>
-      </c>
-      <c r="B1" s="167"/>
-      <c r="C1" s="167"/>
-      <c r="D1" s="167"/>
-      <c r="E1" s="167"/>
-      <c r="F1" s="167"/>
-      <c r="G1" s="167"/>
-      <c r="H1" s="167"/>
-    </row>
-    <row r="2" spans="1:9" ht="15">
+    <row r="1" spans="1:8">
+      <c r="A1" s="162" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="162"/>
+      <c r="C1" s="162"/>
+      <c r="D1" s="162"/>
+      <c r="E1" s="162"/>
+      <c r="F1" s="162"/>
+      <c r="G1" s="162"/>
+    </row>
+    <row r="2" spans="1:8" ht="15">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="39" t="s">
+      <c r="C2" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39" t="s">
+      <c r="D2" s="35"/>
+      <c r="E2" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39" t="s">
+      <c r="F2" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="G2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="40" t="s">
+    <row r="3" spans="1:8">
+      <c r="A3" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="141">
+      <c r="B3" s="134">
         <v>43620</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>9</v>
       </c>
       <c r="D3" s="9"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="168" t="s">
+      <c r="E3" s="37"/>
+      <c r="F3" s="162" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="42">
+      <c r="G3" s="38">
         <v>175</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15">
-      <c r="A4" s="43" t="s">
+    <row r="4" spans="1:8" ht="15">
+      <c r="A4" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="146">
+      <c r="B4" s="138">
         <v>43596</v>
       </c>
       <c r="C4" s="14" t="s">
         <v>9</v>
       </c>
       <c r="D4" s="15"/>
-      <c r="E4" s="44"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="168"/>
-      <c r="H4" s="45">
+      <c r="E4" s="40"/>
+      <c r="F4" s="162"/>
+      <c r="G4" s="41">
         <v>175</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="15">
-      <c r="A5" s="43" t="s">
+    <row r="5" spans="1:8" ht="15">
+      <c r="A5" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="146">
+      <c r="B5" s="138">
         <v>43603</v>
       </c>
       <c r="C5" s="14" t="s">
         <v>9</v>
       </c>
       <c r="D5" s="15"/>
-      <c r="E5" s="44"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="168"/>
-      <c r="H5" s="45">
+      <c r="E5" s="40"/>
+      <c r="F5" s="162"/>
+      <c r="G5" s="41">
         <v>175</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="43" t="s">
+    <row r="6" spans="1:8">
+      <c r="A6" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="146">
+      <c r="B6" s="138">
         <v>43617</v>
       </c>
       <c r="C6" s="14" t="s">
         <v>9</v>
       </c>
       <c r="D6" s="17"/>
-      <c r="E6" s="46"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="168"/>
-      <c r="H6" s="45">
+      <c r="E6" s="42"/>
+      <c r="F6" s="162"/>
+      <c r="G6" s="41">
         <v>175</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:8">
       <c r="A7" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="146">
+      <c r="B7" s="138">
         <v>43624</v>
       </c>
       <c r="C7" s="14" t="s">
         <v>9</v>
       </c>
       <c r="D7" s="17"/>
-      <c r="E7" s="46"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="168"/>
-      <c r="H7" s="45">
+      <c r="E7" s="42"/>
+      <c r="F7" s="162"/>
+      <c r="G7" s="41">
         <v>175</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:8">
       <c r="A8" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="146">
+      <c r="B8" s="138">
         <v>43631</v>
       </c>
       <c r="C8" s="14" t="s">
         <v>9</v>
       </c>
       <c r="D8" s="17"/>
-      <c r="E8" s="46"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="168"/>
-      <c r="H8" s="45">
+      <c r="E8" s="42"/>
+      <c r="F8" s="162"/>
+      <c r="G8" s="41">
         <v>175</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:8">
       <c r="A9" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="146">
+      <c r="B9" s="138">
         <v>43645</v>
       </c>
       <c r="C9" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="47" t="s">
-        <v>47</v>
-      </c>
-      <c r="E9" s="46"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="168"/>
-      <c r="H9" s="45">
+      <c r="D9" s="43" t="s">
+        <v>45</v>
+      </c>
+      <c r="E9" s="42"/>
+      <c r="F9" s="162"/>
+      <c r="G9" s="41">
         <v>175</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:8">
       <c r="A10" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="146">
+      <c r="B10" s="138">
         <v>43659</v>
       </c>
       <c r="C10" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="48"/>
-      <c r="E10" s="49"/>
-      <c r="F10" s="50"/>
-      <c r="G10" s="168"/>
-      <c r="H10" s="45">
+      <c r="D10" s="44"/>
+      <c r="E10" s="45"/>
+      <c r="F10" s="162"/>
+      <c r="G10" s="41">
         <v>175</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="40" t="s">
+    <row r="11" spans="1:8">
+      <c r="A11" s="148" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="141">
+      <c r="B11" s="157">
         <v>43666</v>
       </c>
-      <c r="C11" s="149" t="s">
+      <c r="C11" s="143" t="s">
         <v>29</v>
       </c>
       <c r="D11" s="17" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="168" t="s">
+      <c r="F11" s="162" t="s">
         <v>31</v>
       </c>
-      <c r="H11" s="17">
+      <c r="G11" s="17">
         <v>175</v>
       </c>
-      <c r="I11" s="2"/>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="43" t="s">
+      <c r="H11" s="2"/>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="149" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="146">
+      <c r="B12" s="133">
         <v>43673</v>
       </c>
-      <c r="C12" s="150" t="s">
+      <c r="C12" s="144" t="s">
         <v>29</v>
       </c>
       <c r="D12" s="17" t="s">
         <v>32</v>
       </c>
       <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="168"/>
-      <c r="H12" s="17">
+      <c r="F12" s="162"/>
+      <c r="G12" s="17">
         <v>175</v>
       </c>
-      <c r="I12" s="2"/>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="43" t="s">
+      <c r="H12" s="2"/>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="149" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="146">
+      <c r="B13" s="133">
         <v>43680</v>
       </c>
-      <c r="C13" s="150" t="s">
+      <c r="C13" s="144" t="s">
         <v>29</v>
       </c>
       <c r="D13" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="E13" s="2"/>
+      <c r="F13" s="162"/>
+      <c r="G13" s="17">
+        <v>175</v>
+      </c>
+      <c r="H13" s="2"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="149" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="133">
+        <v>43687</v>
+      </c>
+      <c r="C14" s="144" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="168"/>
-      <c r="H13" s="17">
+      <c r="E14" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F14" s="162"/>
+      <c r="G14" s="17">
         <v>175</v>
       </c>
-      <c r="I13" s="2"/>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="43" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14" s="146">
-        <v>43687</v>
-      </c>
-      <c r="C14" s="150" t="s">
+      <c r="H14" s="2"/>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="150" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="133">
+        <v>43694</v>
+      </c>
+      <c r="C15" s="156" t="s">
         <v>29</v>
       </c>
-      <c r="D14" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="E14" s="2" t="s">
+      <c r="D15" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="F14" s="2"/>
-      <c r="G14" s="168"/>
-      <c r="H14" s="17">
+      <c r="E15" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F15" s="162"/>
+      <c r="G15" s="17">
         <v>175</v>
       </c>
-      <c r="I14" s="2"/>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="A15" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="B15" s="146">
-        <v>43694</v>
-      </c>
-      <c r="C15" s="23" t="s">
+      <c r="H15" s="2"/>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="150" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" s="133">
+        <v>43701</v>
+      </c>
+      <c r="C16" s="153" t="s">
         <v>29</v>
       </c>
-      <c r="D15" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="F15" s="2"/>
-      <c r="G15" s="168"/>
-      <c r="H15" s="17">
+      <c r="D16" s="17" t="s">
+        <v>167</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F16" s="162"/>
+      <c r="G16" s="17">
         <v>175</v>
       </c>
-      <c r="I15" s="2"/>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="A16" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="B16" s="146">
-        <v>43701</v>
-      </c>
-      <c r="C16" s="45" t="s">
-        <v>29</v>
-      </c>
-      <c r="D16" s="17" t="s">
+      <c r="H16" s="2"/>
+    </row>
+    <row r="17" spans="1:8" s="26" customFormat="1">
+      <c r="A17" s="150" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" s="135">
+        <v>43708</v>
+      </c>
+      <c r="C17" s="24"/>
+      <c r="D17" s="17" t="s">
         <v>170</v>
       </c>
-      <c r="E16" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F16" s="2"/>
-      <c r="G16" s="168"/>
-      <c r="H16" s="17">
+      <c r="E17" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F17" s="162"/>
+      <c r="G17" s="17">
         <v>175</v>
       </c>
-      <c r="I16" s="2"/>
-    </row>
-    <row r="17" spans="1:9" s="26" customFormat="1">
-      <c r="A17" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B17" s="147">
-        <v>43708</v>
-      </c>
-      <c r="C17" s="24"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="51"/>
-      <c r="G17" s="168"/>
-      <c r="H17" s="17">
-        <v>175</v>
-      </c>
-      <c r="I17" s="25"/>
-    </row>
-    <row r="18" spans="1:9">
-      <c r="A18" s="12" t="s">
+      <c r="H17" s="25"/>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="150" t="s">
         <v>24</v>
       </c>
-      <c r="B18" s="146">
-        <v>43715</v>
-      </c>
-      <c r="C18" s="23"/>
+      <c r="B18" s="158">
+        <v>43722</v>
+      </c>
+      <c r="C18" s="156"/>
       <c r="D18" s="15"/>
       <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="168"/>
-      <c r="H18" s="17">
+      <c r="F18" s="162"/>
+      <c r="G18" s="17">
         <v>175</v>
       </c>
-      <c r="I18" s="2"/>
-    </row>
-    <row r="19" spans="1:9">
-      <c r="A19" s="12"/>
-      <c r="B19" s="146"/>
-      <c r="C19" s="23"/>
-      <c r="D19" s="37"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="168"/>
-      <c r="H19" s="17">
+      <c r="H18" s="2"/>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="148" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19" s="159">
+        <v>43729</v>
+      </c>
+      <c r="C19" s="152"/>
+      <c r="D19" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="F19" s="162" t="s">
+        <v>43</v>
+      </c>
+      <c r="G19" s="41">
         <v>175</v>
       </c>
-      <c r="I19" s="2"/>
-    </row>
-    <row r="20" spans="1:9">
-      <c r="A20" s="40" t="s">
-        <v>8</v>
-      </c>
-      <c r="B20" s="141">
-        <v>43722</v>
-      </c>
-      <c r="C20" s="42"/>
-      <c r="D20" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="E20" s="6" t="s">
+      <c r="H19" s="2"/>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="149" t="s">
+        <v>12</v>
+      </c>
+      <c r="B20" s="133">
+        <v>43736</v>
+      </c>
+      <c r="C20" s="153"/>
+      <c r="D20" s="112" t="s">
         <v>61</v>
       </c>
-      <c r="F20" s="8"/>
-      <c r="G20" s="168" t="s">
-        <v>45</v>
-      </c>
-      <c r="H20" s="45">
+      <c r="E20" s="42"/>
+      <c r="F20" s="162"/>
+      <c r="G20" s="41">
         <v>175</v>
       </c>
-      <c r="I20" s="2"/>
-    </row>
-    <row r="21" spans="1:9">
-      <c r="A21" s="43" t="s">
-        <v>12</v>
-      </c>
-      <c r="B21" s="146">
-        <v>43729</v>
-      </c>
-      <c r="C21" s="45"/>
-      <c r="D21" s="2" t="s">
+      <c r="H20" s="2"/>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="149" t="s">
+        <v>14</v>
+      </c>
+      <c r="B21" s="133">
+        <v>43743</v>
+      </c>
+      <c r="C21" s="153"/>
+      <c r="D21" s="112" t="s">
         <v>63</v>
       </c>
-      <c r="E21" s="46"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="168"/>
-      <c r="H21" s="45">
+      <c r="E21" s="42" t="s">
+        <v>64</v>
+      </c>
+      <c r="F21" s="162"/>
+      <c r="G21" s="41">
         <v>175</v>
       </c>
-      <c r="I21" s="2"/>
-    </row>
-    <row r="22" spans="1:9">
-      <c r="A22" s="43" t="s">
-        <v>14</v>
-      </c>
-      <c r="B22" s="146">
-        <v>43736</v>
-      </c>
-      <c r="C22" s="45"/>
-      <c r="D22" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="E22" s="46" t="s">
+      <c r="H21" s="2"/>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="149" t="s">
+        <v>16</v>
+      </c>
+      <c r="B22" s="133">
+        <v>43750</v>
+      </c>
+      <c r="C22" s="153"/>
+      <c r="D22" s="112" t="s">
         <v>66</v>
       </c>
-      <c r="F22" s="2"/>
-      <c r="G22" s="168"/>
-      <c r="H22" s="45">
+      <c r="E22" s="42" t="s">
+        <v>67</v>
+      </c>
+      <c r="F22" s="162"/>
+      <c r="G22" s="41">
         <v>175</v>
       </c>
-      <c r="I22" s="2"/>
-    </row>
-    <row r="23" spans="1:9">
-      <c r="A23" s="43" t="s">
-        <v>16</v>
-      </c>
-      <c r="B23" s="146">
-        <v>43743</v>
-      </c>
-      <c r="C23" s="45"/>
-      <c r="D23" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="E23" s="46" t="s">
-        <v>69</v>
-      </c>
-      <c r="F23" s="2"/>
-      <c r="G23" s="168"/>
-      <c r="H23" s="45">
+      <c r="H22" s="2"/>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="150" t="s">
+        <v>18</v>
+      </c>
+      <c r="B23" s="133">
+        <v>43757</v>
+      </c>
+      <c r="C23" s="154"/>
+      <c r="D23" s="112"/>
+      <c r="E23" s="42" t="s">
+        <v>70</v>
+      </c>
+      <c r="F23" s="162"/>
+      <c r="G23" s="41">
         <v>175</v>
       </c>
-      <c r="I23" s="2"/>
-    </row>
-    <row r="24" spans="1:9">
-      <c r="A24" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="B24" s="146">
-        <v>43750</v>
-      </c>
-      <c r="C24" s="52"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="46" t="s">
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="150" t="s">
+        <v>20</v>
+      </c>
+      <c r="B24" s="133">
+        <v>43764</v>
+      </c>
+      <c r="C24" s="153"/>
+      <c r="D24" s="112" t="s">
         <v>72</v>
       </c>
-      <c r="F24" s="2"/>
-      <c r="G24" s="168"/>
-      <c r="H24" s="45">
+      <c r="E24" s="42" t="s">
+        <v>73</v>
+      </c>
+      <c r="F24" s="162"/>
+      <c r="G24" s="41">
         <v>175</v>
       </c>
     </row>
-    <row r="25" spans="1:9">
-      <c r="A25" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="B25" s="146">
-        <v>43757</v>
-      </c>
-      <c r="C25" s="45"/>
-      <c r="D25" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="E25" s="46" t="s">
+    <row r="25" spans="1:8">
+      <c r="A25" s="150" t="s">
+        <v>22</v>
+      </c>
+      <c r="B25" s="133">
+        <v>43771</v>
+      </c>
+      <c r="C25" s="153"/>
+      <c r="D25" s="112" t="s">
         <v>75</v>
       </c>
-      <c r="F25" s="2"/>
-      <c r="G25" s="168"/>
-      <c r="H25" s="45">
+      <c r="E25" s="42" t="s">
+        <v>76</v>
+      </c>
+      <c r="F25" s="162"/>
+      <c r="G25" s="41">
         <v>175</v>
       </c>
     </row>
-    <row r="26" spans="1:9">
-      <c r="A26" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B26" s="146">
-        <v>43764</v>
-      </c>
-      <c r="C26" s="45"/>
-      <c r="D26" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="E26" s="46" t="s">
+    <row r="26" spans="1:8">
+      <c r="A26" s="151" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" s="160">
+        <v>43778</v>
+      </c>
+      <c r="C26" s="155"/>
+      <c r="D26" s="161" t="s">
         <v>78</v>
       </c>
-      <c r="F26" s="2"/>
-      <c r="G26" s="168"/>
-      <c r="H26" s="45">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
-      <c r="A27" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="B27" s="146">
-        <v>43770</v>
-      </c>
-      <c r="C27" s="45"/>
-      <c r="D27" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="E27" s="46" t="s">
-        <v>78</v>
-      </c>
-      <c r="F27" s="2"/>
-      <c r="G27" s="168"/>
-      <c r="H27" s="151">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" ht="15">
-      <c r="A28" s="18"/>
-      <c r="B28" s="148"/>
-      <c r="C28" s="54"/>
-      <c r="D28" s="50" t="s">
-        <v>81</v>
-      </c>
-      <c r="E28" s="49" t="s">
-        <v>82</v>
-      </c>
-      <c r="F28" s="50"/>
-      <c r="G28" s="168"/>
-      <c r="H28" s="152">
+      <c r="E26" s="45" t="s">
+        <v>76</v>
+      </c>
+      <c r="F26" s="162"/>
+      <c r="G26" s="49">
         <v>175</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="G3:G10"/>
-    <mergeCell ref="G11:G19"/>
-    <mergeCell ref="G20:G28"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="F3:F10"/>
+    <mergeCell ref="F11:F18"/>
+    <mergeCell ref="F19:F26"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0" right="0" top="0.13888888888888901" bottom="0.13888888888888901" header="0" footer="0"/>
@@ -3135,11 +2983,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr enableFormatConditionsCalculation="0">
+    <tabColor indexed="47"/>
+  </sheetPr>
   <dimension ref="A1:I32"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+      <selection activeCell="A19" sqref="A19:IV19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="14.25"/>
@@ -3155,16 +3006,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15">
-      <c r="A1" s="169" t="s">
-        <v>83</v>
-      </c>
-      <c r="B1" s="169"/>
-      <c r="C1" s="169"/>
-      <c r="D1" s="169"/>
-      <c r="E1" s="169"/>
-      <c r="F1" s="169"/>
-      <c r="G1" s="169"/>
-      <c r="H1" s="169"/>
+      <c r="A1" s="163" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1" s="163"/>
+      <c r="C1" s="163"/>
+      <c r="D1" s="163"/>
+      <c r="E1" s="163"/>
+      <c r="F1" s="163"/>
+      <c r="G1" s="163"/>
+      <c r="H1" s="163"/>
     </row>
     <row r="2" spans="1:9" ht="15">
       <c r="A2" s="3" t="s">
@@ -3202,11 +3053,11 @@
         <v>29</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E3" s="10"/>
       <c r="F3" s="10"/>
-      <c r="G3" s="168" t="s">
+      <c r="G3" s="164" t="s">
         <v>11</v>
       </c>
       <c r="H3" s="11">
@@ -3223,10 +3074,10 @@
       <c r="C4" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="D4" s="55"/>
+      <c r="D4" s="50"/>
       <c r="E4" s="16"/>
       <c r="F4" s="2"/>
-      <c r="G4" s="168"/>
+      <c r="G4" s="164"/>
       <c r="H4" s="17">
         <v>140</v>
       </c>
@@ -3241,10 +3092,10 @@
       <c r="C5" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="D5" s="55"/>
+      <c r="D5" s="50"/>
       <c r="E5" s="16"/>
       <c r="F5" s="2"/>
-      <c r="G5" s="168"/>
+      <c r="G5" s="164"/>
       <c r="H5" s="17">
         <v>140</v>
       </c>
@@ -3259,10 +3110,10 @@
       <c r="C6" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="D6" s="55"/>
+      <c r="D6" s="50"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
-      <c r="G6" s="168"/>
+      <c r="G6" s="164"/>
       <c r="H6" s="17">
         <v>140</v>
       </c>
@@ -3282,7 +3133,7 @@
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
-      <c r="G7" s="168"/>
+      <c r="G7" s="164"/>
       <c r="H7" s="17">
         <v>140</v>
       </c>
@@ -3302,7 +3153,7 @@
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
-      <c r="G8" s="168"/>
+      <c r="G8" s="164"/>
       <c r="H8" s="17">
         <v>140</v>
       </c>
@@ -3322,7 +3173,7 @@
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
-      <c r="G9" s="168"/>
+      <c r="G9" s="164"/>
       <c r="H9" s="17">
         <v>140</v>
       </c>
@@ -3342,7 +3193,7 @@
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
-      <c r="G10" s="168"/>
+      <c r="G10" s="164"/>
       <c r="H10" s="17">
         <v>140</v>
       </c>
@@ -3360,7 +3211,7 @@
       <c r="D11" s="17"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
-      <c r="G11" s="168"/>
+      <c r="G11" s="164"/>
       <c r="H11" s="17">
         <v>140</v>
       </c>
@@ -3380,8 +3231,8 @@
         <v>28</v>
       </c>
       <c r="E12" s="20"/>
-      <c r="F12" s="50"/>
-      <c r="G12" s="168"/>
+      <c r="F12" s="46"/>
+      <c r="G12" s="164"/>
       <c r="H12" s="17">
         <v>140</v>
       </c>
@@ -3391,7 +3242,7 @@
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="6" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B13" s="7">
         <v>43542</v>
@@ -3400,11 +3251,11 @@
         <v>29</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E13" s="10"/>
       <c r="F13" s="10"/>
-      <c r="G13" s="168" t="s">
+      <c r="G13" s="164" t="s">
         <v>31</v>
       </c>
       <c r="H13" s="17">
@@ -3414,7 +3265,7 @@
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="12" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B14" s="13">
         <v>43544</v>
@@ -3427,7 +3278,7 @@
       </c>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
-      <c r="G14" s="168"/>
+      <c r="G14" s="164"/>
       <c r="H14" s="17">
         <v>140</v>
       </c>
@@ -3435,7 +3286,7 @@
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="12" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B15" s="13">
         <v>43551</v>
@@ -3444,11 +3295,11 @@
         <v>29</v>
       </c>
       <c r="D15" s="15" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
-      <c r="G15" s="168"/>
+      <c r="G15" s="164"/>
       <c r="H15" s="17">
         <v>140</v>
       </c>
@@ -3456,7 +3307,7 @@
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="12" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B16" s="13">
         <v>43556</v>
@@ -3465,11 +3316,11 @@
         <v>29</v>
       </c>
       <c r="D16" s="17" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
-      <c r="G16" s="168"/>
+      <c r="G16" s="164"/>
       <c r="H16" s="17">
         <v>140</v>
       </c>
@@ -3477,7 +3328,7 @@
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="12" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B17" s="13">
         <v>43558</v>
@@ -3486,13 +3337,13 @@
         <v>29</v>
       </c>
       <c r="D17" s="15" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F17" s="2"/>
-      <c r="G17" s="168"/>
+      <c r="G17" s="164"/>
       <c r="H17" s="17">
         <v>140</v>
       </c>
@@ -3500,7 +3351,7 @@
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="12" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B18" s="13">
         <v>43563</v>
@@ -3509,44 +3360,44 @@
         <v>29</v>
       </c>
       <c r="D18" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="E18" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E18" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="F18" s="2"/>
-      <c r="G18" s="168"/>
+      <c r="G18" s="164"/>
       <c r="H18" s="17">
         <v>140</v>
       </c>
       <c r="I18" s="2"/>
     </row>
     <row r="19" spans="1:9" s="26" customFormat="1">
-      <c r="A19" s="56" t="s">
-        <v>59</v>
-      </c>
-      <c r="B19" s="57">
+      <c r="A19" s="51" t="s">
+        <v>57</v>
+      </c>
+      <c r="B19" s="52">
         <v>43565</v>
       </c>
       <c r="C19" s="24" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D19" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="E19" s="51" t="s">
-        <v>40</v>
-      </c>
-      <c r="F19" s="51"/>
-      <c r="G19" s="168"/>
-      <c r="H19" s="58">
+        <v>86</v>
+      </c>
+      <c r="E19" s="47" t="s">
+        <v>39</v>
+      </c>
+      <c r="F19" s="47"/>
+      <c r="G19" s="164"/>
+      <c r="H19" s="53">
         <v>140</v>
       </c>
       <c r="I19" s="25"/>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="12" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B20" s="13">
         <v>43570</v>
@@ -3555,13 +3406,13 @@
         <v>29</v>
       </c>
       <c r="D20" s="15" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F20" s="2"/>
-      <c r="G20" s="168"/>
+      <c r="G20" s="164"/>
       <c r="H20" s="17">
         <v>140</v>
       </c>
@@ -3569,7 +3420,7 @@
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="12" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B21" s="13">
         <v>43577</v>
@@ -3578,13 +3429,13 @@
         <v>29</v>
       </c>
       <c r="D21" s="15" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F21" s="2"/>
-      <c r="G21" s="168"/>
+      <c r="G21" s="164"/>
       <c r="H21" s="17">
         <v>140</v>
       </c>
@@ -3592,22 +3443,22 @@
     </row>
     <row r="22" spans="1:9" ht="15">
       <c r="A22" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="B22" s="114">
+        <v>65</v>
+      </c>
+      <c r="B22" s="109">
         <v>43584</v>
       </c>
       <c r="C22" s="23" t="s">
         <v>29</v>
       </c>
       <c r="D22" s="15" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="F22" s="117"/>
-      <c r="G22" s="170"/>
+        <v>85</v>
+      </c>
+      <c r="F22" s="112"/>
+      <c r="G22" s="165"/>
       <c r="H22" s="17">
         <v>140</v>
       </c>
@@ -3616,24 +3467,24 @@
       </c>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="130" t="s">
-        <v>70</v>
-      </c>
-      <c r="B23" s="131">
+      <c r="A23" s="123" t="s">
+        <v>68</v>
+      </c>
+      <c r="B23" s="124">
         <v>43591</v>
       </c>
-      <c r="C23" s="132" t="s">
+      <c r="C23" s="125" t="s">
         <v>29</v>
       </c>
-      <c r="D23" s="133" t="s">
-        <v>92</v>
-      </c>
-      <c r="E23" s="134" t="s">
-        <v>61</v>
-      </c>
-      <c r="F23" s="135"/>
-      <c r="G23" s="170" t="s">
-        <v>45</v>
+      <c r="D23" s="126" t="s">
+        <v>89</v>
+      </c>
+      <c r="E23" s="127" t="s">
+        <v>59</v>
+      </c>
+      <c r="F23" s="128"/>
+      <c r="G23" s="165" t="s">
+        <v>43</v>
       </c>
       <c r="H23" s="17">
         <v>140</v>
@@ -3642,18 +3493,18 @@
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="B24" s="114">
+        <v>71</v>
+      </c>
+      <c r="B24" s="109">
         <v>43598</v>
       </c>
       <c r="C24" s="23"/>
       <c r="D24" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="E24" s="117"/>
-      <c r="F24" s="117"/>
-      <c r="G24" s="171"/>
+        <v>58</v>
+      </c>
+      <c r="E24" s="112"/>
+      <c r="F24" s="112"/>
+      <c r="G24" s="166"/>
       <c r="H24" s="17">
         <v>140</v>
       </c>
@@ -3661,20 +3512,20 @@
     </row>
     <row r="25" spans="1:9">
       <c r="A25" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="B25" s="114">
+        <v>74</v>
+      </c>
+      <c r="B25" s="109">
         <v>43600</v>
       </c>
       <c r="C25" s="23"/>
       <c r="D25" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="E25" s="117" t="s">
-        <v>66</v>
-      </c>
-      <c r="F25" s="117"/>
-      <c r="G25" s="171"/>
+        <v>61</v>
+      </c>
+      <c r="E25" s="112" t="s">
+        <v>64</v>
+      </c>
+      <c r="F25" s="112"/>
+      <c r="G25" s="166"/>
       <c r="H25" s="17">
         <v>140</v>
       </c>
@@ -3682,20 +3533,20 @@
     </row>
     <row r="26" spans="1:9">
       <c r="A26" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="B26" s="114">
+        <v>77</v>
+      </c>
+      <c r="B26" s="109">
         <v>43605</v>
       </c>
       <c r="C26" s="23"/>
       <c r="D26" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="E26" s="117" t="s">
-        <v>69</v>
-      </c>
-      <c r="F26" s="117"/>
-      <c r="G26" s="171"/>
+        <v>63</v>
+      </c>
+      <c r="E26" s="112" t="s">
+        <v>67</v>
+      </c>
+      <c r="F26" s="112"/>
+      <c r="G26" s="166"/>
       <c r="H26" s="17">
         <v>140</v>
       </c>
@@ -3703,122 +3554,122 @@
     </row>
     <row r="27" spans="1:9">
       <c r="A27" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="B27" s="114">
+        <v>90</v>
+      </c>
+      <c r="B27" s="109">
         <v>43607</v>
       </c>
       <c r="C27" s="23"/>
       <c r="D27" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="E27" s="117" t="s">
-        <v>72</v>
-      </c>
-      <c r="F27" s="117"/>
-      <c r="G27" s="171"/>
+        <v>66</v>
+      </c>
+      <c r="E27" s="112" t="s">
+        <v>70</v>
+      </c>
+      <c r="F27" s="112"/>
+      <c r="G27" s="166"/>
       <c r="H27" s="17">
         <v>140</v>
       </c>
     </row>
     <row r="28" spans="1:9">
       <c r="A28" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="B28" s="114">
+        <v>91</v>
+      </c>
+      <c r="B28" s="109">
         <v>43612</v>
       </c>
       <c r="C28" s="23"/>
       <c r="D28" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="E28" s="117" t="s">
-        <v>75</v>
-      </c>
-      <c r="F28" s="117"/>
-      <c r="G28" s="171"/>
+        <v>69</v>
+      </c>
+      <c r="E28" s="112" t="s">
+        <v>73</v>
+      </c>
+      <c r="F28" s="112"/>
+      <c r="G28" s="166"/>
       <c r="H28" s="17">
         <v>140</v>
       </c>
     </row>
     <row r="29" spans="1:9">
       <c r="A29" s="12" t="s">
-        <v>95</v>
-      </c>
-      <c r="B29" s="114">
+        <v>92</v>
+      </c>
+      <c r="B29" s="109">
         <v>43614</v>
       </c>
       <c r="C29" s="23"/>
       <c r="D29" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="E29" s="117" t="s">
-        <v>78</v>
-      </c>
-      <c r="F29" s="117"/>
-      <c r="G29" s="171"/>
+        <v>72</v>
+      </c>
+      <c r="E29" s="112" t="s">
+        <v>76</v>
+      </c>
+      <c r="F29" s="112"/>
+      <c r="G29" s="166"/>
       <c r="H29" s="17">
         <v>140</v>
       </c>
     </row>
     <row r="30" spans="1:9">
       <c r="A30" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="B30" s="114">
+        <v>93</v>
+      </c>
+      <c r="B30" s="109">
         <v>43619</v>
       </c>
       <c r="C30" s="23"/>
       <c r="D30" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="E30" s="117" t="s">
-        <v>78</v>
-      </c>
-      <c r="F30" s="117"/>
-      <c r="G30" s="171"/>
+        <v>75</v>
+      </c>
+      <c r="E30" s="112" t="s">
+        <v>76</v>
+      </c>
+      <c r="F30" s="112"/>
+      <c r="G30" s="166"/>
       <c r="H30" s="17">
         <v>140</v>
       </c>
     </row>
     <row r="31" spans="1:9">
       <c r="A31" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="B31" s="114">
+        <v>94</v>
+      </c>
+      <c r="B31" s="109">
         <v>43621</v>
       </c>
       <c r="C31" s="23"/>
       <c r="D31" s="17" t="s">
-        <v>80</v>
-      </c>
-      <c r="E31" s="117" t="s">
-        <v>98</v>
-      </c>
-      <c r="F31" s="117"/>
-      <c r="G31" s="171"/>
+        <v>78</v>
+      </c>
+      <c r="E31" s="112" t="s">
+        <v>95</v>
+      </c>
+      <c r="F31" s="112"/>
+      <c r="G31" s="166"/>
       <c r="H31" s="17">
         <v>140</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="15">
       <c r="A32" s="18" t="s">
-        <v>99</v>
-      </c>
-      <c r="B32" s="136"/>
-      <c r="C32" s="137"/>
-      <c r="D32" s="37" t="s">
-        <v>81</v>
-      </c>
-      <c r="E32" s="138" t="s">
-        <v>100</v>
-      </c>
-      <c r="F32" s="50"/>
-      <c r="G32" s="172"/>
-      <c r="H32" s="37">
-        <v>140</v>
-      </c>
-      <c r="I32" s="38"/>
+        <v>96</v>
+      </c>
+      <c r="B32" s="129"/>
+      <c r="C32" s="130"/>
+      <c r="D32" s="33" t="s">
+        <v>79</v>
+      </c>
+      <c r="E32" s="131" t="s">
+        <v>97</v>
+      </c>
+      <c r="F32" s="46"/>
+      <c r="G32" s="167"/>
+      <c r="H32" s="33">
+        <v>140</v>
+      </c>
+      <c r="I32" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -3838,10 +3689,15 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr enableFormatConditionsCalculation="0">
+    <tabColor indexed="47"/>
+  </sheetPr>
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19:IV19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
   <cols>
@@ -3857,16 +3713,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12.6" customHeight="1">
-      <c r="A1" s="169" t="s">
-        <v>101</v>
-      </c>
-      <c r="B1" s="169"/>
-      <c r="C1" s="169"/>
-      <c r="D1" s="169"/>
-      <c r="E1" s="169"/>
-      <c r="F1" s="169"/>
-      <c r="G1" s="169"/>
-      <c r="H1" s="169"/>
+      <c r="A1" s="163" t="s">
+        <v>98</v>
+      </c>
+      <c r="B1" s="163"/>
+      <c r="C1" s="163"/>
+      <c r="D1" s="163"/>
+      <c r="E1" s="163"/>
+      <c r="F1" s="163"/>
+      <c r="G1" s="163"/>
+      <c r="H1" s="163"/>
     </row>
     <row r="2" spans="1:10" ht="15">
       <c r="A2" s="3" t="s">
@@ -3894,240 +3750,240 @@
       </c>
     </row>
     <row r="3" spans="1:10" ht="15">
-      <c r="A3" s="62" t="s">
+      <c r="A3" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="63">
+      <c r="B3" s="58">
         <v>43360</v>
       </c>
-      <c r="C3" s="64" t="s">
-        <v>102</v>
+      <c r="C3" s="59" t="s">
+        <v>99</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="E3" s="10"/>
       <c r="F3" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="G3" s="168" t="s">
+        <v>101</v>
+      </c>
+      <c r="G3" s="164" t="s">
         <v>11</v>
       </c>
       <c r="H3" s="11">
         <v>140</v>
       </c>
-      <c r="J3" s="65"/>
+      <c r="J3" s="60"/>
     </row>
     <row r="4" spans="1:10" ht="15">
-      <c r="A4" s="66" t="s">
+      <c r="A4" s="61" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="67">
+      <c r="B4" s="62">
         <v>43362</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>102</v>
-      </c>
-      <c r="D4" s="55"/>
+        <v>99</v>
+      </c>
+      <c r="D4" s="50"/>
       <c r="E4" s="16"/>
       <c r="F4" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="G4" s="168"/>
+        <v>102</v>
+      </c>
+      <c r="G4" s="164"/>
       <c r="H4" s="17">
         <v>140</v>
       </c>
-      <c r="J4" s="65"/>
+      <c r="J4" s="60"/>
     </row>
     <row r="5" spans="1:10" ht="15">
-      <c r="A5" s="66" t="s">
+      <c r="A5" s="61" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="67">
+      <c r="B5" s="62">
         <v>43364</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>102</v>
-      </c>
-      <c r="D5" s="55"/>
+        <v>99</v>
+      </c>
+      <c r="D5" s="50"/>
       <c r="E5" s="16"/>
       <c r="F5" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="G5" s="168"/>
+        <v>103</v>
+      </c>
+      <c r="G5" s="164"/>
       <c r="H5" s="17">
         <v>140</v>
       </c>
-      <c r="J5" s="65"/>
+      <c r="J5" s="60"/>
     </row>
     <row r="6" spans="1:10" ht="15">
-      <c r="A6" s="66" t="s">
+      <c r="A6" s="61" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="67">
+      <c r="B6" s="62">
         <v>43369</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>102</v>
-      </c>
-      <c r="D6" s="55" t="s">
+        <v>99</v>
+      </c>
+      <c r="D6" s="50" t="s">
         <v>19</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="G6" s="168"/>
+        <v>104</v>
+      </c>
+      <c r="G6" s="164"/>
       <c r="H6" s="17">
         <v>140</v>
       </c>
-      <c r="J6" s="65"/>
+      <c r="J6" s="60"/>
     </row>
     <row r="7" spans="1:10" ht="15">
-      <c r="A7" s="66" t="s">
+      <c r="A7" s="61" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="67">
+      <c r="B7" s="62">
         <v>43371</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D7" s="17" t="s">
         <v>21</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="G7" s="168"/>
+        <v>105</v>
+      </c>
+      <c r="G7" s="164"/>
       <c r="H7" s="17">
         <v>140</v>
       </c>
-      <c r="J7" s="65"/>
+      <c r="J7" s="60"/>
     </row>
     <row r="8" spans="1:10" ht="15">
-      <c r="A8" s="66" t="s">
+      <c r="A8" s="61" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="67">
+      <c r="B8" s="62">
         <v>43374</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D8" s="17" t="s">
         <v>23</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="G8" s="168"/>
+        <v>106</v>
+      </c>
+      <c r="G8" s="164"/>
       <c r="H8" s="17">
         <v>140</v>
       </c>
-      <c r="J8" s="65"/>
+      <c r="J8" s="60"/>
     </row>
     <row r="9" spans="1:10" ht="15">
-      <c r="A9" s="66" t="s">
+      <c r="A9" s="61" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="67">
+      <c r="B9" s="62">
         <v>43376</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D9" s="17" t="s">
         <v>25</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="G9" s="168"/>
+        <v>107</v>
+      </c>
+      <c r="G9" s="164"/>
       <c r="H9" s="17">
         <v>140</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="15">
-      <c r="A10" s="66" t="s">
+      <c r="A10" s="61" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="67">
+      <c r="B10" s="62">
         <v>43381</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D10" s="17" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="G10" s="168"/>
+        <v>109</v>
+      </c>
+      <c r="G10" s="164"/>
       <c r="H10" s="17">
         <v>140</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="15">
-      <c r="A11" s="66" t="s">
+      <c r="A11" s="61" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="67">
+      <c r="B11" s="62">
         <v>43383</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D11" s="15" t="s">
         <v>28</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="G11" s="168"/>
+        <v>110</v>
+      </c>
+      <c r="G11" s="164"/>
       <c r="H11" s="17">
         <v>140</v>
       </c>
       <c r="I11" s="2"/>
     </row>
     <row r="12" spans="1:10" ht="15">
-      <c r="A12" s="68" t="s">
+      <c r="A12" s="63" t="s">
         <v>27</v>
       </c>
-      <c r="B12" s="67">
+      <c r="B12" s="62">
         <v>43388</v>
       </c>
       <c r="C12" s="20" t="s">
-        <v>102</v>
-      </c>
-      <c r="D12" s="69"/>
+        <v>99</v>
+      </c>
+      <c r="D12" s="64"/>
       <c r="E12" s="20"/>
-      <c r="F12" s="50" t="s">
-        <v>114</v>
-      </c>
-      <c r="G12" s="168"/>
+      <c r="F12" s="46" t="s">
+        <v>111</v>
+      </c>
+      <c r="G12" s="164"/>
       <c r="H12" s="17">
         <v>140</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="15">
-      <c r="A13" s="70" t="s">
-        <v>49</v>
-      </c>
-      <c r="B13" s="71">
+      <c r="A13" s="65" t="s">
+        <v>47</v>
+      </c>
+      <c r="B13" s="66">
         <v>43390</v>
       </c>
-      <c r="C13" s="64" t="s">
-        <v>102</v>
+      <c r="C13" s="59" t="s">
+        <v>99</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E13" s="10"/>
       <c r="F13" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="G13" s="168" t="s">
+        <v>101</v>
+      </c>
+      <c r="G13" s="164" t="s">
         <v>31</v>
       </c>
       <c r="H13" s="17">
@@ -4137,22 +3993,22 @@
       <c r="J13" s="2"/>
     </row>
     <row r="14" spans="1:10" ht="15">
-      <c r="A14" s="72" t="s">
-        <v>51</v>
-      </c>
-      <c r="B14" s="73">
+      <c r="A14" s="67" t="s">
+        <v>49</v>
+      </c>
+      <c r="B14" s="68">
         <v>43395</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D14" s="17" t="s">
         <v>32</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="G14" s="168"/>
+        <v>102</v>
+      </c>
+      <c r="G14" s="164"/>
       <c r="H14" s="17">
         <v>140</v>
       </c>
@@ -4160,223 +4016,223 @@
       <c r="J14" s="2"/>
     </row>
     <row r="15" spans="1:10" ht="15">
-      <c r="A15" s="72" t="s">
+      <c r="A15" s="67" t="s">
+        <v>52</v>
+      </c>
+      <c r="B15" s="68">
+        <v>43399</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="D15" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="G15" s="164"/>
+      <c r="H15" s="17">
+        <v>140</v>
+      </c>
+      <c r="I15" s="2"/>
+    </row>
+    <row r="16" spans="1:10" ht="15">
+      <c r="A16" s="67" t="s">
         <v>54</v>
       </c>
-      <c r="B15" s="73">
-        <v>43399</v>
-      </c>
-      <c r="C15" s="16" t="s">
-        <v>102</v>
-      </c>
-      <c r="D15" s="15" t="s">
+      <c r="B16" s="68">
+        <v>43404</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="D16" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="G16" s="164"/>
+      <c r="H16" s="17">
+        <v>140</v>
+      </c>
+      <c r="I16" s="2"/>
+    </row>
+    <row r="17" spans="1:10" ht="15">
+      <c r="A17" s="67" t="s">
+        <v>55</v>
+      </c>
+      <c r="B17" s="68">
+        <v>43409</v>
+      </c>
+      <c r="C17" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="D17" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="G17" s="164"/>
+      <c r="H17" s="17">
+        <v>140</v>
+      </c>
+      <c r="I17" s="2"/>
+    </row>
+    <row r="18" spans="1:10" ht="15">
+      <c r="A18" s="67" t="s">
+        <v>56</v>
+      </c>
+      <c r="B18" s="68">
+        <v>43413</v>
+      </c>
+      <c r="C18" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="D18" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="G18" s="164"/>
+      <c r="H18" s="17">
+        <v>140</v>
+      </c>
+      <c r="I18" s="2"/>
+    </row>
+    <row r="19" spans="1:10" ht="15">
+      <c r="A19" s="67" t="s">
+        <v>57</v>
+      </c>
+      <c r="B19" s="68">
+        <v>43416</v>
+      </c>
+      <c r="C19" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="D19" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="G19" s="164"/>
+      <c r="H19" s="17">
+        <v>140</v>
+      </c>
+      <c r="I19" s="2"/>
+    </row>
+    <row r="20" spans="1:10" ht="15">
+      <c r="A20" s="67" t="s">
+        <v>60</v>
+      </c>
+      <c r="B20" s="68">
+        <v>43423</v>
+      </c>
+      <c r="C20" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="D20" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="G20" s="164"/>
+      <c r="H20" s="17">
+        <v>140</v>
+      </c>
+      <c r="I20" s="2"/>
+    </row>
+    <row r="21" spans="1:10" ht="15">
+      <c r="A21" s="67" t="s">
+        <v>62</v>
+      </c>
+      <c r="B21" s="68">
+        <v>43425</v>
+      </c>
+      <c r="C21" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="D21" s="15" t="s">
         <v>115</v>
       </c>
-      <c r="F15" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="G15" s="168"/>
-      <c r="H15" s="17">
-        <v>140</v>
-      </c>
-      <c r="I15" s="2"/>
-    </row>
-    <row r="16" spans="1:10" ht="15">
-      <c r="A16" s="72" t="s">
-        <v>56</v>
-      </c>
-      <c r="B16" s="73">
-        <v>43404</v>
-      </c>
-      <c r="C16" s="16" t="s">
-        <v>102</v>
-      </c>
-      <c r="D16" s="17" t="s">
+      <c r="E21" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="G21" s="164"/>
+      <c r="H21" s="17">
+        <v>140</v>
+      </c>
+      <c r="I21" s="2"/>
+    </row>
+    <row r="22" spans="1:10" ht="15">
+      <c r="A22" s="69" t="s">
+        <v>65</v>
+      </c>
+      <c r="B22" s="68">
+        <v>43427</v>
+      </c>
+      <c r="C22" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="D22" s="33" t="s">
         <v>116</v>
       </c>
-      <c r="F16" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="G16" s="168"/>
-      <c r="H16" s="17">
-        <v>140</v>
-      </c>
-      <c r="I16" s="2"/>
-    </row>
-    <row r="17" spans="1:10" ht="15">
-      <c r="A17" s="72" t="s">
-        <v>57</v>
-      </c>
-      <c r="B17" s="73">
-        <v>43409</v>
-      </c>
-      <c r="C17" s="16" t="s">
-        <v>102</v>
-      </c>
-      <c r="D17" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="G17" s="168"/>
-      <c r="H17" s="17">
-        <v>140</v>
-      </c>
-      <c r="I17" s="2"/>
-    </row>
-    <row r="18" spans="1:10" ht="15">
-      <c r="A18" s="72" t="s">
-        <v>58</v>
-      </c>
-      <c r="B18" s="73">
-        <v>43413</v>
-      </c>
-      <c r="C18" s="16" t="s">
-        <v>102</v>
-      </c>
-      <c r="D18" s="15" t="s">
-        <v>117</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="G18" s="168"/>
-      <c r="H18" s="17">
-        <v>140</v>
-      </c>
-      <c r="I18" s="2"/>
-    </row>
-    <row r="19" spans="1:10" ht="15">
-      <c r="A19" s="72" t="s">
+      <c r="E22" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="B19" s="73">
-        <v>43416</v>
-      </c>
-      <c r="C19" s="16" t="s">
-        <v>102</v>
-      </c>
-      <c r="D19" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="G19" s="168"/>
-      <c r="H19" s="17">
-        <v>140</v>
-      </c>
-      <c r="I19" s="2"/>
-    </row>
-    <row r="20" spans="1:10" ht="15">
-      <c r="A20" s="72" t="s">
-        <v>62</v>
-      </c>
-      <c r="B20" s="73">
-        <v>43423</v>
-      </c>
-      <c r="C20" s="16" t="s">
-        <v>102</v>
-      </c>
-      <c r="D20" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="G20" s="168"/>
-      <c r="H20" s="17">
-        <v>140</v>
-      </c>
-      <c r="I20" s="2"/>
-    </row>
-    <row r="21" spans="1:10" ht="15">
-      <c r="A21" s="72" t="s">
-        <v>64</v>
-      </c>
-      <c r="B21" s="73">
-        <v>43425</v>
-      </c>
-      <c r="C21" s="16" t="s">
-        <v>102</v>
-      </c>
-      <c r="D21" s="15" t="s">
-        <v>118</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="G21" s="168"/>
-      <c r="H21" s="17">
-        <v>140</v>
-      </c>
-      <c r="I21" s="2"/>
-    </row>
-    <row r="22" spans="1:10" ht="15">
-      <c r="A22" s="74" t="s">
-        <v>67</v>
-      </c>
-      <c r="B22" s="73">
-        <v>43427</v>
-      </c>
-      <c r="C22" s="20" t="s">
-        <v>102</v>
-      </c>
-      <c r="D22" s="37" t="s">
-        <v>119</v>
-      </c>
-      <c r="E22" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="F22" s="50" t="s">
-        <v>114</v>
-      </c>
-      <c r="G22" s="168"/>
+      <c r="F22" s="46" t="s">
+        <v>111</v>
+      </c>
+      <c r="G22" s="164"/>
       <c r="H22" s="17">
         <v>140</v>
       </c>
-      <c r="I22" s="75">
+      <c r="I22" s="70">
         <v>43438</v>
       </c>
-      <c r="J22" s="76">
+      <c r="J22" s="71">
         <v>1400</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="15">
-      <c r="A23" s="62" t="s">
-        <v>70</v>
-      </c>
-      <c r="B23" s="63">
+      <c r="A23" s="57" t="s">
+        <v>68</v>
+      </c>
+      <c r="B23" s="58">
         <v>43430</v>
       </c>
       <c r="C23" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="D23" s="61" t="s">
-        <v>60</v>
+      <c r="D23" s="56" t="s">
+        <v>58</v>
       </c>
       <c r="E23" s="10"/>
       <c r="F23" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="G23" s="168" t="s">
-        <v>45</v>
+        <v>101</v>
+      </c>
+      <c r="G23" s="164" t="s">
+        <v>43</v>
       </c>
       <c r="H23" s="17">
         <v>140</v>
@@ -4384,223 +4240,223 @@
       <c r="I23" s="2"/>
     </row>
     <row r="24" spans="1:10" ht="15">
-      <c r="A24" s="66" t="s">
-        <v>73</v>
-      </c>
-      <c r="B24" s="67">
+      <c r="A24" s="61" t="s">
+        <v>71</v>
+      </c>
+      <c r="B24" s="62">
         <v>43432</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="G24" s="168"/>
+        <v>102</v>
+      </c>
+      <c r="G24" s="164"/>
       <c r="H24" s="17">
         <v>140</v>
       </c>
       <c r="I24" s="2"/>
     </row>
     <row r="25" spans="1:10" ht="15">
-      <c r="A25" s="66" t="s">
-        <v>76</v>
-      </c>
-      <c r="B25" s="67">
+      <c r="A25" s="61" t="s">
+        <v>74</v>
+      </c>
+      <c r="B25" s="62">
         <v>43434</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="G25" s="168"/>
+        <v>103</v>
+      </c>
+      <c r="G25" s="164"/>
       <c r="H25" s="17">
         <v>140</v>
       </c>
       <c r="I25" s="2"/>
     </row>
     <row r="26" spans="1:10" ht="15">
-      <c r="A26" s="66" t="s">
-        <v>79</v>
-      </c>
-      <c r="B26" s="67">
+      <c r="A26" s="61" t="s">
+        <v>77</v>
+      </c>
+      <c r="B26" s="62">
         <v>43437</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="G26" s="168"/>
+        <v>104</v>
+      </c>
+      <c r="G26" s="164"/>
       <c r="H26" s="17">
         <v>140</v>
       </c>
       <c r="I26" s="2"/>
     </row>
     <row r="27" spans="1:10" ht="15">
-      <c r="A27" s="66" t="s">
-        <v>93</v>
-      </c>
-      <c r="B27" s="67">
+      <c r="A27" s="61" t="s">
+        <v>90</v>
+      </c>
+      <c r="B27" s="62">
         <v>43439</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="G27" s="168"/>
+        <v>105</v>
+      </c>
+      <c r="G27" s="164"/>
       <c r="H27" s="17">
         <v>140</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="15">
-      <c r="A28" s="66" t="s">
-        <v>94</v>
-      </c>
-      <c r="B28" s="67">
+      <c r="A28" s="61" t="s">
+        <v>91</v>
+      </c>
+      <c r="B28" s="62">
         <v>43441</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="G28" s="168"/>
+        <v>106</v>
+      </c>
+      <c r="G28" s="164"/>
       <c r="H28" s="17">
         <v>140</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="15">
-      <c r="A29" s="66" t="s">
-        <v>95</v>
-      </c>
-      <c r="B29" s="67">
+      <c r="A29" s="61" t="s">
+        <v>92</v>
+      </c>
+      <c r="B29" s="62">
         <v>43444</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="G29" s="168"/>
+        <v>107</v>
+      </c>
+      <c r="G29" s="164"/>
       <c r="H29" s="17">
         <v>140</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="15">
-      <c r="A30" s="66" t="s">
-        <v>96</v>
-      </c>
-      <c r="B30" s="67">
+      <c r="A30" s="61" t="s">
+        <v>93</v>
+      </c>
+      <c r="B30" s="62">
         <v>43446</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="G30" s="168"/>
+        <v>109</v>
+      </c>
+      <c r="G30" s="164"/>
       <c r="H30" s="17">
         <v>140</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="15">
-      <c r="A31" s="66" t="s">
-        <v>97</v>
-      </c>
-      <c r="B31" s="67">
+      <c r="A31" s="61" t="s">
+        <v>94</v>
+      </c>
+      <c r="B31" s="62">
         <v>43448</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>81</v>
-      </c>
-      <c r="E31" s="77" t="s">
-        <v>100</v>
+        <v>79</v>
+      </c>
+      <c r="E31" s="72" t="s">
+        <v>97</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="G31" s="168"/>
+        <v>110</v>
+      </c>
+      <c r="G31" s="164"/>
       <c r="H31" s="17">
         <v>140</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="15">
-      <c r="A32" s="68" t="s">
-        <v>99</v>
-      </c>
-      <c r="B32" s="53">
+      <c r="A32" s="63" t="s">
+        <v>96</v>
+      </c>
+      <c r="B32" s="48">
         <v>43451</v>
       </c>
-      <c r="C32" s="50" t="s">
+      <c r="C32" s="46" t="s">
         <v>29</v>
       </c>
-      <c r="D32" s="37"/>
-      <c r="E32" s="50"/>
-      <c r="F32" s="50" t="s">
-        <v>114</v>
-      </c>
-      <c r="G32" s="168"/>
-      <c r="H32" s="37">
-        <v>140</v>
-      </c>
-      <c r="I32" s="75">
+      <c r="D32" s="33"/>
+      <c r="E32" s="46"/>
+      <c r="F32" s="46" t="s">
+        <v>111</v>
+      </c>
+      <c r="G32" s="164"/>
+      <c r="H32" s="33">
+        <v>140</v>
+      </c>
+      <c r="I32" s="70">
         <v>43461</v>
       </c>
-      <c r="J32" s="76">
+      <c r="J32" s="71">
         <v>1400</v>
       </c>
     </row>
@@ -4622,10 +4478,15 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr enableFormatConditionsCalculation="0">
+    <tabColor indexed="47"/>
+  </sheetPr>
   <dimension ref="A1:K38"/>
   <sheetViews>
-    <sheetView zoomScale="95" zoomScaleNormal="95" workbookViewId="0"/>
+    <sheetView zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="D38" sqref="D38"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="14.25"/>
   <cols>
@@ -4643,248 +4504,248 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="173" t="s">
+      <c r="A1" s="168" t="s">
+        <v>117</v>
+      </c>
+      <c r="B1" s="168"/>
+      <c r="C1" s="168"/>
+      <c r="D1" s="168"/>
+      <c r="E1" s="168"/>
+      <c r="F1" s="168"/>
+      <c r="G1" s="168"/>
+      <c r="H1" s="168"/>
+    </row>
+    <row r="2" spans="1:10" ht="15">
+      <c r="A2" s="73" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="35" t="s">
+        <v>118</v>
+      </c>
+      <c r="G2" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="74"/>
+    </row>
+    <row r="3" spans="1:10" ht="15">
+      <c r="A3" s="57" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="58">
+        <v>43312</v>
+      </c>
+      <c r="C3" s="59" t="s">
+        <v>99</v>
+      </c>
+      <c r="D3" s="75"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="38" t="s">
+        <v>101</v>
+      </c>
+      <c r="G3" s="162" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" s="38">
         <v>120</v>
       </c>
-      <c r="B1" s="173"/>
-      <c r="C1" s="173"/>
-      <c r="D1" s="173"/>
-      <c r="E1" s="173"/>
-      <c r="F1" s="173"/>
-      <c r="G1" s="173"/>
-      <c r="H1" s="173"/>
-    </row>
-    <row r="2" spans="1:10" ht="15">
-      <c r="A2" s="78" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="39" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="39" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="39" t="s">
-        <v>121</v>
-      </c>
-      <c r="G2" s="39" t="s">
-        <v>5</v>
-      </c>
-      <c r="H2" s="79"/>
-    </row>
-    <row r="3" spans="1:10" ht="15">
-      <c r="A3" s="62" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="63">
-        <v>43312</v>
-      </c>
-      <c r="C3" s="64" t="s">
+      <c r="J3" s="60"/>
+    </row>
+    <row r="4" spans="1:10" ht="15">
+      <c r="A4" s="61" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="62">
+        <v>43314</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="D4" s="50"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="41" t="s">
         <v>102</v>
       </c>
-      <c r="D3" s="80"/>
-      <c r="E3" s="64"/>
-      <c r="F3" s="42" t="s">
+      <c r="G4" s="162"/>
+      <c r="H4" s="41">
+        <v>120</v>
+      </c>
+      <c r="J4" s="60"/>
+    </row>
+    <row r="5" spans="1:10" ht="15">
+      <c r="A5" s="61" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="62">
+        <v>43319</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="D5" s="50"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="41" t="s">
+        <v>103</v>
+      </c>
+      <c r="G5" s="162"/>
+      <c r="H5" s="41">
+        <v>120</v>
+      </c>
+      <c r="J5" s="60"/>
+    </row>
+    <row r="6" spans="1:10" ht="15">
+      <c r="A6" s="61" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="62">
+        <v>43321</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="D6" s="50"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="41" t="s">
         <v>104</v>
       </c>
-      <c r="G3" s="167" t="s">
-        <v>11</v>
-      </c>
-      <c r="H3" s="42">
+      <c r="G6" s="162"/>
+      <c r="H6" s="41">
         <v>120</v>
       </c>
-      <c r="J3" s="65"/>
-    </row>
-    <row r="4" spans="1:10" ht="15">
-      <c r="A4" s="66" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="67">
-        <v>43314</v>
-      </c>
-      <c r="C4" s="16" t="s">
-        <v>102</v>
-      </c>
-      <c r="D4" s="55"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="45" t="s">
+      <c r="J6" s="60"/>
+    </row>
+    <row r="7" spans="1:10" ht="15">
+      <c r="A7" s="61" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="62">
+        <v>43326</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="D7" s="50"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="41" t="s">
         <v>105</v>
       </c>
-      <c r="G4" s="167"/>
-      <c r="H4" s="45">
+      <c r="G7" s="162"/>
+      <c r="H7" s="41">
         <v>120</v>
       </c>
-      <c r="J4" s="65"/>
-    </row>
-    <row r="5" spans="1:10" ht="15">
-      <c r="A5" s="66" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="67">
-        <v>43319</v>
-      </c>
-      <c r="C5" s="16" t="s">
-        <v>102</v>
-      </c>
-      <c r="D5" s="55"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="45" t="s">
+      <c r="J7" s="60"/>
+    </row>
+    <row r="8" spans="1:10" ht="15">
+      <c r="A8" s="61" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="62">
+        <v>43328</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="D8" s="50"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="41" t="s">
         <v>106</v>
       </c>
-      <c r="G5" s="167"/>
-      <c r="H5" s="45">
+      <c r="G8" s="162"/>
+      <c r="H8" s="41">
         <v>120</v>
       </c>
-      <c r="J5" s="65"/>
-    </row>
-    <row r="6" spans="1:10" ht="15">
-      <c r="A6" s="66" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" s="67">
-        <v>43321</v>
-      </c>
-      <c r="C6" s="16" t="s">
-        <v>102</v>
-      </c>
-      <c r="D6" s="55"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="45" t="s">
+      <c r="J8" s="60"/>
+    </row>
+    <row r="9" spans="1:10" ht="15">
+      <c r="A9" s="61" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="62">
+        <v>43333</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="D9" s="50"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="41" t="s">
         <v>107</v>
       </c>
-      <c r="G6" s="167"/>
-      <c r="H6" s="45">
+      <c r="G9" s="162"/>
+      <c r="H9" s="41">
         <v>120</v>
       </c>
-      <c r="J6" s="65"/>
-    </row>
-    <row r="7" spans="1:10" ht="15">
-      <c r="A7" s="66" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" s="67">
-        <v>43326</v>
-      </c>
-      <c r="C7" s="16" t="s">
-        <v>102</v>
-      </c>
-      <c r="D7" s="55"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="45" t="s">
-        <v>108</v>
-      </c>
-      <c r="G7" s="167"/>
-      <c r="H7" s="45">
+    </row>
+    <row r="10" spans="1:10" ht="15">
+      <c r="A10" s="61" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="62">
+        <v>43335</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="D10" s="50"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="41" t="s">
+        <v>109</v>
+      </c>
+      <c r="G10" s="162"/>
+      <c r="H10" s="41">
         <v>120</v>
       </c>
-      <c r="J7" s="65"/>
-    </row>
-    <row r="8" spans="1:10" ht="15">
-      <c r="A8" s="66" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" s="67">
-        <v>43328</v>
-      </c>
-      <c r="C8" s="16" t="s">
-        <v>102</v>
-      </c>
-      <c r="D8" s="55"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="45" t="s">
-        <v>109</v>
-      </c>
-      <c r="G8" s="167"/>
-      <c r="H8" s="45">
+    </row>
+    <row r="11" spans="1:10" ht="15">
+      <c r="A11" s="61" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="62">
+        <v>43340</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="D11" s="50"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="41" t="s">
+        <v>110</v>
+      </c>
+      <c r="G11" s="162"/>
+      <c r="H11" s="41">
         <v>120</v>
       </c>
-      <c r="J8" s="65"/>
-    </row>
-    <row r="9" spans="1:10" ht="15">
-      <c r="A9" s="66" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" s="67">
-        <v>43333</v>
-      </c>
-      <c r="C9" s="16" t="s">
-        <v>102</v>
-      </c>
-      <c r="D9" s="55"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="45" t="s">
-        <v>110</v>
-      </c>
-      <c r="G9" s="167"/>
-      <c r="H9" s="45">
+      <c r="I11" s="2"/>
+    </row>
+    <row r="12" spans="1:10" ht="15">
+      <c r="A12" s="63" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="48">
+        <v>43342</v>
+      </c>
+      <c r="C12" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="D12" s="64"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="49" t="s">
+        <v>111</v>
+      </c>
+      <c r="G12" s="162"/>
+      <c r="H12" s="41">
         <v>120</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" ht="15">
-      <c r="A10" s="66" t="s">
-        <v>24</v>
-      </c>
-      <c r="B10" s="67">
-        <v>43335</v>
-      </c>
-      <c r="C10" s="16" t="s">
-        <v>102</v>
-      </c>
-      <c r="D10" s="55"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="45" t="s">
-        <v>112</v>
-      </c>
-      <c r="G10" s="167"/>
-      <c r="H10" s="45">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="15">
-      <c r="A11" s="66" t="s">
-        <v>26</v>
-      </c>
-      <c r="B11" s="67">
-        <v>43340</v>
-      </c>
-      <c r="C11" s="16" t="s">
-        <v>102</v>
-      </c>
-      <c r="D11" s="55"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="45" t="s">
-        <v>113</v>
-      </c>
-      <c r="G11" s="167"/>
-      <c r="H11" s="45">
-        <v>120</v>
-      </c>
-      <c r="I11" s="2"/>
-    </row>
-    <row r="12" spans="1:10" ht="15">
-      <c r="A12" s="68" t="s">
-        <v>27</v>
-      </c>
-      <c r="B12" s="53">
-        <v>43342</v>
-      </c>
-      <c r="C12" s="20" t="s">
-        <v>102</v>
-      </c>
-      <c r="D12" s="69"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="54" t="s">
-        <v>114</v>
-      </c>
-      <c r="G12" s="167"/>
-      <c r="H12" s="45">
-        <v>120</v>
-      </c>
-      <c r="I12" s="73">
+      <c r="I12" s="68">
         <v>43356</v>
       </c>
       <c r="J12" s="2">
@@ -4892,504 +4753,504 @@
       </c>
     </row>
     <row r="13" spans="1:10" ht="15">
-      <c r="A13" s="70" t="s">
-        <v>49</v>
-      </c>
-      <c r="B13" s="71">
+      <c r="A13" s="65" t="s">
+        <v>47</v>
+      </c>
+      <c r="B13" s="66">
         <v>43347</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E13" s="10"/>
       <c r="F13" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="G13" s="167" t="s">
+        <v>101</v>
+      </c>
+      <c r="G13" s="162" t="s">
         <v>31</v>
       </c>
-      <c r="H13" s="45">
+      <c r="H13" s="41">
         <v>120</v>
       </c>
       <c r="I13" s="2"/>
     </row>
     <row r="14" spans="1:10" ht="15">
-      <c r="A14" s="72" t="s">
-        <v>51</v>
-      </c>
-      <c r="B14" s="73">
+      <c r="A14" s="67" t="s">
+        <v>49</v>
+      </c>
+      <c r="B14" s="68">
         <v>43349</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D14" s="17" t="s">
         <v>32</v>
       </c>
       <c r="F14" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="G14" s="162"/>
+      <c r="H14" s="41">
+        <v>120</v>
+      </c>
+      <c r="I14" s="2"/>
+    </row>
+    <row r="15" spans="1:10" ht="15">
+      <c r="A15" s="67" t="s">
+        <v>52</v>
+      </c>
+      <c r="B15" s="68">
+        <v>43354</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="D15" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="G15" s="162"/>
+      <c r="H15" s="41">
+        <v>120</v>
+      </c>
+      <c r="I15" s="2"/>
+    </row>
+    <row r="16" spans="1:10" ht="15">
+      <c r="A16" s="67" t="s">
+        <v>54</v>
+      </c>
+      <c r="B16" s="68">
+        <v>43356</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="D16" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="G16" s="162"/>
+      <c r="H16" s="41">
+        <v>120</v>
+      </c>
+      <c r="I16" s="2"/>
+    </row>
+    <row r="17" spans="1:11" ht="15">
+      <c r="A17" s="67" t="s">
+        <v>55</v>
+      </c>
+      <c r="B17" s="68">
+        <v>43361</v>
+      </c>
+      <c r="C17" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="D17" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F17" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="G14" s="167"/>
-      <c r="H14" s="45">
+      <c r="G17" s="162"/>
+      <c r="H17" s="41">
         <v>120</v>
       </c>
-      <c r="I14" s="2"/>
-    </row>
-    <row r="15" spans="1:10" ht="15">
-      <c r="A15" s="72" t="s">
-        <v>54</v>
-      </c>
-      <c r="B15" s="73">
-        <v>43354</v>
-      </c>
-      <c r="C15" s="16" t="s">
-        <v>102</v>
-      </c>
-      <c r="D15" s="15" t="s">
-        <v>123</v>
-      </c>
-      <c r="F15" s="2" t="s">
+      <c r="I17" s="2"/>
+    </row>
+    <row r="18" spans="1:11" ht="15">
+      <c r="A18" s="67" t="s">
+        <v>56</v>
+      </c>
+      <c r="B18" s="68">
+        <v>43363</v>
+      </c>
+      <c r="C18" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="D18" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F18" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="G15" s="167"/>
-      <c r="H15" s="45">
+      <c r="G18" s="162"/>
+      <c r="H18" s="41">
         <v>120</v>
       </c>
-      <c r="I15" s="2"/>
-    </row>
-    <row r="16" spans="1:10" ht="15">
-      <c r="A16" s="72" t="s">
-        <v>56</v>
-      </c>
-      <c r="B16" s="73">
-        <v>43356</v>
-      </c>
-      <c r="C16" s="16" t="s">
-        <v>102</v>
-      </c>
-      <c r="D16" s="17" t="s">
-        <v>116</v>
-      </c>
-      <c r="F16" s="2" t="s">
+      <c r="I18" s="2"/>
+    </row>
+    <row r="19" spans="1:11" ht="15">
+      <c r="A19" s="67" t="s">
+        <v>57</v>
+      </c>
+      <c r="B19" s="68">
+        <v>43368</v>
+      </c>
+      <c r="C19" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="D19" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F19" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="G16" s="167"/>
-      <c r="H16" s="45">
+      <c r="G19" s="162"/>
+      <c r="H19" s="41">
         <v>120</v>
       </c>
-      <c r="I16" s="2"/>
-    </row>
-    <row r="17" spans="1:11" ht="15">
-      <c r="A17" s="72" t="s">
-        <v>57</v>
-      </c>
-      <c r="B17" s="73">
-        <v>43361</v>
-      </c>
-      <c r="C17" s="16" t="s">
-        <v>102</v>
-      </c>
-      <c r="D17" s="15" t="s">
+      <c r="I19" s="2"/>
+    </row>
+    <row r="20" spans="1:11" ht="15">
+      <c r="A20" s="67" t="s">
+        <v>60</v>
+      </c>
+      <c r="B20" s="68">
+        <v>43370</v>
+      </c>
+      <c r="C20" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="D20" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="E17" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="G17" s="167"/>
-      <c r="H17" s="45">
+      <c r="E20" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="G20" s="162"/>
+      <c r="H20" s="41">
         <v>120</v>
       </c>
-      <c r="I17" s="2"/>
-    </row>
-    <row r="18" spans="1:11" ht="15">
-      <c r="A18" s="72" t="s">
-        <v>58</v>
-      </c>
-      <c r="B18" s="73">
-        <v>43363</v>
-      </c>
-      <c r="C18" s="16" t="s">
-        <v>102</v>
-      </c>
-      <c r="D18" s="15" t="s">
-        <v>117</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="G18" s="167"/>
-      <c r="H18" s="45">
+      <c r="I20" s="2"/>
+    </row>
+    <row r="21" spans="1:11" ht="15">
+      <c r="A21" s="67" t="s">
+        <v>62</v>
+      </c>
+      <c r="B21" s="68">
+        <v>43375</v>
+      </c>
+      <c r="C21" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="D21" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="G21" s="162"/>
+      <c r="H21" s="41">
         <v>120</v>
       </c>
-      <c r="I18" s="2"/>
-    </row>
-    <row r="19" spans="1:11" ht="15">
-      <c r="A19" s="72" t="s">
+      <c r="I21" s="2"/>
+    </row>
+    <row r="22" spans="1:11" ht="15">
+      <c r="A22" s="69" t="s">
+        <v>65</v>
+      </c>
+      <c r="B22" s="62">
+        <v>43382</v>
+      </c>
+      <c r="C22" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="D22" s="33" t="s">
+        <v>122</v>
+      </c>
+      <c r="E22" s="46" t="s">
         <v>59</v>
       </c>
-      <c r="B19" s="73">
-        <v>43368</v>
-      </c>
-      <c r="C19" s="16" t="s">
-        <v>102</v>
-      </c>
-      <c r="D19" s="15" t="s">
-        <v>124</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="G19" s="167"/>
-      <c r="H19" s="45">
+      <c r="F22" s="46" t="s">
+        <v>111</v>
+      </c>
+      <c r="G22" s="162"/>
+      <c r="H22" s="41">
         <v>120</v>
       </c>
-      <c r="I19" s="2"/>
-    </row>
-    <row r="20" spans="1:11" ht="15">
-      <c r="A20" s="72" t="s">
-        <v>62</v>
-      </c>
-      <c r="B20" s="73">
-        <v>43370</v>
-      </c>
-      <c r="C20" s="16" t="s">
-        <v>102</v>
-      </c>
-      <c r="D20" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="G20" s="167"/>
-      <c r="H20" s="45">
-        <v>120</v>
-      </c>
-      <c r="I20" s="2"/>
-    </row>
-    <row r="21" spans="1:11" ht="15">
-      <c r="A21" s="72" t="s">
-        <v>64</v>
-      </c>
-      <c r="B21" s="73">
-        <v>43375</v>
-      </c>
-      <c r="C21" s="16" t="s">
-        <v>102</v>
-      </c>
-      <c r="D21" s="17" t="s">
-        <v>118</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="G21" s="167"/>
-      <c r="H21" s="45">
-        <v>120</v>
-      </c>
-      <c r="I21" s="2"/>
-    </row>
-    <row r="22" spans="1:11" ht="15">
-      <c r="A22" s="74" t="s">
-        <v>67</v>
-      </c>
-      <c r="B22" s="67">
-        <v>43382</v>
-      </c>
-      <c r="C22" s="20" t="s">
-        <v>102</v>
-      </c>
-      <c r="D22" s="37" t="s">
-        <v>125</v>
-      </c>
-      <c r="E22" s="50" t="s">
-        <v>61</v>
-      </c>
-      <c r="F22" s="50" t="s">
-        <v>114</v>
-      </c>
-      <c r="G22" s="167"/>
-      <c r="H22" s="45">
-        <v>120</v>
-      </c>
-      <c r="I22" s="81">
+      <c r="I22" s="76">
         <v>43396</v>
       </c>
       <c r="J22" s="2">
         <v>1200</v>
       </c>
       <c r="K22" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="15">
+      <c r="A23" s="57" t="s">
+        <v>68</v>
+      </c>
+      <c r="B23" s="58">
+        <v>43384</v>
+      </c>
+      <c r="C23" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="D23" s="56" t="s">
+        <v>58</v>
+      </c>
+      <c r="E23" s="10"/>
+      <c r="F23" s="38" t="s">
+        <v>101</v>
+      </c>
+      <c r="G23" s="162" t="s">
+        <v>43</v>
+      </c>
+      <c r="H23" s="41">
+        <v>120</v>
+      </c>
+      <c r="I23" s="2"/>
+    </row>
+    <row r="24" spans="1:11" ht="15">
+      <c r="A24" s="61" t="s">
+        <v>71</v>
+      </c>
+      <c r="B24" s="62">
+        <v>43389</v>
+      </c>
+      <c r="C24" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="D24" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F24" s="41" t="s">
+        <v>102</v>
+      </c>
+      <c r="G24" s="162"/>
+      <c r="H24" s="41">
+        <v>120</v>
+      </c>
+      <c r="I24" s="2"/>
+    </row>
+    <row r="25" spans="1:11" ht="15">
+      <c r="A25" s="61" t="s">
+        <v>74</v>
+      </c>
+      <c r="B25" s="62">
+        <v>43391</v>
+      </c>
+      <c r="C25" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="D25" s="17" t="s">
+        <v>124</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F25" s="41" t="s">
+        <v>103</v>
+      </c>
+      <c r="G25" s="162"/>
+      <c r="H25" s="41">
+        <v>120</v>
+      </c>
+      <c r="I25" s="2"/>
+    </row>
+    <row r="26" spans="1:11" ht="15">
+      <c r="A26" s="61" t="s">
+        <v>77</v>
+      </c>
+      <c r="B26" s="62">
+        <v>43396</v>
+      </c>
+      <c r="C26" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="D26" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F26" s="41" t="s">
+        <v>104</v>
+      </c>
+      <c r="G26" s="162"/>
+      <c r="H26" s="41">
+        <v>120</v>
+      </c>
+      <c r="I26" s="2"/>
+    </row>
+    <row r="27" spans="1:11" ht="15">
+      <c r="A27" s="61" t="s">
+        <v>90</v>
+      </c>
+      <c r="B27" s="62">
+        <v>43398</v>
+      </c>
+      <c r="C27" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="D27" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F27" s="41" t="s">
+        <v>105</v>
+      </c>
+      <c r="G27" s="162"/>
+      <c r="H27" s="41">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="15">
+      <c r="A28" s="61" t="s">
+        <v>91</v>
+      </c>
+      <c r="B28" s="62">
+        <v>43403</v>
+      </c>
+      <c r="C28" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="D28" s="17" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="23" spans="1:11" ht="15">
-      <c r="A23" s="62" t="s">
-        <v>70</v>
-      </c>
-      <c r="B23" s="63">
-        <v>43384</v>
-      </c>
-      <c r="C23" s="16" t="s">
-        <v>102</v>
-      </c>
-      <c r="D23" s="61" t="s">
-        <v>60</v>
-      </c>
-      <c r="E23" s="10"/>
-      <c r="F23" s="42" t="s">
-        <v>104</v>
-      </c>
-      <c r="G23" s="167" t="s">
-        <v>45</v>
-      </c>
-      <c r="H23" s="45">
+      <c r="E28" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F28" s="41" t="s">
+        <v>106</v>
+      </c>
+      <c r="G28" s="162"/>
+      <c r="H28" s="41">
         <v>120</v>
       </c>
-      <c r="I23" s="2"/>
-    </row>
-    <row r="24" spans="1:11" ht="15">
-      <c r="A24" s="66" t="s">
-        <v>73</v>
-      </c>
-      <c r="B24" s="67">
-        <v>43389</v>
-      </c>
-      <c r="C24" s="16" t="s">
-        <v>102</v>
-      </c>
-      <c r="D24" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="F24" s="45" t="s">
-        <v>105</v>
-      </c>
-      <c r="G24" s="167"/>
-      <c r="H24" s="45">
+    </row>
+    <row r="29" spans="1:11" ht="15">
+      <c r="A29" s="61" t="s">
+        <v>92</v>
+      </c>
+      <c r="B29" s="68">
+        <v>43405</v>
+      </c>
+      <c r="C29" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="D29" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F29" s="41" t="s">
+        <v>107</v>
+      </c>
+      <c r="G29" s="162"/>
+      <c r="H29" s="41">
         <v>120</v>
       </c>
-      <c r="I24" s="2"/>
-    </row>
-    <row r="25" spans="1:11" ht="15">
-      <c r="A25" s="66" t="s">
-        <v>76</v>
-      </c>
-      <c r="B25" s="67">
-        <v>43391</v>
-      </c>
-      <c r="C25" s="16" t="s">
-        <v>102</v>
-      </c>
-      <c r="D25" s="17" t="s">
+    </row>
+    <row r="30" spans="1:11" ht="15">
+      <c r="A30" s="61" t="s">
+        <v>93</v>
+      </c>
+      <c r="B30" s="68">
+        <v>43417</v>
+      </c>
+      <c r="C30" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="D30" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="F30" s="41" t="s">
+        <v>109</v>
+      </c>
+      <c r="G30" s="162"/>
+      <c r="H30" s="41">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" ht="15">
+      <c r="A31" s="61" t="s">
+        <v>94</v>
+      </c>
+      <c r="B31" s="68">
+        <v>43424</v>
+      </c>
+      <c r="C31" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="D31" s="77" t="s">
         <v>127</v>
       </c>
-      <c r="E25" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="F25" s="45" t="s">
-        <v>106</v>
-      </c>
-      <c r="G25" s="167"/>
-      <c r="H25" s="45">
+      <c r="E31" s="72" t="s">
+        <v>97</v>
+      </c>
+      <c r="F31" s="41" t="s">
+        <v>110</v>
+      </c>
+      <c r="G31" s="162"/>
+      <c r="H31" s="41">
         <v>120</v>
       </c>
-      <c r="I25" s="2"/>
-    </row>
-    <row r="26" spans="1:11" ht="15">
-      <c r="A26" s="66" t="s">
-        <v>79</v>
-      </c>
-      <c r="B26" s="67">
-        <v>43396</v>
-      </c>
-      <c r="C26" s="16" t="s">
-        <v>102</v>
-      </c>
-      <c r="D26" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="F26" s="45" t="s">
-        <v>107</v>
-      </c>
-      <c r="G26" s="167"/>
-      <c r="H26" s="45">
+    </row>
+    <row r="32" spans="1:11" s="29" customFormat="1" ht="15.75">
+      <c r="A32" s="78" t="s">
+        <v>96</v>
+      </c>
+      <c r="B32" s="79">
+        <v>43426</v>
+      </c>
+      <c r="C32" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="D32" s="80" t="s">
+        <v>128</v>
+      </c>
+      <c r="E32" s="81"/>
+      <c r="F32" s="82" t="s">
+        <v>111</v>
+      </c>
+      <c r="G32" s="162"/>
+      <c r="H32" s="82">
         <v>120</v>
       </c>
-      <c r="I26" s="2"/>
-    </row>
-    <row r="27" spans="1:11" ht="15">
-      <c r="A27" s="66" t="s">
-        <v>93</v>
-      </c>
-      <c r="B27" s="67">
-        <v>43398</v>
-      </c>
-      <c r="C27" s="16" t="s">
-        <v>102</v>
-      </c>
-      <c r="D27" s="17" t="s">
-        <v>128</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="F27" s="45" t="s">
-        <v>108</v>
-      </c>
-      <c r="G27" s="167"/>
-      <c r="H27" s="45">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" ht="15">
-      <c r="A28" s="66" t="s">
-        <v>94</v>
-      </c>
-      <c r="B28" s="67">
-        <v>43403</v>
-      </c>
-      <c r="C28" s="16" t="s">
-        <v>102</v>
-      </c>
-      <c r="D28" s="17" t="s">
-        <v>129</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="F28" s="45" t="s">
-        <v>109</v>
-      </c>
-      <c r="G28" s="167"/>
-      <c r="H28" s="45">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" ht="15">
-      <c r="A29" s="66" t="s">
-        <v>95</v>
-      </c>
-      <c r="B29" s="73">
-        <v>43405</v>
-      </c>
-      <c r="C29" s="16" t="s">
-        <v>102</v>
-      </c>
-      <c r="D29" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="F29" s="45" t="s">
-        <v>110</v>
-      </c>
-      <c r="G29" s="167"/>
-      <c r="H29" s="45">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" ht="15">
-      <c r="A30" s="66" t="s">
-        <v>96</v>
-      </c>
-      <c r="B30" s="73">
-        <v>43417</v>
-      </c>
-      <c r="C30" s="16" t="s">
-        <v>102</v>
-      </c>
-      <c r="D30" s="17" t="s">
-        <v>81</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="F30" s="45" t="s">
-        <v>112</v>
-      </c>
-      <c r="G30" s="167"/>
-      <c r="H30" s="45">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" ht="15">
-      <c r="A31" s="66" t="s">
-        <v>97</v>
-      </c>
-      <c r="B31" s="73">
-        <v>43424</v>
-      </c>
-      <c r="C31" s="16" t="s">
-        <v>102</v>
-      </c>
-      <c r="D31" s="82" t="s">
-        <v>130</v>
-      </c>
-      <c r="E31" s="77" t="s">
-        <v>100</v>
-      </c>
-      <c r="F31" s="45" t="s">
-        <v>113</v>
-      </c>
-      <c r="G31" s="167"/>
-      <c r="H31" s="45">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" s="29" customFormat="1" ht="15.75">
-      <c r="A32" s="83" t="s">
-        <v>99</v>
-      </c>
-      <c r="B32" s="84">
-        <v>43426</v>
-      </c>
-      <c r="C32" s="20" t="s">
-        <v>102</v>
-      </c>
-      <c r="D32" s="85" t="s">
-        <v>131</v>
-      </c>
-      <c r="E32" s="86"/>
-      <c r="F32" s="87" t="s">
-        <v>114</v>
-      </c>
-      <c r="G32" s="167"/>
-      <c r="H32" s="87">
-        <v>120</v>
-      </c>
-      <c r="I32" s="88">
+      <c r="I32" s="83">
         <v>43440</v>
       </c>
-      <c r="J32" s="89">
+      <c r="J32" s="84">
         <v>1200</v>
       </c>
     </row>
     <row r="33" spans="1:10" ht="15">
-      <c r="A33" s="90"/>
+      <c r="A33" s="85"/>
     </row>
     <row r="36" spans="1:10">
       <c r="J36">
@@ -5424,10 +5285,15 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr enableFormatConditionsCalculation="0">
+    <tabColor indexed="47"/>
+  </sheetPr>
   <dimension ref="A1:I26"/>
   <sheetViews>
-    <sheetView zoomScale="95" zoomScaleNormal="95" workbookViewId="0"/>
+    <sheetView zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19:IV19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
   <cols>
@@ -5443,263 +5309,263 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="173" t="s">
-        <v>132</v>
-      </c>
-      <c r="B1" s="173"/>
-      <c r="C1" s="173"/>
-      <c r="D1" s="173"/>
-      <c r="E1" s="173"/>
-      <c r="F1" s="173"/>
-      <c r="G1" s="173"/>
+      <c r="A1" s="168" t="s">
+        <v>129</v>
+      </c>
+      <c r="B1" s="168"/>
+      <c r="C1" s="168"/>
+      <c r="D1" s="168"/>
+      <c r="E1" s="168"/>
+      <c r="F1" s="168"/>
+      <c r="G1" s="168"/>
     </row>
     <row r="2" spans="1:9" ht="15">
-      <c r="A2" s="78" t="s">
+      <c r="A2" s="73" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="39" t="s">
+      <c r="C2" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39" t="s">
-        <v>133</v>
-      </c>
-      <c r="F2" s="39" t="s">
-        <v>121</v>
-      </c>
-      <c r="G2" s="39" t="s">
+      <c r="D2" s="35"/>
+      <c r="E2" s="35" t="s">
+        <v>130</v>
+      </c>
+      <c r="F2" s="35" t="s">
+        <v>118</v>
+      </c>
+      <c r="G2" s="35" t="s">
         <v>5</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="15">
-      <c r="A3" s="70" t="s">
+      <c r="A3" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="91">
+      <c r="B3" s="86">
         <v>43274</v>
       </c>
-      <c r="C3" s="64" t="s">
-        <v>102</v>
-      </c>
-      <c r="D3" s="80"/>
-      <c r="E3" s="80"/>
+      <c r="C3" s="59" t="s">
+        <v>99</v>
+      </c>
+      <c r="D3" s="75"/>
+      <c r="E3" s="75"/>
       <c r="F3" s="10">
         <v>5</v>
       </c>
-      <c r="G3" s="167" t="s">
+      <c r="G3" s="162" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="15">
-      <c r="A4" s="72" t="s">
+      <c r="A4" s="67" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="92">
+      <c r="B4" s="87">
         <v>43281</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>102</v>
-      </c>
-      <c r="D4" s="55"/>
-      <c r="E4" s="55"/>
+        <v>99</v>
+      </c>
+      <c r="D4" s="50"/>
+      <c r="E4" s="50"/>
       <c r="F4" s="2">
         <v>5</v>
       </c>
-      <c r="G4" s="167"/>
+      <c r="G4" s="162"/>
     </row>
     <row r="5" spans="1:9" ht="15">
-      <c r="A5" s="72" t="s">
+      <c r="A5" s="67" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="92">
+      <c r="B5" s="87">
         <v>43288</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>102</v>
-      </c>
-      <c r="D5" s="55"/>
-      <c r="E5" s="55"/>
+        <v>99</v>
+      </c>
+      <c r="D5" s="50"/>
+      <c r="E5" s="50"/>
       <c r="F5" s="2">
         <v>5</v>
       </c>
-      <c r="G5" s="167"/>
+      <c r="G5" s="162"/>
     </row>
     <row r="6" spans="1:9" ht="15">
-      <c r="A6" s="72" t="s">
+      <c r="A6" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="92">
+      <c r="B6" s="87">
         <v>43295</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>102</v>
-      </c>
-      <c r="D6" s="55"/>
-      <c r="E6" s="55"/>
+        <v>99</v>
+      </c>
+      <c r="D6" s="50"/>
+      <c r="E6" s="50"/>
       <c r="F6" s="2">
         <v>5</v>
       </c>
-      <c r="G6" s="167"/>
+      <c r="G6" s="162"/>
     </row>
     <row r="7" spans="1:9" ht="15">
-      <c r="A7" s="72" t="s">
+      <c r="A7" s="67" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="93">
+      <c r="B7" s="88">
         <v>43302</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>102</v>
-      </c>
-      <c r="D7" s="94"/>
-      <c r="E7" s="94"/>
+        <v>99</v>
+      </c>
+      <c r="D7" s="89"/>
+      <c r="E7" s="89"/>
       <c r="F7" s="2">
         <v>5</v>
       </c>
-      <c r="G7" s="167"/>
+      <c r="G7" s="162"/>
     </row>
     <row r="8" spans="1:9" ht="15">
-      <c r="A8" s="72" t="s">
+      <c r="A8" s="67" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="93">
+      <c r="B8" s="88">
         <v>43309</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>102</v>
-      </c>
-      <c r="D8" s="94"/>
-      <c r="E8" s="94"/>
+        <v>99</v>
+      </c>
+      <c r="D8" s="89"/>
+      <c r="E8" s="89"/>
       <c r="F8" s="2">
         <v>5</v>
       </c>
-      <c r="G8" s="167"/>
+      <c r="G8" s="162"/>
     </row>
     <row r="9" spans="1:9" ht="15">
-      <c r="A9" s="72" t="s">
+      <c r="A9" s="67" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="93">
+      <c r="B9" s="88">
         <v>43316</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>102</v>
-      </c>
-      <c r="D9" s="94"/>
-      <c r="E9" s="94"/>
+        <v>99</v>
+      </c>
+      <c r="D9" s="89"/>
+      <c r="E9" s="89"/>
       <c r="F9" s="2">
         <v>5</v>
       </c>
-      <c r="G9" s="167"/>
+      <c r="G9" s="162"/>
       <c r="H9" s="2"/>
     </row>
     <row r="10" spans="1:9" ht="15">
-      <c r="A10" s="72" t="s">
+      <c r="A10" s="67" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="93">
+      <c r="B10" s="88">
         <v>43323</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>102</v>
-      </c>
-      <c r="D10" s="94"/>
-      <c r="E10" s="94"/>
+        <v>99</v>
+      </c>
+      <c r="D10" s="89"/>
+      <c r="E10" s="89"/>
       <c r="F10" s="2">
         <v>5</v>
       </c>
-      <c r="G10" s="167"/>
+      <c r="G10" s="162"/>
       <c r="H10" s="2"/>
     </row>
     <row r="11" spans="1:9" ht="15">
-      <c r="A11" s="95" t="s">
+      <c r="A11" s="90" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="96">
+      <c r="B11" s="91">
         <v>43330</v>
       </c>
-      <c r="C11" s="97" t="s">
+      <c r="C11" s="92" t="s">
+        <v>99</v>
+      </c>
+      <c r="D11" s="93" t="s">
+        <v>119</v>
+      </c>
+      <c r="E11" s="93"/>
+      <c r="F11" s="94" t="s">
+        <v>101</v>
+      </c>
+      <c r="G11" s="169" t="s">
+        <v>31</v>
+      </c>
+      <c r="H11" s="2"/>
+    </row>
+    <row r="12" spans="1:9" ht="15">
+      <c r="A12" s="95" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="96">
+        <v>43337</v>
+      </c>
+      <c r="C12" s="97" t="s">
+        <v>99</v>
+      </c>
+      <c r="D12" s="98" t="s">
+        <v>32</v>
+      </c>
+      <c r="E12" s="98"/>
+      <c r="F12" s="99" t="s">
         <v>102</v>
       </c>
-      <c r="D11" s="98" t="s">
-        <v>122</v>
-      </c>
-      <c r="E11" s="98"/>
-      <c r="F11" s="99" t="s">
+      <c r="G12" s="169"/>
+      <c r="H12" s="2"/>
+    </row>
+    <row r="13" spans="1:9" ht="15">
+      <c r="A13" s="95" t="s">
+        <v>47</v>
+      </c>
+      <c r="B13" s="96">
+        <v>43344</v>
+      </c>
+      <c r="C13" s="97" t="s">
+        <v>99</v>
+      </c>
+      <c r="D13" s="98" t="s">
+        <v>82</v>
+      </c>
+      <c r="E13" s="98"/>
+      <c r="F13" s="99" t="s">
+        <v>103</v>
+      </c>
+      <c r="G13" s="169"/>
+      <c r="H13" s="2"/>
+    </row>
+    <row r="14" spans="1:9" ht="15">
+      <c r="A14" s="95" t="s">
+        <v>49</v>
+      </c>
+      <c r="B14" s="96">
+        <v>43358</v>
+      </c>
+      <c r="C14" s="97" t="s">
+        <v>99</v>
+      </c>
+      <c r="D14" s="98" t="s">
+        <v>84</v>
+      </c>
+      <c r="E14" s="98" t="s">
+        <v>33</v>
+      </c>
+      <c r="F14" s="99" t="s">
         <v>104</v>
       </c>
-      <c r="G11" s="174" t="s">
-        <v>31</v>
-      </c>
-      <c r="H11" s="2"/>
-    </row>
-    <row r="12" spans="1:9" ht="15">
-      <c r="A12" s="100" t="s">
-        <v>27</v>
-      </c>
-      <c r="B12" s="101">
-        <v>43337</v>
-      </c>
-      <c r="C12" s="102" t="s">
-        <v>102</v>
-      </c>
-      <c r="D12" s="103" t="s">
-        <v>32</v>
-      </c>
-      <c r="E12" s="103"/>
-      <c r="F12" s="104" t="s">
-        <v>105</v>
-      </c>
-      <c r="G12" s="174"/>
-      <c r="H12" s="2"/>
-    </row>
-    <row r="13" spans="1:9" ht="15">
-      <c r="A13" s="100" t="s">
-        <v>49</v>
-      </c>
-      <c r="B13" s="101">
-        <v>43344</v>
-      </c>
-      <c r="C13" s="102" t="s">
-        <v>102</v>
-      </c>
-      <c r="D13" s="103" t="s">
-        <v>85</v>
-      </c>
-      <c r="E13" s="103"/>
-      <c r="F13" s="104" t="s">
-        <v>106</v>
-      </c>
-      <c r="G13" s="174"/>
-      <c r="H13" s="2"/>
-    </row>
-    <row r="14" spans="1:9" ht="15">
-      <c r="A14" s="100" t="s">
-        <v>51</v>
-      </c>
-      <c r="B14" s="101">
-        <v>43358</v>
-      </c>
-      <c r="C14" s="102" t="s">
-        <v>102</v>
-      </c>
-      <c r="D14" s="103" t="s">
-        <v>87</v>
-      </c>
-      <c r="E14" s="103" t="s">
-        <v>34</v>
-      </c>
-      <c r="F14" s="104" t="s">
-        <v>107</v>
-      </c>
-      <c r="G14" s="174"/>
-      <c r="H14" s="81">
+      <c r="G14" s="169"/>
+      <c r="H14" s="76">
         <v>43371</v>
       </c>
       <c r="I14" s="2">
@@ -5707,92 +5573,92 @@
       </c>
     </row>
     <row r="15" spans="1:9" ht="15">
-      <c r="A15" s="100" t="s">
+      <c r="A15" s="95" t="s">
+        <v>52</v>
+      </c>
+      <c r="B15" s="100">
+        <v>43365</v>
+      </c>
+      <c r="C15" s="97" t="s">
+        <v>99</v>
+      </c>
+      <c r="D15" s="98" t="s">
+        <v>132</v>
+      </c>
+      <c r="E15" s="98" t="s">
+        <v>35</v>
+      </c>
+      <c r="F15" s="99" t="s">
+        <v>105</v>
+      </c>
+      <c r="G15" s="169"/>
+      <c r="H15" s="2"/>
+    </row>
+    <row r="16" spans="1:9" ht="15">
+      <c r="A16" s="95" t="s">
         <v>54</v>
       </c>
-      <c r="B15" s="105">
-        <v>43365</v>
-      </c>
-      <c r="C15" s="102" t="s">
-        <v>102</v>
-      </c>
-      <c r="D15" s="103" t="s">
+      <c r="B16" s="100">
+        <v>43372</v>
+      </c>
+      <c r="C16" s="97" t="s">
+        <v>99</v>
+      </c>
+      <c r="D16" s="98" t="s">
+        <v>133</v>
+      </c>
+      <c r="E16" s="98" t="s">
+        <v>39</v>
+      </c>
+      <c r="F16" s="99" t="s">
+        <v>106</v>
+      </c>
+      <c r="G16" s="169"/>
+      <c r="H16" s="2"/>
+    </row>
+    <row r="17" spans="1:9" ht="15">
+      <c r="A17" s="95" t="s">
+        <v>55</v>
+      </c>
+      <c r="B17" s="100">
+        <v>43386</v>
+      </c>
+      <c r="C17" s="97" t="s">
+        <v>99</v>
+      </c>
+      <c r="D17" s="98" t="s">
+        <v>134</v>
+      </c>
+      <c r="E17" s="98" t="s">
+        <v>39</v>
+      </c>
+      <c r="F17" s="99" t="s">
+        <v>107</v>
+      </c>
+      <c r="G17" s="169"/>
+      <c r="H17" s="2"/>
+    </row>
+    <row r="18" spans="1:9" ht="15">
+      <c r="A18" s="101" t="s">
+        <v>56</v>
+      </c>
+      <c r="B18" s="102">
+        <v>43393</v>
+      </c>
+      <c r="C18" s="103" t="s">
+        <v>99</v>
+      </c>
+      <c r="D18" s="54" t="s">
         <v>135</v>
       </c>
-      <c r="E15" s="103" t="s">
-        <v>36</v>
-      </c>
-      <c r="F15" s="104" t="s">
-        <v>108</v>
-      </c>
-      <c r="G15" s="174"/>
-      <c r="H15" s="2"/>
-    </row>
-    <row r="16" spans="1:9" ht="15">
-      <c r="A16" s="100" t="s">
-        <v>56</v>
-      </c>
-      <c r="B16" s="105">
-        <v>43372</v>
-      </c>
-      <c r="C16" s="102" t="s">
-        <v>102</v>
-      </c>
-      <c r="D16" s="103" t="s">
+      <c r="E18" s="54" t="s">
         <v>136</v>
       </c>
-      <c r="E16" s="103" t="s">
-        <v>40</v>
-      </c>
-      <c r="F16" s="104" t="s">
+      <c r="F18" s="55" t="s">
         <v>109</v>
       </c>
-      <c r="G16" s="174"/>
-      <c r="H16" s="2"/>
-    </row>
-    <row r="17" spans="1:9" ht="15">
-      <c r="A17" s="100" t="s">
-        <v>57</v>
-      </c>
-      <c r="B17" s="105">
-        <v>43386</v>
-      </c>
-      <c r="C17" s="102" t="s">
-        <v>102</v>
-      </c>
-      <c r="D17" s="103" t="s">
-        <v>137</v>
-      </c>
-      <c r="E17" s="103" t="s">
-        <v>40</v>
-      </c>
-      <c r="F17" s="104" t="s">
-        <v>110</v>
-      </c>
-      <c r="G17" s="174"/>
-      <c r="H17" s="2"/>
-    </row>
-    <row r="18" spans="1:9" ht="15">
-      <c r="A18" s="106" t="s">
-        <v>58</v>
-      </c>
-      <c r="B18" s="107">
-        <v>43393</v>
-      </c>
-      <c r="C18" s="108" t="s">
-        <v>102</v>
-      </c>
-      <c r="D18" s="59" t="s">
-        <v>138</v>
-      </c>
-      <c r="E18" s="59" t="s">
-        <v>139</v>
-      </c>
-      <c r="F18" s="60" t="s">
-        <v>112</v>
-      </c>
-      <c r="G18" s="174"/>
-      <c r="H18" s="81">
+      <c r="G18" s="169"/>
+      <c r="H18" s="76">
         <v>43409</v>
       </c>
       <c r="I18" s="2">
@@ -5800,179 +5666,179 @@
       </c>
     </row>
     <row r="19" spans="1:9" ht="15">
-      <c r="A19" s="72" t="s">
-        <v>59</v>
-      </c>
-      <c r="B19" s="109">
+      <c r="A19" s="67" t="s">
+        <v>57</v>
+      </c>
+      <c r="B19" s="104">
         <v>43414</v>
       </c>
-      <c r="C19" s="110" t="s">
+      <c r="C19" s="105" t="s">
         <v>29</v>
       </c>
-      <c r="D19" s="61" t="s">
+      <c r="D19" s="56" t="s">
+        <v>58</v>
+      </c>
+      <c r="E19" s="56"/>
+      <c r="F19" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="G19" s="162" t="s">
+        <v>43</v>
+      </c>
+      <c r="H19" s="2"/>
+    </row>
+    <row r="20" spans="1:9" ht="15">
+      <c r="A20" s="67" t="s">
         <v>60</v>
       </c>
-      <c r="E19" s="61"/>
-      <c r="F19" s="2" t="s">
+      <c r="B20" s="104">
+        <v>43421</v>
+      </c>
+      <c r="C20" s="105" t="s">
+        <v>29</v>
+      </c>
+      <c r="D20" s="17" t="s">
+        <v>137</v>
+      </c>
+      <c r="E20" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="G20" s="162"/>
+      <c r="H20" s="2"/>
+    </row>
+    <row r="21" spans="1:9" ht="15">
+      <c r="A21" s="67" t="s">
+        <v>62</v>
+      </c>
+      <c r="B21" s="104">
+        <v>43428</v>
+      </c>
+      <c r="C21" s="105" t="s">
+        <v>29</v>
+      </c>
+      <c r="D21" s="17" t="s">
+        <v>138</v>
+      </c>
+      <c r="E21" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="G21" s="162"/>
+      <c r="H21" s="2"/>
+    </row>
+    <row r="22" spans="1:9" ht="15">
+      <c r="A22" s="67" t="s">
+        <v>65</v>
+      </c>
+      <c r="B22" s="104">
+        <v>43435</v>
+      </c>
+      <c r="C22" s="105" t="s">
+        <v>29</v>
+      </c>
+      <c r="D22" s="17" t="s">
+        <v>139</v>
+      </c>
+      <c r="E22" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="F22" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="G19" s="167" t="s">
-        <v>45</v>
-      </c>
-      <c r="H19" s="2"/>
-    </row>
-    <row r="20" spans="1:9" ht="15">
-      <c r="A20" s="72" t="s">
-        <v>62</v>
-      </c>
-      <c r="B20" s="109">
-        <v>43421</v>
-      </c>
-      <c r="C20" s="110" t="s">
-        <v>29</v>
-      </c>
-      <c r="D20" s="17" t="s">
-        <v>140</v>
-      </c>
-      <c r="E20" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="G20" s="167"/>
-      <c r="H20" s="2"/>
-    </row>
-    <row r="21" spans="1:9" ht="15">
-      <c r="A21" s="72" t="s">
-        <v>64</v>
-      </c>
-      <c r="B21" s="109">
-        <v>43428</v>
-      </c>
-      <c r="C21" s="110" t="s">
-        <v>29</v>
-      </c>
-      <c r="D21" s="17" t="s">
-        <v>141</v>
-      </c>
-      <c r="E21" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="G21" s="167"/>
-      <c r="H21" s="2"/>
-    </row>
-    <row r="22" spans="1:9" ht="15">
-      <c r="A22" s="72" t="s">
-        <v>67</v>
-      </c>
-      <c r="B22" s="109">
-        <v>43435</v>
-      </c>
-      <c r="C22" s="110" t="s">
-        <v>29</v>
-      </c>
-      <c r="D22" s="17" t="s">
-        <v>142</v>
-      </c>
-      <c r="E22" s="17" t="s">
-        <v>143</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="G22" s="167"/>
-      <c r="H22" s="75">
+      <c r="G22" s="162"/>
+      <c r="H22" s="70">
         <v>43448</v>
       </c>
-      <c r="I22" s="76">
+      <c r="I22" s="71">
         <v>600</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="15">
-      <c r="A23" s="72" t="s">
-        <v>70</v>
-      </c>
-      <c r="B23" s="111">
+      <c r="A23" s="67" t="s">
+        <v>68</v>
+      </c>
+      <c r="B23" s="106">
         <v>43442</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="E23" s="17" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="G23" s="167"/>
+        <v>105</v>
+      </c>
+      <c r="G23" s="162"/>
       <c r="H23" s="2"/>
     </row>
     <row r="24" spans="1:9" ht="15">
-      <c r="A24" s="72" t="s">
-        <v>73</v>
-      </c>
-      <c r="B24" s="111">
+      <c r="A24" s="67" t="s">
+        <v>71</v>
+      </c>
+      <c r="B24" s="106">
         <v>43449</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="E24" s="17" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="G24" s="167"/>
+        <v>106</v>
+      </c>
+      <c r="G24" s="162"/>
       <c r="H24" s="2"/>
     </row>
     <row r="25" spans="1:9" ht="15">
-      <c r="A25" s="72" t="s">
-        <v>76</v>
-      </c>
-      <c r="B25" s="111">
+      <c r="A25" s="67" t="s">
+        <v>74</v>
+      </c>
+      <c r="B25" s="106">
         <v>43477</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="17" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="E25" s="17" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="G25" s="167"/>
+        <v>107</v>
+      </c>
+      <c r="G25" s="162"/>
     </row>
     <row r="26" spans="1:9" ht="15">
-      <c r="A26" s="74" t="s">
-        <v>79</v>
-      </c>
-      <c r="B26" s="112">
+      <c r="A26" s="69" t="s">
+        <v>77</v>
+      </c>
+      <c r="B26" s="107">
         <v>43484</v>
       </c>
-      <c r="C26" s="50"/>
-      <c r="D26" s="37" t="s">
-        <v>148</v>
-      </c>
-      <c r="E26" s="37" t="s">
-        <v>100</v>
-      </c>
-      <c r="F26" s="50" t="s">
-        <v>112</v>
-      </c>
-      <c r="G26" s="167"/>
+      <c r="C26" s="46"/>
+      <c r="D26" s="33" t="s">
+        <v>145</v>
+      </c>
+      <c r="E26" s="33" t="s">
+        <v>97</v>
+      </c>
+      <c r="F26" s="46" t="s">
+        <v>109</v>
+      </c>
+      <c r="G26" s="162"/>
       <c r="I26" s="2">
         <v>600</v>
       </c>
@@ -5997,11 +5863,14 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr enableFormatConditionsCalculation="0">
+    <tabColor indexed="47"/>
+  </sheetPr>
   <dimension ref="A1:K30"/>
   <sheetViews>
     <sheetView zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
@@ -6020,614 +5889,614 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="175" t="s">
-        <v>149</v>
-      </c>
-      <c r="B1" s="175"/>
-      <c r="C1" s="175"/>
-      <c r="D1" s="175"/>
-      <c r="E1" s="175"/>
-      <c r="F1" s="175"/>
-      <c r="G1" s="175"/>
-      <c r="H1" s="175"/>
+      <c r="A1" s="170" t="s">
+        <v>146</v>
+      </c>
+      <c r="B1" s="170"/>
+      <c r="C1" s="170"/>
+      <c r="D1" s="170"/>
+      <c r="E1" s="170"/>
+      <c r="F1" s="170"/>
+      <c r="G1" s="170"/>
+      <c r="H1" s="170"/>
     </row>
     <row r="2" spans="1:11" ht="15">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="39" t="s">
+      <c r="C2" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39" t="s">
-        <v>133</v>
-      </c>
-      <c r="F2" s="39" t="s">
-        <v>121</v>
-      </c>
-      <c r="G2" s="39" t="s">
+      <c r="D2" s="35"/>
+      <c r="E2" s="35" t="s">
+        <v>130</v>
+      </c>
+      <c r="F2" s="35" t="s">
+        <v>118</v>
+      </c>
+      <c r="G2" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="39" t="s">
-        <v>150</v>
+      <c r="H2" s="35" t="s">
+        <v>147</v>
       </c>
       <c r="I2" s="16"/>
     </row>
     <row r="3" spans="1:11" ht="15">
-      <c r="A3" s="90" t="s">
+      <c r="A3" s="85" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="90"/>
+      <c r="B3" s="85"/>
       <c r="C3" s="16" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D3" s="16"/>
       <c r="E3" s="16"/>
       <c r="F3" s="2">
         <v>5</v>
       </c>
-      <c r="G3" s="175" t="s">
-        <v>151</v>
-      </c>
-      <c r="J3" s="176" t="s">
-        <v>152</v>
-      </c>
-      <c r="K3" s="176"/>
+      <c r="G3" s="170" t="s">
+        <v>148</v>
+      </c>
+      <c r="J3" s="171" t="s">
+        <v>149</v>
+      </c>
+      <c r="K3" s="171"/>
     </row>
     <row r="4" spans="1:11" ht="15">
-      <c r="A4" s="90" t="s">
+      <c r="A4" s="85" t="s">
         <v>12</v>
       </c>
       <c r="B4" s="16"/>
       <c r="C4" s="16" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D4" s="16"/>
       <c r="E4" s="16"/>
       <c r="F4" s="2">
         <v>5</v>
       </c>
-      <c r="G4" s="175"/>
+      <c r="G4" s="170"/>
       <c r="J4" t="s">
-        <v>153</v>
-      </c>
-      <c r="K4" s="65">
+        <v>150</v>
+      </c>
+      <c r="K4" s="60">
         <f>140/8</f>
         <v>17.5</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="15">
-      <c r="A5" s="90" t="s">
+      <c r="A5" s="85" t="s">
         <v>14</v>
       </c>
       <c r="B5" s="16"/>
       <c r="C5" s="16" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D5" s="16"/>
       <c r="E5" s="16"/>
       <c r="F5" s="2">
         <v>5</v>
       </c>
-      <c r="G5" s="175"/>
+      <c r="G5" s="170"/>
       <c r="J5" t="s">
-        <v>154</v>
-      </c>
-      <c r="K5" s="65">
+        <v>151</v>
+      </c>
+      <c r="K5" s="60">
         <f>K4</f>
         <v>17.5</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="15">
-      <c r="A6" s="90" t="s">
+      <c r="A6" s="85" t="s">
         <v>16</v>
       </c>
       <c r="B6" s="16"/>
       <c r="C6" s="16" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D6" s="16"/>
       <c r="E6" s="16"/>
       <c r="F6" s="2">
         <v>5</v>
       </c>
-      <c r="G6" s="175"/>
+      <c r="G6" s="170"/>
       <c r="J6" t="s">
-        <v>155</v>
-      </c>
-      <c r="K6" s="65">
+        <v>152</v>
+      </c>
+      <c r="K6" s="60">
         <f>K4*2</f>
         <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="15">
-      <c r="A7" s="62" t="s">
+      <c r="A7" s="57" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="64"/>
-      <c r="C7" s="64" t="s">
-        <v>102</v>
-      </c>
-      <c r="D7" s="64"/>
-      <c r="E7" s="64"/>
+      <c r="B7" s="59"/>
+      <c r="C7" s="59" t="s">
+        <v>99</v>
+      </c>
+      <c r="D7" s="59"/>
+      <c r="E7" s="59"/>
       <c r="F7" s="10">
         <v>5</v>
       </c>
-      <c r="G7" s="168" t="s">
+      <c r="G7" s="164" t="s">
         <v>11</v>
       </c>
       <c r="J7" t="s">
-        <v>156</v>
-      </c>
-      <c r="K7" s="65">
+        <v>153</v>
+      </c>
+      <c r="K7" s="60">
         <f>K4*3</f>
         <v>52.5</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="15">
-      <c r="A8" s="66" t="s">
+      <c r="A8" s="61" t="s">
         <v>20</v>
       </c>
       <c r="B8" s="16"/>
       <c r="C8" s="16" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D8" s="16"/>
       <c r="E8" s="16"/>
       <c r="F8" s="2">
         <v>5</v>
       </c>
-      <c r="G8" s="168"/>
+      <c r="G8" s="164"/>
       <c r="J8" t="s">
-        <v>157</v>
-      </c>
-      <c r="K8" s="65">
+        <v>154</v>
+      </c>
+      <c r="K8" s="60">
         <f>K4*4</f>
         <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="15">
-      <c r="A9" s="66" t="s">
+      <c r="A9" s="61" t="s">
         <v>22</v>
       </c>
       <c r="B9" s="16"/>
       <c r="C9" s="16" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D9" s="16"/>
       <c r="E9" s="16"/>
       <c r="F9" s="2">
         <v>5</v>
       </c>
-      <c r="G9" s="168"/>
+      <c r="G9" s="164"/>
       <c r="J9" t="s">
-        <v>158</v>
-      </c>
-      <c r="K9" s="65">
+        <v>155</v>
+      </c>
+      <c r="K9" s="60">
         <f>K4*5</f>
         <v>87.5</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="15">
-      <c r="A10" s="66" t="s">
+      <c r="A10" s="61" t="s">
         <v>24</v>
       </c>
       <c r="B10" s="16"/>
       <c r="C10" s="16" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D10" s="16"/>
       <c r="E10" s="16"/>
       <c r="F10" s="2">
         <v>5</v>
       </c>
-      <c r="G10" s="168"/>
+      <c r="G10" s="164"/>
       <c r="J10" t="s">
-        <v>159</v>
-      </c>
-      <c r="K10" s="65">
+        <v>156</v>
+      </c>
+      <c r="K10" s="60">
         <f>K4*6</f>
         <v>105</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="15">
-      <c r="A11" s="66" t="s">
+      <c r="A11" s="61" t="s">
         <v>26</v>
       </c>
       <c r="B11" s="16"/>
       <c r="C11" s="16" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D11" s="16"/>
       <c r="E11" s="16"/>
       <c r="F11" s="2">
         <v>5</v>
       </c>
-      <c r="G11" s="168"/>
+      <c r="G11" s="164"/>
       <c r="J11" t="s">
-        <v>160</v>
-      </c>
-      <c r="K11" s="65">
+        <v>157</v>
+      </c>
+      <c r="K11" s="60">
         <f>K4*7</f>
         <v>122.5</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="15">
-      <c r="A12" s="66" t="s">
+      <c r="A12" s="61" t="s">
         <v>27</v>
       </c>
       <c r="B12" s="16"/>
       <c r="C12" s="16" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D12" s="16"/>
       <c r="E12" s="16"/>
       <c r="F12" s="2">
         <v>5</v>
       </c>
-      <c r="G12" s="168"/>
+      <c r="G12" s="164"/>
       <c r="J12" t="s">
-        <v>161</v>
-      </c>
-      <c r="K12" s="65">
+        <v>158</v>
+      </c>
+      <c r="K12" s="60">
         <f>K4*8</f>
         <v>140</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="15">
-      <c r="A13" s="66" t="s">
-        <v>49</v>
+      <c r="A13" s="61" t="s">
+        <v>47</v>
       </c>
       <c r="B13" s="16"/>
       <c r="C13" s="16" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D13" s="16"/>
       <c r="E13" s="16"/>
       <c r="F13" s="2">
         <v>5</v>
       </c>
-      <c r="G13" s="168"/>
+      <c r="G13" s="164"/>
     </row>
     <row r="14" spans="1:11" ht="15">
-      <c r="A14" s="68" t="s">
-        <v>51</v>
+      <c r="A14" s="63" t="s">
+        <v>49</v>
       </c>
       <c r="B14" s="20"/>
       <c r="C14" s="20" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
-      <c r="F14" s="50">
+      <c r="F14" s="46">
         <v>5</v>
       </c>
-      <c r="G14" s="168"/>
+      <c r="G14" s="164"/>
     </row>
     <row r="15" spans="1:11" ht="15">
-      <c r="A15" s="62" t="s">
-        <v>54</v>
-      </c>
-      <c r="B15" s="64"/>
-      <c r="C15" s="64" t="s">
-        <v>102</v>
-      </c>
-      <c r="D15" s="64"/>
-      <c r="E15" s="64"/>
+      <c r="A15" s="57" t="s">
+        <v>52</v>
+      </c>
+      <c r="B15" s="59"/>
+      <c r="C15" s="59" t="s">
+        <v>99</v>
+      </c>
+      <c r="D15" s="59"/>
+      <c r="E15" s="59"/>
       <c r="F15" s="10">
         <v>1</v>
       </c>
-      <c r="G15" s="168" t="s">
+      <c r="G15" s="164" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="15">
-      <c r="A16" s="66" t="s">
-        <v>56</v>
-      </c>
-      <c r="B16" s="67">
+      <c r="A16" s="61" t="s">
+        <v>54</v>
+      </c>
+      <c r="B16" s="62">
         <v>43261</v>
       </c>
       <c r="C16" s="16" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D16" s="16"/>
       <c r="E16" s="16"/>
       <c r="F16" s="2">
         <v>2</v>
       </c>
-      <c r="G16" s="168"/>
+      <c r="G16" s="164"/>
     </row>
     <row r="17" spans="1:10" ht="15">
-      <c r="A17" s="66" t="s">
-        <v>57</v>
-      </c>
-      <c r="B17" s="67">
+      <c r="A17" s="61" t="s">
+        <v>55</v>
+      </c>
+      <c r="B17" s="62">
         <v>43268</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D17" s="16"/>
       <c r="E17" s="16"/>
       <c r="F17" s="2">
         <v>3</v>
       </c>
-      <c r="G17" s="168"/>
+      <c r="G17" s="164"/>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
     </row>
     <row r="18" spans="1:10" ht="15">
-      <c r="A18" s="66" t="s">
-        <v>58</v>
-      </c>
-      <c r="B18" s="67">
+      <c r="A18" s="61" t="s">
+        <v>56</v>
+      </c>
+      <c r="B18" s="62">
         <v>43275</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D18" s="16"/>
       <c r="E18" s="16"/>
       <c r="F18" s="2">
         <v>4</v>
       </c>
-      <c r="G18" s="168"/>
+      <c r="G18" s="164"/>
     </row>
     <row r="19" spans="1:10" ht="15">
-      <c r="A19" s="72" t="s">
-        <v>59</v>
-      </c>
-      <c r="B19" s="73">
+      <c r="A19" s="67" t="s">
+        <v>57</v>
+      </c>
+      <c r="B19" s="68">
         <v>43282</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="F19" s="2">
         <v>5</v>
       </c>
-      <c r="G19" s="168"/>
+      <c r="G19" s="164"/>
     </row>
     <row r="20" spans="1:10" ht="15">
-      <c r="A20" s="72" t="s">
-        <v>62</v>
-      </c>
-      <c r="B20" s="73">
+      <c r="A20" s="67" t="s">
+        <v>60</v>
+      </c>
+      <c r="B20" s="68">
         <v>43289</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="F20" s="2">
         <v>6</v>
       </c>
-      <c r="G20" s="168"/>
+      <c r="G20" s="164"/>
     </row>
     <row r="21" spans="1:10" ht="15">
-      <c r="A21" s="72" t="s">
-        <v>64</v>
-      </c>
-      <c r="B21" s="73">
+      <c r="A21" s="67" t="s">
+        <v>62</v>
+      </c>
+      <c r="B21" s="68">
         <v>43296</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="F21" s="2">
         <v>7</v>
       </c>
-      <c r="G21" s="168"/>
+      <c r="G21" s="164"/>
     </row>
     <row r="22" spans="1:10" ht="15">
-      <c r="A22" s="74" t="s">
-        <v>67</v>
-      </c>
-      <c r="B22" s="113">
+      <c r="A22" s="69" t="s">
+        <v>65</v>
+      </c>
+      <c r="B22" s="108">
         <v>43303</v>
       </c>
       <c r="C22" s="20" t="s">
-        <v>102</v>
-      </c>
-      <c r="D22" s="50" t="s">
-        <v>164</v>
-      </c>
-      <c r="E22" s="50"/>
-      <c r="F22" s="50">
+        <v>99</v>
+      </c>
+      <c r="D22" s="46" t="s">
+        <v>161</v>
+      </c>
+      <c r="E22" s="46"/>
+      <c r="F22" s="46">
         <v>8</v>
       </c>
-      <c r="G22" s="168"/>
+      <c r="G22" s="164"/>
     </row>
     <row r="23" spans="1:10" ht="15">
-      <c r="A23" s="70" t="s">
-        <v>70</v>
-      </c>
-      <c r="B23" s="63">
+      <c r="A23" s="65" t="s">
+        <v>68</v>
+      </c>
+      <c r="B23" s="58">
         <v>43310</v>
       </c>
-      <c r="C23" s="64" t="s">
-        <v>102</v>
+      <c r="C23" s="59" t="s">
+        <v>99</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E23" s="10"/>
       <c r="F23" s="10">
         <v>1</v>
       </c>
-      <c r="G23" s="168" t="s">
-        <v>45</v>
+      <c r="G23" s="164" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="15">
-      <c r="A24" s="72" t="s">
-        <v>73</v>
-      </c>
-      <c r="B24" s="67">
+      <c r="A24" s="67" t="s">
+        <v>71</v>
+      </c>
+      <c r="B24" s="62">
         <v>43317</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F24" s="2">
         <v>2</v>
       </c>
-      <c r="G24" s="168"/>
+      <c r="G24" s="164"/>
     </row>
     <row r="25" spans="1:10" ht="15">
-      <c r="A25" s="72" t="s">
-        <v>76</v>
-      </c>
-      <c r="B25" s="67">
+      <c r="A25" s="67" t="s">
+        <v>74</v>
+      </c>
+      <c r="B25" s="62">
         <v>43331</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="F25" s="2">
         <v>3</v>
       </c>
-      <c r="G25" s="168"/>
+      <c r="G25" s="164"/>
     </row>
     <row r="26" spans="1:10" ht="15">
-      <c r="A26" s="72" t="s">
-        <v>79</v>
-      </c>
-      <c r="B26" s="67">
+      <c r="A26" s="67" t="s">
+        <v>77</v>
+      </c>
+      <c r="B26" s="62">
         <v>43338</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="F26" s="2">
         <v>4</v>
       </c>
-      <c r="G26" s="168"/>
+      <c r="G26" s="164"/>
       <c r="H26" s="2" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="15">
-      <c r="A27" s="72" t="s">
-        <v>93</v>
-      </c>
-      <c r="B27" s="73">
+      <c r="A27" s="67" t="s">
+        <v>90</v>
+      </c>
+      <c r="B27" s="68">
         <v>43345</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="F27" s="2">
         <v>5</v>
       </c>
-      <c r="G27" s="168"/>
+      <c r="G27" s="164"/>
     </row>
     <row r="28" spans="1:10" ht="15">
-      <c r="A28" s="72" t="s">
-        <v>94</v>
-      </c>
-      <c r="B28" s="73">
+      <c r="A28" s="67" t="s">
+        <v>91</v>
+      </c>
+      <c r="B28" s="68">
         <v>43359</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="F28" s="2">
         <v>6</v>
       </c>
-      <c r="G28" s="168"/>
+      <c r="G28" s="164"/>
     </row>
     <row r="29" spans="1:10" ht="15">
-      <c r="A29" s="72" t="s">
-        <v>95</v>
-      </c>
-      <c r="B29" s="73">
+      <c r="A29" s="67" t="s">
+        <v>92</v>
+      </c>
+      <c r="B29" s="68">
         <v>43373</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="F29" s="2">
         <v>7</v>
       </c>
-      <c r="G29" s="168"/>
+      <c r="G29" s="164"/>
     </row>
     <row r="30" spans="1:10" ht="15">
-      <c r="A30" s="74" t="s">
-        <v>96</v>
-      </c>
-      <c r="B30" s="113">
+      <c r="A30" s="69" t="s">
+        <v>93</v>
+      </c>
+      <c r="B30" s="108">
         <v>43387</v>
       </c>
       <c r="C30" s="20" t="s">
-        <v>102</v>
-      </c>
-      <c r="D30" s="50" t="s">
-        <v>168</v>
-      </c>
-      <c r="E30" s="50" t="s">
-        <v>88</v>
-      </c>
-      <c r="F30" s="50">
+        <v>99</v>
+      </c>
+      <c r="D30" s="46" t="s">
+        <v>165</v>
+      </c>
+      <c r="E30" s="46" t="s">
+        <v>85</v>
+      </c>
+      <c r="F30" s="46">
         <v>8</v>
       </c>
-      <c r="G30" s="168"/>
-      <c r="H30" s="81">
+      <c r="G30" s="164"/>
+      <c r="H30" s="76">
         <v>43396</v>
       </c>
       <c r="I30" s="16">
         <v>600</v>
       </c>
       <c r="J30" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
   </sheetData>

--- a/Cronograma aulas/Aulas v2.xlsx
+++ b/Cronograma aulas/Aulas v2.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21901"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Linux Sab Vesp\Documents\github\aulas-3way\Cronograma aulas\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C717545C-9715-4F11-AA6A-4831502BD3AF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" tabRatio="489"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="489" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="t7_seg_e_qua" sheetId="1" r:id="rId1"/>
@@ -15,17 +21,24 @@
     <sheet name="t2_Sábado" sheetId="6" r:id="rId6"/>
     <sheet name="t1_Domingo_(finalizada)" sheetId="7" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="114210"/>
+  <calcPr calcId="181029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="D15" authorId="0">
+    <comment ref="D15" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000001000000}">
       <text>
         <r>
           <rPr>
@@ -43,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="727" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="713" uniqueCount="171">
   <si>
     <t>Segunda e Quarta – sala 04 (senha javaweb)</t>
   </si>
@@ -163,9 +176,6 @@
   </si>
   <si>
     <t>Jsp-servlet-crud</t>
-  </si>
-  <si>
-    <t>Concluir/Revisar CRUD, Passar filtro,  Crud com JPA     http://www.universidadejava.com.br/materiais/jpa-exemplo-crud/</t>
   </si>
   <si>
     <t>Jsp-servlet-crud-filtro</t>
@@ -573,17 +583,20 @@
   <si>
     <t>Criar DAO - implementar DAO em cima do exercicio Cliente</t>
   </si>
+  <si>
+    <t>jsp-servlet-jpa</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="[$R$-416]\ #,##0.00;[Red]\-[$R$-416]\ #,##0.00"/>
     <numFmt numFmtId="165" formatCode="m/d/yy"/>
     <numFmt numFmtId="166" formatCode="dd/mm/yy;@"/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -618,22 +631,6 @@
     <font>
       <sz val="11"/>
       <color indexed="8"/>
-      <name val="Liberation Sans1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color indexed="55"/>
-      <name val="Liberation Sans1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="52"/>
-      <name val="Liberation Sans1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="52"/>
       <name val="Liberation Sans1"/>
     </font>
     <font>
@@ -707,8 +704,13 @@
       <color rgb="FF000000"/>
       <name val="Liberation Sans1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Liberation Sans1"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -719,12 +721,6 @@
       <patternFill patternType="solid">
         <fgColor indexed="47"/>
         <bgColor indexed="14"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="39"/>
-        <bgColor indexed="34"/>
       </patternFill>
     </fill>
     <fill>
@@ -972,9 +968,9 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="21" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="172">
+  <cellXfs count="165">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1052,411 +1048,392 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="8" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="1" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="14" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="16" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="11" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="15" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="1" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="17" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="19" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="19" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="8" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1534,6 +1511,14 @@
       <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1554,7 +1539,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1026" name="shapetype_202" hidden="1"/>
+        <xdr:cNvPr id="1026" name="shapetype_202" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noSelect="1" noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -1586,7 +1577,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1628,7 +1619,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1660,9 +1651,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1694,6 +1703,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1869,11 +1896,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H31"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H30"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18:C19"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="14.25"/>
@@ -1888,34 +1915,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="162" t="s">
+      <c r="A1" s="153" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="162"/>
-      <c r="C1" s="162"/>
-      <c r="D1" s="162"/>
-      <c r="E1" s="162"/>
-      <c r="F1" s="162"/>
-      <c r="G1" s="162"/>
+      <c r="B1" s="153"/>
+      <c r="C1" s="153"/>
+      <c r="D1" s="153"/>
+      <c r="E1" s="153"/>
+      <c r="F1" s="153"/>
+      <c r="G1" s="153"/>
     </row>
     <row r="2" spans="1:8" ht="15">
-      <c r="A2" s="73" t="s">
+      <c r="A2" s="68" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="115" t="s">
+      <c r="B2" s="109" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="115" t="s">
+      <c r="C2" s="109" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="115"/>
-      <c r="E2" s="115" t="s">
+      <c r="D2" s="109"/>
+      <c r="E2" s="109" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="115" t="s">
+      <c r="F2" s="109" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="74" t="s">
+      <c r="G2" s="69" t="s">
         <v>6</v>
       </c>
       <c r="H2" s="2" t="s">
@@ -1923,20 +1950,20 @@
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="116" t="s">
+      <c r="A3" s="110" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="132">
+      <c r="B3" s="125">
         <v>43647</v>
       </c>
-      <c r="C3" s="117" t="s">
+      <c r="C3" s="111" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="118" t="s">
+      <c r="D3" s="112" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="142"/>
-      <c r="F3" s="162" t="s">
+      <c r="E3" s="133"/>
+      <c r="F3" s="153" t="s">
         <v>11</v>
       </c>
       <c r="G3" s="11">
@@ -1944,161 +1971,161 @@
       </c>
     </row>
     <row r="4" spans="1:8" ht="15">
-      <c r="A4" s="119" t="s">
+      <c r="A4" s="113" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="133">
+      <c r="B4" s="126">
         <v>43649</v>
       </c>
-      <c r="C4" s="110" t="s">
+      <c r="C4" s="105" t="s">
         <v>9</v>
       </c>
       <c r="D4" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="111"/>
-      <c r="F4" s="162"/>
+      <c r="E4" s="106"/>
+      <c r="F4" s="153"/>
       <c r="G4" s="17">
         <v>140</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="15">
-      <c r="A5" s="119" t="s">
+      <c r="A5" s="113" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="133">
+      <c r="B5" s="126">
         <v>43654</v>
       </c>
-      <c r="C5" s="110" t="s">
+      <c r="C5" s="105" t="s">
         <v>9</v>
       </c>
       <c r="D5" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="111"/>
-      <c r="F5" s="162"/>
+      <c r="E5" s="106"/>
+      <c r="F5" s="153"/>
       <c r="G5" s="17">
         <v>140</v>
       </c>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="119" t="s">
+      <c r="A6" s="113" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="133">
+      <c r="B6" s="126">
         <v>43656</v>
       </c>
-      <c r="C6" s="110" t="s">
+      <c r="C6" s="105" t="s">
         <v>9</v>
       </c>
       <c r="D6" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="112"/>
-      <c r="F6" s="162"/>
+      <c r="E6" s="107"/>
+      <c r="F6" s="153"/>
       <c r="G6" s="17">
         <v>140</v>
       </c>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="119" t="s">
+      <c r="A7" s="113" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="133">
+      <c r="B7" s="126">
         <v>43661</v>
       </c>
-      <c r="C7" s="110" t="s">
+      <c r="C7" s="105" t="s">
         <v>9</v>
       </c>
       <c r="D7" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="112"/>
-      <c r="F7" s="162"/>
+      <c r="E7" s="107"/>
+      <c r="F7" s="153"/>
       <c r="G7" s="17">
         <v>140</v>
       </c>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="119" t="s">
+      <c r="A8" s="113" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="133">
+      <c r="B8" s="126">
         <v>43668</v>
       </c>
-      <c r="C8" s="110" t="s">
+      <c r="C8" s="105" t="s">
         <v>9</v>
       </c>
       <c r="D8" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="E8" s="112"/>
-      <c r="F8" s="162"/>
+      <c r="E8" s="107"/>
+      <c r="F8" s="153"/>
       <c r="G8" s="17">
         <v>140</v>
       </c>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="119" t="s">
+      <c r="A9" s="113" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="133">
+      <c r="B9" s="126">
         <v>43670</v>
       </c>
-      <c r="C9" s="110" t="s">
+      <c r="C9" s="105" t="s">
         <v>9</v>
       </c>
       <c r="D9" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="E9" s="112"/>
-      <c r="F9" s="162"/>
+      <c r="E9" s="107"/>
+      <c r="F9" s="153"/>
       <c r="G9" s="17">
         <v>140</v>
       </c>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="119" t="s">
+      <c r="A10" s="113" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="133">
+      <c r="B10" s="126">
         <v>43675</v>
       </c>
-      <c r="C10" s="110" t="s">
+      <c r="C10" s="105" t="s">
         <v>9</v>
       </c>
       <c r="D10" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="E10" s="112"/>
-      <c r="F10" s="162"/>
+      <c r="E10" s="107"/>
+      <c r="F10" s="153"/>
       <c r="G10" s="17">
         <v>140</v>
       </c>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="119" t="s">
+      <c r="A11" s="113" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="133">
+      <c r="B11" s="126">
         <v>43677</v>
       </c>
-      <c r="C11" s="110" t="s">
+      <c r="C11" s="105" t="s">
         <v>9</v>
       </c>
       <c r="D11" s="17"/>
-      <c r="E11" s="112"/>
-      <c r="F11" s="162"/>
+      <c r="E11" s="107"/>
+      <c r="F11" s="153"/>
       <c r="G11" s="17">
         <v>140</v>
       </c>
       <c r="H11" s="2"/>
     </row>
     <row r="12" spans="1:8" ht="15">
-      <c r="A12" s="120" t="s">
+      <c r="A12" s="114" t="s">
         <v>27</v>
       </c>
-      <c r="B12" s="133">
+      <c r="B12" s="126">
         <v>43682</v>
       </c>
       <c r="C12" s="19" t="s">
@@ -2108,27 +2135,27 @@
         <v>28</v>
       </c>
       <c r="E12" s="20"/>
-      <c r="F12" s="162"/>
+      <c r="F12" s="153"/>
       <c r="G12" s="17">
         <v>140</v>
       </c>
       <c r="H12" s="21"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="121" t="s">
+      <c r="A13" s="115" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="134">
+      <c r="B13" s="149">
         <v>43684</v>
       </c>
       <c r="C13" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="D13" s="11" t="s">
+      <c r="D13" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="E13" s="10"/>
-      <c r="F13" s="162" t="s">
+      <c r="E13" s="11"/>
+      <c r="F13" s="153" t="s">
         <v>31</v>
       </c>
       <c r="G13" s="17">
@@ -2137,315 +2164,298 @@
       <c r="H13" s="2"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="119" t="s">
+      <c r="A14" s="113" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="133">
+      <c r="B14" s="126">
         <v>43691</v>
       </c>
-      <c r="C14" s="23" t="s">
+      <c r="C14" s="146" t="s">
         <v>29</v>
       </c>
-      <c r="D14" s="17" t="s">
+      <c r="D14" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="E14" s="112"/>
-      <c r="F14" s="162"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="153"/>
       <c r="G14" s="17">
         <v>140</v>
       </c>
       <c r="H14" s="2"/>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="119" t="s">
+      <c r="A15" s="113" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="133">
+      <c r="B15" s="126">
         <v>43698</v>
       </c>
-      <c r="C15" s="23" t="s">
+      <c r="C15" s="146" t="s">
         <v>29</v>
       </c>
-      <c r="D15" s="15" t="s">
+      <c r="D15" s="140" t="s">
         <v>32</v>
       </c>
-      <c r="E15" s="112"/>
-      <c r="F15" s="162"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="153"/>
       <c r="G15" s="17">
         <v>140</v>
       </c>
       <c r="H15" s="2"/>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="119" t="s">
+      <c r="A16" s="113" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="133">
+      <c r="B16" s="126">
         <v>43703</v>
       </c>
-      <c r="C16" s="23" t="s">
+      <c r="C16" s="146" t="s">
         <v>29</v>
       </c>
-      <c r="D16" s="17" t="s">
+      <c r="D16" s="37" t="s">
+        <v>167</v>
+      </c>
+      <c r="E16" s="17"/>
+      <c r="F16" s="153"/>
+      <c r="G16" s="17">
+        <v>140</v>
+      </c>
+      <c r="H16" s="2"/>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="113" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="129">
+        <v>43710</v>
+      </c>
+      <c r="C17" s="146"/>
+      <c r="D17" s="37" t="s">
         <v>168</v>
       </c>
-      <c r="E16" s="112"/>
-      <c r="F16" s="162"/>
-      <c r="G16" s="17">
-        <v>140</v>
-      </c>
-      <c r="H16" s="2"/>
-    </row>
-    <row r="17" spans="1:8">
-      <c r="A17" s="119" t="s">
+      <c r="E17" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="F17" s="153"/>
+      <c r="G17" s="17">
+        <v>140</v>
+      </c>
+      <c r="H17" s="2"/>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="113" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" s="126">
+        <v>43712</v>
+      </c>
+      <c r="C18" s="146"/>
+      <c r="D18" s="140" t="s">
+        <v>36</v>
+      </c>
+      <c r="E18" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="F18" s="153"/>
+      <c r="G18" s="17">
+        <v>140</v>
+      </c>
+      <c r="H18" s="2"/>
+    </row>
+    <row r="19" spans="1:8" s="26" customFormat="1">
+      <c r="A19" s="113" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" s="126">
+        <v>43717</v>
+      </c>
+      <c r="C19" s="24"/>
+      <c r="D19" s="140" t="s">
+        <v>38</v>
+      </c>
+      <c r="E19" s="15"/>
+      <c r="F19" s="153"/>
+      <c r="G19" s="15">
+        <v>140</v>
+      </c>
+      <c r="H19" s="25"/>
+    </row>
+    <row r="20" spans="1:8" s="27" customFormat="1">
+      <c r="A20" s="114" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" s="150">
+        <v>43749</v>
+      </c>
+      <c r="C20" s="152"/>
+      <c r="D20" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="E20" s="164"/>
+      <c r="F20" s="153"/>
+      <c r="G20" s="131">
+        <v>140</v>
+      </c>
+      <c r="H20" s="1"/>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="113" t="s">
+        <v>8</v>
+      </c>
+      <c r="B21" s="126">
+        <v>43754</v>
+      </c>
+      <c r="C21" s="146"/>
+      <c r="D21" s="108"/>
+      <c r="E21" s="136"/>
+      <c r="F21" s="153" t="s">
+        <v>42</v>
+      </c>
+      <c r="G21" s="17">
+        <v>140</v>
+      </c>
+      <c r="H21" s="2"/>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="113" t="s">
+        <v>12</v>
+      </c>
+      <c r="B22" s="126">
+        <v>43759</v>
+      </c>
+      <c r="C22" s="23"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="37"/>
+      <c r="F22" s="153"/>
+      <c r="G22" s="17">
+        <v>140</v>
+      </c>
+      <c r="H22" s="2"/>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="113" t="s">
+        <v>14</v>
+      </c>
+      <c r="B23" s="126">
+        <v>43761</v>
+      </c>
+      <c r="C23" s="23"/>
+      <c r="D23" s="37"/>
+      <c r="E23" s="37"/>
+      <c r="F23" s="153"/>
+      <c r="G23" s="17">
+        <v>140</v>
+      </c>
+      <c r="H23" s="2"/>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="113" t="s">
+        <v>16</v>
+      </c>
+      <c r="B24" s="126">
+        <v>43766</v>
+      </c>
+      <c r="C24" s="23"/>
+      <c r="D24" s="37"/>
+      <c r="E24" s="37"/>
+      <c r="F24" s="153"/>
+      <c r="G24" s="17">
+        <v>140</v>
+      </c>
+      <c r="H24" s="2"/>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="113" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="135">
-        <v>43705</v>
-      </c>
-      <c r="C17" s="23"/>
-      <c r="D17" s="17" t="s">
-        <v>169</v>
-      </c>
-      <c r="E17" s="112" t="s">
-        <v>35</v>
-      </c>
-      <c r="F17" s="162"/>
-      <c r="G17" s="17">
-        <v>140</v>
-      </c>
-      <c r="H17" s="2"/>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="A18" s="119" t="s">
+      <c r="B25" s="126">
+        <v>43768</v>
+      </c>
+      <c r="C25" s="23"/>
+      <c r="D25" s="37"/>
+      <c r="E25" s="37"/>
+      <c r="F25" s="153"/>
+      <c r="G25" s="17">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="113" t="s">
         <v>20</v>
       </c>
-      <c r="B18" s="136">
-        <v>43710</v>
-      </c>
-      <c r="C18" s="23"/>
-      <c r="D18" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="E18" s="112" t="s">
-        <v>37</v>
-      </c>
-      <c r="F18" s="162"/>
-      <c r="G18" s="17">
-        <v>140</v>
-      </c>
-      <c r="H18" s="2"/>
-    </row>
-    <row r="19" spans="1:8" s="26" customFormat="1">
-      <c r="A19" s="119" t="s">
+      <c r="B26" s="126"/>
+      <c r="C26" s="23"/>
+      <c r="D26" s="37"/>
+      <c r="E26" s="37"/>
+      <c r="F26" s="153"/>
+      <c r="G26" s="17">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="113" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="133">
-        <v>43712</v>
-      </c>
-      <c r="C19" s="24"/>
-      <c r="D19" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="E19" s="110"/>
-      <c r="F19" s="162"/>
-      <c r="G19" s="15">
-        <v>140</v>
-      </c>
-      <c r="H19" s="25"/>
-    </row>
-    <row r="20" spans="1:8" s="29" customFormat="1">
-      <c r="A20" s="119" t="s">
+      <c r="B27" s="126"/>
+      <c r="C27" s="23"/>
+      <c r="D27" s="37"/>
+      <c r="E27" s="37"/>
+      <c r="F27" s="153"/>
+      <c r="G27" s="17">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="113" t="s">
         <v>24</v>
       </c>
-      <c r="B20" s="133">
-        <v>43717</v>
-      </c>
-      <c r="C20" s="27"/>
-      <c r="D20" s="28" t="s">
-        <v>40</v>
-      </c>
-      <c r="E20" s="113"/>
-      <c r="F20" s="162"/>
-      <c r="G20" s="139">
-        <v>140</v>
-      </c>
-      <c r="H20" s="1"/>
-    </row>
-    <row r="21" spans="1:8" s="30" customFormat="1" ht="15">
-      <c r="A21" s="122"/>
-      <c r="B21" s="137"/>
-      <c r="C21" s="31"/>
-      <c r="D21" s="45" t="s">
-        <v>42</v>
-      </c>
-      <c r="E21" s="145"/>
-      <c r="F21" s="162"/>
-      <c r="G21" s="140"/>
-      <c r="H21" s="32"/>
-    </row>
-    <row r="22" spans="1:8">
-      <c r="A22" s="121" t="s">
-        <v>8</v>
-      </c>
-      <c r="B22" s="134">
-        <v>43749</v>
-      </c>
-      <c r="C22" s="22"/>
-      <c r="D22" s="114"/>
-      <c r="E22" s="146"/>
-      <c r="F22" s="162" t="s">
-        <v>43</v>
-      </c>
-      <c r="G22" s="17">
-        <v>140</v>
-      </c>
-      <c r="H22" s="2"/>
-    </row>
-    <row r="23" spans="1:8">
-      <c r="A23" s="119" t="s">
-        <v>12</v>
-      </c>
-      <c r="B23" s="133">
-        <v>43754</v>
-      </c>
-      <c r="C23" s="23"/>
-      <c r="D23" s="12"/>
-      <c r="E23" s="42"/>
-      <c r="F23" s="162"/>
-      <c r="G23" s="17">
-        <v>140</v>
-      </c>
-      <c r="H23" s="2"/>
-    </row>
-    <row r="24" spans="1:8">
-      <c r="A24" s="119" t="s">
-        <v>14</v>
-      </c>
-      <c r="B24" s="133">
-        <v>43759</v>
-      </c>
-      <c r="C24" s="23"/>
-      <c r="D24" s="42"/>
-      <c r="E24" s="42"/>
-      <c r="F24" s="162"/>
-      <c r="G24" s="17">
-        <v>140</v>
-      </c>
-      <c r="H24" s="2"/>
-    </row>
-    <row r="25" spans="1:8">
-      <c r="A25" s="119" t="s">
-        <v>16</v>
-      </c>
-      <c r="B25" s="133">
-        <v>43761</v>
-      </c>
-      <c r="C25" s="23"/>
-      <c r="D25" s="42"/>
-      <c r="E25" s="42"/>
-      <c r="F25" s="162"/>
-      <c r="G25" s="17">
-        <v>140</v>
-      </c>
-      <c r="H25" s="2"/>
-    </row>
-    <row r="26" spans="1:8">
-      <c r="A26" s="119" t="s">
-        <v>18</v>
-      </c>
-      <c r="B26" s="133">
-        <v>43766</v>
-      </c>
-      <c r="C26" s="23"/>
-      <c r="D26" s="42"/>
-      <c r="E26" s="42"/>
-      <c r="F26" s="162"/>
-      <c r="G26" s="17">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
-      <c r="A27" s="119" t="s">
-        <v>20</v>
-      </c>
-      <c r="B27" s="133">
-        <v>43768</v>
-      </c>
-      <c r="C27" s="23"/>
-      <c r="D27" s="42"/>
-      <c r="E27" s="42"/>
-      <c r="F27" s="162"/>
-      <c r="G27" s="17">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
-      <c r="A28" s="119" t="s">
-        <v>22</v>
-      </c>
-      <c r="B28" s="133"/>
+      <c r="B28" s="126"/>
       <c r="C28" s="23"/>
-      <c r="D28" s="42"/>
-      <c r="E28" s="42"/>
-      <c r="F28" s="162"/>
+      <c r="D28" s="17"/>
+      <c r="E28" s="37"/>
+      <c r="F28" s="153"/>
       <c r="G28" s="17">
         <v>140</v>
       </c>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="119" t="s">
-        <v>24</v>
-      </c>
-      <c r="B29" s="133"/>
+      <c r="A29" s="113" t="s">
+        <v>26</v>
+      </c>
+      <c r="B29" s="126"/>
       <c r="C29" s="23"/>
       <c r="D29" s="17"/>
-      <c r="E29" s="42"/>
-      <c r="F29" s="162"/>
+      <c r="E29" s="37"/>
+      <c r="F29" s="153"/>
       <c r="G29" s="17">
         <v>140</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
-      <c r="A30" s="119" t="s">
-        <v>26</v>
-      </c>
-      <c r="B30" s="133"/>
-      <c r="C30" s="23"/>
-      <c r="D30" s="17"/>
-      <c r="E30" s="42"/>
-      <c r="F30" s="162"/>
-      <c r="G30" s="17">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" ht="15">
-      <c r="A31" s="120" t="s">
+    <row r="30" spans="1:8" ht="15">
+      <c r="A30" s="114" t="s">
         <v>27</v>
       </c>
-      <c r="B31" s="141"/>
-      <c r="C31" s="130"/>
-      <c r="D31" s="33"/>
-      <c r="E31" s="147"/>
-      <c r="F31" s="162"/>
-      <c r="G31" s="33">
-        <v>140</v>
-      </c>
-      <c r="H31" s="34"/>
+      <c r="B30" s="132"/>
+      <c r="C30" s="123"/>
+      <c r="D30" s="28"/>
+      <c r="E30" s="137"/>
+      <c r="F30" s="153"/>
+      <c r="G30" s="28">
+        <v>140</v>
+      </c>
+      <c r="H30" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="F3:F12"/>
-    <mergeCell ref="F13:F21"/>
-    <mergeCell ref="F22:F31"/>
+    <mergeCell ref="F13:F20"/>
+    <mergeCell ref="F21:F30"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="D20" r:id="rId1" display="http://www.universidadejava.com.br/materiais/jpa-exemplo-crud/"/>
-  </hyperlinks>
   <pageMargins left="0" right="0" top="0.13888888888888901" bottom="0.13888888888888901" header="0" footer="0"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Arial,Normal"&amp;10&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Arial,Normal"&amp;10Página &amp;P</oddFooter>
@@ -2454,11 +2464,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView showGridLines="0" topLeftCell="A7" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="14.25"/>
@@ -2473,15 +2483,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="162" t="s">
-        <v>44</v>
-      </c>
-      <c r="B1" s="162"/>
-      <c r="C1" s="162"/>
-      <c r="D1" s="162"/>
-      <c r="E1" s="162"/>
-      <c r="F1" s="162"/>
-      <c r="G1" s="162"/>
+      <c r="A1" s="153" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="153"/>
+      <c r="C1" s="153"/>
+      <c r="D1" s="153"/>
+      <c r="E1" s="153"/>
+      <c r="F1" s="153"/>
+      <c r="G1" s="153"/>
     </row>
     <row r="2" spans="1:8" ht="15">
       <c r="A2" s="3" t="s">
@@ -2490,14 +2500,14 @@
       <c r="B2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="35" t="s">
+      <c r="C2" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35" t="s">
+      <c r="D2" s="30"/>
+      <c r="E2" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="35" t="s">
+      <c r="F2" s="30" t="s">
         <v>5</v>
       </c>
       <c r="G2" s="5" t="s">
@@ -2508,72 +2518,72 @@
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="36" t="s">
+      <c r="A3" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="134">
+      <c r="B3" s="127">
         <v>43620</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>9</v>
       </c>
       <c r="D3" s="9"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="162" t="s">
+      <c r="E3" s="32"/>
+      <c r="F3" s="153" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="38">
+      <c r="G3" s="33">
         <v>175</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="15">
-      <c r="A4" s="39" t="s">
+      <c r="A4" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="138">
+      <c r="B4" s="130">
         <v>43596</v>
       </c>
       <c r="C4" s="14" t="s">
         <v>9</v>
       </c>
       <c r="D4" s="15"/>
-      <c r="E4" s="40"/>
-      <c r="F4" s="162"/>
-      <c r="G4" s="41">
+      <c r="E4" s="35"/>
+      <c r="F4" s="153"/>
+      <c r="G4" s="36">
         <v>175</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="15">
-      <c r="A5" s="39" t="s">
+      <c r="A5" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="138">
+      <c r="B5" s="130">
         <v>43603</v>
       </c>
       <c r="C5" s="14" t="s">
         <v>9</v>
       </c>
       <c r="D5" s="15"/>
-      <c r="E5" s="40"/>
-      <c r="F5" s="162"/>
-      <c r="G5" s="41">
+      <c r="E5" s="35"/>
+      <c r="F5" s="153"/>
+      <c r="G5" s="36">
         <v>175</v>
       </c>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="39" t="s">
+      <c r="A6" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="138">
+      <c r="B6" s="130">
         <v>43617</v>
       </c>
       <c r="C6" s="14" t="s">
         <v>9</v>
       </c>
       <c r="D6" s="17"/>
-      <c r="E6" s="42"/>
-      <c r="F6" s="162"/>
-      <c r="G6" s="41">
+      <c r="E6" s="37"/>
+      <c r="F6" s="153"/>
+      <c r="G6" s="36">
         <v>175</v>
       </c>
     </row>
@@ -2581,16 +2591,16 @@
       <c r="A7" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="138">
+      <c r="B7" s="130">
         <v>43624</v>
       </c>
       <c r="C7" s="14" t="s">
         <v>9</v>
       </c>
       <c r="D7" s="17"/>
-      <c r="E7" s="42"/>
-      <c r="F7" s="162"/>
-      <c r="G7" s="41">
+      <c r="E7" s="37"/>
+      <c r="F7" s="153"/>
+      <c r="G7" s="36">
         <v>175</v>
       </c>
     </row>
@@ -2598,16 +2608,16 @@
       <c r="A8" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="138">
+      <c r="B8" s="130">
         <v>43631</v>
       </c>
       <c r="C8" s="14" t="s">
         <v>9</v>
       </c>
       <c r="D8" s="17"/>
-      <c r="E8" s="42"/>
-      <c r="F8" s="162"/>
-      <c r="G8" s="41">
+      <c r="E8" s="37"/>
+      <c r="F8" s="153"/>
+      <c r="G8" s="36">
         <v>175</v>
       </c>
     </row>
@@ -2615,18 +2625,18 @@
       <c r="A9" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="138">
+      <c r="B9" s="130">
         <v>43645</v>
       </c>
       <c r="C9" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="43" t="s">
-        <v>45</v>
-      </c>
-      <c r="E9" s="42"/>
-      <c r="F9" s="162"/>
-      <c r="G9" s="41">
+      <c r="D9" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E9" s="37"/>
+      <c r="F9" s="153"/>
+      <c r="G9" s="36">
         <v>175</v>
       </c>
     </row>
@@ -2634,34 +2644,34 @@
       <c r="A10" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="138">
+      <c r="B10" s="130">
         <v>43659</v>
       </c>
       <c r="C10" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="44"/>
-      <c r="E10" s="45"/>
-      <c r="F10" s="162"/>
-      <c r="G10" s="41">
+      <c r="D10" s="39"/>
+      <c r="E10" s="40"/>
+      <c r="F10" s="153"/>
+      <c r="G10" s="36">
         <v>175</v>
       </c>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="148" t="s">
+      <c r="A11" s="138" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="157">
+      <c r="B11" s="147">
         <v>43666</v>
       </c>
-      <c r="C11" s="143" t="s">
+      <c r="C11" s="134" t="s">
         <v>29</v>
       </c>
       <c r="D11" s="17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E11" s="2"/>
-      <c r="F11" s="162" t="s">
+      <c r="F11" s="153" t="s">
         <v>31</v>
       </c>
       <c r="G11" s="17">
@@ -2670,298 +2680,272 @@
       <c r="H11" s="2"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="149" t="s">
+      <c r="A12" s="139" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="133">
+      <c r="B12" s="126">
         <v>43673</v>
       </c>
-      <c r="C12" s="144" t="s">
+      <c r="C12" s="135" t="s">
         <v>29</v>
       </c>
       <c r="D12" s="17" t="s">
         <v>32</v>
       </c>
       <c r="E12" s="2"/>
-      <c r="F12" s="162"/>
+      <c r="F12" s="153"/>
       <c r="G12" s="17">
         <v>175</v>
       </c>
       <c r="H12" s="2"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="149" t="s">
+      <c r="A13" s="139" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="133">
+      <c r="B13" s="126">
         <v>43680</v>
       </c>
-      <c r="C13" s="144" t="s">
+      <c r="C13" s="135" t="s">
         <v>29</v>
       </c>
       <c r="D13" s="15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E13" s="2"/>
-      <c r="F13" s="162"/>
+      <c r="F13" s="153"/>
       <c r="G13" s="17">
         <v>175</v>
       </c>
       <c r="H13" s="2"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="149" t="s">
+      <c r="A14" s="139" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="133">
+      <c r="B14" s="126">
         <v>43687</v>
       </c>
-      <c r="C14" s="144" t="s">
+      <c r="C14" s="135" t="s">
         <v>29</v>
       </c>
       <c r="D14" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="E14" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="E14" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="F14" s="162"/>
+      <c r="F14" s="153"/>
       <c r="G14" s="17">
         <v>175</v>
       </c>
       <c r="H14" s="2"/>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="150" t="s">
+      <c r="A15" s="140" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="133">
+      <c r="B15" s="126">
         <v>43694</v>
       </c>
-      <c r="C15" s="156" t="s">
+      <c r="C15" s="146" t="s">
         <v>29</v>
       </c>
       <c r="D15" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="F15" s="162"/>
+      <c r="F15" s="153"/>
       <c r="G15" s="17">
         <v>175</v>
       </c>
       <c r="H15" s="2"/>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="150" t="s">
+      <c r="A16" s="140" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="133">
+      <c r="B16" s="126">
         <v>43701</v>
       </c>
-      <c r="C16" s="153" t="s">
+      <c r="C16" s="143" t="s">
         <v>29</v>
       </c>
       <c r="D16" s="17" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F16" s="162"/>
+      <c r="F16" s="153"/>
       <c r="G16" s="17">
         <v>175</v>
       </c>
       <c r="H16" s="2"/>
     </row>
     <row r="17" spans="1:8" s="26" customFormat="1">
-      <c r="A17" s="150" t="s">
+      <c r="A17" s="140" t="s">
         <v>22</v>
       </c>
-      <c r="B17" s="135">
+      <c r="B17" s="128">
         <v>43708</v>
       </c>
-      <c r="C17" s="24"/>
+      <c r="C17" s="143"/>
       <c r="D17" s="17" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F17" s="162"/>
+      <c r="F17" s="153"/>
       <c r="G17" s="17">
         <v>175</v>
       </c>
       <c r="H17" s="25"/>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="150" t="s">
+      <c r="A18" s="140" t="s">
         <v>24</v>
       </c>
-      <c r="B18" s="158">
+      <c r="B18" s="148">
         <v>43722</v>
       </c>
-      <c r="C18" s="156"/>
+      <c r="C18" s="146"/>
       <c r="D18" s="15"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="162"/>
+      <c r="E18" s="163" t="s">
+        <v>170</v>
+      </c>
+      <c r="F18" s="153"/>
       <c r="G18" s="17">
         <v>175</v>
       </c>
       <c r="H18" s="2"/>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="148" t="s">
+      <c r="A19" s="138" t="s">
         <v>8</v>
       </c>
-      <c r="B19" s="159">
+      <c r="B19" s="149">
         <v>43729</v>
       </c>
-      <c r="C19" s="152"/>
-      <c r="D19" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="E19" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="F19" s="162" t="s">
-        <v>43</v>
-      </c>
-      <c r="G19" s="41">
+      <c r="C19" s="142"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="153" t="s">
+        <v>42</v>
+      </c>
+      <c r="G19" s="36">
         <v>175</v>
       </c>
       <c r="H19" s="2"/>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="149" t="s">
+      <c r="A20" s="139" t="s">
         <v>12</v>
       </c>
-      <c r="B20" s="133">
+      <c r="B20" s="126">
         <v>43736</v>
       </c>
-      <c r="C20" s="153"/>
-      <c r="D20" s="112" t="s">
-        <v>61</v>
-      </c>
-      <c r="E20" s="42"/>
-      <c r="F20" s="162"/>
-      <c r="G20" s="41">
+      <c r="C20" s="143"/>
+      <c r="D20" s="107"/>
+      <c r="E20" s="37"/>
+      <c r="F20" s="153"/>
+      <c r="G20" s="36">
         <v>175</v>
       </c>
       <c r="H20" s="2"/>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="149" t="s">
+      <c r="A21" s="139" t="s">
         <v>14</v>
       </c>
-      <c r="B21" s="133">
+      <c r="B21" s="126">
         <v>43743</v>
       </c>
-      <c r="C21" s="153"/>
-      <c r="D21" s="112" t="s">
-        <v>63</v>
-      </c>
-      <c r="E21" s="42" t="s">
-        <v>64</v>
-      </c>
-      <c r="F21" s="162"/>
-      <c r="G21" s="41">
+      <c r="C21" s="143"/>
+      <c r="D21" s="107"/>
+      <c r="E21" s="37"/>
+      <c r="F21" s="153"/>
+      <c r="G21" s="36">
         <v>175</v>
       </c>
       <c r="H21" s="2"/>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="149" t="s">
+      <c r="A22" s="139" t="s">
         <v>16</v>
       </c>
-      <c r="B22" s="133">
+      <c r="B22" s="126">
         <v>43750</v>
       </c>
-      <c r="C22" s="153"/>
-      <c r="D22" s="112" t="s">
-        <v>66</v>
-      </c>
-      <c r="E22" s="42" t="s">
-        <v>67</v>
-      </c>
-      <c r="F22" s="162"/>
-      <c r="G22" s="41">
+      <c r="C22" s="143"/>
+      <c r="D22" s="107"/>
+      <c r="E22" s="37"/>
+      <c r="F22" s="153"/>
+      <c r="G22" s="36">
         <v>175</v>
       </c>
       <c r="H22" s="2"/>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="150" t="s">
+      <c r="A23" s="140" t="s">
         <v>18</v>
       </c>
-      <c r="B23" s="133">
+      <c r="B23" s="126">
         <v>43757</v>
       </c>
-      <c r="C23" s="154"/>
-      <c r="D23" s="112"/>
-      <c r="E23" s="42" t="s">
-        <v>70</v>
-      </c>
-      <c r="F23" s="162"/>
-      <c r="G23" s="41">
+      <c r="C23" s="144"/>
+      <c r="D23" s="107"/>
+      <c r="E23" s="37"/>
+      <c r="F23" s="153"/>
+      <c r="G23" s="36">
         <v>175</v>
       </c>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="150" t="s">
+      <c r="A24" s="140" t="s">
         <v>20</v>
       </c>
-      <c r="B24" s="133">
+      <c r="B24" s="126">
         <v>43764</v>
       </c>
-      <c r="C24" s="153"/>
-      <c r="D24" s="112" t="s">
-        <v>72</v>
-      </c>
-      <c r="E24" s="42" t="s">
-        <v>73</v>
-      </c>
-      <c r="F24" s="162"/>
-      <c r="G24" s="41">
+      <c r="C24" s="143"/>
+      <c r="D24" s="107"/>
+      <c r="E24" s="37"/>
+      <c r="F24" s="153"/>
+      <c r="G24" s="36">
         <v>175</v>
       </c>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="150" t="s">
+      <c r="A25" s="140" t="s">
         <v>22</v>
       </c>
-      <c r="B25" s="133">
+      <c r="B25" s="126">
         <v>43771</v>
       </c>
-      <c r="C25" s="153"/>
-      <c r="D25" s="112" t="s">
-        <v>75</v>
-      </c>
-      <c r="E25" s="42" t="s">
-        <v>76</v>
-      </c>
-      <c r="F25" s="162"/>
-      <c r="G25" s="41">
+      <c r="C25" s="143"/>
+      <c r="D25" s="107"/>
+      <c r="E25" s="37"/>
+      <c r="F25" s="153"/>
+      <c r="G25" s="36">
         <v>175</v>
       </c>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="151" t="s">
+      <c r="A26" s="141" t="s">
         <v>24</v>
       </c>
-      <c r="B26" s="160">
+      <c r="B26" s="150">
         <v>43778</v>
       </c>
-      <c r="C26" s="155"/>
-      <c r="D26" s="161" t="s">
-        <v>78</v>
-      </c>
-      <c r="E26" s="45" t="s">
-        <v>76</v>
-      </c>
-      <c r="F26" s="162"/>
-      <c r="G26" s="49">
+      <c r="C26" s="145"/>
+      <c r="D26" s="151"/>
+      <c r="E26" s="40"/>
+      <c r="F26" s="153"/>
+      <c r="G26" s="44">
         <v>175</v>
       </c>
     </row>
@@ -2983,8 +2967,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <sheetPr>
     <tabColor indexed="47"/>
   </sheetPr>
   <dimension ref="A1:I32"/>
@@ -3006,16 +2990,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15">
-      <c r="A1" s="163" t="s">
-        <v>80</v>
-      </c>
-      <c r="B1" s="163"/>
-      <c r="C1" s="163"/>
-      <c r="D1" s="163"/>
-      <c r="E1" s="163"/>
-      <c r="F1" s="163"/>
-      <c r="G1" s="163"/>
-      <c r="H1" s="163"/>
+      <c r="A1" s="154" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1" s="154"/>
+      <c r="C1" s="154"/>
+      <c r="D1" s="154"/>
+      <c r="E1" s="154"/>
+      <c r="F1" s="154"/>
+      <c r="G1" s="154"/>
+      <c r="H1" s="154"/>
     </row>
     <row r="2" spans="1:9" ht="15">
       <c r="A2" s="3" t="s">
@@ -3053,11 +3037,11 @@
         <v>29</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E3" s="10"/>
       <c r="F3" s="10"/>
-      <c r="G3" s="164" t="s">
+      <c r="G3" s="155" t="s">
         <v>11</v>
       </c>
       <c r="H3" s="11">
@@ -3074,10 +3058,10 @@
       <c r="C4" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="D4" s="50"/>
+      <c r="D4" s="45"/>
       <c r="E4" s="16"/>
       <c r="F4" s="2"/>
-      <c r="G4" s="164"/>
+      <c r="G4" s="155"/>
       <c r="H4" s="17">
         <v>140</v>
       </c>
@@ -3092,10 +3076,10 @@
       <c r="C5" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="D5" s="50"/>
+      <c r="D5" s="45"/>
       <c r="E5" s="16"/>
       <c r="F5" s="2"/>
-      <c r="G5" s="164"/>
+      <c r="G5" s="155"/>
       <c r="H5" s="17">
         <v>140</v>
       </c>
@@ -3110,10 +3094,10 @@
       <c r="C6" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="D6" s="50"/>
+      <c r="D6" s="45"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
-      <c r="G6" s="164"/>
+      <c r="G6" s="155"/>
       <c r="H6" s="17">
         <v>140</v>
       </c>
@@ -3133,7 +3117,7 @@
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
-      <c r="G7" s="164"/>
+      <c r="G7" s="155"/>
       <c r="H7" s="17">
         <v>140</v>
       </c>
@@ -3153,7 +3137,7 @@
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
-      <c r="G8" s="164"/>
+      <c r="G8" s="155"/>
       <c r="H8" s="17">
         <v>140</v>
       </c>
@@ -3173,7 +3157,7 @@
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
-      <c r="G9" s="164"/>
+      <c r="G9" s="155"/>
       <c r="H9" s="17">
         <v>140</v>
       </c>
@@ -3193,7 +3177,7 @@
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
-      <c r="G10" s="164"/>
+      <c r="G10" s="155"/>
       <c r="H10" s="17">
         <v>140</v>
       </c>
@@ -3211,7 +3195,7 @@
       <c r="D11" s="17"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
-      <c r="G11" s="164"/>
+      <c r="G11" s="155"/>
       <c r="H11" s="17">
         <v>140</v>
       </c>
@@ -3231,8 +3215,8 @@
         <v>28</v>
       </c>
       <c r="E12" s="20"/>
-      <c r="F12" s="46"/>
-      <c r="G12" s="164"/>
+      <c r="F12" s="41"/>
+      <c r="G12" s="155"/>
       <c r="H12" s="17">
         <v>140</v>
       </c>
@@ -3242,7 +3226,7 @@
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B13" s="7">
         <v>43542</v>
@@ -3251,11 +3235,11 @@
         <v>29</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E13" s="10"/>
       <c r="F13" s="10"/>
-      <c r="G13" s="164" t="s">
+      <c r="G13" s="155" t="s">
         <v>31</v>
       </c>
       <c r="H13" s="17">
@@ -3265,7 +3249,7 @@
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B14" s="13">
         <v>43544</v>
@@ -3278,7 +3262,7 @@
       </c>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
-      <c r="G14" s="164"/>
+      <c r="G14" s="155"/>
       <c r="H14" s="17">
         <v>140</v>
       </c>
@@ -3286,7 +3270,7 @@
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B15" s="13">
         <v>43551</v>
@@ -3295,11 +3279,11 @@
         <v>29</v>
       </c>
       <c r="D15" s="15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
-      <c r="G15" s="164"/>
+      <c r="G15" s="155"/>
       <c r="H15" s="17">
         <v>140</v>
       </c>
@@ -3307,7 +3291,7 @@
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B16" s="13">
         <v>43556</v>
@@ -3316,11 +3300,11 @@
         <v>29</v>
       </c>
       <c r="D16" s="17" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
-      <c r="G16" s="164"/>
+      <c r="G16" s="155"/>
       <c r="H16" s="17">
         <v>140</v>
       </c>
@@ -3328,7 +3312,7 @@
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B17" s="13">
         <v>43558</v>
@@ -3337,13 +3321,13 @@
         <v>29</v>
       </c>
       <c r="D17" s="15" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>33</v>
       </c>
       <c r="F17" s="2"/>
-      <c r="G17" s="164"/>
+      <c r="G17" s="155"/>
       <c r="H17" s="17">
         <v>140</v>
       </c>
@@ -3351,7 +3335,7 @@
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B18" s="13">
         <v>43563</v>
@@ -3366,38 +3350,38 @@
         <v>35</v>
       </c>
       <c r="F18" s="2"/>
-      <c r="G18" s="164"/>
+      <c r="G18" s="155"/>
       <c r="H18" s="17">
         <v>140</v>
       </c>
       <c r="I18" s="2"/>
     </row>
     <row r="19" spans="1:9" s="26" customFormat="1">
-      <c r="A19" s="51" t="s">
-        <v>57</v>
-      </c>
-      <c r="B19" s="52">
+      <c r="A19" s="46" t="s">
+        <v>56</v>
+      </c>
+      <c r="B19" s="47">
         <v>43565</v>
       </c>
       <c r="C19" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="D19" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="D19" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="E19" s="47" t="s">
+      <c r="E19" s="42" t="s">
         <v>39</v>
       </c>
-      <c r="F19" s="47"/>
-      <c r="G19" s="164"/>
-      <c r="H19" s="53">
+      <c r="F19" s="42"/>
+      <c r="G19" s="155"/>
+      <c r="H19" s="48">
         <v>140</v>
       </c>
       <c r="I19" s="25"/>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B20" s="13">
         <v>43570</v>
@@ -3406,13 +3390,13 @@
         <v>29</v>
       </c>
       <c r="D20" s="15" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>39</v>
       </c>
       <c r="F20" s="2"/>
-      <c r="G20" s="164"/>
+      <c r="G20" s="155"/>
       <c r="H20" s="17">
         <v>140</v>
       </c>
@@ -3420,7 +3404,7 @@
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B21" s="13">
         <v>43577</v>
@@ -3429,13 +3413,13 @@
         <v>29</v>
       </c>
       <c r="D21" s="15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F21" s="2"/>
-      <c r="G21" s="164"/>
+      <c r="G21" s="155"/>
       <c r="H21" s="17">
         <v>140</v>
       </c>
@@ -3443,22 +3427,22 @@
     </row>
     <row r="22" spans="1:9" ht="15">
       <c r="A22" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="B22" s="109">
+        <v>64</v>
+      </c>
+      <c r="B22" s="104">
         <v>43584</v>
       </c>
       <c r="C22" s="23" t="s">
         <v>29</v>
       </c>
       <c r="D22" s="15" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="F22" s="112"/>
-      <c r="G22" s="165"/>
+        <v>84</v>
+      </c>
+      <c r="F22" s="107"/>
+      <c r="G22" s="156"/>
       <c r="H22" s="17">
         <v>140</v>
       </c>
@@ -3467,24 +3451,24 @@
       </c>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="123" t="s">
-        <v>68</v>
-      </c>
-      <c r="B23" s="124">
+      <c r="A23" s="116" t="s">
+        <v>67</v>
+      </c>
+      <c r="B23" s="117">
         <v>43591</v>
       </c>
-      <c r="C23" s="125" t="s">
+      <c r="C23" s="118" t="s">
         <v>29</v>
       </c>
-      <c r="D23" s="126" t="s">
-        <v>89</v>
-      </c>
-      <c r="E23" s="127" t="s">
-        <v>59</v>
-      </c>
-      <c r="F23" s="128"/>
-      <c r="G23" s="165" t="s">
-        <v>43</v>
+      <c r="D23" s="119" t="s">
+        <v>88</v>
+      </c>
+      <c r="E23" s="120" t="s">
+        <v>58</v>
+      </c>
+      <c r="F23" s="121"/>
+      <c r="G23" s="156" t="s">
+        <v>42</v>
       </c>
       <c r="H23" s="17">
         <v>140</v>
@@ -3493,18 +3477,18 @@
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="B24" s="109">
+        <v>70</v>
+      </c>
+      <c r="B24" s="104">
         <v>43598</v>
       </c>
       <c r="C24" s="23"/>
       <c r="D24" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="E24" s="112"/>
-      <c r="F24" s="112"/>
-      <c r="G24" s="166"/>
+        <v>57</v>
+      </c>
+      <c r="E24" s="107"/>
+      <c r="F24" s="107"/>
+      <c r="G24" s="157"/>
       <c r="H24" s="17">
         <v>140</v>
       </c>
@@ -3512,20 +3496,20 @@
     </row>
     <row r="25" spans="1:9">
       <c r="A25" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="B25" s="109">
+        <v>73</v>
+      </c>
+      <c r="B25" s="104">
         <v>43600</v>
       </c>
       <c r="C25" s="23"/>
       <c r="D25" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="E25" s="112" t="s">
-        <v>64</v>
-      </c>
-      <c r="F25" s="112"/>
-      <c r="G25" s="166"/>
+        <v>60</v>
+      </c>
+      <c r="E25" s="107" t="s">
+        <v>63</v>
+      </c>
+      <c r="F25" s="107"/>
+      <c r="G25" s="157"/>
       <c r="H25" s="17">
         <v>140</v>
       </c>
@@ -3533,20 +3517,20 @@
     </row>
     <row r="26" spans="1:9">
       <c r="A26" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="B26" s="109">
+        <v>76</v>
+      </c>
+      <c r="B26" s="104">
         <v>43605</v>
       </c>
       <c r="C26" s="23"/>
       <c r="D26" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="E26" s="112" t="s">
-        <v>67</v>
-      </c>
-      <c r="F26" s="112"/>
-      <c r="G26" s="166"/>
+        <v>62</v>
+      </c>
+      <c r="E26" s="107" t="s">
+        <v>66</v>
+      </c>
+      <c r="F26" s="107"/>
+      <c r="G26" s="157"/>
       <c r="H26" s="17">
         <v>140</v>
       </c>
@@ -3554,122 +3538,122 @@
     </row>
     <row r="27" spans="1:9">
       <c r="A27" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="B27" s="109">
+        <v>89</v>
+      </c>
+      <c r="B27" s="104">
         <v>43607</v>
       </c>
       <c r="C27" s="23"/>
       <c r="D27" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="E27" s="112" t="s">
-        <v>70</v>
-      </c>
-      <c r="F27" s="112"/>
-      <c r="G27" s="166"/>
+        <v>65</v>
+      </c>
+      <c r="E27" s="107" t="s">
+        <v>69</v>
+      </c>
+      <c r="F27" s="107"/>
+      <c r="G27" s="157"/>
       <c r="H27" s="17">
         <v>140</v>
       </c>
     </row>
     <row r="28" spans="1:9">
       <c r="A28" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="B28" s="109">
+        <v>90</v>
+      </c>
+      <c r="B28" s="104">
         <v>43612</v>
       </c>
       <c r="C28" s="23"/>
       <c r="D28" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="E28" s="112" t="s">
-        <v>73</v>
-      </c>
-      <c r="F28" s="112"/>
-      <c r="G28" s="166"/>
+        <v>68</v>
+      </c>
+      <c r="E28" s="107" t="s">
+        <v>72</v>
+      </c>
+      <c r="F28" s="107"/>
+      <c r="G28" s="157"/>
       <c r="H28" s="17">
         <v>140</v>
       </c>
     </row>
     <row r="29" spans="1:9">
       <c r="A29" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="B29" s="109">
+        <v>91</v>
+      </c>
+      <c r="B29" s="104">
         <v>43614</v>
       </c>
       <c r="C29" s="23"/>
       <c r="D29" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="E29" s="112" t="s">
-        <v>76</v>
-      </c>
-      <c r="F29" s="112"/>
-      <c r="G29" s="166"/>
+        <v>71</v>
+      </c>
+      <c r="E29" s="107" t="s">
+        <v>75</v>
+      </c>
+      <c r="F29" s="107"/>
+      <c r="G29" s="157"/>
       <c r="H29" s="17">
         <v>140</v>
       </c>
     </row>
     <row r="30" spans="1:9">
       <c r="A30" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="B30" s="109">
+        <v>92</v>
+      </c>
+      <c r="B30" s="104">
         <v>43619</v>
       </c>
       <c r="C30" s="23"/>
       <c r="D30" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="E30" s="107" t="s">
         <v>75</v>
       </c>
-      <c r="E30" s="112" t="s">
-        <v>76</v>
-      </c>
-      <c r="F30" s="112"/>
-      <c r="G30" s="166"/>
+      <c r="F30" s="107"/>
+      <c r="G30" s="157"/>
       <c r="H30" s="17">
         <v>140</v>
       </c>
     </row>
     <row r="31" spans="1:9">
       <c r="A31" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="B31" s="109">
+        <v>93</v>
+      </c>
+      <c r="B31" s="104">
         <v>43621</v>
       </c>
       <c r="C31" s="23"/>
       <c r="D31" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="E31" s="112" t="s">
-        <v>95</v>
-      </c>
-      <c r="F31" s="112"/>
-      <c r="G31" s="166"/>
+        <v>77</v>
+      </c>
+      <c r="E31" s="107" t="s">
+        <v>94</v>
+      </c>
+      <c r="F31" s="107"/>
+      <c r="G31" s="157"/>
       <c r="H31" s="17">
         <v>140</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="15">
       <c r="A32" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="B32" s="122"/>
+      <c r="C32" s="123"/>
+      <c r="D32" s="28" t="s">
+        <v>78</v>
+      </c>
+      <c r="E32" s="124" t="s">
         <v>96</v>
       </c>
-      <c r="B32" s="129"/>
-      <c r="C32" s="130"/>
-      <c r="D32" s="33" t="s">
-        <v>79</v>
-      </c>
-      <c r="E32" s="131" t="s">
-        <v>97</v>
-      </c>
-      <c r="F32" s="46"/>
-      <c r="G32" s="167"/>
-      <c r="H32" s="33">
-        <v>140</v>
-      </c>
-      <c r="I32" s="34"/>
+      <c r="F32" s="41"/>
+      <c r="G32" s="158"/>
+      <c r="H32" s="28">
+        <v>140</v>
+      </c>
+      <c r="I32" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -3689,8 +3673,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <sheetPr>
     <tabColor indexed="47"/>
   </sheetPr>
   <dimension ref="A1:J32"/>
@@ -3713,16 +3697,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12.6" customHeight="1">
-      <c r="A1" s="163" t="s">
-        <v>98</v>
-      </c>
-      <c r="B1" s="163"/>
-      <c r="C1" s="163"/>
-      <c r="D1" s="163"/>
-      <c r="E1" s="163"/>
-      <c r="F1" s="163"/>
-      <c r="G1" s="163"/>
-      <c r="H1" s="163"/>
+      <c r="A1" s="154" t="s">
+        <v>97</v>
+      </c>
+      <c r="B1" s="154"/>
+      <c r="C1" s="154"/>
+      <c r="D1" s="154"/>
+      <c r="E1" s="154"/>
+      <c r="F1" s="154"/>
+      <c r="G1" s="154"/>
+      <c r="H1" s="154"/>
     </row>
     <row r="2" spans="1:10" ht="15">
       <c r="A2" s="3" t="s">
@@ -3750,240 +3734,240 @@
       </c>
     </row>
     <row r="3" spans="1:10" ht="15">
-      <c r="A3" s="57" t="s">
+      <c r="A3" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="58">
+      <c r="B3" s="53">
         <v>43360</v>
       </c>
-      <c r="C3" s="59" t="s">
+      <c r="C3" s="54" t="s">
+        <v>98</v>
+      </c>
+      <c r="D3" s="11" t="s">
         <v>99</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>100</v>
       </c>
       <c r="E3" s="10"/>
       <c r="F3" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="G3" s="164" t="s">
+        <v>100</v>
+      </c>
+      <c r="G3" s="155" t="s">
         <v>11</v>
       </c>
       <c r="H3" s="11">
         <v>140</v>
       </c>
-      <c r="J3" s="60"/>
+      <c r="J3" s="55"/>
     </row>
     <row r="4" spans="1:10" ht="15">
-      <c r="A4" s="61" t="s">
+      <c r="A4" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="62">
+      <c r="B4" s="57">
         <v>43362</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="D4" s="50"/>
+        <v>98</v>
+      </c>
+      <c r="D4" s="45"/>
       <c r="E4" s="16"/>
       <c r="F4" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="G4" s="164"/>
+        <v>101</v>
+      </c>
+      <c r="G4" s="155"/>
       <c r="H4" s="17">
         <v>140</v>
       </c>
-      <c r="J4" s="60"/>
+      <c r="J4" s="55"/>
     </row>
     <row r="5" spans="1:10" ht="15">
-      <c r="A5" s="61" t="s">
+      <c r="A5" s="56" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="62">
+      <c r="B5" s="57">
         <v>43364</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="D5" s="50"/>
+        <v>98</v>
+      </c>
+      <c r="D5" s="45"/>
       <c r="E5" s="16"/>
       <c r="F5" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="G5" s="155"/>
+      <c r="H5" s="17">
+        <v>140</v>
+      </c>
+      <c r="J5" s="55"/>
+    </row>
+    <row r="6" spans="1:10" ht="15">
+      <c r="A6" s="56" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="57">
+        <v>43369</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="D6" s="45" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="G5" s="164"/>
-      <c r="H5" s="17">
-        <v>140</v>
-      </c>
-      <c r="J5" s="60"/>
-    </row>
-    <row r="6" spans="1:10" ht="15">
-      <c r="A6" s="61" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" s="62">
-        <v>43369</v>
-      </c>
-      <c r="C6" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="D6" s="50" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="G6" s="164"/>
+      <c r="G6" s="155"/>
       <c r="H6" s="17">
         <v>140</v>
       </c>
-      <c r="J6" s="60"/>
+      <c r="J6" s="55"/>
     </row>
     <row r="7" spans="1:10" ht="15">
-      <c r="A7" s="61" t="s">
+      <c r="A7" s="56" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="62">
+      <c r="B7" s="57">
         <v>43371</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D7" s="17" t="s">
         <v>21</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="G7" s="164"/>
+        <v>104</v>
+      </c>
+      <c r="G7" s="155"/>
       <c r="H7" s="17">
         <v>140</v>
       </c>
-      <c r="J7" s="60"/>
+      <c r="J7" s="55"/>
     </row>
     <row r="8" spans="1:10" ht="15">
-      <c r="A8" s="61" t="s">
+      <c r="A8" s="56" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="62">
+      <c r="B8" s="57">
         <v>43374</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D8" s="17" t="s">
         <v>23</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="G8" s="164"/>
+        <v>105</v>
+      </c>
+      <c r="G8" s="155"/>
       <c r="H8" s="17">
         <v>140</v>
       </c>
-      <c r="J8" s="60"/>
+      <c r="J8" s="55"/>
     </row>
     <row r="9" spans="1:10" ht="15">
-      <c r="A9" s="61" t="s">
+      <c r="A9" s="56" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="62">
+      <c r="B9" s="57">
         <v>43376</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D9" s="17" t="s">
         <v>25</v>
       </c>
       <c r="F9" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="G9" s="155"/>
+      <c r="H9" s="17">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="15">
+      <c r="A10" s="56" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="57">
+        <v>43381</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="D10" s="17" t="s">
         <v>107</v>
       </c>
-      <c r="G9" s="164"/>
-      <c r="H9" s="17">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="15">
-      <c r="A10" s="61" t="s">
-        <v>24</v>
-      </c>
-      <c r="B10" s="62">
-        <v>43381</v>
-      </c>
-      <c r="C10" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="D10" s="17" t="s">
+      <c r="F10" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="F10" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="G10" s="164"/>
+      <c r="G10" s="155"/>
       <c r="H10" s="17">
         <v>140</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="15">
-      <c r="A11" s="61" t="s">
+      <c r="A11" s="56" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="62">
+      <c r="B11" s="57">
         <v>43383</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D11" s="15" t="s">
         <v>28</v>
       </c>
       <c r="F11" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="G11" s="155"/>
+      <c r="H11" s="17">
+        <v>140</v>
+      </c>
+      <c r="I11" s="2"/>
+    </row>
+    <row r="12" spans="1:10" ht="15">
+      <c r="A12" s="58" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="57">
+        <v>43388</v>
+      </c>
+      <c r="C12" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="D12" s="59"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="41" t="s">
         <v>110</v>
       </c>
-      <c r="G11" s="164"/>
-      <c r="H11" s="17">
-        <v>140</v>
-      </c>
-      <c r="I11" s="2"/>
-    </row>
-    <row r="12" spans="1:10" ht="15">
-      <c r="A12" s="63" t="s">
-        <v>27</v>
-      </c>
-      <c r="B12" s="62">
-        <v>43388</v>
-      </c>
-      <c r="C12" s="20" t="s">
-        <v>99</v>
-      </c>
-      <c r="D12" s="64"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="46" t="s">
-        <v>111</v>
-      </c>
-      <c r="G12" s="164"/>
+      <c r="G12" s="155"/>
       <c r="H12" s="17">
         <v>140</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="15">
-      <c r="A13" s="65" t="s">
-        <v>47</v>
-      </c>
-      <c r="B13" s="66">
+      <c r="A13" s="60" t="s">
+        <v>46</v>
+      </c>
+      <c r="B13" s="61">
         <v>43390</v>
       </c>
-      <c r="C13" s="59" t="s">
-        <v>99</v>
+      <c r="C13" s="54" t="s">
+        <v>98</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E13" s="10"/>
       <c r="F13" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="G13" s="164" t="s">
+        <v>100</v>
+      </c>
+      <c r="G13" s="155" t="s">
         <v>31</v>
       </c>
       <c r="H13" s="17">
@@ -3993,22 +3977,22 @@
       <c r="J13" s="2"/>
     </row>
     <row r="14" spans="1:10" ht="15">
-      <c r="A14" s="67" t="s">
-        <v>49</v>
-      </c>
-      <c r="B14" s="68">
+      <c r="A14" s="62" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14" s="63">
         <v>43395</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D14" s="17" t="s">
         <v>32</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="G14" s="164"/>
+        <v>101</v>
+      </c>
+      <c r="G14" s="155"/>
       <c r="H14" s="17">
         <v>140</v>
       </c>
@@ -4016,223 +4000,223 @@
       <c r="J14" s="2"/>
     </row>
     <row r="15" spans="1:10" ht="15">
-      <c r="A15" s="67" t="s">
-        <v>52</v>
-      </c>
-      <c r="B15" s="68">
+      <c r="A15" s="62" t="s">
+        <v>51</v>
+      </c>
+      <c r="B15" s="63">
         <v>43399</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D15" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="G15" s="155"/>
+      <c r="H15" s="17">
+        <v>140</v>
+      </c>
+      <c r="I15" s="2"/>
+    </row>
+    <row r="16" spans="1:10" ht="15">
+      <c r="A16" s="62" t="s">
+        <v>53</v>
+      </c>
+      <c r="B16" s="63">
+        <v>43404</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="D16" s="17" t="s">
         <v>112</v>
       </c>
-      <c r="F15" s="2" t="s">
+      <c r="F16" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="G15" s="164"/>
-      <c r="H15" s="17">
-        <v>140</v>
-      </c>
-      <c r="I15" s="2"/>
-    </row>
-    <row r="16" spans="1:10" ht="15">
-      <c r="A16" s="67" t="s">
+      <c r="G16" s="155"/>
+      <c r="H16" s="17">
+        <v>140</v>
+      </c>
+      <c r="I16" s="2"/>
+    </row>
+    <row r="17" spans="1:10" ht="15">
+      <c r="A17" s="62" t="s">
         <v>54</v>
       </c>
-      <c r="B16" s="68">
-        <v>43404</v>
-      </c>
-      <c r="C16" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="D16" s="17" t="s">
-        <v>113</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="G16" s="164"/>
-      <c r="H16" s="17">
-        <v>140</v>
-      </c>
-      <c r="I16" s="2"/>
-    </row>
-    <row r="17" spans="1:10" ht="15">
-      <c r="A17" s="67" t="s">
-        <v>55</v>
-      </c>
-      <c r="B17" s="68">
+      <c r="B17" s="63">
         <v>43409</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D17" s="15" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>33</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="G17" s="164"/>
+        <v>104</v>
+      </c>
+      <c r="G17" s="155"/>
       <c r="H17" s="17">
         <v>140</v>
       </c>
       <c r="I17" s="2"/>
     </row>
     <row r="18" spans="1:10" ht="15">
-      <c r="A18" s="67" t="s">
-        <v>56</v>
-      </c>
-      <c r="B18" s="68">
+      <c r="A18" s="62" t="s">
+        <v>55</v>
+      </c>
+      <c r="B18" s="63">
         <v>43413</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D18" s="15" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>35</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="G18" s="164"/>
+        <v>105</v>
+      </c>
+      <c r="G18" s="155"/>
       <c r="H18" s="17">
         <v>140</v>
       </c>
       <c r="I18" s="2"/>
     </row>
     <row r="19" spans="1:10" ht="15">
-      <c r="A19" s="67" t="s">
-        <v>57</v>
-      </c>
-      <c r="B19" s="68">
+      <c r="A19" s="62" t="s">
+        <v>56</v>
+      </c>
+      <c r="B19" s="63">
         <v>43416</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D19" s="15" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>39</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="G19" s="164"/>
+        <v>106</v>
+      </c>
+      <c r="G19" s="155"/>
       <c r="H19" s="17">
         <v>140</v>
       </c>
       <c r="I19" s="2"/>
     </row>
     <row r="20" spans="1:10" ht="15">
-      <c r="A20" s="67" t="s">
-        <v>60</v>
-      </c>
-      <c r="B20" s="68">
+      <c r="A20" s="62" t="s">
+        <v>59</v>
+      </c>
+      <c r="B20" s="63">
         <v>43423</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D20" s="15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F20" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="G20" s="155"/>
+      <c r="H20" s="17">
+        <v>140</v>
+      </c>
+      <c r="I20" s="2"/>
+    </row>
+    <row r="21" spans="1:10" ht="15">
+      <c r="A21" s="62" t="s">
+        <v>61</v>
+      </c>
+      <c r="B21" s="63">
+        <v>43425</v>
+      </c>
+      <c r="C21" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="D21" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F21" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="G20" s="164"/>
-      <c r="H20" s="17">
-        <v>140</v>
-      </c>
-      <c r="I20" s="2"/>
-    </row>
-    <row r="21" spans="1:10" ht="15">
-      <c r="A21" s="67" t="s">
-        <v>62</v>
-      </c>
-      <c r="B21" s="68">
-        <v>43425</v>
-      </c>
-      <c r="C21" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="D21" s="15" t="s">
+      <c r="G21" s="155"/>
+      <c r="H21" s="17">
+        <v>140</v>
+      </c>
+      <c r="I21" s="2"/>
+    </row>
+    <row r="22" spans="1:10" ht="15">
+      <c r="A22" s="64" t="s">
+        <v>64</v>
+      </c>
+      <c r="B22" s="63">
+        <v>43427</v>
+      </c>
+      <c r="C22" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="D22" s="28" t="s">
         <v>115</v>
       </c>
-      <c r="E21" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="F21" s="2" t="s">
+      <c r="E22" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="F22" s="41" t="s">
         <v>110</v>
       </c>
-      <c r="G21" s="164"/>
-      <c r="H21" s="17">
-        <v>140</v>
-      </c>
-      <c r="I21" s="2"/>
-    </row>
-    <row r="22" spans="1:10" ht="15">
-      <c r="A22" s="69" t="s">
-        <v>65</v>
-      </c>
-      <c r="B22" s="68">
-        <v>43427</v>
-      </c>
-      <c r="C22" s="20" t="s">
-        <v>99</v>
-      </c>
-      <c r="D22" s="33" t="s">
-        <v>116</v>
-      </c>
-      <c r="E22" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="F22" s="46" t="s">
-        <v>111</v>
-      </c>
-      <c r="G22" s="164"/>
+      <c r="G22" s="155"/>
       <c r="H22" s="17">
         <v>140</v>
       </c>
-      <c r="I22" s="70">
+      <c r="I22" s="65">
         <v>43438</v>
       </c>
-      <c r="J22" s="71">
+      <c r="J22" s="66">
         <v>1400</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="15">
-      <c r="A23" s="57" t="s">
-        <v>68</v>
-      </c>
-      <c r="B23" s="58">
+      <c r="A23" s="52" t="s">
+        <v>67</v>
+      </c>
+      <c r="B23" s="53">
         <v>43430</v>
       </c>
       <c r="C23" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="D23" s="56" t="s">
-        <v>58</v>
+      <c r="D23" s="51" t="s">
+        <v>57</v>
       </c>
       <c r="E23" s="10"/>
       <c r="F23" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="G23" s="164" t="s">
-        <v>43</v>
+        <v>100</v>
+      </c>
+      <c r="G23" s="155" t="s">
+        <v>42</v>
       </c>
       <c r="H23" s="17">
         <v>140</v>
@@ -4240,223 +4224,223 @@
       <c r="I23" s="2"/>
     </row>
     <row r="24" spans="1:10" ht="15">
-      <c r="A24" s="61" t="s">
-        <v>71</v>
-      </c>
-      <c r="B24" s="62">
+      <c r="A24" s="56" t="s">
+        <v>70</v>
+      </c>
+      <c r="B24" s="57">
         <v>43432</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="G24" s="164"/>
+        <v>101</v>
+      </c>
+      <c r="G24" s="155"/>
       <c r="H24" s="17">
         <v>140</v>
       </c>
       <c r="I24" s="2"/>
     </row>
     <row r="25" spans="1:10" ht="15">
-      <c r="A25" s="61" t="s">
-        <v>74</v>
-      </c>
-      <c r="B25" s="62">
+      <c r="A25" s="56" t="s">
+        <v>73</v>
+      </c>
+      <c r="B25" s="57">
         <v>43434</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="G25" s="164"/>
+        <v>102</v>
+      </c>
+      <c r="G25" s="155"/>
       <c r="H25" s="17">
         <v>140</v>
       </c>
       <c r="I25" s="2"/>
     </row>
     <row r="26" spans="1:10" ht="15">
-      <c r="A26" s="61" t="s">
-        <v>77</v>
-      </c>
-      <c r="B26" s="62">
+      <c r="A26" s="56" t="s">
+        <v>76</v>
+      </c>
+      <c r="B26" s="57">
         <v>43437</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="G26" s="164"/>
+        <v>103</v>
+      </c>
+      <c r="G26" s="155"/>
       <c r="H26" s="17">
         <v>140</v>
       </c>
       <c r="I26" s="2"/>
     </row>
     <row r="27" spans="1:10" ht="15">
-      <c r="A27" s="61" t="s">
-        <v>90</v>
-      </c>
-      <c r="B27" s="62">
+      <c r="A27" s="56" t="s">
+        <v>89</v>
+      </c>
+      <c r="B27" s="57">
         <v>43439</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="G27" s="164"/>
+        <v>104</v>
+      </c>
+      <c r="G27" s="155"/>
       <c r="H27" s="17">
         <v>140</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="15">
-      <c r="A28" s="61" t="s">
-        <v>91</v>
-      </c>
-      <c r="B28" s="62">
+      <c r="A28" s="56" t="s">
+        <v>90</v>
+      </c>
+      <c r="B28" s="57">
         <v>43441</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="G28" s="164"/>
+        <v>105</v>
+      </c>
+      <c r="G28" s="155"/>
       <c r="H28" s="17">
         <v>140</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="15">
-      <c r="A29" s="61" t="s">
-        <v>92</v>
-      </c>
-      <c r="B29" s="62">
+      <c r="A29" s="56" t="s">
+        <v>91</v>
+      </c>
+      <c r="B29" s="57">
         <v>43444</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D29" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="E29" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="E29" s="2" t="s">
-        <v>76</v>
-      </c>
       <c r="F29" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="G29" s="164"/>
+        <v>106</v>
+      </c>
+      <c r="G29" s="155"/>
       <c r="H29" s="17">
         <v>140</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="15">
-      <c r="A30" s="61" t="s">
-        <v>93</v>
-      </c>
-      <c r="B30" s="62">
+      <c r="A30" s="56" t="s">
+        <v>92</v>
+      </c>
+      <c r="B30" s="57">
         <v>43446</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="G30" s="164"/>
+        <v>108</v>
+      </c>
+      <c r="G30" s="155"/>
       <c r="H30" s="17">
         <v>140</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="15">
-      <c r="A31" s="61" t="s">
-        <v>94</v>
-      </c>
-      <c r="B31" s="62">
+      <c r="A31" s="56" t="s">
+        <v>93</v>
+      </c>
+      <c r="B31" s="57">
         <v>43448</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="E31" s="72" t="s">
-        <v>97</v>
+        <v>78</v>
+      </c>
+      <c r="E31" s="67" t="s">
+        <v>96</v>
       </c>
       <c r="F31" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="G31" s="155"/>
+      <c r="H31" s="17">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="15">
+      <c r="A32" s="58" t="s">
+        <v>95</v>
+      </c>
+      <c r="B32" s="43">
+        <v>43451</v>
+      </c>
+      <c r="C32" s="41" t="s">
+        <v>29</v>
+      </c>
+      <c r="D32" s="28"/>
+      <c r="E32" s="41"/>
+      <c r="F32" s="41" t="s">
         <v>110</v>
       </c>
-      <c r="G31" s="164"/>
-      <c r="H31" s="17">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" ht="15">
-      <c r="A32" s="63" t="s">
-        <v>96</v>
-      </c>
-      <c r="B32" s="48">
-        <v>43451</v>
-      </c>
-      <c r="C32" s="46" t="s">
-        <v>29</v>
-      </c>
-      <c r="D32" s="33"/>
-      <c r="E32" s="46"/>
-      <c r="F32" s="46" t="s">
-        <v>111</v>
-      </c>
-      <c r="G32" s="164"/>
-      <c r="H32" s="33">
-        <v>140</v>
-      </c>
-      <c r="I32" s="70">
+      <c r="G32" s="155"/>
+      <c r="H32" s="28">
+        <v>140</v>
+      </c>
+      <c r="I32" s="65">
         <v>43461</v>
       </c>
-      <c r="J32" s="71">
+      <c r="J32" s="66">
         <v>1400</v>
       </c>
     </row>
@@ -4478,8 +4462,8 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <sheetPr>
     <tabColor indexed="47"/>
   </sheetPr>
   <dimension ref="A1:K38"/>
@@ -4504,248 +4488,248 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="168" t="s">
+      <c r="A1" s="159" t="s">
+        <v>116</v>
+      </c>
+      <c r="B1" s="159"/>
+      <c r="C1" s="159"/>
+      <c r="D1" s="159"/>
+      <c r="E1" s="159"/>
+      <c r="F1" s="159"/>
+      <c r="G1" s="159"/>
+      <c r="H1" s="159"/>
+    </row>
+    <row r="2" spans="1:10" ht="15">
+      <c r="A2" s="68" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="30" t="s">
         <v>117</v>
       </c>
-      <c r="B1" s="168"/>
-      <c r="C1" s="168"/>
-      <c r="D1" s="168"/>
-      <c r="E1" s="168"/>
-      <c r="F1" s="168"/>
-      <c r="G1" s="168"/>
-      <c r="H1" s="168"/>
-    </row>
-    <row r="2" spans="1:10" ht="15">
-      <c r="A2" s="73" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="35" t="s">
-        <v>118</v>
-      </c>
-      <c r="G2" s="35" t="s">
+      <c r="G2" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="74"/>
+      <c r="H2" s="69"/>
     </row>
     <row r="3" spans="1:10" ht="15">
-      <c r="A3" s="57" t="s">
+      <c r="A3" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="58">
+      <c r="B3" s="53">
         <v>43312</v>
       </c>
-      <c r="C3" s="59" t="s">
-        <v>99</v>
-      </c>
-      <c r="D3" s="75"/>
-      <c r="E3" s="59"/>
-      <c r="F3" s="38" t="s">
+      <c r="C3" s="54" t="s">
+        <v>98</v>
+      </c>
+      <c r="D3" s="70"/>
+      <c r="E3" s="54"/>
+      <c r="F3" s="33" t="s">
+        <v>100</v>
+      </c>
+      <c r="G3" s="153" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" s="33">
+        <v>120</v>
+      </c>
+      <c r="J3" s="55"/>
+    </row>
+    <row r="4" spans="1:10" ht="15">
+      <c r="A4" s="56" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="57">
+        <v>43314</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="D4" s="45"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="36" t="s">
         <v>101</v>
       </c>
-      <c r="G3" s="162" t="s">
-        <v>11</v>
-      </c>
-      <c r="H3" s="38">
+      <c r="G4" s="153"/>
+      <c r="H4" s="36">
         <v>120</v>
       </c>
-      <c r="J3" s="60"/>
-    </row>
-    <row r="4" spans="1:10" ht="15">
-      <c r="A4" s="61" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="62">
-        <v>43314</v>
-      </c>
-      <c r="C4" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="D4" s="50"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="41" t="s">
+      <c r="J4" s="55"/>
+    </row>
+    <row r="5" spans="1:10" ht="15">
+      <c r="A5" s="56" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="57">
+        <v>43319</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="D5" s="45"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="36" t="s">
         <v>102</v>
       </c>
-      <c r="G4" s="162"/>
-      <c r="H4" s="41">
+      <c r="G5" s="153"/>
+      <c r="H5" s="36">
         <v>120</v>
       </c>
-      <c r="J4" s="60"/>
-    </row>
-    <row r="5" spans="1:10" ht="15">
-      <c r="A5" s="61" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="62">
-        <v>43319</v>
-      </c>
-      <c r="C5" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="D5" s="50"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="41" t="s">
+      <c r="J5" s="55"/>
+    </row>
+    <row r="6" spans="1:10" ht="15">
+      <c r="A6" s="56" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="57">
+        <v>43321</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="D6" s="45"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="36" t="s">
         <v>103</v>
       </c>
-      <c r="G5" s="162"/>
-      <c r="H5" s="41">
+      <c r="G6" s="153"/>
+      <c r="H6" s="36">
         <v>120</v>
       </c>
-      <c r="J5" s="60"/>
-    </row>
-    <row r="6" spans="1:10" ht="15">
-      <c r="A6" s="61" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" s="62">
-        <v>43321</v>
-      </c>
-      <c r="C6" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="D6" s="50"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="41" t="s">
+      <c r="J6" s="55"/>
+    </row>
+    <row r="7" spans="1:10" ht="15">
+      <c r="A7" s="56" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="57">
+        <v>43326</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="D7" s="45"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="36" t="s">
         <v>104</v>
       </c>
-      <c r="G6" s="162"/>
-      <c r="H6" s="41">
+      <c r="G7" s="153"/>
+      <c r="H7" s="36">
         <v>120</v>
       </c>
-      <c r="J6" s="60"/>
-    </row>
-    <row r="7" spans="1:10" ht="15">
-      <c r="A7" s="61" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" s="62">
-        <v>43326</v>
-      </c>
-      <c r="C7" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="D7" s="50"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="41" t="s">
+      <c r="J7" s="55"/>
+    </row>
+    <row r="8" spans="1:10" ht="15">
+      <c r="A8" s="56" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="57">
+        <v>43328</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="D8" s="45"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="36" t="s">
         <v>105</v>
       </c>
-      <c r="G7" s="162"/>
-      <c r="H7" s="41">
+      <c r="G8" s="153"/>
+      <c r="H8" s="36">
         <v>120</v>
       </c>
-      <c r="J7" s="60"/>
-    </row>
-    <row r="8" spans="1:10" ht="15">
-      <c r="A8" s="61" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" s="62">
-        <v>43328</v>
-      </c>
-      <c r="C8" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="D8" s="50"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="41" t="s">
+      <c r="J8" s="55"/>
+    </row>
+    <row r="9" spans="1:10" ht="15">
+      <c r="A9" s="56" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="57">
+        <v>43333</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="D9" s="45"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="36" t="s">
         <v>106</v>
       </c>
-      <c r="G8" s="162"/>
-      <c r="H8" s="41">
+      <c r="G9" s="153"/>
+      <c r="H9" s="36">
         <v>120</v>
       </c>
-      <c r="J8" s="60"/>
-    </row>
-    <row r="9" spans="1:10" ht="15">
-      <c r="A9" s="61" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" s="62">
-        <v>43333</v>
-      </c>
-      <c r="C9" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="D9" s="50"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="41" t="s">
-        <v>107</v>
-      </c>
-      <c r="G9" s="162"/>
-      <c r="H9" s="41">
+    </row>
+    <row r="10" spans="1:10" ht="15">
+      <c r="A10" s="56" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="57">
+        <v>43335</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="D10" s="45"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="36" t="s">
+        <v>108</v>
+      </c>
+      <c r="G10" s="153"/>
+      <c r="H10" s="36">
         <v>120</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="15">
-      <c r="A10" s="61" t="s">
-        <v>24</v>
-      </c>
-      <c r="B10" s="62">
-        <v>43335</v>
-      </c>
-      <c r="C10" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="D10" s="50"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="41" t="s">
+    <row r="11" spans="1:10" ht="15">
+      <c r="A11" s="56" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="57">
+        <v>43340</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="D11" s="45"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="36" t="s">
         <v>109</v>
       </c>
-      <c r="G10" s="162"/>
-      <c r="H10" s="41">
+      <c r="G11" s="153"/>
+      <c r="H11" s="36">
         <v>120</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" ht="15">
-      <c r="A11" s="61" t="s">
-        <v>26</v>
-      </c>
-      <c r="B11" s="62">
-        <v>43340</v>
-      </c>
-      <c r="C11" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="D11" s="50"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="41" t="s">
+      <c r="I11" s="2"/>
+    </row>
+    <row r="12" spans="1:10" ht="15">
+      <c r="A12" s="58" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="43">
+        <v>43342</v>
+      </c>
+      <c r="C12" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="D12" s="59"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="44" t="s">
         <v>110</v>
       </c>
-      <c r="G11" s="162"/>
-      <c r="H11" s="41">
+      <c r="G12" s="153"/>
+      <c r="H12" s="36">
         <v>120</v>
       </c>
-      <c r="I11" s="2"/>
-    </row>
-    <row r="12" spans="1:10" ht="15">
-      <c r="A12" s="63" t="s">
-        <v>27</v>
-      </c>
-      <c r="B12" s="48">
-        <v>43342</v>
-      </c>
-      <c r="C12" s="20" t="s">
-        <v>99</v>
-      </c>
-      <c r="D12" s="64"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="49" t="s">
-        <v>111</v>
-      </c>
-      <c r="G12" s="162"/>
-      <c r="H12" s="41">
-        <v>120</v>
-      </c>
-      <c r="I12" s="68">
+      <c r="I12" s="63">
         <v>43356</v>
       </c>
       <c r="J12" s="2">
@@ -4753,504 +4737,504 @@
       </c>
     </row>
     <row r="13" spans="1:10" ht="15">
-      <c r="A13" s="65" t="s">
-        <v>47</v>
-      </c>
-      <c r="B13" s="66">
+      <c r="A13" s="60" t="s">
+        <v>46</v>
+      </c>
+      <c r="B13" s="61">
         <v>43347</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E13" s="10"/>
       <c r="F13" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="G13" s="162" t="s">
+        <v>100</v>
+      </c>
+      <c r="G13" s="153" t="s">
         <v>31</v>
       </c>
-      <c r="H13" s="41">
+      <c r="H13" s="36">
         <v>120</v>
       </c>
       <c r="I13" s="2"/>
     </row>
     <row r="14" spans="1:10" ht="15">
-      <c r="A14" s="67" t="s">
-        <v>49</v>
-      </c>
-      <c r="B14" s="68">
+      <c r="A14" s="62" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14" s="63">
         <v>43349</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D14" s="17" t="s">
         <v>32</v>
       </c>
       <c r="F14" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="G14" s="153"/>
+      <c r="H14" s="36">
+        <v>120</v>
+      </c>
+      <c r="I14" s="2"/>
+    </row>
+    <row r="15" spans="1:10" ht="15">
+      <c r="A15" s="62" t="s">
+        <v>51</v>
+      </c>
+      <c r="B15" s="63">
+        <v>43354</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="D15" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="F15" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="G14" s="162"/>
-      <c r="H14" s="41">
+      <c r="G15" s="153"/>
+      <c r="H15" s="36">
         <v>120</v>
       </c>
-      <c r="I14" s="2"/>
-    </row>
-    <row r="15" spans="1:10" ht="15">
-      <c r="A15" s="67" t="s">
-        <v>52</v>
-      </c>
-      <c r="B15" s="68">
-        <v>43354</v>
-      </c>
-      <c r="C15" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="D15" s="15" t="s">
+      <c r="I15" s="2"/>
+    </row>
+    <row r="16" spans="1:10" ht="15">
+      <c r="A16" s="62" t="s">
+        <v>53</v>
+      </c>
+      <c r="B16" s="63">
+        <v>43356</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="D16" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="G16" s="153"/>
+      <c r="H16" s="36">
         <v>120</v>
       </c>
-      <c r="F15" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="G15" s="162"/>
-      <c r="H15" s="41">
-        <v>120</v>
-      </c>
-      <c r="I15" s="2"/>
-    </row>
-    <row r="16" spans="1:10" ht="15">
-      <c r="A16" s="67" t="s">
+      <c r="I16" s="2"/>
+    </row>
+    <row r="17" spans="1:11" ht="15">
+      <c r="A17" s="62" t="s">
         <v>54</v>
       </c>
-      <c r="B16" s="68">
-        <v>43356</v>
-      </c>
-      <c r="C16" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="D16" s="17" t="s">
-        <v>113</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="G16" s="162"/>
-      <c r="H16" s="41">
-        <v>120</v>
-      </c>
-      <c r="I16" s="2"/>
-    </row>
-    <row r="17" spans="1:11" ht="15">
-      <c r="A17" s="67" t="s">
-        <v>55</v>
-      </c>
-      <c r="B17" s="68">
+      <c r="B17" s="63">
         <v>43361</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D17" s="15" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>33</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="G17" s="162"/>
-      <c r="H17" s="41">
+        <v>104</v>
+      </c>
+      <c r="G17" s="153"/>
+      <c r="H17" s="36">
         <v>120</v>
       </c>
       <c r="I17" s="2"/>
     </row>
     <row r="18" spans="1:11" ht="15">
-      <c r="A18" s="67" t="s">
-        <v>56</v>
-      </c>
-      <c r="B18" s="68">
+      <c r="A18" s="62" t="s">
+        <v>55</v>
+      </c>
+      <c r="B18" s="63">
         <v>43363</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D18" s="15" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>35</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="G18" s="162"/>
-      <c r="H18" s="41">
+        <v>105</v>
+      </c>
+      <c r="G18" s="153"/>
+      <c r="H18" s="36">
         <v>120</v>
       </c>
       <c r="I18" s="2"/>
     </row>
     <row r="19" spans="1:11" ht="15">
-      <c r="A19" s="67" t="s">
-        <v>57</v>
-      </c>
-      <c r="B19" s="68">
+      <c r="A19" s="62" t="s">
+        <v>56</v>
+      </c>
+      <c r="B19" s="63">
         <v>43368</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D19" s="15" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>39</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="G19" s="162"/>
-      <c r="H19" s="41">
+        <v>106</v>
+      </c>
+      <c r="G19" s="153"/>
+      <c r="H19" s="36">
         <v>120</v>
       </c>
       <c r="I19" s="2"/>
     </row>
     <row r="20" spans="1:11" ht="15">
-      <c r="A20" s="67" t="s">
-        <v>60</v>
-      </c>
-      <c r="B20" s="68">
+      <c r="A20" s="62" t="s">
+        <v>59</v>
+      </c>
+      <c r="B20" s="63">
         <v>43370</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D20" s="15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F20" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="G20" s="153"/>
+      <c r="H20" s="36">
+        <v>120</v>
+      </c>
+      <c r="I20" s="2"/>
+    </row>
+    <row r="21" spans="1:11" ht="15">
+      <c r="A21" s="62" t="s">
+        <v>61</v>
+      </c>
+      <c r="B21" s="63">
+        <v>43375</v>
+      </c>
+      <c r="C21" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="D21" s="17" t="s">
+        <v>114</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F21" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="G20" s="162"/>
-      <c r="H20" s="41">
+      <c r="G21" s="153"/>
+      <c r="H21" s="36">
         <v>120</v>
       </c>
-      <c r="I20" s="2"/>
-    </row>
-    <row r="21" spans="1:11" ht="15">
-      <c r="A21" s="67" t="s">
-        <v>62</v>
-      </c>
-      <c r="B21" s="68">
-        <v>43375</v>
-      </c>
-      <c r="C21" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="D21" s="17" t="s">
-        <v>115</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="F21" s="2" t="s">
+      <c r="I21" s="2"/>
+    </row>
+    <row r="22" spans="1:11" ht="15">
+      <c r="A22" s="64" t="s">
+        <v>64</v>
+      </c>
+      <c r="B22" s="57">
+        <v>43382</v>
+      </c>
+      <c r="C22" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="D22" s="28" t="s">
+        <v>121</v>
+      </c>
+      <c r="E22" s="41" t="s">
+        <v>58</v>
+      </c>
+      <c r="F22" s="41" t="s">
         <v>110</v>
       </c>
-      <c r="G21" s="162"/>
-      <c r="H21" s="41">
+      <c r="G22" s="153"/>
+      <c r="H22" s="36">
         <v>120</v>
       </c>
-      <c r="I21" s="2"/>
-    </row>
-    <row r="22" spans="1:11" ht="15">
-      <c r="A22" s="69" t="s">
-        <v>65</v>
-      </c>
-      <c r="B22" s="62">
-        <v>43382</v>
-      </c>
-      <c r="C22" s="20" t="s">
-        <v>99</v>
-      </c>
-      <c r="D22" s="33" t="s">
-        <v>122</v>
-      </c>
-      <c r="E22" s="46" t="s">
-        <v>59</v>
-      </c>
-      <c r="F22" s="46" t="s">
-        <v>111</v>
-      </c>
-      <c r="G22" s="162"/>
-      <c r="H22" s="41">
-        <v>120</v>
-      </c>
-      <c r="I22" s="76">
+      <c r="I22" s="71">
         <v>43396</v>
       </c>
       <c r="J22" s="2">
         <v>1200</v>
       </c>
       <c r="K22" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="15">
+      <c r="A23" s="52" t="s">
+        <v>67</v>
+      </c>
+      <c r="B23" s="53">
+        <v>43384</v>
+      </c>
+      <c r="C23" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="D23" s="51" t="s">
+        <v>57</v>
+      </c>
+      <c r="E23" s="10"/>
+      <c r="F23" s="33" t="s">
+        <v>100</v>
+      </c>
+      <c r="G23" s="153" t="s">
+        <v>42</v>
+      </c>
+      <c r="H23" s="36">
+        <v>120</v>
+      </c>
+      <c r="I23" s="2"/>
+    </row>
+    <row r="24" spans="1:11" ht="15">
+      <c r="A24" s="56" t="s">
+        <v>70</v>
+      </c>
+      <c r="B24" s="57">
+        <v>43389</v>
+      </c>
+      <c r="C24" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="D24" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F24" s="36" t="s">
+        <v>101</v>
+      </c>
+      <c r="G24" s="153"/>
+      <c r="H24" s="36">
+        <v>120</v>
+      </c>
+      <c r="I24" s="2"/>
+    </row>
+    <row r="25" spans="1:11" ht="15">
+      <c r="A25" s="56" t="s">
+        <v>73</v>
+      </c>
+      <c r="B25" s="57">
+        <v>43391</v>
+      </c>
+      <c r="C25" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="D25" s="17" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="23" spans="1:11" ht="15">
-      <c r="A23" s="57" t="s">
-        <v>68</v>
-      </c>
-      <c r="B23" s="58">
-        <v>43384</v>
-      </c>
-      <c r="C23" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="D23" s="56" t="s">
-        <v>58</v>
-      </c>
-      <c r="E23" s="10"/>
-      <c r="F23" s="38" t="s">
-        <v>101</v>
-      </c>
-      <c r="G23" s="162" t="s">
-        <v>43</v>
-      </c>
-      <c r="H23" s="41">
+      <c r="E25" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F25" s="36" t="s">
+        <v>102</v>
+      </c>
+      <c r="G25" s="153"/>
+      <c r="H25" s="36">
         <v>120</v>
       </c>
-      <c r="I23" s="2"/>
-    </row>
-    <row r="24" spans="1:11" ht="15">
-      <c r="A24" s="61" t="s">
-        <v>71</v>
-      </c>
-      <c r="B24" s="62">
-        <v>43389</v>
-      </c>
-      <c r="C24" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="D24" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="F24" s="41" t="s">
-        <v>102</v>
-      </c>
-      <c r="G24" s="162"/>
-      <c r="H24" s="41">
+      <c r="I25" s="2"/>
+    </row>
+    <row r="26" spans="1:11" ht="15">
+      <c r="A26" s="56" t="s">
+        <v>76</v>
+      </c>
+      <c r="B26" s="57">
+        <v>43396</v>
+      </c>
+      <c r="C26" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="D26" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F26" s="36" t="s">
+        <v>103</v>
+      </c>
+      <c r="G26" s="153"/>
+      <c r="H26" s="36">
         <v>120</v>
       </c>
-      <c r="I24" s="2"/>
-    </row>
-    <row r="25" spans="1:11" ht="15">
-      <c r="A25" s="61" t="s">
+      <c r="I26" s="2"/>
+    </row>
+    <row r="27" spans="1:11" ht="15">
+      <c r="A27" s="56" t="s">
+        <v>89</v>
+      </c>
+      <c r="B27" s="57">
+        <v>43398</v>
+      </c>
+      <c r="C27" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="D27" s="17" t="s">
+        <v>124</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F27" s="36" t="s">
+        <v>104</v>
+      </c>
+      <c r="G27" s="153"/>
+      <c r="H27" s="36">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="15">
+      <c r="A28" s="56" t="s">
+        <v>90</v>
+      </c>
+      <c r="B28" s="57">
+        <v>43403</v>
+      </c>
+      <c r="C28" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="D28" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F28" s="36" t="s">
+        <v>105</v>
+      </c>
+      <c r="G28" s="153"/>
+      <c r="H28" s="36">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="15">
+      <c r="A29" s="56" t="s">
+        <v>91</v>
+      </c>
+      <c r="B29" s="63">
+        <v>43405</v>
+      </c>
+      <c r="C29" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="D29" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="B25" s="62">
-        <v>43391</v>
-      </c>
-      <c r="C25" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="D25" s="17" t="s">
-        <v>124</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="F25" s="41" t="s">
-        <v>103</v>
-      </c>
-      <c r="G25" s="162"/>
-      <c r="H25" s="41">
+      <c r="E29" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F29" s="36" t="s">
+        <v>106</v>
+      </c>
+      <c r="G29" s="153"/>
+      <c r="H29" s="36">
         <v>120</v>
       </c>
-      <c r="I25" s="2"/>
-    </row>
-    <row r="26" spans="1:11" ht="15">
-      <c r="A26" s="61" t="s">
-        <v>77</v>
-      </c>
-      <c r="B26" s="62">
-        <v>43396</v>
-      </c>
-      <c r="C26" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="D26" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="F26" s="41" t="s">
-        <v>104</v>
-      </c>
-      <c r="G26" s="162"/>
-      <c r="H26" s="41">
+    </row>
+    <row r="30" spans="1:11" ht="15">
+      <c r="A30" s="56" t="s">
+        <v>92</v>
+      </c>
+      <c r="B30" s="63">
+        <v>43417</v>
+      </c>
+      <c r="C30" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="D30" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F30" s="36" t="s">
+        <v>108</v>
+      </c>
+      <c r="G30" s="153"/>
+      <c r="H30" s="36">
         <v>120</v>
       </c>
-      <c r="I26" s="2"/>
-    </row>
-    <row r="27" spans="1:11" ht="15">
-      <c r="A27" s="61" t="s">
-        <v>90</v>
-      </c>
-      <c r="B27" s="62">
-        <v>43398</v>
-      </c>
-      <c r="C27" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="D27" s="17" t="s">
-        <v>125</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="F27" s="41" t="s">
-        <v>105</v>
-      </c>
-      <c r="G27" s="162"/>
-      <c r="H27" s="41">
+    </row>
+    <row r="31" spans="1:11" ht="15">
+      <c r="A31" s="56" t="s">
+        <v>93</v>
+      </c>
+      <c r="B31" s="63">
+        <v>43424</v>
+      </c>
+      <c r="C31" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="D31" s="72" t="s">
+        <v>126</v>
+      </c>
+      <c r="E31" s="67" t="s">
+        <v>96</v>
+      </c>
+      <c r="F31" s="36" t="s">
+        <v>109</v>
+      </c>
+      <c r="G31" s="153"/>
+      <c r="H31" s="36">
         <v>120</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="15">
-      <c r="A28" s="61" t="s">
-        <v>91</v>
-      </c>
-      <c r="B28" s="62">
-        <v>43403</v>
-      </c>
-      <c r="C28" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="D28" s="17" t="s">
-        <v>126</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="F28" s="41" t="s">
-        <v>106</v>
-      </c>
-      <c r="G28" s="162"/>
-      <c r="H28" s="41">
+    <row r="32" spans="1:11" s="27" customFormat="1" ht="15.75">
+      <c r="A32" s="73" t="s">
+        <v>95</v>
+      </c>
+      <c r="B32" s="74">
+        <v>43426</v>
+      </c>
+      <c r="C32" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="D32" s="75" t="s">
+        <v>127</v>
+      </c>
+      <c r="E32" s="76"/>
+      <c r="F32" s="77" t="s">
+        <v>110</v>
+      </c>
+      <c r="G32" s="153"/>
+      <c r="H32" s="77">
         <v>120</v>
       </c>
-    </row>
-    <row r="29" spans="1:11" ht="15">
-      <c r="A29" s="61" t="s">
-        <v>92</v>
-      </c>
-      <c r="B29" s="68">
-        <v>43405</v>
-      </c>
-      <c r="C29" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="D29" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="F29" s="41" t="s">
-        <v>107</v>
-      </c>
-      <c r="G29" s="162"/>
-      <c r="H29" s="41">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" ht="15">
-      <c r="A30" s="61" t="s">
-        <v>93</v>
-      </c>
-      <c r="B30" s="68">
-        <v>43417</v>
-      </c>
-      <c r="C30" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="D30" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="F30" s="41" t="s">
-        <v>109</v>
-      </c>
-      <c r="G30" s="162"/>
-      <c r="H30" s="41">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" ht="15">
-      <c r="A31" s="61" t="s">
-        <v>94</v>
-      </c>
-      <c r="B31" s="68">
-        <v>43424</v>
-      </c>
-      <c r="C31" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="D31" s="77" t="s">
-        <v>127</v>
-      </c>
-      <c r="E31" s="72" t="s">
-        <v>97</v>
-      </c>
-      <c r="F31" s="41" t="s">
-        <v>110</v>
-      </c>
-      <c r="G31" s="162"/>
-      <c r="H31" s="41">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" s="29" customFormat="1" ht="15.75">
-      <c r="A32" s="78" t="s">
-        <v>96</v>
-      </c>
-      <c r="B32" s="79">
-        <v>43426</v>
-      </c>
-      <c r="C32" s="20" t="s">
-        <v>99</v>
-      </c>
-      <c r="D32" s="80" t="s">
-        <v>128</v>
-      </c>
-      <c r="E32" s="81"/>
-      <c r="F32" s="82" t="s">
-        <v>111</v>
-      </c>
-      <c r="G32" s="162"/>
-      <c r="H32" s="82">
-        <v>120</v>
-      </c>
-      <c r="I32" s="83">
+      <c r="I32" s="78">
         <v>43440</v>
       </c>
-      <c r="J32" s="84">
+      <c r="J32" s="79">
         <v>1200</v>
       </c>
     </row>
     <row r="33" spans="1:10" ht="15">
-      <c r="A33" s="85"/>
+      <c r="A33" s="80"/>
     </row>
     <row r="36" spans="1:10">
       <c r="J36">
@@ -5285,8 +5269,8 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <sheetPr>
     <tabColor indexed="47"/>
   </sheetPr>
   <dimension ref="A1:I26"/>
@@ -5309,263 +5293,263 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="168" t="s">
+      <c r="A1" s="159" t="s">
+        <v>128</v>
+      </c>
+      <c r="B1" s="159"/>
+      <c r="C1" s="159"/>
+      <c r="D1" s="159"/>
+      <c r="E1" s="159"/>
+      <c r="F1" s="159"/>
+      <c r="G1" s="159"/>
+    </row>
+    <row r="2" spans="1:9" ht="15">
+      <c r="A2" s="68" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30" t="s">
         <v>129</v>
       </c>
-      <c r="B1" s="168"/>
-      <c r="C1" s="168"/>
-      <c r="D1" s="168"/>
-      <c r="E1" s="168"/>
-      <c r="F1" s="168"/>
-      <c r="G1" s="168"/>
-    </row>
-    <row r="2" spans="1:9" ht="15">
-      <c r="A2" s="73" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35" t="s">
+      <c r="F2" s="30" t="s">
+        <v>117</v>
+      </c>
+      <c r="G2" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="F2" s="35" t="s">
-        <v>118</v>
-      </c>
-      <c r="G2" s="35" t="s">
-        <v>5</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>131</v>
-      </c>
     </row>
     <row r="3" spans="1:9" ht="15">
-      <c r="A3" s="65" t="s">
+      <c r="A3" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="86">
+      <c r="B3" s="81">
         <v>43274</v>
       </c>
-      <c r="C3" s="59" t="s">
-        <v>99</v>
-      </c>
-      <c r="D3" s="75"/>
-      <c r="E3" s="75"/>
+      <c r="C3" s="54" t="s">
+        <v>98</v>
+      </c>
+      <c r="D3" s="70"/>
+      <c r="E3" s="70"/>
       <c r="F3" s="10">
         <v>5</v>
       </c>
-      <c r="G3" s="162" t="s">
+      <c r="G3" s="153" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="15">
-      <c r="A4" s="67" t="s">
+      <c r="A4" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="87">
+      <c r="B4" s="82">
         <v>43281</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="D4" s="50"/>
-      <c r="E4" s="50"/>
+        <v>98</v>
+      </c>
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
       <c r="F4" s="2">
         <v>5</v>
       </c>
-      <c r="G4" s="162"/>
+      <c r="G4" s="153"/>
     </row>
     <row r="5" spans="1:9" ht="15">
-      <c r="A5" s="67" t="s">
+      <c r="A5" s="62" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="87">
+      <c r="B5" s="82">
         <v>43288</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="D5" s="50"/>
-      <c r="E5" s="50"/>
+        <v>98</v>
+      </c>
+      <c r="D5" s="45"/>
+      <c r="E5" s="45"/>
       <c r="F5" s="2">
         <v>5</v>
       </c>
-      <c r="G5" s="162"/>
+      <c r="G5" s="153"/>
     </row>
     <row r="6" spans="1:9" ht="15">
-      <c r="A6" s="67" t="s">
+      <c r="A6" s="62" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="87">
+      <c r="B6" s="82">
         <v>43295</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="D6" s="50"/>
-      <c r="E6" s="50"/>
+        <v>98</v>
+      </c>
+      <c r="D6" s="45"/>
+      <c r="E6" s="45"/>
       <c r="F6" s="2">
         <v>5</v>
       </c>
-      <c r="G6" s="162"/>
+      <c r="G6" s="153"/>
     </row>
     <row r="7" spans="1:9" ht="15">
-      <c r="A7" s="67" t="s">
+      <c r="A7" s="62" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="88">
+      <c r="B7" s="83">
         <v>43302</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="D7" s="89"/>
-      <c r="E7" s="89"/>
+        <v>98</v>
+      </c>
+      <c r="D7" s="84"/>
+      <c r="E7" s="84"/>
       <c r="F7" s="2">
         <v>5</v>
       </c>
-      <c r="G7" s="162"/>
+      <c r="G7" s="153"/>
     </row>
     <row r="8" spans="1:9" ht="15">
-      <c r="A8" s="67" t="s">
+      <c r="A8" s="62" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="88">
+      <c r="B8" s="83">
         <v>43309</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="D8" s="89"/>
-      <c r="E8" s="89"/>
+        <v>98</v>
+      </c>
+      <c r="D8" s="84"/>
+      <c r="E8" s="84"/>
       <c r="F8" s="2">
         <v>5</v>
       </c>
-      <c r="G8" s="162"/>
+      <c r="G8" s="153"/>
     </row>
     <row r="9" spans="1:9" ht="15">
-      <c r="A9" s="67" t="s">
+      <c r="A9" s="62" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="88">
+      <c r="B9" s="83">
         <v>43316</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="D9" s="89"/>
-      <c r="E9" s="89"/>
+        <v>98</v>
+      </c>
+      <c r="D9" s="84"/>
+      <c r="E9" s="84"/>
       <c r="F9" s="2">
         <v>5</v>
       </c>
-      <c r="G9" s="162"/>
+      <c r="G9" s="153"/>
       <c r="H9" s="2"/>
     </row>
     <row r="10" spans="1:9" ht="15">
-      <c r="A10" s="67" t="s">
+      <c r="A10" s="62" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="88">
+      <c r="B10" s="83">
         <v>43323</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="D10" s="89"/>
-      <c r="E10" s="89"/>
+        <v>98</v>
+      </c>
+      <c r="D10" s="84"/>
+      <c r="E10" s="84"/>
       <c r="F10" s="2">
         <v>5</v>
       </c>
-      <c r="G10" s="162"/>
+      <c r="G10" s="153"/>
       <c r="H10" s="2"/>
     </row>
     <row r="11" spans="1:9" ht="15">
-      <c r="A11" s="90" t="s">
+      <c r="A11" s="85" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="91">
+      <c r="B11" s="86">
         <v>43330</v>
       </c>
-      <c r="C11" s="92" t="s">
-        <v>99</v>
-      </c>
-      <c r="D11" s="93" t="s">
-        <v>119</v>
-      </c>
-      <c r="E11" s="93"/>
-      <c r="F11" s="94" t="s">
+      <c r="C11" s="87" t="s">
+        <v>98</v>
+      </c>
+      <c r="D11" s="88" t="s">
+        <v>118</v>
+      </c>
+      <c r="E11" s="88"/>
+      <c r="F11" s="89" t="s">
+        <v>100</v>
+      </c>
+      <c r="G11" s="160" t="s">
+        <v>31</v>
+      </c>
+      <c r="H11" s="2"/>
+    </row>
+    <row r="12" spans="1:9" ht="15">
+      <c r="A12" s="90" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="91">
+        <v>43337</v>
+      </c>
+      <c r="C12" s="92" t="s">
+        <v>98</v>
+      </c>
+      <c r="D12" s="93" t="s">
+        <v>32</v>
+      </c>
+      <c r="E12" s="93"/>
+      <c r="F12" s="94" t="s">
         <v>101</v>
       </c>
-      <c r="G11" s="169" t="s">
-        <v>31</v>
-      </c>
-      <c r="H11" s="2"/>
-    </row>
-    <row r="12" spans="1:9" ht="15">
-      <c r="A12" s="95" t="s">
-        <v>27</v>
-      </c>
-      <c r="B12" s="96">
-        <v>43337</v>
-      </c>
-      <c r="C12" s="97" t="s">
-        <v>99</v>
-      </c>
-      <c r="D12" s="98" t="s">
-        <v>32</v>
-      </c>
-      <c r="E12" s="98"/>
-      <c r="F12" s="99" t="s">
+      <c r="G12" s="160"/>
+      <c r="H12" s="2"/>
+    </row>
+    <row r="13" spans="1:9" ht="15">
+      <c r="A13" s="90" t="s">
+        <v>46</v>
+      </c>
+      <c r="B13" s="91">
+        <v>43344</v>
+      </c>
+      <c r="C13" s="92" t="s">
+        <v>98</v>
+      </c>
+      <c r="D13" s="93" t="s">
+        <v>81</v>
+      </c>
+      <c r="E13" s="93"/>
+      <c r="F13" s="94" t="s">
         <v>102</v>
       </c>
-      <c r="G12" s="169"/>
-      <c r="H12" s="2"/>
-    </row>
-    <row r="13" spans="1:9" ht="15">
-      <c r="A13" s="95" t="s">
-        <v>47</v>
-      </c>
-      <c r="B13" s="96">
-        <v>43344</v>
-      </c>
-      <c r="C13" s="97" t="s">
-        <v>99</v>
-      </c>
-      <c r="D13" s="98" t="s">
-        <v>82</v>
-      </c>
-      <c r="E13" s="98"/>
-      <c r="F13" s="99" t="s">
+      <c r="G13" s="160"/>
+      <c r="H13" s="2"/>
+    </row>
+    <row r="14" spans="1:9" ht="15">
+      <c r="A14" s="90" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14" s="91">
+        <v>43358</v>
+      </c>
+      <c r="C14" s="92" t="s">
+        <v>98</v>
+      </c>
+      <c r="D14" s="93" t="s">
+        <v>83</v>
+      </c>
+      <c r="E14" s="93" t="s">
+        <v>33</v>
+      </c>
+      <c r="F14" s="94" t="s">
         <v>103</v>
       </c>
-      <c r="G13" s="169"/>
-      <c r="H13" s="2"/>
-    </row>
-    <row r="14" spans="1:9" ht="15">
-      <c r="A14" s="95" t="s">
-        <v>49</v>
-      </c>
-      <c r="B14" s="96">
-        <v>43358</v>
-      </c>
-      <c r="C14" s="97" t="s">
-        <v>99</v>
-      </c>
-      <c r="D14" s="98" t="s">
-        <v>84</v>
-      </c>
-      <c r="E14" s="98" t="s">
-        <v>33</v>
-      </c>
-      <c r="F14" s="99" t="s">
-        <v>104</v>
-      </c>
-      <c r="G14" s="169"/>
-      <c r="H14" s="76">
+      <c r="G14" s="160"/>
+      <c r="H14" s="71">
         <v>43371</v>
       </c>
       <c r="I14" s="2">
@@ -5573,92 +5557,92 @@
       </c>
     </row>
     <row r="15" spans="1:9" ht="15">
-      <c r="A15" s="95" t="s">
-        <v>52</v>
-      </c>
-      <c r="B15" s="100">
+      <c r="A15" s="90" t="s">
+        <v>51</v>
+      </c>
+      <c r="B15" s="95">
         <v>43365</v>
       </c>
-      <c r="C15" s="97" t="s">
-        <v>99</v>
-      </c>
-      <c r="D15" s="98" t="s">
+      <c r="C15" s="92" t="s">
+        <v>98</v>
+      </c>
+      <c r="D15" s="93" t="s">
+        <v>131</v>
+      </c>
+      <c r="E15" s="93" t="s">
+        <v>35</v>
+      </c>
+      <c r="F15" s="94" t="s">
+        <v>104</v>
+      </c>
+      <c r="G15" s="160"/>
+      <c r="H15" s="2"/>
+    </row>
+    <row r="16" spans="1:9" ht="15">
+      <c r="A16" s="90" t="s">
+        <v>53</v>
+      </c>
+      <c r="B16" s="95">
+        <v>43372</v>
+      </c>
+      <c r="C16" s="92" t="s">
+        <v>98</v>
+      </c>
+      <c r="D16" s="93" t="s">
         <v>132</v>
       </c>
-      <c r="E15" s="98" t="s">
-        <v>35</v>
-      </c>
-      <c r="F15" s="99" t="s">
+      <c r="E16" s="93" t="s">
+        <v>39</v>
+      </c>
+      <c r="F16" s="94" t="s">
         <v>105</v>
       </c>
-      <c r="G15" s="169"/>
-      <c r="H15" s="2"/>
-    </row>
-    <row r="16" spans="1:9" ht="15">
-      <c r="A16" s="95" t="s">
+      <c r="G16" s="160"/>
+      <c r="H16" s="2"/>
+    </row>
+    <row r="17" spans="1:9" ht="15">
+      <c r="A17" s="90" t="s">
         <v>54</v>
       </c>
-      <c r="B16" s="100">
-        <v>43372</v>
-      </c>
-      <c r="C16" s="97" t="s">
-        <v>99</v>
-      </c>
-      <c r="D16" s="98" t="s">
+      <c r="B17" s="95">
+        <v>43386</v>
+      </c>
+      <c r="C17" s="92" t="s">
+        <v>98</v>
+      </c>
+      <c r="D17" s="93" t="s">
         <v>133</v>
       </c>
-      <c r="E16" s="98" t="s">
+      <c r="E17" s="93" t="s">
         <v>39</v>
       </c>
-      <c r="F16" s="99" t="s">
+      <c r="F17" s="94" t="s">
         <v>106</v>
       </c>
-      <c r="G16" s="169"/>
-      <c r="H16" s="2"/>
-    </row>
-    <row r="17" spans="1:9" ht="15">
-      <c r="A17" s="95" t="s">
+      <c r="G17" s="160"/>
+      <c r="H17" s="2"/>
+    </row>
+    <row r="18" spans="1:9" ht="15">
+      <c r="A18" s="96" t="s">
         <v>55</v>
       </c>
-      <c r="B17" s="100">
-        <v>43386</v>
-      </c>
-      <c r="C17" s="97" t="s">
-        <v>99</v>
-      </c>
-      <c r="D17" s="98" t="s">
+      <c r="B18" s="97">
+        <v>43393</v>
+      </c>
+      <c r="C18" s="98" t="s">
+        <v>98</v>
+      </c>
+      <c r="D18" s="49" t="s">
         <v>134</v>
       </c>
-      <c r="E17" s="98" t="s">
-        <v>39</v>
-      </c>
-      <c r="F17" s="99" t="s">
-        <v>107</v>
-      </c>
-      <c r="G17" s="169"/>
-      <c r="H17" s="2"/>
-    </row>
-    <row r="18" spans="1:9" ht="15">
-      <c r="A18" s="101" t="s">
-        <v>56</v>
-      </c>
-      <c r="B18" s="102">
-        <v>43393</v>
-      </c>
-      <c r="C18" s="103" t="s">
-        <v>99</v>
-      </c>
-      <c r="D18" s="54" t="s">
+      <c r="E18" s="49" t="s">
         <v>135</v>
       </c>
-      <c r="E18" s="54" t="s">
-        <v>136</v>
-      </c>
-      <c r="F18" s="55" t="s">
-        <v>109</v>
-      </c>
-      <c r="G18" s="169"/>
-      <c r="H18" s="76">
+      <c r="F18" s="50" t="s">
+        <v>108</v>
+      </c>
+      <c r="G18" s="160"/>
+      <c r="H18" s="71">
         <v>43409</v>
       </c>
       <c r="I18" s="2">
@@ -5666,179 +5650,179 @@
       </c>
     </row>
     <row r="19" spans="1:9" ht="15">
-      <c r="A19" s="67" t="s">
+      <c r="A19" s="62" t="s">
+        <v>56</v>
+      </c>
+      <c r="B19" s="99">
+        <v>43414</v>
+      </c>
+      <c r="C19" s="100" t="s">
+        <v>29</v>
+      </c>
+      <c r="D19" s="51" t="s">
         <v>57</v>
       </c>
-      <c r="B19" s="104">
-        <v>43414</v>
-      </c>
-      <c r="C19" s="105" t="s">
+      <c r="E19" s="51"/>
+      <c r="F19" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="G19" s="153" t="s">
+        <v>42</v>
+      </c>
+      <c r="H19" s="2"/>
+    </row>
+    <row r="20" spans="1:9" ht="15">
+      <c r="A20" s="62" t="s">
+        <v>59</v>
+      </c>
+      <c r="B20" s="99">
+        <v>43421</v>
+      </c>
+      <c r="C20" s="100" t="s">
         <v>29</v>
       </c>
-      <c r="D19" s="56" t="s">
-        <v>58</v>
-      </c>
-      <c r="E19" s="56"/>
-      <c r="F19" s="2" t="s">
+      <c r="D20" s="17" t="s">
+        <v>136</v>
+      </c>
+      <c r="E20" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="F20" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="G19" s="162" t="s">
-        <v>43</v>
-      </c>
-      <c r="H19" s="2"/>
-    </row>
-    <row r="20" spans="1:9" ht="15">
-      <c r="A20" s="67" t="s">
-        <v>60</v>
-      </c>
-      <c r="B20" s="104">
-        <v>43421</v>
-      </c>
-      <c r="C20" s="105" t="s">
+      <c r="G20" s="153"/>
+      <c r="H20" s="2"/>
+    </row>
+    <row r="21" spans="1:9" ht="15">
+      <c r="A21" s="62" t="s">
+        <v>61</v>
+      </c>
+      <c r="B21" s="99">
+        <v>43428</v>
+      </c>
+      <c r="C21" s="100" t="s">
         <v>29</v>
       </c>
-      <c r="D20" s="17" t="s">
+      <c r="D21" s="17" t="s">
         <v>137</v>
       </c>
-      <c r="E20" s="17" t="s">
+      <c r="E21" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="G21" s="153"/>
+      <c r="H21" s="2"/>
+    </row>
+    <row r="22" spans="1:9" ht="15">
+      <c r="A22" s="62" t="s">
         <v>64</v>
       </c>
-      <c r="F20" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="G20" s="162"/>
-      <c r="H20" s="2"/>
-    </row>
-    <row r="21" spans="1:9" ht="15">
-      <c r="A21" s="67" t="s">
-        <v>62</v>
-      </c>
-      <c r="B21" s="104">
-        <v>43428</v>
-      </c>
-      <c r="C21" s="105" t="s">
+      <c r="B22" s="99">
+        <v>43435</v>
+      </c>
+      <c r="C22" s="100" t="s">
         <v>29</v>
       </c>
-      <c r="D21" s="17" t="s">
+      <c r="D22" s="17" t="s">
         <v>138</v>
       </c>
-      <c r="E21" s="17" t="s">
+      <c r="E22" s="17" t="s">
+        <v>139</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="G22" s="153"/>
+      <c r="H22" s="65">
+        <v>43448</v>
+      </c>
+      <c r="I22" s="66">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="15">
+      <c r="A23" s="62" t="s">
         <v>67</v>
       </c>
-      <c r="F21" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="G21" s="162"/>
-      <c r="H21" s="2"/>
-    </row>
-    <row r="22" spans="1:9" ht="15">
-      <c r="A22" s="67" t="s">
-        <v>65</v>
-      </c>
-      <c r="B22" s="104">
-        <v>43435</v>
-      </c>
-      <c r="C22" s="105" t="s">
-        <v>29</v>
-      </c>
-      <c r="D22" s="17" t="s">
-        <v>139</v>
-      </c>
-      <c r="E22" s="17" t="s">
-        <v>140</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="G22" s="162"/>
-      <c r="H22" s="70">
-        <v>43448</v>
-      </c>
-      <c r="I22" s="71">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="15">
-      <c r="A23" s="67" t="s">
-        <v>68</v>
-      </c>
-      <c r="B23" s="106">
+      <c r="B23" s="101">
         <v>43442</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D23" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="E23" s="17" t="s">
         <v>141</v>
       </c>
-      <c r="E23" s="17" t="s">
-        <v>142</v>
-      </c>
       <c r="F23" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="G23" s="162"/>
+        <v>104</v>
+      </c>
+      <c r="G23" s="153"/>
       <c r="H23" s="2"/>
     </row>
     <row r="24" spans="1:9" ht="15">
-      <c r="A24" s="67" t="s">
-        <v>71</v>
-      </c>
-      <c r="B24" s="106">
+      <c r="A24" s="62" t="s">
+        <v>70</v>
+      </c>
+      <c r="B24" s="101">
         <v>43449</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E24" s="17" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="G24" s="162"/>
+        <v>105</v>
+      </c>
+      <c r="G24" s="153"/>
       <c r="H24" s="2"/>
     </row>
     <row r="25" spans="1:9" ht="15">
-      <c r="A25" s="67" t="s">
-        <v>74</v>
-      </c>
-      <c r="B25" s="106">
+      <c r="A25" s="62" t="s">
+        <v>73</v>
+      </c>
+      <c r="B25" s="101">
         <v>43477</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="E25" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="G25" s="153"/>
+    </row>
+    <row r="26" spans="1:9" ht="15">
+      <c r="A26" s="64" t="s">
+        <v>76</v>
+      </c>
+      <c r="B26" s="102">
+        <v>43484</v>
+      </c>
+      <c r="C26" s="41"/>
+      <c r="D26" s="28" t="s">
         <v>144</v>
       </c>
-      <c r="E25" s="17" t="s">
-        <v>95</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="G25" s="162"/>
-    </row>
-    <row r="26" spans="1:9" ht="15">
-      <c r="A26" s="69" t="s">
-        <v>77</v>
-      </c>
-      <c r="B26" s="107">
-        <v>43484</v>
-      </c>
-      <c r="C26" s="46"/>
-      <c r="D26" s="33" t="s">
-        <v>145</v>
-      </c>
-      <c r="E26" s="33" t="s">
-        <v>97</v>
-      </c>
-      <c r="F26" s="46" t="s">
-        <v>109</v>
-      </c>
-      <c r="G26" s="162"/>
+      <c r="E26" s="28" t="s">
+        <v>96</v>
+      </c>
+      <c r="F26" s="41" t="s">
+        <v>108</v>
+      </c>
+      <c r="G26" s="153"/>
       <c r="I26" s="2">
         <v>600</v>
       </c>
@@ -5863,8 +5847,8 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <sheetPr>
     <tabColor indexed="47"/>
   </sheetPr>
   <dimension ref="A1:K30"/>
@@ -5889,614 +5873,614 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="170" t="s">
+      <c r="A1" s="161" t="s">
+        <v>145</v>
+      </c>
+      <c r="B1" s="161"/>
+      <c r="C1" s="161"/>
+      <c r="D1" s="161"/>
+      <c r="E1" s="161"/>
+      <c r="F1" s="161"/>
+      <c r="G1" s="161"/>
+      <c r="H1" s="161"/>
+    </row>
+    <row r="2" spans="1:11" ht="15">
+      <c r="A2" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30" t="s">
+        <v>129</v>
+      </c>
+      <c r="F2" s="30" t="s">
+        <v>117</v>
+      </c>
+      <c r="G2" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="30" t="s">
         <v>146</v>
       </c>
-      <c r="B1" s="170"/>
-      <c r="C1" s="170"/>
-      <c r="D1" s="170"/>
-      <c r="E1" s="170"/>
-      <c r="F1" s="170"/>
-      <c r="G1" s="170"/>
-      <c r="H1" s="170"/>
-    </row>
-    <row r="2" spans="1:11" ht="15">
-      <c r="A2" s="35" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35" t="s">
-        <v>130</v>
-      </c>
-      <c r="F2" s="35" t="s">
-        <v>118</v>
-      </c>
-      <c r="G2" s="35" t="s">
-        <v>5</v>
-      </c>
-      <c r="H2" s="35" t="s">
-        <v>147</v>
-      </c>
       <c r="I2" s="16"/>
     </row>
     <row r="3" spans="1:11" ht="15">
-      <c r="A3" s="85" t="s">
+      <c r="A3" s="80" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="85"/>
+      <c r="B3" s="80"/>
       <c r="C3" s="16" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D3" s="16"/>
       <c r="E3" s="16"/>
       <c r="F3" s="2">
         <v>5</v>
       </c>
-      <c r="G3" s="170" t="s">
+      <c r="G3" s="161" t="s">
+        <v>147</v>
+      </c>
+      <c r="J3" s="162" t="s">
         <v>148</v>
       </c>
-      <c r="J3" s="171" t="s">
-        <v>149</v>
-      </c>
-      <c r="K3" s="171"/>
+      <c r="K3" s="162"/>
     </row>
     <row r="4" spans="1:11" ht="15">
-      <c r="A4" s="85" t="s">
+      <c r="A4" s="80" t="s">
         <v>12</v>
       </c>
       <c r="B4" s="16"/>
       <c r="C4" s="16" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D4" s="16"/>
       <c r="E4" s="16"/>
       <c r="F4" s="2">
         <v>5</v>
       </c>
-      <c r="G4" s="170"/>
+      <c r="G4" s="161"/>
       <c r="J4" t="s">
-        <v>150</v>
-      </c>
-      <c r="K4" s="60">
+        <v>149</v>
+      </c>
+      <c r="K4" s="55">
         <f>140/8</f>
         <v>17.5</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="15">
-      <c r="A5" s="85" t="s">
+      <c r="A5" s="80" t="s">
         <v>14</v>
       </c>
       <c r="B5" s="16"/>
       <c r="C5" s="16" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D5" s="16"/>
       <c r="E5" s="16"/>
       <c r="F5" s="2">
         <v>5</v>
       </c>
-      <c r="G5" s="170"/>
+      <c r="G5" s="161"/>
       <c r="J5" t="s">
-        <v>151</v>
-      </c>
-      <c r="K5" s="60">
+        <v>150</v>
+      </c>
+      <c r="K5" s="55">
         <f>K4</f>
         <v>17.5</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="15">
-      <c r="A6" s="85" t="s">
+      <c r="A6" s="80" t="s">
         <v>16</v>
       </c>
       <c r="B6" s="16"/>
       <c r="C6" s="16" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D6" s="16"/>
       <c r="E6" s="16"/>
       <c r="F6" s="2">
         <v>5</v>
       </c>
-      <c r="G6" s="170"/>
+      <c r="G6" s="161"/>
       <c r="J6" t="s">
-        <v>152</v>
-      </c>
-      <c r="K6" s="60">
+        <v>151</v>
+      </c>
+      <c r="K6" s="55">
         <f>K4*2</f>
         <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="15">
-      <c r="A7" s="57" t="s">
+      <c r="A7" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="59"/>
-      <c r="C7" s="59" t="s">
-        <v>99</v>
-      </c>
-      <c r="D7" s="59"/>
-      <c r="E7" s="59"/>
+      <c r="B7" s="54"/>
+      <c r="C7" s="54" t="s">
+        <v>98</v>
+      </c>
+      <c r="D7" s="54"/>
+      <c r="E7" s="54"/>
       <c r="F7" s="10">
         <v>5</v>
       </c>
-      <c r="G7" s="164" t="s">
+      <c r="G7" s="155" t="s">
         <v>11</v>
       </c>
       <c r="J7" t="s">
-        <v>153</v>
-      </c>
-      <c r="K7" s="60">
+        <v>152</v>
+      </c>
+      <c r="K7" s="55">
         <f>K4*3</f>
         <v>52.5</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="15">
-      <c r="A8" s="61" t="s">
+      <c r="A8" s="56" t="s">
         <v>20</v>
       </c>
       <c r="B8" s="16"/>
       <c r="C8" s="16" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D8" s="16"/>
       <c r="E8" s="16"/>
       <c r="F8" s="2">
         <v>5</v>
       </c>
-      <c r="G8" s="164"/>
+      <c r="G8" s="155"/>
       <c r="J8" t="s">
-        <v>154</v>
-      </c>
-      <c r="K8" s="60">
+        <v>153</v>
+      </c>
+      <c r="K8" s="55">
         <f>K4*4</f>
         <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="15">
-      <c r="A9" s="61" t="s">
+      <c r="A9" s="56" t="s">
         <v>22</v>
       </c>
       <c r="B9" s="16"/>
       <c r="C9" s="16" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D9" s="16"/>
       <c r="E9" s="16"/>
       <c r="F9" s="2">
         <v>5</v>
       </c>
-      <c r="G9" s="164"/>
+      <c r="G9" s="155"/>
       <c r="J9" t="s">
-        <v>155</v>
-      </c>
-      <c r="K9" s="60">
+        <v>154</v>
+      </c>
+      <c r="K9" s="55">
         <f>K4*5</f>
         <v>87.5</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="15">
-      <c r="A10" s="61" t="s">
+      <c r="A10" s="56" t="s">
         <v>24</v>
       </c>
       <c r="B10" s="16"/>
       <c r="C10" s="16" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D10" s="16"/>
       <c r="E10" s="16"/>
       <c r="F10" s="2">
         <v>5</v>
       </c>
-      <c r="G10" s="164"/>
+      <c r="G10" s="155"/>
       <c r="J10" t="s">
-        <v>156</v>
-      </c>
-      <c r="K10" s="60">
+        <v>155</v>
+      </c>
+      <c r="K10" s="55">
         <f>K4*6</f>
         <v>105</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="15">
-      <c r="A11" s="61" t="s">
+      <c r="A11" s="56" t="s">
         <v>26</v>
       </c>
       <c r="B11" s="16"/>
       <c r="C11" s="16" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D11" s="16"/>
       <c r="E11" s="16"/>
       <c r="F11" s="2">
         <v>5</v>
       </c>
-      <c r="G11" s="164"/>
+      <c r="G11" s="155"/>
       <c r="J11" t="s">
-        <v>157</v>
-      </c>
-      <c r="K11" s="60">
+        <v>156</v>
+      </c>
+      <c r="K11" s="55">
         <f>K4*7</f>
         <v>122.5</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="15">
-      <c r="A12" s="61" t="s">
+      <c r="A12" s="56" t="s">
         <v>27</v>
       </c>
       <c r="B12" s="16"/>
       <c r="C12" s="16" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D12" s="16"/>
       <c r="E12" s="16"/>
       <c r="F12" s="2">
         <v>5</v>
       </c>
-      <c r="G12" s="164"/>
+      <c r="G12" s="155"/>
       <c r="J12" t="s">
-        <v>158</v>
-      </c>
-      <c r="K12" s="60">
+        <v>157</v>
+      </c>
+      <c r="K12" s="55">
         <f>K4*8</f>
         <v>140</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="15">
-      <c r="A13" s="61" t="s">
-        <v>47</v>
+      <c r="A13" s="56" t="s">
+        <v>46</v>
       </c>
       <c r="B13" s="16"/>
       <c r="C13" s="16" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D13" s="16"/>
       <c r="E13" s="16"/>
       <c r="F13" s="2">
         <v>5</v>
       </c>
-      <c r="G13" s="164"/>
+      <c r="G13" s="155"/>
     </row>
     <row r="14" spans="1:11" ht="15">
-      <c r="A14" s="63" t="s">
-        <v>49</v>
+      <c r="A14" s="58" t="s">
+        <v>48</v>
       </c>
       <c r="B14" s="20"/>
       <c r="C14" s="20" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
-      <c r="F14" s="46">
+      <c r="F14" s="41">
         <v>5</v>
       </c>
-      <c r="G14" s="164"/>
+      <c r="G14" s="155"/>
     </row>
     <row r="15" spans="1:11" ht="15">
-      <c r="A15" s="57" t="s">
-        <v>52</v>
-      </c>
-      <c r="B15" s="59"/>
-      <c r="C15" s="59" t="s">
-        <v>99</v>
-      </c>
-      <c r="D15" s="59"/>
-      <c r="E15" s="59"/>
+      <c r="A15" s="52" t="s">
+        <v>51</v>
+      </c>
+      <c r="B15" s="54"/>
+      <c r="C15" s="54" t="s">
+        <v>98</v>
+      </c>
+      <c r="D15" s="54"/>
+      <c r="E15" s="54"/>
       <c r="F15" s="10">
         <v>1</v>
       </c>
-      <c r="G15" s="164" t="s">
+      <c r="G15" s="155" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="15">
-      <c r="A16" s="61" t="s">
-        <v>54</v>
-      </c>
-      <c r="B16" s="62">
+      <c r="A16" s="56" t="s">
+        <v>53</v>
+      </c>
+      <c r="B16" s="57">
         <v>43261</v>
       </c>
       <c r="C16" s="16" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D16" s="16"/>
       <c r="E16" s="16"/>
       <c r="F16" s="2">
         <v>2</v>
       </c>
-      <c r="G16" s="164"/>
+      <c r="G16" s="155"/>
     </row>
     <row r="17" spans="1:10" ht="15">
-      <c r="A17" s="61" t="s">
-        <v>55</v>
-      </c>
-      <c r="B17" s="62">
+      <c r="A17" s="56" t="s">
+        <v>54</v>
+      </c>
+      <c r="B17" s="57">
         <v>43268</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D17" s="16"/>
       <c r="E17" s="16"/>
       <c r="F17" s="2">
         <v>3</v>
       </c>
-      <c r="G17" s="164"/>
+      <c r="G17" s="155"/>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
     </row>
     <row r="18" spans="1:10" ht="15">
-      <c r="A18" s="61" t="s">
-        <v>56</v>
-      </c>
-      <c r="B18" s="62">
+      <c r="A18" s="56" t="s">
+        <v>55</v>
+      </c>
+      <c r="B18" s="57">
         <v>43275</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D18" s="16"/>
       <c r="E18" s="16"/>
       <c r="F18" s="2">
         <v>4</v>
       </c>
-      <c r="G18" s="164"/>
+      <c r="G18" s="155"/>
     </row>
     <row r="19" spans="1:10" ht="15">
-      <c r="A19" s="67" t="s">
-        <v>57</v>
-      </c>
-      <c r="B19" s="68">
+      <c r="A19" s="62" t="s">
+        <v>56</v>
+      </c>
+      <c r="B19" s="63">
         <v>43282</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F19" s="2">
         <v>5</v>
       </c>
-      <c r="G19" s="164"/>
+      <c r="G19" s="155"/>
     </row>
     <row r="20" spans="1:10" ht="15">
-      <c r="A20" s="67" t="s">
-        <v>60</v>
-      </c>
-      <c r="B20" s="68">
+      <c r="A20" s="62" t="s">
+        <v>59</v>
+      </c>
+      <c r="B20" s="63">
         <v>43289</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F20" s="2">
         <v>6</v>
       </c>
-      <c r="G20" s="164"/>
+      <c r="G20" s="155"/>
     </row>
     <row r="21" spans="1:10" ht="15">
-      <c r="A21" s="67" t="s">
-        <v>62</v>
-      </c>
-      <c r="B21" s="68">
+      <c r="A21" s="62" t="s">
+        <v>61</v>
+      </c>
+      <c r="B21" s="63">
         <v>43296</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F21" s="2">
         <v>7</v>
       </c>
-      <c r="G21" s="164"/>
+      <c r="G21" s="155"/>
     </row>
     <row r="22" spans="1:10" ht="15">
-      <c r="A22" s="69" t="s">
-        <v>65</v>
-      </c>
-      <c r="B22" s="108">
+      <c r="A22" s="64" t="s">
+        <v>64</v>
+      </c>
+      <c r="B22" s="103">
         <v>43303</v>
       </c>
       <c r="C22" s="20" t="s">
-        <v>99</v>
-      </c>
-      <c r="D22" s="46" t="s">
-        <v>161</v>
-      </c>
-      <c r="E22" s="46"/>
-      <c r="F22" s="46">
+        <v>98</v>
+      </c>
+      <c r="D22" s="41" t="s">
+        <v>160</v>
+      </c>
+      <c r="E22" s="41"/>
+      <c r="F22" s="41">
         <v>8</v>
       </c>
-      <c r="G22" s="164"/>
+      <c r="G22" s="155"/>
     </row>
     <row r="23" spans="1:10" ht="15">
-      <c r="A23" s="65" t="s">
-        <v>68</v>
-      </c>
-      <c r="B23" s="58">
+      <c r="A23" s="60" t="s">
+        <v>67</v>
+      </c>
+      <c r="B23" s="53">
         <v>43310</v>
       </c>
-      <c r="C23" s="59" t="s">
-        <v>99</v>
+      <c r="C23" s="54" t="s">
+        <v>98</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E23" s="10"/>
       <c r="F23" s="10">
         <v>1</v>
       </c>
-      <c r="G23" s="164" t="s">
-        <v>43</v>
+      <c r="G23" s="155" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="15">
-      <c r="A24" s="67" t="s">
-        <v>71</v>
-      </c>
-      <c r="B24" s="62">
+      <c r="A24" s="62" t="s">
+        <v>70</v>
+      </c>
+      <c r="B24" s="57">
         <v>43317</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F24" s="2">
         <v>2</v>
       </c>
-      <c r="G24" s="164"/>
+      <c r="G24" s="155"/>
     </row>
     <row r="25" spans="1:10" ht="15">
-      <c r="A25" s="67" t="s">
-        <v>74</v>
-      </c>
-      <c r="B25" s="62">
+      <c r="A25" s="62" t="s">
+        <v>73</v>
+      </c>
+      <c r="B25" s="57">
         <v>43331</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F25" s="2">
         <v>3</v>
       </c>
-      <c r="G25" s="164"/>
+      <c r="G25" s="155"/>
     </row>
     <row r="26" spans="1:10" ht="15">
-      <c r="A26" s="67" t="s">
-        <v>77</v>
-      </c>
-      <c r="B26" s="62">
+      <c r="A26" s="62" t="s">
+        <v>76</v>
+      </c>
+      <c r="B26" s="57">
         <v>43338</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F26" s="2">
         <v>4</v>
       </c>
-      <c r="G26" s="164"/>
+      <c r="G26" s="155"/>
       <c r="H26" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="15">
-      <c r="A27" s="67" t="s">
-        <v>90</v>
-      </c>
-      <c r="B27" s="68">
+      <c r="A27" s="62" t="s">
+        <v>89</v>
+      </c>
+      <c r="B27" s="63">
         <v>43345</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F27" s="2">
         <v>5</v>
       </c>
-      <c r="G27" s="164"/>
+      <c r="G27" s="155"/>
     </row>
     <row r="28" spans="1:10" ht="15">
-      <c r="A28" s="67" t="s">
-        <v>91</v>
-      </c>
-      <c r="B28" s="68">
+      <c r="A28" s="62" t="s">
+        <v>90</v>
+      </c>
+      <c r="B28" s="63">
         <v>43359</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F28" s="2">
         <v>6</v>
       </c>
-      <c r="G28" s="164"/>
+      <c r="G28" s="155"/>
     </row>
     <row r="29" spans="1:10" ht="15">
-      <c r="A29" s="67" t="s">
-        <v>92</v>
-      </c>
-      <c r="B29" s="68">
+      <c r="A29" s="62" t="s">
+        <v>91</v>
+      </c>
+      <c r="B29" s="63">
         <v>43373</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F29" s="2">
         <v>7</v>
       </c>
-      <c r="G29" s="164"/>
+      <c r="G29" s="155"/>
     </row>
     <row r="30" spans="1:10" ht="15">
-      <c r="A30" s="69" t="s">
-        <v>93</v>
-      </c>
-      <c r="B30" s="108">
+      <c r="A30" s="64" t="s">
+        <v>92</v>
+      </c>
+      <c r="B30" s="103">
         <v>43387</v>
       </c>
       <c r="C30" s="20" t="s">
-        <v>99</v>
-      </c>
-      <c r="D30" s="46" t="s">
-        <v>165</v>
-      </c>
-      <c r="E30" s="46" t="s">
-        <v>85</v>
-      </c>
-      <c r="F30" s="46">
+        <v>98</v>
+      </c>
+      <c r="D30" s="41" t="s">
+        <v>164</v>
+      </c>
+      <c r="E30" s="41" t="s">
+        <v>84</v>
+      </c>
+      <c r="F30" s="41">
         <v>8</v>
       </c>
-      <c r="G30" s="164"/>
-      <c r="H30" s="76">
+      <c r="G30" s="155"/>
+      <c r="H30" s="71">
         <v>43396</v>
       </c>
       <c r="I30" s="16">
         <v>600</v>
       </c>
       <c r="J30" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
   </sheetData>

--- a/Cronograma aulas/Aulas v2.xlsx
+++ b/Cronograma aulas/Aulas v2.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21901"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Linux Sab Vesp\Documents\github\aulas-3way\Cronograma aulas\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C717545C-9715-4F11-AA6A-4831502BD3AF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="489" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="489" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="t7_seg_e_qua" sheetId="1" r:id="rId1"/>
@@ -21,24 +15,17 @@
     <sheet name="t2_Sábado" sheetId="6" r:id="rId6"/>
     <sheet name="t1_Domingo_(finalizada)" sheetId="7" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="114210"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="D15" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000001000000}">
+    <comment ref="D15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -590,7 +577,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="[$R$-416]\ #,##0.00;[Red]\-[$R$-416]\ #,##0.00"/>
     <numFmt numFmtId="165" formatCode="m/d/yy"/>
@@ -697,16 +684,16 @@
       <family val="2"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color indexed="45"/>
+      <name val="Liberation Sans1"/>
+    </font>
+    <font>
       <b/>
       <i/>
       <u/>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Liberation Sans1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Liberation Sans1"/>
     </font>
   </fonts>
@@ -968,9 +955,9 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="165">
+  <cellXfs count="149">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1345,79 +1332,37 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1428,12 +1373,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1511,14 +1450,6 @@
       <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -1539,13 +1470,7 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1026" name="shapetype_202" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002040000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="1026" name="shapetype_202" hidden="1"/>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noSelect="1" noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -1577,7 +1502,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1619,7 +1544,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1651,27 +1576,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1703,24 +1610,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1896,11 +1785,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView showGridLines="0" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="C30" sqref="C17:C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="14.25"/>
@@ -1915,15 +1804,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="153" t="s">
+      <c r="A1" s="139" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="153"/>
-      <c r="C1" s="153"/>
-      <c r="D1" s="153"/>
-      <c r="E1" s="153"/>
-      <c r="F1" s="153"/>
-      <c r="G1" s="153"/>
+      <c r="B1" s="139"/>
+      <c r="C1" s="139"/>
+      <c r="D1" s="139"/>
+      <c r="E1" s="139"/>
+      <c r="F1" s="139"/>
+      <c r="G1" s="139"/>
     </row>
     <row r="2" spans="1:8" ht="15">
       <c r="A2" s="68" t="s">
@@ -1963,7 +1852,7 @@
         <v>10</v>
       </c>
       <c r="E3" s="133"/>
-      <c r="F3" s="153" t="s">
+      <c r="F3" s="139" t="s">
         <v>11</v>
       </c>
       <c r="G3" s="11">
@@ -1984,7 +1873,7 @@
         <v>13</v>
       </c>
       <c r="E4" s="106"/>
-      <c r="F4" s="153"/>
+      <c r="F4" s="139"/>
       <c r="G4" s="17">
         <v>140</v>
       </c>
@@ -2003,7 +1892,7 @@
         <v>15</v>
       </c>
       <c r="E5" s="106"/>
-      <c r="F5" s="153"/>
+      <c r="F5" s="139"/>
       <c r="G5" s="17">
         <v>140</v>
       </c>
@@ -2022,7 +1911,7 @@
         <v>17</v>
       </c>
       <c r="E6" s="107"/>
-      <c r="F6" s="153"/>
+      <c r="F6" s="139"/>
       <c r="G6" s="17">
         <v>140</v>
       </c>
@@ -2041,7 +1930,7 @@
         <v>19</v>
       </c>
       <c r="E7" s="107"/>
-      <c r="F7" s="153"/>
+      <c r="F7" s="139"/>
       <c r="G7" s="17">
         <v>140</v>
       </c>
@@ -2060,7 +1949,7 @@
         <v>21</v>
       </c>
       <c r="E8" s="107"/>
-      <c r="F8" s="153"/>
+      <c r="F8" s="139"/>
       <c r="G8" s="17">
         <v>140</v>
       </c>
@@ -2079,7 +1968,7 @@
         <v>23</v>
       </c>
       <c r="E9" s="107"/>
-      <c r="F9" s="153"/>
+      <c r="F9" s="139"/>
       <c r="G9" s="17">
         <v>140</v>
       </c>
@@ -2098,7 +1987,7 @@
         <v>25</v>
       </c>
       <c r="E10" s="107"/>
-      <c r="F10" s="153"/>
+      <c r="F10" s="139"/>
       <c r="G10" s="17">
         <v>140</v>
       </c>
@@ -2115,7 +2004,7 @@
       </c>
       <c r="D11" s="17"/>
       <c r="E11" s="107"/>
-      <c r="F11" s="153"/>
+      <c r="F11" s="139"/>
       <c r="G11" s="17">
         <v>140</v>
       </c>
@@ -2135,7 +2024,7 @@
         <v>28</v>
       </c>
       <c r="E12" s="20"/>
-      <c r="F12" s="153"/>
+      <c r="F12" s="139"/>
       <c r="G12" s="17">
         <v>140</v>
       </c>
@@ -2145,7 +2034,7 @@
       <c r="A13" s="115" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="149">
+      <c r="B13" s="127">
         <v>43684</v>
       </c>
       <c r="C13" s="22" t="s">
@@ -2155,7 +2044,7 @@
         <v>30</v>
       </c>
       <c r="E13" s="11"/>
-      <c r="F13" s="153" t="s">
+      <c r="F13" s="139" t="s">
         <v>31</v>
       </c>
       <c r="G13" s="17">
@@ -2170,14 +2059,14 @@
       <c r="B14" s="126">
         <v>43691</v>
       </c>
-      <c r="C14" s="146" t="s">
+      <c r="C14" s="23" t="s">
         <v>29</v>
       </c>
       <c r="D14" s="37" t="s">
         <v>32</v>
       </c>
       <c r="E14" s="17"/>
-      <c r="F14" s="153"/>
+      <c r="F14" s="139"/>
       <c r="G14" s="17">
         <v>140</v>
       </c>
@@ -2190,14 +2079,14 @@
       <c r="B15" s="126">
         <v>43698</v>
       </c>
-      <c r="C15" s="146" t="s">
+      <c r="C15" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="D15" s="140" t="s">
+      <c r="D15" s="12" t="s">
         <v>32</v>
       </c>
       <c r="E15" s="17"/>
-      <c r="F15" s="153"/>
+      <c r="F15" s="139"/>
       <c r="G15" s="17">
         <v>140</v>
       </c>
@@ -2210,14 +2099,14 @@
       <c r="B16" s="126">
         <v>43703</v>
       </c>
-      <c r="C16" s="146" t="s">
+      <c r="C16" s="23" t="s">
         <v>29</v>
       </c>
       <c r="D16" s="37" t="s">
         <v>167</v>
       </c>
       <c r="E16" s="17"/>
-      <c r="F16" s="153"/>
+      <c r="F16" s="139"/>
       <c r="G16" s="17">
         <v>140</v>
       </c>
@@ -2230,14 +2119,14 @@
       <c r="B17" s="129">
         <v>43710</v>
       </c>
-      <c r="C17" s="146"/>
+      <c r="C17" s="23"/>
       <c r="D17" s="37" t="s">
         <v>168</v>
       </c>
       <c r="E17" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="F17" s="153"/>
+      <c r="F17" s="139"/>
       <c r="G17" s="17">
         <v>140</v>
       </c>
@@ -2250,14 +2139,14 @@
       <c r="B18" s="126">
         <v>43712</v>
       </c>
-      <c r="C18" s="146"/>
-      <c r="D18" s="140" t="s">
+      <c r="C18" s="23"/>
+      <c r="D18" s="12" t="s">
         <v>36</v>
       </c>
       <c r="E18" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="F18" s="153"/>
+      <c r="F18" s="139"/>
       <c r="G18" s="17">
         <v>140</v>
       </c>
@@ -2271,11 +2160,11 @@
         <v>43717</v>
       </c>
       <c r="C19" s="24"/>
-      <c r="D19" s="140" t="s">
+      <c r="D19" s="12" t="s">
         <v>38</v>
       </c>
       <c r="E19" s="15"/>
-      <c r="F19" s="153"/>
+      <c r="F19" s="139"/>
       <c r="G19" s="15">
         <v>140</v>
       </c>
@@ -2285,15 +2174,15 @@
       <c r="A20" s="114" t="s">
         <v>24</v>
       </c>
-      <c r="B20" s="150">
+      <c r="B20" s="132">
         <v>43749</v>
       </c>
-      <c r="C20" s="152"/>
+      <c r="C20" s="77"/>
       <c r="D20" s="40" t="s">
         <v>41</v>
       </c>
-      <c r="E20" s="164"/>
-      <c r="F20" s="153"/>
+      <c r="E20" s="138"/>
+      <c r="F20" s="139"/>
       <c r="G20" s="131">
         <v>140</v>
       </c>
@@ -2306,10 +2195,10 @@
       <c r="B21" s="126">
         <v>43754</v>
       </c>
-      <c r="C21" s="146"/>
+      <c r="C21" s="23"/>
       <c r="D21" s="108"/>
-      <c r="E21" s="136"/>
-      <c r="F21" s="153" t="s">
+      <c r="E21" s="134"/>
+      <c r="F21" s="139" t="s">
         <v>42</v>
       </c>
       <c r="G21" s="17">
@@ -2327,7 +2216,7 @@
       <c r="C22" s="23"/>
       <c r="D22" s="12"/>
       <c r="E22" s="37"/>
-      <c r="F22" s="153"/>
+      <c r="F22" s="139"/>
       <c r="G22" s="17">
         <v>140</v>
       </c>
@@ -2343,7 +2232,7 @@
       <c r="C23" s="23"/>
       <c r="D23" s="37"/>
       <c r="E23" s="37"/>
-      <c r="F23" s="153"/>
+      <c r="F23" s="139"/>
       <c r="G23" s="17">
         <v>140</v>
       </c>
@@ -2359,7 +2248,7 @@
       <c r="C24" s="23"/>
       <c r="D24" s="37"/>
       <c r="E24" s="37"/>
-      <c r="F24" s="153"/>
+      <c r="F24" s="139"/>
       <c r="G24" s="17">
         <v>140</v>
       </c>
@@ -2375,7 +2264,7 @@
       <c r="C25" s="23"/>
       <c r="D25" s="37"/>
       <c r="E25" s="37"/>
-      <c r="F25" s="153"/>
+      <c r="F25" s="139"/>
       <c r="G25" s="17">
         <v>140</v>
       </c>
@@ -2388,7 +2277,7 @@
       <c r="C26" s="23"/>
       <c r="D26" s="37"/>
       <c r="E26" s="37"/>
-      <c r="F26" s="153"/>
+      <c r="F26" s="139"/>
       <c r="G26" s="17">
         <v>140</v>
       </c>
@@ -2401,7 +2290,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="37"/>
       <c r="E27" s="37"/>
-      <c r="F27" s="153"/>
+      <c r="F27" s="139"/>
       <c r="G27" s="17">
         <v>140</v>
       </c>
@@ -2414,7 +2303,7 @@
       <c r="C28" s="23"/>
       <c r="D28" s="17"/>
       <c r="E28" s="37"/>
-      <c r="F28" s="153"/>
+      <c r="F28" s="139"/>
       <c r="G28" s="17">
         <v>140</v>
       </c>
@@ -2427,7 +2316,7 @@
       <c r="C29" s="23"/>
       <c r="D29" s="17"/>
       <c r="E29" s="37"/>
-      <c r="F29" s="153"/>
+      <c r="F29" s="139"/>
       <c r="G29" s="17">
         <v>140</v>
       </c>
@@ -2439,8 +2328,8 @@
       <c r="B30" s="132"/>
       <c r="C30" s="123"/>
       <c r="D30" s="28"/>
-      <c r="E30" s="137"/>
-      <c r="F30" s="153"/>
+      <c r="E30" s="135"/>
+      <c r="F30" s="139"/>
       <c r="G30" s="28">
         <v>140</v>
       </c>
@@ -2464,11 +2353,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A7" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="14.25"/>
@@ -2483,15 +2372,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="153" t="s">
+      <c r="A1" s="139" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="153"/>
-      <c r="C1" s="153"/>
-      <c r="D1" s="153"/>
-      <c r="E1" s="153"/>
-      <c r="F1" s="153"/>
-      <c r="G1" s="153"/>
+      <c r="B1" s="139"/>
+      <c r="C1" s="139"/>
+      <c r="D1" s="139"/>
+      <c r="E1" s="139"/>
+      <c r="F1" s="139"/>
+      <c r="G1" s="139"/>
     </row>
     <row r="2" spans="1:8" ht="15">
       <c r="A2" s="3" t="s">
@@ -2529,7 +2418,7 @@
       </c>
       <c r="D3" s="9"/>
       <c r="E3" s="32"/>
-      <c r="F3" s="153" t="s">
+      <c r="F3" s="139" t="s">
         <v>11</v>
       </c>
       <c r="G3" s="33">
@@ -2548,7 +2437,7 @@
       </c>
       <c r="D4" s="15"/>
       <c r="E4" s="35"/>
-      <c r="F4" s="153"/>
+      <c r="F4" s="139"/>
       <c r="G4" s="36">
         <v>175</v>
       </c>
@@ -2565,7 +2454,7 @@
       </c>
       <c r="D5" s="15"/>
       <c r="E5" s="35"/>
-      <c r="F5" s="153"/>
+      <c r="F5" s="139"/>
       <c r="G5" s="36">
         <v>175</v>
       </c>
@@ -2582,7 +2471,7 @@
       </c>
       <c r="D6" s="17"/>
       <c r="E6" s="37"/>
-      <c r="F6" s="153"/>
+      <c r="F6" s="139"/>
       <c r="G6" s="36">
         <v>175</v>
       </c>
@@ -2599,7 +2488,7 @@
       </c>
       <c r="D7" s="17"/>
       <c r="E7" s="37"/>
-      <c r="F7" s="153"/>
+      <c r="F7" s="139"/>
       <c r="G7" s="36">
         <v>175</v>
       </c>
@@ -2616,7 +2505,7 @@
       </c>
       <c r="D8" s="17"/>
       <c r="E8" s="37"/>
-      <c r="F8" s="153"/>
+      <c r="F8" s="139"/>
       <c r="G8" s="36">
         <v>175</v>
       </c>
@@ -2635,7 +2524,7 @@
         <v>44</v>
       </c>
       <c r="E9" s="37"/>
-      <c r="F9" s="153"/>
+      <c r="F9" s="139"/>
       <c r="G9" s="36">
         <v>175</v>
       </c>
@@ -2652,26 +2541,26 @@
       </c>
       <c r="D10" s="39"/>
       <c r="E10" s="40"/>
-      <c r="F10" s="153"/>
+      <c r="F10" s="139"/>
       <c r="G10" s="36">
         <v>175</v>
       </c>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="138" t="s">
+      <c r="A11" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="147">
+      <c r="B11" s="127">
         <v>43666</v>
       </c>
-      <c r="C11" s="134" t="s">
-        <v>29</v>
+      <c r="C11" s="8" t="s">
+        <v>9</v>
       </c>
       <c r="D11" s="17" t="s">
         <v>45</v>
       </c>
       <c r="E11" s="2"/>
-      <c r="F11" s="153" t="s">
+      <c r="F11" s="139" t="s">
         <v>31</v>
       </c>
       <c r="G11" s="17">
@@ -2680,54 +2569,54 @@
       <c r="H11" s="2"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="139" t="s">
+      <c r="A12" s="34" t="s">
         <v>12</v>
       </c>
       <c r="B12" s="126">
         <v>43673</v>
       </c>
-      <c r="C12" s="135" t="s">
-        <v>29</v>
+      <c r="C12" s="14" t="s">
+        <v>9</v>
       </c>
       <c r="D12" s="17" t="s">
         <v>32</v>
       </c>
       <c r="E12" s="2"/>
-      <c r="F12" s="153"/>
+      <c r="F12" s="139"/>
       <c r="G12" s="17">
         <v>175</v>
       </c>
       <c r="H12" s="2"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="139" t="s">
+      <c r="A13" s="34" t="s">
         <v>14</v>
       </c>
       <c r="B13" s="126">
         <v>43680</v>
       </c>
-      <c r="C13" s="135" t="s">
-        <v>29</v>
+      <c r="C13" s="14" t="s">
+        <v>9</v>
       </c>
       <c r="D13" s="15" t="s">
         <v>47</v>
       </c>
       <c r="E13" s="2"/>
-      <c r="F13" s="153"/>
+      <c r="F13" s="139"/>
       <c r="G13" s="17">
         <v>175</v>
       </c>
       <c r="H13" s="2"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="139" t="s">
+      <c r="A14" s="34" t="s">
         <v>16</v>
       </c>
       <c r="B14" s="126">
         <v>43687</v>
       </c>
-      <c r="C14" s="135" t="s">
-        <v>29</v>
+      <c r="C14" s="14" t="s">
+        <v>9</v>
       </c>
       <c r="D14" s="15" t="s">
         <v>49</v>
@@ -2735,20 +2624,20 @@
       <c r="E14" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="F14" s="153"/>
+      <c r="F14" s="139"/>
       <c r="G14" s="17">
         <v>175</v>
       </c>
       <c r="H14" s="2"/>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="140" t="s">
+      <c r="A15" s="12" t="s">
         <v>18</v>
       </c>
       <c r="B15" s="126">
         <v>43694</v>
       </c>
-      <c r="C15" s="146" t="s">
+      <c r="C15" s="23" t="s">
         <v>29</v>
       </c>
       <c r="D15" s="15" t="s">
@@ -2757,20 +2646,20 @@
       <c r="E15" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="F15" s="153"/>
+      <c r="F15" s="139"/>
       <c r="G15" s="17">
         <v>175</v>
       </c>
       <c r="H15" s="2"/>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="140" t="s">
+      <c r="A16" s="12" t="s">
         <v>20</v>
       </c>
       <c r="B16" s="126">
         <v>43701</v>
       </c>
-      <c r="C16" s="143" t="s">
+      <c r="C16" s="36" t="s">
         <v>29</v>
       </c>
       <c r="D16" s="17" t="s">
@@ -2779,61 +2668,61 @@
       <c r="E16" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F16" s="153"/>
+      <c r="F16" s="139"/>
       <c r="G16" s="17">
         <v>175</v>
       </c>
       <c r="H16" s="2"/>
     </row>
     <row r="17" spans="1:8" s="26" customFormat="1">
-      <c r="A17" s="140" t="s">
+      <c r="A17" s="12" t="s">
         <v>22</v>
       </c>
       <c r="B17" s="128">
         <v>43708</v>
       </c>
-      <c r="C17" s="143"/>
+      <c r="C17" s="36"/>
       <c r="D17" s="17" t="s">
         <v>169</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F17" s="153"/>
+      <c r="F17" s="139"/>
       <c r="G17" s="17">
         <v>175</v>
       </c>
       <c r="H17" s="25"/>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="140" t="s">
+      <c r="A18" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="B18" s="148">
+      <c r="B18" s="132">
         <v>43722</v>
       </c>
-      <c r="C18" s="146"/>
+      <c r="C18" s="23"/>
       <c r="D18" s="15"/>
-      <c r="E18" s="163" t="s">
+      <c r="E18" s="137" t="s">
         <v>170</v>
       </c>
-      <c r="F18" s="153"/>
+      <c r="F18" s="139"/>
       <c r="G18" s="17">
         <v>175</v>
       </c>
       <c r="H18" s="2"/>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="138" t="s">
+      <c r="A19" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="B19" s="149">
+      <c r="B19" s="127">
         <v>43729</v>
       </c>
-      <c r="C19" s="142"/>
+      <c r="C19" s="33"/>
       <c r="D19" s="8"/>
       <c r="E19" s="6"/>
-      <c r="F19" s="153" t="s">
+      <c r="F19" s="139" t="s">
         <v>42</v>
       </c>
       <c r="G19" s="36">
@@ -2842,109 +2731,109 @@
       <c r="H19" s="2"/>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="139" t="s">
+      <c r="A20" s="34" t="s">
         <v>12</v>
       </c>
       <c r="B20" s="126">
         <v>43736</v>
       </c>
-      <c r="C20" s="143"/>
+      <c r="C20" s="36"/>
       <c r="D20" s="107"/>
       <c r="E20" s="37"/>
-      <c r="F20" s="153"/>
+      <c r="F20" s="139"/>
       <c r="G20" s="36">
         <v>175</v>
       </c>
       <c r="H20" s="2"/>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="139" t="s">
+      <c r="A21" s="34" t="s">
         <v>14</v>
       </c>
       <c r="B21" s="126">
         <v>43743</v>
       </c>
-      <c r="C21" s="143"/>
+      <c r="C21" s="36"/>
       <c r="D21" s="107"/>
       <c r="E21" s="37"/>
-      <c r="F21" s="153"/>
+      <c r="F21" s="139"/>
       <c r="G21" s="36">
         <v>175</v>
       </c>
       <c r="H21" s="2"/>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="139" t="s">
+      <c r="A22" s="34" t="s">
         <v>16</v>
       </c>
       <c r="B22" s="126">
         <v>43750</v>
       </c>
-      <c r="C22" s="143"/>
+      <c r="C22" s="36"/>
       <c r="D22" s="107"/>
       <c r="E22" s="37"/>
-      <c r="F22" s="153"/>
+      <c r="F22" s="139"/>
       <c r="G22" s="36">
         <v>175</v>
       </c>
       <c r="H22" s="2"/>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="140" t="s">
+      <c r="A23" s="12" t="s">
         <v>18</v>
       </c>
       <c r="B23" s="126">
         <v>43757</v>
       </c>
-      <c r="C23" s="144"/>
+      <c r="C23" s="136"/>
       <c r="D23" s="107"/>
       <c r="E23" s="37"/>
-      <c r="F23" s="153"/>
+      <c r="F23" s="139"/>
       <c r="G23" s="36">
         <v>175</v>
       </c>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="140" t="s">
+      <c r="A24" s="12" t="s">
         <v>20</v>
       </c>
       <c r="B24" s="126">
         <v>43764</v>
       </c>
-      <c r="C24" s="143"/>
+      <c r="C24" s="36"/>
       <c r="D24" s="107"/>
       <c r="E24" s="37"/>
-      <c r="F24" s="153"/>
+      <c r="F24" s="139"/>
       <c r="G24" s="36">
         <v>175</v>
       </c>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="140" t="s">
+      <c r="A25" s="12" t="s">
         <v>22</v>
       </c>
       <c r="B25" s="126">
         <v>43771</v>
       </c>
-      <c r="C25" s="143"/>
+      <c r="C25" s="36"/>
       <c r="D25" s="107"/>
       <c r="E25" s="37"/>
-      <c r="F25" s="153"/>
+      <c r="F25" s="139"/>
       <c r="G25" s="36">
         <v>175</v>
       </c>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="141" t="s">
+      <c r="A26" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="B26" s="150">
+      <c r="B26" s="132">
         <v>43778</v>
       </c>
-      <c r="C26" s="145"/>
-      <c r="D26" s="151"/>
+      <c r="C26" s="44"/>
+      <c r="D26" s="41"/>
       <c r="E26" s="40"/>
-      <c r="F26" s="153"/>
+      <c r="F26" s="139"/>
       <c r="G26" s="44">
         <v>175</v>
       </c>
@@ -2967,7 +2856,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor indexed="47"/>
   </sheetPr>
@@ -2990,16 +2879,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15">
-      <c r="A1" s="154" t="s">
+      <c r="A1" s="140" t="s">
         <v>79</v>
       </c>
-      <c r="B1" s="154"/>
-      <c r="C1" s="154"/>
-      <c r="D1" s="154"/>
-      <c r="E1" s="154"/>
-      <c r="F1" s="154"/>
-      <c r="G1" s="154"/>
-      <c r="H1" s="154"/>
+      <c r="B1" s="140"/>
+      <c r="C1" s="140"/>
+      <c r="D1" s="140"/>
+      <c r="E1" s="140"/>
+      <c r="F1" s="140"/>
+      <c r="G1" s="140"/>
+      <c r="H1" s="140"/>
     </row>
     <row r="2" spans="1:9" ht="15">
       <c r="A2" s="3" t="s">
@@ -3041,7 +2930,7 @@
       </c>
       <c r="E3" s="10"/>
       <c r="F3" s="10"/>
-      <c r="G3" s="155" t="s">
+      <c r="G3" s="141" t="s">
         <v>11</v>
       </c>
       <c r="H3" s="11">
@@ -3061,7 +2950,7 @@
       <c r="D4" s="45"/>
       <c r="E4" s="16"/>
       <c r="F4" s="2"/>
-      <c r="G4" s="155"/>
+      <c r="G4" s="141"/>
       <c r="H4" s="17">
         <v>140</v>
       </c>
@@ -3079,7 +2968,7 @@
       <c r="D5" s="45"/>
       <c r="E5" s="16"/>
       <c r="F5" s="2"/>
-      <c r="G5" s="155"/>
+      <c r="G5" s="141"/>
       <c r="H5" s="17">
         <v>140</v>
       </c>
@@ -3097,7 +2986,7 @@
       <c r="D6" s="45"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
-      <c r="G6" s="155"/>
+      <c r="G6" s="141"/>
       <c r="H6" s="17">
         <v>140</v>
       </c>
@@ -3117,7 +3006,7 @@
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
-      <c r="G7" s="155"/>
+      <c r="G7" s="141"/>
       <c r="H7" s="17">
         <v>140</v>
       </c>
@@ -3137,7 +3026,7 @@
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
-      <c r="G8" s="155"/>
+      <c r="G8" s="141"/>
       <c r="H8" s="17">
         <v>140</v>
       </c>
@@ -3157,7 +3046,7 @@
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
-      <c r="G9" s="155"/>
+      <c r="G9" s="141"/>
       <c r="H9" s="17">
         <v>140</v>
       </c>
@@ -3177,7 +3066,7 @@
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
-      <c r="G10" s="155"/>
+      <c r="G10" s="141"/>
       <c r="H10" s="17">
         <v>140</v>
       </c>
@@ -3195,7 +3084,7 @@
       <c r="D11" s="17"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
-      <c r="G11" s="155"/>
+      <c r="G11" s="141"/>
       <c r="H11" s="17">
         <v>140</v>
       </c>
@@ -3216,7 +3105,7 @@
       </c>
       <c r="E12" s="20"/>
       <c r="F12" s="41"/>
-      <c r="G12" s="155"/>
+      <c r="G12" s="141"/>
       <c r="H12" s="17">
         <v>140</v>
       </c>
@@ -3239,7 +3128,7 @@
       </c>
       <c r="E13" s="10"/>
       <c r="F13" s="10"/>
-      <c r="G13" s="155" t="s">
+      <c r="G13" s="141" t="s">
         <v>31</v>
       </c>
       <c r="H13" s="17">
@@ -3262,7 +3151,7 @@
       </c>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
-      <c r="G14" s="155"/>
+      <c r="G14" s="141"/>
       <c r="H14" s="17">
         <v>140</v>
       </c>
@@ -3283,7 +3172,7 @@
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
-      <c r="G15" s="155"/>
+      <c r="G15" s="141"/>
       <c r="H15" s="17">
         <v>140</v>
       </c>
@@ -3304,7 +3193,7 @@
       </c>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
-      <c r="G16" s="155"/>
+      <c r="G16" s="141"/>
       <c r="H16" s="17">
         <v>140</v>
       </c>
@@ -3327,7 +3216,7 @@
         <v>33</v>
       </c>
       <c r="F17" s="2"/>
-      <c r="G17" s="155"/>
+      <c r="G17" s="141"/>
       <c r="H17" s="17">
         <v>140</v>
       </c>
@@ -3350,7 +3239,7 @@
         <v>35</v>
       </c>
       <c r="F18" s="2"/>
-      <c r="G18" s="155"/>
+      <c r="G18" s="141"/>
       <c r="H18" s="17">
         <v>140</v>
       </c>
@@ -3373,7 +3262,7 @@
         <v>39</v>
       </c>
       <c r="F19" s="42"/>
-      <c r="G19" s="155"/>
+      <c r="G19" s="141"/>
       <c r="H19" s="48">
         <v>140</v>
       </c>
@@ -3396,7 +3285,7 @@
         <v>39</v>
       </c>
       <c r="F20" s="2"/>
-      <c r="G20" s="155"/>
+      <c r="G20" s="141"/>
       <c r="H20" s="17">
         <v>140</v>
       </c>
@@ -3419,7 +3308,7 @@
         <v>40</v>
       </c>
       <c r="F21" s="2"/>
-      <c r="G21" s="155"/>
+      <c r="G21" s="141"/>
       <c r="H21" s="17">
         <v>140</v>
       </c>
@@ -3442,7 +3331,7 @@
         <v>84</v>
       </c>
       <c r="F22" s="107"/>
-      <c r="G22" s="156"/>
+      <c r="G22" s="142"/>
       <c r="H22" s="17">
         <v>140</v>
       </c>
@@ -3467,7 +3356,7 @@
         <v>58</v>
       </c>
       <c r="F23" s="121"/>
-      <c r="G23" s="156" t="s">
+      <c r="G23" s="142" t="s">
         <v>42</v>
       </c>
       <c r="H23" s="17">
@@ -3488,7 +3377,7 @@
       </c>
       <c r="E24" s="107"/>
       <c r="F24" s="107"/>
-      <c r="G24" s="157"/>
+      <c r="G24" s="143"/>
       <c r="H24" s="17">
         <v>140</v>
       </c>
@@ -3509,7 +3398,7 @@
         <v>63</v>
       </c>
       <c r="F25" s="107"/>
-      <c r="G25" s="157"/>
+      <c r="G25" s="143"/>
       <c r="H25" s="17">
         <v>140</v>
       </c>
@@ -3530,7 +3419,7 @@
         <v>66</v>
       </c>
       <c r="F26" s="107"/>
-      <c r="G26" s="157"/>
+      <c r="G26" s="143"/>
       <c r="H26" s="17">
         <v>140</v>
       </c>
@@ -3551,7 +3440,7 @@
         <v>69</v>
       </c>
       <c r="F27" s="107"/>
-      <c r="G27" s="157"/>
+      <c r="G27" s="143"/>
       <c r="H27" s="17">
         <v>140</v>
       </c>
@@ -3571,7 +3460,7 @@
         <v>72</v>
       </c>
       <c r="F28" s="107"/>
-      <c r="G28" s="157"/>
+      <c r="G28" s="143"/>
       <c r="H28" s="17">
         <v>140</v>
       </c>
@@ -3591,7 +3480,7 @@
         <v>75</v>
       </c>
       <c r="F29" s="107"/>
-      <c r="G29" s="157"/>
+      <c r="G29" s="143"/>
       <c r="H29" s="17">
         <v>140</v>
       </c>
@@ -3611,7 +3500,7 @@
         <v>75</v>
       </c>
       <c r="F30" s="107"/>
-      <c r="G30" s="157"/>
+      <c r="G30" s="143"/>
       <c r="H30" s="17">
         <v>140</v>
       </c>
@@ -3631,7 +3520,7 @@
         <v>94</v>
       </c>
       <c r="F31" s="107"/>
-      <c r="G31" s="157"/>
+      <c r="G31" s="143"/>
       <c r="H31" s="17">
         <v>140</v>
       </c>
@@ -3649,7 +3538,7 @@
         <v>96</v>
       </c>
       <c r="F32" s="41"/>
-      <c r="G32" s="158"/>
+      <c r="G32" s="144"/>
       <c r="H32" s="28">
         <v>140</v>
       </c>
@@ -3673,7 +3562,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor indexed="47"/>
   </sheetPr>
@@ -3697,16 +3586,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12.6" customHeight="1">
-      <c r="A1" s="154" t="s">
+      <c r="A1" s="140" t="s">
         <v>97</v>
       </c>
-      <c r="B1" s="154"/>
-      <c r="C1" s="154"/>
-      <c r="D1" s="154"/>
-      <c r="E1" s="154"/>
-      <c r="F1" s="154"/>
-      <c r="G1" s="154"/>
-      <c r="H1" s="154"/>
+      <c r="B1" s="140"/>
+      <c r="C1" s="140"/>
+      <c r="D1" s="140"/>
+      <c r="E1" s="140"/>
+      <c r="F1" s="140"/>
+      <c r="G1" s="140"/>
+      <c r="H1" s="140"/>
     </row>
     <row r="2" spans="1:10" ht="15">
       <c r="A2" s="3" t="s">
@@ -3750,7 +3639,7 @@
       <c r="F3" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="G3" s="155" t="s">
+      <c r="G3" s="141" t="s">
         <v>11</v>
       </c>
       <c r="H3" s="11">
@@ -3773,7 +3662,7 @@
       <c r="F4" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="G4" s="155"/>
+      <c r="G4" s="141"/>
       <c r="H4" s="17">
         <v>140</v>
       </c>
@@ -3794,7 +3683,7 @@
       <c r="F5" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="G5" s="155"/>
+      <c r="G5" s="141"/>
       <c r="H5" s="17">
         <v>140</v>
       </c>
@@ -3816,7 +3705,7 @@
       <c r="F6" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="G6" s="155"/>
+      <c r="G6" s="141"/>
       <c r="H6" s="17">
         <v>140</v>
       </c>
@@ -3838,7 +3727,7 @@
       <c r="F7" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="G7" s="155"/>
+      <c r="G7" s="141"/>
       <c r="H7" s="17">
         <v>140</v>
       </c>
@@ -3860,7 +3749,7 @@
       <c r="F8" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="G8" s="155"/>
+      <c r="G8" s="141"/>
       <c r="H8" s="17">
         <v>140</v>
       </c>
@@ -3882,7 +3771,7 @@
       <c r="F9" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="G9" s="155"/>
+      <c r="G9" s="141"/>
       <c r="H9" s="17">
         <v>140</v>
       </c>
@@ -3903,7 +3792,7 @@
       <c r="F10" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="G10" s="155"/>
+      <c r="G10" s="141"/>
       <c r="H10" s="17">
         <v>140</v>
       </c>
@@ -3924,7 +3813,7 @@
       <c r="F11" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="G11" s="155"/>
+      <c r="G11" s="141"/>
       <c r="H11" s="17">
         <v>140</v>
       </c>
@@ -3945,7 +3834,7 @@
       <c r="F12" s="41" t="s">
         <v>110</v>
       </c>
-      <c r="G12" s="155"/>
+      <c r="G12" s="141"/>
       <c r="H12" s="17">
         <v>140</v>
       </c>
@@ -3967,7 +3856,7 @@
       <c r="F13" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="G13" s="155" t="s">
+      <c r="G13" s="141" t="s">
         <v>31</v>
       </c>
       <c r="H13" s="17">
@@ -3992,7 +3881,7 @@
       <c r="F14" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="G14" s="155"/>
+      <c r="G14" s="141"/>
       <c r="H14" s="17">
         <v>140</v>
       </c>
@@ -4015,7 +3904,7 @@
       <c r="F15" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="G15" s="155"/>
+      <c r="G15" s="141"/>
       <c r="H15" s="17">
         <v>140</v>
       </c>
@@ -4037,7 +3926,7 @@
       <c r="F16" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="G16" s="155"/>
+      <c r="G16" s="141"/>
       <c r="H16" s="17">
         <v>140</v>
       </c>
@@ -4062,7 +3951,7 @@
       <c r="F17" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="G17" s="155"/>
+      <c r="G17" s="141"/>
       <c r="H17" s="17">
         <v>140</v>
       </c>
@@ -4087,7 +3976,7 @@
       <c r="F18" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="G18" s="155"/>
+      <c r="G18" s="141"/>
       <c r="H18" s="17">
         <v>140</v>
       </c>
@@ -4112,7 +4001,7 @@
       <c r="F19" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="G19" s="155"/>
+      <c r="G19" s="141"/>
       <c r="H19" s="17">
         <v>140</v>
       </c>
@@ -4137,7 +4026,7 @@
       <c r="F20" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="G20" s="155"/>
+      <c r="G20" s="141"/>
       <c r="H20" s="17">
         <v>140</v>
       </c>
@@ -4162,7 +4051,7 @@
       <c r="F21" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="G21" s="155"/>
+      <c r="G21" s="141"/>
       <c r="H21" s="17">
         <v>140</v>
       </c>
@@ -4187,7 +4076,7 @@
       <c r="F22" s="41" t="s">
         <v>110</v>
       </c>
-      <c r="G22" s="155"/>
+      <c r="G22" s="141"/>
       <c r="H22" s="17">
         <v>140</v>
       </c>
@@ -4215,7 +4104,7 @@
       <c r="F23" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="G23" s="155" t="s">
+      <c r="G23" s="141" t="s">
         <v>42</v>
       </c>
       <c r="H23" s="17">
@@ -4242,7 +4131,7 @@
       <c r="F24" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="G24" s="155"/>
+      <c r="G24" s="141"/>
       <c r="H24" s="17">
         <v>140</v>
       </c>
@@ -4267,7 +4156,7 @@
       <c r="F25" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="G25" s="155"/>
+      <c r="G25" s="141"/>
       <c r="H25" s="17">
         <v>140</v>
       </c>
@@ -4292,7 +4181,7 @@
       <c r="F26" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="G26" s="155"/>
+      <c r="G26" s="141"/>
       <c r="H26" s="17">
         <v>140</v>
       </c>
@@ -4317,7 +4206,7 @@
       <c r="F27" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="G27" s="155"/>
+      <c r="G27" s="141"/>
       <c r="H27" s="17">
         <v>140</v>
       </c>
@@ -4341,7 +4230,7 @@
       <c r="F28" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="G28" s="155"/>
+      <c r="G28" s="141"/>
       <c r="H28" s="17">
         <v>140</v>
       </c>
@@ -4365,7 +4254,7 @@
       <c r="F29" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="G29" s="155"/>
+      <c r="G29" s="141"/>
       <c r="H29" s="17">
         <v>140</v>
       </c>
@@ -4389,7 +4278,7 @@
       <c r="F30" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="G30" s="155"/>
+      <c r="G30" s="141"/>
       <c r="H30" s="17">
         <v>140</v>
       </c>
@@ -4413,7 +4302,7 @@
       <c r="F31" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="G31" s="155"/>
+      <c r="G31" s="141"/>
       <c r="H31" s="17">
         <v>140</v>
       </c>
@@ -4433,7 +4322,7 @@
       <c r="F32" s="41" t="s">
         <v>110</v>
       </c>
-      <c r="G32" s="155"/>
+      <c r="G32" s="141"/>
       <c r="H32" s="28">
         <v>140</v>
       </c>
@@ -4462,7 +4351,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor indexed="47"/>
   </sheetPr>
@@ -4488,16 +4377,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="159" t="s">
+      <c r="A1" s="145" t="s">
         <v>116</v>
       </c>
-      <c r="B1" s="159"/>
-      <c r="C1" s="159"/>
-      <c r="D1" s="159"/>
-      <c r="E1" s="159"/>
-      <c r="F1" s="159"/>
-      <c r="G1" s="159"/>
-      <c r="H1" s="159"/>
+      <c r="B1" s="145"/>
+      <c r="C1" s="145"/>
+      <c r="D1" s="145"/>
+      <c r="E1" s="145"/>
+      <c r="F1" s="145"/>
+      <c r="G1" s="145"/>
+      <c r="H1" s="145"/>
     </row>
     <row r="2" spans="1:10" ht="15">
       <c r="A2" s="68" t="s">
@@ -4536,7 +4425,7 @@
       <c r="F3" s="33" t="s">
         <v>100</v>
       </c>
-      <c r="G3" s="153" t="s">
+      <c r="G3" s="139" t="s">
         <v>11</v>
       </c>
       <c r="H3" s="33">
@@ -4559,7 +4448,7 @@
       <c r="F4" s="36" t="s">
         <v>101</v>
       </c>
-      <c r="G4" s="153"/>
+      <c r="G4" s="139"/>
       <c r="H4" s="36">
         <v>120</v>
       </c>
@@ -4580,7 +4469,7 @@
       <c r="F5" s="36" t="s">
         <v>102</v>
       </c>
-      <c r="G5" s="153"/>
+      <c r="G5" s="139"/>
       <c r="H5" s="36">
         <v>120</v>
       </c>
@@ -4601,7 +4490,7 @@
       <c r="F6" s="36" t="s">
         <v>103</v>
       </c>
-      <c r="G6" s="153"/>
+      <c r="G6" s="139"/>
       <c r="H6" s="36">
         <v>120</v>
       </c>
@@ -4622,7 +4511,7 @@
       <c r="F7" s="36" t="s">
         <v>104</v>
       </c>
-      <c r="G7" s="153"/>
+      <c r="G7" s="139"/>
       <c r="H7" s="36">
         <v>120</v>
       </c>
@@ -4643,7 +4532,7 @@
       <c r="F8" s="36" t="s">
         <v>105</v>
       </c>
-      <c r="G8" s="153"/>
+      <c r="G8" s="139"/>
       <c r="H8" s="36">
         <v>120</v>
       </c>
@@ -4664,7 +4553,7 @@
       <c r="F9" s="36" t="s">
         <v>106</v>
       </c>
-      <c r="G9" s="153"/>
+      <c r="G9" s="139"/>
       <c r="H9" s="36">
         <v>120</v>
       </c>
@@ -4684,7 +4573,7 @@
       <c r="F10" s="36" t="s">
         <v>108</v>
       </c>
-      <c r="G10" s="153"/>
+      <c r="G10" s="139"/>
       <c r="H10" s="36">
         <v>120</v>
       </c>
@@ -4704,7 +4593,7 @@
       <c r="F11" s="36" t="s">
         <v>109</v>
       </c>
-      <c r="G11" s="153"/>
+      <c r="G11" s="139"/>
       <c r="H11" s="36">
         <v>120</v>
       </c>
@@ -4725,7 +4614,7 @@
       <c r="F12" s="44" t="s">
         <v>110</v>
       </c>
-      <c r="G12" s="153"/>
+      <c r="G12" s="139"/>
       <c r="H12" s="36">
         <v>120</v>
       </c>
@@ -4753,7 +4642,7 @@
       <c r="F13" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="G13" s="153" t="s">
+      <c r="G13" s="139" t="s">
         <v>31</v>
       </c>
       <c r="H13" s="36">
@@ -4777,7 +4666,7 @@
       <c r="F14" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="G14" s="153"/>
+      <c r="G14" s="139"/>
       <c r="H14" s="36">
         <v>120</v>
       </c>
@@ -4799,7 +4688,7 @@
       <c r="F15" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="G15" s="153"/>
+      <c r="G15" s="139"/>
       <c r="H15" s="36">
         <v>120</v>
       </c>
@@ -4821,7 +4710,7 @@
       <c r="F16" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="G16" s="153"/>
+      <c r="G16" s="139"/>
       <c r="H16" s="36">
         <v>120</v>
       </c>
@@ -4846,7 +4735,7 @@
       <c r="F17" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="G17" s="153"/>
+      <c r="G17" s="139"/>
       <c r="H17" s="36">
         <v>120</v>
       </c>
@@ -4871,7 +4760,7 @@
       <c r="F18" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="G18" s="153"/>
+      <c r="G18" s="139"/>
       <c r="H18" s="36">
         <v>120</v>
       </c>
@@ -4896,7 +4785,7 @@
       <c r="F19" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="G19" s="153"/>
+      <c r="G19" s="139"/>
       <c r="H19" s="36">
         <v>120</v>
       </c>
@@ -4921,7 +4810,7 @@
       <c r="F20" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="G20" s="153"/>
+      <c r="G20" s="139"/>
       <c r="H20" s="36">
         <v>120</v>
       </c>
@@ -4946,7 +4835,7 @@
       <c r="F21" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="G21" s="153"/>
+      <c r="G21" s="139"/>
       <c r="H21" s="36">
         <v>120</v>
       </c>
@@ -4971,7 +4860,7 @@
       <c r="F22" s="41" t="s">
         <v>110</v>
       </c>
-      <c r="G22" s="153"/>
+      <c r="G22" s="139"/>
       <c r="H22" s="36">
         <v>120</v>
       </c>
@@ -5002,7 +4891,7 @@
       <c r="F23" s="33" t="s">
         <v>100</v>
       </c>
-      <c r="G23" s="153" t="s">
+      <c r="G23" s="139" t="s">
         <v>42</v>
       </c>
       <c r="H23" s="36">
@@ -5029,7 +4918,7 @@
       <c r="F24" s="36" t="s">
         <v>101</v>
       </c>
-      <c r="G24" s="153"/>
+      <c r="G24" s="139"/>
       <c r="H24" s="36">
         <v>120</v>
       </c>
@@ -5054,7 +4943,7 @@
       <c r="F25" s="36" t="s">
         <v>102</v>
       </c>
-      <c r="G25" s="153"/>
+      <c r="G25" s="139"/>
       <c r="H25" s="36">
         <v>120</v>
       </c>
@@ -5079,7 +4968,7 @@
       <c r="F26" s="36" t="s">
         <v>103</v>
       </c>
-      <c r="G26" s="153"/>
+      <c r="G26" s="139"/>
       <c r="H26" s="36">
         <v>120</v>
       </c>
@@ -5104,7 +4993,7 @@
       <c r="F27" s="36" t="s">
         <v>104</v>
       </c>
-      <c r="G27" s="153"/>
+      <c r="G27" s="139"/>
       <c r="H27" s="36">
         <v>120</v>
       </c>
@@ -5128,7 +5017,7 @@
       <c r="F28" s="36" t="s">
         <v>105</v>
       </c>
-      <c r="G28" s="153"/>
+      <c r="G28" s="139"/>
       <c r="H28" s="36">
         <v>120</v>
       </c>
@@ -5152,7 +5041,7 @@
       <c r="F29" s="36" t="s">
         <v>106</v>
       </c>
-      <c r="G29" s="153"/>
+      <c r="G29" s="139"/>
       <c r="H29" s="36">
         <v>120</v>
       </c>
@@ -5176,7 +5065,7 @@
       <c r="F30" s="36" t="s">
         <v>108</v>
       </c>
-      <c r="G30" s="153"/>
+      <c r="G30" s="139"/>
       <c r="H30" s="36">
         <v>120</v>
       </c>
@@ -5200,7 +5089,7 @@
       <c r="F31" s="36" t="s">
         <v>109</v>
       </c>
-      <c r="G31" s="153"/>
+      <c r="G31" s="139"/>
       <c r="H31" s="36">
         <v>120</v>
       </c>
@@ -5222,7 +5111,7 @@
       <c r="F32" s="77" t="s">
         <v>110</v>
       </c>
-      <c r="G32" s="153"/>
+      <c r="G32" s="139"/>
       <c r="H32" s="77">
         <v>120</v>
       </c>
@@ -5269,7 +5158,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor indexed="47"/>
   </sheetPr>
@@ -5293,15 +5182,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="159" t="s">
+      <c r="A1" s="145" t="s">
         <v>128</v>
       </c>
-      <c r="B1" s="159"/>
-      <c r="C1" s="159"/>
-      <c r="D1" s="159"/>
-      <c r="E1" s="159"/>
-      <c r="F1" s="159"/>
-      <c r="G1" s="159"/>
+      <c r="B1" s="145"/>
+      <c r="C1" s="145"/>
+      <c r="D1" s="145"/>
+      <c r="E1" s="145"/>
+      <c r="F1" s="145"/>
+      <c r="G1" s="145"/>
     </row>
     <row r="2" spans="1:9" ht="15">
       <c r="A2" s="68" t="s">
@@ -5342,7 +5231,7 @@
       <c r="F3" s="10">
         <v>5</v>
       </c>
-      <c r="G3" s="153" t="s">
+      <c r="G3" s="139" t="s">
         <v>11</v>
       </c>
     </row>
@@ -5361,7 +5250,7 @@
       <c r="F4" s="2">
         <v>5</v>
       </c>
-      <c r="G4" s="153"/>
+      <c r="G4" s="139"/>
     </row>
     <row r="5" spans="1:9" ht="15">
       <c r="A5" s="62" t="s">
@@ -5378,7 +5267,7 @@
       <c r="F5" s="2">
         <v>5</v>
       </c>
-      <c r="G5" s="153"/>
+      <c r="G5" s="139"/>
     </row>
     <row r="6" spans="1:9" ht="15">
       <c r="A6" s="62" t="s">
@@ -5395,7 +5284,7 @@
       <c r="F6" s="2">
         <v>5</v>
       </c>
-      <c r="G6" s="153"/>
+      <c r="G6" s="139"/>
     </row>
     <row r="7" spans="1:9" ht="15">
       <c r="A7" s="62" t="s">
@@ -5412,7 +5301,7 @@
       <c r="F7" s="2">
         <v>5</v>
       </c>
-      <c r="G7" s="153"/>
+      <c r="G7" s="139"/>
     </row>
     <row r="8" spans="1:9" ht="15">
       <c r="A8" s="62" t="s">
@@ -5429,7 +5318,7 @@
       <c r="F8" s="2">
         <v>5</v>
       </c>
-      <c r="G8" s="153"/>
+      <c r="G8" s="139"/>
     </row>
     <row r="9" spans="1:9" ht="15">
       <c r="A9" s="62" t="s">
@@ -5446,7 +5335,7 @@
       <c r="F9" s="2">
         <v>5</v>
       </c>
-      <c r="G9" s="153"/>
+      <c r="G9" s="139"/>
       <c r="H9" s="2"/>
     </row>
     <row r="10" spans="1:9" ht="15">
@@ -5464,7 +5353,7 @@
       <c r="F10" s="2">
         <v>5</v>
       </c>
-      <c r="G10" s="153"/>
+      <c r="G10" s="139"/>
       <c r="H10" s="2"/>
     </row>
     <row r="11" spans="1:9" ht="15">
@@ -5484,7 +5373,7 @@
       <c r="F11" s="89" t="s">
         <v>100</v>
       </c>
-      <c r="G11" s="160" t="s">
+      <c r="G11" s="146" t="s">
         <v>31</v>
       </c>
       <c r="H11" s="2"/>
@@ -5506,7 +5395,7 @@
       <c r="F12" s="94" t="s">
         <v>101</v>
       </c>
-      <c r="G12" s="160"/>
+      <c r="G12" s="146"/>
       <c r="H12" s="2"/>
     </row>
     <row r="13" spans="1:9" ht="15">
@@ -5526,7 +5415,7 @@
       <c r="F13" s="94" t="s">
         <v>102</v>
       </c>
-      <c r="G13" s="160"/>
+      <c r="G13" s="146"/>
       <c r="H13" s="2"/>
     </row>
     <row r="14" spans="1:9" ht="15">
@@ -5548,7 +5437,7 @@
       <c r="F14" s="94" t="s">
         <v>103</v>
       </c>
-      <c r="G14" s="160"/>
+      <c r="G14" s="146"/>
       <c r="H14" s="71">
         <v>43371</v>
       </c>
@@ -5575,7 +5464,7 @@
       <c r="F15" s="94" t="s">
         <v>104</v>
       </c>
-      <c r="G15" s="160"/>
+      <c r="G15" s="146"/>
       <c r="H15" s="2"/>
     </row>
     <row r="16" spans="1:9" ht="15">
@@ -5597,7 +5486,7 @@
       <c r="F16" s="94" t="s">
         <v>105</v>
       </c>
-      <c r="G16" s="160"/>
+      <c r="G16" s="146"/>
       <c r="H16" s="2"/>
     </row>
     <row r="17" spans="1:9" ht="15">
@@ -5619,7 +5508,7 @@
       <c r="F17" s="94" t="s">
         <v>106</v>
       </c>
-      <c r="G17" s="160"/>
+      <c r="G17" s="146"/>
       <c r="H17" s="2"/>
     </row>
     <row r="18" spans="1:9" ht="15">
@@ -5641,7 +5530,7 @@
       <c r="F18" s="50" t="s">
         <v>108</v>
       </c>
-      <c r="G18" s="160"/>
+      <c r="G18" s="146"/>
       <c r="H18" s="71">
         <v>43409</v>
       </c>
@@ -5666,7 +5555,7 @@
       <c r="F19" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="G19" s="153" t="s">
+      <c r="G19" s="139" t="s">
         <v>42</v>
       </c>
       <c r="H19" s="2"/>
@@ -5690,7 +5579,7 @@
       <c r="F20" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="G20" s="153"/>
+      <c r="G20" s="139"/>
       <c r="H20" s="2"/>
     </row>
     <row r="21" spans="1:9" ht="15">
@@ -5712,7 +5601,7 @@
       <c r="F21" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="G21" s="153"/>
+      <c r="G21" s="139"/>
       <c r="H21" s="2"/>
     </row>
     <row r="22" spans="1:9" ht="15">
@@ -5734,7 +5623,7 @@
       <c r="F22" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="G22" s="153"/>
+      <c r="G22" s="139"/>
       <c r="H22" s="65">
         <v>43448</v>
       </c>
@@ -5761,7 +5650,7 @@
       <c r="F23" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="G23" s="153"/>
+      <c r="G23" s="139"/>
       <c r="H23" s="2"/>
     </row>
     <row r="24" spans="1:9" ht="15">
@@ -5783,7 +5672,7 @@
       <c r="F24" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="G24" s="153"/>
+      <c r="G24" s="139"/>
       <c r="H24" s="2"/>
     </row>
     <row r="25" spans="1:9" ht="15">
@@ -5803,7 +5692,7 @@
       <c r="F25" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="G25" s="153"/>
+      <c r="G25" s="139"/>
     </row>
     <row r="26" spans="1:9" ht="15">
       <c r="A26" s="64" t="s">
@@ -5822,7 +5711,7 @@
       <c r="F26" s="41" t="s">
         <v>108</v>
       </c>
-      <c r="G26" s="153"/>
+      <c r="G26" s="139"/>
       <c r="I26" s="2">
         <v>600</v>
       </c>
@@ -5847,7 +5736,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor indexed="47"/>
   </sheetPr>
@@ -5873,16 +5762,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="161" t="s">
+      <c r="A1" s="147" t="s">
         <v>145</v>
       </c>
-      <c r="B1" s="161"/>
-      <c r="C1" s="161"/>
-      <c r="D1" s="161"/>
-      <c r="E1" s="161"/>
-      <c r="F1" s="161"/>
-      <c r="G1" s="161"/>
-      <c r="H1" s="161"/>
+      <c r="B1" s="147"/>
+      <c r="C1" s="147"/>
+      <c r="D1" s="147"/>
+      <c r="E1" s="147"/>
+      <c r="F1" s="147"/>
+      <c r="G1" s="147"/>
+      <c r="H1" s="147"/>
     </row>
     <row r="2" spans="1:11" ht="15">
       <c r="A2" s="30" t="s">
@@ -5922,13 +5811,13 @@
       <c r="F3" s="2">
         <v>5</v>
       </c>
-      <c r="G3" s="161" t="s">
+      <c r="G3" s="147" t="s">
         <v>147</v>
       </c>
-      <c r="J3" s="162" t="s">
+      <c r="J3" s="148" t="s">
         <v>148</v>
       </c>
-      <c r="K3" s="162"/>
+      <c r="K3" s="148"/>
     </row>
     <row r="4" spans="1:11" ht="15">
       <c r="A4" s="80" t="s">
@@ -5943,7 +5832,7 @@
       <c r="F4" s="2">
         <v>5</v>
       </c>
-      <c r="G4" s="161"/>
+      <c r="G4" s="147"/>
       <c r="J4" t="s">
         <v>149</v>
       </c>
@@ -5965,7 +5854,7 @@
       <c r="F5" s="2">
         <v>5</v>
       </c>
-      <c r="G5" s="161"/>
+      <c r="G5" s="147"/>
       <c r="J5" t="s">
         <v>150</v>
       </c>
@@ -5987,7 +5876,7 @@
       <c r="F6" s="2">
         <v>5</v>
       </c>
-      <c r="G6" s="161"/>
+      <c r="G6" s="147"/>
       <c r="J6" t="s">
         <v>151</v>
       </c>
@@ -6009,7 +5898,7 @@
       <c r="F7" s="10">
         <v>5</v>
       </c>
-      <c r="G7" s="155" t="s">
+      <c r="G7" s="141" t="s">
         <v>11</v>
       </c>
       <c r="J7" t="s">
@@ -6033,7 +5922,7 @@
       <c r="F8" s="2">
         <v>5</v>
       </c>
-      <c r="G8" s="155"/>
+      <c r="G8" s="141"/>
       <c r="J8" t="s">
         <v>153</v>
       </c>
@@ -6055,7 +5944,7 @@
       <c r="F9" s="2">
         <v>5</v>
       </c>
-      <c r="G9" s="155"/>
+      <c r="G9" s="141"/>
       <c r="J9" t="s">
         <v>154</v>
       </c>
@@ -6077,7 +5966,7 @@
       <c r="F10" s="2">
         <v>5</v>
       </c>
-      <c r="G10" s="155"/>
+      <c r="G10" s="141"/>
       <c r="J10" t="s">
         <v>155</v>
       </c>
@@ -6099,7 +5988,7 @@
       <c r="F11" s="2">
         <v>5</v>
       </c>
-      <c r="G11" s="155"/>
+      <c r="G11" s="141"/>
       <c r="J11" t="s">
         <v>156</v>
       </c>
@@ -6121,7 +6010,7 @@
       <c r="F12" s="2">
         <v>5</v>
       </c>
-      <c r="G12" s="155"/>
+      <c r="G12" s="141"/>
       <c r="J12" t="s">
         <v>157</v>
       </c>
@@ -6143,7 +6032,7 @@
       <c r="F13" s="2">
         <v>5</v>
       </c>
-      <c r="G13" s="155"/>
+      <c r="G13" s="141"/>
     </row>
     <row r="14" spans="1:11" ht="15">
       <c r="A14" s="58" t="s">
@@ -6158,7 +6047,7 @@
       <c r="F14" s="41">
         <v>5</v>
       </c>
-      <c r="G14" s="155"/>
+      <c r="G14" s="141"/>
     </row>
     <row r="15" spans="1:11" ht="15">
       <c r="A15" s="52" t="s">
@@ -6173,7 +6062,7 @@
       <c r="F15" s="10">
         <v>1</v>
       </c>
-      <c r="G15" s="155" t="s">
+      <c r="G15" s="141" t="s">
         <v>31</v>
       </c>
     </row>
@@ -6192,7 +6081,7 @@
       <c r="F16" s="2">
         <v>2</v>
       </c>
-      <c r="G16" s="155"/>
+      <c r="G16" s="141"/>
     </row>
     <row r="17" spans="1:10" ht="15">
       <c r="A17" s="56" t="s">
@@ -6209,7 +6098,7 @@
       <c r="F17" s="2">
         <v>3</v>
       </c>
-      <c r="G17" s="155"/>
+      <c r="G17" s="141"/>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
     </row>
@@ -6228,7 +6117,7 @@
       <c r="F18" s="2">
         <v>4</v>
       </c>
-      <c r="G18" s="155"/>
+      <c r="G18" s="141"/>
     </row>
     <row r="19" spans="1:10" ht="15">
       <c r="A19" s="62" t="s">
@@ -6246,7 +6135,7 @@
       <c r="F19" s="2">
         <v>5</v>
       </c>
-      <c r="G19" s="155"/>
+      <c r="G19" s="141"/>
     </row>
     <row r="20" spans="1:10" ht="15">
       <c r="A20" s="62" t="s">
@@ -6264,7 +6153,7 @@
       <c r="F20" s="2">
         <v>6</v>
       </c>
-      <c r="G20" s="155"/>
+      <c r="G20" s="141"/>
     </row>
     <row r="21" spans="1:10" ht="15">
       <c r="A21" s="62" t="s">
@@ -6282,7 +6171,7 @@
       <c r="F21" s="2">
         <v>7</v>
       </c>
-      <c r="G21" s="155"/>
+      <c r="G21" s="141"/>
     </row>
     <row r="22" spans="1:10" ht="15">
       <c r="A22" s="64" t="s">
@@ -6301,7 +6190,7 @@
       <c r="F22" s="41">
         <v>8</v>
       </c>
-      <c r="G22" s="155"/>
+      <c r="G22" s="141"/>
     </row>
     <row r="23" spans="1:10" ht="15">
       <c r="A23" s="60" t="s">
@@ -6320,7 +6209,7 @@
       <c r="F23" s="10">
         <v>1</v>
       </c>
-      <c r="G23" s="155" t="s">
+      <c r="G23" s="141" t="s">
         <v>42</v>
       </c>
     </row>
@@ -6343,7 +6232,7 @@
       <c r="F24" s="2">
         <v>2</v>
       </c>
-      <c r="G24" s="155"/>
+      <c r="G24" s="141"/>
     </row>
     <row r="25" spans="1:10" ht="15">
       <c r="A25" s="62" t="s">
@@ -6364,7 +6253,7 @@
       <c r="F25" s="2">
         <v>3</v>
       </c>
-      <c r="G25" s="155"/>
+      <c r="G25" s="141"/>
     </row>
     <row r="26" spans="1:10" ht="15">
       <c r="A26" s="62" t="s">
@@ -6385,7 +6274,7 @@
       <c r="F26" s="2">
         <v>4</v>
       </c>
-      <c r="G26" s="155"/>
+      <c r="G26" s="141"/>
       <c r="H26" s="2" t="s">
         <v>162</v>
       </c>
@@ -6409,7 +6298,7 @@
       <c r="F27" s="2">
         <v>5</v>
       </c>
-      <c r="G27" s="155"/>
+      <c r="G27" s="141"/>
     </row>
     <row r="28" spans="1:10" ht="15">
       <c r="A28" s="62" t="s">
@@ -6430,7 +6319,7 @@
       <c r="F28" s="2">
         <v>6</v>
       </c>
-      <c r="G28" s="155"/>
+      <c r="G28" s="141"/>
     </row>
     <row r="29" spans="1:10" ht="15">
       <c r="A29" s="62" t="s">
@@ -6451,7 +6340,7 @@
       <c r="F29" s="2">
         <v>7</v>
       </c>
-      <c r="G29" s="155"/>
+      <c r="G29" s="141"/>
     </row>
     <row r="30" spans="1:10" ht="15">
       <c r="A30" s="64" t="s">
@@ -6472,7 +6361,7 @@
       <c r="F30" s="41">
         <v>8</v>
       </c>
-      <c r="G30" s="155"/>
+      <c r="G30" s="141"/>
       <c r="H30" s="71">
         <v>43396</v>
       </c>

--- a/Cronograma aulas/Aulas v2.xlsx
+++ b/Cronograma aulas/Aulas v2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="489" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="489"/>
   </bookViews>
   <sheets>
     <sheet name="t7_seg_e_qua" sheetId="1" r:id="rId1"/>
@@ -957,7 +957,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="19" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="149">
+  <cellXfs count="152">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1317,9 +1317,6 @@
     <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1344,6 +1341,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1788,8 +1797,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="C30" sqref="C17:C30"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="14.25"/>
@@ -1804,15 +1813,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="139" t="s">
+      <c r="A1" s="142" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="139"/>
-      <c r="C1" s="139"/>
-      <c r="D1" s="139"/>
-      <c r="E1" s="139"/>
-      <c r="F1" s="139"/>
-      <c r="G1" s="139"/>
+      <c r="B1" s="142"/>
+      <c r="C1" s="142"/>
+      <c r="D1" s="142"/>
+      <c r="E1" s="142"/>
+      <c r="F1" s="142"/>
+      <c r="G1" s="142"/>
     </row>
     <row r="2" spans="1:8" ht="15">
       <c r="A2" s="68" t="s">
@@ -1851,8 +1860,8 @@
       <c r="D3" s="112" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="133"/>
-      <c r="F3" s="139" t="s">
+      <c r="E3" s="132"/>
+      <c r="F3" s="142" t="s">
         <v>11</v>
       </c>
       <c r="G3" s="11">
@@ -1873,7 +1882,7 @@
         <v>13</v>
       </c>
       <c r="E4" s="106"/>
-      <c r="F4" s="139"/>
+      <c r="F4" s="142"/>
       <c r="G4" s="17">
         <v>140</v>
       </c>
@@ -1892,7 +1901,7 @@
         <v>15</v>
       </c>
       <c r="E5" s="106"/>
-      <c r="F5" s="139"/>
+      <c r="F5" s="142"/>
       <c r="G5" s="17">
         <v>140</v>
       </c>
@@ -1911,7 +1920,7 @@
         <v>17</v>
       </c>
       <c r="E6" s="107"/>
-      <c r="F6" s="139"/>
+      <c r="F6" s="142"/>
       <c r="G6" s="17">
         <v>140</v>
       </c>
@@ -1930,7 +1939,7 @@
         <v>19</v>
       </c>
       <c r="E7" s="107"/>
-      <c r="F7" s="139"/>
+      <c r="F7" s="142"/>
       <c r="G7" s="17">
         <v>140</v>
       </c>
@@ -1949,7 +1958,7 @@
         <v>21</v>
       </c>
       <c r="E8" s="107"/>
-      <c r="F8" s="139"/>
+      <c r="F8" s="142"/>
       <c r="G8" s="17">
         <v>140</v>
       </c>
@@ -1968,7 +1977,7 @@
         <v>23</v>
       </c>
       <c r="E9" s="107"/>
-      <c r="F9" s="139"/>
+      <c r="F9" s="142"/>
       <c r="G9" s="17">
         <v>140</v>
       </c>
@@ -1987,7 +1996,7 @@
         <v>25</v>
       </c>
       <c r="E10" s="107"/>
-      <c r="F10" s="139"/>
+      <c r="F10" s="142"/>
       <c r="G10" s="17">
         <v>140</v>
       </c>
@@ -2004,7 +2013,7 @@
       </c>
       <c r="D11" s="17"/>
       <c r="E11" s="107"/>
-      <c r="F11" s="139"/>
+      <c r="F11" s="142"/>
       <c r="G11" s="17">
         <v>140</v>
       </c>
@@ -2024,7 +2033,7 @@
         <v>28</v>
       </c>
       <c r="E12" s="20"/>
-      <c r="F12" s="139"/>
+      <c r="F12" s="142"/>
       <c r="G12" s="17">
         <v>140</v>
       </c>
@@ -2044,7 +2053,7 @@
         <v>30</v>
       </c>
       <c r="E13" s="11"/>
-      <c r="F13" s="139" t="s">
+      <c r="F13" s="142" t="s">
         <v>31</v>
       </c>
       <c r="G13" s="17">
@@ -2066,7 +2075,7 @@
         <v>32</v>
       </c>
       <c r="E14" s="17"/>
-      <c r="F14" s="139"/>
+      <c r="F14" s="142"/>
       <c r="G14" s="17">
         <v>140</v>
       </c>
@@ -2086,7 +2095,7 @@
         <v>32</v>
       </c>
       <c r="E15" s="17"/>
-      <c r="F15" s="139"/>
+      <c r="F15" s="142"/>
       <c r="G15" s="17">
         <v>140</v>
       </c>
@@ -2106,7 +2115,7 @@
         <v>167</v>
       </c>
       <c r="E16" s="17"/>
-      <c r="F16" s="139"/>
+      <c r="F16" s="142"/>
       <c r="G16" s="17">
         <v>140</v>
       </c>
@@ -2116,8 +2125,8 @@
       <c r="A17" s="113" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="129">
-        <v>43710</v>
+      <c r="B17" s="126">
+        <v>43712</v>
       </c>
       <c r="C17" s="23"/>
       <c r="D17" s="37" t="s">
@@ -2126,7 +2135,7 @@
       <c r="E17" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="F17" s="139"/>
+      <c r="F17" s="142"/>
       <c r="G17" s="17">
         <v>140</v>
       </c>
@@ -2137,7 +2146,7 @@
         <v>20</v>
       </c>
       <c r="B18" s="126">
-        <v>43712</v>
+        <v>43717</v>
       </c>
       <c r="C18" s="23"/>
       <c r="D18" s="12" t="s">
@@ -2146,7 +2155,7 @@
       <c r="E18" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="F18" s="139"/>
+      <c r="F18" s="142"/>
       <c r="G18" s="17">
         <v>140</v>
       </c>
@@ -2156,34 +2165,34 @@
       <c r="A19" s="113" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="126">
-        <v>43717</v>
+      <c r="B19" s="140">
+        <v>43749</v>
       </c>
       <c r="C19" s="24"/>
       <c r="D19" s="12" t="s">
         <v>38</v>
       </c>
       <c r="E19" s="15"/>
-      <c r="F19" s="139"/>
+      <c r="F19" s="142"/>
       <c r="G19" s="15">
         <v>140</v>
       </c>
       <c r="H19" s="25"/>
     </row>
     <row r="20" spans="1:8" s="27" customFormat="1">
-      <c r="A20" s="114" t="s">
+      <c r="A20" s="138" t="s">
         <v>24</v>
       </c>
-      <c r="B20" s="132">
-        <v>43749</v>
-      </c>
-      <c r="C20" s="77"/>
+      <c r="B20" s="141">
+        <v>43754</v>
+      </c>
+      <c r="C20" s="139"/>
       <c r="D20" s="40" t="s">
         <v>41</v>
       </c>
-      <c r="E20" s="138"/>
-      <c r="F20" s="139"/>
-      <c r="G20" s="131">
+      <c r="E20" s="137"/>
+      <c r="F20" s="142"/>
+      <c r="G20" s="130">
         <v>140</v>
       </c>
       <c r="H20" s="1"/>
@@ -2193,12 +2202,12 @@
         <v>8</v>
       </c>
       <c r="B21" s="126">
-        <v>43754</v>
+        <v>43759</v>
       </c>
       <c r="C21" s="23"/>
       <c r="D21" s="108"/>
-      <c r="E21" s="134"/>
-      <c r="F21" s="139" t="s">
+      <c r="E21" s="133"/>
+      <c r="F21" s="142" t="s">
         <v>42</v>
       </c>
       <c r="G21" s="17">
@@ -2211,12 +2220,12 @@
         <v>12</v>
       </c>
       <c r="B22" s="126">
-        <v>43759</v>
+        <v>43761</v>
       </c>
       <c r="C22" s="23"/>
       <c r="D22" s="12"/>
       <c r="E22" s="37"/>
-      <c r="F22" s="139"/>
+      <c r="F22" s="142"/>
       <c r="G22" s="17">
         <v>140</v>
       </c>
@@ -2227,12 +2236,12 @@
         <v>14</v>
       </c>
       <c r="B23" s="126">
-        <v>43761</v>
+        <v>43766</v>
       </c>
       <c r="C23" s="23"/>
       <c r="D23" s="37"/>
       <c r="E23" s="37"/>
-      <c r="F23" s="139"/>
+      <c r="F23" s="142"/>
       <c r="G23" s="17">
         <v>140</v>
       </c>
@@ -2243,12 +2252,12 @@
         <v>16</v>
       </c>
       <c r="B24" s="126">
-        <v>43766</v>
+        <v>43768</v>
       </c>
       <c r="C24" s="23"/>
       <c r="D24" s="37"/>
       <c r="E24" s="37"/>
-      <c r="F24" s="139"/>
+      <c r="F24" s="142"/>
       <c r="G24" s="17">
         <v>140</v>
       </c>
@@ -2258,13 +2267,10 @@
       <c r="A25" s="113" t="s">
         <v>18</v>
       </c>
-      <c r="B25" s="126">
-        <v>43768</v>
-      </c>
       <c r="C25" s="23"/>
       <c r="D25" s="37"/>
       <c r="E25" s="37"/>
-      <c r="F25" s="139"/>
+      <c r="F25" s="142"/>
       <c r="G25" s="17">
         <v>140</v>
       </c>
@@ -2277,7 +2283,7 @@
       <c r="C26" s="23"/>
       <c r="D26" s="37"/>
       <c r="E26" s="37"/>
-      <c r="F26" s="139"/>
+      <c r="F26" s="142"/>
       <c r="G26" s="17">
         <v>140</v>
       </c>
@@ -2290,7 +2296,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="37"/>
       <c r="E27" s="37"/>
-      <c r="F27" s="139"/>
+      <c r="F27" s="142"/>
       <c r="G27" s="17">
         <v>140</v>
       </c>
@@ -2303,7 +2309,7 @@
       <c r="C28" s="23"/>
       <c r="D28" s="17"/>
       <c r="E28" s="37"/>
-      <c r="F28" s="139"/>
+      <c r="F28" s="142"/>
       <c r="G28" s="17">
         <v>140</v>
       </c>
@@ -2316,7 +2322,7 @@
       <c r="C29" s="23"/>
       <c r="D29" s="17"/>
       <c r="E29" s="37"/>
-      <c r="F29" s="139"/>
+      <c r="F29" s="142"/>
       <c r="G29" s="17">
         <v>140</v>
       </c>
@@ -2325,11 +2331,11 @@
       <c r="A30" s="114" t="s">
         <v>27</v>
       </c>
-      <c r="B30" s="132"/>
+      <c r="B30" s="131"/>
       <c r="C30" s="123"/>
       <c r="D30" s="28"/>
-      <c r="E30" s="135"/>
-      <c r="F30" s="139"/>
+      <c r="E30" s="134"/>
+      <c r="F30" s="142"/>
       <c r="G30" s="28">
         <v>140</v>
       </c>
@@ -2356,8 +2362,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView showGridLines="0" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17:C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="14.25"/>
@@ -2372,15 +2378,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="139" t="s">
+      <c r="A1" s="142" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="139"/>
-      <c r="C1" s="139"/>
-      <c r="D1" s="139"/>
-      <c r="E1" s="139"/>
-      <c r="F1" s="139"/>
-      <c r="G1" s="139"/>
+      <c r="B1" s="142"/>
+      <c r="C1" s="142"/>
+      <c r="D1" s="142"/>
+      <c r="E1" s="142"/>
+      <c r="F1" s="142"/>
+      <c r="G1" s="142"/>
     </row>
     <row r="2" spans="1:8" ht="15">
       <c r="A2" s="3" t="s">
@@ -2418,7 +2424,7 @@
       </c>
       <c r="D3" s="9"/>
       <c r="E3" s="32"/>
-      <c r="F3" s="139" t="s">
+      <c r="F3" s="142" t="s">
         <v>11</v>
       </c>
       <c r="G3" s="33">
@@ -2429,7 +2435,7 @@
       <c r="A4" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="130">
+      <c r="B4" s="129">
         <v>43596</v>
       </c>
       <c r="C4" s="14" t="s">
@@ -2437,7 +2443,7 @@
       </c>
       <c r="D4" s="15"/>
       <c r="E4" s="35"/>
-      <c r="F4" s="139"/>
+      <c r="F4" s="142"/>
       <c r="G4" s="36">
         <v>175</v>
       </c>
@@ -2446,7 +2452,7 @@
       <c r="A5" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="130">
+      <c r="B5" s="129">
         <v>43603</v>
       </c>
       <c r="C5" s="14" t="s">
@@ -2454,7 +2460,7 @@
       </c>
       <c r="D5" s="15"/>
       <c r="E5" s="35"/>
-      <c r="F5" s="139"/>
+      <c r="F5" s="142"/>
       <c r="G5" s="36">
         <v>175</v>
       </c>
@@ -2463,7 +2469,7 @@
       <c r="A6" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="130">
+      <c r="B6" s="129">
         <v>43617</v>
       </c>
       <c r="C6" s="14" t="s">
@@ -2471,7 +2477,7 @@
       </c>
       <c r="D6" s="17"/>
       <c r="E6" s="37"/>
-      <c r="F6" s="139"/>
+      <c r="F6" s="142"/>
       <c r="G6" s="36">
         <v>175</v>
       </c>
@@ -2480,7 +2486,7 @@
       <c r="A7" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="130">
+      <c r="B7" s="129">
         <v>43624</v>
       </c>
       <c r="C7" s="14" t="s">
@@ -2488,7 +2494,7 @@
       </c>
       <c r="D7" s="17"/>
       <c r="E7" s="37"/>
-      <c r="F7" s="139"/>
+      <c r="F7" s="142"/>
       <c r="G7" s="36">
         <v>175</v>
       </c>
@@ -2497,7 +2503,7 @@
       <c r="A8" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="130">
+      <c r="B8" s="129">
         <v>43631</v>
       </c>
       <c r="C8" s="14" t="s">
@@ -2505,7 +2511,7 @@
       </c>
       <c r="D8" s="17"/>
       <c r="E8" s="37"/>
-      <c r="F8" s="139"/>
+      <c r="F8" s="142"/>
       <c r="G8" s="36">
         <v>175</v>
       </c>
@@ -2514,7 +2520,7 @@
       <c r="A9" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="130">
+      <c r="B9" s="129">
         <v>43645</v>
       </c>
       <c r="C9" s="14" t="s">
@@ -2524,7 +2530,7 @@
         <v>44</v>
       </c>
       <c r="E9" s="37"/>
-      <c r="F9" s="139"/>
+      <c r="F9" s="142"/>
       <c r="G9" s="36">
         <v>175</v>
       </c>
@@ -2533,7 +2539,7 @@
       <c r="A10" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="130">
+      <c r="B10" s="129">
         <v>43659</v>
       </c>
       <c r="C10" s="14" t="s">
@@ -2541,7 +2547,7 @@
       </c>
       <c r="D10" s="39"/>
       <c r="E10" s="40"/>
-      <c r="F10" s="139"/>
+      <c r="F10" s="142"/>
       <c r="G10" s="36">
         <v>175</v>
       </c>
@@ -2560,7 +2566,7 @@
         <v>45</v>
       </c>
       <c r="E11" s="2"/>
-      <c r="F11" s="139" t="s">
+      <c r="F11" s="142" t="s">
         <v>31</v>
       </c>
       <c r="G11" s="17">
@@ -2582,7 +2588,7 @@
         <v>32</v>
       </c>
       <c r="E12" s="2"/>
-      <c r="F12" s="139"/>
+      <c r="F12" s="142"/>
       <c r="G12" s="17">
         <v>175</v>
       </c>
@@ -2602,7 +2608,7 @@
         <v>47</v>
       </c>
       <c r="E13" s="2"/>
-      <c r="F13" s="139"/>
+      <c r="F13" s="142"/>
       <c r="G13" s="17">
         <v>175</v>
       </c>
@@ -2624,7 +2630,7 @@
       <c r="E14" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="F14" s="139"/>
+      <c r="F14" s="142"/>
       <c r="G14" s="17">
         <v>175</v>
       </c>
@@ -2646,7 +2652,7 @@
       <c r="E15" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="F15" s="139"/>
+      <c r="F15" s="142"/>
       <c r="G15" s="17">
         <v>175</v>
       </c>
@@ -2668,7 +2674,7 @@
       <c r="E16" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F16" s="139"/>
+      <c r="F16" s="142"/>
       <c r="G16" s="17">
         <v>175</v>
       </c>
@@ -2688,7 +2694,7 @@
       <c r="E17" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F17" s="139"/>
+      <c r="F17" s="142"/>
       <c r="G17" s="17">
         <v>175</v>
       </c>
@@ -2698,15 +2704,15 @@
       <c r="A18" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="B18" s="132">
+      <c r="B18" s="131">
         <v>43722</v>
       </c>
       <c r="C18" s="23"/>
       <c r="D18" s="15"/>
-      <c r="E18" s="137" t="s">
+      <c r="E18" s="136" t="s">
         <v>170</v>
       </c>
-      <c r="F18" s="139"/>
+      <c r="F18" s="142"/>
       <c r="G18" s="17">
         <v>175</v>
       </c>
@@ -2722,7 +2728,7 @@
       <c r="C19" s="33"/>
       <c r="D19" s="8"/>
       <c r="E19" s="6"/>
-      <c r="F19" s="139" t="s">
+      <c r="F19" s="142" t="s">
         <v>42</v>
       </c>
       <c r="G19" s="36">
@@ -2740,7 +2746,7 @@
       <c r="C20" s="36"/>
       <c r="D20" s="107"/>
       <c r="E20" s="37"/>
-      <c r="F20" s="139"/>
+      <c r="F20" s="142"/>
       <c r="G20" s="36">
         <v>175</v>
       </c>
@@ -2756,7 +2762,7 @@
       <c r="C21" s="36"/>
       <c r="D21" s="107"/>
       <c r="E21" s="37"/>
-      <c r="F21" s="139"/>
+      <c r="F21" s="142"/>
       <c r="G21" s="36">
         <v>175</v>
       </c>
@@ -2772,7 +2778,7 @@
       <c r="C22" s="36"/>
       <c r="D22" s="107"/>
       <c r="E22" s="37"/>
-      <c r="F22" s="139"/>
+      <c r="F22" s="142"/>
       <c r="G22" s="36">
         <v>175</v>
       </c>
@@ -2785,10 +2791,10 @@
       <c r="B23" s="126">
         <v>43757</v>
       </c>
-      <c r="C23" s="136"/>
+      <c r="C23" s="135"/>
       <c r="D23" s="107"/>
       <c r="E23" s="37"/>
-      <c r="F23" s="139"/>
+      <c r="F23" s="142"/>
       <c r="G23" s="36">
         <v>175</v>
       </c>
@@ -2803,7 +2809,7 @@
       <c r="C24" s="36"/>
       <c r="D24" s="107"/>
       <c r="E24" s="37"/>
-      <c r="F24" s="139"/>
+      <c r="F24" s="142"/>
       <c r="G24" s="36">
         <v>175</v>
       </c>
@@ -2818,7 +2824,7 @@
       <c r="C25" s="36"/>
       <c r="D25" s="107"/>
       <c r="E25" s="37"/>
-      <c r="F25" s="139"/>
+      <c r="F25" s="142"/>
       <c r="G25" s="36">
         <v>175</v>
       </c>
@@ -2827,13 +2833,13 @@
       <c r="A26" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="B26" s="132">
+      <c r="B26" s="131">
         <v>43778</v>
       </c>
       <c r="C26" s="44"/>
       <c r="D26" s="41"/>
       <c r="E26" s="40"/>
-      <c r="F26" s="139"/>
+      <c r="F26" s="142"/>
       <c r="G26" s="44">
         <v>175</v>
       </c>
@@ -2879,16 +2885,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15">
-      <c r="A1" s="140" t="s">
+      <c r="A1" s="143" t="s">
         <v>79</v>
       </c>
-      <c r="B1" s="140"/>
-      <c r="C1" s="140"/>
-      <c r="D1" s="140"/>
-      <c r="E1" s="140"/>
-      <c r="F1" s="140"/>
-      <c r="G1" s="140"/>
-      <c r="H1" s="140"/>
+      <c r="B1" s="143"/>
+      <c r="C1" s="143"/>
+      <c r="D1" s="143"/>
+      <c r="E1" s="143"/>
+      <c r="F1" s="143"/>
+      <c r="G1" s="143"/>
+      <c r="H1" s="143"/>
     </row>
     <row r="2" spans="1:9" ht="15">
       <c r="A2" s="3" t="s">
@@ -2930,7 +2936,7 @@
       </c>
       <c r="E3" s="10"/>
       <c r="F3" s="10"/>
-      <c r="G3" s="141" t="s">
+      <c r="G3" s="144" t="s">
         <v>11</v>
       </c>
       <c r="H3" s="11">
@@ -2950,7 +2956,7 @@
       <c r="D4" s="45"/>
       <c r="E4" s="16"/>
       <c r="F4" s="2"/>
-      <c r="G4" s="141"/>
+      <c r="G4" s="144"/>
       <c r="H4" s="17">
         <v>140</v>
       </c>
@@ -2968,7 +2974,7 @@
       <c r="D5" s="45"/>
       <c r="E5" s="16"/>
       <c r="F5" s="2"/>
-      <c r="G5" s="141"/>
+      <c r="G5" s="144"/>
       <c r="H5" s="17">
         <v>140</v>
       </c>
@@ -2986,7 +2992,7 @@
       <c r="D6" s="45"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
-      <c r="G6" s="141"/>
+      <c r="G6" s="144"/>
       <c r="H6" s="17">
         <v>140</v>
       </c>
@@ -3006,7 +3012,7 @@
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
-      <c r="G7" s="141"/>
+      <c r="G7" s="144"/>
       <c r="H7" s="17">
         <v>140</v>
       </c>
@@ -3026,7 +3032,7 @@
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
-      <c r="G8" s="141"/>
+      <c r="G8" s="144"/>
       <c r="H8" s="17">
         <v>140</v>
       </c>
@@ -3046,7 +3052,7 @@
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
-      <c r="G9" s="141"/>
+      <c r="G9" s="144"/>
       <c r="H9" s="17">
         <v>140</v>
       </c>
@@ -3066,7 +3072,7 @@
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
-      <c r="G10" s="141"/>
+      <c r="G10" s="144"/>
       <c r="H10" s="17">
         <v>140</v>
       </c>
@@ -3084,7 +3090,7 @@
       <c r="D11" s="17"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
-      <c r="G11" s="141"/>
+      <c r="G11" s="144"/>
       <c r="H11" s="17">
         <v>140</v>
       </c>
@@ -3105,7 +3111,7 @@
       </c>
       <c r="E12" s="20"/>
       <c r="F12" s="41"/>
-      <c r="G12" s="141"/>
+      <c r="G12" s="144"/>
       <c r="H12" s="17">
         <v>140</v>
       </c>
@@ -3128,7 +3134,7 @@
       </c>
       <c r="E13" s="10"/>
       <c r="F13" s="10"/>
-      <c r="G13" s="141" t="s">
+      <c r="G13" s="144" t="s">
         <v>31</v>
       </c>
       <c r="H13" s="17">
@@ -3151,7 +3157,7 @@
       </c>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
-      <c r="G14" s="141"/>
+      <c r="G14" s="144"/>
       <c r="H14" s="17">
         <v>140</v>
       </c>
@@ -3172,7 +3178,7 @@
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
-      <c r="G15" s="141"/>
+      <c r="G15" s="144"/>
       <c r="H15" s="17">
         <v>140</v>
       </c>
@@ -3193,7 +3199,7 @@
       </c>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
-      <c r="G16" s="141"/>
+      <c r="G16" s="144"/>
       <c r="H16" s="17">
         <v>140</v>
       </c>
@@ -3216,7 +3222,7 @@
         <v>33</v>
       </c>
       <c r="F17" s="2"/>
-      <c r="G17" s="141"/>
+      <c r="G17" s="144"/>
       <c r="H17" s="17">
         <v>140</v>
       </c>
@@ -3239,7 +3245,7 @@
         <v>35</v>
       </c>
       <c r="F18" s="2"/>
-      <c r="G18" s="141"/>
+      <c r="G18" s="144"/>
       <c r="H18" s="17">
         <v>140</v>
       </c>
@@ -3262,7 +3268,7 @@
         <v>39</v>
       </c>
       <c r="F19" s="42"/>
-      <c r="G19" s="141"/>
+      <c r="G19" s="144"/>
       <c r="H19" s="48">
         <v>140</v>
       </c>
@@ -3285,7 +3291,7 @@
         <v>39</v>
       </c>
       <c r="F20" s="2"/>
-      <c r="G20" s="141"/>
+      <c r="G20" s="144"/>
       <c r="H20" s="17">
         <v>140</v>
       </c>
@@ -3308,7 +3314,7 @@
         <v>40</v>
       </c>
       <c r="F21" s="2"/>
-      <c r="G21" s="141"/>
+      <c r="G21" s="144"/>
       <c r="H21" s="17">
         <v>140</v>
       </c>
@@ -3331,7 +3337,7 @@
         <v>84</v>
       </c>
       <c r="F22" s="107"/>
-      <c r="G22" s="142"/>
+      <c r="G22" s="145"/>
       <c r="H22" s="17">
         <v>140</v>
       </c>
@@ -3356,7 +3362,7 @@
         <v>58</v>
       </c>
       <c r="F23" s="121"/>
-      <c r="G23" s="142" t="s">
+      <c r="G23" s="145" t="s">
         <v>42</v>
       </c>
       <c r="H23" s="17">
@@ -3377,7 +3383,7 @@
       </c>
       <c r="E24" s="107"/>
       <c r="F24" s="107"/>
-      <c r="G24" s="143"/>
+      <c r="G24" s="146"/>
       <c r="H24" s="17">
         <v>140</v>
       </c>
@@ -3398,7 +3404,7 @@
         <v>63</v>
       </c>
       <c r="F25" s="107"/>
-      <c r="G25" s="143"/>
+      <c r="G25" s="146"/>
       <c r="H25" s="17">
         <v>140</v>
       </c>
@@ -3419,7 +3425,7 @@
         <v>66</v>
       </c>
       <c r="F26" s="107"/>
-      <c r="G26" s="143"/>
+      <c r="G26" s="146"/>
       <c r="H26" s="17">
         <v>140</v>
       </c>
@@ -3440,7 +3446,7 @@
         <v>69</v>
       </c>
       <c r="F27" s="107"/>
-      <c r="G27" s="143"/>
+      <c r="G27" s="146"/>
       <c r="H27" s="17">
         <v>140</v>
       </c>
@@ -3460,7 +3466,7 @@
         <v>72</v>
       </c>
       <c r="F28" s="107"/>
-      <c r="G28" s="143"/>
+      <c r="G28" s="146"/>
       <c r="H28" s="17">
         <v>140</v>
       </c>
@@ -3480,7 +3486,7 @@
         <v>75</v>
       </c>
       <c r="F29" s="107"/>
-      <c r="G29" s="143"/>
+      <c r="G29" s="146"/>
       <c r="H29" s="17">
         <v>140</v>
       </c>
@@ -3500,7 +3506,7 @@
         <v>75</v>
       </c>
       <c r="F30" s="107"/>
-      <c r="G30" s="143"/>
+      <c r="G30" s="146"/>
       <c r="H30" s="17">
         <v>140</v>
       </c>
@@ -3520,7 +3526,7 @@
         <v>94</v>
       </c>
       <c r="F31" s="107"/>
-      <c r="G31" s="143"/>
+      <c r="G31" s="146"/>
       <c r="H31" s="17">
         <v>140</v>
       </c>
@@ -3538,7 +3544,7 @@
         <v>96</v>
       </c>
       <c r="F32" s="41"/>
-      <c r="G32" s="144"/>
+      <c r="G32" s="147"/>
       <c r="H32" s="28">
         <v>140</v>
       </c>
@@ -3586,16 +3592,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12.6" customHeight="1">
-      <c r="A1" s="140" t="s">
+      <c r="A1" s="143" t="s">
         <v>97</v>
       </c>
-      <c r="B1" s="140"/>
-      <c r="C1" s="140"/>
-      <c r="D1" s="140"/>
-      <c r="E1" s="140"/>
-      <c r="F1" s="140"/>
-      <c r="G1" s="140"/>
-      <c r="H1" s="140"/>
+      <c r="B1" s="143"/>
+      <c r="C1" s="143"/>
+      <c r="D1" s="143"/>
+      <c r="E1" s="143"/>
+      <c r="F1" s="143"/>
+      <c r="G1" s="143"/>
+      <c r="H1" s="143"/>
     </row>
     <row r="2" spans="1:10" ht="15">
       <c r="A2" s="3" t="s">
@@ -3639,7 +3645,7 @@
       <c r="F3" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="G3" s="141" t="s">
+      <c r="G3" s="144" t="s">
         <v>11</v>
       </c>
       <c r="H3" s="11">
@@ -3662,7 +3668,7 @@
       <c r="F4" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="G4" s="141"/>
+      <c r="G4" s="144"/>
       <c r="H4" s="17">
         <v>140</v>
       </c>
@@ -3683,7 +3689,7 @@
       <c r="F5" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="G5" s="141"/>
+      <c r="G5" s="144"/>
       <c r="H5" s="17">
         <v>140</v>
       </c>
@@ -3705,7 +3711,7 @@
       <c r="F6" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="G6" s="141"/>
+      <c r="G6" s="144"/>
       <c r="H6" s="17">
         <v>140</v>
       </c>
@@ -3727,7 +3733,7 @@
       <c r="F7" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="G7" s="141"/>
+      <c r="G7" s="144"/>
       <c r="H7" s="17">
         <v>140</v>
       </c>
@@ -3749,7 +3755,7 @@
       <c r="F8" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="G8" s="141"/>
+      <c r="G8" s="144"/>
       <c r="H8" s="17">
         <v>140</v>
       </c>
@@ -3771,7 +3777,7 @@
       <c r="F9" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="G9" s="141"/>
+      <c r="G9" s="144"/>
       <c r="H9" s="17">
         <v>140</v>
       </c>
@@ -3792,7 +3798,7 @@
       <c r="F10" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="G10" s="141"/>
+      <c r="G10" s="144"/>
       <c r="H10" s="17">
         <v>140</v>
       </c>
@@ -3813,7 +3819,7 @@
       <c r="F11" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="G11" s="141"/>
+      <c r="G11" s="144"/>
       <c r="H11" s="17">
         <v>140</v>
       </c>
@@ -3834,7 +3840,7 @@
       <c r="F12" s="41" t="s">
         <v>110</v>
       </c>
-      <c r="G12" s="141"/>
+      <c r="G12" s="144"/>
       <c r="H12" s="17">
         <v>140</v>
       </c>
@@ -3856,7 +3862,7 @@
       <c r="F13" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="G13" s="141" t="s">
+      <c r="G13" s="144" t="s">
         <v>31</v>
       </c>
       <c r="H13" s="17">
@@ -3881,7 +3887,7 @@
       <c r="F14" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="G14" s="141"/>
+      <c r="G14" s="144"/>
       <c r="H14" s="17">
         <v>140</v>
       </c>
@@ -3904,7 +3910,7 @@
       <c r="F15" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="G15" s="141"/>
+      <c r="G15" s="144"/>
       <c r="H15" s="17">
         <v>140</v>
       </c>
@@ -3926,7 +3932,7 @@
       <c r="F16" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="G16" s="141"/>
+      <c r="G16" s="144"/>
       <c r="H16" s="17">
         <v>140</v>
       </c>
@@ -3951,7 +3957,7 @@
       <c r="F17" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="G17" s="141"/>
+      <c r="G17" s="144"/>
       <c r="H17" s="17">
         <v>140</v>
       </c>
@@ -3976,7 +3982,7 @@
       <c r="F18" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="G18" s="141"/>
+      <c r="G18" s="144"/>
       <c r="H18" s="17">
         <v>140</v>
       </c>
@@ -4001,7 +4007,7 @@
       <c r="F19" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="G19" s="141"/>
+      <c r="G19" s="144"/>
       <c r="H19" s="17">
         <v>140</v>
       </c>
@@ -4026,7 +4032,7 @@
       <c r="F20" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="G20" s="141"/>
+      <c r="G20" s="144"/>
       <c r="H20" s="17">
         <v>140</v>
       </c>
@@ -4051,7 +4057,7 @@
       <c r="F21" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="G21" s="141"/>
+      <c r="G21" s="144"/>
       <c r="H21" s="17">
         <v>140</v>
       </c>
@@ -4076,7 +4082,7 @@
       <c r="F22" s="41" t="s">
         <v>110</v>
       </c>
-      <c r="G22" s="141"/>
+      <c r="G22" s="144"/>
       <c r="H22" s="17">
         <v>140</v>
       </c>
@@ -4104,7 +4110,7 @@
       <c r="F23" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="G23" s="141" t="s">
+      <c r="G23" s="144" t="s">
         <v>42</v>
       </c>
       <c r="H23" s="17">
@@ -4131,7 +4137,7 @@
       <c r="F24" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="G24" s="141"/>
+      <c r="G24" s="144"/>
       <c r="H24" s="17">
         <v>140</v>
       </c>
@@ -4156,7 +4162,7 @@
       <c r="F25" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="G25" s="141"/>
+      <c r="G25" s="144"/>
       <c r="H25" s="17">
         <v>140</v>
       </c>
@@ -4181,7 +4187,7 @@
       <c r="F26" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="G26" s="141"/>
+      <c r="G26" s="144"/>
       <c r="H26" s="17">
         <v>140</v>
       </c>
@@ -4206,7 +4212,7 @@
       <c r="F27" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="G27" s="141"/>
+      <c r="G27" s="144"/>
       <c r="H27" s="17">
         <v>140</v>
       </c>
@@ -4230,7 +4236,7 @@
       <c r="F28" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="G28" s="141"/>
+      <c r="G28" s="144"/>
       <c r="H28" s="17">
         <v>140</v>
       </c>
@@ -4254,7 +4260,7 @@
       <c r="F29" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="G29" s="141"/>
+      <c r="G29" s="144"/>
       <c r="H29" s="17">
         <v>140</v>
       </c>
@@ -4278,7 +4284,7 @@
       <c r="F30" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="G30" s="141"/>
+      <c r="G30" s="144"/>
       <c r="H30" s="17">
         <v>140</v>
       </c>
@@ -4302,7 +4308,7 @@
       <c r="F31" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="G31" s="141"/>
+      <c r="G31" s="144"/>
       <c r="H31" s="17">
         <v>140</v>
       </c>
@@ -4322,7 +4328,7 @@
       <c r="F32" s="41" t="s">
         <v>110</v>
       </c>
-      <c r="G32" s="141"/>
+      <c r="G32" s="144"/>
       <c r="H32" s="28">
         <v>140</v>
       </c>
@@ -4377,16 +4383,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="145" t="s">
+      <c r="A1" s="148" t="s">
         <v>116</v>
       </c>
-      <c r="B1" s="145"/>
-      <c r="C1" s="145"/>
-      <c r="D1" s="145"/>
-      <c r="E1" s="145"/>
-      <c r="F1" s="145"/>
-      <c r="G1" s="145"/>
-      <c r="H1" s="145"/>
+      <c r="B1" s="148"/>
+      <c r="C1" s="148"/>
+      <c r="D1" s="148"/>
+      <c r="E1" s="148"/>
+      <c r="F1" s="148"/>
+      <c r="G1" s="148"/>
+      <c r="H1" s="148"/>
     </row>
     <row r="2" spans="1:10" ht="15">
       <c r="A2" s="68" t="s">
@@ -4425,7 +4431,7 @@
       <c r="F3" s="33" t="s">
         <v>100</v>
       </c>
-      <c r="G3" s="139" t="s">
+      <c r="G3" s="142" t="s">
         <v>11</v>
       </c>
       <c r="H3" s="33">
@@ -4448,7 +4454,7 @@
       <c r="F4" s="36" t="s">
         <v>101</v>
       </c>
-      <c r="G4" s="139"/>
+      <c r="G4" s="142"/>
       <c r="H4" s="36">
         <v>120</v>
       </c>
@@ -4469,7 +4475,7 @@
       <c r="F5" s="36" t="s">
         <v>102</v>
       </c>
-      <c r="G5" s="139"/>
+      <c r="G5" s="142"/>
       <c r="H5" s="36">
         <v>120</v>
       </c>
@@ -4490,7 +4496,7 @@
       <c r="F6" s="36" t="s">
         <v>103</v>
       </c>
-      <c r="G6" s="139"/>
+      <c r="G6" s="142"/>
       <c r="H6" s="36">
         <v>120</v>
       </c>
@@ -4511,7 +4517,7 @@
       <c r="F7" s="36" t="s">
         <v>104</v>
       </c>
-      <c r="G7" s="139"/>
+      <c r="G7" s="142"/>
       <c r="H7" s="36">
         <v>120</v>
       </c>
@@ -4532,7 +4538,7 @@
       <c r="F8" s="36" t="s">
         <v>105</v>
       </c>
-      <c r="G8" s="139"/>
+      <c r="G8" s="142"/>
       <c r="H8" s="36">
         <v>120</v>
       </c>
@@ -4553,7 +4559,7 @@
       <c r="F9" s="36" t="s">
         <v>106</v>
       </c>
-      <c r="G9" s="139"/>
+      <c r="G9" s="142"/>
       <c r="H9" s="36">
         <v>120</v>
       </c>
@@ -4573,7 +4579,7 @@
       <c r="F10" s="36" t="s">
         <v>108</v>
       </c>
-      <c r="G10" s="139"/>
+      <c r="G10" s="142"/>
       <c r="H10" s="36">
         <v>120</v>
       </c>
@@ -4593,7 +4599,7 @@
       <c r="F11" s="36" t="s">
         <v>109</v>
       </c>
-      <c r="G11" s="139"/>
+      <c r="G11" s="142"/>
       <c r="H11" s="36">
         <v>120</v>
       </c>
@@ -4614,7 +4620,7 @@
       <c r="F12" s="44" t="s">
         <v>110</v>
       </c>
-      <c r="G12" s="139"/>
+      <c r="G12" s="142"/>
       <c r="H12" s="36">
         <v>120</v>
       </c>
@@ -4642,7 +4648,7 @@
       <c r="F13" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="G13" s="139" t="s">
+      <c r="G13" s="142" t="s">
         <v>31</v>
       </c>
       <c r="H13" s="36">
@@ -4666,7 +4672,7 @@
       <c r="F14" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="G14" s="139"/>
+      <c r="G14" s="142"/>
       <c r="H14" s="36">
         <v>120</v>
       </c>
@@ -4688,7 +4694,7 @@
       <c r="F15" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="G15" s="139"/>
+      <c r="G15" s="142"/>
       <c r="H15" s="36">
         <v>120</v>
       </c>
@@ -4710,7 +4716,7 @@
       <c r="F16" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="G16" s="139"/>
+      <c r="G16" s="142"/>
       <c r="H16" s="36">
         <v>120</v>
       </c>
@@ -4735,7 +4741,7 @@
       <c r="F17" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="G17" s="139"/>
+      <c r="G17" s="142"/>
       <c r="H17" s="36">
         <v>120</v>
       </c>
@@ -4760,7 +4766,7 @@
       <c r="F18" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="G18" s="139"/>
+      <c r="G18" s="142"/>
       <c r="H18" s="36">
         <v>120</v>
       </c>
@@ -4785,7 +4791,7 @@
       <c r="F19" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="G19" s="139"/>
+      <c r="G19" s="142"/>
       <c r="H19" s="36">
         <v>120</v>
       </c>
@@ -4810,7 +4816,7 @@
       <c r="F20" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="G20" s="139"/>
+      <c r="G20" s="142"/>
       <c r="H20" s="36">
         <v>120</v>
       </c>
@@ -4835,7 +4841,7 @@
       <c r="F21" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="G21" s="139"/>
+      <c r="G21" s="142"/>
       <c r="H21" s="36">
         <v>120</v>
       </c>
@@ -4860,7 +4866,7 @@
       <c r="F22" s="41" t="s">
         <v>110</v>
       </c>
-      <c r="G22" s="139"/>
+      <c r="G22" s="142"/>
       <c r="H22" s="36">
         <v>120</v>
       </c>
@@ -4891,7 +4897,7 @@
       <c r="F23" s="33" t="s">
         <v>100</v>
       </c>
-      <c r="G23" s="139" t="s">
+      <c r="G23" s="142" t="s">
         <v>42</v>
       </c>
       <c r="H23" s="36">
@@ -4918,7 +4924,7 @@
       <c r="F24" s="36" t="s">
         <v>101</v>
       </c>
-      <c r="G24" s="139"/>
+      <c r="G24" s="142"/>
       <c r="H24" s="36">
         <v>120</v>
       </c>
@@ -4943,7 +4949,7 @@
       <c r="F25" s="36" t="s">
         <v>102</v>
       </c>
-      <c r="G25" s="139"/>
+      <c r="G25" s="142"/>
       <c r="H25" s="36">
         <v>120</v>
       </c>
@@ -4968,7 +4974,7 @@
       <c r="F26" s="36" t="s">
         <v>103</v>
       </c>
-      <c r="G26" s="139"/>
+      <c r="G26" s="142"/>
       <c r="H26" s="36">
         <v>120</v>
       </c>
@@ -4993,7 +4999,7 @@
       <c r="F27" s="36" t="s">
         <v>104</v>
       </c>
-      <c r="G27" s="139"/>
+      <c r="G27" s="142"/>
       <c r="H27" s="36">
         <v>120</v>
       </c>
@@ -5017,7 +5023,7 @@
       <c r="F28" s="36" t="s">
         <v>105</v>
       </c>
-      <c r="G28" s="139"/>
+      <c r="G28" s="142"/>
       <c r="H28" s="36">
         <v>120</v>
       </c>
@@ -5041,7 +5047,7 @@
       <c r="F29" s="36" t="s">
         <v>106</v>
       </c>
-      <c r="G29" s="139"/>
+      <c r="G29" s="142"/>
       <c r="H29" s="36">
         <v>120</v>
       </c>
@@ -5065,7 +5071,7 @@
       <c r="F30" s="36" t="s">
         <v>108</v>
       </c>
-      <c r="G30" s="139"/>
+      <c r="G30" s="142"/>
       <c r="H30" s="36">
         <v>120</v>
       </c>
@@ -5089,7 +5095,7 @@
       <c r="F31" s="36" t="s">
         <v>109</v>
       </c>
-      <c r="G31" s="139"/>
+      <c r="G31" s="142"/>
       <c r="H31" s="36">
         <v>120</v>
       </c>
@@ -5111,7 +5117,7 @@
       <c r="F32" s="77" t="s">
         <v>110</v>
       </c>
-      <c r="G32" s="139"/>
+      <c r="G32" s="142"/>
       <c r="H32" s="77">
         <v>120</v>
       </c>
@@ -5182,15 +5188,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="145" t="s">
+      <c r="A1" s="148" t="s">
         <v>128</v>
       </c>
-      <c r="B1" s="145"/>
-      <c r="C1" s="145"/>
-      <c r="D1" s="145"/>
-      <c r="E1" s="145"/>
-      <c r="F1" s="145"/>
-      <c r="G1" s="145"/>
+      <c r="B1" s="148"/>
+      <c r="C1" s="148"/>
+      <c r="D1" s="148"/>
+      <c r="E1" s="148"/>
+      <c r="F1" s="148"/>
+      <c r="G1" s="148"/>
     </row>
     <row r="2" spans="1:9" ht="15">
       <c r="A2" s="68" t="s">
@@ -5231,7 +5237,7 @@
       <c r="F3" s="10">
         <v>5</v>
       </c>
-      <c r="G3" s="139" t="s">
+      <c r="G3" s="142" t="s">
         <v>11</v>
       </c>
     </row>
@@ -5250,7 +5256,7 @@
       <c r="F4" s="2">
         <v>5</v>
       </c>
-      <c r="G4" s="139"/>
+      <c r="G4" s="142"/>
     </row>
     <row r="5" spans="1:9" ht="15">
       <c r="A5" s="62" t="s">
@@ -5267,7 +5273,7 @@
       <c r="F5" s="2">
         <v>5</v>
       </c>
-      <c r="G5" s="139"/>
+      <c r="G5" s="142"/>
     </row>
     <row r="6" spans="1:9" ht="15">
       <c r="A6" s="62" t="s">
@@ -5284,7 +5290,7 @@
       <c r="F6" s="2">
         <v>5</v>
       </c>
-      <c r="G6" s="139"/>
+      <c r="G6" s="142"/>
     </row>
     <row r="7" spans="1:9" ht="15">
       <c r="A7" s="62" t="s">
@@ -5301,7 +5307,7 @@
       <c r="F7" s="2">
         <v>5</v>
       </c>
-      <c r="G7" s="139"/>
+      <c r="G7" s="142"/>
     </row>
     <row r="8" spans="1:9" ht="15">
       <c r="A8" s="62" t="s">
@@ -5318,7 +5324,7 @@
       <c r="F8" s="2">
         <v>5</v>
       </c>
-      <c r="G8" s="139"/>
+      <c r="G8" s="142"/>
     </row>
     <row r="9" spans="1:9" ht="15">
       <c r="A9" s="62" t="s">
@@ -5335,7 +5341,7 @@
       <c r="F9" s="2">
         <v>5</v>
       </c>
-      <c r="G9" s="139"/>
+      <c r="G9" s="142"/>
       <c r="H9" s="2"/>
     </row>
     <row r="10" spans="1:9" ht="15">
@@ -5353,7 +5359,7 @@
       <c r="F10" s="2">
         <v>5</v>
       </c>
-      <c r="G10" s="139"/>
+      <c r="G10" s="142"/>
       <c r="H10" s="2"/>
     </row>
     <row r="11" spans="1:9" ht="15">
@@ -5373,7 +5379,7 @@
       <c r="F11" s="89" t="s">
         <v>100</v>
       </c>
-      <c r="G11" s="146" t="s">
+      <c r="G11" s="149" t="s">
         <v>31</v>
       </c>
       <c r="H11" s="2"/>
@@ -5395,7 +5401,7 @@
       <c r="F12" s="94" t="s">
         <v>101</v>
       </c>
-      <c r="G12" s="146"/>
+      <c r="G12" s="149"/>
       <c r="H12" s="2"/>
     </row>
     <row r="13" spans="1:9" ht="15">
@@ -5415,7 +5421,7 @@
       <c r="F13" s="94" t="s">
         <v>102</v>
       </c>
-      <c r="G13" s="146"/>
+      <c r="G13" s="149"/>
       <c r="H13" s="2"/>
     </row>
     <row r="14" spans="1:9" ht="15">
@@ -5437,7 +5443,7 @@
       <c r="F14" s="94" t="s">
         <v>103</v>
       </c>
-      <c r="G14" s="146"/>
+      <c r="G14" s="149"/>
       <c r="H14" s="71">
         <v>43371</v>
       </c>
@@ -5464,7 +5470,7 @@
       <c r="F15" s="94" t="s">
         <v>104</v>
       </c>
-      <c r="G15" s="146"/>
+      <c r="G15" s="149"/>
       <c r="H15" s="2"/>
     </row>
     <row r="16" spans="1:9" ht="15">
@@ -5486,7 +5492,7 @@
       <c r="F16" s="94" t="s">
         <v>105</v>
       </c>
-      <c r="G16" s="146"/>
+      <c r="G16" s="149"/>
       <c r="H16" s="2"/>
     </row>
     <row r="17" spans="1:9" ht="15">
@@ -5508,7 +5514,7 @@
       <c r="F17" s="94" t="s">
         <v>106</v>
       </c>
-      <c r="G17" s="146"/>
+      <c r="G17" s="149"/>
       <c r="H17" s="2"/>
     </row>
     <row r="18" spans="1:9" ht="15">
@@ -5530,7 +5536,7 @@
       <c r="F18" s="50" t="s">
         <v>108</v>
       </c>
-      <c r="G18" s="146"/>
+      <c r="G18" s="149"/>
       <c r="H18" s="71">
         <v>43409</v>
       </c>
@@ -5555,7 +5561,7 @@
       <c r="F19" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="G19" s="139" t="s">
+      <c r="G19" s="142" t="s">
         <v>42</v>
       </c>
       <c r="H19" s="2"/>
@@ -5579,7 +5585,7 @@
       <c r="F20" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="G20" s="139"/>
+      <c r="G20" s="142"/>
       <c r="H20" s="2"/>
     </row>
     <row r="21" spans="1:9" ht="15">
@@ -5601,7 +5607,7 @@
       <c r="F21" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="G21" s="139"/>
+      <c r="G21" s="142"/>
       <c r="H21" s="2"/>
     </row>
     <row r="22" spans="1:9" ht="15">
@@ -5623,7 +5629,7 @@
       <c r="F22" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="G22" s="139"/>
+      <c r="G22" s="142"/>
       <c r="H22" s="65">
         <v>43448</v>
       </c>
@@ -5650,7 +5656,7 @@
       <c r="F23" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="G23" s="139"/>
+      <c r="G23" s="142"/>
       <c r="H23" s="2"/>
     </row>
     <row r="24" spans="1:9" ht="15">
@@ -5672,7 +5678,7 @@
       <c r="F24" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="G24" s="139"/>
+      <c r="G24" s="142"/>
       <c r="H24" s="2"/>
     </row>
     <row r="25" spans="1:9" ht="15">
@@ -5692,7 +5698,7 @@
       <c r="F25" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="G25" s="139"/>
+      <c r="G25" s="142"/>
     </row>
     <row r="26" spans="1:9" ht="15">
       <c r="A26" s="64" t="s">
@@ -5711,7 +5717,7 @@
       <c r="F26" s="41" t="s">
         <v>108</v>
       </c>
-      <c r="G26" s="139"/>
+      <c r="G26" s="142"/>
       <c r="I26" s="2">
         <v>600</v>
       </c>
@@ -5762,16 +5768,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="147" t="s">
+      <c r="A1" s="150" t="s">
         <v>145</v>
       </c>
-      <c r="B1" s="147"/>
-      <c r="C1" s="147"/>
-      <c r="D1" s="147"/>
-      <c r="E1" s="147"/>
-      <c r="F1" s="147"/>
-      <c r="G1" s="147"/>
-      <c r="H1" s="147"/>
+      <c r="B1" s="150"/>
+      <c r="C1" s="150"/>
+      <c r="D1" s="150"/>
+      <c r="E1" s="150"/>
+      <c r="F1" s="150"/>
+      <c r="G1" s="150"/>
+      <c r="H1" s="150"/>
     </row>
     <row r="2" spans="1:11" ht="15">
       <c r="A2" s="30" t="s">
@@ -5811,13 +5817,13 @@
       <c r="F3" s="2">
         <v>5</v>
       </c>
-      <c r="G3" s="147" t="s">
+      <c r="G3" s="150" t="s">
         <v>147</v>
       </c>
-      <c r="J3" s="148" t="s">
+      <c r="J3" s="151" t="s">
         <v>148</v>
       </c>
-      <c r="K3" s="148"/>
+      <c r="K3" s="151"/>
     </row>
     <row r="4" spans="1:11" ht="15">
       <c r="A4" s="80" t="s">
@@ -5832,7 +5838,7 @@
       <c r="F4" s="2">
         <v>5</v>
       </c>
-      <c r="G4" s="147"/>
+      <c r="G4" s="150"/>
       <c r="J4" t="s">
         <v>149</v>
       </c>
@@ -5854,7 +5860,7 @@
       <c r="F5" s="2">
         <v>5</v>
       </c>
-      <c r="G5" s="147"/>
+      <c r="G5" s="150"/>
       <c r="J5" t="s">
         <v>150</v>
       </c>
@@ -5876,7 +5882,7 @@
       <c r="F6" s="2">
         <v>5</v>
       </c>
-      <c r="G6" s="147"/>
+      <c r="G6" s="150"/>
       <c r="J6" t="s">
         <v>151</v>
       </c>
@@ -5898,7 +5904,7 @@
       <c r="F7" s="10">
         <v>5</v>
       </c>
-      <c r="G7" s="141" t="s">
+      <c r="G7" s="144" t="s">
         <v>11</v>
       </c>
       <c r="J7" t="s">
@@ -5922,7 +5928,7 @@
       <c r="F8" s="2">
         <v>5</v>
       </c>
-      <c r="G8" s="141"/>
+      <c r="G8" s="144"/>
       <c r="J8" t="s">
         <v>153</v>
       </c>
@@ -5944,7 +5950,7 @@
       <c r="F9" s="2">
         <v>5</v>
       </c>
-      <c r="G9" s="141"/>
+      <c r="G9" s="144"/>
       <c r="J9" t="s">
         <v>154</v>
       </c>
@@ -5966,7 +5972,7 @@
       <c r="F10" s="2">
         <v>5</v>
       </c>
-      <c r="G10" s="141"/>
+      <c r="G10" s="144"/>
       <c r="J10" t="s">
         <v>155</v>
       </c>
@@ -5988,7 +5994,7 @@
       <c r="F11" s="2">
         <v>5</v>
       </c>
-      <c r="G11" s="141"/>
+      <c r="G11" s="144"/>
       <c r="J11" t="s">
         <v>156</v>
       </c>
@@ -6010,7 +6016,7 @@
       <c r="F12" s="2">
         <v>5</v>
       </c>
-      <c r="G12" s="141"/>
+      <c r="G12" s="144"/>
       <c r="J12" t="s">
         <v>157</v>
       </c>
@@ -6032,7 +6038,7 @@
       <c r="F13" s="2">
         <v>5</v>
       </c>
-      <c r="G13" s="141"/>
+      <c r="G13" s="144"/>
     </row>
     <row r="14" spans="1:11" ht="15">
       <c r="A14" s="58" t="s">
@@ -6047,7 +6053,7 @@
       <c r="F14" s="41">
         <v>5</v>
       </c>
-      <c r="G14" s="141"/>
+      <c r="G14" s="144"/>
     </row>
     <row r="15" spans="1:11" ht="15">
       <c r="A15" s="52" t="s">
@@ -6062,7 +6068,7 @@
       <c r="F15" s="10">
         <v>1</v>
       </c>
-      <c r="G15" s="141" t="s">
+      <c r="G15" s="144" t="s">
         <v>31</v>
       </c>
     </row>
@@ -6081,7 +6087,7 @@
       <c r="F16" s="2">
         <v>2</v>
       </c>
-      <c r="G16" s="141"/>
+      <c r="G16" s="144"/>
     </row>
     <row r="17" spans="1:10" ht="15">
       <c r="A17" s="56" t="s">
@@ -6098,7 +6104,7 @@
       <c r="F17" s="2">
         <v>3</v>
       </c>
-      <c r="G17" s="141"/>
+      <c r="G17" s="144"/>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
     </row>
@@ -6117,7 +6123,7 @@
       <c r="F18" s="2">
         <v>4</v>
       </c>
-      <c r="G18" s="141"/>
+      <c r="G18" s="144"/>
     </row>
     <row r="19" spans="1:10" ht="15">
       <c r="A19" s="62" t="s">
@@ -6135,7 +6141,7 @@
       <c r="F19" s="2">
         <v>5</v>
       </c>
-      <c r="G19" s="141"/>
+      <c r="G19" s="144"/>
     </row>
     <row r="20" spans="1:10" ht="15">
       <c r="A20" s="62" t="s">
@@ -6153,7 +6159,7 @@
       <c r="F20" s="2">
         <v>6</v>
       </c>
-      <c r="G20" s="141"/>
+      <c r="G20" s="144"/>
     </row>
     <row r="21" spans="1:10" ht="15">
       <c r="A21" s="62" t="s">
@@ -6171,7 +6177,7 @@
       <c r="F21" s="2">
         <v>7</v>
       </c>
-      <c r="G21" s="141"/>
+      <c r="G21" s="144"/>
     </row>
     <row r="22" spans="1:10" ht="15">
       <c r="A22" s="64" t="s">
@@ -6190,7 +6196,7 @@
       <c r="F22" s="41">
         <v>8</v>
       </c>
-      <c r="G22" s="141"/>
+      <c r="G22" s="144"/>
     </row>
     <row r="23" spans="1:10" ht="15">
       <c r="A23" s="60" t="s">
@@ -6209,7 +6215,7 @@
       <c r="F23" s="10">
         <v>1</v>
       </c>
-      <c r="G23" s="141" t="s">
+      <c r="G23" s="144" t="s">
         <v>42</v>
       </c>
     </row>
@@ -6232,7 +6238,7 @@
       <c r="F24" s="2">
         <v>2</v>
       </c>
-      <c r="G24" s="141"/>
+      <c r="G24" s="144"/>
     </row>
     <row r="25" spans="1:10" ht="15">
       <c r="A25" s="62" t="s">
@@ -6253,7 +6259,7 @@
       <c r="F25" s="2">
         <v>3</v>
       </c>
-      <c r="G25" s="141"/>
+      <c r="G25" s="144"/>
     </row>
     <row r="26" spans="1:10" ht="15">
       <c r="A26" s="62" t="s">
@@ -6274,7 +6280,7 @@
       <c r="F26" s="2">
         <v>4</v>
       </c>
-      <c r="G26" s="141"/>
+      <c r="G26" s="144"/>
       <c r="H26" s="2" t="s">
         <v>162</v>
       </c>
@@ -6298,7 +6304,7 @@
       <c r="F27" s="2">
         <v>5</v>
       </c>
-      <c r="G27" s="141"/>
+      <c r="G27" s="144"/>
     </row>
     <row r="28" spans="1:10" ht="15">
       <c r="A28" s="62" t="s">
@@ -6319,7 +6325,7 @@
       <c r="F28" s="2">
         <v>6</v>
       </c>
-      <c r="G28" s="141"/>
+      <c r="G28" s="144"/>
     </row>
     <row r="29" spans="1:10" ht="15">
       <c r="A29" s="62" t="s">
@@ -6340,7 +6346,7 @@
       <c r="F29" s="2">
         <v>7</v>
       </c>
-      <c r="G29" s="141"/>
+      <c r="G29" s="144"/>
     </row>
     <row r="30" spans="1:10" ht="15">
       <c r="A30" s="64" t="s">
@@ -6361,7 +6367,7 @@
       <c r="F30" s="41">
         <v>8</v>
       </c>
-      <c r="G30" s="141"/>
+      <c r="G30" s="144"/>
       <c r="H30" s="71">
         <v>43396</v>
       </c>

--- a/Cronograma aulas/Aulas v2.xlsx
+++ b/Cronograma aulas/Aulas v2.xlsx
@@ -1342,11 +1342,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1798,7 +1798,7 @@
   <dimension ref="A1:H30"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="C22" sqref="C22:C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="14.25"/>
@@ -2146,7 +2146,7 @@
         <v>20</v>
       </c>
       <c r="B18" s="126">
-        <v>43717</v>
+        <v>43713</v>
       </c>
       <c r="C18" s="23"/>
       <c r="D18" s="12" t="s">
@@ -2165,8 +2165,8 @@
       <c r="A19" s="113" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="140">
-        <v>43749</v>
+      <c r="B19" s="126">
+        <v>43747</v>
       </c>
       <c r="C19" s="24"/>
       <c r="D19" s="12" t="s">
@@ -2180,13 +2180,13 @@
       <c r="H19" s="25"/>
     </row>
     <row r="20" spans="1:8" s="27" customFormat="1">
-      <c r="A20" s="138" t="s">
+      <c r="A20" s="114" t="s">
         <v>24</v>
       </c>
-      <c r="B20" s="141">
-        <v>43754</v>
-      </c>
-      <c r="C20" s="139"/>
+      <c r="B20" s="131">
+        <v>43749</v>
+      </c>
+      <c r="C20" s="77"/>
       <c r="D20" s="40" t="s">
         <v>41</v>
       </c>
@@ -2267,6 +2267,9 @@
       <c r="A25" s="113" t="s">
         <v>18</v>
       </c>
+      <c r="B25" s="126">
+        <v>43773</v>
+      </c>
       <c r="C25" s="23"/>
       <c r="D25" s="37"/>
       <c r="E25" s="37"/>
@@ -2279,7 +2282,9 @@
       <c r="A26" s="113" t="s">
         <v>20</v>
       </c>
-      <c r="B26" s="126"/>
+      <c r="B26" s="126">
+        <v>43775</v>
+      </c>
       <c r="C26" s="23"/>
       <c r="D26" s="37"/>
       <c r="E26" s="37"/>
@@ -2363,7 +2368,7 @@
   <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17:C17"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="14.25"/>
@@ -2685,7 +2690,7 @@
         <v>22</v>
       </c>
       <c r="B17" s="128">
-        <v>43708</v>
+        <v>43691</v>
       </c>
       <c r="C17" s="36"/>
       <c r="D17" s="17" t="s">
@@ -2705,7 +2710,7 @@
         <v>24</v>
       </c>
       <c r="B18" s="131">
-        <v>43722</v>
+        <v>43729</v>
       </c>
       <c r="C18" s="23"/>
       <c r="D18" s="15"/>
@@ -2722,8 +2727,8 @@
       <c r="A19" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="B19" s="127">
-        <v>43729</v>
+      <c r="B19" s="126">
+        <v>43736</v>
       </c>
       <c r="C19" s="33"/>
       <c r="D19" s="8"/>
@@ -2741,7 +2746,7 @@
         <v>12</v>
       </c>
       <c r="B20" s="126">
-        <v>43736</v>
+        <v>43743</v>
       </c>
       <c r="C20" s="36"/>
       <c r="D20" s="107"/>
@@ -2757,7 +2762,7 @@
         <v>14</v>
       </c>
       <c r="B21" s="126">
-        <v>43743</v>
+        <v>43750</v>
       </c>
       <c r="C21" s="36"/>
       <c r="D21" s="107"/>
@@ -2773,7 +2778,7 @@
         <v>16</v>
       </c>
       <c r="B22" s="126">
-        <v>43750</v>
+        <v>43757</v>
       </c>
       <c r="C22" s="36"/>
       <c r="D22" s="107"/>
@@ -2789,7 +2794,7 @@
         <v>18</v>
       </c>
       <c r="B23" s="126">
-        <v>43757</v>
+        <v>43764</v>
       </c>
       <c r="C23" s="135"/>
       <c r="D23" s="107"/>
@@ -2804,7 +2809,7 @@
         <v>20</v>
       </c>
       <c r="B24" s="126">
-        <v>43764</v>
+        <v>43771</v>
       </c>
       <c r="C24" s="36"/>
       <c r="D24" s="107"/>
@@ -2818,8 +2823,8 @@
       <c r="A25" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="B25" s="126">
-        <v>43771</v>
+      <c r="B25" s="140">
+        <v>43778</v>
       </c>
       <c r="C25" s="36"/>
       <c r="D25" s="107"/>
@@ -2830,13 +2835,13 @@
       </c>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="18" t="s">
+      <c r="A26" s="138" t="s">
         <v>24</v>
       </c>
-      <c r="B26" s="131">
-        <v>43778</v>
-      </c>
-      <c r="C26" s="44"/>
+      <c r="B26" s="141">
+        <v>43785</v>
+      </c>
+      <c r="C26" s="139"/>
       <c r="D26" s="41"/>
       <c r="E26" s="40"/>
       <c r="F26" s="142"/>

--- a/Cronograma aulas/Aulas v2.xlsx
+++ b/Cronograma aulas/Aulas v2.xlsx
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="713" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="714" uniqueCount="171">
   <si>
     <t>Segunda e Quarta – sala 04 (senha javaweb)</t>
   </si>
@@ -151,9 +151,6 @@
   </si>
   <si>
     <t>Servlet-jsp-v2</t>
-  </si>
-  <si>
-    <t>1º CRUD com JPA</t>
   </si>
   <si>
     <t>Jpa-hello</t>
@@ -565,13 +562,16 @@
     <t>HTML, CSS, JS - Github</t>
   </si>
   <si>
-    <t>Github -Redirecionar, JSP, JSTL c:forEach Git/Github</t>
-  </si>
-  <si>
     <t>Criar DAO - implementar DAO em cima do exercicio Cliente</t>
   </si>
   <si>
     <t>jsp-servlet-jpa</t>
+  </si>
+  <si>
+    <t>Github -Redirecionar, JSP,  Git/Github</t>
+  </si>
+  <si>
+    <t>JSTL c:forEach - 1º CRUD com JPA</t>
   </si>
 </sst>
 </file>
@@ -957,7 +957,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="19" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="152">
+  <cellXfs count="148">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1341,18 +1341,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1798,7 +1786,7 @@
   <dimension ref="A1:H30"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22:C25"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="14.25"/>
@@ -1813,15 +1801,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="142" t="s">
+      <c r="A1" s="138" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="142"/>
-      <c r="C1" s="142"/>
-      <c r="D1" s="142"/>
-      <c r="E1" s="142"/>
-      <c r="F1" s="142"/>
-      <c r="G1" s="142"/>
+      <c r="B1" s="138"/>
+      <c r="C1" s="138"/>
+      <c r="D1" s="138"/>
+      <c r="E1" s="138"/>
+      <c r="F1" s="138"/>
+      <c r="G1" s="138"/>
     </row>
     <row r="2" spans="1:8" ht="15">
       <c r="A2" s="68" t="s">
@@ -1861,7 +1849,7 @@
         <v>10</v>
       </c>
       <c r="E3" s="132"/>
-      <c r="F3" s="142" t="s">
+      <c r="F3" s="138" t="s">
         <v>11</v>
       </c>
       <c r="G3" s="11">
@@ -1882,7 +1870,7 @@
         <v>13</v>
       </c>
       <c r="E4" s="106"/>
-      <c r="F4" s="142"/>
+      <c r="F4" s="138"/>
       <c r="G4" s="17">
         <v>140</v>
       </c>
@@ -1901,7 +1889,7 @@
         <v>15</v>
       </c>
       <c r="E5" s="106"/>
-      <c r="F5" s="142"/>
+      <c r="F5" s="138"/>
       <c r="G5" s="17">
         <v>140</v>
       </c>
@@ -1920,7 +1908,7 @@
         <v>17</v>
       </c>
       <c r="E6" s="107"/>
-      <c r="F6" s="142"/>
+      <c r="F6" s="138"/>
       <c r="G6" s="17">
         <v>140</v>
       </c>
@@ -1939,7 +1927,7 @@
         <v>19</v>
       </c>
       <c r="E7" s="107"/>
-      <c r="F7" s="142"/>
+      <c r="F7" s="138"/>
       <c r="G7" s="17">
         <v>140</v>
       </c>
@@ -1958,7 +1946,7 @@
         <v>21</v>
       </c>
       <c r="E8" s="107"/>
-      <c r="F8" s="142"/>
+      <c r="F8" s="138"/>
       <c r="G8" s="17">
         <v>140</v>
       </c>
@@ -1977,7 +1965,7 @@
         <v>23</v>
       </c>
       <c r="E9" s="107"/>
-      <c r="F9" s="142"/>
+      <c r="F9" s="138"/>
       <c r="G9" s="17">
         <v>140</v>
       </c>
@@ -1996,7 +1984,7 @@
         <v>25</v>
       </c>
       <c r="E10" s="107"/>
-      <c r="F10" s="142"/>
+      <c r="F10" s="138"/>
       <c r="G10" s="17">
         <v>140</v>
       </c>
@@ -2013,7 +2001,7 @@
       </c>
       <c r="D11" s="17"/>
       <c r="E11" s="107"/>
-      <c r="F11" s="142"/>
+      <c r="F11" s="138"/>
       <c r="G11" s="17">
         <v>140</v>
       </c>
@@ -2033,7 +2021,7 @@
         <v>28</v>
       </c>
       <c r="E12" s="20"/>
-      <c r="F12" s="142"/>
+      <c r="F12" s="138"/>
       <c r="G12" s="17">
         <v>140</v>
       </c>
@@ -2053,7 +2041,7 @@
         <v>30</v>
       </c>
       <c r="E13" s="11"/>
-      <c r="F13" s="142" t="s">
+      <c r="F13" s="138" t="s">
         <v>31</v>
       </c>
       <c r="G13" s="17">
@@ -2075,7 +2063,7 @@
         <v>32</v>
       </c>
       <c r="E14" s="17"/>
-      <c r="F14" s="142"/>
+      <c r="F14" s="138"/>
       <c r="G14" s="17">
         <v>140</v>
       </c>
@@ -2095,7 +2083,7 @@
         <v>32</v>
       </c>
       <c r="E15" s="17"/>
-      <c r="F15" s="142"/>
+      <c r="F15" s="138"/>
       <c r="G15" s="17">
         <v>140</v>
       </c>
@@ -2112,10 +2100,10 @@
         <v>29</v>
       </c>
       <c r="D16" s="37" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E16" s="17"/>
-      <c r="F16" s="142"/>
+      <c r="F16" s="138"/>
       <c r="G16" s="17">
         <v>140</v>
       </c>
@@ -2128,14 +2116,16 @@
       <c r="B17" s="126">
         <v>43712</v>
       </c>
-      <c r="C17" s="23"/>
+      <c r="C17" s="36" t="s">
+        <v>29</v>
+      </c>
       <c r="D17" s="37" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E17" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="F17" s="142"/>
+      <c r="F17" s="138"/>
       <c r="G17" s="17">
         <v>140</v>
       </c>
@@ -2146,16 +2136,16 @@
         <v>20</v>
       </c>
       <c r="B18" s="126">
-        <v>43713</v>
+        <v>43717</v>
       </c>
       <c r="C18" s="23"/>
-      <c r="D18" s="12" t="s">
+      <c r="D18" s="37" t="s">
+        <v>170</v>
+      </c>
+      <c r="E18" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="E18" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="F18" s="142"/>
+      <c r="F18" s="138"/>
       <c r="G18" s="17">
         <v>140</v>
       </c>
@@ -2166,14 +2156,14 @@
         <v>22</v>
       </c>
       <c r="B19" s="126">
-        <v>43747</v>
+        <v>43749</v>
       </c>
       <c r="C19" s="24"/>
       <c r="D19" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E19" s="15"/>
-      <c r="F19" s="142"/>
+      <c r="F19" s="138"/>
       <c r="G19" s="15">
         <v>140</v>
       </c>
@@ -2184,14 +2174,14 @@
         <v>24</v>
       </c>
       <c r="B20" s="131">
-        <v>43749</v>
+        <v>43750</v>
       </c>
       <c r="C20" s="77"/>
       <c r="D20" s="40" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E20" s="137"/>
-      <c r="F20" s="142"/>
+      <c r="F20" s="138"/>
       <c r="G20" s="130">
         <v>140</v>
       </c>
@@ -2202,13 +2192,13 @@
         <v>8</v>
       </c>
       <c r="B21" s="126">
-        <v>43759</v>
+        <v>43754</v>
       </c>
       <c r="C21" s="23"/>
       <c r="D21" s="108"/>
       <c r="E21" s="133"/>
-      <c r="F21" s="142" t="s">
-        <v>42</v>
+      <c r="F21" s="138" t="s">
+        <v>41</v>
       </c>
       <c r="G21" s="17">
         <v>140</v>
@@ -2220,12 +2210,12 @@
         <v>12</v>
       </c>
       <c r="B22" s="126">
-        <v>43761</v>
+        <v>43756</v>
       </c>
       <c r="C22" s="23"/>
       <c r="D22" s="12"/>
       <c r="E22" s="37"/>
-      <c r="F22" s="142"/>
+      <c r="F22" s="138"/>
       <c r="G22" s="17">
         <v>140</v>
       </c>
@@ -2236,12 +2226,12 @@
         <v>14</v>
       </c>
       <c r="B23" s="126">
-        <v>43766</v>
+        <v>43761</v>
       </c>
       <c r="C23" s="23"/>
       <c r="D23" s="37"/>
       <c r="E23" s="37"/>
-      <c r="F23" s="142"/>
+      <c r="F23" s="138"/>
       <c r="G23" s="17">
         <v>140</v>
       </c>
@@ -2252,12 +2242,12 @@
         <v>16</v>
       </c>
       <c r="B24" s="126">
-        <v>43768</v>
+        <v>43763</v>
       </c>
       <c r="C24" s="23"/>
       <c r="D24" s="37"/>
       <c r="E24" s="37"/>
-      <c r="F24" s="142"/>
+      <c r="F24" s="138"/>
       <c r="G24" s="17">
         <v>140</v>
       </c>
@@ -2267,13 +2257,11 @@
       <c r="A25" s="113" t="s">
         <v>18</v>
       </c>
-      <c r="B25" s="126">
-        <v>43773</v>
-      </c>
+      <c r="B25" s="126"/>
       <c r="C25" s="23"/>
       <c r="D25" s="37"/>
       <c r="E25" s="37"/>
-      <c r="F25" s="142"/>
+      <c r="F25" s="138"/>
       <c r="G25" s="17">
         <v>140</v>
       </c>
@@ -2282,13 +2270,11 @@
       <c r="A26" s="113" t="s">
         <v>20</v>
       </c>
-      <c r="B26" s="126">
-        <v>43775</v>
-      </c>
+      <c r="B26" s="126"/>
       <c r="C26" s="23"/>
       <c r="D26" s="37"/>
       <c r="E26" s="37"/>
-      <c r="F26" s="142"/>
+      <c r="F26" s="138"/>
       <c r="G26" s="17">
         <v>140</v>
       </c>
@@ -2301,7 +2287,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="37"/>
       <c r="E27" s="37"/>
-      <c r="F27" s="142"/>
+      <c r="F27" s="138"/>
       <c r="G27" s="17">
         <v>140</v>
       </c>
@@ -2314,7 +2300,7 @@
       <c r="C28" s="23"/>
       <c r="D28" s="17"/>
       <c r="E28" s="37"/>
-      <c r="F28" s="142"/>
+      <c r="F28" s="138"/>
       <c r="G28" s="17">
         <v>140</v>
       </c>
@@ -2327,7 +2313,7 @@
       <c r="C29" s="23"/>
       <c r="D29" s="17"/>
       <c r="E29" s="37"/>
-      <c r="F29" s="142"/>
+      <c r="F29" s="138"/>
       <c r="G29" s="17">
         <v>140</v>
       </c>
@@ -2340,7 +2326,7 @@
       <c r="C30" s="123"/>
       <c r="D30" s="28"/>
       <c r="E30" s="134"/>
-      <c r="F30" s="142"/>
+      <c r="F30" s="138"/>
       <c r="G30" s="28">
         <v>140</v>
       </c>
@@ -2368,7 +2354,7 @@
   <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="14.25"/>
@@ -2383,15 +2369,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="142" t="s">
-        <v>43</v>
-      </c>
-      <c r="B1" s="142"/>
-      <c r="C1" s="142"/>
-      <c r="D1" s="142"/>
-      <c r="E1" s="142"/>
-      <c r="F1" s="142"/>
-      <c r="G1" s="142"/>
+      <c r="A1" s="138" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" s="138"/>
+      <c r="C1" s="138"/>
+      <c r="D1" s="138"/>
+      <c r="E1" s="138"/>
+      <c r="F1" s="138"/>
+      <c r="G1" s="138"/>
     </row>
     <row r="2" spans="1:8" ht="15">
       <c r="A2" s="3" t="s">
@@ -2429,7 +2415,7 @@
       </c>
       <c r="D3" s="9"/>
       <c r="E3" s="32"/>
-      <c r="F3" s="142" t="s">
+      <c r="F3" s="138" t="s">
         <v>11</v>
       </c>
       <c r="G3" s="33">
@@ -2448,7 +2434,7 @@
       </c>
       <c r="D4" s="15"/>
       <c r="E4" s="35"/>
-      <c r="F4" s="142"/>
+      <c r="F4" s="138"/>
       <c r="G4" s="36">
         <v>175</v>
       </c>
@@ -2465,7 +2451,7 @@
       </c>
       <c r="D5" s="15"/>
       <c r="E5" s="35"/>
-      <c r="F5" s="142"/>
+      <c r="F5" s="138"/>
       <c r="G5" s="36">
         <v>175</v>
       </c>
@@ -2482,7 +2468,7 @@
       </c>
       <c r="D6" s="17"/>
       <c r="E6" s="37"/>
-      <c r="F6" s="142"/>
+      <c r="F6" s="138"/>
       <c r="G6" s="36">
         <v>175</v>
       </c>
@@ -2499,7 +2485,7 @@
       </c>
       <c r="D7" s="17"/>
       <c r="E7" s="37"/>
-      <c r="F7" s="142"/>
+      <c r="F7" s="138"/>
       <c r="G7" s="36">
         <v>175</v>
       </c>
@@ -2516,7 +2502,7 @@
       </c>
       <c r="D8" s="17"/>
       <c r="E8" s="37"/>
-      <c r="F8" s="142"/>
+      <c r="F8" s="138"/>
       <c r="G8" s="36">
         <v>175</v>
       </c>
@@ -2532,10 +2518,10 @@
         <v>9</v>
       </c>
       <c r="D9" s="38" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E9" s="37"/>
-      <c r="F9" s="142"/>
+      <c r="F9" s="138"/>
       <c r="G9" s="36">
         <v>175</v>
       </c>
@@ -2552,7 +2538,7 @@
       </c>
       <c r="D10" s="39"/>
       <c r="E10" s="40"/>
-      <c r="F10" s="142"/>
+      <c r="F10" s="138"/>
       <c r="G10" s="36">
         <v>175</v>
       </c>
@@ -2568,10 +2554,10 @@
         <v>9</v>
       </c>
       <c r="D11" s="17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E11" s="2"/>
-      <c r="F11" s="142" t="s">
+      <c r="F11" s="138" t="s">
         <v>31</v>
       </c>
       <c r="G11" s="17">
@@ -2593,7 +2579,7 @@
         <v>32</v>
       </c>
       <c r="E12" s="2"/>
-      <c r="F12" s="142"/>
+      <c r="F12" s="138"/>
       <c r="G12" s="17">
         <v>175</v>
       </c>
@@ -2610,10 +2596,10 @@
         <v>9</v>
       </c>
       <c r="D13" s="15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E13" s="2"/>
-      <c r="F13" s="142"/>
+      <c r="F13" s="138"/>
       <c r="G13" s="17">
         <v>175</v>
       </c>
@@ -2630,12 +2616,12 @@
         <v>9</v>
       </c>
       <c r="D14" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="E14" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="E14" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F14" s="142"/>
+      <c r="F14" s="138"/>
       <c r="G14" s="17">
         <v>175</v>
       </c>
@@ -2652,12 +2638,12 @@
         <v>29</v>
       </c>
       <c r="D15" s="15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="F15" s="142"/>
+      <c r="F15" s="138"/>
       <c r="G15" s="17">
         <v>175</v>
       </c>
@@ -2674,12 +2660,12 @@
         <v>29</v>
       </c>
       <c r="D16" s="17" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F16" s="142"/>
+        <v>36</v>
+      </c>
+      <c r="F16" s="138"/>
       <c r="G16" s="17">
         <v>175</v>
       </c>
@@ -2694,12 +2680,12 @@
       </c>
       <c r="C17" s="36"/>
       <c r="D17" s="17" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F17" s="142"/>
+        <v>36</v>
+      </c>
+      <c r="F17" s="138"/>
       <c r="G17" s="17">
         <v>175</v>
       </c>
@@ -2715,9 +2701,9 @@
       <c r="C18" s="23"/>
       <c r="D18" s="15"/>
       <c r="E18" s="136" t="s">
-        <v>170</v>
-      </c>
-      <c r="F18" s="142"/>
+        <v>168</v>
+      </c>
+      <c r="F18" s="138"/>
       <c r="G18" s="17">
         <v>175</v>
       </c>
@@ -2733,8 +2719,8 @@
       <c r="C19" s="33"/>
       <c r="D19" s="8"/>
       <c r="E19" s="6"/>
-      <c r="F19" s="142" t="s">
-        <v>42</v>
+      <c r="F19" s="138" t="s">
+        <v>41</v>
       </c>
       <c r="G19" s="36">
         <v>175</v>
@@ -2751,7 +2737,7 @@
       <c r="C20" s="36"/>
       <c r="D20" s="107"/>
       <c r="E20" s="37"/>
-      <c r="F20" s="142"/>
+      <c r="F20" s="138"/>
       <c r="G20" s="36">
         <v>175</v>
       </c>
@@ -2767,7 +2753,7 @@
       <c r="C21" s="36"/>
       <c r="D21" s="107"/>
       <c r="E21" s="37"/>
-      <c r="F21" s="142"/>
+      <c r="F21" s="138"/>
       <c r="G21" s="36">
         <v>175</v>
       </c>
@@ -2783,7 +2769,7 @@
       <c r="C22" s="36"/>
       <c r="D22" s="107"/>
       <c r="E22" s="37"/>
-      <c r="F22" s="142"/>
+      <c r="F22" s="138"/>
       <c r="G22" s="36">
         <v>175</v>
       </c>
@@ -2799,7 +2785,7 @@
       <c r="C23" s="135"/>
       <c r="D23" s="107"/>
       <c r="E23" s="37"/>
-      <c r="F23" s="142"/>
+      <c r="F23" s="138"/>
       <c r="G23" s="36">
         <v>175</v>
       </c>
@@ -2814,7 +2800,7 @@
       <c r="C24" s="36"/>
       <c r="D24" s="107"/>
       <c r="E24" s="37"/>
-      <c r="F24" s="142"/>
+      <c r="F24" s="138"/>
       <c r="G24" s="36">
         <v>175</v>
       </c>
@@ -2823,28 +2809,28 @@
       <c r="A25" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="B25" s="140">
+      <c r="B25" s="126">
         <v>43778</v>
       </c>
       <c r="C25" s="36"/>
       <c r="D25" s="107"/>
       <c r="E25" s="37"/>
-      <c r="F25" s="142"/>
+      <c r="F25" s="138"/>
       <c r="G25" s="36">
         <v>175</v>
       </c>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="138" t="s">
+      <c r="A26" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="B26" s="141">
+      <c r="B26" s="131">
         <v>43785</v>
       </c>
-      <c r="C26" s="139"/>
+      <c r="C26" s="44"/>
       <c r="D26" s="41"/>
       <c r="E26" s="40"/>
-      <c r="F26" s="142"/>
+      <c r="F26" s="138"/>
       <c r="G26" s="44">
         <v>175</v>
       </c>
@@ -2890,16 +2876,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15">
-      <c r="A1" s="143" t="s">
-        <v>79</v>
-      </c>
-      <c r="B1" s="143"/>
-      <c r="C1" s="143"/>
-      <c r="D1" s="143"/>
-      <c r="E1" s="143"/>
-      <c r="F1" s="143"/>
-      <c r="G1" s="143"/>
-      <c r="H1" s="143"/>
+      <c r="A1" s="139" t="s">
+        <v>78</v>
+      </c>
+      <c r="B1" s="139"/>
+      <c r="C1" s="139"/>
+      <c r="D1" s="139"/>
+      <c r="E1" s="139"/>
+      <c r="F1" s="139"/>
+      <c r="G1" s="139"/>
+      <c r="H1" s="139"/>
     </row>
     <row r="2" spans="1:9" ht="15">
       <c r="A2" s="3" t="s">
@@ -2937,11 +2923,11 @@
         <v>29</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E3" s="10"/>
       <c r="F3" s="10"/>
-      <c r="G3" s="144" t="s">
+      <c r="G3" s="140" t="s">
         <v>11</v>
       </c>
       <c r="H3" s="11">
@@ -2961,7 +2947,7 @@
       <c r="D4" s="45"/>
       <c r="E4" s="16"/>
       <c r="F4" s="2"/>
-      <c r="G4" s="144"/>
+      <c r="G4" s="140"/>
       <c r="H4" s="17">
         <v>140</v>
       </c>
@@ -2979,7 +2965,7 @@
       <c r="D5" s="45"/>
       <c r="E5" s="16"/>
       <c r="F5" s="2"/>
-      <c r="G5" s="144"/>
+      <c r="G5" s="140"/>
       <c r="H5" s="17">
         <v>140</v>
       </c>
@@ -2997,7 +2983,7 @@
       <c r="D6" s="45"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
-      <c r="G6" s="144"/>
+      <c r="G6" s="140"/>
       <c r="H6" s="17">
         <v>140</v>
       </c>
@@ -3017,7 +3003,7 @@
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
-      <c r="G7" s="144"/>
+      <c r="G7" s="140"/>
       <c r="H7" s="17">
         <v>140</v>
       </c>
@@ -3037,7 +3023,7 @@
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
-      <c r="G8" s="144"/>
+      <c r="G8" s="140"/>
       <c r="H8" s="17">
         <v>140</v>
       </c>
@@ -3057,7 +3043,7 @@
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
-      <c r="G9" s="144"/>
+      <c r="G9" s="140"/>
       <c r="H9" s="17">
         <v>140</v>
       </c>
@@ -3077,7 +3063,7 @@
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
-      <c r="G10" s="144"/>
+      <c r="G10" s="140"/>
       <c r="H10" s="17">
         <v>140</v>
       </c>
@@ -3095,7 +3081,7 @@
       <c r="D11" s="17"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
-      <c r="G11" s="144"/>
+      <c r="G11" s="140"/>
       <c r="H11" s="17">
         <v>140</v>
       </c>
@@ -3116,7 +3102,7 @@
       </c>
       <c r="E12" s="20"/>
       <c r="F12" s="41"/>
-      <c r="G12" s="144"/>
+      <c r="G12" s="140"/>
       <c r="H12" s="17">
         <v>140</v>
       </c>
@@ -3126,7 +3112,7 @@
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B13" s="7">
         <v>43542</v>
@@ -3135,11 +3121,11 @@
         <v>29</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E13" s="10"/>
       <c r="F13" s="10"/>
-      <c r="G13" s="144" t="s">
+      <c r="G13" s="140" t="s">
         <v>31</v>
       </c>
       <c r="H13" s="17">
@@ -3149,7 +3135,7 @@
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B14" s="13">
         <v>43544</v>
@@ -3162,7 +3148,7 @@
       </c>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
-      <c r="G14" s="144"/>
+      <c r="G14" s="140"/>
       <c r="H14" s="17">
         <v>140</v>
       </c>
@@ -3170,7 +3156,7 @@
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B15" s="13">
         <v>43551</v>
@@ -3179,11 +3165,11 @@
         <v>29</v>
       </c>
       <c r="D15" s="15" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
-      <c r="G15" s="144"/>
+      <c r="G15" s="140"/>
       <c r="H15" s="17">
         <v>140</v>
       </c>
@@ -3191,7 +3177,7 @@
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B16" s="13">
         <v>43556</v>
@@ -3200,11 +3186,11 @@
         <v>29</v>
       </c>
       <c r="D16" s="17" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
-      <c r="G16" s="144"/>
+      <c r="G16" s="140"/>
       <c r="H16" s="17">
         <v>140</v>
       </c>
@@ -3212,7 +3198,7 @@
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B17" s="13">
         <v>43558</v>
@@ -3221,13 +3207,13 @@
         <v>29</v>
       </c>
       <c r="D17" s="15" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>33</v>
       </c>
       <c r="F17" s="2"/>
-      <c r="G17" s="144"/>
+      <c r="G17" s="140"/>
       <c r="H17" s="17">
         <v>140</v>
       </c>
@@ -3235,7 +3221,7 @@
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B18" s="13">
         <v>43563</v>
@@ -3250,7 +3236,7 @@
         <v>35</v>
       </c>
       <c r="F18" s="2"/>
-      <c r="G18" s="144"/>
+      <c r="G18" s="140"/>
       <c r="H18" s="17">
         <v>140</v>
       </c>
@@ -3258,22 +3244,22 @@
     </row>
     <row r="19" spans="1:9" s="26" customFormat="1">
       <c r="A19" s="46" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B19" s="47">
         <v>43565</v>
       </c>
       <c r="C19" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="D19" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="D19" s="15" t="s">
-        <v>85</v>
-      </c>
       <c r="E19" s="42" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F19" s="42"/>
-      <c r="G19" s="144"/>
+      <c r="G19" s="140"/>
       <c r="H19" s="48">
         <v>140</v>
       </c>
@@ -3281,7 +3267,7 @@
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B20" s="13">
         <v>43570</v>
@@ -3290,13 +3276,13 @@
         <v>29</v>
       </c>
       <c r="D20" s="15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F20" s="2"/>
-      <c r="G20" s="144"/>
+      <c r="G20" s="140"/>
       <c r="H20" s="17">
         <v>140</v>
       </c>
@@ -3304,7 +3290,7 @@
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B21" s="13">
         <v>43577</v>
@@ -3313,13 +3299,13 @@
         <v>29</v>
       </c>
       <c r="D21" s="15" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F21" s="2"/>
-      <c r="G21" s="144"/>
+      <c r="G21" s="140"/>
       <c r="H21" s="17">
         <v>140</v>
       </c>
@@ -3327,7 +3313,7 @@
     </row>
     <row r="22" spans="1:9" ht="15">
       <c r="A22" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B22" s="104">
         <v>43584</v>
@@ -3336,13 +3322,13 @@
         <v>29</v>
       </c>
       <c r="D22" s="15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F22" s="107"/>
-      <c r="G22" s="145"/>
+      <c r="G22" s="141"/>
       <c r="H22" s="17">
         <v>140</v>
       </c>
@@ -3352,7 +3338,7 @@
     </row>
     <row r="23" spans="1:9">
       <c r="A23" s="116" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B23" s="117">
         <v>43591</v>
@@ -3361,14 +3347,14 @@
         <v>29</v>
       </c>
       <c r="D23" s="119" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E23" s="120" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F23" s="121"/>
-      <c r="G23" s="145" t="s">
-        <v>42</v>
+      <c r="G23" s="141" t="s">
+        <v>41</v>
       </c>
       <c r="H23" s="17">
         <v>140</v>
@@ -3377,18 +3363,18 @@
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B24" s="104">
         <v>43598</v>
       </c>
       <c r="C24" s="23"/>
       <c r="D24" s="15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E24" s="107"/>
       <c r="F24" s="107"/>
-      <c r="G24" s="146"/>
+      <c r="G24" s="142"/>
       <c r="H24" s="17">
         <v>140</v>
       </c>
@@ -3396,20 +3382,20 @@
     </row>
     <row r="25" spans="1:9">
       <c r="A25" s="12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B25" s="104">
         <v>43600</v>
       </c>
       <c r="C25" s="23"/>
       <c r="D25" s="17" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E25" s="107" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F25" s="107"/>
-      <c r="G25" s="146"/>
+      <c r="G25" s="142"/>
       <c r="H25" s="17">
         <v>140</v>
       </c>
@@ -3417,20 +3403,20 @@
     </row>
     <row r="26" spans="1:9">
       <c r="A26" s="12" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B26" s="104">
         <v>43605</v>
       </c>
       <c r="C26" s="23"/>
       <c r="D26" s="17" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E26" s="107" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F26" s="107"/>
-      <c r="G26" s="146"/>
+      <c r="G26" s="142"/>
       <c r="H26" s="17">
         <v>140</v>
       </c>
@@ -3438,118 +3424,118 @@
     </row>
     <row r="27" spans="1:9">
       <c r="A27" s="12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B27" s="104">
         <v>43607</v>
       </c>
       <c r="C27" s="23"/>
       <c r="D27" s="17" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E27" s="107" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F27" s="107"/>
-      <c r="G27" s="146"/>
+      <c r="G27" s="142"/>
       <c r="H27" s="17">
         <v>140</v>
       </c>
     </row>
     <row r="28" spans="1:9">
       <c r="A28" s="12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B28" s="104">
         <v>43612</v>
       </c>
       <c r="C28" s="23"/>
       <c r="D28" s="17" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E28" s="107" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F28" s="107"/>
-      <c r="G28" s="146"/>
+      <c r="G28" s="142"/>
       <c r="H28" s="17">
         <v>140</v>
       </c>
     </row>
     <row r="29" spans="1:9">
       <c r="A29" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B29" s="104">
         <v>43614</v>
       </c>
       <c r="C29" s="23"/>
       <c r="D29" s="17" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E29" s="107" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F29" s="107"/>
-      <c r="G29" s="146"/>
+      <c r="G29" s="142"/>
       <c r="H29" s="17">
         <v>140</v>
       </c>
     </row>
     <row r="30" spans="1:9">
       <c r="A30" s="12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B30" s="104">
         <v>43619</v>
       </c>
       <c r="C30" s="23"/>
       <c r="D30" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="E30" s="107" t="s">
         <v>74</v>
       </c>
-      <c r="E30" s="107" t="s">
-        <v>75</v>
-      </c>
       <c r="F30" s="107"/>
-      <c r="G30" s="146"/>
+      <c r="G30" s="142"/>
       <c r="H30" s="17">
         <v>140</v>
       </c>
     </row>
     <row r="31" spans="1:9">
       <c r="A31" s="12" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B31" s="104">
         <v>43621</v>
       </c>
       <c r="C31" s="23"/>
       <c r="D31" s="17" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E31" s="107" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F31" s="107"/>
-      <c r="G31" s="146"/>
+      <c r="G31" s="142"/>
       <c r="H31" s="17">
         <v>140</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="15">
       <c r="A32" s="18" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B32" s="122"/>
       <c r="C32" s="123"/>
       <c r="D32" s="28" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E32" s="124" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F32" s="41"/>
-      <c r="G32" s="147"/>
+      <c r="G32" s="143"/>
       <c r="H32" s="28">
         <v>140</v>
       </c>
@@ -3597,16 +3583,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12.6" customHeight="1">
-      <c r="A1" s="143" t="s">
-        <v>97</v>
-      </c>
-      <c r="B1" s="143"/>
-      <c r="C1" s="143"/>
-      <c r="D1" s="143"/>
-      <c r="E1" s="143"/>
-      <c r="F1" s="143"/>
-      <c r="G1" s="143"/>
-      <c r="H1" s="143"/>
+      <c r="A1" s="139" t="s">
+        <v>96</v>
+      </c>
+      <c r="B1" s="139"/>
+      <c r="C1" s="139"/>
+      <c r="D1" s="139"/>
+      <c r="E1" s="139"/>
+      <c r="F1" s="139"/>
+      <c r="G1" s="139"/>
+      <c r="H1" s="139"/>
     </row>
     <row r="2" spans="1:10" ht="15">
       <c r="A2" s="3" t="s">
@@ -3641,16 +3627,16 @@
         <v>43360</v>
       </c>
       <c r="C3" s="54" t="s">
+        <v>97</v>
+      </c>
+      <c r="D3" s="11" t="s">
         <v>98</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>99</v>
       </c>
       <c r="E3" s="10"/>
       <c r="F3" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="G3" s="144" t="s">
+        <v>99</v>
+      </c>
+      <c r="G3" s="140" t="s">
         <v>11</v>
       </c>
       <c r="H3" s="11">
@@ -3666,14 +3652,14 @@
         <v>43362</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D4" s="45"/>
       <c r="E4" s="16"/>
       <c r="F4" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="G4" s="144"/>
+        <v>100</v>
+      </c>
+      <c r="G4" s="140"/>
       <c r="H4" s="17">
         <v>140</v>
       </c>
@@ -3687,14 +3673,14 @@
         <v>43364</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D5" s="45"/>
       <c r="E5" s="16"/>
       <c r="F5" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="G5" s="144"/>
+        <v>101</v>
+      </c>
+      <c r="G5" s="140"/>
       <c r="H5" s="17">
         <v>140</v>
       </c>
@@ -3708,15 +3694,15 @@
         <v>43369</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D6" s="45" t="s">
         <v>19</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="G6" s="144"/>
+        <v>102</v>
+      </c>
+      <c r="G6" s="140"/>
       <c r="H6" s="17">
         <v>140</v>
       </c>
@@ -3730,15 +3716,15 @@
         <v>43371</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D7" s="17" t="s">
         <v>21</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="G7" s="144"/>
+        <v>103</v>
+      </c>
+      <c r="G7" s="140"/>
       <c r="H7" s="17">
         <v>140</v>
       </c>
@@ -3752,15 +3738,15 @@
         <v>43374</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D8" s="17" t="s">
         <v>23</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="G8" s="144"/>
+        <v>104</v>
+      </c>
+      <c r="G8" s="140"/>
       <c r="H8" s="17">
         <v>140</v>
       </c>
@@ -3774,15 +3760,15 @@
         <v>43376</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D9" s="17" t="s">
         <v>25</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="G9" s="144"/>
+        <v>105</v>
+      </c>
+      <c r="G9" s="140"/>
       <c r="H9" s="17">
         <v>140</v>
       </c>
@@ -3795,15 +3781,15 @@
         <v>43381</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D10" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="F10" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="F10" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="G10" s="144"/>
+      <c r="G10" s="140"/>
       <c r="H10" s="17">
         <v>140</v>
       </c>
@@ -3816,15 +3802,15 @@
         <v>43383</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D11" s="15" t="s">
         <v>28</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="G11" s="144"/>
+        <v>108</v>
+      </c>
+      <c r="G11" s="140"/>
       <c r="H11" s="17">
         <v>140</v>
       </c>
@@ -3838,36 +3824,36 @@
         <v>43388</v>
       </c>
       <c r="C12" s="20" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D12" s="59"/>
       <c r="E12" s="20"/>
       <c r="F12" s="41" t="s">
-        <v>110</v>
-      </c>
-      <c r="G12" s="144"/>
+        <v>109</v>
+      </c>
+      <c r="G12" s="140"/>
       <c r="H12" s="17">
         <v>140</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="15">
       <c r="A13" s="60" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B13" s="61">
         <v>43390</v>
       </c>
       <c r="C13" s="54" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E13" s="10"/>
       <c r="F13" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="G13" s="144" t="s">
+        <v>99</v>
+      </c>
+      <c r="G13" s="140" t="s">
         <v>31</v>
       </c>
       <c r="H13" s="17">
@@ -3878,21 +3864,21 @@
     </row>
     <row r="14" spans="1:10" ht="15">
       <c r="A14" s="62" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B14" s="63">
         <v>43395</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D14" s="17" t="s">
         <v>32</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="G14" s="144"/>
+        <v>100</v>
+      </c>
+      <c r="G14" s="140"/>
       <c r="H14" s="17">
         <v>140</v>
       </c>
@@ -3901,21 +3887,21 @@
     </row>
     <row r="15" spans="1:10" ht="15">
       <c r="A15" s="62" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B15" s="63">
         <v>43399</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D15" s="15" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="G15" s="144"/>
+        <v>101</v>
+      </c>
+      <c r="G15" s="140"/>
       <c r="H15" s="17">
         <v>140</v>
       </c>
@@ -3923,21 +3909,21 @@
     </row>
     <row r="16" spans="1:10" ht="15">
       <c r="A16" s="62" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B16" s="63">
         <v>43404</v>
       </c>
       <c r="C16" s="16" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D16" s="17" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="G16" s="144"/>
+        <v>102</v>
+      </c>
+      <c r="G16" s="140"/>
       <c r="H16" s="17">
         <v>140</v>
       </c>
@@ -3945,24 +3931,24 @@
     </row>
     <row r="17" spans="1:10" ht="15">
       <c r="A17" s="62" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B17" s="63">
         <v>43409</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D17" s="15" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>33</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="G17" s="144"/>
+        <v>103</v>
+      </c>
+      <c r="G17" s="140"/>
       <c r="H17" s="17">
         <v>140</v>
       </c>
@@ -3970,24 +3956,24 @@
     </row>
     <row r="18" spans="1:10" ht="15">
       <c r="A18" s="62" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B18" s="63">
         <v>43413</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D18" s="15" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>35</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="G18" s="144"/>
+        <v>104</v>
+      </c>
+      <c r="G18" s="140"/>
       <c r="H18" s="17">
         <v>140</v>
       </c>
@@ -3995,24 +3981,24 @@
     </row>
     <row r="19" spans="1:10" ht="15">
       <c r="A19" s="62" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B19" s="63">
         <v>43416</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D19" s="15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="G19" s="144"/>
+        <v>105</v>
+      </c>
+      <c r="G19" s="140"/>
       <c r="H19" s="17">
         <v>140</v>
       </c>
@@ -4020,24 +4006,24 @@
     </row>
     <row r="20" spans="1:10" ht="15">
       <c r="A20" s="62" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B20" s="63">
         <v>43423</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D20" s="15" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="G20" s="144"/>
+        <v>107</v>
+      </c>
+      <c r="G20" s="140"/>
       <c r="H20" s="17">
         <v>140</v>
       </c>
@@ -4045,24 +4031,24 @@
     </row>
     <row r="21" spans="1:10" ht="15">
       <c r="A21" s="62" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B21" s="63">
         <v>43425</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D21" s="15" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="G21" s="144"/>
+        <v>108</v>
+      </c>
+      <c r="G21" s="140"/>
       <c r="H21" s="17">
         <v>140</v>
       </c>
@@ -4070,24 +4056,24 @@
     </row>
     <row r="22" spans="1:10" ht="15">
       <c r="A22" s="64" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B22" s="63">
         <v>43427</v>
       </c>
       <c r="C22" s="20" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D22" s="28" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E22" s="19" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F22" s="41" t="s">
-        <v>110</v>
-      </c>
-      <c r="G22" s="144"/>
+        <v>109</v>
+      </c>
+      <c r="G22" s="140"/>
       <c r="H22" s="17">
         <v>140</v>
       </c>
@@ -4100,7 +4086,7 @@
     </row>
     <row r="23" spans="1:10" ht="15">
       <c r="A23" s="52" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B23" s="53">
         <v>43430</v>
@@ -4109,14 +4095,14 @@
         <v>29</v>
       </c>
       <c r="D23" s="51" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E23" s="10"/>
       <c r="F23" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="G23" s="144" t="s">
-        <v>42</v>
+        <v>99</v>
+      </c>
+      <c r="G23" s="140" t="s">
+        <v>41</v>
       </c>
       <c r="H23" s="17">
         <v>140</v>
@@ -4125,7 +4111,7 @@
     </row>
     <row r="24" spans="1:10" ht="15">
       <c r="A24" s="56" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B24" s="57">
         <v>43432</v>
@@ -4134,15 +4120,15 @@
         <v>29</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="G24" s="144"/>
+        <v>100</v>
+      </c>
+      <c r="G24" s="140"/>
       <c r="H24" s="17">
         <v>140</v>
       </c>
@@ -4150,7 +4136,7 @@
     </row>
     <row r="25" spans="1:10" ht="15">
       <c r="A25" s="56" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B25" s="57">
         <v>43434</v>
@@ -4159,15 +4145,15 @@
         <v>29</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="G25" s="144"/>
+        <v>101</v>
+      </c>
+      <c r="G25" s="140"/>
       <c r="H25" s="17">
         <v>140</v>
       </c>
@@ -4175,7 +4161,7 @@
     </row>
     <row r="26" spans="1:10" ht="15">
       <c r="A26" s="56" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B26" s="57">
         <v>43437</v>
@@ -4184,15 +4170,15 @@
         <v>29</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="G26" s="144"/>
+        <v>102</v>
+      </c>
+      <c r="G26" s="140"/>
       <c r="H26" s="17">
         <v>140</v>
       </c>
@@ -4200,7 +4186,7 @@
     </row>
     <row r="27" spans="1:10" ht="15">
       <c r="A27" s="56" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B27" s="57">
         <v>43439</v>
@@ -4209,22 +4195,22 @@
         <v>29</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="G27" s="144"/>
+        <v>103</v>
+      </c>
+      <c r="G27" s="140"/>
       <c r="H27" s="17">
         <v>140</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="15">
       <c r="A28" s="56" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B28" s="57">
         <v>43441</v>
@@ -4233,22 +4219,22 @@
         <v>29</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="G28" s="144"/>
+        <v>104</v>
+      </c>
+      <c r="G28" s="140"/>
       <c r="H28" s="17">
         <v>140</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="15">
       <c r="A29" s="56" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B29" s="57">
         <v>43444</v>
@@ -4257,22 +4243,22 @@
         <v>29</v>
       </c>
       <c r="D29" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="E29" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="E29" s="2" t="s">
-        <v>75</v>
-      </c>
       <c r="F29" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="G29" s="144"/>
+        <v>105</v>
+      </c>
+      <c r="G29" s="140"/>
       <c r="H29" s="17">
         <v>140</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="15">
       <c r="A30" s="56" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B30" s="57">
         <v>43446</v>
@@ -4281,22 +4267,22 @@
         <v>29</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="G30" s="144"/>
+        <v>107</v>
+      </c>
+      <c r="G30" s="140"/>
       <c r="H30" s="17">
         <v>140</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="15">
       <c r="A31" s="56" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B31" s="57">
         <v>43448</v>
@@ -4305,22 +4291,22 @@
         <v>29</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E31" s="67" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="G31" s="144"/>
+        <v>108</v>
+      </c>
+      <c r="G31" s="140"/>
       <c r="H31" s="17">
         <v>140</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="15">
       <c r="A32" s="58" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B32" s="43">
         <v>43451</v>
@@ -4331,9 +4317,9 @@
       <c r="D32" s="28"/>
       <c r="E32" s="41"/>
       <c r="F32" s="41" t="s">
-        <v>110</v>
-      </c>
-      <c r="G32" s="144"/>
+        <v>109</v>
+      </c>
+      <c r="G32" s="140"/>
       <c r="H32" s="28">
         <v>140</v>
       </c>
@@ -4388,16 +4374,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="148" t="s">
-        <v>116</v>
-      </c>
-      <c r="B1" s="148"/>
-      <c r="C1" s="148"/>
-      <c r="D1" s="148"/>
-      <c r="E1" s="148"/>
-      <c r="F1" s="148"/>
-      <c r="G1" s="148"/>
-      <c r="H1" s="148"/>
+      <c r="A1" s="144" t="s">
+        <v>115</v>
+      </c>
+      <c r="B1" s="144"/>
+      <c r="C1" s="144"/>
+      <c r="D1" s="144"/>
+      <c r="E1" s="144"/>
+      <c r="F1" s="144"/>
+      <c r="G1" s="144"/>
+      <c r="H1" s="144"/>
     </row>
     <row r="2" spans="1:10" ht="15">
       <c r="A2" s="68" t="s">
@@ -4414,7 +4400,7 @@
         <v>4</v>
       </c>
       <c r="F2" s="30" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G2" s="30" t="s">
         <v>5</v>
@@ -4429,14 +4415,14 @@
         <v>43312</v>
       </c>
       <c r="C3" s="54" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D3" s="70"/>
       <c r="E3" s="54"/>
       <c r="F3" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="G3" s="142" t="s">
+        <v>99</v>
+      </c>
+      <c r="G3" s="138" t="s">
         <v>11</v>
       </c>
       <c r="H3" s="33">
@@ -4452,14 +4438,14 @@
         <v>43314</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D4" s="45"/>
       <c r="E4" s="16"/>
       <c r="F4" s="36" t="s">
-        <v>101</v>
-      </c>
-      <c r="G4" s="142"/>
+        <v>100</v>
+      </c>
+      <c r="G4" s="138"/>
       <c r="H4" s="36">
         <v>120</v>
       </c>
@@ -4473,14 +4459,14 @@
         <v>43319</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D5" s="45"/>
       <c r="E5" s="16"/>
       <c r="F5" s="36" t="s">
-        <v>102</v>
-      </c>
-      <c r="G5" s="142"/>
+        <v>101</v>
+      </c>
+      <c r="G5" s="138"/>
       <c r="H5" s="36">
         <v>120</v>
       </c>
@@ -4494,14 +4480,14 @@
         <v>43321</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D6" s="45"/>
       <c r="E6" s="16"/>
       <c r="F6" s="36" t="s">
-        <v>103</v>
-      </c>
-      <c r="G6" s="142"/>
+        <v>102</v>
+      </c>
+      <c r="G6" s="138"/>
       <c r="H6" s="36">
         <v>120</v>
       </c>
@@ -4515,14 +4501,14 @@
         <v>43326</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D7" s="45"/>
       <c r="E7" s="16"/>
       <c r="F7" s="36" t="s">
-        <v>104</v>
-      </c>
-      <c r="G7" s="142"/>
+        <v>103</v>
+      </c>
+      <c r="G7" s="138"/>
       <c r="H7" s="36">
         <v>120</v>
       </c>
@@ -4536,14 +4522,14 @@
         <v>43328</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D8" s="45"/>
       <c r="E8" s="16"/>
       <c r="F8" s="36" t="s">
-        <v>105</v>
-      </c>
-      <c r="G8" s="142"/>
+        <v>104</v>
+      </c>
+      <c r="G8" s="138"/>
       <c r="H8" s="36">
         <v>120</v>
       </c>
@@ -4557,14 +4543,14 @@
         <v>43333</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D9" s="45"/>
       <c r="E9" s="16"/>
       <c r="F9" s="36" t="s">
-        <v>106</v>
-      </c>
-      <c r="G9" s="142"/>
+        <v>105</v>
+      </c>
+      <c r="G9" s="138"/>
       <c r="H9" s="36">
         <v>120</v>
       </c>
@@ -4577,14 +4563,14 @@
         <v>43335</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D10" s="45"/>
       <c r="E10" s="16"/>
       <c r="F10" s="36" t="s">
-        <v>108</v>
-      </c>
-      <c r="G10" s="142"/>
+        <v>107</v>
+      </c>
+      <c r="G10" s="138"/>
       <c r="H10" s="36">
         <v>120</v>
       </c>
@@ -4597,14 +4583,14 @@
         <v>43340</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D11" s="45"/>
       <c r="E11" s="16"/>
       <c r="F11" s="36" t="s">
-        <v>109</v>
-      </c>
-      <c r="G11" s="142"/>
+        <v>108</v>
+      </c>
+      <c r="G11" s="138"/>
       <c r="H11" s="36">
         <v>120</v>
       </c>
@@ -4618,14 +4604,14 @@
         <v>43342</v>
       </c>
       <c r="C12" s="20" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D12" s="59"/>
       <c r="E12" s="20"/>
       <c r="F12" s="44" t="s">
-        <v>110</v>
-      </c>
-      <c r="G12" s="142"/>
+        <v>109</v>
+      </c>
+      <c r="G12" s="138"/>
       <c r="H12" s="36">
         <v>120</v>
       </c>
@@ -4638,22 +4624,22 @@
     </row>
     <row r="13" spans="1:10" ht="15">
       <c r="A13" s="60" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B13" s="61">
         <v>43347</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E13" s="10"/>
       <c r="F13" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="G13" s="142" t="s">
+        <v>99</v>
+      </c>
+      <c r="G13" s="138" t="s">
         <v>31</v>
       </c>
       <c r="H13" s="36">
@@ -4663,21 +4649,21 @@
     </row>
     <row r="14" spans="1:10" ht="15">
       <c r="A14" s="62" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B14" s="63">
         <v>43349</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D14" s="17" t="s">
         <v>32</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="G14" s="142"/>
+        <v>100</v>
+      </c>
+      <c r="G14" s="138"/>
       <c r="H14" s="36">
         <v>120</v>
       </c>
@@ -4685,21 +4671,21 @@
     </row>
     <row r="15" spans="1:10" ht="15">
       <c r="A15" s="62" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B15" s="63">
         <v>43354</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D15" s="15" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="G15" s="142"/>
+        <v>101</v>
+      </c>
+      <c r="G15" s="138"/>
       <c r="H15" s="36">
         <v>120</v>
       </c>
@@ -4707,21 +4693,21 @@
     </row>
     <row r="16" spans="1:10" ht="15">
       <c r="A16" s="62" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B16" s="63">
         <v>43356</v>
       </c>
       <c r="C16" s="16" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D16" s="17" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="G16" s="142"/>
+        <v>102</v>
+      </c>
+      <c r="G16" s="138"/>
       <c r="H16" s="36">
         <v>120</v>
       </c>
@@ -4729,24 +4715,24 @@
     </row>
     <row r="17" spans="1:11" ht="15">
       <c r="A17" s="62" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B17" s="63">
         <v>43361</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D17" s="15" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>33</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="G17" s="142"/>
+        <v>103</v>
+      </c>
+      <c r="G17" s="138"/>
       <c r="H17" s="36">
         <v>120</v>
       </c>
@@ -4754,24 +4740,24 @@
     </row>
     <row r="18" spans="1:11" ht="15">
       <c r="A18" s="62" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B18" s="63">
         <v>43363</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D18" s="15" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>35</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="G18" s="142"/>
+        <v>104</v>
+      </c>
+      <c r="G18" s="138"/>
       <c r="H18" s="36">
         <v>120</v>
       </c>
@@ -4779,24 +4765,24 @@
     </row>
     <row r="19" spans="1:11" ht="15">
       <c r="A19" s="62" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B19" s="63">
         <v>43368</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D19" s="15" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="G19" s="142"/>
+        <v>105</v>
+      </c>
+      <c r="G19" s="138"/>
       <c r="H19" s="36">
         <v>120</v>
       </c>
@@ -4804,24 +4790,24 @@
     </row>
     <row r="20" spans="1:11" ht="15">
       <c r="A20" s="62" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B20" s="63">
         <v>43370</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D20" s="15" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="G20" s="142"/>
+        <v>107</v>
+      </c>
+      <c r="G20" s="138"/>
       <c r="H20" s="36">
         <v>120</v>
       </c>
@@ -4829,24 +4815,24 @@
     </row>
     <row r="21" spans="1:11" ht="15">
       <c r="A21" s="62" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B21" s="63">
         <v>43375</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="G21" s="142"/>
+        <v>108</v>
+      </c>
+      <c r="G21" s="138"/>
       <c r="H21" s="36">
         <v>120</v>
       </c>
@@ -4854,24 +4840,24 @@
     </row>
     <row r="22" spans="1:11" ht="15">
       <c r="A22" s="64" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B22" s="57">
         <v>43382</v>
       </c>
       <c r="C22" s="20" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D22" s="28" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E22" s="41" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F22" s="41" t="s">
-        <v>110</v>
-      </c>
-      <c r="G22" s="142"/>
+        <v>109</v>
+      </c>
+      <c r="G22" s="138"/>
       <c r="H22" s="36">
         <v>120</v>
       </c>
@@ -4882,28 +4868,28 @@
         <v>1200</v>
       </c>
       <c r="K22" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="15">
       <c r="A23" s="52" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B23" s="53">
         <v>43384</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D23" s="51" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E23" s="10"/>
       <c r="F23" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="G23" s="142" t="s">
-        <v>42</v>
+        <v>99</v>
+      </c>
+      <c r="G23" s="138" t="s">
+        <v>41</v>
       </c>
       <c r="H23" s="36">
         <v>120</v>
@@ -4912,24 +4898,24 @@
     </row>
     <row r="24" spans="1:11" ht="15">
       <c r="A24" s="56" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B24" s="57">
         <v>43389</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F24" s="36" t="s">
-        <v>101</v>
-      </c>
-      <c r="G24" s="142"/>
+        <v>100</v>
+      </c>
+      <c r="G24" s="138"/>
       <c r="H24" s="36">
         <v>120</v>
       </c>
@@ -4937,24 +4923,24 @@
     </row>
     <row r="25" spans="1:11" ht="15">
       <c r="A25" s="56" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B25" s="57">
         <v>43391</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F25" s="36" t="s">
-        <v>102</v>
-      </c>
-      <c r="G25" s="142"/>
+        <v>101</v>
+      </c>
+      <c r="G25" s="138"/>
       <c r="H25" s="36">
         <v>120</v>
       </c>
@@ -4962,24 +4948,24 @@
     </row>
     <row r="26" spans="1:11" ht="15">
       <c r="A26" s="56" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B26" s="57">
         <v>43396</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F26" s="36" t="s">
-        <v>103</v>
-      </c>
-      <c r="G26" s="142"/>
+        <v>102</v>
+      </c>
+      <c r="G26" s="138"/>
       <c r="H26" s="36">
         <v>120</v>
       </c>
@@ -4987,142 +4973,142 @@
     </row>
     <row r="27" spans="1:11" ht="15">
       <c r="A27" s="56" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B27" s="57">
         <v>43398</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F27" s="36" t="s">
-        <v>104</v>
-      </c>
-      <c r="G27" s="142"/>
+        <v>103</v>
+      </c>
+      <c r="G27" s="138"/>
       <c r="H27" s="36">
         <v>120</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="15">
       <c r="A28" s="56" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B28" s="57">
         <v>43403</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F28" s="36" t="s">
-        <v>105</v>
-      </c>
-      <c r="G28" s="142"/>
+        <v>104</v>
+      </c>
+      <c r="G28" s="138"/>
       <c r="H28" s="36">
         <v>120</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="15">
       <c r="A29" s="56" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B29" s="63">
         <v>43405</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D29" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="E29" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="E29" s="2" t="s">
-        <v>75</v>
-      </c>
       <c r="F29" s="36" t="s">
-        <v>106</v>
-      </c>
-      <c r="G29" s="142"/>
+        <v>105</v>
+      </c>
+      <c r="G29" s="138"/>
       <c r="H29" s="36">
         <v>120</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="15">
       <c r="A30" s="56" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B30" s="63">
         <v>43417</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F30" s="36" t="s">
-        <v>108</v>
-      </c>
-      <c r="G30" s="142"/>
+        <v>107</v>
+      </c>
+      <c r="G30" s="138"/>
       <c r="H30" s="36">
         <v>120</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="15">
       <c r="A31" s="56" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B31" s="63">
         <v>43424</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D31" s="72" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E31" s="67" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F31" s="36" t="s">
-        <v>109</v>
-      </c>
-      <c r="G31" s="142"/>
+        <v>108</v>
+      </c>
+      <c r="G31" s="138"/>
       <c r="H31" s="36">
         <v>120</v>
       </c>
     </row>
     <row r="32" spans="1:11" s="27" customFormat="1" ht="15.75">
       <c r="A32" s="73" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B32" s="74">
         <v>43426</v>
       </c>
       <c r="C32" s="20" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D32" s="75" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E32" s="76"/>
       <c r="F32" s="77" t="s">
-        <v>110</v>
-      </c>
-      <c r="G32" s="142"/>
+        <v>109</v>
+      </c>
+      <c r="G32" s="138"/>
       <c r="H32" s="77">
         <v>120</v>
       </c>
@@ -5193,15 +5179,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="148" t="s">
-        <v>128</v>
-      </c>
-      <c r="B1" s="148"/>
-      <c r="C1" s="148"/>
-      <c r="D1" s="148"/>
-      <c r="E1" s="148"/>
-      <c r="F1" s="148"/>
-      <c r="G1" s="148"/>
+      <c r="A1" s="144" t="s">
+        <v>127</v>
+      </c>
+      <c r="B1" s="144"/>
+      <c r="C1" s="144"/>
+      <c r="D1" s="144"/>
+      <c r="E1" s="144"/>
+      <c r="F1" s="144"/>
+      <c r="G1" s="144"/>
     </row>
     <row r="2" spans="1:9" ht="15">
       <c r="A2" s="68" t="s">
@@ -5215,16 +5201,16 @@
       </c>
       <c r="D2" s="30"/>
       <c r="E2" s="30" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F2" s="30" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G2" s="30" t="s">
         <v>5</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="15">
@@ -5235,14 +5221,14 @@
         <v>43274</v>
       </c>
       <c r="C3" s="54" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D3" s="70"/>
       <c r="E3" s="70"/>
       <c r="F3" s="10">
         <v>5</v>
       </c>
-      <c r="G3" s="142" t="s">
+      <c r="G3" s="138" t="s">
         <v>11</v>
       </c>
     </row>
@@ -5254,14 +5240,14 @@
         <v>43281</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D4" s="45"/>
       <c r="E4" s="45"/>
       <c r="F4" s="2">
         <v>5</v>
       </c>
-      <c r="G4" s="142"/>
+      <c r="G4" s="138"/>
     </row>
     <row r="5" spans="1:9" ht="15">
       <c r="A5" s="62" t="s">
@@ -5271,14 +5257,14 @@
         <v>43288</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D5" s="45"/>
       <c r="E5" s="45"/>
       <c r="F5" s="2">
         <v>5</v>
       </c>
-      <c r="G5" s="142"/>
+      <c r="G5" s="138"/>
     </row>
     <row r="6" spans="1:9" ht="15">
       <c r="A6" s="62" t="s">
@@ -5288,14 +5274,14 @@
         <v>43295</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D6" s="45"/>
       <c r="E6" s="45"/>
       <c r="F6" s="2">
         <v>5</v>
       </c>
-      <c r="G6" s="142"/>
+      <c r="G6" s="138"/>
     </row>
     <row r="7" spans="1:9" ht="15">
       <c r="A7" s="62" t="s">
@@ -5305,14 +5291,14 @@
         <v>43302</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D7" s="84"/>
       <c r="E7" s="84"/>
       <c r="F7" s="2">
         <v>5</v>
       </c>
-      <c r="G7" s="142"/>
+      <c r="G7" s="138"/>
     </row>
     <row r="8" spans="1:9" ht="15">
       <c r="A8" s="62" t="s">
@@ -5322,14 +5308,14 @@
         <v>43309</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D8" s="84"/>
       <c r="E8" s="84"/>
       <c r="F8" s="2">
         <v>5</v>
       </c>
-      <c r="G8" s="142"/>
+      <c r="G8" s="138"/>
     </row>
     <row r="9" spans="1:9" ht="15">
       <c r="A9" s="62" t="s">
@@ -5339,14 +5325,14 @@
         <v>43316</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D9" s="84"/>
       <c r="E9" s="84"/>
       <c r="F9" s="2">
         <v>5</v>
       </c>
-      <c r="G9" s="142"/>
+      <c r="G9" s="138"/>
       <c r="H9" s="2"/>
     </row>
     <row r="10" spans="1:9" ht="15">
@@ -5357,14 +5343,14 @@
         <v>43323</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D10" s="84"/>
       <c r="E10" s="84"/>
       <c r="F10" s="2">
         <v>5</v>
       </c>
-      <c r="G10" s="142"/>
+      <c r="G10" s="138"/>
       <c r="H10" s="2"/>
     </row>
     <row r="11" spans="1:9" ht="15">
@@ -5375,16 +5361,16 @@
         <v>43330</v>
       </c>
       <c r="C11" s="87" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D11" s="88" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E11" s="88"/>
       <c r="F11" s="89" t="s">
-        <v>100</v>
-      </c>
-      <c r="G11" s="149" t="s">
+        <v>99</v>
+      </c>
+      <c r="G11" s="145" t="s">
         <v>31</v>
       </c>
       <c r="H11" s="2"/>
@@ -5397,58 +5383,58 @@
         <v>43337</v>
       </c>
       <c r="C12" s="92" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D12" s="93" t="s">
         <v>32</v>
       </c>
       <c r="E12" s="93"/>
       <c r="F12" s="94" t="s">
-        <v>101</v>
-      </c>
-      <c r="G12" s="149"/>
+        <v>100</v>
+      </c>
+      <c r="G12" s="145"/>
       <c r="H12" s="2"/>
     </row>
     <row r="13" spans="1:9" ht="15">
       <c r="A13" s="90" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B13" s="91">
         <v>43344</v>
       </c>
       <c r="C13" s="92" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D13" s="93" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E13" s="93"/>
       <c r="F13" s="94" t="s">
-        <v>102</v>
-      </c>
-      <c r="G13" s="149"/>
+        <v>101</v>
+      </c>
+      <c r="G13" s="145"/>
       <c r="H13" s="2"/>
     </row>
     <row r="14" spans="1:9" ht="15">
       <c r="A14" s="90" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B14" s="91">
         <v>43358</v>
       </c>
       <c r="C14" s="92" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D14" s="93" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E14" s="93" t="s">
         <v>33</v>
       </c>
       <c r="F14" s="94" t="s">
-        <v>103</v>
-      </c>
-      <c r="G14" s="149"/>
+        <v>102</v>
+      </c>
+      <c r="G14" s="145"/>
       <c r="H14" s="71">
         <v>43371</v>
       </c>
@@ -5458,90 +5444,90 @@
     </row>
     <row r="15" spans="1:9" ht="15">
       <c r="A15" s="90" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B15" s="95">
         <v>43365</v>
       </c>
       <c r="C15" s="92" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D15" s="93" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E15" s="93" t="s">
         <v>35</v>
       </c>
       <c r="F15" s="94" t="s">
-        <v>104</v>
-      </c>
-      <c r="G15" s="149"/>
+        <v>103</v>
+      </c>
+      <c r="G15" s="145"/>
       <c r="H15" s="2"/>
     </row>
     <row r="16" spans="1:9" ht="15">
       <c r="A16" s="90" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B16" s="95">
         <v>43372</v>
       </c>
       <c r="C16" s="92" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D16" s="93" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E16" s="93" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F16" s="94" t="s">
-        <v>105</v>
-      </c>
-      <c r="G16" s="149"/>
+        <v>104</v>
+      </c>
+      <c r="G16" s="145"/>
       <c r="H16" s="2"/>
     </row>
     <row r="17" spans="1:9" ht="15">
       <c r="A17" s="90" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B17" s="95">
         <v>43386</v>
       </c>
       <c r="C17" s="92" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D17" s="93" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E17" s="93" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F17" s="94" t="s">
-        <v>106</v>
-      </c>
-      <c r="G17" s="149"/>
+        <v>105</v>
+      </c>
+      <c r="G17" s="145"/>
       <c r="H17" s="2"/>
     </row>
     <row r="18" spans="1:9" ht="15">
       <c r="A18" s="96" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B18" s="97">
         <v>43393</v>
       </c>
       <c r="C18" s="98" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D18" s="49" t="s">
+        <v>133</v>
+      </c>
+      <c r="E18" s="49" t="s">
         <v>134</v>
       </c>
-      <c r="E18" s="49" t="s">
-        <v>135</v>
-      </c>
       <c r="F18" s="50" t="s">
-        <v>108</v>
-      </c>
-      <c r="G18" s="149"/>
+        <v>107</v>
+      </c>
+      <c r="G18" s="145"/>
       <c r="H18" s="71">
         <v>43409</v>
       </c>
@@ -5551,7 +5537,7 @@
     </row>
     <row r="19" spans="1:9" ht="15">
       <c r="A19" s="62" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B19" s="99">
         <v>43414</v>
@@ -5560,20 +5546,20 @@
         <v>29</v>
       </c>
       <c r="D19" s="51" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E19" s="51"/>
       <c r="F19" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="G19" s="142" t="s">
-        <v>42</v>
+        <v>99</v>
+      </c>
+      <c r="G19" s="138" t="s">
+        <v>41</v>
       </c>
       <c r="H19" s="2"/>
     </row>
     <row r="20" spans="1:9" ht="15">
       <c r="A20" s="62" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B20" s="99">
         <v>43421</v>
@@ -5582,20 +5568,20 @@
         <v>29</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E20" s="17" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="G20" s="142"/>
+        <v>100</v>
+      </c>
+      <c r="G20" s="138"/>
       <c r="H20" s="2"/>
     </row>
     <row r="21" spans="1:9" ht="15">
       <c r="A21" s="62" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B21" s="99">
         <v>43428</v>
@@ -5604,20 +5590,20 @@
         <v>29</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E21" s="17" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="G21" s="142"/>
+        <v>101</v>
+      </c>
+      <c r="G21" s="138"/>
       <c r="H21" s="2"/>
     </row>
     <row r="22" spans="1:9" ht="15">
       <c r="A22" s="62" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B22" s="99">
         <v>43435</v>
@@ -5626,15 +5612,15 @@
         <v>29</v>
       </c>
       <c r="D22" s="17" t="s">
+        <v>137</v>
+      </c>
+      <c r="E22" s="17" t="s">
         <v>138</v>
       </c>
-      <c r="E22" s="17" t="s">
-        <v>139</v>
-      </c>
       <c r="F22" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="G22" s="142"/>
+        <v>102</v>
+      </c>
+      <c r="G22" s="138"/>
       <c r="H22" s="65">
         <v>43448</v>
       </c>
@@ -5644,7 +5630,7 @@
     </row>
     <row r="23" spans="1:9" ht="15">
       <c r="A23" s="62" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B23" s="101">
         <v>43442</v>
@@ -5653,20 +5639,20 @@
         <v>29</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E23" s="17" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="G23" s="142"/>
+        <v>103</v>
+      </c>
+      <c r="G23" s="138"/>
       <c r="H23" s="2"/>
     </row>
     <row r="24" spans="1:9" ht="15">
       <c r="A24" s="62" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B24" s="101">
         <v>43449</v>
@@ -5675,54 +5661,54 @@
         <v>29</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E24" s="17" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="G24" s="142"/>
+        <v>104</v>
+      </c>
+      <c r="G24" s="138"/>
       <c r="H24" s="2"/>
     </row>
     <row r="25" spans="1:9" ht="15">
       <c r="A25" s="62" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B25" s="101">
         <v>43477</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="17" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E25" s="17" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="G25" s="142"/>
+        <v>105</v>
+      </c>
+      <c r="G25" s="138"/>
     </row>
     <row r="26" spans="1:9" ht="15">
       <c r="A26" s="64" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B26" s="102">
         <v>43484</v>
       </c>
       <c r="C26" s="41"/>
       <c r="D26" s="28" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E26" s="28" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F26" s="41" t="s">
-        <v>108</v>
-      </c>
-      <c r="G26" s="142"/>
+        <v>107</v>
+      </c>
+      <c r="G26" s="138"/>
       <c r="I26" s="2">
         <v>600</v>
       </c>
@@ -5773,16 +5759,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="150" t="s">
-        <v>145</v>
-      </c>
-      <c r="B1" s="150"/>
-      <c r="C1" s="150"/>
-      <c r="D1" s="150"/>
-      <c r="E1" s="150"/>
-      <c r="F1" s="150"/>
-      <c r="G1" s="150"/>
-      <c r="H1" s="150"/>
+      <c r="A1" s="146" t="s">
+        <v>144</v>
+      </c>
+      <c r="B1" s="146"/>
+      <c r="C1" s="146"/>
+      <c r="D1" s="146"/>
+      <c r="E1" s="146"/>
+      <c r="F1" s="146"/>
+      <c r="G1" s="146"/>
+      <c r="H1" s="146"/>
     </row>
     <row r="2" spans="1:11" ht="15">
       <c r="A2" s="30" t="s">
@@ -5796,16 +5782,16 @@
       </c>
       <c r="D2" s="30"/>
       <c r="E2" s="30" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F2" s="30" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G2" s="30" t="s">
         <v>5</v>
       </c>
       <c r="H2" s="30" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="I2" s="16"/>
     </row>
@@ -5815,20 +5801,20 @@
       </c>
       <c r="B3" s="80"/>
       <c r="C3" s="16" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D3" s="16"/>
       <c r="E3" s="16"/>
       <c r="F3" s="2">
         <v>5</v>
       </c>
-      <c r="G3" s="150" t="s">
+      <c r="G3" s="146" t="s">
+        <v>146</v>
+      </c>
+      <c r="J3" s="147" t="s">
         <v>147</v>
       </c>
-      <c r="J3" s="151" t="s">
-        <v>148</v>
-      </c>
-      <c r="K3" s="151"/>
+      <c r="K3" s="147"/>
     </row>
     <row r="4" spans="1:11" ht="15">
       <c r="A4" s="80" t="s">
@@ -5836,16 +5822,16 @@
       </c>
       <c r="B4" s="16"/>
       <c r="C4" s="16" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D4" s="16"/>
       <c r="E4" s="16"/>
       <c r="F4" s="2">
         <v>5</v>
       </c>
-      <c r="G4" s="150"/>
+      <c r="G4" s="146"/>
       <c r="J4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="K4" s="55">
         <f>140/8</f>
@@ -5858,16 +5844,16 @@
       </c>
       <c r="B5" s="16"/>
       <c r="C5" s="16" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D5" s="16"/>
       <c r="E5" s="16"/>
       <c r="F5" s="2">
         <v>5</v>
       </c>
-      <c r="G5" s="150"/>
+      <c r="G5" s="146"/>
       <c r="J5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K5" s="55">
         <f>K4</f>
@@ -5880,16 +5866,16 @@
       </c>
       <c r="B6" s="16"/>
       <c r="C6" s="16" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D6" s="16"/>
       <c r="E6" s="16"/>
       <c r="F6" s="2">
         <v>5</v>
       </c>
-      <c r="G6" s="150"/>
+      <c r="G6" s="146"/>
       <c r="J6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K6" s="55">
         <f>K4*2</f>
@@ -5902,18 +5888,18 @@
       </c>
       <c r="B7" s="54"/>
       <c r="C7" s="54" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D7" s="54"/>
       <c r="E7" s="54"/>
       <c r="F7" s="10">
         <v>5</v>
       </c>
-      <c r="G7" s="144" t="s">
+      <c r="G7" s="140" t="s">
         <v>11</v>
       </c>
       <c r="J7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="K7" s="55">
         <f>K4*3</f>
@@ -5926,16 +5912,16 @@
       </c>
       <c r="B8" s="16"/>
       <c r="C8" s="16" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D8" s="16"/>
       <c r="E8" s="16"/>
       <c r="F8" s="2">
         <v>5</v>
       </c>
-      <c r="G8" s="144"/>
+      <c r="G8" s="140"/>
       <c r="J8" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="K8" s="55">
         <f>K4*4</f>
@@ -5948,16 +5934,16 @@
       </c>
       <c r="B9" s="16"/>
       <c r="C9" s="16" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D9" s="16"/>
       <c r="E9" s="16"/>
       <c r="F9" s="2">
         <v>5</v>
       </c>
-      <c r="G9" s="144"/>
+      <c r="G9" s="140"/>
       <c r="J9" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="K9" s="55">
         <f>K4*5</f>
@@ -5970,16 +5956,16 @@
       </c>
       <c r="B10" s="16"/>
       <c r="C10" s="16" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D10" s="16"/>
       <c r="E10" s="16"/>
       <c r="F10" s="2">
         <v>5</v>
       </c>
-      <c r="G10" s="144"/>
+      <c r="G10" s="140"/>
       <c r="J10" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="K10" s="55">
         <f>K4*6</f>
@@ -5992,16 +5978,16 @@
       </c>
       <c r="B11" s="16"/>
       <c r="C11" s="16" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D11" s="16"/>
       <c r="E11" s="16"/>
       <c r="F11" s="2">
         <v>5</v>
       </c>
-      <c r="G11" s="144"/>
+      <c r="G11" s="140"/>
       <c r="J11" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="K11" s="55">
         <f>K4*7</f>
@@ -6014,16 +6000,16 @@
       </c>
       <c r="B12" s="16"/>
       <c r="C12" s="16" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D12" s="16"/>
       <c r="E12" s="16"/>
       <c r="F12" s="2">
         <v>5</v>
       </c>
-      <c r="G12" s="144"/>
+      <c r="G12" s="140"/>
       <c r="J12" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="K12" s="55">
         <f>K4*8</f>
@@ -6032,347 +6018,347 @@
     </row>
     <row r="13" spans="1:11" ht="15">
       <c r="A13" s="56" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B13" s="16"/>
       <c r="C13" s="16" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D13" s="16"/>
       <c r="E13" s="16"/>
       <c r="F13" s="2">
         <v>5</v>
       </c>
-      <c r="G13" s="144"/>
+      <c r="G13" s="140"/>
     </row>
     <row r="14" spans="1:11" ht="15">
       <c r="A14" s="58" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B14" s="20"/>
       <c r="C14" s="20" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
       <c r="F14" s="41">
         <v>5</v>
       </c>
-      <c r="G14" s="144"/>
+      <c r="G14" s="140"/>
     </row>
     <row r="15" spans="1:11" ht="15">
       <c r="A15" s="52" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B15" s="54"/>
       <c r="C15" s="54" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D15" s="54"/>
       <c r="E15" s="54"/>
       <c r="F15" s="10">
         <v>1</v>
       </c>
-      <c r="G15" s="144" t="s">
+      <c r="G15" s="140" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="15">
       <c r="A16" s="56" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B16" s="57">
         <v>43261</v>
       </c>
       <c r="C16" s="16" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D16" s="16"/>
       <c r="E16" s="16"/>
       <c r="F16" s="2">
         <v>2</v>
       </c>
-      <c r="G16" s="144"/>
+      <c r="G16" s="140"/>
     </row>
     <row r="17" spans="1:10" ht="15">
       <c r="A17" s="56" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B17" s="57">
         <v>43268</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D17" s="16"/>
       <c r="E17" s="16"/>
       <c r="F17" s="2">
         <v>3</v>
       </c>
-      <c r="G17" s="144"/>
+      <c r="G17" s="140"/>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
     </row>
     <row r="18" spans="1:10" ht="15">
       <c r="A18" s="56" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B18" s="57">
         <v>43275</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D18" s="16"/>
       <c r="E18" s="16"/>
       <c r="F18" s="2">
         <v>4</v>
       </c>
-      <c r="G18" s="144"/>
+      <c r="G18" s="140"/>
     </row>
     <row r="19" spans="1:10" ht="15">
       <c r="A19" s="62" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B19" s="63">
         <v>43282</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F19" s="2">
         <v>5</v>
       </c>
-      <c r="G19" s="144"/>
+      <c r="G19" s="140"/>
     </row>
     <row r="20" spans="1:10" ht="15">
       <c r="A20" s="62" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B20" s="63">
         <v>43289</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F20" s="2">
         <v>6</v>
       </c>
-      <c r="G20" s="144"/>
+      <c r="G20" s="140"/>
     </row>
     <row r="21" spans="1:10" ht="15">
       <c r="A21" s="62" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B21" s="63">
         <v>43296</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F21" s="2">
         <v>7</v>
       </c>
-      <c r="G21" s="144"/>
+      <c r="G21" s="140"/>
     </row>
     <row r="22" spans="1:10" ht="15">
       <c r="A22" s="64" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B22" s="103">
         <v>43303</v>
       </c>
       <c r="C22" s="20" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D22" s="41" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E22" s="41"/>
       <c r="F22" s="41">
         <v>8</v>
       </c>
-      <c r="G22" s="144"/>
+      <c r="G22" s="140"/>
     </row>
     <row r="23" spans="1:10" ht="15">
       <c r="A23" s="60" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B23" s="53">
         <v>43310</v>
       </c>
       <c r="C23" s="54" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E23" s="10"/>
       <c r="F23" s="10">
         <v>1</v>
       </c>
-      <c r="G23" s="144" t="s">
-        <v>42</v>
+      <c r="G23" s="140" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="15">
       <c r="A24" s="62" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B24" s="57">
         <v>43317</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F24" s="2">
         <v>2</v>
       </c>
-      <c r="G24" s="144"/>
+      <c r="G24" s="140"/>
     </row>
     <row r="25" spans="1:10" ht="15">
       <c r="A25" s="62" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B25" s="57">
         <v>43331</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F25" s="2">
         <v>3</v>
       </c>
-      <c r="G25" s="144"/>
+      <c r="G25" s="140"/>
     </row>
     <row r="26" spans="1:10" ht="15">
       <c r="A26" s="62" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B26" s="57">
         <v>43338</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F26" s="2">
         <v>4</v>
       </c>
-      <c r="G26" s="144"/>
+      <c r="G26" s="140"/>
       <c r="H26" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="15">
       <c r="A27" s="62" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B27" s="63">
         <v>43345</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F27" s="2">
         <v>5</v>
       </c>
-      <c r="G27" s="144"/>
+      <c r="G27" s="140"/>
     </row>
     <row r="28" spans="1:10" ht="15">
       <c r="A28" s="62" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B28" s="63">
         <v>43359</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F28" s="2">
         <v>6</v>
       </c>
-      <c r="G28" s="144"/>
+      <c r="G28" s="140"/>
     </row>
     <row r="29" spans="1:10" ht="15">
       <c r="A29" s="62" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B29" s="63">
         <v>43373</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F29" s="2">
         <v>7</v>
       </c>
-      <c r="G29" s="144"/>
+      <c r="G29" s="140"/>
     </row>
     <row r="30" spans="1:10" ht="15">
       <c r="A30" s="64" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B30" s="103">
         <v>43387</v>
       </c>
       <c r="C30" s="20" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D30" s="41" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E30" s="41" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F30" s="41">
         <v>8</v>
       </c>
-      <c r="G30" s="144"/>
+      <c r="G30" s="140"/>
       <c r="H30" s="71">
         <v>43396</v>
       </c>
@@ -6380,7 +6366,7 @@
         <v>600</v>
       </c>
       <c r="J30" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
   </sheetData>

--- a/Cronograma aulas/Aulas v2.xlsx
+++ b/Cronograma aulas/Aulas v2.xlsx
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="714" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="716" uniqueCount="171">
   <si>
     <t>Segunda e Quarta – sala 04 (senha javaweb)</t>
   </si>
@@ -154,9 +154,6 @@
   </si>
   <si>
     <t>Jpa-hello</t>
-  </si>
-  <si>
-    <t>JSP Servlet JDBC – Git/Github / incluir CRUD com JPA</t>
   </si>
   <si>
     <t>Jsp-servlet-crud</t>
@@ -571,7 +568,10 @@
     <t>Github -Redirecionar, JSP,  Git/Github</t>
   </si>
   <si>
-    <t>JSTL c:forEach - 1º CRUD com JPA</t>
+    <t xml:space="preserve">JSTL c:forEach - </t>
+  </si>
+  <si>
+    <t>1º CRUD com JPA - JSP Servlet JDBC – Git/Github / incluir CRUD com JPA</t>
   </si>
 </sst>
 </file>
@@ -1786,7 +1786,7 @@
   <dimension ref="A1:H30"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="14.25"/>
@@ -2100,7 +2100,7 @@
         <v>29</v>
       </c>
       <c r="D16" s="37" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E16" s="17"/>
       <c r="F16" s="138"/>
@@ -2120,7 +2120,7 @@
         <v>29</v>
       </c>
       <c r="D17" s="37" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E17" s="17" t="s">
         <v>35</v>
@@ -2138,9 +2138,11 @@
       <c r="B18" s="126">
         <v>43717</v>
       </c>
-      <c r="C18" s="23"/>
+      <c r="C18" s="36" t="s">
+        <v>29</v>
+      </c>
       <c r="D18" s="37" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E18" s="17" t="s">
         <v>36</v>
@@ -2158,9 +2160,11 @@
       <c r="B19" s="126">
         <v>43749</v>
       </c>
-      <c r="C19" s="24"/>
-      <c r="D19" s="12" t="s">
-        <v>37</v>
+      <c r="C19" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="D19" s="37" t="s">
+        <v>170</v>
       </c>
       <c r="E19" s="15"/>
       <c r="F19" s="138"/>
@@ -2178,7 +2182,7 @@
       </c>
       <c r="C20" s="77"/>
       <c r="D20" s="40" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E20" s="137"/>
       <c r="F20" s="138"/>
@@ -2198,7 +2202,7 @@
       <c r="D21" s="108"/>
       <c r="E21" s="133"/>
       <c r="F21" s="138" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G21" s="17">
         <v>140</v>
@@ -2370,7 +2374,7 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="138" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B1" s="138"/>
       <c r="C1" s="138"/>
@@ -2518,7 +2522,7 @@
         <v>9</v>
       </c>
       <c r="D9" s="38" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E9" s="37"/>
       <c r="F9" s="138"/>
@@ -2554,7 +2558,7 @@
         <v>9</v>
       </c>
       <c r="D11" s="17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="138" t="s">
@@ -2596,7 +2600,7 @@
         <v>9</v>
       </c>
       <c r="D13" s="15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="138"/>
@@ -2616,10 +2620,10 @@
         <v>9</v>
       </c>
       <c r="D14" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="E14" s="2" t="s">
         <v>48</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>49</v>
       </c>
       <c r="F14" s="138"/>
       <c r="G14" s="17">
@@ -2638,7 +2642,7 @@
         <v>29</v>
       </c>
       <c r="D15" s="15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>35</v>
@@ -2660,7 +2664,7 @@
         <v>29</v>
       </c>
       <c r="D16" s="17" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>36</v>
@@ -2680,7 +2684,7 @@
       </c>
       <c r="C17" s="36"/>
       <c r="D17" s="17" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>36</v>
@@ -2701,7 +2705,7 @@
       <c r="C18" s="23"/>
       <c r="D18" s="15"/>
       <c r="E18" s="136" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F18" s="138"/>
       <c r="G18" s="17">
@@ -2720,7 +2724,7 @@
       <c r="D19" s="8"/>
       <c r="E19" s="6"/>
       <c r="F19" s="138" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G19" s="36">
         <v>175</v>
@@ -2877,7 +2881,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="15">
       <c r="A1" s="139" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B1" s="139"/>
       <c r="C1" s="139"/>
@@ -2923,7 +2927,7 @@
         <v>29</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E3" s="10"/>
       <c r="F3" s="10"/>
@@ -3112,7 +3116,7 @@
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B13" s="7">
         <v>43542</v>
@@ -3121,7 +3125,7 @@
         <v>29</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E13" s="10"/>
       <c r="F13" s="10"/>
@@ -3135,7 +3139,7 @@
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B14" s="13">
         <v>43544</v>
@@ -3156,7 +3160,7 @@
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B15" s="13">
         <v>43551</v>
@@ -3165,7 +3169,7 @@
         <v>29</v>
       </c>
       <c r="D15" s="15" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
@@ -3177,7 +3181,7 @@
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B16" s="13">
         <v>43556</v>
@@ -3186,7 +3190,7 @@
         <v>29</v>
       </c>
       <c r="D16" s="17" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
@@ -3198,7 +3202,7 @@
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B17" s="13">
         <v>43558</v>
@@ -3207,7 +3211,7 @@
         <v>29</v>
       </c>
       <c r="D17" s="15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>33</v>
@@ -3221,7 +3225,7 @@
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B18" s="13">
         <v>43563</v>
@@ -3244,19 +3248,19 @@
     </row>
     <row r="19" spans="1:9" s="26" customFormat="1">
       <c r="A19" s="46" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B19" s="47">
         <v>43565</v>
       </c>
       <c r="C19" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="D19" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="D19" s="15" t="s">
-        <v>84</v>
-      </c>
       <c r="E19" s="42" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F19" s="42"/>
       <c r="G19" s="140"/>
@@ -3267,7 +3271,7 @@
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B20" s="13">
         <v>43570</v>
@@ -3276,10 +3280,10 @@
         <v>29</v>
       </c>
       <c r="D20" s="15" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F20" s="2"/>
       <c r="G20" s="140"/>
@@ -3290,7 +3294,7 @@
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B21" s="13">
         <v>43577</v>
@@ -3299,10 +3303,10 @@
         <v>29</v>
       </c>
       <c r="D21" s="15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F21" s="2"/>
       <c r="G21" s="140"/>
@@ -3313,7 +3317,7 @@
     </row>
     <row r="22" spans="1:9" ht="15">
       <c r="A22" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B22" s="104">
         <v>43584</v>
@@ -3322,10 +3326,10 @@
         <v>29</v>
       </c>
       <c r="D22" s="15" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F22" s="107"/>
       <c r="G22" s="141"/>
@@ -3338,7 +3342,7 @@
     </row>
     <row r="23" spans="1:9">
       <c r="A23" s="116" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B23" s="117">
         <v>43591</v>
@@ -3347,14 +3351,14 @@
         <v>29</v>
       </c>
       <c r="D23" s="119" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E23" s="120" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F23" s="121"/>
       <c r="G23" s="141" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H23" s="17">
         <v>140</v>
@@ -3363,14 +3367,14 @@
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B24" s="104">
         <v>43598</v>
       </c>
       <c r="C24" s="23"/>
       <c r="D24" s="15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E24" s="107"/>
       <c r="F24" s="107"/>
@@ -3382,17 +3386,17 @@
     </row>
     <row r="25" spans="1:9">
       <c r="A25" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B25" s="104">
         <v>43600</v>
       </c>
       <c r="C25" s="23"/>
       <c r="D25" s="17" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E25" s="107" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F25" s="107"/>
       <c r="G25" s="142"/>
@@ -3403,17 +3407,17 @@
     </row>
     <row r="26" spans="1:9">
       <c r="A26" s="12" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B26" s="104">
         <v>43605</v>
       </c>
       <c r="C26" s="23"/>
       <c r="D26" s="17" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E26" s="107" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F26" s="107"/>
       <c r="G26" s="142"/>
@@ -3424,17 +3428,17 @@
     </row>
     <row r="27" spans="1:9">
       <c r="A27" s="12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B27" s="104">
         <v>43607</v>
       </c>
       <c r="C27" s="23"/>
       <c r="D27" s="17" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E27" s="107" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F27" s="107"/>
       <c r="G27" s="142"/>
@@ -3444,17 +3448,17 @@
     </row>
     <row r="28" spans="1:9">
       <c r="A28" s="12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B28" s="104">
         <v>43612</v>
       </c>
       <c r="C28" s="23"/>
       <c r="D28" s="17" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E28" s="107" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F28" s="107"/>
       <c r="G28" s="142"/>
@@ -3464,17 +3468,17 @@
     </row>
     <row r="29" spans="1:9">
       <c r="A29" s="12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B29" s="104">
         <v>43614</v>
       </c>
       <c r="C29" s="23"/>
       <c r="D29" s="17" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E29" s="107" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F29" s="107"/>
       <c r="G29" s="142"/>
@@ -3484,17 +3488,17 @@
     </row>
     <row r="30" spans="1:9">
       <c r="A30" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B30" s="104">
         <v>43619</v>
       </c>
       <c r="C30" s="23"/>
       <c r="D30" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="E30" s="107" t="s">
         <v>73</v>
-      </c>
-      <c r="E30" s="107" t="s">
-        <v>74</v>
       </c>
       <c r="F30" s="107"/>
       <c r="G30" s="142"/>
@@ -3504,17 +3508,17 @@
     </row>
     <row r="31" spans="1:9">
       <c r="A31" s="12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B31" s="104">
         <v>43621</v>
       </c>
       <c r="C31" s="23"/>
       <c r="D31" s="17" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E31" s="107" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F31" s="107"/>
       <c r="G31" s="142"/>
@@ -3524,15 +3528,15 @@
     </row>
     <row r="32" spans="1:9" ht="15">
       <c r="A32" s="18" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B32" s="122"/>
       <c r="C32" s="123"/>
       <c r="D32" s="28" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E32" s="124" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F32" s="41"/>
       <c r="G32" s="143"/>
@@ -3584,7 +3588,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="12.6" customHeight="1">
       <c r="A1" s="139" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B1" s="139"/>
       <c r="C1" s="139"/>
@@ -3627,14 +3631,14 @@
         <v>43360</v>
       </c>
       <c r="C3" s="54" t="s">
+        <v>96</v>
+      </c>
+      <c r="D3" s="11" t="s">
         <v>97</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>98</v>
       </c>
       <c r="E3" s="10"/>
       <c r="F3" s="10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G3" s="140" t="s">
         <v>11</v>
@@ -3652,12 +3656,12 @@
         <v>43362</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D4" s="45"/>
       <c r="E4" s="16"/>
       <c r="F4" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G4" s="140"/>
       <c r="H4" s="17">
@@ -3673,12 +3677,12 @@
         <v>43364</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D5" s="45"/>
       <c r="E5" s="16"/>
       <c r="F5" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G5" s="140"/>
       <c r="H5" s="17">
@@ -3694,13 +3698,13 @@
         <v>43369</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D6" s="45" t="s">
         <v>19</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G6" s="140"/>
       <c r="H6" s="17">
@@ -3716,13 +3720,13 @@
         <v>43371</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D7" s="17" t="s">
         <v>21</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G7" s="140"/>
       <c r="H7" s="17">
@@ -3738,13 +3742,13 @@
         <v>43374</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D8" s="17" t="s">
         <v>23</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G8" s="140"/>
       <c r="H8" s="17">
@@ -3760,13 +3764,13 @@
         <v>43376</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D9" s="17" t="s">
         <v>25</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G9" s="140"/>
       <c r="H9" s="17">
@@ -3781,13 +3785,13 @@
         <v>43381</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D10" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="F10" s="2" t="s">
         <v>106</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>107</v>
       </c>
       <c r="G10" s="140"/>
       <c r="H10" s="17">
@@ -3802,13 +3806,13 @@
         <v>43383</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D11" s="15" t="s">
         <v>28</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G11" s="140"/>
       <c r="H11" s="17">
@@ -3824,12 +3828,12 @@
         <v>43388</v>
       </c>
       <c r="C12" s="20" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D12" s="59"/>
       <c r="E12" s="20"/>
       <c r="F12" s="41" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G12" s="140"/>
       <c r="H12" s="17">
@@ -3838,20 +3842,20 @@
     </row>
     <row r="13" spans="1:10" ht="15">
       <c r="A13" s="60" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B13" s="61">
         <v>43390</v>
       </c>
       <c r="C13" s="54" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E13" s="10"/>
       <c r="F13" s="10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G13" s="140" t="s">
         <v>31</v>
@@ -3864,19 +3868,19 @@
     </row>
     <row r="14" spans="1:10" ht="15">
       <c r="A14" s="62" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B14" s="63">
         <v>43395</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D14" s="17" t="s">
         <v>32</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G14" s="140"/>
       <c r="H14" s="17">
@@ -3887,19 +3891,19 @@
     </row>
     <row r="15" spans="1:10" ht="15">
       <c r="A15" s="62" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B15" s="63">
         <v>43399</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D15" s="15" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G15" s="140"/>
       <c r="H15" s="17">
@@ -3909,19 +3913,19 @@
     </row>
     <row r="16" spans="1:10" ht="15">
       <c r="A16" s="62" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B16" s="63">
         <v>43404</v>
       </c>
       <c r="C16" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D16" s="17" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G16" s="140"/>
       <c r="H16" s="17">
@@ -3931,22 +3935,22 @@
     </row>
     <row r="17" spans="1:10" ht="15">
       <c r="A17" s="62" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B17" s="63">
         <v>43409</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D17" s="15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>33</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G17" s="140"/>
       <c r="H17" s="17">
@@ -3956,22 +3960,22 @@
     </row>
     <row r="18" spans="1:10" ht="15">
       <c r="A18" s="62" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B18" s="63">
         <v>43413</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D18" s="15" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>35</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G18" s="140"/>
       <c r="H18" s="17">
@@ -3981,22 +3985,22 @@
     </row>
     <row r="19" spans="1:10" ht="15">
       <c r="A19" s="62" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B19" s="63">
         <v>43416</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D19" s="15" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G19" s="140"/>
       <c r="H19" s="17">
@@ -4006,22 +4010,22 @@
     </row>
     <row r="20" spans="1:10" ht="15">
       <c r="A20" s="62" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B20" s="63">
         <v>43423</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D20" s="15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G20" s="140"/>
       <c r="H20" s="17">
@@ -4031,22 +4035,22 @@
     </row>
     <row r="21" spans="1:10" ht="15">
       <c r="A21" s="62" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B21" s="63">
         <v>43425</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D21" s="15" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G21" s="140"/>
       <c r="H21" s="17">
@@ -4056,22 +4060,22 @@
     </row>
     <row r="22" spans="1:10" ht="15">
       <c r="A22" s="64" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B22" s="63">
         <v>43427</v>
       </c>
       <c r="C22" s="20" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D22" s="28" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E22" s="19" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F22" s="41" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G22" s="140"/>
       <c r="H22" s="17">
@@ -4086,7 +4090,7 @@
     </row>
     <row r="23" spans="1:10" ht="15">
       <c r="A23" s="52" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B23" s="53">
         <v>43430</v>
@@ -4095,14 +4099,14 @@
         <v>29</v>
       </c>
       <c r="D23" s="51" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E23" s="10"/>
       <c r="F23" s="10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G23" s="140" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H23" s="17">
         <v>140</v>
@@ -4111,7 +4115,7 @@
     </row>
     <row r="24" spans="1:10" ht="15">
       <c r="A24" s="56" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B24" s="57">
         <v>43432</v>
@@ -4120,13 +4124,13 @@
         <v>29</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G24" s="140"/>
       <c r="H24" s="17">
@@ -4136,7 +4140,7 @@
     </row>
     <row r="25" spans="1:10" ht="15">
       <c r="A25" s="56" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B25" s="57">
         <v>43434</v>
@@ -4145,13 +4149,13 @@
         <v>29</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G25" s="140"/>
       <c r="H25" s="17">
@@ -4161,7 +4165,7 @@
     </row>
     <row r="26" spans="1:10" ht="15">
       <c r="A26" s="56" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B26" s="57">
         <v>43437</v>
@@ -4170,13 +4174,13 @@
         <v>29</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G26" s="140"/>
       <c r="H26" s="17">
@@ -4186,7 +4190,7 @@
     </row>
     <row r="27" spans="1:10" ht="15">
       <c r="A27" s="56" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B27" s="57">
         <v>43439</v>
@@ -4195,13 +4199,13 @@
         <v>29</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G27" s="140"/>
       <c r="H27" s="17">
@@ -4210,7 +4214,7 @@
     </row>
     <row r="28" spans="1:10" ht="15">
       <c r="A28" s="56" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B28" s="57">
         <v>43441</v>
@@ -4219,13 +4223,13 @@
         <v>29</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G28" s="140"/>
       <c r="H28" s="17">
@@ -4234,7 +4238,7 @@
     </row>
     <row r="29" spans="1:10" ht="15">
       <c r="A29" s="56" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B29" s="57">
         <v>43444</v>
@@ -4243,13 +4247,13 @@
         <v>29</v>
       </c>
       <c r="D29" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="E29" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="E29" s="2" t="s">
-        <v>74</v>
-      </c>
       <c r="F29" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G29" s="140"/>
       <c r="H29" s="17">
@@ -4258,7 +4262,7 @@
     </row>
     <row r="30" spans="1:10" ht="15">
       <c r="A30" s="56" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B30" s="57">
         <v>43446</v>
@@ -4267,13 +4271,13 @@
         <v>29</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G30" s="140"/>
       <c r="H30" s="17">
@@ -4282,7 +4286,7 @@
     </row>
     <row r="31" spans="1:10" ht="15">
       <c r="A31" s="56" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B31" s="57">
         <v>43448</v>
@@ -4291,13 +4295,13 @@
         <v>29</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E31" s="67" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G31" s="140"/>
       <c r="H31" s="17">
@@ -4306,7 +4310,7 @@
     </row>
     <row r="32" spans="1:10" ht="15">
       <c r="A32" s="58" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B32" s="43">
         <v>43451</v>
@@ -4317,7 +4321,7 @@
       <c r="D32" s="28"/>
       <c r="E32" s="41"/>
       <c r="F32" s="41" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G32" s="140"/>
       <c r="H32" s="28">
@@ -4375,7 +4379,7 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="144" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B1" s="144"/>
       <c r="C1" s="144"/>
@@ -4400,7 +4404,7 @@
         <v>4</v>
       </c>
       <c r="F2" s="30" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G2" s="30" t="s">
         <v>5</v>
@@ -4415,12 +4419,12 @@
         <v>43312</v>
       </c>
       <c r="C3" s="54" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D3" s="70"/>
       <c r="E3" s="54"/>
       <c r="F3" s="33" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G3" s="138" t="s">
         <v>11</v>
@@ -4438,12 +4442,12 @@
         <v>43314</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D4" s="45"/>
       <c r="E4" s="16"/>
       <c r="F4" s="36" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G4" s="138"/>
       <c r="H4" s="36">
@@ -4459,12 +4463,12 @@
         <v>43319</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D5" s="45"/>
       <c r="E5" s="16"/>
       <c r="F5" s="36" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G5" s="138"/>
       <c r="H5" s="36">
@@ -4480,12 +4484,12 @@
         <v>43321</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D6" s="45"/>
       <c r="E6" s="16"/>
       <c r="F6" s="36" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G6" s="138"/>
       <c r="H6" s="36">
@@ -4501,12 +4505,12 @@
         <v>43326</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D7" s="45"/>
       <c r="E7" s="16"/>
       <c r="F7" s="36" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G7" s="138"/>
       <c r="H7" s="36">
@@ -4522,12 +4526,12 @@
         <v>43328</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D8" s="45"/>
       <c r="E8" s="16"/>
       <c r="F8" s="36" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G8" s="138"/>
       <c r="H8" s="36">
@@ -4543,12 +4547,12 @@
         <v>43333</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D9" s="45"/>
       <c r="E9" s="16"/>
       <c r="F9" s="36" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G9" s="138"/>
       <c r="H9" s="36">
@@ -4563,12 +4567,12 @@
         <v>43335</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D10" s="45"/>
       <c r="E10" s="16"/>
       <c r="F10" s="36" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G10" s="138"/>
       <c r="H10" s="36">
@@ -4583,12 +4587,12 @@
         <v>43340</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D11" s="45"/>
       <c r="E11" s="16"/>
       <c r="F11" s="36" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G11" s="138"/>
       <c r="H11" s="36">
@@ -4604,12 +4608,12 @@
         <v>43342</v>
       </c>
       <c r="C12" s="20" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D12" s="59"/>
       <c r="E12" s="20"/>
       <c r="F12" s="44" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G12" s="138"/>
       <c r="H12" s="36">
@@ -4624,20 +4628,20 @@
     </row>
     <row r="13" spans="1:10" ht="15">
       <c r="A13" s="60" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B13" s="61">
         <v>43347</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E13" s="10"/>
       <c r="F13" s="10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G13" s="138" t="s">
         <v>31</v>
@@ -4649,19 +4653,19 @@
     </row>
     <row r="14" spans="1:10" ht="15">
       <c r="A14" s="62" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B14" s="63">
         <v>43349</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D14" s="17" t="s">
         <v>32</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G14" s="138"/>
       <c r="H14" s="36">
@@ -4671,19 +4675,19 @@
     </row>
     <row r="15" spans="1:10" ht="15">
       <c r="A15" s="62" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B15" s="63">
         <v>43354</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D15" s="15" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G15" s="138"/>
       <c r="H15" s="36">
@@ -4693,19 +4697,19 @@
     </row>
     <row r="16" spans="1:10" ht="15">
       <c r="A16" s="62" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B16" s="63">
         <v>43356</v>
       </c>
       <c r="C16" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D16" s="17" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G16" s="138"/>
       <c r="H16" s="36">
@@ -4715,22 +4719,22 @@
     </row>
     <row r="17" spans="1:11" ht="15">
       <c r="A17" s="62" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B17" s="63">
         <v>43361</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D17" s="15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>33</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G17" s="138"/>
       <c r="H17" s="36">
@@ -4740,22 +4744,22 @@
     </row>
     <row r="18" spans="1:11" ht="15">
       <c r="A18" s="62" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B18" s="63">
         <v>43363</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D18" s="15" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>35</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G18" s="138"/>
       <c r="H18" s="36">
@@ -4765,22 +4769,22 @@
     </row>
     <row r="19" spans="1:11" ht="15">
       <c r="A19" s="62" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B19" s="63">
         <v>43368</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D19" s="15" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G19" s="138"/>
       <c r="H19" s="36">
@@ -4790,22 +4794,22 @@
     </row>
     <row r="20" spans="1:11" ht="15">
       <c r="A20" s="62" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B20" s="63">
         <v>43370</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D20" s="15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G20" s="138"/>
       <c r="H20" s="36">
@@ -4815,22 +4819,22 @@
     </row>
     <row r="21" spans="1:11" ht="15">
       <c r="A21" s="62" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B21" s="63">
         <v>43375</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G21" s="138"/>
       <c r="H21" s="36">
@@ -4840,22 +4844,22 @@
     </row>
     <row r="22" spans="1:11" ht="15">
       <c r="A22" s="64" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B22" s="57">
         <v>43382</v>
       </c>
       <c r="C22" s="20" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D22" s="28" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E22" s="41" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F22" s="41" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G22" s="138"/>
       <c r="H22" s="36">
@@ -4868,28 +4872,28 @@
         <v>1200</v>
       </c>
       <c r="K22" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="15">
       <c r="A23" s="52" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B23" s="53">
         <v>43384</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D23" s="51" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E23" s="10"/>
       <c r="F23" s="33" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G23" s="138" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H23" s="36">
         <v>120</v>
@@ -4898,22 +4902,22 @@
     </row>
     <row r="24" spans="1:11" ht="15">
       <c r="A24" s="56" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B24" s="57">
         <v>43389</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F24" s="36" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G24" s="138"/>
       <c r="H24" s="36">
@@ -4923,22 +4927,22 @@
     </row>
     <row r="25" spans="1:11" ht="15">
       <c r="A25" s="56" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B25" s="57">
         <v>43391</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F25" s="36" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G25" s="138"/>
       <c r="H25" s="36">
@@ -4948,22 +4952,22 @@
     </row>
     <row r="26" spans="1:11" ht="15">
       <c r="A26" s="56" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B26" s="57">
         <v>43396</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F26" s="36" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G26" s="138"/>
       <c r="H26" s="36">
@@ -4973,22 +4977,22 @@
     </row>
     <row r="27" spans="1:11" ht="15">
       <c r="A27" s="56" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B27" s="57">
         <v>43398</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F27" s="36" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G27" s="138"/>
       <c r="H27" s="36">
@@ -4997,22 +5001,22 @@
     </row>
     <row r="28" spans="1:11" ht="15">
       <c r="A28" s="56" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B28" s="57">
         <v>43403</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F28" s="36" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G28" s="138"/>
       <c r="H28" s="36">
@@ -5021,22 +5025,22 @@
     </row>
     <row r="29" spans="1:11" ht="15">
       <c r="A29" s="56" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B29" s="63">
         <v>43405</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D29" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="E29" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="E29" s="2" t="s">
-        <v>74</v>
-      </c>
       <c r="F29" s="36" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G29" s="138"/>
       <c r="H29" s="36">
@@ -5045,22 +5049,22 @@
     </row>
     <row r="30" spans="1:11" ht="15">
       <c r="A30" s="56" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B30" s="63">
         <v>43417</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F30" s="36" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G30" s="138"/>
       <c r="H30" s="36">
@@ -5069,22 +5073,22 @@
     </row>
     <row r="31" spans="1:11" ht="15">
       <c r="A31" s="56" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B31" s="63">
         <v>43424</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D31" s="72" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E31" s="67" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F31" s="36" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G31" s="138"/>
       <c r="H31" s="36">
@@ -5093,20 +5097,20 @@
     </row>
     <row r="32" spans="1:11" s="27" customFormat="1" ht="15.75">
       <c r="A32" s="73" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B32" s="74">
         <v>43426</v>
       </c>
       <c r="C32" s="20" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D32" s="75" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E32" s="76"/>
       <c r="F32" s="77" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G32" s="138"/>
       <c r="H32" s="77">
@@ -5180,7 +5184,7 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="144" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B1" s="144"/>
       <c r="C1" s="144"/>
@@ -5201,16 +5205,16 @@
       </c>
       <c r="D2" s="30"/>
       <c r="E2" s="30" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F2" s="30" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G2" s="30" t="s">
         <v>5</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="15">
@@ -5221,7 +5225,7 @@
         <v>43274</v>
       </c>
       <c r="C3" s="54" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D3" s="70"/>
       <c r="E3" s="70"/>
@@ -5240,7 +5244,7 @@
         <v>43281</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D4" s="45"/>
       <c r="E4" s="45"/>
@@ -5257,7 +5261,7 @@
         <v>43288</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D5" s="45"/>
       <c r="E5" s="45"/>
@@ -5274,7 +5278,7 @@
         <v>43295</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D6" s="45"/>
       <c r="E6" s="45"/>
@@ -5291,7 +5295,7 @@
         <v>43302</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D7" s="84"/>
       <c r="E7" s="84"/>
@@ -5308,7 +5312,7 @@
         <v>43309</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D8" s="84"/>
       <c r="E8" s="84"/>
@@ -5325,7 +5329,7 @@
         <v>43316</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D9" s="84"/>
       <c r="E9" s="84"/>
@@ -5343,7 +5347,7 @@
         <v>43323</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D10" s="84"/>
       <c r="E10" s="84"/>
@@ -5361,14 +5365,14 @@
         <v>43330</v>
       </c>
       <c r="C11" s="87" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D11" s="88" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E11" s="88"/>
       <c r="F11" s="89" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G11" s="145" t="s">
         <v>31</v>
@@ -5383,56 +5387,56 @@
         <v>43337</v>
       </c>
       <c r="C12" s="92" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D12" s="93" t="s">
         <v>32</v>
       </c>
       <c r="E12" s="93"/>
       <c r="F12" s="94" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G12" s="145"/>
       <c r="H12" s="2"/>
     </row>
     <row r="13" spans="1:9" ht="15">
       <c r="A13" s="90" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B13" s="91">
         <v>43344</v>
       </c>
       <c r="C13" s="92" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D13" s="93" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E13" s="93"/>
       <c r="F13" s="94" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G13" s="145"/>
       <c r="H13" s="2"/>
     </row>
     <row r="14" spans="1:9" ht="15">
       <c r="A14" s="90" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B14" s="91">
         <v>43358</v>
       </c>
       <c r="C14" s="92" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D14" s="93" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E14" s="93" t="s">
         <v>33</v>
       </c>
       <c r="F14" s="94" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G14" s="145"/>
       <c r="H14" s="71">
@@ -5444,88 +5448,88 @@
     </row>
     <row r="15" spans="1:9" ht="15">
       <c r="A15" s="90" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B15" s="95">
         <v>43365</v>
       </c>
       <c r="C15" s="92" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D15" s="93" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E15" s="93" t="s">
         <v>35</v>
       </c>
       <c r="F15" s="94" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G15" s="145"/>
       <c r="H15" s="2"/>
     </row>
     <row r="16" spans="1:9" ht="15">
       <c r="A16" s="90" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B16" s="95">
         <v>43372</v>
       </c>
       <c r="C16" s="92" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D16" s="93" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E16" s="93" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F16" s="94" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G16" s="145"/>
       <c r="H16" s="2"/>
     </row>
     <row r="17" spans="1:9" ht="15">
       <c r="A17" s="90" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B17" s="95">
         <v>43386</v>
       </c>
       <c r="C17" s="92" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D17" s="93" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E17" s="93" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F17" s="94" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G17" s="145"/>
       <c r="H17" s="2"/>
     </row>
     <row r="18" spans="1:9" ht="15">
       <c r="A18" s="96" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B18" s="97">
         <v>43393</v>
       </c>
       <c r="C18" s="98" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D18" s="49" t="s">
+        <v>132</v>
+      </c>
+      <c r="E18" s="49" t="s">
         <v>133</v>
       </c>
-      <c r="E18" s="49" t="s">
-        <v>134</v>
-      </c>
       <c r="F18" s="50" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G18" s="145"/>
       <c r="H18" s="71">
@@ -5537,7 +5541,7 @@
     </row>
     <row r="19" spans="1:9" ht="15">
       <c r="A19" s="62" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B19" s="99">
         <v>43414</v>
@@ -5546,20 +5550,20 @@
         <v>29</v>
       </c>
       <c r="D19" s="51" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E19" s="51"/>
       <c r="F19" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G19" s="138" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H19" s="2"/>
     </row>
     <row r="20" spans="1:9" ht="15">
       <c r="A20" s="62" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B20" s="99">
         <v>43421</v>
@@ -5568,20 +5572,20 @@
         <v>29</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E20" s="17" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G20" s="138"/>
       <c r="H20" s="2"/>
     </row>
     <row r="21" spans="1:9" ht="15">
       <c r="A21" s="62" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B21" s="99">
         <v>43428</v>
@@ -5590,20 +5594,20 @@
         <v>29</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E21" s="17" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G21" s="138"/>
       <c r="H21" s="2"/>
     </row>
     <row r="22" spans="1:9" ht="15">
       <c r="A22" s="62" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B22" s="99">
         <v>43435</v>
@@ -5612,13 +5616,13 @@
         <v>29</v>
       </c>
       <c r="D22" s="17" t="s">
+        <v>136</v>
+      </c>
+      <c r="E22" s="17" t="s">
         <v>137</v>
       </c>
-      <c r="E22" s="17" t="s">
-        <v>138</v>
-      </c>
       <c r="F22" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G22" s="138"/>
       <c r="H22" s="65">
@@ -5630,7 +5634,7 @@
     </row>
     <row r="23" spans="1:9" ht="15">
       <c r="A23" s="62" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B23" s="101">
         <v>43442</v>
@@ -5639,20 +5643,20 @@
         <v>29</v>
       </c>
       <c r="D23" s="17" t="s">
+        <v>138</v>
+      </c>
+      <c r="E23" s="17" t="s">
         <v>139</v>
       </c>
-      <c r="E23" s="17" t="s">
-        <v>140</v>
-      </c>
       <c r="F23" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G23" s="138"/>
       <c r="H23" s="2"/>
     </row>
     <row r="24" spans="1:9" ht="15">
       <c r="A24" s="62" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B24" s="101">
         <v>43449</v>
@@ -5661,52 +5665,52 @@
         <v>29</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E24" s="17" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G24" s="138"/>
       <c r="H24" s="2"/>
     </row>
     <row r="25" spans="1:9" ht="15">
       <c r="A25" s="62" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B25" s="101">
         <v>43477</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="17" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E25" s="17" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G25" s="138"/>
     </row>
     <row r="26" spans="1:9" ht="15">
       <c r="A26" s="64" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B26" s="102">
         <v>43484</v>
       </c>
       <c r="C26" s="41"/>
       <c r="D26" s="28" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E26" s="28" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F26" s="41" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G26" s="138"/>
       <c r="I26" s="2">
@@ -5760,7 +5764,7 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" s="146" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B1" s="146"/>
       <c r="C1" s="146"/>
@@ -5782,16 +5786,16 @@
       </c>
       <c r="D2" s="30"/>
       <c r="E2" s="30" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F2" s="30" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G2" s="30" t="s">
         <v>5</v>
       </c>
       <c r="H2" s="30" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I2" s="16"/>
     </row>
@@ -5801,7 +5805,7 @@
       </c>
       <c r="B3" s="80"/>
       <c r="C3" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D3" s="16"/>
       <c r="E3" s="16"/>
@@ -5809,10 +5813,10 @@
         <v>5</v>
       </c>
       <c r="G3" s="146" t="s">
+        <v>145</v>
+      </c>
+      <c r="J3" s="147" t="s">
         <v>146</v>
-      </c>
-      <c r="J3" s="147" t="s">
-        <v>147</v>
       </c>
       <c r="K3" s="147"/>
     </row>
@@ -5822,7 +5826,7 @@
       </c>
       <c r="B4" s="16"/>
       <c r="C4" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D4" s="16"/>
       <c r="E4" s="16"/>
@@ -5831,7 +5835,7 @@
       </c>
       <c r="G4" s="146"/>
       <c r="J4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="K4" s="55">
         <f>140/8</f>
@@ -5844,7 +5848,7 @@
       </c>
       <c r="B5" s="16"/>
       <c r="C5" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D5" s="16"/>
       <c r="E5" s="16"/>
@@ -5853,7 +5857,7 @@
       </c>
       <c r="G5" s="146"/>
       <c r="J5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="K5" s="55">
         <f>K4</f>
@@ -5866,7 +5870,7 @@
       </c>
       <c r="B6" s="16"/>
       <c r="C6" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D6" s="16"/>
       <c r="E6" s="16"/>
@@ -5875,7 +5879,7 @@
       </c>
       <c r="G6" s="146"/>
       <c r="J6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K6" s="55">
         <f>K4*2</f>
@@ -5888,7 +5892,7 @@
       </c>
       <c r="B7" s="54"/>
       <c r="C7" s="54" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D7" s="54"/>
       <c r="E7" s="54"/>
@@ -5899,7 +5903,7 @@
         <v>11</v>
       </c>
       <c r="J7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K7" s="55">
         <f>K4*3</f>
@@ -5912,7 +5916,7 @@
       </c>
       <c r="B8" s="16"/>
       <c r="C8" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D8" s="16"/>
       <c r="E8" s="16"/>
@@ -5921,7 +5925,7 @@
       </c>
       <c r="G8" s="140"/>
       <c r="J8" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="K8" s="55">
         <f>K4*4</f>
@@ -5934,7 +5938,7 @@
       </c>
       <c r="B9" s="16"/>
       <c r="C9" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D9" s="16"/>
       <c r="E9" s="16"/>
@@ -5943,7 +5947,7 @@
       </c>
       <c r="G9" s="140"/>
       <c r="J9" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="K9" s="55">
         <f>K4*5</f>
@@ -5956,7 +5960,7 @@
       </c>
       <c r="B10" s="16"/>
       <c r="C10" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D10" s="16"/>
       <c r="E10" s="16"/>
@@ -5965,7 +5969,7 @@
       </c>
       <c r="G10" s="140"/>
       <c r="J10" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="K10" s="55">
         <f>K4*6</f>
@@ -5978,7 +5982,7 @@
       </c>
       <c r="B11" s="16"/>
       <c r="C11" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D11" s="16"/>
       <c r="E11" s="16"/>
@@ -5987,7 +5991,7 @@
       </c>
       <c r="G11" s="140"/>
       <c r="J11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="K11" s="55">
         <f>K4*7</f>
@@ -6000,7 +6004,7 @@
       </c>
       <c r="B12" s="16"/>
       <c r="C12" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D12" s="16"/>
       <c r="E12" s="16"/>
@@ -6009,7 +6013,7 @@
       </c>
       <c r="G12" s="140"/>
       <c r="J12" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="K12" s="55">
         <f>K4*8</f>
@@ -6018,11 +6022,11 @@
     </row>
     <row r="13" spans="1:11" ht="15">
       <c r="A13" s="56" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B13" s="16"/>
       <c r="C13" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D13" s="16"/>
       <c r="E13" s="16"/>
@@ -6033,11 +6037,11 @@
     </row>
     <row r="14" spans="1:11" ht="15">
       <c r="A14" s="58" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B14" s="20"/>
       <c r="C14" s="20" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -6048,11 +6052,11 @@
     </row>
     <row r="15" spans="1:11" ht="15">
       <c r="A15" s="52" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B15" s="54"/>
       <c r="C15" s="54" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D15" s="54"/>
       <c r="E15" s="54"/>
@@ -6065,13 +6069,13 @@
     </row>
     <row r="16" spans="1:11" ht="15">
       <c r="A16" s="56" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B16" s="57">
         <v>43261</v>
       </c>
       <c r="C16" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D16" s="16"/>
       <c r="E16" s="16"/>
@@ -6082,13 +6086,13 @@
     </row>
     <row r="17" spans="1:10" ht="15">
       <c r="A17" s="56" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B17" s="57">
         <v>43268</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D17" s="16"/>
       <c r="E17" s="16"/>
@@ -6101,13 +6105,13 @@
     </row>
     <row r="18" spans="1:10" ht="15">
       <c r="A18" s="56" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B18" s="57">
         <v>43275</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D18" s="16"/>
       <c r="E18" s="16"/>
@@ -6118,16 +6122,16 @@
     </row>
     <row r="19" spans="1:10" ht="15">
       <c r="A19" s="62" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B19" s="63">
         <v>43282</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F19" s="2">
         <v>5</v>
@@ -6136,16 +6140,16 @@
     </row>
     <row r="20" spans="1:10" ht="15">
       <c r="A20" s="62" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B20" s="63">
         <v>43289</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F20" s="2">
         <v>6</v>
@@ -6154,16 +6158,16 @@
     </row>
     <row r="21" spans="1:10" ht="15">
       <c r="A21" s="62" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B21" s="63">
         <v>43296</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F21" s="2">
         <v>7</v>
@@ -6172,16 +6176,16 @@
     </row>
     <row r="22" spans="1:10" ht="15">
       <c r="A22" s="64" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B22" s="103">
         <v>43303</v>
       </c>
       <c r="C22" s="20" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D22" s="41" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E22" s="41"/>
       <c r="F22" s="41">
@@ -6191,40 +6195,40 @@
     </row>
     <row r="23" spans="1:10" ht="15">
       <c r="A23" s="60" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B23" s="53">
         <v>43310</v>
       </c>
       <c r="C23" s="54" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E23" s="10"/>
       <c r="F23" s="10">
         <v>1</v>
       </c>
       <c r="G23" s="140" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="15">
       <c r="A24" s="62" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B24" s="57">
         <v>43317</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F24" s="2">
         <v>2</v>
@@ -6233,19 +6237,19 @@
     </row>
     <row r="25" spans="1:10" ht="15">
       <c r="A25" s="62" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B25" s="57">
         <v>43331</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F25" s="2">
         <v>3</v>
@@ -6254,43 +6258,43 @@
     </row>
     <row r="26" spans="1:10" ht="15">
       <c r="A26" s="62" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B26" s="57">
         <v>43338</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F26" s="2">
         <v>4</v>
       </c>
       <c r="G26" s="140"/>
       <c r="H26" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="15">
       <c r="A27" s="62" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B27" s="63">
         <v>43345</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F27" s="2">
         <v>5</v>
@@ -6299,19 +6303,19 @@
     </row>
     <row r="28" spans="1:10" ht="15">
       <c r="A28" s="62" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B28" s="63">
         <v>43359</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F28" s="2">
         <v>6</v>
@@ -6320,19 +6324,19 @@
     </row>
     <row r="29" spans="1:10" ht="15">
       <c r="A29" s="62" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B29" s="63">
         <v>43373</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F29" s="2">
         <v>7</v>
@@ -6341,19 +6345,19 @@
     </row>
     <row r="30" spans="1:10" ht="15">
       <c r="A30" s="64" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B30" s="103">
         <v>43387</v>
       </c>
       <c r="C30" s="20" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D30" s="41" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E30" s="41" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F30" s="41">
         <v>8</v>
@@ -6366,7 +6370,7 @@
         <v>600</v>
       </c>
       <c r="J30" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
   </sheetData>

--- a/Cronograma aulas/Aulas v2.xlsx
+++ b/Cronograma aulas/Aulas v2.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JAVA SEG QUA\Documents\github\aulas-3way\Cronograma aulas\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0349DF6D-6765-48D3-A797-0EBBB151B596}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="489"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" tabRatio="489" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="t7_seg_e_qua" sheetId="1" r:id="rId1"/>
@@ -15,17 +21,24 @@
     <sheet name="t2_Sábado" sheetId="6" r:id="rId6"/>
     <sheet name="t1_Domingo_(finalizada)" sheetId="7" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="114210"/>
+  <calcPr calcId="181029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="D15" authorId="0">
+    <comment ref="D15" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000001000000}">
       <text>
         <r>
           <rPr>
@@ -577,7 +590,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="[$R$-416]\ #,##0.00;[Red]\-[$R$-416]\ #,##0.00"/>
     <numFmt numFmtId="165" formatCode="m/d/yy"/>
@@ -1447,6 +1460,14 @@
       <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1467,7 +1488,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1026" name="shapetype_202" hidden="1"/>
+        <xdr:cNvPr id="1026" name="shapetype_202" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noSelect="1" noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -1499,7 +1526,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1541,7 +1568,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1573,9 +1600,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1607,6 +1652,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1782,11 +1845,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H30"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="14.25"/>
@@ -2354,7 +2417,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
@@ -2857,7 +2920,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <tabColor indexed="47"/>
   </sheetPr>
@@ -3563,7 +3626,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <tabColor indexed="47"/>
   </sheetPr>
@@ -4352,7 +4415,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <tabColor indexed="47"/>
   </sheetPr>
@@ -5159,7 +5222,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <tabColor indexed="47"/>
   </sheetPr>
@@ -5737,7 +5800,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr>
     <tabColor indexed="47"/>
   </sheetPr>

--- a/Cronograma aulas/Aulas v2.xlsx
+++ b/Cronograma aulas/Aulas v2.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JAVA SEG QUA\Documents\github\aulas-3way\Cronograma aulas\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0349DF6D-6765-48D3-A797-0EBBB151B596}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" tabRatio="489" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" tabRatio="489"/>
   </bookViews>
   <sheets>
     <sheet name="t7_seg_e_qua" sheetId="1" r:id="rId1"/>
@@ -21,24 +15,17 @@
     <sheet name="t2_Sábado" sheetId="6" r:id="rId6"/>
     <sheet name="t1_Domingo_(finalizada)" sheetId="7" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="114210"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="D15" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000001000000}">
+    <comment ref="D15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -175,9 +162,6 @@
     <t>Jsp-servlet-crud-filtro</t>
   </si>
   <si>
-    <t>Crud com JPA     http://www.universidadejava.com.br/materiais/jpa-exemplo-crud/</t>
-  </si>
-  <si>
     <t>Frameworks</t>
   </si>
   <si>
@@ -572,25 +556,28 @@
     <t>HTML, CSS, JS - Github</t>
   </si>
   <si>
-    <t>Criar DAO - implementar DAO em cima do exercicio Cliente</t>
-  </si>
-  <si>
     <t>jsp-servlet-jpa</t>
   </si>
   <si>
     <t>Github -Redirecionar, JSP,  Git/Github</t>
   </si>
   <si>
-    <t xml:space="preserve">JSTL c:forEach - </t>
-  </si>
-  <si>
-    <t>1º CRUD com JPA - JSP Servlet JDBC – Git/Github / incluir CRUD com JPA</t>
+    <t>1º CRUD com JPA -  incluir CRUD com JPA</t>
+  </si>
+  <si>
+    <t>JSTL c:forEach - Git/Github</t>
+  </si>
+  <si>
+    <t>Servlet JSP</t>
+  </si>
+  <si>
+    <t>Criar DAO JPA - implementar DAO em cima do exercicio Cliente</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="[$R$-416]\ #,##0.00;[Red]\-[$R$-416]\ #,##0.00"/>
     <numFmt numFmtId="165" formatCode="m/d/yy"/>
@@ -1460,14 +1447,6 @@
       <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -1488,13 +1467,7 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1026" name="shapetype_202" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002040000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="1026" name="shapetype_202" hidden="1"/>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noSelect="1" noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -1526,7 +1499,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1568,7 +1541,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1600,27 +1573,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1652,24 +1607,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1845,11 +1782,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H30"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="14.25"/>
@@ -2163,7 +2100,7 @@
         <v>29</v>
       </c>
       <c r="D16" s="37" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E16" s="17"/>
       <c r="F16" s="138"/>
@@ -2183,7 +2120,7 @@
         <v>29</v>
       </c>
       <c r="D17" s="37" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E17" s="17" t="s">
         <v>35</v>
@@ -2227,7 +2164,7 @@
         <v>29</v>
       </c>
       <c r="D19" s="37" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E19" s="15"/>
       <c r="F19" s="138"/>
@@ -2245,7 +2182,7 @@
       </c>
       <c r="C20" s="77"/>
       <c r="D20" s="40" t="s">
-        <v>39</v>
+        <v>167</v>
       </c>
       <c r="E20" s="137"/>
       <c r="F20" s="138"/>
@@ -2265,7 +2202,7 @@
       <c r="D21" s="108"/>
       <c r="E21" s="133"/>
       <c r="F21" s="138" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G21" s="17">
         <v>140</v>
@@ -2277,7 +2214,7 @@
         <v>12</v>
       </c>
       <c r="B22" s="126">
-        <v>43756</v>
+        <v>43759</v>
       </c>
       <c r="C22" s="23"/>
       <c r="D22" s="12"/>
@@ -2309,7 +2246,7 @@
         <v>16</v>
       </c>
       <c r="B24" s="126">
-        <v>43763</v>
+        <v>43766</v>
       </c>
       <c r="C24" s="23"/>
       <c r="D24" s="37"/>
@@ -2324,7 +2261,9 @@
       <c r="A25" s="113" t="s">
         <v>18</v>
       </c>
-      <c r="B25" s="126"/>
+      <c r="B25" s="126">
+        <v>43768</v>
+      </c>
       <c r="C25" s="23"/>
       <c r="D25" s="37"/>
       <c r="E25" s="37"/>
@@ -2337,7 +2276,9 @@
       <c r="A26" s="113" t="s">
         <v>20</v>
       </c>
-      <c r="B26" s="126"/>
+      <c r="B26" s="126">
+        <v>43773</v>
+      </c>
       <c r="C26" s="23"/>
       <c r="D26" s="37"/>
       <c r="E26" s="37"/>
@@ -2350,7 +2291,9 @@
       <c r="A27" s="113" t="s">
         <v>22</v>
       </c>
-      <c r="B27" s="126"/>
+      <c r="B27" s="126">
+        <v>43775</v>
+      </c>
       <c r="C27" s="23"/>
       <c r="D27" s="37"/>
       <c r="E27" s="37"/>
@@ -2363,7 +2306,9 @@
       <c r="A28" s="113" t="s">
         <v>24</v>
       </c>
-      <c r="B28" s="126"/>
+      <c r="B28" s="126">
+        <v>43780</v>
+      </c>
       <c r="C28" s="23"/>
       <c r="D28" s="17"/>
       <c r="E28" s="37"/>
@@ -2376,7 +2321,9 @@
       <c r="A29" s="113" t="s">
         <v>26</v>
       </c>
-      <c r="B29" s="126"/>
+      <c r="B29" s="126">
+        <v>43782</v>
+      </c>
       <c r="C29" s="23"/>
       <c r="D29" s="17"/>
       <c r="E29" s="37"/>
@@ -2417,11 +2364,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="14.25"/>
@@ -2437,7 +2384,7 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="138" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B1" s="138"/>
       <c r="C1" s="138"/>
@@ -2585,7 +2532,7 @@
         <v>9</v>
       </c>
       <c r="D9" s="38" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E9" s="37"/>
       <c r="F9" s="138"/>
@@ -2621,7 +2568,7 @@
         <v>9</v>
       </c>
       <c r="D11" s="17" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="138" t="s">
@@ -2663,7 +2610,7 @@
         <v>9</v>
       </c>
       <c r="D13" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="138"/>
@@ -2683,10 +2630,10 @@
         <v>9</v>
       </c>
       <c r="D14" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="E14" s="2" t="s">
         <v>47</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>48</v>
       </c>
       <c r="F14" s="138"/>
       <c r="G14" s="17">
@@ -2705,7 +2652,7 @@
         <v>29</v>
       </c>
       <c r="D15" s="15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>35</v>
@@ -2727,7 +2674,7 @@
         <v>29</v>
       </c>
       <c r="D16" s="17" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>36</v>
@@ -2743,11 +2690,11 @@
         <v>22</v>
       </c>
       <c r="B17" s="128">
-        <v>43691</v>
+        <v>43722</v>
       </c>
       <c r="C17" s="36"/>
       <c r="D17" s="17" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>36</v>
@@ -2768,7 +2715,7 @@
       <c r="C18" s="23"/>
       <c r="D18" s="15"/>
       <c r="E18" s="136" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F18" s="138"/>
       <c r="G18" s="17">
@@ -2787,7 +2734,7 @@
       <c r="D19" s="8"/>
       <c r="E19" s="6"/>
       <c r="F19" s="138" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G19" s="36">
         <v>175</v>
@@ -2920,7 +2867,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor indexed="47"/>
   </sheetPr>
@@ -2944,7 +2891,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="15">
       <c r="A1" s="139" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B1" s="139"/>
       <c r="C1" s="139"/>
@@ -2990,7 +2937,7 @@
         <v>29</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E3" s="10"/>
       <c r="F3" s="10"/>
@@ -3179,7 +3126,7 @@
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B13" s="7">
         <v>43542</v>
@@ -3188,7 +3135,7 @@
         <v>29</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E13" s="10"/>
       <c r="F13" s="10"/>
@@ -3202,7 +3149,7 @@
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B14" s="13">
         <v>43544</v>
@@ -3223,7 +3170,7 @@
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B15" s="13">
         <v>43551</v>
@@ -3232,7 +3179,7 @@
         <v>29</v>
       </c>
       <c r="D15" s="15" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
@@ -3244,7 +3191,7 @@
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B16" s="13">
         <v>43556</v>
@@ -3253,7 +3200,7 @@
         <v>29</v>
       </c>
       <c r="D16" s="17" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
@@ -3265,7 +3212,7 @@
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B17" s="13">
         <v>43558</v>
@@ -3274,7 +3221,7 @@
         <v>29</v>
       </c>
       <c r="D17" s="15" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>33</v>
@@ -3288,7 +3235,7 @@
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B18" s="13">
         <v>43563</v>
@@ -3311,16 +3258,16 @@
     </row>
     <row r="19" spans="1:9" s="26" customFormat="1">
       <c r="A19" s="46" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B19" s="47">
         <v>43565</v>
       </c>
       <c r="C19" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="D19" s="15" t="s">
         <v>82</v>
-      </c>
-      <c r="D19" s="15" t="s">
-        <v>83</v>
       </c>
       <c r="E19" s="42" t="s">
         <v>37</v>
@@ -3334,7 +3281,7 @@
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B20" s="13">
         <v>43570</v>
@@ -3343,7 +3290,7 @@
         <v>29</v>
       </c>
       <c r="D20" s="15" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>37</v>
@@ -3357,7 +3304,7 @@
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B21" s="13">
         <v>43577</v>
@@ -3366,7 +3313,7 @@
         <v>29</v>
       </c>
       <c r="D21" s="15" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>38</v>
@@ -3380,7 +3327,7 @@
     </row>
     <row r="22" spans="1:9" ht="15">
       <c r="A22" s="12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B22" s="104">
         <v>43584</v>
@@ -3389,10 +3336,10 @@
         <v>29</v>
       </c>
       <c r="D22" s="15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F22" s="107"/>
       <c r="G22" s="141"/>
@@ -3405,7 +3352,7 @@
     </row>
     <row r="23" spans="1:9">
       <c r="A23" s="116" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B23" s="117">
         <v>43591</v>
@@ -3414,14 +3361,14 @@
         <v>29</v>
       </c>
       <c r="D23" s="119" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E23" s="120" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F23" s="121"/>
       <c r="G23" s="141" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H23" s="17">
         <v>140</v>
@@ -3430,14 +3377,14 @@
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B24" s="104">
         <v>43598</v>
       </c>
       <c r="C24" s="23"/>
       <c r="D24" s="15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E24" s="107"/>
       <c r="F24" s="107"/>
@@ -3449,17 +3396,17 @@
     </row>
     <row r="25" spans="1:9">
       <c r="A25" s="12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B25" s="104">
         <v>43600</v>
       </c>
       <c r="C25" s="23"/>
       <c r="D25" s="17" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E25" s="107" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F25" s="107"/>
       <c r="G25" s="142"/>
@@ -3470,17 +3417,17 @@
     </row>
     <row r="26" spans="1:9">
       <c r="A26" s="12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B26" s="104">
         <v>43605</v>
       </c>
       <c r="C26" s="23"/>
       <c r="D26" s="17" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E26" s="107" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F26" s="107"/>
       <c r="G26" s="142"/>
@@ -3491,17 +3438,17 @@
     </row>
     <row r="27" spans="1:9">
       <c r="A27" s="12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B27" s="104">
         <v>43607</v>
       </c>
       <c r="C27" s="23"/>
       <c r="D27" s="17" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E27" s="107" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F27" s="107"/>
       <c r="G27" s="142"/>
@@ -3511,17 +3458,17 @@
     </row>
     <row r="28" spans="1:9">
       <c r="A28" s="12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B28" s="104">
         <v>43612</v>
       </c>
       <c r="C28" s="23"/>
       <c r="D28" s="17" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E28" s="107" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F28" s="107"/>
       <c r="G28" s="142"/>
@@ -3531,17 +3478,17 @@
     </row>
     <row r="29" spans="1:9">
       <c r="A29" s="12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B29" s="104">
         <v>43614</v>
       </c>
       <c r="C29" s="23"/>
       <c r="D29" s="17" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E29" s="107" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F29" s="107"/>
       <c r="G29" s="142"/>
@@ -3551,17 +3498,17 @@
     </row>
     <row r="30" spans="1:9">
       <c r="A30" s="12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B30" s="104">
         <v>43619</v>
       </c>
       <c r="C30" s="23"/>
       <c r="D30" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="E30" s="107" t="s">
         <v>72</v>
-      </c>
-      <c r="E30" s="107" t="s">
-        <v>73</v>
       </c>
       <c r="F30" s="107"/>
       <c r="G30" s="142"/>
@@ -3571,17 +3518,17 @@
     </row>
     <row r="31" spans="1:9">
       <c r="A31" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B31" s="104">
         <v>43621</v>
       </c>
       <c r="C31" s="23"/>
       <c r="D31" s="17" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E31" s="107" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F31" s="107"/>
       <c r="G31" s="142"/>
@@ -3591,15 +3538,15 @@
     </row>
     <row r="32" spans="1:9" ht="15">
       <c r="A32" s="18" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B32" s="122"/>
       <c r="C32" s="123"/>
       <c r="D32" s="28" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E32" s="124" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F32" s="41"/>
       <c r="G32" s="143"/>
@@ -3626,7 +3573,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor indexed="47"/>
   </sheetPr>
@@ -3651,7 +3598,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="12.6" customHeight="1">
       <c r="A1" s="139" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B1" s="139"/>
       <c r="C1" s="139"/>
@@ -3694,14 +3641,14 @@
         <v>43360</v>
       </c>
       <c r="C3" s="54" t="s">
+        <v>95</v>
+      </c>
+      <c r="D3" s="11" t="s">
         <v>96</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>97</v>
       </c>
       <c r="E3" s="10"/>
       <c r="F3" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G3" s="140" t="s">
         <v>11</v>
@@ -3719,12 +3666,12 @@
         <v>43362</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D4" s="45"/>
       <c r="E4" s="16"/>
       <c r="F4" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G4" s="140"/>
       <c r="H4" s="17">
@@ -3740,12 +3687,12 @@
         <v>43364</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D5" s="45"/>
       <c r="E5" s="16"/>
       <c r="F5" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G5" s="140"/>
       <c r="H5" s="17">
@@ -3761,13 +3708,13 @@
         <v>43369</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D6" s="45" t="s">
         <v>19</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G6" s="140"/>
       <c r="H6" s="17">
@@ -3783,13 +3730,13 @@
         <v>43371</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D7" s="17" t="s">
         <v>21</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G7" s="140"/>
       <c r="H7" s="17">
@@ -3805,13 +3752,13 @@
         <v>43374</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D8" s="17" t="s">
         <v>23</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G8" s="140"/>
       <c r="H8" s="17">
@@ -3827,13 +3774,13 @@
         <v>43376</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D9" s="17" t="s">
         <v>25</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G9" s="140"/>
       <c r="H9" s="17">
@@ -3848,13 +3795,13 @@
         <v>43381</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D10" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="F10" s="2" t="s">
         <v>105</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>106</v>
       </c>
       <c r="G10" s="140"/>
       <c r="H10" s="17">
@@ -3869,13 +3816,13 @@
         <v>43383</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D11" s="15" t="s">
         <v>28</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G11" s="140"/>
       <c r="H11" s="17">
@@ -3891,12 +3838,12 @@
         <v>43388</v>
       </c>
       <c r="C12" s="20" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D12" s="59"/>
       <c r="E12" s="20"/>
       <c r="F12" s="41" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G12" s="140"/>
       <c r="H12" s="17">
@@ -3905,20 +3852,20 @@
     </row>
     <row r="13" spans="1:10" ht="15">
       <c r="A13" s="60" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B13" s="61">
         <v>43390</v>
       </c>
       <c r="C13" s="54" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E13" s="10"/>
       <c r="F13" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G13" s="140" t="s">
         <v>31</v>
@@ -3931,19 +3878,19 @@
     </row>
     <row r="14" spans="1:10" ht="15">
       <c r="A14" s="62" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B14" s="63">
         <v>43395</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D14" s="17" t="s">
         <v>32</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G14" s="140"/>
       <c r="H14" s="17">
@@ -3954,19 +3901,19 @@
     </row>
     <row r="15" spans="1:10" ht="15">
       <c r="A15" s="62" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B15" s="63">
         <v>43399</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D15" s="15" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G15" s="140"/>
       <c r="H15" s="17">
@@ -3976,19 +3923,19 @@
     </row>
     <row r="16" spans="1:10" ht="15">
       <c r="A16" s="62" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B16" s="63">
         <v>43404</v>
       </c>
       <c r="C16" s="16" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D16" s="17" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G16" s="140"/>
       <c r="H16" s="17">
@@ -3998,22 +3945,22 @@
     </row>
     <row r="17" spans="1:10" ht="15">
       <c r="A17" s="62" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B17" s="63">
         <v>43409</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D17" s="15" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>33</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G17" s="140"/>
       <c r="H17" s="17">
@@ -4023,22 +3970,22 @@
     </row>
     <row r="18" spans="1:10" ht="15">
       <c r="A18" s="62" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B18" s="63">
         <v>43413</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D18" s="15" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>35</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G18" s="140"/>
       <c r="H18" s="17">
@@ -4048,22 +3995,22 @@
     </row>
     <row r="19" spans="1:10" ht="15">
       <c r="A19" s="62" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B19" s="63">
         <v>43416</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D19" s="15" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>37</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G19" s="140"/>
       <c r="H19" s="17">
@@ -4073,22 +4020,22 @@
     </row>
     <row r="20" spans="1:10" ht="15">
       <c r="A20" s="62" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B20" s="63">
         <v>43423</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D20" s="15" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>38</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G20" s="140"/>
       <c r="H20" s="17">
@@ -4098,22 +4045,22 @@
     </row>
     <row r="21" spans="1:10" ht="15">
       <c r="A21" s="62" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B21" s="63">
         <v>43425</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D21" s="15" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G21" s="140"/>
       <c r="H21" s="17">
@@ -4123,22 +4070,22 @@
     </row>
     <row r="22" spans="1:10" ht="15">
       <c r="A22" s="64" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B22" s="63">
         <v>43427</v>
       </c>
       <c r="C22" s="20" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D22" s="28" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E22" s="19" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F22" s="41" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G22" s="140"/>
       <c r="H22" s="17">
@@ -4153,7 +4100,7 @@
     </row>
     <row r="23" spans="1:10" ht="15">
       <c r="A23" s="52" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B23" s="53">
         <v>43430</v>
@@ -4162,14 +4109,14 @@
         <v>29</v>
       </c>
       <c r="D23" s="51" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E23" s="10"/>
       <c r="F23" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G23" s="140" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H23" s="17">
         <v>140</v>
@@ -4178,7 +4125,7 @@
     </row>
     <row r="24" spans="1:10" ht="15">
       <c r="A24" s="56" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B24" s="57">
         <v>43432</v>
@@ -4187,13 +4134,13 @@
         <v>29</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G24" s="140"/>
       <c r="H24" s="17">
@@ -4203,7 +4150,7 @@
     </row>
     <row r="25" spans="1:10" ht="15">
       <c r="A25" s="56" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B25" s="57">
         <v>43434</v>
@@ -4212,13 +4159,13 @@
         <v>29</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G25" s="140"/>
       <c r="H25" s="17">
@@ -4228,7 +4175,7 @@
     </row>
     <row r="26" spans="1:10" ht="15">
       <c r="A26" s="56" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B26" s="57">
         <v>43437</v>
@@ -4237,13 +4184,13 @@
         <v>29</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G26" s="140"/>
       <c r="H26" s="17">
@@ -4253,7 +4200,7 @@
     </row>
     <row r="27" spans="1:10" ht="15">
       <c r="A27" s="56" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B27" s="57">
         <v>43439</v>
@@ -4262,13 +4209,13 @@
         <v>29</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G27" s="140"/>
       <c r="H27" s="17">
@@ -4277,7 +4224,7 @@
     </row>
     <row r="28" spans="1:10" ht="15">
       <c r="A28" s="56" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B28" s="57">
         <v>43441</v>
@@ -4286,13 +4233,13 @@
         <v>29</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G28" s="140"/>
       <c r="H28" s="17">
@@ -4301,7 +4248,7 @@
     </row>
     <row r="29" spans="1:10" ht="15">
       <c r="A29" s="56" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B29" s="57">
         <v>43444</v>
@@ -4310,13 +4257,13 @@
         <v>29</v>
       </c>
       <c r="D29" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="E29" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="E29" s="2" t="s">
-        <v>73</v>
-      </c>
       <c r="F29" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G29" s="140"/>
       <c r="H29" s="17">
@@ -4325,7 +4272,7 @@
     </row>
     <row r="30" spans="1:10" ht="15">
       <c r="A30" s="56" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B30" s="57">
         <v>43446</v>
@@ -4334,13 +4281,13 @@
         <v>29</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G30" s="140"/>
       <c r="H30" s="17">
@@ -4349,7 +4296,7 @@
     </row>
     <row r="31" spans="1:10" ht="15">
       <c r="A31" s="56" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B31" s="57">
         <v>43448</v>
@@ -4358,13 +4305,13 @@
         <v>29</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E31" s="67" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G31" s="140"/>
       <c r="H31" s="17">
@@ -4373,7 +4320,7 @@
     </row>
     <row r="32" spans="1:10" ht="15">
       <c r="A32" s="58" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B32" s="43">
         <v>43451</v>
@@ -4384,7 +4331,7 @@
       <c r="D32" s="28"/>
       <c r="E32" s="41"/>
       <c r="F32" s="41" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G32" s="140"/>
       <c r="H32" s="28">
@@ -4415,7 +4362,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor indexed="47"/>
   </sheetPr>
@@ -4442,7 +4389,7 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="144" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B1" s="144"/>
       <c r="C1" s="144"/>
@@ -4467,7 +4414,7 @@
         <v>4</v>
       </c>
       <c r="F2" s="30" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G2" s="30" t="s">
         <v>5</v>
@@ -4482,12 +4429,12 @@
         <v>43312</v>
       </c>
       <c r="C3" s="54" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D3" s="70"/>
       <c r="E3" s="54"/>
       <c r="F3" s="33" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G3" s="138" t="s">
         <v>11</v>
@@ -4505,12 +4452,12 @@
         <v>43314</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D4" s="45"/>
       <c r="E4" s="16"/>
       <c r="F4" s="36" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G4" s="138"/>
       <c r="H4" s="36">
@@ -4526,12 +4473,12 @@
         <v>43319</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D5" s="45"/>
       <c r="E5" s="16"/>
       <c r="F5" s="36" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G5" s="138"/>
       <c r="H5" s="36">
@@ -4547,12 +4494,12 @@
         <v>43321</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D6" s="45"/>
       <c r="E6" s="16"/>
       <c r="F6" s="36" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G6" s="138"/>
       <c r="H6" s="36">
@@ -4568,12 +4515,12 @@
         <v>43326</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D7" s="45"/>
       <c r="E7" s="16"/>
       <c r="F7" s="36" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G7" s="138"/>
       <c r="H7" s="36">
@@ -4589,12 +4536,12 @@
         <v>43328</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D8" s="45"/>
       <c r="E8" s="16"/>
       <c r="F8" s="36" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G8" s="138"/>
       <c r="H8" s="36">
@@ -4610,12 +4557,12 @@
         <v>43333</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D9" s="45"/>
       <c r="E9" s="16"/>
       <c r="F9" s="36" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G9" s="138"/>
       <c r="H9" s="36">
@@ -4630,12 +4577,12 @@
         <v>43335</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D10" s="45"/>
       <c r="E10" s="16"/>
       <c r="F10" s="36" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G10" s="138"/>
       <c r="H10" s="36">
@@ -4650,12 +4597,12 @@
         <v>43340</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D11" s="45"/>
       <c r="E11" s="16"/>
       <c r="F11" s="36" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G11" s="138"/>
       <c r="H11" s="36">
@@ -4671,12 +4618,12 @@
         <v>43342</v>
       </c>
       <c r="C12" s="20" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D12" s="59"/>
       <c r="E12" s="20"/>
       <c r="F12" s="44" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G12" s="138"/>
       <c r="H12" s="36">
@@ -4691,20 +4638,20 @@
     </row>
     <row r="13" spans="1:10" ht="15">
       <c r="A13" s="60" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B13" s="61">
         <v>43347</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E13" s="10"/>
       <c r="F13" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G13" s="138" t="s">
         <v>31</v>
@@ -4716,19 +4663,19 @@
     </row>
     <row r="14" spans="1:10" ht="15">
       <c r="A14" s="62" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B14" s="63">
         <v>43349</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D14" s="17" t="s">
         <v>32</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G14" s="138"/>
       <c r="H14" s="36">
@@ -4738,19 +4685,19 @@
     </row>
     <row r="15" spans="1:10" ht="15">
       <c r="A15" s="62" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B15" s="63">
         <v>43354</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D15" s="15" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G15" s="138"/>
       <c r="H15" s="36">
@@ -4760,19 +4707,19 @@
     </row>
     <row r="16" spans="1:10" ht="15">
       <c r="A16" s="62" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B16" s="63">
         <v>43356</v>
       </c>
       <c r="C16" s="16" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D16" s="17" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G16" s="138"/>
       <c r="H16" s="36">
@@ -4782,22 +4729,22 @@
     </row>
     <row r="17" spans="1:11" ht="15">
       <c r="A17" s="62" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B17" s="63">
         <v>43361</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D17" s="15" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>33</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G17" s="138"/>
       <c r="H17" s="36">
@@ -4807,22 +4754,22 @@
     </row>
     <row r="18" spans="1:11" ht="15">
       <c r="A18" s="62" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B18" s="63">
         <v>43363</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D18" s="15" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>35</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G18" s="138"/>
       <c r="H18" s="36">
@@ -4832,22 +4779,22 @@
     </row>
     <row r="19" spans="1:11" ht="15">
       <c r="A19" s="62" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B19" s="63">
         <v>43368</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D19" s="15" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>37</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G19" s="138"/>
       <c r="H19" s="36">
@@ -4857,22 +4804,22 @@
     </row>
     <row r="20" spans="1:11" ht="15">
       <c r="A20" s="62" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B20" s="63">
         <v>43370</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D20" s="15" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>38</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G20" s="138"/>
       <c r="H20" s="36">
@@ -4882,22 +4829,22 @@
     </row>
     <row r="21" spans="1:11" ht="15">
       <c r="A21" s="62" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B21" s="63">
         <v>43375</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G21" s="138"/>
       <c r="H21" s="36">
@@ -4907,22 +4854,22 @@
     </row>
     <row r="22" spans="1:11" ht="15">
       <c r="A22" s="64" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B22" s="57">
         <v>43382</v>
       </c>
       <c r="C22" s="20" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D22" s="28" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E22" s="41" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F22" s="41" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G22" s="138"/>
       <c r="H22" s="36">
@@ -4935,28 +4882,28 @@
         <v>1200</v>
       </c>
       <c r="K22" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="15">
       <c r="A23" s="52" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B23" s="53">
         <v>43384</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D23" s="51" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E23" s="10"/>
       <c r="F23" s="33" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G23" s="138" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H23" s="36">
         <v>120</v>
@@ -4965,22 +4912,22 @@
     </row>
     <row r="24" spans="1:11" ht="15">
       <c r="A24" s="56" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B24" s="57">
         <v>43389</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F24" s="36" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G24" s="138"/>
       <c r="H24" s="36">
@@ -4990,22 +4937,22 @@
     </row>
     <row r="25" spans="1:11" ht="15">
       <c r="A25" s="56" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B25" s="57">
         <v>43391</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F25" s="36" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G25" s="138"/>
       <c r="H25" s="36">
@@ -5015,22 +4962,22 @@
     </row>
     <row r="26" spans="1:11" ht="15">
       <c r="A26" s="56" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B26" s="57">
         <v>43396</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F26" s="36" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G26" s="138"/>
       <c r="H26" s="36">
@@ -5040,22 +4987,22 @@
     </row>
     <row r="27" spans="1:11" ht="15">
       <c r="A27" s="56" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B27" s="57">
         <v>43398</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F27" s="36" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G27" s="138"/>
       <c r="H27" s="36">
@@ -5064,22 +5011,22 @@
     </row>
     <row r="28" spans="1:11" ht="15">
       <c r="A28" s="56" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B28" s="57">
         <v>43403</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F28" s="36" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G28" s="138"/>
       <c r="H28" s="36">
@@ -5088,22 +5035,22 @@
     </row>
     <row r="29" spans="1:11" ht="15">
       <c r="A29" s="56" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B29" s="63">
         <v>43405</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D29" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="E29" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="E29" s="2" t="s">
-        <v>73</v>
-      </c>
       <c r="F29" s="36" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G29" s="138"/>
       <c r="H29" s="36">
@@ -5112,22 +5059,22 @@
     </row>
     <row r="30" spans="1:11" ht="15">
       <c r="A30" s="56" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B30" s="63">
         <v>43417</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F30" s="36" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G30" s="138"/>
       <c r="H30" s="36">
@@ -5136,22 +5083,22 @@
     </row>
     <row r="31" spans="1:11" ht="15">
       <c r="A31" s="56" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B31" s="63">
         <v>43424</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D31" s="72" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E31" s="67" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F31" s="36" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G31" s="138"/>
       <c r="H31" s="36">
@@ -5160,20 +5107,20 @@
     </row>
     <row r="32" spans="1:11" s="27" customFormat="1" ht="15.75">
       <c r="A32" s="73" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B32" s="74">
         <v>43426</v>
       </c>
       <c r="C32" s="20" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D32" s="75" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E32" s="76"/>
       <c r="F32" s="77" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G32" s="138"/>
       <c r="H32" s="77">
@@ -5222,7 +5169,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor indexed="47"/>
   </sheetPr>
@@ -5247,7 +5194,7 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="144" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B1" s="144"/>
       <c r="C1" s="144"/>
@@ -5268,16 +5215,16 @@
       </c>
       <c r="D2" s="30"/>
       <c r="E2" s="30" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F2" s="30" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G2" s="30" t="s">
         <v>5</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="15">
@@ -5288,7 +5235,7 @@
         <v>43274</v>
       </c>
       <c r="C3" s="54" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D3" s="70"/>
       <c r="E3" s="70"/>
@@ -5307,7 +5254,7 @@
         <v>43281</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D4" s="45"/>
       <c r="E4" s="45"/>
@@ -5324,7 +5271,7 @@
         <v>43288</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D5" s="45"/>
       <c r="E5" s="45"/>
@@ -5341,7 +5288,7 @@
         <v>43295</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D6" s="45"/>
       <c r="E6" s="45"/>
@@ -5358,7 +5305,7 @@
         <v>43302</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D7" s="84"/>
       <c r="E7" s="84"/>
@@ -5375,7 +5322,7 @@
         <v>43309</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D8" s="84"/>
       <c r="E8" s="84"/>
@@ -5392,7 +5339,7 @@
         <v>43316</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D9" s="84"/>
       <c r="E9" s="84"/>
@@ -5410,7 +5357,7 @@
         <v>43323</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D10" s="84"/>
       <c r="E10" s="84"/>
@@ -5428,14 +5375,14 @@
         <v>43330</v>
       </c>
       <c r="C11" s="87" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D11" s="88" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E11" s="88"/>
       <c r="F11" s="89" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G11" s="145" t="s">
         <v>31</v>
@@ -5450,56 +5397,56 @@
         <v>43337</v>
       </c>
       <c r="C12" s="92" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D12" s="93" t="s">
         <v>32</v>
       </c>
       <c r="E12" s="93"/>
       <c r="F12" s="94" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G12" s="145"/>
       <c r="H12" s="2"/>
     </row>
     <row r="13" spans="1:9" ht="15">
       <c r="A13" s="90" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B13" s="91">
         <v>43344</v>
       </c>
       <c r="C13" s="92" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D13" s="93" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E13" s="93"/>
       <c r="F13" s="94" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G13" s="145"/>
       <c r="H13" s="2"/>
     </row>
     <row r="14" spans="1:9" ht="15">
       <c r="A14" s="90" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B14" s="91">
         <v>43358</v>
       </c>
       <c r="C14" s="92" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D14" s="93" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E14" s="93" t="s">
         <v>33</v>
       </c>
       <c r="F14" s="94" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G14" s="145"/>
       <c r="H14" s="71">
@@ -5511,88 +5458,88 @@
     </row>
     <row r="15" spans="1:9" ht="15">
       <c r="A15" s="90" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B15" s="95">
         <v>43365</v>
       </c>
       <c r="C15" s="92" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D15" s="93" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E15" s="93" t="s">
         <v>35</v>
       </c>
       <c r="F15" s="94" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G15" s="145"/>
       <c r="H15" s="2"/>
     </row>
     <row r="16" spans="1:9" ht="15">
       <c r="A16" s="90" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B16" s="95">
         <v>43372</v>
       </c>
       <c r="C16" s="92" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D16" s="93" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E16" s="93" t="s">
         <v>37</v>
       </c>
       <c r="F16" s="94" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G16" s="145"/>
       <c r="H16" s="2"/>
     </row>
     <row r="17" spans="1:9" ht="15">
       <c r="A17" s="90" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B17" s="95">
         <v>43386</v>
       </c>
       <c r="C17" s="92" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D17" s="93" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E17" s="93" t="s">
         <v>37</v>
       </c>
       <c r="F17" s="94" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G17" s="145"/>
       <c r="H17" s="2"/>
     </row>
     <row r="18" spans="1:9" ht="15">
       <c r="A18" s="96" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B18" s="97">
         <v>43393</v>
       </c>
       <c r="C18" s="98" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D18" s="49" t="s">
+        <v>131</v>
+      </c>
+      <c r="E18" s="49" t="s">
         <v>132</v>
       </c>
-      <c r="E18" s="49" t="s">
-        <v>133</v>
-      </c>
       <c r="F18" s="50" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G18" s="145"/>
       <c r="H18" s="71">
@@ -5604,7 +5551,7 @@
     </row>
     <row r="19" spans="1:9" ht="15">
       <c r="A19" s="62" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B19" s="99">
         <v>43414</v>
@@ -5613,20 +5560,20 @@
         <v>29</v>
       </c>
       <c r="D19" s="51" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E19" s="51"/>
       <c r="F19" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G19" s="138" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H19" s="2"/>
     </row>
     <row r="20" spans="1:9" ht="15">
       <c r="A20" s="62" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B20" s="99">
         <v>43421</v>
@@ -5635,20 +5582,20 @@
         <v>29</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E20" s="17" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G20" s="138"/>
       <c r="H20" s="2"/>
     </row>
     <row r="21" spans="1:9" ht="15">
       <c r="A21" s="62" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B21" s="99">
         <v>43428</v>
@@ -5657,20 +5604,20 @@
         <v>29</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E21" s="17" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G21" s="138"/>
       <c r="H21" s="2"/>
     </row>
     <row r="22" spans="1:9" ht="15">
       <c r="A22" s="62" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B22" s="99">
         <v>43435</v>
@@ -5679,13 +5626,13 @@
         <v>29</v>
       </c>
       <c r="D22" s="17" t="s">
+        <v>135</v>
+      </c>
+      <c r="E22" s="17" t="s">
         <v>136</v>
       </c>
-      <c r="E22" s="17" t="s">
-        <v>137</v>
-      </c>
       <c r="F22" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G22" s="138"/>
       <c r="H22" s="65">
@@ -5697,7 +5644,7 @@
     </row>
     <row r="23" spans="1:9" ht="15">
       <c r="A23" s="62" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B23" s="101">
         <v>43442</v>
@@ -5706,20 +5653,20 @@
         <v>29</v>
       </c>
       <c r="D23" s="17" t="s">
+        <v>137</v>
+      </c>
+      <c r="E23" s="17" t="s">
         <v>138</v>
       </c>
-      <c r="E23" s="17" t="s">
-        <v>139</v>
-      </c>
       <c r="F23" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G23" s="138"/>
       <c r="H23" s="2"/>
     </row>
     <row r="24" spans="1:9" ht="15">
       <c r="A24" s="62" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B24" s="101">
         <v>43449</v>
@@ -5728,52 +5675,52 @@
         <v>29</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E24" s="17" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G24" s="138"/>
       <c r="H24" s="2"/>
     </row>
     <row r="25" spans="1:9" ht="15">
       <c r="A25" s="62" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B25" s="101">
         <v>43477</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="17" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E25" s="17" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G25" s="138"/>
     </row>
     <row r="26" spans="1:9" ht="15">
       <c r="A26" s="64" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B26" s="102">
         <v>43484</v>
       </c>
       <c r="C26" s="41"/>
       <c r="D26" s="28" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E26" s="28" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F26" s="41" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G26" s="138"/>
       <c r="I26" s="2">
@@ -5800,7 +5747,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor indexed="47"/>
   </sheetPr>
@@ -5827,7 +5774,7 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" s="146" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B1" s="146"/>
       <c r="C1" s="146"/>
@@ -5849,16 +5796,16 @@
       </c>
       <c r="D2" s="30"/>
       <c r="E2" s="30" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F2" s="30" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G2" s="30" t="s">
         <v>5</v>
       </c>
       <c r="H2" s="30" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I2" s="16"/>
     </row>
@@ -5868,7 +5815,7 @@
       </c>
       <c r="B3" s="80"/>
       <c r="C3" s="16" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D3" s="16"/>
       <c r="E3" s="16"/>
@@ -5876,10 +5823,10 @@
         <v>5</v>
       </c>
       <c r="G3" s="146" t="s">
+        <v>144</v>
+      </c>
+      <c r="J3" s="147" t="s">
         <v>145</v>
-      </c>
-      <c r="J3" s="147" t="s">
-        <v>146</v>
       </c>
       <c r="K3" s="147"/>
     </row>
@@ -5889,7 +5836,7 @@
       </c>
       <c r="B4" s="16"/>
       <c r="C4" s="16" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D4" s="16"/>
       <c r="E4" s="16"/>
@@ -5898,7 +5845,7 @@
       </c>
       <c r="G4" s="146"/>
       <c r="J4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K4" s="55">
         <f>140/8</f>
@@ -5911,7 +5858,7 @@
       </c>
       <c r="B5" s="16"/>
       <c r="C5" s="16" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D5" s="16"/>
       <c r="E5" s="16"/>
@@ -5920,7 +5867,7 @@
       </c>
       <c r="G5" s="146"/>
       <c r="J5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="K5" s="55">
         <f>K4</f>
@@ -5933,7 +5880,7 @@
       </c>
       <c r="B6" s="16"/>
       <c r="C6" s="16" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D6" s="16"/>
       <c r="E6" s="16"/>
@@ -5942,7 +5889,7 @@
       </c>
       <c r="G6" s="146"/>
       <c r="J6" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="K6" s="55">
         <f>K4*2</f>
@@ -5955,7 +5902,7 @@
       </c>
       <c r="B7" s="54"/>
       <c r="C7" s="54" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D7" s="54"/>
       <c r="E7" s="54"/>
@@ -5966,7 +5913,7 @@
         <v>11</v>
       </c>
       <c r="J7" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K7" s="55">
         <f>K4*3</f>
@@ -5979,7 +5926,7 @@
       </c>
       <c r="B8" s="16"/>
       <c r="C8" s="16" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D8" s="16"/>
       <c r="E8" s="16"/>
@@ -5988,7 +5935,7 @@
       </c>
       <c r="G8" s="140"/>
       <c r="J8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K8" s="55">
         <f>K4*4</f>
@@ -6001,7 +5948,7 @@
       </c>
       <c r="B9" s="16"/>
       <c r="C9" s="16" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D9" s="16"/>
       <c r="E9" s="16"/>
@@ -6010,7 +5957,7 @@
       </c>
       <c r="G9" s="140"/>
       <c r="J9" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="K9" s="55">
         <f>K4*5</f>
@@ -6023,7 +5970,7 @@
       </c>
       <c r="B10" s="16"/>
       <c r="C10" s="16" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D10" s="16"/>
       <c r="E10" s="16"/>
@@ -6032,7 +5979,7 @@
       </c>
       <c r="G10" s="140"/>
       <c r="J10" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="K10" s="55">
         <f>K4*6</f>
@@ -6045,7 +5992,7 @@
       </c>
       <c r="B11" s="16"/>
       <c r="C11" s="16" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D11" s="16"/>
       <c r="E11" s="16"/>
@@ -6054,7 +6001,7 @@
       </c>
       <c r="G11" s="140"/>
       <c r="J11" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="K11" s="55">
         <f>K4*7</f>
@@ -6067,7 +6014,7 @@
       </c>
       <c r="B12" s="16"/>
       <c r="C12" s="16" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D12" s="16"/>
       <c r="E12" s="16"/>
@@ -6076,7 +6023,7 @@
       </c>
       <c r="G12" s="140"/>
       <c r="J12" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="K12" s="55">
         <f>K4*8</f>
@@ -6085,11 +6032,11 @@
     </row>
     <row r="13" spans="1:11" ht="15">
       <c r="A13" s="56" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B13" s="16"/>
       <c r="C13" s="16" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D13" s="16"/>
       <c r="E13" s="16"/>
@@ -6100,11 +6047,11 @@
     </row>
     <row r="14" spans="1:11" ht="15">
       <c r="A14" s="58" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B14" s="20"/>
       <c r="C14" s="20" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -6115,11 +6062,11 @@
     </row>
     <row r="15" spans="1:11" ht="15">
       <c r="A15" s="52" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B15" s="54"/>
       <c r="C15" s="54" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D15" s="54"/>
       <c r="E15" s="54"/>
@@ -6132,13 +6079,13 @@
     </row>
     <row r="16" spans="1:11" ht="15">
       <c r="A16" s="56" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B16" s="57">
         <v>43261</v>
       </c>
       <c r="C16" s="16" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D16" s="16"/>
       <c r="E16" s="16"/>
@@ -6149,13 +6096,13 @@
     </row>
     <row r="17" spans="1:10" ht="15">
       <c r="A17" s="56" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B17" s="57">
         <v>43268</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D17" s="16"/>
       <c r="E17" s="16"/>
@@ -6168,13 +6115,13 @@
     </row>
     <row r="18" spans="1:10" ht="15">
       <c r="A18" s="56" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B18" s="57">
         <v>43275</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D18" s="16"/>
       <c r="E18" s="16"/>
@@ -6185,16 +6132,16 @@
     </row>
     <row r="19" spans="1:10" ht="15">
       <c r="A19" s="62" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B19" s="63">
         <v>43282</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F19" s="2">
         <v>5</v>
@@ -6203,16 +6150,16 @@
     </row>
     <row r="20" spans="1:10" ht="15">
       <c r="A20" s="62" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B20" s="63">
         <v>43289</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F20" s="2">
         <v>6</v>
@@ -6221,16 +6168,16 @@
     </row>
     <row r="21" spans="1:10" ht="15">
       <c r="A21" s="62" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B21" s="63">
         <v>43296</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F21" s="2">
         <v>7</v>
@@ -6239,16 +6186,16 @@
     </row>
     <row r="22" spans="1:10" ht="15">
       <c r="A22" s="64" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B22" s="103">
         <v>43303</v>
       </c>
       <c r="C22" s="20" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D22" s="41" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E22" s="41"/>
       <c r="F22" s="41">
@@ -6258,40 +6205,40 @@
     </row>
     <row r="23" spans="1:10" ht="15">
       <c r="A23" s="60" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B23" s="53">
         <v>43310</v>
       </c>
       <c r="C23" s="54" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E23" s="10"/>
       <c r="F23" s="10">
         <v>1</v>
       </c>
       <c r="G23" s="140" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="15">
       <c r="A24" s="62" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B24" s="57">
         <v>43317</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F24" s="2">
         <v>2</v>
@@ -6300,19 +6247,19 @@
     </row>
     <row r="25" spans="1:10" ht="15">
       <c r="A25" s="62" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B25" s="57">
         <v>43331</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F25" s="2">
         <v>3</v>
@@ -6321,43 +6268,43 @@
     </row>
     <row r="26" spans="1:10" ht="15">
       <c r="A26" s="62" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B26" s="57">
         <v>43338</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F26" s="2">
         <v>4</v>
       </c>
       <c r="G26" s="140"/>
       <c r="H26" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="15">
       <c r="A27" s="62" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B27" s="63">
         <v>43345</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F27" s="2">
         <v>5</v>
@@ -6366,19 +6313,19 @@
     </row>
     <row r="28" spans="1:10" ht="15">
       <c r="A28" s="62" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B28" s="63">
         <v>43359</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F28" s="2">
         <v>6</v>
@@ -6387,19 +6334,19 @@
     </row>
     <row r="29" spans="1:10" ht="15">
       <c r="A29" s="62" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B29" s="63">
         <v>43373</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F29" s="2">
         <v>7</v>
@@ -6408,19 +6355,19 @@
     </row>
     <row r="30" spans="1:10" ht="15">
       <c r="A30" s="64" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B30" s="103">
         <v>43387</v>
       </c>
       <c r="C30" s="20" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D30" s="41" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E30" s="41" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F30" s="41">
         <v>8</v>
@@ -6433,7 +6380,7 @@
         <v>600</v>
       </c>
       <c r="J30" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
   </sheetData>

--- a/Cronograma aulas/Aulas v2.xlsx
+++ b/Cronograma aulas/Aulas v2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" tabRatio="489"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" tabRatio="489" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="t7_seg_e_qua" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="716" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="717" uniqueCount="171">
   <si>
     <t>Segunda e Quarta – sala 04 (senha javaweb)</t>
   </si>
@@ -957,7 +957,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="19" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="148">
+  <cellXfs count="150">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1341,6 +1341,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1785,8 +1791,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView showGridLines="0" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="14.25"/>
@@ -1801,15 +1807,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="138" t="s">
+      <c r="A1" s="140" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="138"/>
-      <c r="C1" s="138"/>
-      <c r="D1" s="138"/>
-      <c r="E1" s="138"/>
-      <c r="F1" s="138"/>
-      <c r="G1" s="138"/>
+      <c r="B1" s="140"/>
+      <c r="C1" s="140"/>
+      <c r="D1" s="140"/>
+      <c r="E1" s="140"/>
+      <c r="F1" s="140"/>
+      <c r="G1" s="140"/>
     </row>
     <row r="2" spans="1:8" ht="15">
       <c r="A2" s="68" t="s">
@@ -1849,7 +1855,7 @@
         <v>10</v>
       </c>
       <c r="E3" s="132"/>
-      <c r="F3" s="138" t="s">
+      <c r="F3" s="140" t="s">
         <v>11</v>
       </c>
       <c r="G3" s="11">
@@ -1870,7 +1876,7 @@
         <v>13</v>
       </c>
       <c r="E4" s="106"/>
-      <c r="F4" s="138"/>
+      <c r="F4" s="140"/>
       <c r="G4" s="17">
         <v>140</v>
       </c>
@@ -1889,7 +1895,7 @@
         <v>15</v>
       </c>
       <c r="E5" s="106"/>
-      <c r="F5" s="138"/>
+      <c r="F5" s="140"/>
       <c r="G5" s="17">
         <v>140</v>
       </c>
@@ -1908,7 +1914,7 @@
         <v>17</v>
       </c>
       <c r="E6" s="107"/>
-      <c r="F6" s="138"/>
+      <c r="F6" s="140"/>
       <c r="G6" s="17">
         <v>140</v>
       </c>
@@ -1927,7 +1933,7 @@
         <v>19</v>
       </c>
       <c r="E7" s="107"/>
-      <c r="F7" s="138"/>
+      <c r="F7" s="140"/>
       <c r="G7" s="17">
         <v>140</v>
       </c>
@@ -1946,7 +1952,7 @@
         <v>21</v>
       </c>
       <c r="E8" s="107"/>
-      <c r="F8" s="138"/>
+      <c r="F8" s="140"/>
       <c r="G8" s="17">
         <v>140</v>
       </c>
@@ -1965,7 +1971,7 @@
         <v>23</v>
       </c>
       <c r="E9" s="107"/>
-      <c r="F9" s="138"/>
+      <c r="F9" s="140"/>
       <c r="G9" s="17">
         <v>140</v>
       </c>
@@ -1984,7 +1990,7 @@
         <v>25</v>
       </c>
       <c r="E10" s="107"/>
-      <c r="F10" s="138"/>
+      <c r="F10" s="140"/>
       <c r="G10" s="17">
         <v>140</v>
       </c>
@@ -2001,7 +2007,7 @@
       </c>
       <c r="D11" s="17"/>
       <c r="E11" s="107"/>
-      <c r="F11" s="138"/>
+      <c r="F11" s="140"/>
       <c r="G11" s="17">
         <v>140</v>
       </c>
@@ -2021,7 +2027,7 @@
         <v>28</v>
       </c>
       <c r="E12" s="20"/>
-      <c r="F12" s="138"/>
+      <c r="F12" s="140"/>
       <c r="G12" s="17">
         <v>140</v>
       </c>
@@ -2041,7 +2047,7 @@
         <v>30</v>
       </c>
       <c r="E13" s="11"/>
-      <c r="F13" s="138" t="s">
+      <c r="F13" s="140" t="s">
         <v>31</v>
       </c>
       <c r="G13" s="17">
@@ -2063,7 +2069,7 @@
         <v>32</v>
       </c>
       <c r="E14" s="17"/>
-      <c r="F14" s="138"/>
+      <c r="F14" s="140"/>
       <c r="G14" s="17">
         <v>140</v>
       </c>
@@ -2083,7 +2089,7 @@
         <v>32</v>
       </c>
       <c r="E15" s="17"/>
-      <c r="F15" s="138"/>
+      <c r="F15" s="140"/>
       <c r="G15" s="17">
         <v>140</v>
       </c>
@@ -2103,7 +2109,7 @@
         <v>164</v>
       </c>
       <c r="E16" s="17"/>
-      <c r="F16" s="138"/>
+      <c r="F16" s="140"/>
       <c r="G16" s="17">
         <v>140</v>
       </c>
@@ -2125,7 +2131,7 @@
       <c r="E17" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="F17" s="138"/>
+      <c r="F17" s="140"/>
       <c r="G17" s="17">
         <v>140</v>
       </c>
@@ -2147,7 +2153,7 @@
       <c r="E18" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="F18" s="138"/>
+      <c r="F18" s="140"/>
       <c r="G18" s="17">
         <v>140</v>
       </c>
@@ -2158,7 +2164,7 @@
         <v>22</v>
       </c>
       <c r="B19" s="126">
-        <v>43749</v>
+        <v>43719</v>
       </c>
       <c r="C19" s="36" t="s">
         <v>29</v>
@@ -2167,7 +2173,7 @@
         <v>168</v>
       </c>
       <c r="E19" s="15"/>
-      <c r="F19" s="138"/>
+      <c r="F19" s="140"/>
       <c r="G19" s="15">
         <v>140</v>
       </c>
@@ -2178,14 +2184,16 @@
         <v>24</v>
       </c>
       <c r="B20" s="131">
-        <v>43750</v>
-      </c>
-      <c r="C20" s="77"/>
+        <v>43720</v>
+      </c>
+      <c r="C20" s="138" t="s">
+        <v>29</v>
+      </c>
       <c r="D20" s="40" t="s">
         <v>167</v>
       </c>
       <c r="E20" s="137"/>
-      <c r="F20" s="138"/>
+      <c r="F20" s="140"/>
       <c r="G20" s="130">
         <v>140</v>
       </c>
@@ -2196,12 +2204,12 @@
         <v>8</v>
       </c>
       <c r="B21" s="126">
-        <v>43754</v>
+        <v>43724</v>
       </c>
       <c r="C21" s="23"/>
       <c r="D21" s="108"/>
       <c r="E21" s="133"/>
-      <c r="F21" s="138" t="s">
+      <c r="F21" s="140" t="s">
         <v>39</v>
       </c>
       <c r="G21" s="17">
@@ -2214,12 +2222,12 @@
         <v>12</v>
       </c>
       <c r="B22" s="126">
-        <v>43759</v>
+        <v>43729</v>
       </c>
       <c r="C22" s="23"/>
       <c r="D22" s="12"/>
       <c r="E22" s="37"/>
-      <c r="F22" s="138"/>
+      <c r="F22" s="140"/>
       <c r="G22" s="17">
         <v>140</v>
       </c>
@@ -2230,12 +2238,12 @@
         <v>14</v>
       </c>
       <c r="B23" s="126">
-        <v>43761</v>
+        <v>43731</v>
       </c>
       <c r="C23" s="23"/>
       <c r="D23" s="37"/>
       <c r="E23" s="37"/>
-      <c r="F23" s="138"/>
+      <c r="F23" s="140"/>
       <c r="G23" s="17">
         <v>140</v>
       </c>
@@ -2246,12 +2254,12 @@
         <v>16</v>
       </c>
       <c r="B24" s="126">
-        <v>43766</v>
+        <v>43736</v>
       </c>
       <c r="C24" s="23"/>
       <c r="D24" s="37"/>
       <c r="E24" s="37"/>
-      <c r="F24" s="138"/>
+      <c r="F24" s="140"/>
       <c r="G24" s="17">
         <v>140</v>
       </c>
@@ -2262,12 +2270,12 @@
         <v>18</v>
       </c>
       <c r="B25" s="126">
-        <v>43768</v>
+        <v>43738</v>
       </c>
       <c r="C25" s="23"/>
       <c r="D25" s="37"/>
       <c r="E25" s="37"/>
-      <c r="F25" s="138"/>
+      <c r="F25" s="140"/>
       <c r="G25" s="17">
         <v>140</v>
       </c>
@@ -2277,12 +2285,12 @@
         <v>20</v>
       </c>
       <c r="B26" s="126">
-        <v>43773</v>
+        <v>43742</v>
       </c>
       <c r="C26" s="23"/>
       <c r="D26" s="37"/>
       <c r="E26" s="37"/>
-      <c r="F26" s="138"/>
+      <c r="F26" s="140"/>
       <c r="G26" s="17">
         <v>140</v>
       </c>
@@ -2292,12 +2300,12 @@
         <v>22</v>
       </c>
       <c r="B27" s="126">
-        <v>43775</v>
+        <v>43744</v>
       </c>
       <c r="C27" s="23"/>
       <c r="D27" s="37"/>
       <c r="E27" s="37"/>
-      <c r="F27" s="138"/>
+      <c r="F27" s="140"/>
       <c r="G27" s="17">
         <v>140</v>
       </c>
@@ -2307,12 +2315,12 @@
         <v>24</v>
       </c>
       <c r="B28" s="126">
-        <v>43780</v>
+        <v>43749</v>
       </c>
       <c r="C28" s="23"/>
       <c r="D28" s="17"/>
       <c r="E28" s="37"/>
-      <c r="F28" s="138"/>
+      <c r="F28" s="140"/>
       <c r="G28" s="17">
         <v>140</v>
       </c>
@@ -2322,12 +2330,12 @@
         <v>26</v>
       </c>
       <c r="B29" s="126">
-        <v>43782</v>
+        <v>43751</v>
       </c>
       <c r="C29" s="23"/>
       <c r="D29" s="17"/>
       <c r="E29" s="37"/>
-      <c r="F29" s="138"/>
+      <c r="F29" s="140"/>
       <c r="G29" s="17">
         <v>140</v>
       </c>
@@ -2340,7 +2348,7 @@
       <c r="C30" s="123"/>
       <c r="D30" s="28"/>
       <c r="E30" s="134"/>
-      <c r="F30" s="138"/>
+      <c r="F30" s="140"/>
       <c r="G30" s="28">
         <v>140</v>
       </c>
@@ -2367,8 +2375,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="14.25"/>
@@ -2383,15 +2391,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="138" t="s">
+      <c r="A1" s="140" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="138"/>
-      <c r="C1" s="138"/>
-      <c r="D1" s="138"/>
-      <c r="E1" s="138"/>
-      <c r="F1" s="138"/>
-      <c r="G1" s="138"/>
+      <c r="B1" s="140"/>
+      <c r="C1" s="140"/>
+      <c r="D1" s="140"/>
+      <c r="E1" s="140"/>
+      <c r="F1" s="140"/>
+      <c r="G1" s="140"/>
     </row>
     <row r="2" spans="1:8" ht="15">
       <c r="A2" s="3" t="s">
@@ -2429,7 +2437,7 @@
       </c>
       <c r="D3" s="9"/>
       <c r="E3" s="32"/>
-      <c r="F3" s="138" t="s">
+      <c r="F3" s="140" t="s">
         <v>11</v>
       </c>
       <c r="G3" s="33">
@@ -2448,7 +2456,7 @@
       </c>
       <c r="D4" s="15"/>
       <c r="E4" s="35"/>
-      <c r="F4" s="138"/>
+      <c r="F4" s="140"/>
       <c r="G4" s="36">
         <v>175</v>
       </c>
@@ -2465,7 +2473,7 @@
       </c>
       <c r="D5" s="15"/>
       <c r="E5" s="35"/>
-      <c r="F5" s="138"/>
+      <c r="F5" s="140"/>
       <c r="G5" s="36">
         <v>175</v>
       </c>
@@ -2482,7 +2490,7 @@
       </c>
       <c r="D6" s="17"/>
       <c r="E6" s="37"/>
-      <c r="F6" s="138"/>
+      <c r="F6" s="140"/>
       <c r="G6" s="36">
         <v>175</v>
       </c>
@@ -2499,7 +2507,7 @@
       </c>
       <c r="D7" s="17"/>
       <c r="E7" s="37"/>
-      <c r="F7" s="138"/>
+      <c r="F7" s="140"/>
       <c r="G7" s="36">
         <v>175</v>
       </c>
@@ -2516,7 +2524,7 @@
       </c>
       <c r="D8" s="17"/>
       <c r="E8" s="37"/>
-      <c r="F8" s="138"/>
+      <c r="F8" s="140"/>
       <c r="G8" s="36">
         <v>175</v>
       </c>
@@ -2535,7 +2543,7 @@
         <v>41</v>
       </c>
       <c r="E9" s="37"/>
-      <c r="F9" s="138"/>
+      <c r="F9" s="140"/>
       <c r="G9" s="36">
         <v>175</v>
       </c>
@@ -2552,7 +2560,7 @@
       </c>
       <c r="D10" s="39"/>
       <c r="E10" s="40"/>
-      <c r="F10" s="138"/>
+      <c r="F10" s="140"/>
       <c r="G10" s="36">
         <v>175</v>
       </c>
@@ -2571,7 +2579,7 @@
         <v>42</v>
       </c>
       <c r="E11" s="2"/>
-      <c r="F11" s="138" t="s">
+      <c r="F11" s="140" t="s">
         <v>31</v>
       </c>
       <c r="G11" s="17">
@@ -2593,7 +2601,7 @@
         <v>32</v>
       </c>
       <c r="E12" s="2"/>
-      <c r="F12" s="138"/>
+      <c r="F12" s="140"/>
       <c r="G12" s="17">
         <v>175</v>
       </c>
@@ -2613,7 +2621,7 @@
         <v>44</v>
       </c>
       <c r="E13" s="2"/>
-      <c r="F13" s="138"/>
+      <c r="F13" s="140"/>
       <c r="G13" s="17">
         <v>175</v>
       </c>
@@ -2635,7 +2643,7 @@
       <c r="E14" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="F14" s="138"/>
+      <c r="F14" s="140"/>
       <c r="G14" s="17">
         <v>175</v>
       </c>
@@ -2657,7 +2665,7 @@
       <c r="E15" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="F15" s="138"/>
+      <c r="F15" s="140"/>
       <c r="G15" s="17">
         <v>175</v>
       </c>
@@ -2679,7 +2687,7 @@
       <c r="E16" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="F16" s="138"/>
+      <c r="F16" s="140"/>
       <c r="G16" s="17">
         <v>175</v>
       </c>
@@ -2699,7 +2707,7 @@
       <c r="E17" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="F17" s="138"/>
+      <c r="F17" s="140"/>
       <c r="G17" s="17">
         <v>175</v>
       </c>
@@ -2717,7 +2725,7 @@
       <c r="E18" s="136" t="s">
         <v>165</v>
       </c>
-      <c r="F18" s="138"/>
+      <c r="F18" s="140"/>
       <c r="G18" s="17">
         <v>175</v>
       </c>
@@ -2733,7 +2741,7 @@
       <c r="C19" s="33"/>
       <c r="D19" s="8"/>
       <c r="E19" s="6"/>
-      <c r="F19" s="138" t="s">
+      <c r="F19" s="140" t="s">
         <v>39</v>
       </c>
       <c r="G19" s="36">
@@ -2751,7 +2759,7 @@
       <c r="C20" s="36"/>
       <c r="D20" s="107"/>
       <c r="E20" s="37"/>
-      <c r="F20" s="138"/>
+      <c r="F20" s="140"/>
       <c r="G20" s="36">
         <v>175</v>
       </c>
@@ -2767,7 +2775,7 @@
       <c r="C21" s="36"/>
       <c r="D21" s="107"/>
       <c r="E21" s="37"/>
-      <c r="F21" s="138"/>
+      <c r="F21" s="140"/>
       <c r="G21" s="36">
         <v>175</v>
       </c>
@@ -2783,7 +2791,7 @@
       <c r="C22" s="36"/>
       <c r="D22" s="107"/>
       <c r="E22" s="37"/>
-      <c r="F22" s="138"/>
+      <c r="F22" s="140"/>
       <c r="G22" s="36">
         <v>175</v>
       </c>
@@ -2793,13 +2801,13 @@
       <c r="A23" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B23" s="126">
+      <c r="B23" s="139">
         <v>43764</v>
       </c>
       <c r="C23" s="135"/>
       <c r="D23" s="107"/>
       <c r="E23" s="37"/>
-      <c r="F23" s="138"/>
+      <c r="F23" s="140"/>
       <c r="G23" s="36">
         <v>175</v>
       </c>
@@ -2814,7 +2822,7 @@
       <c r="C24" s="36"/>
       <c r="D24" s="107"/>
       <c r="E24" s="37"/>
-      <c r="F24" s="138"/>
+      <c r="F24" s="140"/>
       <c r="G24" s="36">
         <v>175</v>
       </c>
@@ -2829,7 +2837,7 @@
       <c r="C25" s="36"/>
       <c r="D25" s="107"/>
       <c r="E25" s="37"/>
-      <c r="F25" s="138"/>
+      <c r="F25" s="140"/>
       <c r="G25" s="36">
         <v>175</v>
       </c>
@@ -2844,7 +2852,7 @@
       <c r="C26" s="44"/>
       <c r="D26" s="41"/>
       <c r="E26" s="40"/>
-      <c r="F26" s="138"/>
+      <c r="F26" s="140"/>
       <c r="G26" s="44">
         <v>175</v>
       </c>
@@ -2890,16 +2898,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15">
-      <c r="A1" s="139" t="s">
+      <c r="A1" s="141" t="s">
         <v>76</v>
       </c>
-      <c r="B1" s="139"/>
-      <c r="C1" s="139"/>
-      <c r="D1" s="139"/>
-      <c r="E1" s="139"/>
-      <c r="F1" s="139"/>
-      <c r="G1" s="139"/>
-      <c r="H1" s="139"/>
+      <c r="B1" s="141"/>
+      <c r="C1" s="141"/>
+      <c r="D1" s="141"/>
+      <c r="E1" s="141"/>
+      <c r="F1" s="141"/>
+      <c r="G1" s="141"/>
+      <c r="H1" s="141"/>
     </row>
     <row r="2" spans="1:9" ht="15">
       <c r="A2" s="3" t="s">
@@ -2941,7 +2949,7 @@
       </c>
       <c r="E3" s="10"/>
       <c r="F3" s="10"/>
-      <c r="G3" s="140" t="s">
+      <c r="G3" s="142" t="s">
         <v>11</v>
       </c>
       <c r="H3" s="11">
@@ -2961,7 +2969,7 @@
       <c r="D4" s="45"/>
       <c r="E4" s="16"/>
       <c r="F4" s="2"/>
-      <c r="G4" s="140"/>
+      <c r="G4" s="142"/>
       <c r="H4" s="17">
         <v>140</v>
       </c>
@@ -2979,7 +2987,7 @@
       <c r="D5" s="45"/>
       <c r="E5" s="16"/>
       <c r="F5" s="2"/>
-      <c r="G5" s="140"/>
+      <c r="G5" s="142"/>
       <c r="H5" s="17">
         <v>140</v>
       </c>
@@ -2997,7 +3005,7 @@
       <c r="D6" s="45"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
-      <c r="G6" s="140"/>
+      <c r="G6" s="142"/>
       <c r="H6" s="17">
         <v>140</v>
       </c>
@@ -3017,7 +3025,7 @@
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
-      <c r="G7" s="140"/>
+      <c r="G7" s="142"/>
       <c r="H7" s="17">
         <v>140</v>
       </c>
@@ -3037,7 +3045,7 @@
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
-      <c r="G8" s="140"/>
+      <c r="G8" s="142"/>
       <c r="H8" s="17">
         <v>140</v>
       </c>
@@ -3057,7 +3065,7 @@
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
-      <c r="G9" s="140"/>
+      <c r="G9" s="142"/>
       <c r="H9" s="17">
         <v>140</v>
       </c>
@@ -3077,7 +3085,7 @@
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
-      <c r="G10" s="140"/>
+      <c r="G10" s="142"/>
       <c r="H10" s="17">
         <v>140</v>
       </c>
@@ -3095,7 +3103,7 @@
       <c r="D11" s="17"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
-      <c r="G11" s="140"/>
+      <c r="G11" s="142"/>
       <c r="H11" s="17">
         <v>140</v>
       </c>
@@ -3116,7 +3124,7 @@
       </c>
       <c r="E12" s="20"/>
       <c r="F12" s="41"/>
-      <c r="G12" s="140"/>
+      <c r="G12" s="142"/>
       <c r="H12" s="17">
         <v>140</v>
       </c>
@@ -3139,7 +3147,7 @@
       </c>
       <c r="E13" s="10"/>
       <c r="F13" s="10"/>
-      <c r="G13" s="140" t="s">
+      <c r="G13" s="142" t="s">
         <v>31</v>
       </c>
       <c r="H13" s="17">
@@ -3162,7 +3170,7 @@
       </c>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
-      <c r="G14" s="140"/>
+      <c r="G14" s="142"/>
       <c r="H14" s="17">
         <v>140</v>
       </c>
@@ -3183,7 +3191,7 @@
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
-      <c r="G15" s="140"/>
+      <c r="G15" s="142"/>
       <c r="H15" s="17">
         <v>140</v>
       </c>
@@ -3204,7 +3212,7 @@
       </c>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
-      <c r="G16" s="140"/>
+      <c r="G16" s="142"/>
       <c r="H16" s="17">
         <v>140</v>
       </c>
@@ -3227,7 +3235,7 @@
         <v>33</v>
       </c>
       <c r="F17" s="2"/>
-      <c r="G17" s="140"/>
+      <c r="G17" s="142"/>
       <c r="H17" s="17">
         <v>140</v>
       </c>
@@ -3250,7 +3258,7 @@
         <v>35</v>
       </c>
       <c r="F18" s="2"/>
-      <c r="G18" s="140"/>
+      <c r="G18" s="142"/>
       <c r="H18" s="17">
         <v>140</v>
       </c>
@@ -3273,7 +3281,7 @@
         <v>37</v>
       </c>
       <c r="F19" s="42"/>
-      <c r="G19" s="140"/>
+      <c r="G19" s="142"/>
       <c r="H19" s="48">
         <v>140</v>
       </c>
@@ -3296,7 +3304,7 @@
         <v>37</v>
       </c>
       <c r="F20" s="2"/>
-      <c r="G20" s="140"/>
+      <c r="G20" s="142"/>
       <c r="H20" s="17">
         <v>140</v>
       </c>
@@ -3319,7 +3327,7 @@
         <v>38</v>
       </c>
       <c r="F21" s="2"/>
-      <c r="G21" s="140"/>
+      <c r="G21" s="142"/>
       <c r="H21" s="17">
         <v>140</v>
       </c>
@@ -3342,7 +3350,7 @@
         <v>81</v>
       </c>
       <c r="F22" s="107"/>
-      <c r="G22" s="141"/>
+      <c r="G22" s="143"/>
       <c r="H22" s="17">
         <v>140</v>
       </c>
@@ -3367,7 +3375,7 @@
         <v>55</v>
       </c>
       <c r="F23" s="121"/>
-      <c r="G23" s="141" t="s">
+      <c r="G23" s="143" t="s">
         <v>39</v>
       </c>
       <c r="H23" s="17">
@@ -3388,7 +3396,7 @@
       </c>
       <c r="E24" s="107"/>
       <c r="F24" s="107"/>
-      <c r="G24" s="142"/>
+      <c r="G24" s="144"/>
       <c r="H24" s="17">
         <v>140</v>
       </c>
@@ -3409,7 +3417,7 @@
         <v>60</v>
       </c>
       <c r="F25" s="107"/>
-      <c r="G25" s="142"/>
+      <c r="G25" s="144"/>
       <c r="H25" s="17">
         <v>140</v>
       </c>
@@ -3430,7 +3438,7 @@
         <v>63</v>
       </c>
       <c r="F26" s="107"/>
-      <c r="G26" s="142"/>
+      <c r="G26" s="144"/>
       <c r="H26" s="17">
         <v>140</v>
       </c>
@@ -3451,7 +3459,7 @@
         <v>66</v>
       </c>
       <c r="F27" s="107"/>
-      <c r="G27" s="142"/>
+      <c r="G27" s="144"/>
       <c r="H27" s="17">
         <v>140</v>
       </c>
@@ -3471,7 +3479,7 @@
         <v>69</v>
       </c>
       <c r="F28" s="107"/>
-      <c r="G28" s="142"/>
+      <c r="G28" s="144"/>
       <c r="H28" s="17">
         <v>140</v>
       </c>
@@ -3491,7 +3499,7 @@
         <v>72</v>
       </c>
       <c r="F29" s="107"/>
-      <c r="G29" s="142"/>
+      <c r="G29" s="144"/>
       <c r="H29" s="17">
         <v>140</v>
       </c>
@@ -3511,7 +3519,7 @@
         <v>72</v>
       </c>
       <c r="F30" s="107"/>
-      <c r="G30" s="142"/>
+      <c r="G30" s="144"/>
       <c r="H30" s="17">
         <v>140</v>
       </c>
@@ -3531,7 +3539,7 @@
         <v>91</v>
       </c>
       <c r="F31" s="107"/>
-      <c r="G31" s="142"/>
+      <c r="G31" s="144"/>
       <c r="H31" s="17">
         <v>140</v>
       </c>
@@ -3549,7 +3557,7 @@
         <v>93</v>
       </c>
       <c r="F32" s="41"/>
-      <c r="G32" s="143"/>
+      <c r="G32" s="145"/>
       <c r="H32" s="28">
         <v>140</v>
       </c>
@@ -3597,16 +3605,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12.6" customHeight="1">
-      <c r="A1" s="139" t="s">
+      <c r="A1" s="141" t="s">
         <v>94</v>
       </c>
-      <c r="B1" s="139"/>
-      <c r="C1" s="139"/>
-      <c r="D1" s="139"/>
-      <c r="E1" s="139"/>
-      <c r="F1" s="139"/>
-      <c r="G1" s="139"/>
-      <c r="H1" s="139"/>
+      <c r="B1" s="141"/>
+      <c r="C1" s="141"/>
+      <c r="D1" s="141"/>
+      <c r="E1" s="141"/>
+      <c r="F1" s="141"/>
+      <c r="G1" s="141"/>
+      <c r="H1" s="141"/>
     </row>
     <row r="2" spans="1:10" ht="15">
       <c r="A2" s="3" t="s">
@@ -3650,7 +3658,7 @@
       <c r="F3" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="G3" s="140" t="s">
+      <c r="G3" s="142" t="s">
         <v>11</v>
       </c>
       <c r="H3" s="11">
@@ -3673,7 +3681,7 @@
       <c r="F4" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="G4" s="140"/>
+      <c r="G4" s="142"/>
       <c r="H4" s="17">
         <v>140</v>
       </c>
@@ -3694,7 +3702,7 @@
       <c r="F5" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="G5" s="140"/>
+      <c r="G5" s="142"/>
       <c r="H5" s="17">
         <v>140</v>
       </c>
@@ -3716,7 +3724,7 @@
       <c r="F6" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="G6" s="140"/>
+      <c r="G6" s="142"/>
       <c r="H6" s="17">
         <v>140</v>
       </c>
@@ -3738,7 +3746,7 @@
       <c r="F7" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="G7" s="140"/>
+      <c r="G7" s="142"/>
       <c r="H7" s="17">
         <v>140</v>
       </c>
@@ -3760,7 +3768,7 @@
       <c r="F8" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="G8" s="140"/>
+      <c r="G8" s="142"/>
       <c r="H8" s="17">
         <v>140</v>
       </c>
@@ -3782,7 +3790,7 @@
       <c r="F9" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="G9" s="140"/>
+      <c r="G9" s="142"/>
       <c r="H9" s="17">
         <v>140</v>
       </c>
@@ -3803,7 +3811,7 @@
       <c r="F10" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="G10" s="140"/>
+      <c r="G10" s="142"/>
       <c r="H10" s="17">
         <v>140</v>
       </c>
@@ -3824,7 +3832,7 @@
       <c r="F11" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="G11" s="140"/>
+      <c r="G11" s="142"/>
       <c r="H11" s="17">
         <v>140</v>
       </c>
@@ -3845,7 +3853,7 @@
       <c r="F12" s="41" t="s">
         <v>107</v>
       </c>
-      <c r="G12" s="140"/>
+      <c r="G12" s="142"/>
       <c r="H12" s="17">
         <v>140</v>
       </c>
@@ -3867,7 +3875,7 @@
       <c r="F13" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="G13" s="140" t="s">
+      <c r="G13" s="142" t="s">
         <v>31</v>
       </c>
       <c r="H13" s="17">
@@ -3892,7 +3900,7 @@
       <c r="F14" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="G14" s="140"/>
+      <c r="G14" s="142"/>
       <c r="H14" s="17">
         <v>140</v>
       </c>
@@ -3915,7 +3923,7 @@
       <c r="F15" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="G15" s="140"/>
+      <c r="G15" s="142"/>
       <c r="H15" s="17">
         <v>140</v>
       </c>
@@ -3937,7 +3945,7 @@
       <c r="F16" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="G16" s="140"/>
+      <c r="G16" s="142"/>
       <c r="H16" s="17">
         <v>140</v>
       </c>
@@ -3962,7 +3970,7 @@
       <c r="F17" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="G17" s="140"/>
+      <c r="G17" s="142"/>
       <c r="H17" s="17">
         <v>140</v>
       </c>
@@ -3987,7 +3995,7 @@
       <c r="F18" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="G18" s="140"/>
+      <c r="G18" s="142"/>
       <c r="H18" s="17">
         <v>140</v>
       </c>
@@ -4012,7 +4020,7 @@
       <c r="F19" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="G19" s="140"/>
+      <c r="G19" s="142"/>
       <c r="H19" s="17">
         <v>140</v>
       </c>
@@ -4037,7 +4045,7 @@
       <c r="F20" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="G20" s="140"/>
+      <c r="G20" s="142"/>
       <c r="H20" s="17">
         <v>140</v>
       </c>
@@ -4062,7 +4070,7 @@
       <c r="F21" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="G21" s="140"/>
+      <c r="G21" s="142"/>
       <c r="H21" s="17">
         <v>140</v>
       </c>
@@ -4087,7 +4095,7 @@
       <c r="F22" s="41" t="s">
         <v>107</v>
       </c>
-      <c r="G22" s="140"/>
+      <c r="G22" s="142"/>
       <c r="H22" s="17">
         <v>140</v>
       </c>
@@ -4115,7 +4123,7 @@
       <c r="F23" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="G23" s="140" t="s">
+      <c r="G23" s="142" t="s">
         <v>39</v>
       </c>
       <c r="H23" s="17">
@@ -4142,7 +4150,7 @@
       <c r="F24" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="G24" s="140"/>
+      <c r="G24" s="142"/>
       <c r="H24" s="17">
         <v>140</v>
       </c>
@@ -4167,7 +4175,7 @@
       <c r="F25" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="G25" s="140"/>
+      <c r="G25" s="142"/>
       <c r="H25" s="17">
         <v>140</v>
       </c>
@@ -4192,7 +4200,7 @@
       <c r="F26" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="G26" s="140"/>
+      <c r="G26" s="142"/>
       <c r="H26" s="17">
         <v>140</v>
       </c>
@@ -4217,7 +4225,7 @@
       <c r="F27" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="G27" s="140"/>
+      <c r="G27" s="142"/>
       <c r="H27" s="17">
         <v>140</v>
       </c>
@@ -4241,7 +4249,7 @@
       <c r="F28" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="G28" s="140"/>
+      <c r="G28" s="142"/>
       <c r="H28" s="17">
         <v>140</v>
       </c>
@@ -4265,7 +4273,7 @@
       <c r="F29" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="G29" s="140"/>
+      <c r="G29" s="142"/>
       <c r="H29" s="17">
         <v>140</v>
       </c>
@@ -4289,7 +4297,7 @@
       <c r="F30" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="G30" s="140"/>
+      <c r="G30" s="142"/>
       <c r="H30" s="17">
         <v>140</v>
       </c>
@@ -4313,7 +4321,7 @@
       <c r="F31" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="G31" s="140"/>
+      <c r="G31" s="142"/>
       <c r="H31" s="17">
         <v>140</v>
       </c>
@@ -4333,7 +4341,7 @@
       <c r="F32" s="41" t="s">
         <v>107</v>
       </c>
-      <c r="G32" s="140"/>
+      <c r="G32" s="142"/>
       <c r="H32" s="28">
         <v>140</v>
       </c>
@@ -4388,16 +4396,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="144" t="s">
+      <c r="A1" s="146" t="s">
         <v>113</v>
       </c>
-      <c r="B1" s="144"/>
-      <c r="C1" s="144"/>
-      <c r="D1" s="144"/>
-      <c r="E1" s="144"/>
-      <c r="F1" s="144"/>
-      <c r="G1" s="144"/>
-      <c r="H1" s="144"/>
+      <c r="B1" s="146"/>
+      <c r="C1" s="146"/>
+      <c r="D1" s="146"/>
+      <c r="E1" s="146"/>
+      <c r="F1" s="146"/>
+      <c r="G1" s="146"/>
+      <c r="H1" s="146"/>
     </row>
     <row r="2" spans="1:10" ht="15">
       <c r="A2" s="68" t="s">
@@ -4436,7 +4444,7 @@
       <c r="F3" s="33" t="s">
         <v>97</v>
       </c>
-      <c r="G3" s="138" t="s">
+      <c r="G3" s="140" t="s">
         <v>11</v>
       </c>
       <c r="H3" s="33">
@@ -4459,7 +4467,7 @@
       <c r="F4" s="36" t="s">
         <v>98</v>
       </c>
-      <c r="G4" s="138"/>
+      <c r="G4" s="140"/>
       <c r="H4" s="36">
         <v>120</v>
       </c>
@@ -4480,7 +4488,7 @@
       <c r="F5" s="36" t="s">
         <v>99</v>
       </c>
-      <c r="G5" s="138"/>
+      <c r="G5" s="140"/>
       <c r="H5" s="36">
         <v>120</v>
       </c>
@@ -4501,7 +4509,7 @@
       <c r="F6" s="36" t="s">
         <v>100</v>
       </c>
-      <c r="G6" s="138"/>
+      <c r="G6" s="140"/>
       <c r="H6" s="36">
         <v>120</v>
       </c>
@@ -4522,7 +4530,7 @@
       <c r="F7" s="36" t="s">
         <v>101</v>
       </c>
-      <c r="G7" s="138"/>
+      <c r="G7" s="140"/>
       <c r="H7" s="36">
         <v>120</v>
       </c>
@@ -4543,7 +4551,7 @@
       <c r="F8" s="36" t="s">
         <v>102</v>
       </c>
-      <c r="G8" s="138"/>
+      <c r="G8" s="140"/>
       <c r="H8" s="36">
         <v>120</v>
       </c>
@@ -4564,7 +4572,7 @@
       <c r="F9" s="36" t="s">
         <v>103</v>
       </c>
-      <c r="G9" s="138"/>
+      <c r="G9" s="140"/>
       <c r="H9" s="36">
         <v>120</v>
       </c>
@@ -4584,7 +4592,7 @@
       <c r="F10" s="36" t="s">
         <v>105</v>
       </c>
-      <c r="G10" s="138"/>
+      <c r="G10" s="140"/>
       <c r="H10" s="36">
         <v>120</v>
       </c>
@@ -4604,7 +4612,7 @@
       <c r="F11" s="36" t="s">
         <v>106</v>
       </c>
-      <c r="G11" s="138"/>
+      <c r="G11" s="140"/>
       <c r="H11" s="36">
         <v>120</v>
       </c>
@@ -4625,7 +4633,7 @@
       <c r="F12" s="44" t="s">
         <v>107</v>
       </c>
-      <c r="G12" s="138"/>
+      <c r="G12" s="140"/>
       <c r="H12" s="36">
         <v>120</v>
       </c>
@@ -4653,7 +4661,7 @@
       <c r="F13" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="G13" s="138" t="s">
+      <c r="G13" s="140" t="s">
         <v>31</v>
       </c>
       <c r="H13" s="36">
@@ -4677,7 +4685,7 @@
       <c r="F14" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="G14" s="138"/>
+      <c r="G14" s="140"/>
       <c r="H14" s="36">
         <v>120</v>
       </c>
@@ -4699,7 +4707,7 @@
       <c r="F15" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="G15" s="138"/>
+      <c r="G15" s="140"/>
       <c r="H15" s="36">
         <v>120</v>
       </c>
@@ -4721,7 +4729,7 @@
       <c r="F16" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="G16" s="138"/>
+      <c r="G16" s="140"/>
       <c r="H16" s="36">
         <v>120</v>
       </c>
@@ -4746,7 +4754,7 @@
       <c r="F17" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="G17" s="138"/>
+      <c r="G17" s="140"/>
       <c r="H17" s="36">
         <v>120</v>
       </c>
@@ -4771,7 +4779,7 @@
       <c r="F18" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="G18" s="138"/>
+      <c r="G18" s="140"/>
       <c r="H18" s="36">
         <v>120</v>
       </c>
@@ -4796,7 +4804,7 @@
       <c r="F19" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="G19" s="138"/>
+      <c r="G19" s="140"/>
       <c r="H19" s="36">
         <v>120</v>
       </c>
@@ -4821,7 +4829,7 @@
       <c r="F20" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="G20" s="138"/>
+      <c r="G20" s="140"/>
       <c r="H20" s="36">
         <v>120</v>
       </c>
@@ -4846,7 +4854,7 @@
       <c r="F21" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="G21" s="138"/>
+      <c r="G21" s="140"/>
       <c r="H21" s="36">
         <v>120</v>
       </c>
@@ -4871,7 +4879,7 @@
       <c r="F22" s="41" t="s">
         <v>107</v>
       </c>
-      <c r="G22" s="138"/>
+      <c r="G22" s="140"/>
       <c r="H22" s="36">
         <v>120</v>
       </c>
@@ -4902,7 +4910,7 @@
       <c r="F23" s="33" t="s">
         <v>97</v>
       </c>
-      <c r="G23" s="138" t="s">
+      <c r="G23" s="140" t="s">
         <v>39</v>
       </c>
       <c r="H23" s="36">
@@ -4929,7 +4937,7 @@
       <c r="F24" s="36" t="s">
         <v>98</v>
       </c>
-      <c r="G24" s="138"/>
+      <c r="G24" s="140"/>
       <c r="H24" s="36">
         <v>120</v>
       </c>
@@ -4954,7 +4962,7 @@
       <c r="F25" s="36" t="s">
         <v>99</v>
       </c>
-      <c r="G25" s="138"/>
+      <c r="G25" s="140"/>
       <c r="H25" s="36">
         <v>120</v>
       </c>
@@ -4979,7 +4987,7 @@
       <c r="F26" s="36" t="s">
         <v>100</v>
       </c>
-      <c r="G26" s="138"/>
+      <c r="G26" s="140"/>
       <c r="H26" s="36">
         <v>120</v>
       </c>
@@ -5004,7 +5012,7 @@
       <c r="F27" s="36" t="s">
         <v>101</v>
       </c>
-      <c r="G27" s="138"/>
+      <c r="G27" s="140"/>
       <c r="H27" s="36">
         <v>120</v>
       </c>
@@ -5028,7 +5036,7 @@
       <c r="F28" s="36" t="s">
         <v>102</v>
       </c>
-      <c r="G28" s="138"/>
+      <c r="G28" s="140"/>
       <c r="H28" s="36">
         <v>120</v>
       </c>
@@ -5052,7 +5060,7 @@
       <c r="F29" s="36" t="s">
         <v>103</v>
       </c>
-      <c r="G29" s="138"/>
+      <c r="G29" s="140"/>
       <c r="H29" s="36">
         <v>120</v>
       </c>
@@ -5076,7 +5084,7 @@
       <c r="F30" s="36" t="s">
         <v>105</v>
       </c>
-      <c r="G30" s="138"/>
+      <c r="G30" s="140"/>
       <c r="H30" s="36">
         <v>120</v>
       </c>
@@ -5100,7 +5108,7 @@
       <c r="F31" s="36" t="s">
         <v>106</v>
       </c>
-      <c r="G31" s="138"/>
+      <c r="G31" s="140"/>
       <c r="H31" s="36">
         <v>120</v>
       </c>
@@ -5122,7 +5130,7 @@
       <c r="F32" s="77" t="s">
         <v>107</v>
       </c>
-      <c r="G32" s="138"/>
+      <c r="G32" s="140"/>
       <c r="H32" s="77">
         <v>120</v>
       </c>
@@ -5193,15 +5201,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="144" t="s">
+      <c r="A1" s="146" t="s">
         <v>125</v>
       </c>
-      <c r="B1" s="144"/>
-      <c r="C1" s="144"/>
-      <c r="D1" s="144"/>
-      <c r="E1" s="144"/>
-      <c r="F1" s="144"/>
-      <c r="G1" s="144"/>
+      <c r="B1" s="146"/>
+      <c r="C1" s="146"/>
+      <c r="D1" s="146"/>
+      <c r="E1" s="146"/>
+      <c r="F1" s="146"/>
+      <c r="G1" s="146"/>
     </row>
     <row r="2" spans="1:9" ht="15">
       <c r="A2" s="68" t="s">
@@ -5242,7 +5250,7 @@
       <c r="F3" s="10">
         <v>5</v>
       </c>
-      <c r="G3" s="138" t="s">
+      <c r="G3" s="140" t="s">
         <v>11</v>
       </c>
     </row>
@@ -5261,7 +5269,7 @@
       <c r="F4" s="2">
         <v>5</v>
       </c>
-      <c r="G4" s="138"/>
+      <c r="G4" s="140"/>
     </row>
     <row r="5" spans="1:9" ht="15">
       <c r="A5" s="62" t="s">
@@ -5278,7 +5286,7 @@
       <c r="F5" s="2">
         <v>5</v>
       </c>
-      <c r="G5" s="138"/>
+      <c r="G5" s="140"/>
     </row>
     <row r="6" spans="1:9" ht="15">
       <c r="A6" s="62" t="s">
@@ -5295,7 +5303,7 @@
       <c r="F6" s="2">
         <v>5</v>
       </c>
-      <c r="G6" s="138"/>
+      <c r="G6" s="140"/>
     </row>
     <row r="7" spans="1:9" ht="15">
       <c r="A7" s="62" t="s">
@@ -5312,7 +5320,7 @@
       <c r="F7" s="2">
         <v>5</v>
       </c>
-      <c r="G7" s="138"/>
+      <c r="G7" s="140"/>
     </row>
     <row r="8" spans="1:9" ht="15">
       <c r="A8" s="62" t="s">
@@ -5329,7 +5337,7 @@
       <c r="F8" s="2">
         <v>5</v>
       </c>
-      <c r="G8" s="138"/>
+      <c r="G8" s="140"/>
     </row>
     <row r="9" spans="1:9" ht="15">
       <c r="A9" s="62" t="s">
@@ -5346,7 +5354,7 @@
       <c r="F9" s="2">
         <v>5</v>
       </c>
-      <c r="G9" s="138"/>
+      <c r="G9" s="140"/>
       <c r="H9" s="2"/>
     </row>
     <row r="10" spans="1:9" ht="15">
@@ -5364,7 +5372,7 @@
       <c r="F10" s="2">
         <v>5</v>
       </c>
-      <c r="G10" s="138"/>
+      <c r="G10" s="140"/>
       <c r="H10" s="2"/>
     </row>
     <row r="11" spans="1:9" ht="15">
@@ -5384,7 +5392,7 @@
       <c r="F11" s="89" t="s">
         <v>97</v>
       </c>
-      <c r="G11" s="145" t="s">
+      <c r="G11" s="147" t="s">
         <v>31</v>
       </c>
       <c r="H11" s="2"/>
@@ -5406,7 +5414,7 @@
       <c r="F12" s="94" t="s">
         <v>98</v>
       </c>
-      <c r="G12" s="145"/>
+      <c r="G12" s="147"/>
       <c r="H12" s="2"/>
     </row>
     <row r="13" spans="1:9" ht="15">
@@ -5426,7 +5434,7 @@
       <c r="F13" s="94" t="s">
         <v>99</v>
       </c>
-      <c r="G13" s="145"/>
+      <c r="G13" s="147"/>
       <c r="H13" s="2"/>
     </row>
     <row r="14" spans="1:9" ht="15">
@@ -5448,7 +5456,7 @@
       <c r="F14" s="94" t="s">
         <v>100</v>
       </c>
-      <c r="G14" s="145"/>
+      <c r="G14" s="147"/>
       <c r="H14" s="71">
         <v>43371</v>
       </c>
@@ -5475,7 +5483,7 @@
       <c r="F15" s="94" t="s">
         <v>101</v>
       </c>
-      <c r="G15" s="145"/>
+      <c r="G15" s="147"/>
       <c r="H15" s="2"/>
     </row>
     <row r="16" spans="1:9" ht="15">
@@ -5497,7 +5505,7 @@
       <c r="F16" s="94" t="s">
         <v>102</v>
       </c>
-      <c r="G16" s="145"/>
+      <c r="G16" s="147"/>
       <c r="H16" s="2"/>
     </row>
     <row r="17" spans="1:9" ht="15">
@@ -5519,7 +5527,7 @@
       <c r="F17" s="94" t="s">
         <v>103</v>
       </c>
-      <c r="G17" s="145"/>
+      <c r="G17" s="147"/>
       <c r="H17" s="2"/>
     </row>
     <row r="18" spans="1:9" ht="15">
@@ -5541,7 +5549,7 @@
       <c r="F18" s="50" t="s">
         <v>105</v>
       </c>
-      <c r="G18" s="145"/>
+      <c r="G18" s="147"/>
       <c r="H18" s="71">
         <v>43409</v>
       </c>
@@ -5566,7 +5574,7 @@
       <c r="F19" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="G19" s="138" t="s">
+      <c r="G19" s="140" t="s">
         <v>39</v>
       </c>
       <c r="H19" s="2"/>
@@ -5590,7 +5598,7 @@
       <c r="F20" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="G20" s="138"/>
+      <c r="G20" s="140"/>
       <c r="H20" s="2"/>
     </row>
     <row r="21" spans="1:9" ht="15">
@@ -5612,7 +5620,7 @@
       <c r="F21" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="G21" s="138"/>
+      <c r="G21" s="140"/>
       <c r="H21" s="2"/>
     </row>
     <row r="22" spans="1:9" ht="15">
@@ -5634,7 +5642,7 @@
       <c r="F22" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="G22" s="138"/>
+      <c r="G22" s="140"/>
       <c r="H22" s="65">
         <v>43448</v>
       </c>
@@ -5661,7 +5669,7 @@
       <c r="F23" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="G23" s="138"/>
+      <c r="G23" s="140"/>
       <c r="H23" s="2"/>
     </row>
     <row r="24" spans="1:9" ht="15">
@@ -5683,7 +5691,7 @@
       <c r="F24" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="G24" s="138"/>
+      <c r="G24" s="140"/>
       <c r="H24" s="2"/>
     </row>
     <row r="25" spans="1:9" ht="15">
@@ -5703,7 +5711,7 @@
       <c r="F25" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="G25" s="138"/>
+      <c r="G25" s="140"/>
     </row>
     <row r="26" spans="1:9" ht="15">
       <c r="A26" s="64" t="s">
@@ -5722,7 +5730,7 @@
       <c r="F26" s="41" t="s">
         <v>105</v>
       </c>
-      <c r="G26" s="138"/>
+      <c r="G26" s="140"/>
       <c r="I26" s="2">
         <v>600</v>
       </c>
@@ -5773,16 +5781,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="146" t="s">
+      <c r="A1" s="148" t="s">
         <v>142</v>
       </c>
-      <c r="B1" s="146"/>
-      <c r="C1" s="146"/>
-      <c r="D1" s="146"/>
-      <c r="E1" s="146"/>
-      <c r="F1" s="146"/>
-      <c r="G1" s="146"/>
-      <c r="H1" s="146"/>
+      <c r="B1" s="148"/>
+      <c r="C1" s="148"/>
+      <c r="D1" s="148"/>
+      <c r="E1" s="148"/>
+      <c r="F1" s="148"/>
+      <c r="G1" s="148"/>
+      <c r="H1" s="148"/>
     </row>
     <row r="2" spans="1:11" ht="15">
       <c r="A2" s="30" t="s">
@@ -5822,13 +5830,13 @@
       <c r="F3" s="2">
         <v>5</v>
       </c>
-      <c r="G3" s="146" t="s">
+      <c r="G3" s="148" t="s">
         <v>144</v>
       </c>
-      <c r="J3" s="147" t="s">
+      <c r="J3" s="149" t="s">
         <v>145</v>
       </c>
-      <c r="K3" s="147"/>
+      <c r="K3" s="149"/>
     </row>
     <row r="4" spans="1:11" ht="15">
       <c r="A4" s="80" t="s">
@@ -5843,7 +5851,7 @@
       <c r="F4" s="2">
         <v>5</v>
       </c>
-      <c r="G4" s="146"/>
+      <c r="G4" s="148"/>
       <c r="J4" t="s">
         <v>146</v>
       </c>
@@ -5865,7 +5873,7 @@
       <c r="F5" s="2">
         <v>5</v>
       </c>
-      <c r="G5" s="146"/>
+      <c r="G5" s="148"/>
       <c r="J5" t="s">
         <v>147</v>
       </c>
@@ -5887,7 +5895,7 @@
       <c r="F6" s="2">
         <v>5</v>
       </c>
-      <c r="G6" s="146"/>
+      <c r="G6" s="148"/>
       <c r="J6" t="s">
         <v>148</v>
       </c>
@@ -5909,7 +5917,7 @@
       <c r="F7" s="10">
         <v>5</v>
       </c>
-      <c r="G7" s="140" t="s">
+      <c r="G7" s="142" t="s">
         <v>11</v>
       </c>
       <c r="J7" t="s">
@@ -5933,7 +5941,7 @@
       <c r="F8" s="2">
         <v>5</v>
       </c>
-      <c r="G8" s="140"/>
+      <c r="G8" s="142"/>
       <c r="J8" t="s">
         <v>150</v>
       </c>
@@ -5955,7 +5963,7 @@
       <c r="F9" s="2">
         <v>5</v>
       </c>
-      <c r="G9" s="140"/>
+      <c r="G9" s="142"/>
       <c r="J9" t="s">
         <v>151</v>
       </c>
@@ -5977,7 +5985,7 @@
       <c r="F10" s="2">
         <v>5</v>
       </c>
-      <c r="G10" s="140"/>
+      <c r="G10" s="142"/>
       <c r="J10" t="s">
         <v>152</v>
       </c>
@@ -5999,7 +6007,7 @@
       <c r="F11" s="2">
         <v>5</v>
       </c>
-      <c r="G11" s="140"/>
+      <c r="G11" s="142"/>
       <c r="J11" t="s">
         <v>153</v>
       </c>
@@ -6021,7 +6029,7 @@
       <c r="F12" s="2">
         <v>5</v>
       </c>
-      <c r="G12" s="140"/>
+      <c r="G12" s="142"/>
       <c r="J12" t="s">
         <v>154</v>
       </c>
@@ -6043,7 +6051,7 @@
       <c r="F13" s="2">
         <v>5</v>
       </c>
-      <c r="G13" s="140"/>
+      <c r="G13" s="142"/>
     </row>
     <row r="14" spans="1:11" ht="15">
       <c r="A14" s="58" t="s">
@@ -6058,7 +6066,7 @@
       <c r="F14" s="41">
         <v>5</v>
       </c>
-      <c r="G14" s="140"/>
+      <c r="G14" s="142"/>
     </row>
     <row r="15" spans="1:11" ht="15">
       <c r="A15" s="52" t="s">
@@ -6073,7 +6081,7 @@
       <c r="F15" s="10">
         <v>1</v>
       </c>
-      <c r="G15" s="140" t="s">
+      <c r="G15" s="142" t="s">
         <v>31</v>
       </c>
     </row>
@@ -6092,7 +6100,7 @@
       <c r="F16" s="2">
         <v>2</v>
       </c>
-      <c r="G16" s="140"/>
+      <c r="G16" s="142"/>
     </row>
     <row r="17" spans="1:10" ht="15">
       <c r="A17" s="56" t="s">
@@ -6109,7 +6117,7 @@
       <c r="F17" s="2">
         <v>3</v>
       </c>
-      <c r="G17" s="140"/>
+      <c r="G17" s="142"/>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
     </row>
@@ -6128,7 +6136,7 @@
       <c r="F18" s="2">
         <v>4</v>
       </c>
-      <c r="G18" s="140"/>
+      <c r="G18" s="142"/>
     </row>
     <row r="19" spans="1:10" ht="15">
       <c r="A19" s="62" t="s">
@@ -6146,7 +6154,7 @@
       <c r="F19" s="2">
         <v>5</v>
       </c>
-      <c r="G19" s="140"/>
+      <c r="G19" s="142"/>
     </row>
     <row r="20" spans="1:10" ht="15">
       <c r="A20" s="62" t="s">
@@ -6164,7 +6172,7 @@
       <c r="F20" s="2">
         <v>6</v>
       </c>
-      <c r="G20" s="140"/>
+      <c r="G20" s="142"/>
     </row>
     <row r="21" spans="1:10" ht="15">
       <c r="A21" s="62" t="s">
@@ -6182,7 +6190,7 @@
       <c r="F21" s="2">
         <v>7</v>
       </c>
-      <c r="G21" s="140"/>
+      <c r="G21" s="142"/>
     </row>
     <row r="22" spans="1:10" ht="15">
       <c r="A22" s="64" t="s">
@@ -6201,7 +6209,7 @@
       <c r="F22" s="41">
         <v>8</v>
       </c>
-      <c r="G22" s="140"/>
+      <c r="G22" s="142"/>
     </row>
     <row r="23" spans="1:10" ht="15">
       <c r="A23" s="60" t="s">
@@ -6220,7 +6228,7 @@
       <c r="F23" s="10">
         <v>1</v>
       </c>
-      <c r="G23" s="140" t="s">
+      <c r="G23" s="142" t="s">
         <v>39</v>
       </c>
     </row>
@@ -6243,7 +6251,7 @@
       <c r="F24" s="2">
         <v>2</v>
       </c>
-      <c r="G24" s="140"/>
+      <c r="G24" s="142"/>
     </row>
     <row r="25" spans="1:10" ht="15">
       <c r="A25" s="62" t="s">
@@ -6264,7 +6272,7 @@
       <c r="F25" s="2">
         <v>3</v>
       </c>
-      <c r="G25" s="140"/>
+      <c r="G25" s="142"/>
     </row>
     <row r="26" spans="1:10" ht="15">
       <c r="A26" s="62" t="s">
@@ -6285,7 +6293,7 @@
       <c r="F26" s="2">
         <v>4</v>
       </c>
-      <c r="G26" s="140"/>
+      <c r="G26" s="142"/>
       <c r="H26" s="2" t="s">
         <v>159</v>
       </c>
@@ -6309,7 +6317,7 @@
       <c r="F27" s="2">
         <v>5</v>
       </c>
-      <c r="G27" s="140"/>
+      <c r="G27" s="142"/>
     </row>
     <row r="28" spans="1:10" ht="15">
       <c r="A28" s="62" t="s">
@@ -6330,7 +6338,7 @@
       <c r="F28" s="2">
         <v>6</v>
       </c>
-      <c r="G28" s="140"/>
+      <c r="G28" s="142"/>
     </row>
     <row r="29" spans="1:10" ht="15">
       <c r="A29" s="62" t="s">
@@ -6351,7 +6359,7 @@
       <c r="F29" s="2">
         <v>7</v>
       </c>
-      <c r="G29" s="140"/>
+      <c r="G29" s="142"/>
     </row>
     <row r="30" spans="1:10" ht="15">
       <c r="A30" s="64" t="s">
@@ -6372,7 +6380,7 @@
       <c r="F30" s="41">
         <v>8</v>
       </c>
-      <c r="G30" s="140"/>
+      <c r="G30" s="142"/>
       <c r="H30" s="71">
         <v>43396</v>
       </c>

--- a/Cronograma aulas/Aulas v2.xlsx
+++ b/Cronograma aulas/Aulas v2.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Linux Sab Vesp\Documents\github\aulas-3way\Cronograma aulas\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4010478-1186-4BEE-97EA-DC2DFF758A7A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" tabRatio="489" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="489" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="t7_seg_e_qua" sheetId="1" r:id="rId1"/>
@@ -15,17 +21,24 @@
     <sheet name="t2_Sábado" sheetId="6" r:id="rId6"/>
     <sheet name="t1_Domingo_(finalizada)" sheetId="7" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="114210"/>
+  <calcPr calcId="181029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="D15" authorId="0">
+    <comment ref="D15" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000001000000}">
       <text>
         <r>
           <rPr>
@@ -43,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="717" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="718" uniqueCount="171">
   <si>
     <t>Segunda e Quarta – sala 04 (senha javaweb)</t>
   </si>
@@ -577,7 +590,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="[$R$-416]\ #,##0.00;[Red]\-[$R$-416]\ #,##0.00"/>
     <numFmt numFmtId="165" formatCode="m/d/yy"/>
@@ -1453,6 +1466,14 @@
       <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1473,7 +1494,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1026" name="shapetype_202" hidden="1"/>
+        <xdr:cNvPr id="1026" name="shapetype_202" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noSelect="1" noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -1505,7 +1532,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1547,7 +1574,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1579,9 +1606,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1613,6 +1658,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1788,7 +1851,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H30"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
@@ -2372,11 +2435,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A6" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="14.25"/>
@@ -2700,7 +2763,9 @@
       <c r="B17" s="128">
         <v>43722</v>
       </c>
-      <c r="C17" s="36"/>
+      <c r="C17" s="36" t="s">
+        <v>29</v>
+      </c>
       <c r="D17" s="17" t="s">
         <v>170</v>
       </c>
@@ -2875,7 +2940,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <tabColor indexed="47"/>
   </sheetPr>
@@ -3581,7 +3646,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <tabColor indexed="47"/>
   </sheetPr>
@@ -4370,7 +4435,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <tabColor indexed="47"/>
   </sheetPr>
@@ -5177,7 +5242,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <tabColor indexed="47"/>
   </sheetPr>
@@ -5755,7 +5820,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr>
     <tabColor indexed="47"/>
   </sheetPr>

--- a/Cronograma aulas/Aulas v2.xlsx
+++ b/Cronograma aulas/Aulas v2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Linux Sab Vesp\Documents\github\aulas-3way\Cronograma aulas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JAVA SEG QUA\Documents\github\aulas-3way\Cronograma aulas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4010478-1186-4BEE-97EA-DC2DFF758A7A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95284B3A-DE4C-47B2-A349-730F2B0ED043}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="489" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15" yWindow="15" windowWidth="21570" windowHeight="12870" tabRatio="489" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="t7_seg_e_qua" sheetId="1" r:id="rId1"/>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="718" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="723" uniqueCount="171">
   <si>
     <t>Segunda e Quarta – sala 04 (senha javaweb)</t>
   </si>
@@ -569,9 +569,6 @@
     <t>HTML, CSS, JS - Github</t>
   </si>
   <si>
-    <t>jsp-servlet-jpa</t>
-  </si>
-  <si>
     <t>Github -Redirecionar, JSP,  Git/Github</t>
   </si>
   <si>
@@ -585,6 +582,9 @@
   </si>
   <si>
     <t>Criar DAO JPA - implementar DAO em cima do exercicio Cliente</t>
+  </si>
+  <si>
+    <t>Baixar STS - Github - Spring</t>
   </si>
 </sst>
 </file>
@@ -596,7 +596,7 @@
     <numFmt numFmtId="165" formatCode="m/d/yy"/>
     <numFmt numFmtId="166" formatCode="dd/mm/yy;@"/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="19">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -695,11 +695,6 @@
       <color indexed="55"/>
       <name val="Liberation Sans1"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="45"/>
-      <name val="Liberation Sans1"/>
     </font>
     <font>
       <b/>
@@ -968,9 +963,9 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="150">
+  <cellXfs count="147">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1342,18 +1337,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1854,8 +1842,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="14.25"/>
@@ -1870,15 +1858,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="140" t="s">
+      <c r="A1" s="137" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="140"/>
-      <c r="C1" s="140"/>
-      <c r="D1" s="140"/>
-      <c r="E1" s="140"/>
-      <c r="F1" s="140"/>
-      <c r="G1" s="140"/>
+      <c r="B1" s="137"/>
+      <c r="C1" s="137"/>
+      <c r="D1" s="137"/>
+      <c r="E1" s="137"/>
+      <c r="F1" s="137"/>
+      <c r="G1" s="137"/>
     </row>
     <row r="2" spans="1:8" ht="15">
       <c r="A2" s="68" t="s">
@@ -1918,7 +1906,7 @@
         <v>10</v>
       </c>
       <c r="E3" s="132"/>
-      <c r="F3" s="140" t="s">
+      <c r="F3" s="137" t="s">
         <v>11</v>
       </c>
       <c r="G3" s="11">
@@ -1939,7 +1927,7 @@
         <v>13</v>
       </c>
       <c r="E4" s="106"/>
-      <c r="F4" s="140"/>
+      <c r="F4" s="137"/>
       <c r="G4" s="17">
         <v>140</v>
       </c>
@@ -1958,7 +1946,7 @@
         <v>15</v>
       </c>
       <c r="E5" s="106"/>
-      <c r="F5" s="140"/>
+      <c r="F5" s="137"/>
       <c r="G5" s="17">
         <v>140</v>
       </c>
@@ -1977,7 +1965,7 @@
         <v>17</v>
       </c>
       <c r="E6" s="107"/>
-      <c r="F6" s="140"/>
+      <c r="F6" s="137"/>
       <c r="G6" s="17">
         <v>140</v>
       </c>
@@ -1996,7 +1984,7 @@
         <v>19</v>
       </c>
       <c r="E7" s="107"/>
-      <c r="F7" s="140"/>
+      <c r="F7" s="137"/>
       <c r="G7" s="17">
         <v>140</v>
       </c>
@@ -2015,7 +2003,7 @@
         <v>21</v>
       </c>
       <c r="E8" s="107"/>
-      <c r="F8" s="140"/>
+      <c r="F8" s="137"/>
       <c r="G8" s="17">
         <v>140</v>
       </c>
@@ -2034,7 +2022,7 @@
         <v>23</v>
       </c>
       <c r="E9" s="107"/>
-      <c r="F9" s="140"/>
+      <c r="F9" s="137"/>
       <c r="G9" s="17">
         <v>140</v>
       </c>
@@ -2053,7 +2041,7 @@
         <v>25</v>
       </c>
       <c r="E10" s="107"/>
-      <c r="F10" s="140"/>
+      <c r="F10" s="137"/>
       <c r="G10" s="17">
         <v>140</v>
       </c>
@@ -2070,7 +2058,7 @@
       </c>
       <c r="D11" s="17"/>
       <c r="E11" s="107"/>
-      <c r="F11" s="140"/>
+      <c r="F11" s="137"/>
       <c r="G11" s="17">
         <v>140</v>
       </c>
@@ -2090,7 +2078,7 @@
         <v>28</v>
       </c>
       <c r="E12" s="20"/>
-      <c r="F12" s="140"/>
+      <c r="F12" s="137"/>
       <c r="G12" s="17">
         <v>140</v>
       </c>
@@ -2110,7 +2098,7 @@
         <v>30</v>
       </c>
       <c r="E13" s="11"/>
-      <c r="F13" s="140" t="s">
+      <c r="F13" s="137" t="s">
         <v>31</v>
       </c>
       <c r="G13" s="17">
@@ -2132,7 +2120,7 @@
         <v>32</v>
       </c>
       <c r="E14" s="17"/>
-      <c r="F14" s="140"/>
+      <c r="F14" s="137"/>
       <c r="G14" s="17">
         <v>140</v>
       </c>
@@ -2152,7 +2140,7 @@
         <v>32</v>
       </c>
       <c r="E15" s="17"/>
-      <c r="F15" s="140"/>
+      <c r="F15" s="137"/>
       <c r="G15" s="17">
         <v>140</v>
       </c>
@@ -2172,7 +2160,7 @@
         <v>164</v>
       </c>
       <c r="E16" s="17"/>
-      <c r="F16" s="140"/>
+      <c r="F16" s="137"/>
       <c r="G16" s="17">
         <v>140</v>
       </c>
@@ -2189,12 +2177,12 @@
         <v>29</v>
       </c>
       <c r="D17" s="37" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E17" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="F17" s="140"/>
+      <c r="F17" s="137"/>
       <c r="G17" s="17">
         <v>140</v>
       </c>
@@ -2211,12 +2199,12 @@
         <v>29</v>
       </c>
       <c r="D18" s="37" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E18" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="F18" s="140"/>
+      <c r="F18" s="137"/>
       <c r="G18" s="17">
         <v>140</v>
       </c>
@@ -2233,10 +2221,12 @@
         <v>29</v>
       </c>
       <c r="D19" s="37" t="s">
-        <v>168</v>
-      </c>
-      <c r="E19" s="15"/>
-      <c r="F19" s="140"/>
+        <v>167</v>
+      </c>
+      <c r="E19" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="F19" s="137"/>
       <c r="G19" s="15">
         <v>140</v>
       </c>
@@ -2249,14 +2239,16 @@
       <c r="B20" s="131">
         <v>43720</v>
       </c>
-      <c r="C20" s="138" t="s">
+      <c r="C20" s="135" t="s">
         <v>29</v>
       </c>
       <c r="D20" s="40" t="s">
-        <v>167</v>
-      </c>
-      <c r="E20" s="137"/>
-      <c r="F20" s="140"/>
+        <v>166</v>
+      </c>
+      <c r="E20" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="F20" s="137"/>
       <c r="G20" s="130">
         <v>140</v>
       </c>
@@ -2267,12 +2259,16 @@
         <v>8</v>
       </c>
       <c r="B21" s="126">
-        <v>43724</v>
-      </c>
-      <c r="C21" s="23"/>
+        <v>43726</v>
+      </c>
+      <c r="C21" s="23" t="s">
+        <v>29</v>
+      </c>
       <c r="D21" s="108"/>
-      <c r="E21" s="133"/>
-      <c r="F21" s="140" t="s">
+      <c r="E21" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="F21" s="137" t="s">
         <v>39</v>
       </c>
       <c r="G21" s="17">
@@ -2285,12 +2281,14 @@
         <v>12</v>
       </c>
       <c r="B22" s="126">
-        <v>43729</v>
+        <v>43727</v>
       </c>
       <c r="C22" s="23"/>
-      <c r="D22" s="12"/>
+      <c r="D22" s="12" t="s">
+        <v>170</v>
+      </c>
       <c r="E22" s="37"/>
-      <c r="F22" s="140"/>
+      <c r="F22" s="137"/>
       <c r="G22" s="17">
         <v>140</v>
       </c>
@@ -2306,7 +2304,7 @@
       <c r="C23" s="23"/>
       <c r="D23" s="37"/>
       <c r="E23" s="37"/>
-      <c r="F23" s="140"/>
+      <c r="F23" s="137"/>
       <c r="G23" s="17">
         <v>140</v>
       </c>
@@ -2322,7 +2320,7 @@
       <c r="C24" s="23"/>
       <c r="D24" s="37"/>
       <c r="E24" s="37"/>
-      <c r="F24" s="140"/>
+      <c r="F24" s="137"/>
       <c r="G24" s="17">
         <v>140</v>
       </c>
@@ -2338,7 +2336,7 @@
       <c r="C25" s="23"/>
       <c r="D25" s="37"/>
       <c r="E25" s="37"/>
-      <c r="F25" s="140"/>
+      <c r="F25" s="137"/>
       <c r="G25" s="17">
         <v>140</v>
       </c>
@@ -2353,7 +2351,7 @@
       <c r="C26" s="23"/>
       <c r="D26" s="37"/>
       <c r="E26" s="37"/>
-      <c r="F26" s="140"/>
+      <c r="F26" s="137"/>
       <c r="G26" s="17">
         <v>140</v>
       </c>
@@ -2368,7 +2366,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="37"/>
       <c r="E27" s="37"/>
-      <c r="F27" s="140"/>
+      <c r="F27" s="137"/>
       <c r="G27" s="17">
         <v>140</v>
       </c>
@@ -2383,7 +2381,7 @@
       <c r="C28" s="23"/>
       <c r="D28" s="17"/>
       <c r="E28" s="37"/>
-      <c r="F28" s="140"/>
+      <c r="F28" s="137"/>
       <c r="G28" s="17">
         <v>140</v>
       </c>
@@ -2398,7 +2396,7 @@
       <c r="C29" s="23"/>
       <c r="D29" s="17"/>
       <c r="E29" s="37"/>
-      <c r="F29" s="140"/>
+      <c r="F29" s="137"/>
       <c r="G29" s="17">
         <v>140</v>
       </c>
@@ -2410,8 +2408,8 @@
       <c r="B30" s="131"/>
       <c r="C30" s="123"/>
       <c r="D30" s="28"/>
-      <c r="E30" s="134"/>
-      <c r="F30" s="140"/>
+      <c r="E30" s="133"/>
+      <c r="F30" s="137"/>
       <c r="G30" s="28">
         <v>140</v>
       </c>
@@ -2438,8 +2436,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A6" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView showGridLines="0" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="14.25"/>
@@ -2454,15 +2452,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="140" t="s">
+      <c r="A1" s="137" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="140"/>
-      <c r="C1" s="140"/>
-      <c r="D1" s="140"/>
-      <c r="E1" s="140"/>
-      <c r="F1" s="140"/>
-      <c r="G1" s="140"/>
+      <c r="B1" s="137"/>
+      <c r="C1" s="137"/>
+      <c r="D1" s="137"/>
+      <c r="E1" s="137"/>
+      <c r="F1" s="137"/>
+      <c r="G1" s="137"/>
     </row>
     <row r="2" spans="1:8" ht="15">
       <c r="A2" s="3" t="s">
@@ -2500,7 +2498,7 @@
       </c>
       <c r="D3" s="9"/>
       <c r="E3" s="32"/>
-      <c r="F3" s="140" t="s">
+      <c r="F3" s="137" t="s">
         <v>11</v>
       </c>
       <c r="G3" s="33">
@@ -2519,7 +2517,7 @@
       </c>
       <c r="D4" s="15"/>
       <c r="E4" s="35"/>
-      <c r="F4" s="140"/>
+      <c r="F4" s="137"/>
       <c r="G4" s="36">
         <v>175</v>
       </c>
@@ -2536,7 +2534,7 @@
       </c>
       <c r="D5" s="15"/>
       <c r="E5" s="35"/>
-      <c r="F5" s="140"/>
+      <c r="F5" s="137"/>
       <c r="G5" s="36">
         <v>175</v>
       </c>
@@ -2553,7 +2551,7 @@
       </c>
       <c r="D6" s="17"/>
       <c r="E6" s="37"/>
-      <c r="F6" s="140"/>
+      <c r="F6" s="137"/>
       <c r="G6" s="36">
         <v>175</v>
       </c>
@@ -2570,7 +2568,7 @@
       </c>
       <c r="D7" s="17"/>
       <c r="E7" s="37"/>
-      <c r="F7" s="140"/>
+      <c r="F7" s="137"/>
       <c r="G7" s="36">
         <v>175</v>
       </c>
@@ -2587,7 +2585,7 @@
       </c>
       <c r="D8" s="17"/>
       <c r="E8" s="37"/>
-      <c r="F8" s="140"/>
+      <c r="F8" s="137"/>
       <c r="G8" s="36">
         <v>175</v>
       </c>
@@ -2606,7 +2604,7 @@
         <v>41</v>
       </c>
       <c r="E9" s="37"/>
-      <c r="F9" s="140"/>
+      <c r="F9" s="137"/>
       <c r="G9" s="36">
         <v>175</v>
       </c>
@@ -2623,7 +2621,7 @@
       </c>
       <c r="D10" s="39"/>
       <c r="E10" s="40"/>
-      <c r="F10" s="140"/>
+      <c r="F10" s="137"/>
       <c r="G10" s="36">
         <v>175</v>
       </c>
@@ -2642,7 +2640,7 @@
         <v>42</v>
       </c>
       <c r="E11" s="2"/>
-      <c r="F11" s="140" t="s">
+      <c r="F11" s="137" t="s">
         <v>31</v>
       </c>
       <c r="G11" s="17">
@@ -2664,7 +2662,7 @@
         <v>32</v>
       </c>
       <c r="E12" s="2"/>
-      <c r="F12" s="140"/>
+      <c r="F12" s="137"/>
       <c r="G12" s="17">
         <v>175</v>
       </c>
@@ -2684,7 +2682,7 @@
         <v>44</v>
       </c>
       <c r="E13" s="2"/>
-      <c r="F13" s="140"/>
+      <c r="F13" s="137"/>
       <c r="G13" s="17">
         <v>175</v>
       </c>
@@ -2706,7 +2704,7 @@
       <c r="E14" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="F14" s="140"/>
+      <c r="F14" s="137"/>
       <c r="G14" s="17">
         <v>175</v>
       </c>
@@ -2728,7 +2726,7 @@
       <c r="E15" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="F15" s="140"/>
+      <c r="F15" s="137"/>
       <c r="G15" s="17">
         <v>175</v>
       </c>
@@ -2750,7 +2748,7 @@
       <c r="E16" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="F16" s="140"/>
+      <c r="F16" s="137"/>
       <c r="G16" s="17">
         <v>175</v>
       </c>
@@ -2767,12 +2765,12 @@
         <v>29</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="F17" s="140"/>
+      <c r="F17" s="137"/>
       <c r="G17" s="17">
         <v>175</v>
       </c>
@@ -2787,10 +2785,10 @@
       </c>
       <c r="C18" s="23"/>
       <c r="D18" s="15"/>
-      <c r="E18" s="136" t="s">
-        <v>165</v>
-      </c>
-      <c r="F18" s="140"/>
+      <c r="E18" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F18" s="137"/>
       <c r="G18" s="17">
         <v>175</v>
       </c>
@@ -2806,7 +2804,7 @@
       <c r="C19" s="33"/>
       <c r="D19" s="8"/>
       <c r="E19" s="6"/>
-      <c r="F19" s="140" t="s">
+      <c r="F19" s="137" t="s">
         <v>39</v>
       </c>
       <c r="G19" s="36">
@@ -2824,7 +2822,7 @@
       <c r="C20" s="36"/>
       <c r="D20" s="107"/>
       <c r="E20" s="37"/>
-      <c r="F20" s="140"/>
+      <c r="F20" s="137"/>
       <c r="G20" s="36">
         <v>175</v>
       </c>
@@ -2840,7 +2838,7 @@
       <c r="C21" s="36"/>
       <c r="D21" s="107"/>
       <c r="E21" s="37"/>
-      <c r="F21" s="140"/>
+      <c r="F21" s="137"/>
       <c r="G21" s="36">
         <v>175</v>
       </c>
@@ -2856,7 +2854,7 @@
       <c r="C22" s="36"/>
       <c r="D22" s="107"/>
       <c r="E22" s="37"/>
-      <c r="F22" s="140"/>
+      <c r="F22" s="137"/>
       <c r="G22" s="36">
         <v>175</v>
       </c>
@@ -2866,13 +2864,13 @@
       <c r="A23" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B23" s="139">
+      <c r="B23" s="136">
         <v>43764</v>
       </c>
-      <c r="C23" s="135"/>
+      <c r="C23" s="134"/>
       <c r="D23" s="107"/>
       <c r="E23" s="37"/>
-      <c r="F23" s="140"/>
+      <c r="F23" s="137"/>
       <c r="G23" s="36">
         <v>175</v>
       </c>
@@ -2887,7 +2885,7 @@
       <c r="C24" s="36"/>
       <c r="D24" s="107"/>
       <c r="E24" s="37"/>
-      <c r="F24" s="140"/>
+      <c r="F24" s="137"/>
       <c r="G24" s="36">
         <v>175</v>
       </c>
@@ -2902,7 +2900,7 @@
       <c r="C25" s="36"/>
       <c r="D25" s="107"/>
       <c r="E25" s="37"/>
-      <c r="F25" s="140"/>
+      <c r="F25" s="137"/>
       <c r="G25" s="36">
         <v>175</v>
       </c>
@@ -2917,7 +2915,7 @@
       <c r="C26" s="44"/>
       <c r="D26" s="41"/>
       <c r="E26" s="40"/>
-      <c r="F26" s="140"/>
+      <c r="F26" s="137"/>
       <c r="G26" s="44">
         <v>175</v>
       </c>
@@ -2963,16 +2961,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15">
-      <c r="A1" s="141" t="s">
+      <c r="A1" s="138" t="s">
         <v>76</v>
       </c>
-      <c r="B1" s="141"/>
-      <c r="C1" s="141"/>
-      <c r="D1" s="141"/>
-      <c r="E1" s="141"/>
-      <c r="F1" s="141"/>
-      <c r="G1" s="141"/>
-      <c r="H1" s="141"/>
+      <c r="B1" s="138"/>
+      <c r="C1" s="138"/>
+      <c r="D1" s="138"/>
+      <c r="E1" s="138"/>
+      <c r="F1" s="138"/>
+      <c r="G1" s="138"/>
+      <c r="H1" s="138"/>
     </row>
     <row r="2" spans="1:9" ht="15">
       <c r="A2" s="3" t="s">
@@ -3014,7 +3012,7 @@
       </c>
       <c r="E3" s="10"/>
       <c r="F3" s="10"/>
-      <c r="G3" s="142" t="s">
+      <c r="G3" s="139" t="s">
         <v>11</v>
       </c>
       <c r="H3" s="11">
@@ -3034,7 +3032,7 @@
       <c r="D4" s="45"/>
       <c r="E4" s="16"/>
       <c r="F4" s="2"/>
-      <c r="G4" s="142"/>
+      <c r="G4" s="139"/>
       <c r="H4" s="17">
         <v>140</v>
       </c>
@@ -3052,7 +3050,7 @@
       <c r="D5" s="45"/>
       <c r="E5" s="16"/>
       <c r="F5" s="2"/>
-      <c r="G5" s="142"/>
+      <c r="G5" s="139"/>
       <c r="H5" s="17">
         <v>140</v>
       </c>
@@ -3070,7 +3068,7 @@
       <c r="D6" s="45"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
-      <c r="G6" s="142"/>
+      <c r="G6" s="139"/>
       <c r="H6" s="17">
         <v>140</v>
       </c>
@@ -3090,7 +3088,7 @@
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
-      <c r="G7" s="142"/>
+      <c r="G7" s="139"/>
       <c r="H7" s="17">
         <v>140</v>
       </c>
@@ -3110,7 +3108,7 @@
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
-      <c r="G8" s="142"/>
+      <c r="G8" s="139"/>
       <c r="H8" s="17">
         <v>140</v>
       </c>
@@ -3130,7 +3128,7 @@
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
-      <c r="G9" s="142"/>
+      <c r="G9" s="139"/>
       <c r="H9" s="17">
         <v>140</v>
       </c>
@@ -3150,7 +3148,7 @@
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
-      <c r="G10" s="142"/>
+      <c r="G10" s="139"/>
       <c r="H10" s="17">
         <v>140</v>
       </c>
@@ -3168,7 +3166,7 @@
       <c r="D11" s="17"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
-      <c r="G11" s="142"/>
+      <c r="G11" s="139"/>
       <c r="H11" s="17">
         <v>140</v>
       </c>
@@ -3189,7 +3187,7 @@
       </c>
       <c r="E12" s="20"/>
       <c r="F12" s="41"/>
-      <c r="G12" s="142"/>
+      <c r="G12" s="139"/>
       <c r="H12" s="17">
         <v>140</v>
       </c>
@@ -3212,7 +3210,7 @@
       </c>
       <c r="E13" s="10"/>
       <c r="F13" s="10"/>
-      <c r="G13" s="142" t="s">
+      <c r="G13" s="139" t="s">
         <v>31</v>
       </c>
       <c r="H13" s="17">
@@ -3235,7 +3233,7 @@
       </c>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
-      <c r="G14" s="142"/>
+      <c r="G14" s="139"/>
       <c r="H14" s="17">
         <v>140</v>
       </c>
@@ -3256,7 +3254,7 @@
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
-      <c r="G15" s="142"/>
+      <c r="G15" s="139"/>
       <c r="H15" s="17">
         <v>140</v>
       </c>
@@ -3277,7 +3275,7 @@
       </c>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
-      <c r="G16" s="142"/>
+      <c r="G16" s="139"/>
       <c r="H16" s="17">
         <v>140</v>
       </c>
@@ -3300,7 +3298,7 @@
         <v>33</v>
       </c>
       <c r="F17" s="2"/>
-      <c r="G17" s="142"/>
+      <c r="G17" s="139"/>
       <c r="H17" s="17">
         <v>140</v>
       </c>
@@ -3323,7 +3321,7 @@
         <v>35</v>
       </c>
       <c r="F18" s="2"/>
-      <c r="G18" s="142"/>
+      <c r="G18" s="139"/>
       <c r="H18" s="17">
         <v>140</v>
       </c>
@@ -3346,7 +3344,7 @@
         <v>37</v>
       </c>
       <c r="F19" s="42"/>
-      <c r="G19" s="142"/>
+      <c r="G19" s="139"/>
       <c r="H19" s="48">
         <v>140</v>
       </c>
@@ -3369,7 +3367,7 @@
         <v>37</v>
       </c>
       <c r="F20" s="2"/>
-      <c r="G20" s="142"/>
+      <c r="G20" s="139"/>
       <c r="H20" s="17">
         <v>140</v>
       </c>
@@ -3392,7 +3390,7 @@
         <v>38</v>
       </c>
       <c r="F21" s="2"/>
-      <c r="G21" s="142"/>
+      <c r="G21" s="139"/>
       <c r="H21" s="17">
         <v>140</v>
       </c>
@@ -3415,7 +3413,7 @@
         <v>81</v>
       </c>
       <c r="F22" s="107"/>
-      <c r="G22" s="143"/>
+      <c r="G22" s="140"/>
       <c r="H22" s="17">
         <v>140</v>
       </c>
@@ -3440,7 +3438,7 @@
         <v>55</v>
       </c>
       <c r="F23" s="121"/>
-      <c r="G23" s="143" t="s">
+      <c r="G23" s="140" t="s">
         <v>39</v>
       </c>
       <c r="H23" s="17">
@@ -3461,7 +3459,7 @@
       </c>
       <c r="E24" s="107"/>
       <c r="F24" s="107"/>
-      <c r="G24" s="144"/>
+      <c r="G24" s="141"/>
       <c r="H24" s="17">
         <v>140</v>
       </c>
@@ -3482,7 +3480,7 @@
         <v>60</v>
       </c>
       <c r="F25" s="107"/>
-      <c r="G25" s="144"/>
+      <c r="G25" s="141"/>
       <c r="H25" s="17">
         <v>140</v>
       </c>
@@ -3503,7 +3501,7 @@
         <v>63</v>
       </c>
       <c r="F26" s="107"/>
-      <c r="G26" s="144"/>
+      <c r="G26" s="141"/>
       <c r="H26" s="17">
         <v>140</v>
       </c>
@@ -3524,7 +3522,7 @@
         <v>66</v>
       </c>
       <c r="F27" s="107"/>
-      <c r="G27" s="144"/>
+      <c r="G27" s="141"/>
       <c r="H27" s="17">
         <v>140</v>
       </c>
@@ -3544,7 +3542,7 @@
         <v>69</v>
       </c>
       <c r="F28" s="107"/>
-      <c r="G28" s="144"/>
+      <c r="G28" s="141"/>
       <c r="H28" s="17">
         <v>140</v>
       </c>
@@ -3564,7 +3562,7 @@
         <v>72</v>
       </c>
       <c r="F29" s="107"/>
-      <c r="G29" s="144"/>
+      <c r="G29" s="141"/>
       <c r="H29" s="17">
         <v>140</v>
       </c>
@@ -3584,7 +3582,7 @@
         <v>72</v>
       </c>
       <c r="F30" s="107"/>
-      <c r="G30" s="144"/>
+      <c r="G30" s="141"/>
       <c r="H30" s="17">
         <v>140</v>
       </c>
@@ -3604,7 +3602,7 @@
         <v>91</v>
       </c>
       <c r="F31" s="107"/>
-      <c r="G31" s="144"/>
+      <c r="G31" s="141"/>
       <c r="H31" s="17">
         <v>140</v>
       </c>
@@ -3622,7 +3620,7 @@
         <v>93</v>
       </c>
       <c r="F32" s="41"/>
-      <c r="G32" s="145"/>
+      <c r="G32" s="142"/>
       <c r="H32" s="28">
         <v>140</v>
       </c>
@@ -3670,16 +3668,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12.6" customHeight="1">
-      <c r="A1" s="141" t="s">
+      <c r="A1" s="138" t="s">
         <v>94</v>
       </c>
-      <c r="B1" s="141"/>
-      <c r="C1" s="141"/>
-      <c r="D1" s="141"/>
-      <c r="E1" s="141"/>
-      <c r="F1" s="141"/>
-      <c r="G1" s="141"/>
-      <c r="H1" s="141"/>
+      <c r="B1" s="138"/>
+      <c r="C1" s="138"/>
+      <c r="D1" s="138"/>
+      <c r="E1" s="138"/>
+      <c r="F1" s="138"/>
+      <c r="G1" s="138"/>
+      <c r="H1" s="138"/>
     </row>
     <row r="2" spans="1:10" ht="15">
       <c r="A2" s="3" t="s">
@@ -3723,7 +3721,7 @@
       <c r="F3" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="G3" s="142" t="s">
+      <c r="G3" s="139" t="s">
         <v>11</v>
       </c>
       <c r="H3" s="11">
@@ -3746,7 +3744,7 @@
       <c r="F4" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="G4" s="142"/>
+      <c r="G4" s="139"/>
       <c r="H4" s="17">
         <v>140</v>
       </c>
@@ -3767,7 +3765,7 @@
       <c r="F5" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="G5" s="142"/>
+      <c r="G5" s="139"/>
       <c r="H5" s="17">
         <v>140</v>
       </c>
@@ -3789,7 +3787,7 @@
       <c r="F6" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="G6" s="142"/>
+      <c r="G6" s="139"/>
       <c r="H6" s="17">
         <v>140</v>
       </c>
@@ -3811,7 +3809,7 @@
       <c r="F7" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="G7" s="142"/>
+      <c r="G7" s="139"/>
       <c r="H7" s="17">
         <v>140</v>
       </c>
@@ -3833,7 +3831,7 @@
       <c r="F8" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="G8" s="142"/>
+      <c r="G8" s="139"/>
       <c r="H8" s="17">
         <v>140</v>
       </c>
@@ -3855,7 +3853,7 @@
       <c r="F9" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="G9" s="142"/>
+      <c r="G9" s="139"/>
       <c r="H9" s="17">
         <v>140</v>
       </c>
@@ -3876,7 +3874,7 @@
       <c r="F10" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="G10" s="142"/>
+      <c r="G10" s="139"/>
       <c r="H10" s="17">
         <v>140</v>
       </c>
@@ -3897,7 +3895,7 @@
       <c r="F11" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="G11" s="142"/>
+      <c r="G11" s="139"/>
       <c r="H11" s="17">
         <v>140</v>
       </c>
@@ -3918,7 +3916,7 @@
       <c r="F12" s="41" t="s">
         <v>107</v>
       </c>
-      <c r="G12" s="142"/>
+      <c r="G12" s="139"/>
       <c r="H12" s="17">
         <v>140</v>
       </c>
@@ -3940,7 +3938,7 @@
       <c r="F13" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="G13" s="142" t="s">
+      <c r="G13" s="139" t="s">
         <v>31</v>
       </c>
       <c r="H13" s="17">
@@ -3965,7 +3963,7 @@
       <c r="F14" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="G14" s="142"/>
+      <c r="G14" s="139"/>
       <c r="H14" s="17">
         <v>140</v>
       </c>
@@ -3988,7 +3986,7 @@
       <c r="F15" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="G15" s="142"/>
+      <c r="G15" s="139"/>
       <c r="H15" s="17">
         <v>140</v>
       </c>
@@ -4010,7 +4008,7 @@
       <c r="F16" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="G16" s="142"/>
+      <c r="G16" s="139"/>
       <c r="H16" s="17">
         <v>140</v>
       </c>
@@ -4035,7 +4033,7 @@
       <c r="F17" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="G17" s="142"/>
+      <c r="G17" s="139"/>
       <c r="H17" s="17">
         <v>140</v>
       </c>
@@ -4060,7 +4058,7 @@
       <c r="F18" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="G18" s="142"/>
+      <c r="G18" s="139"/>
       <c r="H18" s="17">
         <v>140</v>
       </c>
@@ -4085,7 +4083,7 @@
       <c r="F19" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="G19" s="142"/>
+      <c r="G19" s="139"/>
       <c r="H19" s="17">
         <v>140</v>
       </c>
@@ -4110,7 +4108,7 @@
       <c r="F20" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="G20" s="142"/>
+      <c r="G20" s="139"/>
       <c r="H20" s="17">
         <v>140</v>
       </c>
@@ -4135,7 +4133,7 @@
       <c r="F21" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="G21" s="142"/>
+      <c r="G21" s="139"/>
       <c r="H21" s="17">
         <v>140</v>
       </c>
@@ -4160,7 +4158,7 @@
       <c r="F22" s="41" t="s">
         <v>107</v>
       </c>
-      <c r="G22" s="142"/>
+      <c r="G22" s="139"/>
       <c r="H22" s="17">
         <v>140</v>
       </c>
@@ -4188,7 +4186,7 @@
       <c r="F23" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="G23" s="142" t="s">
+      <c r="G23" s="139" t="s">
         <v>39</v>
       </c>
       <c r="H23" s="17">
@@ -4215,7 +4213,7 @@
       <c r="F24" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="G24" s="142"/>
+      <c r="G24" s="139"/>
       <c r="H24" s="17">
         <v>140</v>
       </c>
@@ -4240,7 +4238,7 @@
       <c r="F25" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="G25" s="142"/>
+      <c r="G25" s="139"/>
       <c r="H25" s="17">
         <v>140</v>
       </c>
@@ -4265,7 +4263,7 @@
       <c r="F26" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="G26" s="142"/>
+      <c r="G26" s="139"/>
       <c r="H26" s="17">
         <v>140</v>
       </c>
@@ -4290,7 +4288,7 @@
       <c r="F27" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="G27" s="142"/>
+      <c r="G27" s="139"/>
       <c r="H27" s="17">
         <v>140</v>
       </c>
@@ -4314,7 +4312,7 @@
       <c r="F28" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="G28" s="142"/>
+      <c r="G28" s="139"/>
       <c r="H28" s="17">
         <v>140</v>
       </c>
@@ -4338,7 +4336,7 @@
       <c r="F29" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="G29" s="142"/>
+      <c r="G29" s="139"/>
       <c r="H29" s="17">
         <v>140</v>
       </c>
@@ -4362,7 +4360,7 @@
       <c r="F30" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="G30" s="142"/>
+      <c r="G30" s="139"/>
       <c r="H30" s="17">
         <v>140</v>
       </c>
@@ -4386,7 +4384,7 @@
       <c r="F31" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="G31" s="142"/>
+      <c r="G31" s="139"/>
       <c r="H31" s="17">
         <v>140</v>
       </c>
@@ -4406,7 +4404,7 @@
       <c r="F32" s="41" t="s">
         <v>107</v>
       </c>
-      <c r="G32" s="142"/>
+      <c r="G32" s="139"/>
       <c r="H32" s="28">
         <v>140</v>
       </c>
@@ -4461,16 +4459,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="146" t="s">
+      <c r="A1" s="143" t="s">
         <v>113</v>
       </c>
-      <c r="B1" s="146"/>
-      <c r="C1" s="146"/>
-      <c r="D1" s="146"/>
-      <c r="E1" s="146"/>
-      <c r="F1" s="146"/>
-      <c r="G1" s="146"/>
-      <c r="H1" s="146"/>
+      <c r="B1" s="143"/>
+      <c r="C1" s="143"/>
+      <c r="D1" s="143"/>
+      <c r="E1" s="143"/>
+      <c r="F1" s="143"/>
+      <c r="G1" s="143"/>
+      <c r="H1" s="143"/>
     </row>
     <row r="2" spans="1:10" ht="15">
       <c r="A2" s="68" t="s">
@@ -4509,7 +4507,7 @@
       <c r="F3" s="33" t="s">
         <v>97</v>
       </c>
-      <c r="G3" s="140" t="s">
+      <c r="G3" s="137" t="s">
         <v>11</v>
       </c>
       <c r="H3" s="33">
@@ -4532,7 +4530,7 @@
       <c r="F4" s="36" t="s">
         <v>98</v>
       </c>
-      <c r="G4" s="140"/>
+      <c r="G4" s="137"/>
       <c r="H4" s="36">
         <v>120</v>
       </c>
@@ -4553,7 +4551,7 @@
       <c r="F5" s="36" t="s">
         <v>99</v>
       </c>
-      <c r="G5" s="140"/>
+      <c r="G5" s="137"/>
       <c r="H5" s="36">
         <v>120</v>
       </c>
@@ -4574,7 +4572,7 @@
       <c r="F6" s="36" t="s">
         <v>100</v>
       </c>
-      <c r="G6" s="140"/>
+      <c r="G6" s="137"/>
       <c r="H6" s="36">
         <v>120</v>
       </c>
@@ -4595,7 +4593,7 @@
       <c r="F7" s="36" t="s">
         <v>101</v>
       </c>
-      <c r="G7" s="140"/>
+      <c r="G7" s="137"/>
       <c r="H7" s="36">
         <v>120</v>
       </c>
@@ -4616,7 +4614,7 @@
       <c r="F8" s="36" t="s">
         <v>102</v>
       </c>
-      <c r="G8" s="140"/>
+      <c r="G8" s="137"/>
       <c r="H8" s="36">
         <v>120</v>
       </c>
@@ -4637,7 +4635,7 @@
       <c r="F9" s="36" t="s">
         <v>103</v>
       </c>
-      <c r="G9" s="140"/>
+      <c r="G9" s="137"/>
       <c r="H9" s="36">
         <v>120</v>
       </c>
@@ -4657,7 +4655,7 @@
       <c r="F10" s="36" t="s">
         <v>105</v>
       </c>
-      <c r="G10" s="140"/>
+      <c r="G10" s="137"/>
       <c r="H10" s="36">
         <v>120</v>
       </c>
@@ -4677,7 +4675,7 @@
       <c r="F11" s="36" t="s">
         <v>106</v>
       </c>
-      <c r="G11" s="140"/>
+      <c r="G11" s="137"/>
       <c r="H11" s="36">
         <v>120</v>
       </c>
@@ -4698,7 +4696,7 @@
       <c r="F12" s="44" t="s">
         <v>107</v>
       </c>
-      <c r="G12" s="140"/>
+      <c r="G12" s="137"/>
       <c r="H12" s="36">
         <v>120</v>
       </c>
@@ -4726,7 +4724,7 @@
       <c r="F13" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="G13" s="140" t="s">
+      <c r="G13" s="137" t="s">
         <v>31</v>
       </c>
       <c r="H13" s="36">
@@ -4750,7 +4748,7 @@
       <c r="F14" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="G14" s="140"/>
+      <c r="G14" s="137"/>
       <c r="H14" s="36">
         <v>120</v>
       </c>
@@ -4772,7 +4770,7 @@
       <c r="F15" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="G15" s="140"/>
+      <c r="G15" s="137"/>
       <c r="H15" s="36">
         <v>120</v>
       </c>
@@ -4794,7 +4792,7 @@
       <c r="F16" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="G16" s="140"/>
+      <c r="G16" s="137"/>
       <c r="H16" s="36">
         <v>120</v>
       </c>
@@ -4819,7 +4817,7 @@
       <c r="F17" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="G17" s="140"/>
+      <c r="G17" s="137"/>
       <c r="H17" s="36">
         <v>120</v>
       </c>
@@ -4844,7 +4842,7 @@
       <c r="F18" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="G18" s="140"/>
+      <c r="G18" s="137"/>
       <c r="H18" s="36">
         <v>120</v>
       </c>
@@ -4869,7 +4867,7 @@
       <c r="F19" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="G19" s="140"/>
+      <c r="G19" s="137"/>
       <c r="H19" s="36">
         <v>120</v>
       </c>
@@ -4894,7 +4892,7 @@
       <c r="F20" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="G20" s="140"/>
+      <c r="G20" s="137"/>
       <c r="H20" s="36">
         <v>120</v>
       </c>
@@ -4919,7 +4917,7 @@
       <c r="F21" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="G21" s="140"/>
+      <c r="G21" s="137"/>
       <c r="H21" s="36">
         <v>120</v>
       </c>
@@ -4944,7 +4942,7 @@
       <c r="F22" s="41" t="s">
         <v>107</v>
       </c>
-      <c r="G22" s="140"/>
+      <c r="G22" s="137"/>
       <c r="H22" s="36">
         <v>120</v>
       </c>
@@ -4975,7 +4973,7 @@
       <c r="F23" s="33" t="s">
         <v>97</v>
       </c>
-      <c r="G23" s="140" t="s">
+      <c r="G23" s="137" t="s">
         <v>39</v>
       </c>
       <c r="H23" s="36">
@@ -5002,7 +5000,7 @@
       <c r="F24" s="36" t="s">
         <v>98</v>
       </c>
-      <c r="G24" s="140"/>
+      <c r="G24" s="137"/>
       <c r="H24" s="36">
         <v>120</v>
       </c>
@@ -5027,7 +5025,7 @@
       <c r="F25" s="36" t="s">
         <v>99</v>
       </c>
-      <c r="G25" s="140"/>
+      <c r="G25" s="137"/>
       <c r="H25" s="36">
         <v>120</v>
       </c>
@@ -5052,7 +5050,7 @@
       <c r="F26" s="36" t="s">
         <v>100</v>
       </c>
-      <c r="G26" s="140"/>
+      <c r="G26" s="137"/>
       <c r="H26" s="36">
         <v>120</v>
       </c>
@@ -5077,7 +5075,7 @@
       <c r="F27" s="36" t="s">
         <v>101</v>
       </c>
-      <c r="G27" s="140"/>
+      <c r="G27" s="137"/>
       <c r="H27" s="36">
         <v>120</v>
       </c>
@@ -5101,7 +5099,7 @@
       <c r="F28" s="36" t="s">
         <v>102</v>
       </c>
-      <c r="G28" s="140"/>
+      <c r="G28" s="137"/>
       <c r="H28" s="36">
         <v>120</v>
       </c>
@@ -5125,7 +5123,7 @@
       <c r="F29" s="36" t="s">
         <v>103</v>
       </c>
-      <c r="G29" s="140"/>
+      <c r="G29" s="137"/>
       <c r="H29" s="36">
         <v>120</v>
       </c>
@@ -5149,7 +5147,7 @@
       <c r="F30" s="36" t="s">
         <v>105</v>
       </c>
-      <c r="G30" s="140"/>
+      <c r="G30" s="137"/>
       <c r="H30" s="36">
         <v>120</v>
       </c>
@@ -5173,7 +5171,7 @@
       <c r="F31" s="36" t="s">
         <v>106</v>
       </c>
-      <c r="G31" s="140"/>
+      <c r="G31" s="137"/>
       <c r="H31" s="36">
         <v>120</v>
       </c>
@@ -5195,7 +5193,7 @@
       <c r="F32" s="77" t="s">
         <v>107</v>
       </c>
-      <c r="G32" s="140"/>
+      <c r="G32" s="137"/>
       <c r="H32" s="77">
         <v>120</v>
       </c>
@@ -5266,15 +5264,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="146" t="s">
+      <c r="A1" s="143" t="s">
         <v>125</v>
       </c>
-      <c r="B1" s="146"/>
-      <c r="C1" s="146"/>
-      <c r="D1" s="146"/>
-      <c r="E1" s="146"/>
-      <c r="F1" s="146"/>
-      <c r="G1" s="146"/>
+      <c r="B1" s="143"/>
+      <c r="C1" s="143"/>
+      <c r="D1" s="143"/>
+      <c r="E1" s="143"/>
+      <c r="F1" s="143"/>
+      <c r="G1" s="143"/>
     </row>
     <row r="2" spans="1:9" ht="15">
       <c r="A2" s="68" t="s">
@@ -5315,7 +5313,7 @@
       <c r="F3" s="10">
         <v>5</v>
       </c>
-      <c r="G3" s="140" t="s">
+      <c r="G3" s="137" t="s">
         <v>11</v>
       </c>
     </row>
@@ -5334,7 +5332,7 @@
       <c r="F4" s="2">
         <v>5</v>
       </c>
-      <c r="G4" s="140"/>
+      <c r="G4" s="137"/>
     </row>
     <row r="5" spans="1:9" ht="15">
       <c r="A5" s="62" t="s">
@@ -5351,7 +5349,7 @@
       <c r="F5" s="2">
         <v>5</v>
       </c>
-      <c r="G5" s="140"/>
+      <c r="G5" s="137"/>
     </row>
     <row r="6" spans="1:9" ht="15">
       <c r="A6" s="62" t="s">
@@ -5368,7 +5366,7 @@
       <c r="F6" s="2">
         <v>5</v>
       </c>
-      <c r="G6" s="140"/>
+      <c r="G6" s="137"/>
     </row>
     <row r="7" spans="1:9" ht="15">
       <c r="A7" s="62" t="s">
@@ -5385,7 +5383,7 @@
       <c r="F7" s="2">
         <v>5</v>
       </c>
-      <c r="G7" s="140"/>
+      <c r="G7" s="137"/>
     </row>
     <row r="8" spans="1:9" ht="15">
       <c r="A8" s="62" t="s">
@@ -5402,7 +5400,7 @@
       <c r="F8" s="2">
         <v>5</v>
       </c>
-      <c r="G8" s="140"/>
+      <c r="G8" s="137"/>
     </row>
     <row r="9" spans="1:9" ht="15">
       <c r="A9" s="62" t="s">
@@ -5419,7 +5417,7 @@
       <c r="F9" s="2">
         <v>5</v>
       </c>
-      <c r="G9" s="140"/>
+      <c r="G9" s="137"/>
       <c r="H9" s="2"/>
     </row>
     <row r="10" spans="1:9" ht="15">
@@ -5437,7 +5435,7 @@
       <c r="F10" s="2">
         <v>5</v>
       </c>
-      <c r="G10" s="140"/>
+      <c r="G10" s="137"/>
       <c r="H10" s="2"/>
     </row>
     <row r="11" spans="1:9" ht="15">
@@ -5457,7 +5455,7 @@
       <c r="F11" s="89" t="s">
         <v>97</v>
       </c>
-      <c r="G11" s="147" t="s">
+      <c r="G11" s="144" t="s">
         <v>31</v>
       </c>
       <c r="H11" s="2"/>
@@ -5479,7 +5477,7 @@
       <c r="F12" s="94" t="s">
         <v>98</v>
       </c>
-      <c r="G12" s="147"/>
+      <c r="G12" s="144"/>
       <c r="H12" s="2"/>
     </row>
     <row r="13" spans="1:9" ht="15">
@@ -5499,7 +5497,7 @@
       <c r="F13" s="94" t="s">
         <v>99</v>
       </c>
-      <c r="G13" s="147"/>
+      <c r="G13" s="144"/>
       <c r="H13" s="2"/>
     </row>
     <row r="14" spans="1:9" ht="15">
@@ -5521,7 +5519,7 @@
       <c r="F14" s="94" t="s">
         <v>100</v>
       </c>
-      <c r="G14" s="147"/>
+      <c r="G14" s="144"/>
       <c r="H14" s="71">
         <v>43371</v>
       </c>
@@ -5548,7 +5546,7 @@
       <c r="F15" s="94" t="s">
         <v>101</v>
       </c>
-      <c r="G15" s="147"/>
+      <c r="G15" s="144"/>
       <c r="H15" s="2"/>
     </row>
     <row r="16" spans="1:9" ht="15">
@@ -5570,7 +5568,7 @@
       <c r="F16" s="94" t="s">
         <v>102</v>
       </c>
-      <c r="G16" s="147"/>
+      <c r="G16" s="144"/>
       <c r="H16" s="2"/>
     </row>
     <row r="17" spans="1:9" ht="15">
@@ -5592,7 +5590,7 @@
       <c r="F17" s="94" t="s">
         <v>103</v>
       </c>
-      <c r="G17" s="147"/>
+      <c r="G17" s="144"/>
       <c r="H17" s="2"/>
     </row>
     <row r="18" spans="1:9" ht="15">
@@ -5614,7 +5612,7 @@
       <c r="F18" s="50" t="s">
         <v>105</v>
       </c>
-      <c r="G18" s="147"/>
+      <c r="G18" s="144"/>
       <c r="H18" s="71">
         <v>43409</v>
       </c>
@@ -5639,7 +5637,7 @@
       <c r="F19" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="G19" s="140" t="s">
+      <c r="G19" s="137" t="s">
         <v>39</v>
       </c>
       <c r="H19" s="2"/>
@@ -5663,7 +5661,7 @@
       <c r="F20" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="G20" s="140"/>
+      <c r="G20" s="137"/>
       <c r="H20" s="2"/>
     </row>
     <row r="21" spans="1:9" ht="15">
@@ -5685,7 +5683,7 @@
       <c r="F21" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="G21" s="140"/>
+      <c r="G21" s="137"/>
       <c r="H21" s="2"/>
     </row>
     <row r="22" spans="1:9" ht="15">
@@ -5707,7 +5705,7 @@
       <c r="F22" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="G22" s="140"/>
+      <c r="G22" s="137"/>
       <c r="H22" s="65">
         <v>43448</v>
       </c>
@@ -5734,7 +5732,7 @@
       <c r="F23" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="G23" s="140"/>
+      <c r="G23" s="137"/>
       <c r="H23" s="2"/>
     </row>
     <row r="24" spans="1:9" ht="15">
@@ -5756,7 +5754,7 @@
       <c r="F24" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="G24" s="140"/>
+      <c r="G24" s="137"/>
       <c r="H24" s="2"/>
     </row>
     <row r="25" spans="1:9" ht="15">
@@ -5776,7 +5774,7 @@
       <c r="F25" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="G25" s="140"/>
+      <c r="G25" s="137"/>
     </row>
     <row r="26" spans="1:9" ht="15">
       <c r="A26" s="64" t="s">
@@ -5795,7 +5793,7 @@
       <c r="F26" s="41" t="s">
         <v>105</v>
       </c>
-      <c r="G26" s="140"/>
+      <c r="G26" s="137"/>
       <c r="I26" s="2">
         <v>600</v>
       </c>
@@ -5846,16 +5844,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="148" t="s">
+      <c r="A1" s="145" t="s">
         <v>142</v>
       </c>
-      <c r="B1" s="148"/>
-      <c r="C1" s="148"/>
-      <c r="D1" s="148"/>
-      <c r="E1" s="148"/>
-      <c r="F1" s="148"/>
-      <c r="G1" s="148"/>
-      <c r="H1" s="148"/>
+      <c r="B1" s="145"/>
+      <c r="C1" s="145"/>
+      <c r="D1" s="145"/>
+      <c r="E1" s="145"/>
+      <c r="F1" s="145"/>
+      <c r="G1" s="145"/>
+      <c r="H1" s="145"/>
     </row>
     <row r="2" spans="1:11" ht="15">
       <c r="A2" s="30" t="s">
@@ -5895,13 +5893,13 @@
       <c r="F3" s="2">
         <v>5</v>
       </c>
-      <c r="G3" s="148" t="s">
+      <c r="G3" s="145" t="s">
         <v>144</v>
       </c>
-      <c r="J3" s="149" t="s">
+      <c r="J3" s="146" t="s">
         <v>145</v>
       </c>
-      <c r="K3" s="149"/>
+      <c r="K3" s="146"/>
     </row>
     <row r="4" spans="1:11" ht="15">
       <c r="A4" s="80" t="s">
@@ -5916,7 +5914,7 @@
       <c r="F4" s="2">
         <v>5</v>
       </c>
-      <c r="G4" s="148"/>
+      <c r="G4" s="145"/>
       <c r="J4" t="s">
         <v>146</v>
       </c>
@@ -5938,7 +5936,7 @@
       <c r="F5" s="2">
         <v>5</v>
       </c>
-      <c r="G5" s="148"/>
+      <c r="G5" s="145"/>
       <c r="J5" t="s">
         <v>147</v>
       </c>
@@ -5960,7 +5958,7 @@
       <c r="F6" s="2">
         <v>5</v>
       </c>
-      <c r="G6" s="148"/>
+      <c r="G6" s="145"/>
       <c r="J6" t="s">
         <v>148</v>
       </c>
@@ -5982,7 +5980,7 @@
       <c r="F7" s="10">
         <v>5</v>
       </c>
-      <c r="G7" s="142" t="s">
+      <c r="G7" s="139" t="s">
         <v>11</v>
       </c>
       <c r="J7" t="s">
@@ -6006,7 +6004,7 @@
       <c r="F8" s="2">
         <v>5</v>
       </c>
-      <c r="G8" s="142"/>
+      <c r="G8" s="139"/>
       <c r="J8" t="s">
         <v>150</v>
       </c>
@@ -6028,7 +6026,7 @@
       <c r="F9" s="2">
         <v>5</v>
       </c>
-      <c r="G9" s="142"/>
+      <c r="G9" s="139"/>
       <c r="J9" t="s">
         <v>151</v>
       </c>
@@ -6050,7 +6048,7 @@
       <c r="F10" s="2">
         <v>5</v>
       </c>
-      <c r="G10" s="142"/>
+      <c r="G10" s="139"/>
       <c r="J10" t="s">
         <v>152</v>
       </c>
@@ -6072,7 +6070,7 @@
       <c r="F11" s="2">
         <v>5</v>
       </c>
-      <c r="G11" s="142"/>
+      <c r="G11" s="139"/>
       <c r="J11" t="s">
         <v>153</v>
       </c>
@@ -6094,7 +6092,7 @@
       <c r="F12" s="2">
         <v>5</v>
       </c>
-      <c r="G12" s="142"/>
+      <c r="G12" s="139"/>
       <c r="J12" t="s">
         <v>154</v>
       </c>
@@ -6116,7 +6114,7 @@
       <c r="F13" s="2">
         <v>5</v>
       </c>
-      <c r="G13" s="142"/>
+      <c r="G13" s="139"/>
     </row>
     <row r="14" spans="1:11" ht="15">
       <c r="A14" s="58" t="s">
@@ -6131,7 +6129,7 @@
       <c r="F14" s="41">
         <v>5</v>
       </c>
-      <c r="G14" s="142"/>
+      <c r="G14" s="139"/>
     </row>
     <row r="15" spans="1:11" ht="15">
       <c r="A15" s="52" t="s">
@@ -6146,7 +6144,7 @@
       <c r="F15" s="10">
         <v>1</v>
       </c>
-      <c r="G15" s="142" t="s">
+      <c r="G15" s="139" t="s">
         <v>31</v>
       </c>
     </row>
@@ -6165,7 +6163,7 @@
       <c r="F16" s="2">
         <v>2</v>
       </c>
-      <c r="G16" s="142"/>
+      <c r="G16" s="139"/>
     </row>
     <row r="17" spans="1:10" ht="15">
       <c r="A17" s="56" t="s">
@@ -6182,7 +6180,7 @@
       <c r="F17" s="2">
         <v>3</v>
       </c>
-      <c r="G17" s="142"/>
+      <c r="G17" s="139"/>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
     </row>
@@ -6201,7 +6199,7 @@
       <c r="F18" s="2">
         <v>4</v>
       </c>
-      <c r="G18" s="142"/>
+      <c r="G18" s="139"/>
     </row>
     <row r="19" spans="1:10" ht="15">
       <c r="A19" s="62" t="s">
@@ -6219,7 +6217,7 @@
       <c r="F19" s="2">
         <v>5</v>
       </c>
-      <c r="G19" s="142"/>
+      <c r="G19" s="139"/>
     </row>
     <row r="20" spans="1:10" ht="15">
       <c r="A20" s="62" t="s">
@@ -6237,7 +6235,7 @@
       <c r="F20" s="2">
         <v>6</v>
       </c>
-      <c r="G20" s="142"/>
+      <c r="G20" s="139"/>
     </row>
     <row r="21" spans="1:10" ht="15">
       <c r="A21" s="62" t="s">
@@ -6255,7 +6253,7 @@
       <c r="F21" s="2">
         <v>7</v>
       </c>
-      <c r="G21" s="142"/>
+      <c r="G21" s="139"/>
     </row>
     <row r="22" spans="1:10" ht="15">
       <c r="A22" s="64" t="s">
@@ -6274,7 +6272,7 @@
       <c r="F22" s="41">
         <v>8</v>
       </c>
-      <c r="G22" s="142"/>
+      <c r="G22" s="139"/>
     </row>
     <row r="23" spans="1:10" ht="15">
       <c r="A23" s="60" t="s">
@@ -6293,7 +6291,7 @@
       <c r="F23" s="10">
         <v>1</v>
       </c>
-      <c r="G23" s="142" t="s">
+      <c r="G23" s="139" t="s">
         <v>39</v>
       </c>
     </row>
@@ -6316,7 +6314,7 @@
       <c r="F24" s="2">
         <v>2</v>
       </c>
-      <c r="G24" s="142"/>
+      <c r="G24" s="139"/>
     </row>
     <row r="25" spans="1:10" ht="15">
       <c r="A25" s="62" t="s">
@@ -6337,7 +6335,7 @@
       <c r="F25" s="2">
         <v>3</v>
       </c>
-      <c r="G25" s="142"/>
+      <c r="G25" s="139"/>
     </row>
     <row r="26" spans="1:10" ht="15">
       <c r="A26" s="62" t="s">
@@ -6358,7 +6356,7 @@
       <c r="F26" s="2">
         <v>4</v>
       </c>
-      <c r="G26" s="142"/>
+      <c r="G26" s="139"/>
       <c r="H26" s="2" t="s">
         <v>159</v>
       </c>
@@ -6382,7 +6380,7 @@
       <c r="F27" s="2">
         <v>5</v>
       </c>
-      <c r="G27" s="142"/>
+      <c r="G27" s="139"/>
     </row>
     <row r="28" spans="1:10" ht="15">
       <c r="A28" s="62" t="s">
@@ -6403,7 +6401,7 @@
       <c r="F28" s="2">
         <v>6</v>
       </c>
-      <c r="G28" s="142"/>
+      <c r="G28" s="139"/>
     </row>
     <row r="29" spans="1:10" ht="15">
       <c r="A29" s="62" t="s">
@@ -6424,7 +6422,7 @@
       <c r="F29" s="2">
         <v>7</v>
       </c>
-      <c r="G29" s="142"/>
+      <c r="G29" s="139"/>
     </row>
     <row r="30" spans="1:10" ht="15">
       <c r="A30" s="64" t="s">
@@ -6445,7 +6443,7 @@
       <c r="F30" s="41">
         <v>8</v>
       </c>
-      <c r="G30" s="142"/>
+      <c r="G30" s="139"/>
       <c r="H30" s="71">
         <v>43396</v>
       </c>

--- a/Cronograma aulas/Aulas v2.xlsx
+++ b/Cronograma aulas/Aulas v2.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JAVA SEG QUA\Documents\github\aulas-3way\Cronograma aulas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Development\github\aulas-3way\Cronograma aulas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95284B3A-DE4C-47B2-A349-730F2B0ED043}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15" yWindow="15" windowWidth="21570" windowHeight="12870" tabRatio="489" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15" yWindow="15" windowWidth="21570" windowHeight="12870" tabRatio="489" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="t7_seg_e_qua" sheetId="1" r:id="rId1"/>
@@ -21,7 +20,7 @@
     <sheet name="t2_Sábado" sheetId="6" r:id="rId6"/>
     <sheet name="t1_Domingo_(finalizada)" sheetId="7" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -33,12 +32,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="D15" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000001000000}">
+    <comment ref="D15" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -56,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="723" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="725" uniqueCount="172">
   <si>
     <t>Segunda e Quarta – sala 04 (senha javaweb)</t>
   </si>
@@ -581,16 +580,19 @@
     <t>Servlet JSP</t>
   </si>
   <si>
-    <t>Criar DAO JPA - implementar DAO em cima do exercicio Cliente</t>
-  </si>
-  <si>
     <t>Baixar STS - Github - Spring</t>
+  </si>
+  <si>
+    <t>Criar DAO JPA -</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> implementar DAO em cima do exercicio Cliente</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="[$R$-416]\ #,##0.00;[Red]\-[$R$-416]\ #,##0.00"/>
     <numFmt numFmtId="165" formatCode="m/d/yy"/>
@@ -1485,7 +1487,7 @@
         <xdr:cNvPr id="1026" name="shapetype_202" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002040000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1522,7 +1524,7 @@
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Escritório">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1560,7 +1562,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Escritório">
       <a:majorFont>
         <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1595,23 +1597,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1647,26 +1632,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Escritório">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1839,11 +1807,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView showGridLines="0" topLeftCell="A12" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="14.25"/>
@@ -2285,7 +2253,7 @@
       </c>
       <c r="C22" s="23"/>
       <c r="D22" s="12" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E22" s="37"/>
       <c r="F22" s="137"/>
@@ -2433,11 +2401,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="14.25"/>
@@ -2765,7 +2733,7 @@
         <v>29</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>36</v>
@@ -2783,8 +2751,12 @@
       <c r="B18" s="131">
         <v>43729</v>
       </c>
-      <c r="C18" s="23"/>
-      <c r="D18" s="15"/>
+      <c r="C18" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="D18" s="15" t="s">
+        <v>171</v>
+      </c>
       <c r="E18" s="2" t="s">
         <v>36</v>
       </c>
@@ -2938,7 +2910,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor indexed="47"/>
   </sheetPr>
@@ -3644,7 +3616,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor indexed="47"/>
   </sheetPr>
@@ -4433,7 +4405,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor indexed="47"/>
   </sheetPr>
@@ -5240,7 +5212,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor indexed="47"/>
   </sheetPr>
@@ -5818,7 +5790,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor indexed="47"/>
   </sheetPr>

--- a/Cronograma aulas/Aulas v2.xlsx
+++ b/Cronograma aulas/Aulas v2.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JAVA SEG QUA\Documents\github\aulas-3way\Cronograma aulas\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95284B3A-DE4C-47B2-A349-730F2B0ED043}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15" yWindow="15" windowWidth="21570" windowHeight="12870" tabRatio="489" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15" yWindow="15" windowWidth="21570" windowHeight="12870" tabRatio="489"/>
   </bookViews>
   <sheets>
     <sheet name="t7_seg_e_qua" sheetId="1" r:id="rId1"/>
@@ -21,24 +15,17 @@
     <sheet name="t2_Sábado" sheetId="6" r:id="rId6"/>
     <sheet name="t1_Domingo_(finalizada)" sheetId="7" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="114210"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="D15" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000001000000}">
+    <comment ref="D15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -590,7 +577,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="[$R$-416]\ #,##0.00;[Red]\-[$R$-416]\ #,##0.00"/>
     <numFmt numFmtId="165" formatCode="m/d/yy"/>
@@ -965,7 +952,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="18" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="147">
+  <cellXfs count="150">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1347,6 +1334,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1454,14 +1450,6 @@
       <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -1482,13 +1470,7 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1026" name="shapetype_202" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002040000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="1026" name="shapetype_202" hidden="1"/>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noSelect="1" noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -1520,7 +1502,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1562,7 +1544,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1594,27 +1576,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1646,24 +1610,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1839,11 +1785,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="14.25"/>
@@ -1858,15 +1804,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="137" t="s">
+      <c r="A1" s="140" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="137"/>
-      <c r="C1" s="137"/>
-      <c r="D1" s="137"/>
-      <c r="E1" s="137"/>
-      <c r="F1" s="137"/>
-      <c r="G1" s="137"/>
+      <c r="B1" s="140"/>
+      <c r="C1" s="140"/>
+      <c r="D1" s="140"/>
+      <c r="E1" s="140"/>
+      <c r="F1" s="140"/>
+      <c r="G1" s="140"/>
     </row>
     <row r="2" spans="1:8" ht="15">
       <c r="A2" s="68" t="s">
@@ -1906,7 +1852,7 @@
         <v>10</v>
       </c>
       <c r="E3" s="132"/>
-      <c r="F3" s="137" t="s">
+      <c r="F3" s="140" t="s">
         <v>11</v>
       </c>
       <c r="G3" s="11">
@@ -1927,7 +1873,7 @@
         <v>13</v>
       </c>
       <c r="E4" s="106"/>
-      <c r="F4" s="137"/>
+      <c r="F4" s="140"/>
       <c r="G4" s="17">
         <v>140</v>
       </c>
@@ -1946,7 +1892,7 @@
         <v>15</v>
       </c>
       <c r="E5" s="106"/>
-      <c r="F5" s="137"/>
+      <c r="F5" s="140"/>
       <c r="G5" s="17">
         <v>140</v>
       </c>
@@ -1965,7 +1911,7 @@
         <v>17</v>
       </c>
       <c r="E6" s="107"/>
-      <c r="F6" s="137"/>
+      <c r="F6" s="140"/>
       <c r="G6" s="17">
         <v>140</v>
       </c>
@@ -1984,7 +1930,7 @@
         <v>19</v>
       </c>
       <c r="E7" s="107"/>
-      <c r="F7" s="137"/>
+      <c r="F7" s="140"/>
       <c r="G7" s="17">
         <v>140</v>
       </c>
@@ -2003,7 +1949,7 @@
         <v>21</v>
       </c>
       <c r="E8" s="107"/>
-      <c r="F8" s="137"/>
+      <c r="F8" s="140"/>
       <c r="G8" s="17">
         <v>140</v>
       </c>
@@ -2022,7 +1968,7 @@
         <v>23</v>
       </c>
       <c r="E9" s="107"/>
-      <c r="F9" s="137"/>
+      <c r="F9" s="140"/>
       <c r="G9" s="17">
         <v>140</v>
       </c>
@@ -2041,7 +1987,7 @@
         <v>25</v>
       </c>
       <c r="E10" s="107"/>
-      <c r="F10" s="137"/>
+      <c r="F10" s="140"/>
       <c r="G10" s="17">
         <v>140</v>
       </c>
@@ -2058,7 +2004,7 @@
       </c>
       <c r="D11" s="17"/>
       <c r="E11" s="107"/>
-      <c r="F11" s="137"/>
+      <c r="F11" s="140"/>
       <c r="G11" s="17">
         <v>140</v>
       </c>
@@ -2078,7 +2024,7 @@
         <v>28</v>
       </c>
       <c r="E12" s="20"/>
-      <c r="F12" s="137"/>
+      <c r="F12" s="140"/>
       <c r="G12" s="17">
         <v>140</v>
       </c>
@@ -2098,7 +2044,7 @@
         <v>30</v>
       </c>
       <c r="E13" s="11"/>
-      <c r="F13" s="137" t="s">
+      <c r="F13" s="140" t="s">
         <v>31</v>
       </c>
       <c r="G13" s="17">
@@ -2120,7 +2066,7 @@
         <v>32</v>
       </c>
       <c r="E14" s="17"/>
-      <c r="F14" s="137"/>
+      <c r="F14" s="140"/>
       <c r="G14" s="17">
         <v>140</v>
       </c>
@@ -2140,7 +2086,7 @@
         <v>32</v>
       </c>
       <c r="E15" s="17"/>
-      <c r="F15" s="137"/>
+      <c r="F15" s="140"/>
       <c r="G15" s="17">
         <v>140</v>
       </c>
@@ -2160,7 +2106,7 @@
         <v>164</v>
       </c>
       <c r="E16" s="17"/>
-      <c r="F16" s="137"/>
+      <c r="F16" s="140"/>
       <c r="G16" s="17">
         <v>140</v>
       </c>
@@ -2182,7 +2128,7 @@
       <c r="E17" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="F17" s="137"/>
+      <c r="F17" s="140"/>
       <c r="G17" s="17">
         <v>140</v>
       </c>
@@ -2204,7 +2150,7 @@
       <c r="E18" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="F18" s="137"/>
+      <c r="F18" s="140"/>
       <c r="G18" s="17">
         <v>140</v>
       </c>
@@ -2226,7 +2172,7 @@
       <c r="E19" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="F19" s="137"/>
+      <c r="F19" s="140"/>
       <c r="G19" s="15">
         <v>140</v>
       </c>
@@ -2248,7 +2194,7 @@
       <c r="E20" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="F20" s="137"/>
+      <c r="F20" s="140"/>
       <c r="G20" s="130">
         <v>140</v>
       </c>
@@ -2268,7 +2214,7 @@
       <c r="E21" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="F21" s="137" t="s">
+      <c r="F21" s="140" t="s">
         <v>39</v>
       </c>
       <c r="G21" s="17">
@@ -2288,7 +2234,7 @@
         <v>170</v>
       </c>
       <c r="E22" s="37"/>
-      <c r="F22" s="137"/>
+      <c r="F22" s="140"/>
       <c r="G22" s="17">
         <v>140</v>
       </c>
@@ -2304,7 +2250,7 @@
       <c r="C23" s="23"/>
       <c r="D23" s="37"/>
       <c r="E23" s="37"/>
-      <c r="F23" s="137"/>
+      <c r="F23" s="140"/>
       <c r="G23" s="17">
         <v>140</v>
       </c>
@@ -2315,12 +2261,12 @@
         <v>16</v>
       </c>
       <c r="B24" s="126">
-        <v>43736</v>
+        <v>43733</v>
       </c>
       <c r="C24" s="23"/>
       <c r="D24" s="37"/>
       <c r="E24" s="37"/>
-      <c r="F24" s="137"/>
+      <c r="F24" s="140"/>
       <c r="G24" s="17">
         <v>140</v>
       </c>
@@ -2336,7 +2282,7 @@
       <c r="C25" s="23"/>
       <c r="D25" s="37"/>
       <c r="E25" s="37"/>
-      <c r="F25" s="137"/>
+      <c r="F25" s="140"/>
       <c r="G25" s="17">
         <v>140</v>
       </c>
@@ -2346,12 +2292,12 @@
         <v>20</v>
       </c>
       <c r="B26" s="126">
-        <v>43742</v>
+        <v>43740</v>
       </c>
       <c r="C26" s="23"/>
       <c r="D26" s="37"/>
       <c r="E26" s="37"/>
-      <c r="F26" s="137"/>
+      <c r="F26" s="140"/>
       <c r="G26" s="17">
         <v>140</v>
       </c>
@@ -2361,12 +2307,12 @@
         <v>22</v>
       </c>
       <c r="B27" s="126">
-        <v>43744</v>
+        <v>43745</v>
       </c>
       <c r="C27" s="23"/>
       <c r="D27" s="37"/>
       <c r="E27" s="37"/>
-      <c r="F27" s="137"/>
+      <c r="F27" s="140"/>
       <c r="G27" s="17">
         <v>140</v>
       </c>
@@ -2376,12 +2322,12 @@
         <v>24</v>
       </c>
       <c r="B28" s="126">
-        <v>43749</v>
+        <v>43747</v>
       </c>
       <c r="C28" s="23"/>
       <c r="D28" s="17"/>
       <c r="E28" s="37"/>
-      <c r="F28" s="137"/>
+      <c r="F28" s="140"/>
       <c r="G28" s="17">
         <v>140</v>
       </c>
@@ -2391,25 +2337,27 @@
         <v>26</v>
       </c>
       <c r="B29" s="126">
-        <v>43751</v>
+        <v>43752</v>
       </c>
       <c r="C29" s="23"/>
       <c r="D29" s="17"/>
       <c r="E29" s="37"/>
-      <c r="F29" s="137"/>
+      <c r="F29" s="140"/>
       <c r="G29" s="17">
         <v>140</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="15">
-      <c r="A30" s="114" t="s">
+      <c r="A30" s="137" t="s">
         <v>27</v>
       </c>
-      <c r="B30" s="131"/>
-      <c r="C30" s="123"/>
+      <c r="B30" s="139">
+        <v>43754</v>
+      </c>
+      <c r="C30" s="138"/>
       <c r="D30" s="28"/>
       <c r="E30" s="133"/>
-      <c r="F30" s="137"/>
+      <c r="F30" s="140"/>
       <c r="G30" s="28">
         <v>140</v>
       </c>
@@ -2433,7 +2381,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
@@ -2452,15 +2400,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="137" t="s">
+      <c r="A1" s="140" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="137"/>
-      <c r="C1" s="137"/>
-      <c r="D1" s="137"/>
-      <c r="E1" s="137"/>
-      <c r="F1" s="137"/>
-      <c r="G1" s="137"/>
+      <c r="B1" s="140"/>
+      <c r="C1" s="140"/>
+      <c r="D1" s="140"/>
+      <c r="E1" s="140"/>
+      <c r="F1" s="140"/>
+      <c r="G1" s="140"/>
     </row>
     <row r="2" spans="1:8" ht="15">
       <c r="A2" s="3" t="s">
@@ -2498,7 +2446,7 @@
       </c>
       <c r="D3" s="9"/>
       <c r="E3" s="32"/>
-      <c r="F3" s="137" t="s">
+      <c r="F3" s="140" t="s">
         <v>11</v>
       </c>
       <c r="G3" s="33">
@@ -2517,7 +2465,7 @@
       </c>
       <c r="D4" s="15"/>
       <c r="E4" s="35"/>
-      <c r="F4" s="137"/>
+      <c r="F4" s="140"/>
       <c r="G4" s="36">
         <v>175</v>
       </c>
@@ -2534,7 +2482,7 @@
       </c>
       <c r="D5" s="15"/>
       <c r="E5" s="35"/>
-      <c r="F5" s="137"/>
+      <c r="F5" s="140"/>
       <c r="G5" s="36">
         <v>175</v>
       </c>
@@ -2551,7 +2499,7 @@
       </c>
       <c r="D6" s="17"/>
       <c r="E6" s="37"/>
-      <c r="F6" s="137"/>
+      <c r="F6" s="140"/>
       <c r="G6" s="36">
         <v>175</v>
       </c>
@@ -2568,7 +2516,7 @@
       </c>
       <c r="D7" s="17"/>
       <c r="E7" s="37"/>
-      <c r="F7" s="137"/>
+      <c r="F7" s="140"/>
       <c r="G7" s="36">
         <v>175</v>
       </c>
@@ -2585,7 +2533,7 @@
       </c>
       <c r="D8" s="17"/>
       <c r="E8" s="37"/>
-      <c r="F8" s="137"/>
+      <c r="F8" s="140"/>
       <c r="G8" s="36">
         <v>175</v>
       </c>
@@ -2604,7 +2552,7 @@
         <v>41</v>
       </c>
       <c r="E9" s="37"/>
-      <c r="F9" s="137"/>
+      <c r="F9" s="140"/>
       <c r="G9" s="36">
         <v>175</v>
       </c>
@@ -2621,7 +2569,7 @@
       </c>
       <c r="D10" s="39"/>
       <c r="E10" s="40"/>
-      <c r="F10" s="137"/>
+      <c r="F10" s="140"/>
       <c r="G10" s="36">
         <v>175</v>
       </c>
@@ -2640,7 +2588,7 @@
         <v>42</v>
       </c>
       <c r="E11" s="2"/>
-      <c r="F11" s="137" t="s">
+      <c r="F11" s="140" t="s">
         <v>31</v>
       </c>
       <c r="G11" s="17">
@@ -2662,7 +2610,7 @@
         <v>32</v>
       </c>
       <c r="E12" s="2"/>
-      <c r="F12" s="137"/>
+      <c r="F12" s="140"/>
       <c r="G12" s="17">
         <v>175</v>
       </c>
@@ -2682,7 +2630,7 @@
         <v>44</v>
       </c>
       <c r="E13" s="2"/>
-      <c r="F13" s="137"/>
+      <c r="F13" s="140"/>
       <c r="G13" s="17">
         <v>175</v>
       </c>
@@ -2704,7 +2652,7 @@
       <c r="E14" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="F14" s="137"/>
+      <c r="F14" s="140"/>
       <c r="G14" s="17">
         <v>175</v>
       </c>
@@ -2726,7 +2674,7 @@
       <c r="E15" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="F15" s="137"/>
+      <c r="F15" s="140"/>
       <c r="G15" s="17">
         <v>175</v>
       </c>
@@ -2748,7 +2696,7 @@
       <c r="E16" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="F16" s="137"/>
+      <c r="F16" s="140"/>
       <c r="G16" s="17">
         <v>175</v>
       </c>
@@ -2770,7 +2718,7 @@
       <c r="E17" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="F17" s="137"/>
+      <c r="F17" s="140"/>
       <c r="G17" s="17">
         <v>175</v>
       </c>
@@ -2788,7 +2736,7 @@
       <c r="E18" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="F18" s="137"/>
+      <c r="F18" s="140"/>
       <c r="G18" s="17">
         <v>175</v>
       </c>
@@ -2804,7 +2752,7 @@
       <c r="C19" s="33"/>
       <c r="D19" s="8"/>
       <c r="E19" s="6"/>
-      <c r="F19" s="137" t="s">
+      <c r="F19" s="140" t="s">
         <v>39</v>
       </c>
       <c r="G19" s="36">
@@ -2822,7 +2770,7 @@
       <c r="C20" s="36"/>
       <c r="D20" s="107"/>
       <c r="E20" s="37"/>
-      <c r="F20" s="137"/>
+      <c r="F20" s="140"/>
       <c r="G20" s="36">
         <v>175</v>
       </c>
@@ -2838,7 +2786,7 @@
       <c r="C21" s="36"/>
       <c r="D21" s="107"/>
       <c r="E21" s="37"/>
-      <c r="F21" s="137"/>
+      <c r="F21" s="140"/>
       <c r="G21" s="36">
         <v>175</v>
       </c>
@@ -2854,7 +2802,7 @@
       <c r="C22" s="36"/>
       <c r="D22" s="107"/>
       <c r="E22" s="37"/>
-      <c r="F22" s="137"/>
+      <c r="F22" s="140"/>
       <c r="G22" s="36">
         <v>175</v>
       </c>
@@ -2870,7 +2818,7 @@
       <c r="C23" s="134"/>
       <c r="D23" s="107"/>
       <c r="E23" s="37"/>
-      <c r="F23" s="137"/>
+      <c r="F23" s="140"/>
       <c r="G23" s="36">
         <v>175</v>
       </c>
@@ -2885,7 +2833,7 @@
       <c r="C24" s="36"/>
       <c r="D24" s="107"/>
       <c r="E24" s="37"/>
-      <c r="F24" s="137"/>
+      <c r="F24" s="140"/>
       <c r="G24" s="36">
         <v>175</v>
       </c>
@@ -2900,7 +2848,7 @@
       <c r="C25" s="36"/>
       <c r="D25" s="107"/>
       <c r="E25" s="37"/>
-      <c r="F25" s="137"/>
+      <c r="F25" s="140"/>
       <c r="G25" s="36">
         <v>175</v>
       </c>
@@ -2915,7 +2863,7 @@
       <c r="C26" s="44"/>
       <c r="D26" s="41"/>
       <c r="E26" s="40"/>
-      <c r="F26" s="137"/>
+      <c r="F26" s="140"/>
       <c r="G26" s="44">
         <v>175</v>
       </c>
@@ -2938,7 +2886,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor indexed="47"/>
   </sheetPr>
@@ -2961,16 +2909,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15">
-      <c r="A1" s="138" t="s">
+      <c r="A1" s="141" t="s">
         <v>76</v>
       </c>
-      <c r="B1" s="138"/>
-      <c r="C1" s="138"/>
-      <c r="D1" s="138"/>
-      <c r="E1" s="138"/>
-      <c r="F1" s="138"/>
-      <c r="G1" s="138"/>
-      <c r="H1" s="138"/>
+      <c r="B1" s="141"/>
+      <c r="C1" s="141"/>
+      <c r="D1" s="141"/>
+      <c r="E1" s="141"/>
+      <c r="F1" s="141"/>
+      <c r="G1" s="141"/>
+      <c r="H1" s="141"/>
     </row>
     <row r="2" spans="1:9" ht="15">
       <c r="A2" s="3" t="s">
@@ -3012,7 +2960,7 @@
       </c>
       <c r="E3" s="10"/>
       <c r="F3" s="10"/>
-      <c r="G3" s="139" t="s">
+      <c r="G3" s="142" t="s">
         <v>11</v>
       </c>
       <c r="H3" s="11">
@@ -3032,7 +2980,7 @@
       <c r="D4" s="45"/>
       <c r="E4" s="16"/>
       <c r="F4" s="2"/>
-      <c r="G4" s="139"/>
+      <c r="G4" s="142"/>
       <c r="H4" s="17">
         <v>140</v>
       </c>
@@ -3050,7 +2998,7 @@
       <c r="D5" s="45"/>
       <c r="E5" s="16"/>
       <c r="F5" s="2"/>
-      <c r="G5" s="139"/>
+      <c r="G5" s="142"/>
       <c r="H5" s="17">
         <v>140</v>
       </c>
@@ -3068,7 +3016,7 @@
       <c r="D6" s="45"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
-      <c r="G6" s="139"/>
+      <c r="G6" s="142"/>
       <c r="H6" s="17">
         <v>140</v>
       </c>
@@ -3088,7 +3036,7 @@
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
-      <c r="G7" s="139"/>
+      <c r="G7" s="142"/>
       <c r="H7" s="17">
         <v>140</v>
       </c>
@@ -3108,7 +3056,7 @@
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
-      <c r="G8" s="139"/>
+      <c r="G8" s="142"/>
       <c r="H8" s="17">
         <v>140</v>
       </c>
@@ -3128,7 +3076,7 @@
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
-      <c r="G9" s="139"/>
+      <c r="G9" s="142"/>
       <c r="H9" s="17">
         <v>140</v>
       </c>
@@ -3148,7 +3096,7 @@
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
-      <c r="G10" s="139"/>
+      <c r="G10" s="142"/>
       <c r="H10" s="17">
         <v>140</v>
       </c>
@@ -3166,7 +3114,7 @@
       <c r="D11" s="17"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
-      <c r="G11" s="139"/>
+      <c r="G11" s="142"/>
       <c r="H11" s="17">
         <v>140</v>
       </c>
@@ -3187,7 +3135,7 @@
       </c>
       <c r="E12" s="20"/>
       <c r="F12" s="41"/>
-      <c r="G12" s="139"/>
+      <c r="G12" s="142"/>
       <c r="H12" s="17">
         <v>140</v>
       </c>
@@ -3210,7 +3158,7 @@
       </c>
       <c r="E13" s="10"/>
       <c r="F13" s="10"/>
-      <c r="G13" s="139" t="s">
+      <c r="G13" s="142" t="s">
         <v>31</v>
       </c>
       <c r="H13" s="17">
@@ -3233,7 +3181,7 @@
       </c>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
-      <c r="G14" s="139"/>
+      <c r="G14" s="142"/>
       <c r="H14" s="17">
         <v>140</v>
       </c>
@@ -3254,7 +3202,7 @@
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
-      <c r="G15" s="139"/>
+      <c r="G15" s="142"/>
       <c r="H15" s="17">
         <v>140</v>
       </c>
@@ -3275,7 +3223,7 @@
       </c>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
-      <c r="G16" s="139"/>
+      <c r="G16" s="142"/>
       <c r="H16" s="17">
         <v>140</v>
       </c>
@@ -3298,7 +3246,7 @@
         <v>33</v>
       </c>
       <c r="F17" s="2"/>
-      <c r="G17" s="139"/>
+      <c r="G17" s="142"/>
       <c r="H17" s="17">
         <v>140</v>
       </c>
@@ -3321,7 +3269,7 @@
         <v>35</v>
       </c>
       <c r="F18" s="2"/>
-      <c r="G18" s="139"/>
+      <c r="G18" s="142"/>
       <c r="H18" s="17">
         <v>140</v>
       </c>
@@ -3344,7 +3292,7 @@
         <v>37</v>
       </c>
       <c r="F19" s="42"/>
-      <c r="G19" s="139"/>
+      <c r="G19" s="142"/>
       <c r="H19" s="48">
         <v>140</v>
       </c>
@@ -3367,7 +3315,7 @@
         <v>37</v>
       </c>
       <c r="F20" s="2"/>
-      <c r="G20" s="139"/>
+      <c r="G20" s="142"/>
       <c r="H20" s="17">
         <v>140</v>
       </c>
@@ -3390,7 +3338,7 @@
         <v>38</v>
       </c>
       <c r="F21" s="2"/>
-      <c r="G21" s="139"/>
+      <c r="G21" s="142"/>
       <c r="H21" s="17">
         <v>140</v>
       </c>
@@ -3413,7 +3361,7 @@
         <v>81</v>
       </c>
       <c r="F22" s="107"/>
-      <c r="G22" s="140"/>
+      <c r="G22" s="143"/>
       <c r="H22" s="17">
         <v>140</v>
       </c>
@@ -3438,7 +3386,7 @@
         <v>55</v>
       </c>
       <c r="F23" s="121"/>
-      <c r="G23" s="140" t="s">
+      <c r="G23" s="143" t="s">
         <v>39</v>
       </c>
       <c r="H23" s="17">
@@ -3459,7 +3407,7 @@
       </c>
       <c r="E24" s="107"/>
       <c r="F24" s="107"/>
-      <c r="G24" s="141"/>
+      <c r="G24" s="144"/>
       <c r="H24" s="17">
         <v>140</v>
       </c>
@@ -3480,7 +3428,7 @@
         <v>60</v>
       </c>
       <c r="F25" s="107"/>
-      <c r="G25" s="141"/>
+      <c r="G25" s="144"/>
       <c r="H25" s="17">
         <v>140</v>
       </c>
@@ -3501,7 +3449,7 @@
         <v>63</v>
       </c>
       <c r="F26" s="107"/>
-      <c r="G26" s="141"/>
+      <c r="G26" s="144"/>
       <c r="H26" s="17">
         <v>140</v>
       </c>
@@ -3522,7 +3470,7 @@
         <v>66</v>
       </c>
       <c r="F27" s="107"/>
-      <c r="G27" s="141"/>
+      <c r="G27" s="144"/>
       <c r="H27" s="17">
         <v>140</v>
       </c>
@@ -3542,7 +3490,7 @@
         <v>69</v>
       </c>
       <c r="F28" s="107"/>
-      <c r="G28" s="141"/>
+      <c r="G28" s="144"/>
       <c r="H28" s="17">
         <v>140</v>
       </c>
@@ -3562,7 +3510,7 @@
         <v>72</v>
       </c>
       <c r="F29" s="107"/>
-      <c r="G29" s="141"/>
+      <c r="G29" s="144"/>
       <c r="H29" s="17">
         <v>140</v>
       </c>
@@ -3582,7 +3530,7 @@
         <v>72</v>
       </c>
       <c r="F30" s="107"/>
-      <c r="G30" s="141"/>
+      <c r="G30" s="144"/>
       <c r="H30" s="17">
         <v>140</v>
       </c>
@@ -3602,7 +3550,7 @@
         <v>91</v>
       </c>
       <c r="F31" s="107"/>
-      <c r="G31" s="141"/>
+      <c r="G31" s="144"/>
       <c r="H31" s="17">
         <v>140</v>
       </c>
@@ -3620,7 +3568,7 @@
         <v>93</v>
       </c>
       <c r="F32" s="41"/>
-      <c r="G32" s="142"/>
+      <c r="G32" s="145"/>
       <c r="H32" s="28">
         <v>140</v>
       </c>
@@ -3644,7 +3592,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor indexed="47"/>
   </sheetPr>
@@ -3668,16 +3616,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12.6" customHeight="1">
-      <c r="A1" s="138" t="s">
+      <c r="A1" s="141" t="s">
         <v>94</v>
       </c>
-      <c r="B1" s="138"/>
-      <c r="C1" s="138"/>
-      <c r="D1" s="138"/>
-      <c r="E1" s="138"/>
-      <c r="F1" s="138"/>
-      <c r="G1" s="138"/>
-      <c r="H1" s="138"/>
+      <c r="B1" s="141"/>
+      <c r="C1" s="141"/>
+      <c r="D1" s="141"/>
+      <c r="E1" s="141"/>
+      <c r="F1" s="141"/>
+      <c r="G1" s="141"/>
+      <c r="H1" s="141"/>
     </row>
     <row r="2" spans="1:10" ht="15">
       <c r="A2" s="3" t="s">
@@ -3721,7 +3669,7 @@
       <c r="F3" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="G3" s="139" t="s">
+      <c r="G3" s="142" t="s">
         <v>11</v>
       </c>
       <c r="H3" s="11">
@@ -3744,7 +3692,7 @@
       <c r="F4" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="G4" s="139"/>
+      <c r="G4" s="142"/>
       <c r="H4" s="17">
         <v>140</v>
       </c>
@@ -3765,7 +3713,7 @@
       <c r="F5" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="G5" s="139"/>
+      <c r="G5" s="142"/>
       <c r="H5" s="17">
         <v>140</v>
       </c>
@@ -3787,7 +3735,7 @@
       <c r="F6" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="G6" s="139"/>
+      <c r="G6" s="142"/>
       <c r="H6" s="17">
         <v>140</v>
       </c>
@@ -3809,7 +3757,7 @@
       <c r="F7" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="G7" s="139"/>
+      <c r="G7" s="142"/>
       <c r="H7" s="17">
         <v>140</v>
       </c>
@@ -3831,7 +3779,7 @@
       <c r="F8" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="G8" s="139"/>
+      <c r="G8" s="142"/>
       <c r="H8" s="17">
         <v>140</v>
       </c>
@@ -3853,7 +3801,7 @@
       <c r="F9" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="G9" s="139"/>
+      <c r="G9" s="142"/>
       <c r="H9" s="17">
         <v>140</v>
       </c>
@@ -3874,7 +3822,7 @@
       <c r="F10" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="G10" s="139"/>
+      <c r="G10" s="142"/>
       <c r="H10" s="17">
         <v>140</v>
       </c>
@@ -3895,7 +3843,7 @@
       <c r="F11" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="G11" s="139"/>
+      <c r="G11" s="142"/>
       <c r="H11" s="17">
         <v>140</v>
       </c>
@@ -3916,7 +3864,7 @@
       <c r="F12" s="41" t="s">
         <v>107</v>
       </c>
-      <c r="G12" s="139"/>
+      <c r="G12" s="142"/>
       <c r="H12" s="17">
         <v>140</v>
       </c>
@@ -3938,7 +3886,7 @@
       <c r="F13" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="G13" s="139" t="s">
+      <c r="G13" s="142" t="s">
         <v>31</v>
       </c>
       <c r="H13" s="17">
@@ -3963,7 +3911,7 @@
       <c r="F14" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="G14" s="139"/>
+      <c r="G14" s="142"/>
       <c r="H14" s="17">
         <v>140</v>
       </c>
@@ -3986,7 +3934,7 @@
       <c r="F15" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="G15" s="139"/>
+      <c r="G15" s="142"/>
       <c r="H15" s="17">
         <v>140</v>
       </c>
@@ -4008,7 +3956,7 @@
       <c r="F16" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="G16" s="139"/>
+      <c r="G16" s="142"/>
       <c r="H16" s="17">
         <v>140</v>
       </c>
@@ -4033,7 +3981,7 @@
       <c r="F17" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="G17" s="139"/>
+      <c r="G17" s="142"/>
       <c r="H17" s="17">
         <v>140</v>
       </c>
@@ -4058,7 +4006,7 @@
       <c r="F18" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="G18" s="139"/>
+      <c r="G18" s="142"/>
       <c r="H18" s="17">
         <v>140</v>
       </c>
@@ -4083,7 +4031,7 @@
       <c r="F19" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="G19" s="139"/>
+      <c r="G19" s="142"/>
       <c r="H19" s="17">
         <v>140</v>
       </c>
@@ -4108,7 +4056,7 @@
       <c r="F20" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="G20" s="139"/>
+      <c r="G20" s="142"/>
       <c r="H20" s="17">
         <v>140</v>
       </c>
@@ -4133,7 +4081,7 @@
       <c r="F21" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="G21" s="139"/>
+      <c r="G21" s="142"/>
       <c r="H21" s="17">
         <v>140</v>
       </c>
@@ -4158,7 +4106,7 @@
       <c r="F22" s="41" t="s">
         <v>107</v>
       </c>
-      <c r="G22" s="139"/>
+      <c r="G22" s="142"/>
       <c r="H22" s="17">
         <v>140</v>
       </c>
@@ -4186,7 +4134,7 @@
       <c r="F23" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="G23" s="139" t="s">
+      <c r="G23" s="142" t="s">
         <v>39</v>
       </c>
       <c r="H23" s="17">
@@ -4213,7 +4161,7 @@
       <c r="F24" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="G24" s="139"/>
+      <c r="G24" s="142"/>
       <c r="H24" s="17">
         <v>140</v>
       </c>
@@ -4238,7 +4186,7 @@
       <c r="F25" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="G25" s="139"/>
+      <c r="G25" s="142"/>
       <c r="H25" s="17">
         <v>140</v>
       </c>
@@ -4263,7 +4211,7 @@
       <c r="F26" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="G26" s="139"/>
+      <c r="G26" s="142"/>
       <c r="H26" s="17">
         <v>140</v>
       </c>
@@ -4288,7 +4236,7 @@
       <c r="F27" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="G27" s="139"/>
+      <c r="G27" s="142"/>
       <c r="H27" s="17">
         <v>140</v>
       </c>
@@ -4312,7 +4260,7 @@
       <c r="F28" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="G28" s="139"/>
+      <c r="G28" s="142"/>
       <c r="H28" s="17">
         <v>140</v>
       </c>
@@ -4336,7 +4284,7 @@
       <c r="F29" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="G29" s="139"/>
+      <c r="G29" s="142"/>
       <c r="H29" s="17">
         <v>140</v>
       </c>
@@ -4360,7 +4308,7 @@
       <c r="F30" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="G30" s="139"/>
+      <c r="G30" s="142"/>
       <c r="H30" s="17">
         <v>140</v>
       </c>
@@ -4384,7 +4332,7 @@
       <c r="F31" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="G31" s="139"/>
+      <c r="G31" s="142"/>
       <c r="H31" s="17">
         <v>140</v>
       </c>
@@ -4404,7 +4352,7 @@
       <c r="F32" s="41" t="s">
         <v>107</v>
       </c>
-      <c r="G32" s="139"/>
+      <c r="G32" s="142"/>
       <c r="H32" s="28">
         <v>140</v>
       </c>
@@ -4433,7 +4381,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor indexed="47"/>
   </sheetPr>
@@ -4459,16 +4407,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="143" t="s">
+      <c r="A1" s="146" t="s">
         <v>113</v>
       </c>
-      <c r="B1" s="143"/>
-      <c r="C1" s="143"/>
-      <c r="D1" s="143"/>
-      <c r="E1" s="143"/>
-      <c r="F1" s="143"/>
-      <c r="G1" s="143"/>
-      <c r="H1" s="143"/>
+      <c r="B1" s="146"/>
+      <c r="C1" s="146"/>
+      <c r="D1" s="146"/>
+      <c r="E1" s="146"/>
+      <c r="F1" s="146"/>
+      <c r="G1" s="146"/>
+      <c r="H1" s="146"/>
     </row>
     <row r="2" spans="1:10" ht="15">
       <c r="A2" s="68" t="s">
@@ -4507,7 +4455,7 @@
       <c r="F3" s="33" t="s">
         <v>97</v>
       </c>
-      <c r="G3" s="137" t="s">
+      <c r="G3" s="140" t="s">
         <v>11</v>
       </c>
       <c r="H3" s="33">
@@ -4530,7 +4478,7 @@
       <c r="F4" s="36" t="s">
         <v>98</v>
       </c>
-      <c r="G4" s="137"/>
+      <c r="G4" s="140"/>
       <c r="H4" s="36">
         <v>120</v>
       </c>
@@ -4551,7 +4499,7 @@
       <c r="F5" s="36" t="s">
         <v>99</v>
       </c>
-      <c r="G5" s="137"/>
+      <c r="G5" s="140"/>
       <c r="H5" s="36">
         <v>120</v>
       </c>
@@ -4572,7 +4520,7 @@
       <c r="F6" s="36" t="s">
         <v>100</v>
       </c>
-      <c r="G6" s="137"/>
+      <c r="G6" s="140"/>
       <c r="H6" s="36">
         <v>120</v>
       </c>
@@ -4593,7 +4541,7 @@
       <c r="F7" s="36" t="s">
         <v>101</v>
       </c>
-      <c r="G7" s="137"/>
+      <c r="G7" s="140"/>
       <c r="H7" s="36">
         <v>120</v>
       </c>
@@ -4614,7 +4562,7 @@
       <c r="F8" s="36" t="s">
         <v>102</v>
       </c>
-      <c r="G8" s="137"/>
+      <c r="G8" s="140"/>
       <c r="H8" s="36">
         <v>120</v>
       </c>
@@ -4635,7 +4583,7 @@
       <c r="F9" s="36" t="s">
         <v>103</v>
       </c>
-      <c r="G9" s="137"/>
+      <c r="G9" s="140"/>
       <c r="H9" s="36">
         <v>120</v>
       </c>
@@ -4655,7 +4603,7 @@
       <c r="F10" s="36" t="s">
         <v>105</v>
       </c>
-      <c r="G10" s="137"/>
+      <c r="G10" s="140"/>
       <c r="H10" s="36">
         <v>120</v>
       </c>
@@ -4675,7 +4623,7 @@
       <c r="F11" s="36" t="s">
         <v>106</v>
       </c>
-      <c r="G11" s="137"/>
+      <c r="G11" s="140"/>
       <c r="H11" s="36">
         <v>120</v>
       </c>
@@ -4696,7 +4644,7 @@
       <c r="F12" s="44" t="s">
         <v>107</v>
       </c>
-      <c r="G12" s="137"/>
+      <c r="G12" s="140"/>
       <c r="H12" s="36">
         <v>120</v>
       </c>
@@ -4724,7 +4672,7 @@
       <c r="F13" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="G13" s="137" t="s">
+      <c r="G13" s="140" t="s">
         <v>31</v>
       </c>
       <c r="H13" s="36">
@@ -4748,7 +4696,7 @@
       <c r="F14" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="G14" s="137"/>
+      <c r="G14" s="140"/>
       <c r="H14" s="36">
         <v>120</v>
       </c>
@@ -4770,7 +4718,7 @@
       <c r="F15" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="G15" s="137"/>
+      <c r="G15" s="140"/>
       <c r="H15" s="36">
         <v>120</v>
       </c>
@@ -4792,7 +4740,7 @@
       <c r="F16" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="G16" s="137"/>
+      <c r="G16" s="140"/>
       <c r="H16" s="36">
         <v>120</v>
       </c>
@@ -4817,7 +4765,7 @@
       <c r="F17" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="G17" s="137"/>
+      <c r="G17" s="140"/>
       <c r="H17" s="36">
         <v>120</v>
       </c>
@@ -4842,7 +4790,7 @@
       <c r="F18" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="G18" s="137"/>
+      <c r="G18" s="140"/>
       <c r="H18" s="36">
         <v>120</v>
       </c>
@@ -4867,7 +4815,7 @@
       <c r="F19" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="G19" s="137"/>
+      <c r="G19" s="140"/>
       <c r="H19" s="36">
         <v>120</v>
       </c>
@@ -4892,7 +4840,7 @@
       <c r="F20" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="G20" s="137"/>
+      <c r="G20" s="140"/>
       <c r="H20" s="36">
         <v>120</v>
       </c>
@@ -4917,7 +4865,7 @@
       <c r="F21" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="G21" s="137"/>
+      <c r="G21" s="140"/>
       <c r="H21" s="36">
         <v>120</v>
       </c>
@@ -4942,7 +4890,7 @@
       <c r="F22" s="41" t="s">
         <v>107</v>
       </c>
-      <c r="G22" s="137"/>
+      <c r="G22" s="140"/>
       <c r="H22" s="36">
         <v>120</v>
       </c>
@@ -4973,7 +4921,7 @@
       <c r="F23" s="33" t="s">
         <v>97</v>
       </c>
-      <c r="G23" s="137" t="s">
+      <c r="G23" s="140" t="s">
         <v>39</v>
       </c>
       <c r="H23" s="36">
@@ -5000,7 +4948,7 @@
       <c r="F24" s="36" t="s">
         <v>98</v>
       </c>
-      <c r="G24" s="137"/>
+      <c r="G24" s="140"/>
       <c r="H24" s="36">
         <v>120</v>
       </c>
@@ -5025,7 +4973,7 @@
       <c r="F25" s="36" t="s">
         <v>99</v>
       </c>
-      <c r="G25" s="137"/>
+      <c r="G25" s="140"/>
       <c r="H25" s="36">
         <v>120</v>
       </c>
@@ -5050,7 +4998,7 @@
       <c r="F26" s="36" t="s">
         <v>100</v>
       </c>
-      <c r="G26" s="137"/>
+      <c r="G26" s="140"/>
       <c r="H26" s="36">
         <v>120</v>
       </c>
@@ -5075,7 +5023,7 @@
       <c r="F27" s="36" t="s">
         <v>101</v>
       </c>
-      <c r="G27" s="137"/>
+      <c r="G27" s="140"/>
       <c r="H27" s="36">
         <v>120</v>
       </c>
@@ -5099,7 +5047,7 @@
       <c r="F28" s="36" t="s">
         <v>102</v>
       </c>
-      <c r="G28" s="137"/>
+      <c r="G28" s="140"/>
       <c r="H28" s="36">
         <v>120</v>
       </c>
@@ -5123,7 +5071,7 @@
       <c r="F29" s="36" t="s">
         <v>103</v>
       </c>
-      <c r="G29" s="137"/>
+      <c r="G29" s="140"/>
       <c r="H29" s="36">
         <v>120</v>
       </c>
@@ -5147,7 +5095,7 @@
       <c r="F30" s="36" t="s">
         <v>105</v>
       </c>
-      <c r="G30" s="137"/>
+      <c r="G30" s="140"/>
       <c r="H30" s="36">
         <v>120</v>
       </c>
@@ -5171,7 +5119,7 @@
       <c r="F31" s="36" t="s">
         <v>106</v>
       </c>
-      <c r="G31" s="137"/>
+      <c r="G31" s="140"/>
       <c r="H31" s="36">
         <v>120</v>
       </c>
@@ -5193,7 +5141,7 @@
       <c r="F32" s="77" t="s">
         <v>107</v>
       </c>
-      <c r="G32" s="137"/>
+      <c r="G32" s="140"/>
       <c r="H32" s="77">
         <v>120</v>
       </c>
@@ -5240,7 +5188,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor indexed="47"/>
   </sheetPr>
@@ -5264,15 +5212,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="143" t="s">
+      <c r="A1" s="146" t="s">
         <v>125</v>
       </c>
-      <c r="B1" s="143"/>
-      <c r="C1" s="143"/>
-      <c r="D1" s="143"/>
-      <c r="E1" s="143"/>
-      <c r="F1" s="143"/>
-      <c r="G1" s="143"/>
+      <c r="B1" s="146"/>
+      <c r="C1" s="146"/>
+      <c r="D1" s="146"/>
+      <c r="E1" s="146"/>
+      <c r="F1" s="146"/>
+      <c r="G1" s="146"/>
     </row>
     <row r="2" spans="1:9" ht="15">
       <c r="A2" s="68" t="s">
@@ -5313,7 +5261,7 @@
       <c r="F3" s="10">
         <v>5</v>
       </c>
-      <c r="G3" s="137" t="s">
+      <c r="G3" s="140" t="s">
         <v>11</v>
       </c>
     </row>
@@ -5332,7 +5280,7 @@
       <c r="F4" s="2">
         <v>5</v>
       </c>
-      <c r="G4" s="137"/>
+      <c r="G4" s="140"/>
     </row>
     <row r="5" spans="1:9" ht="15">
       <c r="A5" s="62" t="s">
@@ -5349,7 +5297,7 @@
       <c r="F5" s="2">
         <v>5</v>
       </c>
-      <c r="G5" s="137"/>
+      <c r="G5" s="140"/>
     </row>
     <row r="6" spans="1:9" ht="15">
       <c r="A6" s="62" t="s">
@@ -5366,7 +5314,7 @@
       <c r="F6" s="2">
         <v>5</v>
       </c>
-      <c r="G6" s="137"/>
+      <c r="G6" s="140"/>
     </row>
     <row r="7" spans="1:9" ht="15">
       <c r="A7" s="62" t="s">
@@ -5383,7 +5331,7 @@
       <c r="F7" s="2">
         <v>5</v>
       </c>
-      <c r="G7" s="137"/>
+      <c r="G7" s="140"/>
     </row>
     <row r="8" spans="1:9" ht="15">
       <c r="A8" s="62" t="s">
@@ -5400,7 +5348,7 @@
       <c r="F8" s="2">
         <v>5</v>
       </c>
-      <c r="G8" s="137"/>
+      <c r="G8" s="140"/>
     </row>
     <row r="9" spans="1:9" ht="15">
       <c r="A9" s="62" t="s">
@@ -5417,7 +5365,7 @@
       <c r="F9" s="2">
         <v>5</v>
       </c>
-      <c r="G9" s="137"/>
+      <c r="G9" s="140"/>
       <c r="H9" s="2"/>
     </row>
     <row r="10" spans="1:9" ht="15">
@@ -5435,7 +5383,7 @@
       <c r="F10" s="2">
         <v>5</v>
       </c>
-      <c r="G10" s="137"/>
+      <c r="G10" s="140"/>
       <c r="H10" s="2"/>
     </row>
     <row r="11" spans="1:9" ht="15">
@@ -5455,7 +5403,7 @@
       <c r="F11" s="89" t="s">
         <v>97</v>
       </c>
-      <c r="G11" s="144" t="s">
+      <c r="G11" s="147" t="s">
         <v>31</v>
       </c>
       <c r="H11" s="2"/>
@@ -5477,7 +5425,7 @@
       <c r="F12" s="94" t="s">
         <v>98</v>
       </c>
-      <c r="G12" s="144"/>
+      <c r="G12" s="147"/>
       <c r="H12" s="2"/>
     </row>
     <row r="13" spans="1:9" ht="15">
@@ -5497,7 +5445,7 @@
       <c r="F13" s="94" t="s">
         <v>99</v>
       </c>
-      <c r="G13" s="144"/>
+      <c r="G13" s="147"/>
       <c r="H13" s="2"/>
     </row>
     <row r="14" spans="1:9" ht="15">
@@ -5519,7 +5467,7 @@
       <c r="F14" s="94" t="s">
         <v>100</v>
       </c>
-      <c r="G14" s="144"/>
+      <c r="G14" s="147"/>
       <c r="H14" s="71">
         <v>43371</v>
       </c>
@@ -5546,7 +5494,7 @@
       <c r="F15" s="94" t="s">
         <v>101</v>
       </c>
-      <c r="G15" s="144"/>
+      <c r="G15" s="147"/>
       <c r="H15" s="2"/>
     </row>
     <row r="16" spans="1:9" ht="15">
@@ -5568,7 +5516,7 @@
       <c r="F16" s="94" t="s">
         <v>102</v>
       </c>
-      <c r="G16" s="144"/>
+      <c r="G16" s="147"/>
       <c r="H16" s="2"/>
     </row>
     <row r="17" spans="1:9" ht="15">
@@ -5590,7 +5538,7 @@
       <c r="F17" s="94" t="s">
         <v>103</v>
       </c>
-      <c r="G17" s="144"/>
+      <c r="G17" s="147"/>
       <c r="H17" s="2"/>
     </row>
     <row r="18" spans="1:9" ht="15">
@@ -5612,7 +5560,7 @@
       <c r="F18" s="50" t="s">
         <v>105</v>
       </c>
-      <c r="G18" s="144"/>
+      <c r="G18" s="147"/>
       <c r="H18" s="71">
         <v>43409</v>
       </c>
@@ -5637,7 +5585,7 @@
       <c r="F19" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="G19" s="137" t="s">
+      <c r="G19" s="140" t="s">
         <v>39</v>
       </c>
       <c r="H19" s="2"/>
@@ -5661,7 +5609,7 @@
       <c r="F20" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="G20" s="137"/>
+      <c r="G20" s="140"/>
       <c r="H20" s="2"/>
     </row>
     <row r="21" spans="1:9" ht="15">
@@ -5683,7 +5631,7 @@
       <c r="F21" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="G21" s="137"/>
+      <c r="G21" s="140"/>
       <c r="H21" s="2"/>
     </row>
     <row r="22" spans="1:9" ht="15">
@@ -5705,7 +5653,7 @@
       <c r="F22" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="G22" s="137"/>
+      <c r="G22" s="140"/>
       <c r="H22" s="65">
         <v>43448</v>
       </c>
@@ -5732,7 +5680,7 @@
       <c r="F23" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="G23" s="137"/>
+      <c r="G23" s="140"/>
       <c r="H23" s="2"/>
     </row>
     <row r="24" spans="1:9" ht="15">
@@ -5754,7 +5702,7 @@
       <c r="F24" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="G24" s="137"/>
+      <c r="G24" s="140"/>
       <c r="H24" s="2"/>
     </row>
     <row r="25" spans="1:9" ht="15">
@@ -5774,7 +5722,7 @@
       <c r="F25" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="G25" s="137"/>
+      <c r="G25" s="140"/>
     </row>
     <row r="26" spans="1:9" ht="15">
       <c r="A26" s="64" t="s">
@@ -5793,7 +5741,7 @@
       <c r="F26" s="41" t="s">
         <v>105</v>
       </c>
-      <c r="G26" s="137"/>
+      <c r="G26" s="140"/>
       <c r="I26" s="2">
         <v>600</v>
       </c>
@@ -5818,7 +5766,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor indexed="47"/>
   </sheetPr>
@@ -5844,16 +5792,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="145" t="s">
+      <c r="A1" s="148" t="s">
         <v>142</v>
       </c>
-      <c r="B1" s="145"/>
-      <c r="C1" s="145"/>
-      <c r="D1" s="145"/>
-      <c r="E1" s="145"/>
-      <c r="F1" s="145"/>
-      <c r="G1" s="145"/>
-      <c r="H1" s="145"/>
+      <c r="B1" s="148"/>
+      <c r="C1" s="148"/>
+      <c r="D1" s="148"/>
+      <c r="E1" s="148"/>
+      <c r="F1" s="148"/>
+      <c r="G1" s="148"/>
+      <c r="H1" s="148"/>
     </row>
     <row r="2" spans="1:11" ht="15">
       <c r="A2" s="30" t="s">
@@ -5893,13 +5841,13 @@
       <c r="F3" s="2">
         <v>5</v>
       </c>
-      <c r="G3" s="145" t="s">
+      <c r="G3" s="148" t="s">
         <v>144</v>
       </c>
-      <c r="J3" s="146" t="s">
+      <c r="J3" s="149" t="s">
         <v>145</v>
       </c>
-      <c r="K3" s="146"/>
+      <c r="K3" s="149"/>
     </row>
     <row r="4" spans="1:11" ht="15">
       <c r="A4" s="80" t="s">
@@ -5914,7 +5862,7 @@
       <c r="F4" s="2">
         <v>5</v>
       </c>
-      <c r="G4" s="145"/>
+      <c r="G4" s="148"/>
       <c r="J4" t="s">
         <v>146</v>
       </c>
@@ -5936,7 +5884,7 @@
       <c r="F5" s="2">
         <v>5</v>
       </c>
-      <c r="G5" s="145"/>
+      <c r="G5" s="148"/>
       <c r="J5" t="s">
         <v>147</v>
       </c>
@@ -5958,7 +5906,7 @@
       <c r="F6" s="2">
         <v>5</v>
       </c>
-      <c r="G6" s="145"/>
+      <c r="G6" s="148"/>
       <c r="J6" t="s">
         <v>148</v>
       </c>
@@ -5980,7 +5928,7 @@
       <c r="F7" s="10">
         <v>5</v>
       </c>
-      <c r="G7" s="139" t="s">
+      <c r="G7" s="142" t="s">
         <v>11</v>
       </c>
       <c r="J7" t="s">
@@ -6004,7 +5952,7 @@
       <c r="F8" s="2">
         <v>5</v>
       </c>
-      <c r="G8" s="139"/>
+      <c r="G8" s="142"/>
       <c r="J8" t="s">
         <v>150</v>
       </c>
@@ -6026,7 +5974,7 @@
       <c r="F9" s="2">
         <v>5</v>
       </c>
-      <c r="G9" s="139"/>
+      <c r="G9" s="142"/>
       <c r="J9" t="s">
         <v>151</v>
       </c>
@@ -6048,7 +5996,7 @@
       <c r="F10" s="2">
         <v>5</v>
       </c>
-      <c r="G10" s="139"/>
+      <c r="G10" s="142"/>
       <c r="J10" t="s">
         <v>152</v>
       </c>
@@ -6070,7 +6018,7 @@
       <c r="F11" s="2">
         <v>5</v>
       </c>
-      <c r="G11" s="139"/>
+      <c r="G11" s="142"/>
       <c r="J11" t="s">
         <v>153</v>
       </c>
@@ -6092,7 +6040,7 @@
       <c r="F12" s="2">
         <v>5</v>
       </c>
-      <c r="G12" s="139"/>
+      <c r="G12" s="142"/>
       <c r="J12" t="s">
         <v>154</v>
       </c>
@@ -6114,7 +6062,7 @@
       <c r="F13" s="2">
         <v>5</v>
       </c>
-      <c r="G13" s="139"/>
+      <c r="G13" s="142"/>
     </row>
     <row r="14" spans="1:11" ht="15">
       <c r="A14" s="58" t="s">
@@ -6129,7 +6077,7 @@
       <c r="F14" s="41">
         <v>5</v>
       </c>
-      <c r="G14" s="139"/>
+      <c r="G14" s="142"/>
     </row>
     <row r="15" spans="1:11" ht="15">
       <c r="A15" s="52" t="s">
@@ -6144,7 +6092,7 @@
       <c r="F15" s="10">
         <v>1</v>
       </c>
-      <c r="G15" s="139" t="s">
+      <c r="G15" s="142" t="s">
         <v>31</v>
       </c>
     </row>
@@ -6163,7 +6111,7 @@
       <c r="F16" s="2">
         <v>2</v>
       </c>
-      <c r="G16" s="139"/>
+      <c r="G16" s="142"/>
     </row>
     <row r="17" spans="1:10" ht="15">
       <c r="A17" s="56" t="s">
@@ -6180,7 +6128,7 @@
       <c r="F17" s="2">
         <v>3</v>
       </c>
-      <c r="G17" s="139"/>
+      <c r="G17" s="142"/>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
     </row>
@@ -6199,7 +6147,7 @@
       <c r="F18" s="2">
         <v>4</v>
       </c>
-      <c r="G18" s="139"/>
+      <c r="G18" s="142"/>
     </row>
     <row r="19" spans="1:10" ht="15">
       <c r="A19" s="62" t="s">
@@ -6217,7 +6165,7 @@
       <c r="F19" s="2">
         <v>5</v>
       </c>
-      <c r="G19" s="139"/>
+      <c r="G19" s="142"/>
     </row>
     <row r="20" spans="1:10" ht="15">
       <c r="A20" s="62" t="s">
@@ -6235,7 +6183,7 @@
       <c r="F20" s="2">
         <v>6</v>
       </c>
-      <c r="G20" s="139"/>
+      <c r="G20" s="142"/>
     </row>
     <row r="21" spans="1:10" ht="15">
       <c r="A21" s="62" t="s">
@@ -6253,7 +6201,7 @@
       <c r="F21" s="2">
         <v>7</v>
       </c>
-      <c r="G21" s="139"/>
+      <c r="G21" s="142"/>
     </row>
     <row r="22" spans="1:10" ht="15">
       <c r="A22" s="64" t="s">
@@ -6272,7 +6220,7 @@
       <c r="F22" s="41">
         <v>8</v>
       </c>
-      <c r="G22" s="139"/>
+      <c r="G22" s="142"/>
     </row>
     <row r="23" spans="1:10" ht="15">
       <c r="A23" s="60" t="s">
@@ -6291,7 +6239,7 @@
       <c r="F23" s="10">
         <v>1</v>
       </c>
-      <c r="G23" s="139" t="s">
+      <c r="G23" s="142" t="s">
         <v>39</v>
       </c>
     </row>
@@ -6314,7 +6262,7 @@
       <c r="F24" s="2">
         <v>2</v>
       </c>
-      <c r="G24" s="139"/>
+      <c r="G24" s="142"/>
     </row>
     <row r="25" spans="1:10" ht="15">
       <c r="A25" s="62" t="s">
@@ -6335,7 +6283,7 @@
       <c r="F25" s="2">
         <v>3</v>
       </c>
-      <c r="G25" s="139"/>
+      <c r="G25" s="142"/>
     </row>
     <row r="26" spans="1:10" ht="15">
       <c r="A26" s="62" t="s">
@@ -6356,7 +6304,7 @@
       <c r="F26" s="2">
         <v>4</v>
       </c>
-      <c r="G26" s="139"/>
+      <c r="G26" s="142"/>
       <c r="H26" s="2" t="s">
         <v>159</v>
       </c>
@@ -6380,7 +6328,7 @@
       <c r="F27" s="2">
         <v>5</v>
       </c>
-      <c r="G27" s="139"/>
+      <c r="G27" s="142"/>
     </row>
     <row r="28" spans="1:10" ht="15">
       <c r="A28" s="62" t="s">
@@ -6401,7 +6349,7 @@
       <c r="F28" s="2">
         <v>6</v>
       </c>
-      <c r="G28" s="139"/>
+      <c r="G28" s="142"/>
     </row>
     <row r="29" spans="1:10" ht="15">
       <c r="A29" s="62" t="s">
@@ -6422,7 +6370,7 @@
       <c r="F29" s="2">
         <v>7</v>
       </c>
-      <c r="G29" s="139"/>
+      <c r="G29" s="142"/>
     </row>
     <row r="30" spans="1:10" ht="15">
       <c r="A30" s="64" t="s">
@@ -6443,7 +6391,7 @@
       <c r="F30" s="41">
         <v>8</v>
       </c>
-      <c r="G30" s="139"/>
+      <c r="G30" s="142"/>
       <c r="H30" s="71">
         <v>43396</v>
       </c>

--- a/Cronograma aulas/Aulas v2.xlsx
+++ b/Cronograma aulas/Aulas v2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="15" yWindow="15" windowWidth="21570" windowHeight="12870" tabRatio="489"/>
+    <workbookView xWindow="15" yWindow="15" windowWidth="21570" windowHeight="12870" tabRatio="489" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="t7_seg_e_qua" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="723" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="725" uniqueCount="171">
   <si>
     <t>Segunda e Quarta – sala 04 (senha javaweb)</t>
   </si>
@@ -952,7 +952,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="18" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="150">
+  <cellXfs count="148">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1336,13 +1336,7 @@
     <xf numFmtId="166" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1788,8 +1782,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView showGridLines="0" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="14.25"/>
@@ -1804,15 +1798,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="140" t="s">
+      <c r="A1" s="138" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="140"/>
-      <c r="C1" s="140"/>
-      <c r="D1" s="140"/>
-      <c r="E1" s="140"/>
-      <c r="F1" s="140"/>
-      <c r="G1" s="140"/>
+      <c r="B1" s="138"/>
+      <c r="C1" s="138"/>
+      <c r="D1" s="138"/>
+      <c r="E1" s="138"/>
+      <c r="F1" s="138"/>
+      <c r="G1" s="138"/>
     </row>
     <row r="2" spans="1:8" ht="15">
       <c r="A2" s="68" t="s">
@@ -1852,7 +1846,7 @@
         <v>10</v>
       </c>
       <c r="E3" s="132"/>
-      <c r="F3" s="140" t="s">
+      <c r="F3" s="138" t="s">
         <v>11</v>
       </c>
       <c r="G3" s="11">
@@ -1873,7 +1867,7 @@
         <v>13</v>
       </c>
       <c r="E4" s="106"/>
-      <c r="F4" s="140"/>
+      <c r="F4" s="138"/>
       <c r="G4" s="17">
         <v>140</v>
       </c>
@@ -1892,7 +1886,7 @@
         <v>15</v>
       </c>
       <c r="E5" s="106"/>
-      <c r="F5" s="140"/>
+      <c r="F5" s="138"/>
       <c r="G5" s="17">
         <v>140</v>
       </c>
@@ -1911,7 +1905,7 @@
         <v>17</v>
       </c>
       <c r="E6" s="107"/>
-      <c r="F6" s="140"/>
+      <c r="F6" s="138"/>
       <c r="G6" s="17">
         <v>140</v>
       </c>
@@ -1930,7 +1924,7 @@
         <v>19</v>
       </c>
       <c r="E7" s="107"/>
-      <c r="F7" s="140"/>
+      <c r="F7" s="138"/>
       <c r="G7" s="17">
         <v>140</v>
       </c>
@@ -1949,7 +1943,7 @@
         <v>21</v>
       </c>
       <c r="E8" s="107"/>
-      <c r="F8" s="140"/>
+      <c r="F8" s="138"/>
       <c r="G8" s="17">
         <v>140</v>
       </c>
@@ -1968,7 +1962,7 @@
         <v>23</v>
       </c>
       <c r="E9" s="107"/>
-      <c r="F9" s="140"/>
+      <c r="F9" s="138"/>
       <c r="G9" s="17">
         <v>140</v>
       </c>
@@ -1987,7 +1981,7 @@
         <v>25</v>
       </c>
       <c r="E10" s="107"/>
-      <c r="F10" s="140"/>
+      <c r="F10" s="138"/>
       <c r="G10" s="17">
         <v>140</v>
       </c>
@@ -2004,7 +1998,7 @@
       </c>
       <c r="D11" s="17"/>
       <c r="E11" s="107"/>
-      <c r="F11" s="140"/>
+      <c r="F11" s="138"/>
       <c r="G11" s="17">
         <v>140</v>
       </c>
@@ -2024,7 +2018,7 @@
         <v>28</v>
       </c>
       <c r="E12" s="20"/>
-      <c r="F12" s="140"/>
+      <c r="F12" s="138"/>
       <c r="G12" s="17">
         <v>140</v>
       </c>
@@ -2037,14 +2031,14 @@
       <c r="B13" s="127">
         <v>43684</v>
       </c>
-      <c r="C13" s="22" t="s">
-        <v>29</v>
+      <c r="C13" s="105" t="s">
+        <v>9</v>
       </c>
       <c r="D13" s="32" t="s">
         <v>30</v>
       </c>
       <c r="E13" s="11"/>
-      <c r="F13" s="140" t="s">
+      <c r="F13" s="138" t="s">
         <v>31</v>
       </c>
       <c r="G13" s="17">
@@ -2059,14 +2053,14 @@
       <c r="B14" s="126">
         <v>43691</v>
       </c>
-      <c r="C14" s="23" t="s">
-        <v>29</v>
+      <c r="C14" s="105" t="s">
+        <v>9</v>
       </c>
       <c r="D14" s="37" t="s">
         <v>32</v>
       </c>
       <c r="E14" s="17"/>
-      <c r="F14" s="140"/>
+      <c r="F14" s="138"/>
       <c r="G14" s="17">
         <v>140</v>
       </c>
@@ -2079,14 +2073,14 @@
       <c r="B15" s="126">
         <v>43698</v>
       </c>
-      <c r="C15" s="23" t="s">
-        <v>29</v>
+      <c r="C15" s="105" t="s">
+        <v>9</v>
       </c>
       <c r="D15" s="12" t="s">
         <v>32</v>
       </c>
       <c r="E15" s="17"/>
-      <c r="F15" s="140"/>
+      <c r="F15" s="138"/>
       <c r="G15" s="17">
         <v>140</v>
       </c>
@@ -2099,14 +2093,14 @@
       <c r="B16" s="126">
         <v>43703</v>
       </c>
-      <c r="C16" s="23" t="s">
-        <v>29</v>
+      <c r="C16" s="105" t="s">
+        <v>9</v>
       </c>
       <c r="D16" s="37" t="s">
         <v>164</v>
       </c>
       <c r="E16" s="17"/>
-      <c r="F16" s="140"/>
+      <c r="F16" s="138"/>
       <c r="G16" s="17">
         <v>140</v>
       </c>
@@ -2119,8 +2113,8 @@
       <c r="B17" s="126">
         <v>43712</v>
       </c>
-      <c r="C17" s="36" t="s">
-        <v>29</v>
+      <c r="C17" s="105" t="s">
+        <v>9</v>
       </c>
       <c r="D17" s="37" t="s">
         <v>165</v>
@@ -2128,7 +2122,7 @@
       <c r="E17" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="F17" s="140"/>
+      <c r="F17" s="138"/>
       <c r="G17" s="17">
         <v>140</v>
       </c>
@@ -2141,8 +2135,8 @@
       <c r="B18" s="126">
         <v>43717</v>
       </c>
-      <c r="C18" s="36" t="s">
-        <v>29</v>
+      <c r="C18" s="105" t="s">
+        <v>9</v>
       </c>
       <c r="D18" s="37" t="s">
         <v>168</v>
@@ -2150,7 +2144,7 @@
       <c r="E18" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="F18" s="140"/>
+      <c r="F18" s="138"/>
       <c r="G18" s="17">
         <v>140</v>
       </c>
@@ -2163,8 +2157,8 @@
       <c r="B19" s="126">
         <v>43719</v>
       </c>
-      <c r="C19" s="36" t="s">
-        <v>29</v>
+      <c r="C19" s="105" t="s">
+        <v>9</v>
       </c>
       <c r="D19" s="37" t="s">
         <v>167</v>
@@ -2172,7 +2166,7 @@
       <c r="E19" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="F19" s="140"/>
+      <c r="F19" s="138"/>
       <c r="G19" s="15">
         <v>140</v>
       </c>
@@ -2186,7 +2180,7 @@
         <v>43720</v>
       </c>
       <c r="C20" s="135" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="D20" s="40" t="s">
         <v>166</v>
@@ -2194,7 +2188,7 @@
       <c r="E20" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="F20" s="140"/>
+      <c r="F20" s="138"/>
       <c r="G20" s="130">
         <v>140</v>
       </c>
@@ -2214,7 +2208,7 @@
       <c r="E21" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="F21" s="140" t="s">
+      <c r="F21" s="138" t="s">
         <v>39</v>
       </c>
       <c r="G21" s="17">
@@ -2229,12 +2223,14 @@
       <c r="B22" s="126">
         <v>43727</v>
       </c>
-      <c r="C22" s="23"/>
+      <c r="C22" s="36" t="s">
+        <v>29</v>
+      </c>
       <c r="D22" s="12" t="s">
         <v>170</v>
       </c>
       <c r="E22" s="37"/>
-      <c r="F22" s="140"/>
+      <c r="F22" s="138"/>
       <c r="G22" s="17">
         <v>140</v>
       </c>
@@ -2250,7 +2246,7 @@
       <c r="C23" s="23"/>
       <c r="D23" s="37"/>
       <c r="E23" s="37"/>
-      <c r="F23" s="140"/>
+      <c r="F23" s="138"/>
       <c r="G23" s="17">
         <v>140</v>
       </c>
@@ -2266,7 +2262,7 @@
       <c r="C24" s="23"/>
       <c r="D24" s="37"/>
       <c r="E24" s="37"/>
-      <c r="F24" s="140"/>
+      <c r="F24" s="138"/>
       <c r="G24" s="17">
         <v>140</v>
       </c>
@@ -2282,7 +2278,7 @@
       <c r="C25" s="23"/>
       <c r="D25" s="37"/>
       <c r="E25" s="37"/>
-      <c r="F25" s="140"/>
+      <c r="F25" s="138"/>
       <c r="G25" s="17">
         <v>140</v>
       </c>
@@ -2297,7 +2293,7 @@
       <c r="C26" s="23"/>
       <c r="D26" s="37"/>
       <c r="E26" s="37"/>
-      <c r="F26" s="140"/>
+      <c r="F26" s="138"/>
       <c r="G26" s="17">
         <v>140</v>
       </c>
@@ -2312,7 +2308,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="37"/>
       <c r="E27" s="37"/>
-      <c r="F27" s="140"/>
+      <c r="F27" s="138"/>
       <c r="G27" s="17">
         <v>140</v>
       </c>
@@ -2327,7 +2323,7 @@
       <c r="C28" s="23"/>
       <c r="D28" s="17"/>
       <c r="E28" s="37"/>
-      <c r="F28" s="140"/>
+      <c r="F28" s="138"/>
       <c r="G28" s="17">
         <v>140</v>
       </c>
@@ -2342,22 +2338,22 @@
       <c r="C29" s="23"/>
       <c r="D29" s="17"/>
       <c r="E29" s="37"/>
-      <c r="F29" s="140"/>
+      <c r="F29" s="138"/>
       <c r="G29" s="17">
         <v>140</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="15">
-      <c r="A30" s="137" t="s">
+      <c r="A30" s="114" t="s">
         <v>27</v>
       </c>
-      <c r="B30" s="139">
+      <c r="B30" s="131">
         <v>43754</v>
       </c>
-      <c r="C30" s="138"/>
+      <c r="C30" s="123"/>
       <c r="D30" s="28"/>
       <c r="E30" s="133"/>
-      <c r="F30" s="140"/>
+      <c r="F30" s="138"/>
       <c r="G30" s="28">
         <v>140</v>
       </c>
@@ -2384,8 +2380,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="14.25"/>
@@ -2400,15 +2396,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="140" t="s">
+      <c r="A1" s="138" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="140"/>
-      <c r="C1" s="140"/>
-      <c r="D1" s="140"/>
-      <c r="E1" s="140"/>
-      <c r="F1" s="140"/>
-      <c r="G1" s="140"/>
+      <c r="B1" s="138"/>
+      <c r="C1" s="138"/>
+      <c r="D1" s="138"/>
+      <c r="E1" s="138"/>
+      <c r="F1" s="138"/>
+      <c r="G1" s="138"/>
     </row>
     <row r="2" spans="1:8" ht="15">
       <c r="A2" s="3" t="s">
@@ -2446,7 +2442,7 @@
       </c>
       <c r="D3" s="9"/>
       <c r="E3" s="32"/>
-      <c r="F3" s="140" t="s">
+      <c r="F3" s="138" t="s">
         <v>11</v>
       </c>
       <c r="G3" s="33">
@@ -2465,7 +2461,7 @@
       </c>
       <c r="D4" s="15"/>
       <c r="E4" s="35"/>
-      <c r="F4" s="140"/>
+      <c r="F4" s="138"/>
       <c r="G4" s="36">
         <v>175</v>
       </c>
@@ -2482,7 +2478,7 @@
       </c>
       <c r="D5" s="15"/>
       <c r="E5" s="35"/>
-      <c r="F5" s="140"/>
+      <c r="F5" s="138"/>
       <c r="G5" s="36">
         <v>175</v>
       </c>
@@ -2499,7 +2495,7 @@
       </c>
       <c r="D6" s="17"/>
       <c r="E6" s="37"/>
-      <c r="F6" s="140"/>
+      <c r="F6" s="138"/>
       <c r="G6" s="36">
         <v>175</v>
       </c>
@@ -2516,7 +2512,7 @@
       </c>
       <c r="D7" s="17"/>
       <c r="E7" s="37"/>
-      <c r="F7" s="140"/>
+      <c r="F7" s="138"/>
       <c r="G7" s="36">
         <v>175</v>
       </c>
@@ -2533,7 +2529,7 @@
       </c>
       <c r="D8" s="17"/>
       <c r="E8" s="37"/>
-      <c r="F8" s="140"/>
+      <c r="F8" s="138"/>
       <c r="G8" s="36">
         <v>175</v>
       </c>
@@ -2552,7 +2548,7 @@
         <v>41</v>
       </c>
       <c r="E9" s="37"/>
-      <c r="F9" s="140"/>
+      <c r="F9" s="138"/>
       <c r="G9" s="36">
         <v>175</v>
       </c>
@@ -2569,7 +2565,7 @@
       </c>
       <c r="D10" s="39"/>
       <c r="E10" s="40"/>
-      <c r="F10" s="140"/>
+      <c r="F10" s="138"/>
       <c r="G10" s="36">
         <v>175</v>
       </c>
@@ -2588,7 +2584,7 @@
         <v>42</v>
       </c>
       <c r="E11" s="2"/>
-      <c r="F11" s="140" t="s">
+      <c r="F11" s="138" t="s">
         <v>31</v>
       </c>
       <c r="G11" s="17">
@@ -2610,7 +2606,7 @@
         <v>32</v>
       </c>
       <c r="E12" s="2"/>
-      <c r="F12" s="140"/>
+      <c r="F12" s="138"/>
       <c r="G12" s="17">
         <v>175</v>
       </c>
@@ -2630,7 +2626,7 @@
         <v>44</v>
       </c>
       <c r="E13" s="2"/>
-      <c r="F13" s="140"/>
+      <c r="F13" s="138"/>
       <c r="G13" s="17">
         <v>175</v>
       </c>
@@ -2652,7 +2648,7 @@
       <c r="E14" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="F14" s="140"/>
+      <c r="F14" s="138"/>
       <c r="G14" s="17">
         <v>175</v>
       </c>
@@ -2674,7 +2670,7 @@
       <c r="E15" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="F15" s="140"/>
+      <c r="F15" s="138"/>
       <c r="G15" s="17">
         <v>175</v>
       </c>
@@ -2696,7 +2692,7 @@
       <c r="E16" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="F16" s="140"/>
+      <c r="F16" s="138"/>
       <c r="G16" s="17">
         <v>175</v>
       </c>
@@ -2718,7 +2714,7 @@
       <c r="E17" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="F17" s="140"/>
+      <c r="F17" s="138"/>
       <c r="G17" s="17">
         <v>175</v>
       </c>
@@ -2731,12 +2727,14 @@
       <c r="B18" s="131">
         <v>43729</v>
       </c>
-      <c r="C18" s="23"/>
+      <c r="C18" s="36" t="s">
+        <v>29</v>
+      </c>
       <c r="D18" s="15"/>
       <c r="E18" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="F18" s="140"/>
+      <c r="F18" s="138"/>
       <c r="G18" s="17">
         <v>175</v>
       </c>
@@ -2752,7 +2750,7 @@
       <c r="C19" s="33"/>
       <c r="D19" s="8"/>
       <c r="E19" s="6"/>
-      <c r="F19" s="140" t="s">
+      <c r="F19" s="138" t="s">
         <v>39</v>
       </c>
       <c r="G19" s="36">
@@ -2770,7 +2768,7 @@
       <c r="C20" s="36"/>
       <c r="D20" s="107"/>
       <c r="E20" s="37"/>
-      <c r="F20" s="140"/>
+      <c r="F20" s="138"/>
       <c r="G20" s="36">
         <v>175</v>
       </c>
@@ -2786,7 +2784,7 @@
       <c r="C21" s="36"/>
       <c r="D21" s="107"/>
       <c r="E21" s="37"/>
-      <c r="F21" s="140"/>
+      <c r="F21" s="138"/>
       <c r="G21" s="36">
         <v>175</v>
       </c>
@@ -2796,13 +2794,13 @@
       <c r="A22" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="B22" s="126">
+      <c r="B22" s="137">
         <v>43757</v>
       </c>
       <c r="C22" s="36"/>
       <c r="D22" s="107"/>
       <c r="E22" s="37"/>
-      <c r="F22" s="140"/>
+      <c r="F22" s="138"/>
       <c r="G22" s="36">
         <v>175</v>
       </c>
@@ -2818,7 +2816,7 @@
       <c r="C23" s="134"/>
       <c r="D23" s="107"/>
       <c r="E23" s="37"/>
-      <c r="F23" s="140"/>
+      <c r="F23" s="138"/>
       <c r="G23" s="36">
         <v>175</v>
       </c>
@@ -2833,7 +2831,7 @@
       <c r="C24" s="36"/>
       <c r="D24" s="107"/>
       <c r="E24" s="37"/>
-      <c r="F24" s="140"/>
+      <c r="F24" s="138"/>
       <c r="G24" s="36">
         <v>175</v>
       </c>
@@ -2848,7 +2846,7 @@
       <c r="C25" s="36"/>
       <c r="D25" s="107"/>
       <c r="E25" s="37"/>
-      <c r="F25" s="140"/>
+      <c r="F25" s="138"/>
       <c r="G25" s="36">
         <v>175</v>
       </c>
@@ -2863,7 +2861,7 @@
       <c r="C26" s="44"/>
       <c r="D26" s="41"/>
       <c r="E26" s="40"/>
-      <c r="F26" s="140"/>
+      <c r="F26" s="138"/>
       <c r="G26" s="44">
         <v>175</v>
       </c>
@@ -2909,16 +2907,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15">
-      <c r="A1" s="141" t="s">
+      <c r="A1" s="139" t="s">
         <v>76</v>
       </c>
-      <c r="B1" s="141"/>
-      <c r="C1" s="141"/>
-      <c r="D1" s="141"/>
-      <c r="E1" s="141"/>
-      <c r="F1" s="141"/>
-      <c r="G1" s="141"/>
-      <c r="H1" s="141"/>
+      <c r="B1" s="139"/>
+      <c r="C1" s="139"/>
+      <c r="D1" s="139"/>
+      <c r="E1" s="139"/>
+      <c r="F1" s="139"/>
+      <c r="G1" s="139"/>
+      <c r="H1" s="139"/>
     </row>
     <row r="2" spans="1:9" ht="15">
       <c r="A2" s="3" t="s">
@@ -2960,7 +2958,7 @@
       </c>
       <c r="E3" s="10"/>
       <c r="F3" s="10"/>
-      <c r="G3" s="142" t="s">
+      <c r="G3" s="140" t="s">
         <v>11</v>
       </c>
       <c r="H3" s="11">
@@ -2980,7 +2978,7 @@
       <c r="D4" s="45"/>
       <c r="E4" s="16"/>
       <c r="F4" s="2"/>
-      <c r="G4" s="142"/>
+      <c r="G4" s="140"/>
       <c r="H4" s="17">
         <v>140</v>
       </c>
@@ -2998,7 +2996,7 @@
       <c r="D5" s="45"/>
       <c r="E5" s="16"/>
       <c r="F5" s="2"/>
-      <c r="G5" s="142"/>
+      <c r="G5" s="140"/>
       <c r="H5" s="17">
         <v>140</v>
       </c>
@@ -3016,7 +3014,7 @@
       <c r="D6" s="45"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
-      <c r="G6" s="142"/>
+      <c r="G6" s="140"/>
       <c r="H6" s="17">
         <v>140</v>
       </c>
@@ -3036,7 +3034,7 @@
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
-      <c r="G7" s="142"/>
+      <c r="G7" s="140"/>
       <c r="H7" s="17">
         <v>140</v>
       </c>
@@ -3056,7 +3054,7 @@
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
-      <c r="G8" s="142"/>
+      <c r="G8" s="140"/>
       <c r="H8" s="17">
         <v>140</v>
       </c>
@@ -3076,7 +3074,7 @@
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
-      <c r="G9" s="142"/>
+      <c r="G9" s="140"/>
       <c r="H9" s="17">
         <v>140</v>
       </c>
@@ -3096,7 +3094,7 @@
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
-      <c r="G10" s="142"/>
+      <c r="G10" s="140"/>
       <c r="H10" s="17">
         <v>140</v>
       </c>
@@ -3114,7 +3112,7 @@
       <c r="D11" s="17"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
-      <c r="G11" s="142"/>
+      <c r="G11" s="140"/>
       <c r="H11" s="17">
         <v>140</v>
       </c>
@@ -3135,7 +3133,7 @@
       </c>
       <c r="E12" s="20"/>
       <c r="F12" s="41"/>
-      <c r="G12" s="142"/>
+      <c r="G12" s="140"/>
       <c r="H12" s="17">
         <v>140</v>
       </c>
@@ -3158,7 +3156,7 @@
       </c>
       <c r="E13" s="10"/>
       <c r="F13" s="10"/>
-      <c r="G13" s="142" t="s">
+      <c r="G13" s="140" t="s">
         <v>31</v>
       </c>
       <c r="H13" s="17">
@@ -3181,7 +3179,7 @@
       </c>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
-      <c r="G14" s="142"/>
+      <c r="G14" s="140"/>
       <c r="H14" s="17">
         <v>140</v>
       </c>
@@ -3202,7 +3200,7 @@
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
-      <c r="G15" s="142"/>
+      <c r="G15" s="140"/>
       <c r="H15" s="17">
         <v>140</v>
       </c>
@@ -3223,7 +3221,7 @@
       </c>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
-      <c r="G16" s="142"/>
+      <c r="G16" s="140"/>
       <c r="H16" s="17">
         <v>140</v>
       </c>
@@ -3246,7 +3244,7 @@
         <v>33</v>
       </c>
       <c r="F17" s="2"/>
-      <c r="G17" s="142"/>
+      <c r="G17" s="140"/>
       <c r="H17" s="17">
         <v>140</v>
       </c>
@@ -3269,7 +3267,7 @@
         <v>35</v>
       </c>
       <c r="F18" s="2"/>
-      <c r="G18" s="142"/>
+      <c r="G18" s="140"/>
       <c r="H18" s="17">
         <v>140</v>
       </c>
@@ -3292,7 +3290,7 @@
         <v>37</v>
       </c>
       <c r="F19" s="42"/>
-      <c r="G19" s="142"/>
+      <c r="G19" s="140"/>
       <c r="H19" s="48">
         <v>140</v>
       </c>
@@ -3315,7 +3313,7 @@
         <v>37</v>
       </c>
       <c r="F20" s="2"/>
-      <c r="G20" s="142"/>
+      <c r="G20" s="140"/>
       <c r="H20" s="17">
         <v>140</v>
       </c>
@@ -3338,7 +3336,7 @@
         <v>38</v>
       </c>
       <c r="F21" s="2"/>
-      <c r="G21" s="142"/>
+      <c r="G21" s="140"/>
       <c r="H21" s="17">
         <v>140</v>
       </c>
@@ -3361,7 +3359,7 @@
         <v>81</v>
       </c>
       <c r="F22" s="107"/>
-      <c r="G22" s="143"/>
+      <c r="G22" s="141"/>
       <c r="H22" s="17">
         <v>140</v>
       </c>
@@ -3386,7 +3384,7 @@
         <v>55</v>
       </c>
       <c r="F23" s="121"/>
-      <c r="G23" s="143" t="s">
+      <c r="G23" s="141" t="s">
         <v>39</v>
       </c>
       <c r="H23" s="17">
@@ -3407,7 +3405,7 @@
       </c>
       <c r="E24" s="107"/>
       <c r="F24" s="107"/>
-      <c r="G24" s="144"/>
+      <c r="G24" s="142"/>
       <c r="H24" s="17">
         <v>140</v>
       </c>
@@ -3428,7 +3426,7 @@
         <v>60</v>
       </c>
       <c r="F25" s="107"/>
-      <c r="G25" s="144"/>
+      <c r="G25" s="142"/>
       <c r="H25" s="17">
         <v>140</v>
       </c>
@@ -3449,7 +3447,7 @@
         <v>63</v>
       </c>
       <c r="F26" s="107"/>
-      <c r="G26" s="144"/>
+      <c r="G26" s="142"/>
       <c r="H26" s="17">
         <v>140</v>
       </c>
@@ -3470,7 +3468,7 @@
         <v>66</v>
       </c>
       <c r="F27" s="107"/>
-      <c r="G27" s="144"/>
+      <c r="G27" s="142"/>
       <c r="H27" s="17">
         <v>140</v>
       </c>
@@ -3490,7 +3488,7 @@
         <v>69</v>
       </c>
       <c r="F28" s="107"/>
-      <c r="G28" s="144"/>
+      <c r="G28" s="142"/>
       <c r="H28" s="17">
         <v>140</v>
       </c>
@@ -3510,7 +3508,7 @@
         <v>72</v>
       </c>
       <c r="F29" s="107"/>
-      <c r="G29" s="144"/>
+      <c r="G29" s="142"/>
       <c r="H29" s="17">
         <v>140</v>
       </c>
@@ -3530,7 +3528,7 @@
         <v>72</v>
       </c>
       <c r="F30" s="107"/>
-      <c r="G30" s="144"/>
+      <c r="G30" s="142"/>
       <c r="H30" s="17">
         <v>140</v>
       </c>
@@ -3550,7 +3548,7 @@
         <v>91</v>
       </c>
       <c r="F31" s="107"/>
-      <c r="G31" s="144"/>
+      <c r="G31" s="142"/>
       <c r="H31" s="17">
         <v>140</v>
       </c>
@@ -3568,7 +3566,7 @@
         <v>93</v>
       </c>
       <c r="F32" s="41"/>
-      <c r="G32" s="145"/>
+      <c r="G32" s="143"/>
       <c r="H32" s="28">
         <v>140</v>
       </c>
@@ -3616,16 +3614,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12.6" customHeight="1">
-      <c r="A1" s="141" t="s">
+      <c r="A1" s="139" t="s">
         <v>94</v>
       </c>
-      <c r="B1" s="141"/>
-      <c r="C1" s="141"/>
-      <c r="D1" s="141"/>
-      <c r="E1" s="141"/>
-      <c r="F1" s="141"/>
-      <c r="G1" s="141"/>
-      <c r="H1" s="141"/>
+      <c r="B1" s="139"/>
+      <c r="C1" s="139"/>
+      <c r="D1" s="139"/>
+      <c r="E1" s="139"/>
+      <c r="F1" s="139"/>
+      <c r="G1" s="139"/>
+      <c r="H1" s="139"/>
     </row>
     <row r="2" spans="1:10" ht="15">
       <c r="A2" s="3" t="s">
@@ -3669,7 +3667,7 @@
       <c r="F3" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="G3" s="142" t="s">
+      <c r="G3" s="140" t="s">
         <v>11</v>
       </c>
       <c r="H3" s="11">
@@ -3692,7 +3690,7 @@
       <c r="F4" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="G4" s="142"/>
+      <c r="G4" s="140"/>
       <c r="H4" s="17">
         <v>140</v>
       </c>
@@ -3713,7 +3711,7 @@
       <c r="F5" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="G5" s="142"/>
+      <c r="G5" s="140"/>
       <c r="H5" s="17">
         <v>140</v>
       </c>
@@ -3735,7 +3733,7 @@
       <c r="F6" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="G6" s="142"/>
+      <c r="G6" s="140"/>
       <c r="H6" s="17">
         <v>140</v>
       </c>
@@ -3757,7 +3755,7 @@
       <c r="F7" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="G7" s="142"/>
+      <c r="G7" s="140"/>
       <c r="H7" s="17">
         <v>140</v>
       </c>
@@ -3779,7 +3777,7 @@
       <c r="F8" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="G8" s="142"/>
+      <c r="G8" s="140"/>
       <c r="H8" s="17">
         <v>140</v>
       </c>
@@ -3801,7 +3799,7 @@
       <c r="F9" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="G9" s="142"/>
+      <c r="G9" s="140"/>
       <c r="H9" s="17">
         <v>140</v>
       </c>
@@ -3822,7 +3820,7 @@
       <c r="F10" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="G10" s="142"/>
+      <c r="G10" s="140"/>
       <c r="H10" s="17">
         <v>140</v>
       </c>
@@ -3843,7 +3841,7 @@
       <c r="F11" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="G11" s="142"/>
+      <c r="G11" s="140"/>
       <c r="H11" s="17">
         <v>140</v>
       </c>
@@ -3864,7 +3862,7 @@
       <c r="F12" s="41" t="s">
         <v>107</v>
       </c>
-      <c r="G12" s="142"/>
+      <c r="G12" s="140"/>
       <c r="H12" s="17">
         <v>140</v>
       </c>
@@ -3886,7 +3884,7 @@
       <c r="F13" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="G13" s="142" t="s">
+      <c r="G13" s="140" t="s">
         <v>31</v>
       </c>
       <c r="H13" s="17">
@@ -3911,7 +3909,7 @@
       <c r="F14" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="G14" s="142"/>
+      <c r="G14" s="140"/>
       <c r="H14" s="17">
         <v>140</v>
       </c>
@@ -3934,7 +3932,7 @@
       <c r="F15" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="G15" s="142"/>
+      <c r="G15" s="140"/>
       <c r="H15" s="17">
         <v>140</v>
       </c>
@@ -3956,7 +3954,7 @@
       <c r="F16" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="G16" s="142"/>
+      <c r="G16" s="140"/>
       <c r="H16" s="17">
         <v>140</v>
       </c>
@@ -3981,7 +3979,7 @@
       <c r="F17" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="G17" s="142"/>
+      <c r="G17" s="140"/>
       <c r="H17" s="17">
         <v>140</v>
       </c>
@@ -4006,7 +4004,7 @@
       <c r="F18" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="G18" s="142"/>
+      <c r="G18" s="140"/>
       <c r="H18" s="17">
         <v>140</v>
       </c>
@@ -4031,7 +4029,7 @@
       <c r="F19" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="G19" s="142"/>
+      <c r="G19" s="140"/>
       <c r="H19" s="17">
         <v>140</v>
       </c>
@@ -4056,7 +4054,7 @@
       <c r="F20" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="G20" s="142"/>
+      <c r="G20" s="140"/>
       <c r="H20" s="17">
         <v>140</v>
       </c>
@@ -4081,7 +4079,7 @@
       <c r="F21" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="G21" s="142"/>
+      <c r="G21" s="140"/>
       <c r="H21" s="17">
         <v>140</v>
       </c>
@@ -4106,7 +4104,7 @@
       <c r="F22" s="41" t="s">
         <v>107</v>
       </c>
-      <c r="G22" s="142"/>
+      <c r="G22" s="140"/>
       <c r="H22" s="17">
         <v>140</v>
       </c>
@@ -4134,7 +4132,7 @@
       <c r="F23" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="G23" s="142" t="s">
+      <c r="G23" s="140" t="s">
         <v>39</v>
       </c>
       <c r="H23" s="17">
@@ -4161,7 +4159,7 @@
       <c r="F24" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="G24" s="142"/>
+      <c r="G24" s="140"/>
       <c r="H24" s="17">
         <v>140</v>
       </c>
@@ -4186,7 +4184,7 @@
       <c r="F25" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="G25" s="142"/>
+      <c r="G25" s="140"/>
       <c r="H25" s="17">
         <v>140</v>
       </c>
@@ -4211,7 +4209,7 @@
       <c r="F26" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="G26" s="142"/>
+      <c r="G26" s="140"/>
       <c r="H26" s="17">
         <v>140</v>
       </c>
@@ -4236,7 +4234,7 @@
       <c r="F27" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="G27" s="142"/>
+      <c r="G27" s="140"/>
       <c r="H27" s="17">
         <v>140</v>
       </c>
@@ -4260,7 +4258,7 @@
       <c r="F28" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="G28" s="142"/>
+      <c r="G28" s="140"/>
       <c r="H28" s="17">
         <v>140</v>
       </c>
@@ -4284,7 +4282,7 @@
       <c r="F29" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="G29" s="142"/>
+      <c r="G29" s="140"/>
       <c r="H29" s="17">
         <v>140</v>
       </c>
@@ -4308,7 +4306,7 @@
       <c r="F30" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="G30" s="142"/>
+      <c r="G30" s="140"/>
       <c r="H30" s="17">
         <v>140</v>
       </c>
@@ -4332,7 +4330,7 @@
       <c r="F31" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="G31" s="142"/>
+      <c r="G31" s="140"/>
       <c r="H31" s="17">
         <v>140</v>
       </c>
@@ -4352,7 +4350,7 @@
       <c r="F32" s="41" t="s">
         <v>107</v>
       </c>
-      <c r="G32" s="142"/>
+      <c r="G32" s="140"/>
       <c r="H32" s="28">
         <v>140</v>
       </c>
@@ -4407,16 +4405,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="146" t="s">
+      <c r="A1" s="144" t="s">
         <v>113</v>
       </c>
-      <c r="B1" s="146"/>
-      <c r="C1" s="146"/>
-      <c r="D1" s="146"/>
-      <c r="E1" s="146"/>
-      <c r="F1" s="146"/>
-      <c r="G1" s="146"/>
-      <c r="H1" s="146"/>
+      <c r="B1" s="144"/>
+      <c r="C1" s="144"/>
+      <c r="D1" s="144"/>
+      <c r="E1" s="144"/>
+      <c r="F1" s="144"/>
+      <c r="G1" s="144"/>
+      <c r="H1" s="144"/>
     </row>
     <row r="2" spans="1:10" ht="15">
       <c r="A2" s="68" t="s">
@@ -4455,7 +4453,7 @@
       <c r="F3" s="33" t="s">
         <v>97</v>
       </c>
-      <c r="G3" s="140" t="s">
+      <c r="G3" s="138" t="s">
         <v>11</v>
       </c>
       <c r="H3" s="33">
@@ -4478,7 +4476,7 @@
       <c r="F4" s="36" t="s">
         <v>98</v>
       </c>
-      <c r="G4" s="140"/>
+      <c r="G4" s="138"/>
       <c r="H4" s="36">
         <v>120</v>
       </c>
@@ -4499,7 +4497,7 @@
       <c r="F5" s="36" t="s">
         <v>99</v>
       </c>
-      <c r="G5" s="140"/>
+      <c r="G5" s="138"/>
       <c r="H5" s="36">
         <v>120</v>
       </c>
@@ -4520,7 +4518,7 @@
       <c r="F6" s="36" t="s">
         <v>100</v>
       </c>
-      <c r="G6" s="140"/>
+      <c r="G6" s="138"/>
       <c r="H6" s="36">
         <v>120</v>
       </c>
@@ -4541,7 +4539,7 @@
       <c r="F7" s="36" t="s">
         <v>101</v>
       </c>
-      <c r="G7" s="140"/>
+      <c r="G7" s="138"/>
       <c r="H7" s="36">
         <v>120</v>
       </c>
@@ -4562,7 +4560,7 @@
       <c r="F8" s="36" t="s">
         <v>102</v>
       </c>
-      <c r="G8" s="140"/>
+      <c r="G8" s="138"/>
       <c r="H8" s="36">
         <v>120</v>
       </c>
@@ -4583,7 +4581,7 @@
       <c r="F9" s="36" t="s">
         <v>103</v>
       </c>
-      <c r="G9" s="140"/>
+      <c r="G9" s="138"/>
       <c r="H9" s="36">
         <v>120</v>
       </c>
@@ -4603,7 +4601,7 @@
       <c r="F10" s="36" t="s">
         <v>105</v>
       </c>
-      <c r="G10" s="140"/>
+      <c r="G10" s="138"/>
       <c r="H10" s="36">
         <v>120</v>
       </c>
@@ -4623,7 +4621,7 @@
       <c r="F11" s="36" t="s">
         <v>106</v>
       </c>
-      <c r="G11" s="140"/>
+      <c r="G11" s="138"/>
       <c r="H11" s="36">
         <v>120</v>
       </c>
@@ -4644,7 +4642,7 @@
       <c r="F12" s="44" t="s">
         <v>107</v>
       </c>
-      <c r="G12" s="140"/>
+      <c r="G12" s="138"/>
       <c r="H12" s="36">
         <v>120</v>
       </c>
@@ -4672,7 +4670,7 @@
       <c r="F13" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="G13" s="140" t="s">
+      <c r="G13" s="138" t="s">
         <v>31</v>
       </c>
       <c r="H13" s="36">
@@ -4696,7 +4694,7 @@
       <c r="F14" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="G14" s="140"/>
+      <c r="G14" s="138"/>
       <c r="H14" s="36">
         <v>120</v>
       </c>
@@ -4718,7 +4716,7 @@
       <c r="F15" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="G15" s="140"/>
+      <c r="G15" s="138"/>
       <c r="H15" s="36">
         <v>120</v>
       </c>
@@ -4740,7 +4738,7 @@
       <c r="F16" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="G16" s="140"/>
+      <c r="G16" s="138"/>
       <c r="H16" s="36">
         <v>120</v>
       </c>
@@ -4765,7 +4763,7 @@
       <c r="F17" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="G17" s="140"/>
+      <c r="G17" s="138"/>
       <c r="H17" s="36">
         <v>120</v>
       </c>
@@ -4790,7 +4788,7 @@
       <c r="F18" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="G18" s="140"/>
+      <c r="G18" s="138"/>
       <c r="H18" s="36">
         <v>120</v>
       </c>
@@ -4815,7 +4813,7 @@
       <c r="F19" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="G19" s="140"/>
+      <c r="G19" s="138"/>
       <c r="H19" s="36">
         <v>120</v>
       </c>
@@ -4840,7 +4838,7 @@
       <c r="F20" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="G20" s="140"/>
+      <c r="G20" s="138"/>
       <c r="H20" s="36">
         <v>120</v>
       </c>
@@ -4865,7 +4863,7 @@
       <c r="F21" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="G21" s="140"/>
+      <c r="G21" s="138"/>
       <c r="H21" s="36">
         <v>120</v>
       </c>
@@ -4890,7 +4888,7 @@
       <c r="F22" s="41" t="s">
         <v>107</v>
       </c>
-      <c r="G22" s="140"/>
+      <c r="G22" s="138"/>
       <c r="H22" s="36">
         <v>120</v>
       </c>
@@ -4921,7 +4919,7 @@
       <c r="F23" s="33" t="s">
         <v>97</v>
       </c>
-      <c r="G23" s="140" t="s">
+      <c r="G23" s="138" t="s">
         <v>39</v>
       </c>
       <c r="H23" s="36">
@@ -4948,7 +4946,7 @@
       <c r="F24" s="36" t="s">
         <v>98</v>
       </c>
-      <c r="G24" s="140"/>
+      <c r="G24" s="138"/>
       <c r="H24" s="36">
         <v>120</v>
       </c>
@@ -4973,7 +4971,7 @@
       <c r="F25" s="36" t="s">
         <v>99</v>
       </c>
-      <c r="G25" s="140"/>
+      <c r="G25" s="138"/>
       <c r="H25" s="36">
         <v>120</v>
       </c>
@@ -4998,7 +4996,7 @@
       <c r="F26" s="36" t="s">
         <v>100</v>
       </c>
-      <c r="G26" s="140"/>
+      <c r="G26" s="138"/>
       <c r="H26" s="36">
         <v>120</v>
       </c>
@@ -5023,7 +5021,7 @@
       <c r="F27" s="36" t="s">
         <v>101</v>
       </c>
-      <c r="G27" s="140"/>
+      <c r="G27" s="138"/>
       <c r="H27" s="36">
         <v>120</v>
       </c>
@@ -5047,7 +5045,7 @@
       <c r="F28" s="36" t="s">
         <v>102</v>
       </c>
-      <c r="G28" s="140"/>
+      <c r="G28" s="138"/>
       <c r="H28" s="36">
         <v>120</v>
       </c>
@@ -5071,7 +5069,7 @@
       <c r="F29" s="36" t="s">
         <v>103</v>
       </c>
-      <c r="G29" s="140"/>
+      <c r="G29" s="138"/>
       <c r="H29" s="36">
         <v>120</v>
       </c>
@@ -5095,7 +5093,7 @@
       <c r="F30" s="36" t="s">
         <v>105</v>
       </c>
-      <c r="G30" s="140"/>
+      <c r="G30" s="138"/>
       <c r="H30" s="36">
         <v>120</v>
       </c>
@@ -5119,7 +5117,7 @@
       <c r="F31" s="36" t="s">
         <v>106</v>
       </c>
-      <c r="G31" s="140"/>
+      <c r="G31" s="138"/>
       <c r="H31" s="36">
         <v>120</v>
       </c>
@@ -5141,7 +5139,7 @@
       <c r="F32" s="77" t="s">
         <v>107</v>
       </c>
-      <c r="G32" s="140"/>
+      <c r="G32" s="138"/>
       <c r="H32" s="77">
         <v>120</v>
       </c>
@@ -5212,15 +5210,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="146" t="s">
+      <c r="A1" s="144" t="s">
         <v>125</v>
       </c>
-      <c r="B1" s="146"/>
-      <c r="C1" s="146"/>
-      <c r="D1" s="146"/>
-      <c r="E1" s="146"/>
-      <c r="F1" s="146"/>
-      <c r="G1" s="146"/>
+      <c r="B1" s="144"/>
+      <c r="C1" s="144"/>
+      <c r="D1" s="144"/>
+      <c r="E1" s="144"/>
+      <c r="F1" s="144"/>
+      <c r="G1" s="144"/>
     </row>
     <row r="2" spans="1:9" ht="15">
       <c r="A2" s="68" t="s">
@@ -5261,7 +5259,7 @@
       <c r="F3" s="10">
         <v>5</v>
       </c>
-      <c r="G3" s="140" t="s">
+      <c r="G3" s="138" t="s">
         <v>11</v>
       </c>
     </row>
@@ -5280,7 +5278,7 @@
       <c r="F4" s="2">
         <v>5</v>
       </c>
-      <c r="G4" s="140"/>
+      <c r="G4" s="138"/>
     </row>
     <row r="5" spans="1:9" ht="15">
       <c r="A5" s="62" t="s">
@@ -5297,7 +5295,7 @@
       <c r="F5" s="2">
         <v>5</v>
       </c>
-      <c r="G5" s="140"/>
+      <c r="G5" s="138"/>
     </row>
     <row r="6" spans="1:9" ht="15">
       <c r="A6" s="62" t="s">
@@ -5314,7 +5312,7 @@
       <c r="F6" s="2">
         <v>5</v>
       </c>
-      <c r="G6" s="140"/>
+      <c r="G6" s="138"/>
     </row>
     <row r="7" spans="1:9" ht="15">
       <c r="A7" s="62" t="s">
@@ -5331,7 +5329,7 @@
       <c r="F7" s="2">
         <v>5</v>
       </c>
-      <c r="G7" s="140"/>
+      <c r="G7" s="138"/>
     </row>
     <row r="8" spans="1:9" ht="15">
       <c r="A8" s="62" t="s">
@@ -5348,7 +5346,7 @@
       <c r="F8" s="2">
         <v>5</v>
       </c>
-      <c r="G8" s="140"/>
+      <c r="G8" s="138"/>
     </row>
     <row r="9" spans="1:9" ht="15">
       <c r="A9" s="62" t="s">
@@ -5365,7 +5363,7 @@
       <c r="F9" s="2">
         <v>5</v>
       </c>
-      <c r="G9" s="140"/>
+      <c r="G9" s="138"/>
       <c r="H9" s="2"/>
     </row>
     <row r="10" spans="1:9" ht="15">
@@ -5383,7 +5381,7 @@
       <c r="F10" s="2">
         <v>5</v>
       </c>
-      <c r="G10" s="140"/>
+      <c r="G10" s="138"/>
       <c r="H10" s="2"/>
     </row>
     <row r="11" spans="1:9" ht="15">
@@ -5403,7 +5401,7 @@
       <c r="F11" s="89" t="s">
         <v>97</v>
       </c>
-      <c r="G11" s="147" t="s">
+      <c r="G11" s="145" t="s">
         <v>31</v>
       </c>
       <c r="H11" s="2"/>
@@ -5425,7 +5423,7 @@
       <c r="F12" s="94" t="s">
         <v>98</v>
       </c>
-      <c r="G12" s="147"/>
+      <c r="G12" s="145"/>
       <c r="H12" s="2"/>
     </row>
     <row r="13" spans="1:9" ht="15">
@@ -5445,7 +5443,7 @@
       <c r="F13" s="94" t="s">
         <v>99</v>
       </c>
-      <c r="G13" s="147"/>
+      <c r="G13" s="145"/>
       <c r="H13" s="2"/>
     </row>
     <row r="14" spans="1:9" ht="15">
@@ -5467,7 +5465,7 @@
       <c r="F14" s="94" t="s">
         <v>100</v>
       </c>
-      <c r="G14" s="147"/>
+      <c r="G14" s="145"/>
       <c r="H14" s="71">
         <v>43371</v>
       </c>
@@ -5494,7 +5492,7 @@
       <c r="F15" s="94" t="s">
         <v>101</v>
       </c>
-      <c r="G15" s="147"/>
+      <c r="G15" s="145"/>
       <c r="H15" s="2"/>
     </row>
     <row r="16" spans="1:9" ht="15">
@@ -5516,7 +5514,7 @@
       <c r="F16" s="94" t="s">
         <v>102</v>
       </c>
-      <c r="G16" s="147"/>
+      <c r="G16" s="145"/>
       <c r="H16" s="2"/>
     </row>
     <row r="17" spans="1:9" ht="15">
@@ -5538,7 +5536,7 @@
       <c r="F17" s="94" t="s">
         <v>103</v>
       </c>
-      <c r="G17" s="147"/>
+      <c r="G17" s="145"/>
       <c r="H17" s="2"/>
     </row>
     <row r="18" spans="1:9" ht="15">
@@ -5560,7 +5558,7 @@
       <c r="F18" s="50" t="s">
         <v>105</v>
       </c>
-      <c r="G18" s="147"/>
+      <c r="G18" s="145"/>
       <c r="H18" s="71">
         <v>43409</v>
       </c>
@@ -5585,7 +5583,7 @@
       <c r="F19" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="G19" s="140" t="s">
+      <c r="G19" s="138" t="s">
         <v>39</v>
       </c>
       <c r="H19" s="2"/>
@@ -5609,7 +5607,7 @@
       <c r="F20" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="G20" s="140"/>
+      <c r="G20" s="138"/>
       <c r="H20" s="2"/>
     </row>
     <row r="21" spans="1:9" ht="15">
@@ -5631,7 +5629,7 @@
       <c r="F21" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="G21" s="140"/>
+      <c r="G21" s="138"/>
       <c r="H21" s="2"/>
     </row>
     <row r="22" spans="1:9" ht="15">
@@ -5653,7 +5651,7 @@
       <c r="F22" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="G22" s="140"/>
+      <c r="G22" s="138"/>
       <c r="H22" s="65">
         <v>43448</v>
       </c>
@@ -5680,7 +5678,7 @@
       <c r="F23" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="G23" s="140"/>
+      <c r="G23" s="138"/>
       <c r="H23" s="2"/>
     </row>
     <row r="24" spans="1:9" ht="15">
@@ -5702,7 +5700,7 @@
       <c r="F24" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="G24" s="140"/>
+      <c r="G24" s="138"/>
       <c r="H24" s="2"/>
     </row>
     <row r="25" spans="1:9" ht="15">
@@ -5722,7 +5720,7 @@
       <c r="F25" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="G25" s="140"/>
+      <c r="G25" s="138"/>
     </row>
     <row r="26" spans="1:9" ht="15">
       <c r="A26" s="64" t="s">
@@ -5741,7 +5739,7 @@
       <c r="F26" s="41" t="s">
         <v>105</v>
       </c>
-      <c r="G26" s="140"/>
+      <c r="G26" s="138"/>
       <c r="I26" s="2">
         <v>600</v>
       </c>
@@ -5792,16 +5790,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="148" t="s">
+      <c r="A1" s="146" t="s">
         <v>142</v>
       </c>
-      <c r="B1" s="148"/>
-      <c r="C1" s="148"/>
-      <c r="D1" s="148"/>
-      <c r="E1" s="148"/>
-      <c r="F1" s="148"/>
-      <c r="G1" s="148"/>
-      <c r="H1" s="148"/>
+      <c r="B1" s="146"/>
+      <c r="C1" s="146"/>
+      <c r="D1" s="146"/>
+      <c r="E1" s="146"/>
+      <c r="F1" s="146"/>
+      <c r="G1" s="146"/>
+      <c r="H1" s="146"/>
     </row>
     <row r="2" spans="1:11" ht="15">
       <c r="A2" s="30" t="s">
@@ -5841,13 +5839,13 @@
       <c r="F3" s="2">
         <v>5</v>
       </c>
-      <c r="G3" s="148" t="s">
+      <c r="G3" s="146" t="s">
         <v>144</v>
       </c>
-      <c r="J3" s="149" t="s">
+      <c r="J3" s="147" t="s">
         <v>145</v>
       </c>
-      <c r="K3" s="149"/>
+      <c r="K3" s="147"/>
     </row>
     <row r="4" spans="1:11" ht="15">
       <c r="A4" s="80" t="s">
@@ -5862,7 +5860,7 @@
       <c r="F4" s="2">
         <v>5</v>
       </c>
-      <c r="G4" s="148"/>
+      <c r="G4" s="146"/>
       <c r="J4" t="s">
         <v>146</v>
       </c>
@@ -5884,7 +5882,7 @@
       <c r="F5" s="2">
         <v>5</v>
       </c>
-      <c r="G5" s="148"/>
+      <c r="G5" s="146"/>
       <c r="J5" t="s">
         <v>147</v>
       </c>
@@ -5906,7 +5904,7 @@
       <c r="F6" s="2">
         <v>5</v>
       </c>
-      <c r="G6" s="148"/>
+      <c r="G6" s="146"/>
       <c r="J6" t="s">
         <v>148</v>
       </c>
@@ -5928,7 +5926,7 @@
       <c r="F7" s="10">
         <v>5</v>
       </c>
-      <c r="G7" s="142" t="s">
+      <c r="G7" s="140" t="s">
         <v>11</v>
       </c>
       <c r="J7" t="s">
@@ -5952,7 +5950,7 @@
       <c r="F8" s="2">
         <v>5</v>
       </c>
-      <c r="G8" s="142"/>
+      <c r="G8" s="140"/>
       <c r="J8" t="s">
         <v>150</v>
       </c>
@@ -5974,7 +5972,7 @@
       <c r="F9" s="2">
         <v>5</v>
       </c>
-      <c r="G9" s="142"/>
+      <c r="G9" s="140"/>
       <c r="J9" t="s">
         <v>151</v>
       </c>
@@ -5996,7 +5994,7 @@
       <c r="F10" s="2">
         <v>5</v>
       </c>
-      <c r="G10" s="142"/>
+      <c r="G10" s="140"/>
       <c r="J10" t="s">
         <v>152</v>
       </c>
@@ -6018,7 +6016,7 @@
       <c r="F11" s="2">
         <v>5</v>
       </c>
-      <c r="G11" s="142"/>
+      <c r="G11" s="140"/>
       <c r="J11" t="s">
         <v>153</v>
       </c>
@@ -6040,7 +6038,7 @@
       <c r="F12" s="2">
         <v>5</v>
       </c>
-      <c r="G12" s="142"/>
+      <c r="G12" s="140"/>
       <c r="J12" t="s">
         <v>154</v>
       </c>
@@ -6062,7 +6060,7 @@
       <c r="F13" s="2">
         <v>5</v>
       </c>
-      <c r="G13" s="142"/>
+      <c r="G13" s="140"/>
     </row>
     <row r="14" spans="1:11" ht="15">
       <c r="A14" s="58" t="s">
@@ -6077,7 +6075,7 @@
       <c r="F14" s="41">
         <v>5</v>
       </c>
-      <c r="G14" s="142"/>
+      <c r="G14" s="140"/>
     </row>
     <row r="15" spans="1:11" ht="15">
       <c r="A15" s="52" t="s">
@@ -6092,7 +6090,7 @@
       <c r="F15" s="10">
         <v>1</v>
       </c>
-      <c r="G15" s="142" t="s">
+      <c r="G15" s="140" t="s">
         <v>31</v>
       </c>
     </row>
@@ -6111,7 +6109,7 @@
       <c r="F16" s="2">
         <v>2</v>
       </c>
-      <c r="G16" s="142"/>
+      <c r="G16" s="140"/>
     </row>
     <row r="17" spans="1:10" ht="15">
       <c r="A17" s="56" t="s">
@@ -6128,7 +6126,7 @@
       <c r="F17" s="2">
         <v>3</v>
       </c>
-      <c r="G17" s="142"/>
+      <c r="G17" s="140"/>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
     </row>
@@ -6147,7 +6145,7 @@
       <c r="F18" s="2">
         <v>4</v>
       </c>
-      <c r="G18" s="142"/>
+      <c r="G18" s="140"/>
     </row>
     <row r="19" spans="1:10" ht="15">
       <c r="A19" s="62" t="s">
@@ -6165,7 +6163,7 @@
       <c r="F19" s="2">
         <v>5</v>
       </c>
-      <c r="G19" s="142"/>
+      <c r="G19" s="140"/>
     </row>
     <row r="20" spans="1:10" ht="15">
       <c r="A20" s="62" t="s">
@@ -6183,7 +6181,7 @@
       <c r="F20" s="2">
         <v>6</v>
       </c>
-      <c r="G20" s="142"/>
+      <c r="G20" s="140"/>
     </row>
     <row r="21" spans="1:10" ht="15">
       <c r="A21" s="62" t="s">
@@ -6201,7 +6199,7 @@
       <c r="F21" s="2">
         <v>7</v>
       </c>
-      <c r="G21" s="142"/>
+      <c r="G21" s="140"/>
     </row>
     <row r="22" spans="1:10" ht="15">
       <c r="A22" s="64" t="s">
@@ -6220,7 +6218,7 @@
       <c r="F22" s="41">
         <v>8</v>
       </c>
-      <c r="G22" s="142"/>
+      <c r="G22" s="140"/>
     </row>
     <row r="23" spans="1:10" ht="15">
       <c r="A23" s="60" t="s">
@@ -6239,7 +6237,7 @@
       <c r="F23" s="10">
         <v>1</v>
       </c>
-      <c r="G23" s="142" t="s">
+      <c r="G23" s="140" t="s">
         <v>39</v>
       </c>
     </row>
@@ -6262,7 +6260,7 @@
       <c r="F24" s="2">
         <v>2</v>
       </c>
-      <c r="G24" s="142"/>
+      <c r="G24" s="140"/>
     </row>
     <row r="25" spans="1:10" ht="15">
       <c r="A25" s="62" t="s">
@@ -6283,7 +6281,7 @@
       <c r="F25" s="2">
         <v>3</v>
       </c>
-      <c r="G25" s="142"/>
+      <c r="G25" s="140"/>
     </row>
     <row r="26" spans="1:10" ht="15">
       <c r="A26" s="62" t="s">
@@ -6304,7 +6302,7 @@
       <c r="F26" s="2">
         <v>4</v>
       </c>
-      <c r="G26" s="142"/>
+      <c r="G26" s="140"/>
       <c r="H26" s="2" t="s">
         <v>159</v>
       </c>
@@ -6328,7 +6326,7 @@
       <c r="F27" s="2">
         <v>5</v>
       </c>
-      <c r="G27" s="142"/>
+      <c r="G27" s="140"/>
     </row>
     <row r="28" spans="1:10" ht="15">
       <c r="A28" s="62" t="s">
@@ -6349,7 +6347,7 @@
       <c r="F28" s="2">
         <v>6</v>
       </c>
-      <c r="G28" s="142"/>
+      <c r="G28" s="140"/>
     </row>
     <row r="29" spans="1:10" ht="15">
       <c r="A29" s="62" t="s">
@@ -6370,7 +6368,7 @@
       <c r="F29" s="2">
         <v>7</v>
       </c>
-      <c r="G29" s="142"/>
+      <c r="G29" s="140"/>
     </row>
     <row r="30" spans="1:10" ht="15">
       <c r="A30" s="64" t="s">
@@ -6391,7 +6389,7 @@
       <c r="F30" s="41">
         <v>8</v>
       </c>
-      <c r="G30" s="142"/>
+      <c r="G30" s="140"/>
       <c r="H30" s="71">
         <v>43396</v>
       </c>

--- a/Cronograma aulas/Aulas v2.xlsx
+++ b/Cronograma aulas/Aulas v2.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Linux Sab Vesp\Documents\github\aulas-3way\Cronograma aulas\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C887D22F-8521-4E41-9213-72F52FCE2FB2}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15" yWindow="15" windowWidth="21570" windowHeight="12870" tabRatio="489" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="489" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="t7_seg_e_qua" sheetId="1" r:id="rId1"/>
@@ -15,17 +21,24 @@
     <sheet name="t2_Sábado" sheetId="6" r:id="rId6"/>
     <sheet name="t1_Domingo_(finalizada)" sheetId="7" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="114210"/>
+  <calcPr calcId="181029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="D15" authorId="0">
+    <comment ref="D15" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000001000000}">
       <text>
         <r>
           <rPr>
@@ -43,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="725" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="726" uniqueCount="171">
   <si>
     <t>Segunda e Quarta – sala 04 (senha javaweb)</t>
   </si>
@@ -163,9 +176,6 @@
   </si>
   <si>
     <t>Frameworks</t>
-  </si>
-  <si>
-    <t>Sábado vespertino – sala 01</t>
   </si>
   <si>
     <t>Slides_09_classes_abstratas_internas_e_interfaces_pages_deleted.pdf / slides_10_excecões.pdf</t>
@@ -573,11 +583,14 @@
   <si>
     <t>Baixar STS - Github - Spring</t>
   </si>
+  <si>
+    <t>Sábado vespertino – sala 01 (3waynet)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="[$R$-416]\ #,##0.00;[Red]\-[$R$-416]\ #,##0.00"/>
     <numFmt numFmtId="165" formatCode="m/d/yy"/>
@@ -1444,6 +1457,14 @@
       <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1464,7 +1485,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1026" name="shapetype_202" hidden="1"/>
+        <xdr:cNvPr id="1026" name="shapetype_202" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noSelect="1" noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -1496,7 +1523,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1538,7 +1565,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1570,9 +1597,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1604,6 +1649,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1779,11 +1842,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H30"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="14.25"/>
@@ -2097,7 +2160,7 @@
         <v>9</v>
       </c>
       <c r="D16" s="37" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E16" s="17"/>
       <c r="F16" s="138"/>
@@ -2117,7 +2180,7 @@
         <v>9</v>
       </c>
       <c r="D17" s="37" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E17" s="17" t="s">
         <v>35</v>
@@ -2139,7 +2202,7 @@
         <v>9</v>
       </c>
       <c r="D18" s="37" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E18" s="17" t="s">
         <v>36</v>
@@ -2161,7 +2224,7 @@
         <v>9</v>
       </c>
       <c r="D19" s="37" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E19" s="17" t="s">
         <v>36</v>
@@ -2183,7 +2246,7 @@
         <v>9</v>
       </c>
       <c r="D20" s="40" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E20" s="17" t="s">
         <v>36</v>
@@ -2199,7 +2262,7 @@
         <v>8</v>
       </c>
       <c r="B21" s="126">
-        <v>43726</v>
+        <v>43731</v>
       </c>
       <c r="C21" s="23" t="s">
         <v>29</v>
@@ -2221,13 +2284,13 @@
         <v>12</v>
       </c>
       <c r="B22" s="126">
-        <v>43727</v>
+        <v>43733</v>
       </c>
       <c r="C22" s="36" t="s">
         <v>29</v>
       </c>
       <c r="D22" s="12" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E22" s="37"/>
       <c r="F22" s="138"/>
@@ -2241,7 +2304,7 @@
         <v>14</v>
       </c>
       <c r="B23" s="126">
-        <v>43731</v>
+        <v>43738</v>
       </c>
       <c r="C23" s="23"/>
       <c r="D23" s="37"/>
@@ -2257,7 +2320,7 @@
         <v>16</v>
       </c>
       <c r="B24" s="126">
-        <v>43733</v>
+        <v>43740</v>
       </c>
       <c r="C24" s="23"/>
       <c r="D24" s="37"/>
@@ -2273,7 +2336,7 @@
         <v>18</v>
       </c>
       <c r="B25" s="126">
-        <v>43738</v>
+        <v>43741</v>
       </c>
       <c r="C25" s="23"/>
       <c r="D25" s="37"/>
@@ -2288,7 +2351,7 @@
         <v>20</v>
       </c>
       <c r="B26" s="126">
-        <v>43740</v>
+        <v>43745</v>
       </c>
       <c r="C26" s="23"/>
       <c r="D26" s="37"/>
@@ -2303,7 +2366,7 @@
         <v>22</v>
       </c>
       <c r="B27" s="126">
-        <v>43745</v>
+        <v>43747</v>
       </c>
       <c r="C27" s="23"/>
       <c r="D27" s="37"/>
@@ -2318,7 +2381,7 @@
         <v>24</v>
       </c>
       <c r="B28" s="126">
-        <v>43747</v>
+        <v>43748</v>
       </c>
       <c r="C28" s="23"/>
       <c r="D28" s="17"/>
@@ -2377,11 +2440,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="14.25"/>
@@ -2389,7 +2452,7 @@
     <col min="1" max="1" width="8.375" style="2" customWidth="1"/>
     <col min="2" max="2" width="10.75" customWidth="1"/>
     <col min="3" max="3" width="10.5" customWidth="1"/>
-    <col min="4" max="4" width="101.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="84.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="23.75" customWidth="1"/>
     <col min="6" max="6" width="11.125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7.75" customWidth="1"/>
@@ -2397,7 +2460,7 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="138" t="s">
-        <v>40</v>
+        <v>170</v>
       </c>
       <c r="B1" s="138"/>
       <c r="C1" s="138"/>
@@ -2545,7 +2608,7 @@
         <v>9</v>
       </c>
       <c r="D9" s="38" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E9" s="37"/>
       <c r="F9" s="138"/>
@@ -2581,7 +2644,7 @@
         <v>9</v>
       </c>
       <c r="D11" s="17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="138" t="s">
@@ -2623,7 +2686,7 @@
         <v>9</v>
       </c>
       <c r="D13" s="15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="138"/>
@@ -2643,10 +2706,10 @@
         <v>9</v>
       </c>
       <c r="D14" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="E14" s="2" t="s">
         <v>46</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>47</v>
       </c>
       <c r="F14" s="138"/>
       <c r="G14" s="17">
@@ -2665,7 +2728,7 @@
         <v>29</v>
       </c>
       <c r="D15" s="15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>35</v>
@@ -2687,7 +2750,7 @@
         <v>29</v>
       </c>
       <c r="D16" s="17" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>36</v>
@@ -2709,7 +2772,7 @@
         <v>29</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>36</v>
@@ -2747,7 +2810,9 @@
       <c r="B19" s="126">
         <v>43736</v>
       </c>
-      <c r="C19" s="33"/>
+      <c r="C19" s="33" t="s">
+        <v>29</v>
+      </c>
       <c r="D19" s="8"/>
       <c r="E19" s="6"/>
       <c r="F19" s="138" t="s">
@@ -2884,14 +2949,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <tabColor indexed="47"/>
   </sheetPr>
   <dimension ref="A1:I32"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19:IV19"/>
+      <selection activeCell="A19" sqref="A13:IV22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="14.25"/>
@@ -2908,7 +2973,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="15">
       <c r="A1" s="139" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B1" s="139"/>
       <c r="C1" s="139"/>
@@ -2954,7 +3019,7 @@
         <v>29</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E3" s="10"/>
       <c r="F3" s="10"/>
@@ -3143,7 +3208,7 @@
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B13" s="7">
         <v>43542</v>
@@ -3152,7 +3217,7 @@
         <v>29</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E13" s="10"/>
       <c r="F13" s="10"/>
@@ -3166,7 +3231,7 @@
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B14" s="13">
         <v>43544</v>
@@ -3187,7 +3252,7 @@
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B15" s="13">
         <v>43551</v>
@@ -3196,7 +3261,7 @@
         <v>29</v>
       </c>
       <c r="D15" s="15" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
@@ -3208,7 +3273,7 @@
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B16" s="13">
         <v>43556</v>
@@ -3217,7 +3282,7 @@
         <v>29</v>
       </c>
       <c r="D16" s="17" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
@@ -3229,7 +3294,7 @@
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B17" s="13">
         <v>43558</v>
@@ -3238,7 +3303,7 @@
         <v>29</v>
       </c>
       <c r="D17" s="15" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>33</v>
@@ -3252,7 +3317,7 @@
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B18" s="13">
         <v>43563</v>
@@ -3275,16 +3340,16 @@
     </row>
     <row r="19" spans="1:9" s="26" customFormat="1">
       <c r="A19" s="46" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B19" s="47">
         <v>43565</v>
       </c>
       <c r="C19" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="D19" s="15" t="s">
         <v>81</v>
-      </c>
-      <c r="D19" s="15" t="s">
-        <v>82</v>
       </c>
       <c r="E19" s="42" t="s">
         <v>37</v>
@@ -3298,7 +3363,7 @@
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B20" s="13">
         <v>43570</v>
@@ -3307,7 +3372,7 @@
         <v>29</v>
       </c>
       <c r="D20" s="15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>37</v>
@@ -3321,7 +3386,7 @@
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B21" s="13">
         <v>43577</v>
@@ -3330,7 +3395,7 @@
         <v>29</v>
       </c>
       <c r="D21" s="15" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>38</v>
@@ -3344,7 +3409,7 @@
     </row>
     <row r="22" spans="1:9" ht="15">
       <c r="A22" s="12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B22" s="104">
         <v>43584</v>
@@ -3353,10 +3418,10 @@
         <v>29</v>
       </c>
       <c r="D22" s="15" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F22" s="107"/>
       <c r="G22" s="141"/>
@@ -3369,7 +3434,7 @@
     </row>
     <row r="23" spans="1:9">
       <c r="A23" s="116" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B23" s="117">
         <v>43591</v>
@@ -3378,10 +3443,10 @@
         <v>29</v>
       </c>
       <c r="D23" s="119" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E23" s="120" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F23" s="121"/>
       <c r="G23" s="141" t="s">
@@ -3394,14 +3459,14 @@
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B24" s="104">
         <v>43598</v>
       </c>
       <c r="C24" s="23"/>
       <c r="D24" s="15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E24" s="107"/>
       <c r="F24" s="107"/>
@@ -3413,17 +3478,17 @@
     </row>
     <row r="25" spans="1:9">
       <c r="A25" s="12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B25" s="104">
         <v>43600</v>
       </c>
       <c r="C25" s="23"/>
       <c r="D25" s="17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E25" s="107" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F25" s="107"/>
       <c r="G25" s="142"/>
@@ -3434,17 +3499,17 @@
     </row>
     <row r="26" spans="1:9">
       <c r="A26" s="12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B26" s="104">
         <v>43605</v>
       </c>
       <c r="C26" s="23"/>
       <c r="D26" s="17" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E26" s="107" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F26" s="107"/>
       <c r="G26" s="142"/>
@@ -3455,17 +3520,17 @@
     </row>
     <row r="27" spans="1:9">
       <c r="A27" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B27" s="104">
         <v>43607</v>
       </c>
       <c r="C27" s="23"/>
       <c r="D27" s="17" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E27" s="107" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F27" s="107"/>
       <c r="G27" s="142"/>
@@ -3475,17 +3540,17 @@
     </row>
     <row r="28" spans="1:9">
       <c r="A28" s="12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B28" s="104">
         <v>43612</v>
       </c>
       <c r="C28" s="23"/>
       <c r="D28" s="17" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E28" s="107" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F28" s="107"/>
       <c r="G28" s="142"/>
@@ -3495,17 +3560,17 @@
     </row>
     <row r="29" spans="1:9">
       <c r="A29" s="12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B29" s="104">
         <v>43614</v>
       </c>
       <c r="C29" s="23"/>
       <c r="D29" s="17" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E29" s="107" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F29" s="107"/>
       <c r="G29" s="142"/>
@@ -3515,17 +3580,17 @@
     </row>
     <row r="30" spans="1:9">
       <c r="A30" s="12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B30" s="104">
         <v>43619</v>
       </c>
       <c r="C30" s="23"/>
       <c r="D30" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="E30" s="107" t="s">
         <v>71</v>
-      </c>
-      <c r="E30" s="107" t="s">
-        <v>72</v>
       </c>
       <c r="F30" s="107"/>
       <c r="G30" s="142"/>
@@ -3535,17 +3600,17 @@
     </row>
     <row r="31" spans="1:9">
       <c r="A31" s="12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B31" s="104">
         <v>43621</v>
       </c>
       <c r="C31" s="23"/>
       <c r="D31" s="17" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E31" s="107" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F31" s="107"/>
       <c r="G31" s="142"/>
@@ -3555,15 +3620,15 @@
     </row>
     <row r="32" spans="1:9" ht="15">
       <c r="A32" s="18" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B32" s="122"/>
       <c r="C32" s="123"/>
       <c r="D32" s="28" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E32" s="124" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F32" s="41"/>
       <c r="G32" s="143"/>
@@ -3590,14 +3655,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <tabColor indexed="47"/>
   </sheetPr>
   <dimension ref="A1:J32"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19:IV19"/>
+      <selection activeCell="A19" sqref="A13:IV22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
@@ -3615,7 +3680,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="12.6" customHeight="1">
       <c r="A1" s="139" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B1" s="139"/>
       <c r="C1" s="139"/>
@@ -3658,14 +3723,14 @@
         <v>43360</v>
       </c>
       <c r="C3" s="54" t="s">
+        <v>94</v>
+      </c>
+      <c r="D3" s="11" t="s">
         <v>95</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>96</v>
       </c>
       <c r="E3" s="10"/>
       <c r="F3" s="10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G3" s="140" t="s">
         <v>11</v>
@@ -3683,12 +3748,12 @@
         <v>43362</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D4" s="45"/>
       <c r="E4" s="16"/>
       <c r="F4" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G4" s="140"/>
       <c r="H4" s="17">
@@ -3704,12 +3769,12 @@
         <v>43364</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D5" s="45"/>
       <c r="E5" s="16"/>
       <c r="F5" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G5" s="140"/>
       <c r="H5" s="17">
@@ -3725,13 +3790,13 @@
         <v>43369</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D6" s="45" t="s">
         <v>19</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G6" s="140"/>
       <c r="H6" s="17">
@@ -3747,13 +3812,13 @@
         <v>43371</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D7" s="17" t="s">
         <v>21</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G7" s="140"/>
       <c r="H7" s="17">
@@ -3769,13 +3834,13 @@
         <v>43374</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D8" s="17" t="s">
         <v>23</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G8" s="140"/>
       <c r="H8" s="17">
@@ -3791,13 +3856,13 @@
         <v>43376</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D9" s="17" t="s">
         <v>25</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G9" s="140"/>
       <c r="H9" s="17">
@@ -3812,13 +3877,13 @@
         <v>43381</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D10" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="F10" s="2" t="s">
         <v>104</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>105</v>
       </c>
       <c r="G10" s="140"/>
       <c r="H10" s="17">
@@ -3833,13 +3898,13 @@
         <v>43383</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D11" s="15" t="s">
         <v>28</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G11" s="140"/>
       <c r="H11" s="17">
@@ -3855,12 +3920,12 @@
         <v>43388</v>
       </c>
       <c r="C12" s="20" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D12" s="59"/>
       <c r="E12" s="20"/>
       <c r="F12" s="41" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G12" s="140"/>
       <c r="H12" s="17">
@@ -3869,20 +3934,20 @@
     </row>
     <row r="13" spans="1:10" ht="15">
       <c r="A13" s="60" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B13" s="61">
         <v>43390</v>
       </c>
       <c r="C13" s="54" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E13" s="10"/>
       <c r="F13" s="10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G13" s="140" t="s">
         <v>31</v>
@@ -3895,19 +3960,19 @@
     </row>
     <row r="14" spans="1:10" ht="15">
       <c r="A14" s="62" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B14" s="63">
         <v>43395</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D14" s="17" t="s">
         <v>32</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G14" s="140"/>
       <c r="H14" s="17">
@@ -3918,19 +3983,19 @@
     </row>
     <row r="15" spans="1:10" ht="15">
       <c r="A15" s="62" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B15" s="63">
         <v>43399</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D15" s="15" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G15" s="140"/>
       <c r="H15" s="17">
@@ -3940,19 +4005,19 @@
     </row>
     <row r="16" spans="1:10" ht="15">
       <c r="A16" s="62" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B16" s="63">
         <v>43404</v>
       </c>
       <c r="C16" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D16" s="17" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G16" s="140"/>
       <c r="H16" s="17">
@@ -3962,22 +4027,22 @@
     </row>
     <row r="17" spans="1:10" ht="15">
       <c r="A17" s="62" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B17" s="63">
         <v>43409</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D17" s="15" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>33</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G17" s="140"/>
       <c r="H17" s="17">
@@ -3987,22 +4052,22 @@
     </row>
     <row r="18" spans="1:10" ht="15">
       <c r="A18" s="62" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B18" s="63">
         <v>43413</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D18" s="15" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>35</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G18" s="140"/>
       <c r="H18" s="17">
@@ -4012,22 +4077,22 @@
     </row>
     <row r="19" spans="1:10" ht="15">
       <c r="A19" s="62" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B19" s="63">
         <v>43416</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D19" s="15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>37</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G19" s="140"/>
       <c r="H19" s="17">
@@ -4037,22 +4102,22 @@
     </row>
     <row r="20" spans="1:10" ht="15">
       <c r="A20" s="62" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B20" s="63">
         <v>43423</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D20" s="15" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>38</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G20" s="140"/>
       <c r="H20" s="17">
@@ -4062,22 +4127,22 @@
     </row>
     <row r="21" spans="1:10" ht="15">
       <c r="A21" s="62" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B21" s="63">
         <v>43425</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D21" s="15" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G21" s="140"/>
       <c r="H21" s="17">
@@ -4087,22 +4152,22 @@
     </row>
     <row r="22" spans="1:10" ht="15">
       <c r="A22" s="64" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B22" s="63">
         <v>43427</v>
       </c>
       <c r="C22" s="20" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D22" s="28" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E22" s="19" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F22" s="41" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G22" s="140"/>
       <c r="H22" s="17">
@@ -4117,7 +4182,7 @@
     </row>
     <row r="23" spans="1:10" ht="15">
       <c r="A23" s="52" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B23" s="53">
         <v>43430</v>
@@ -4126,11 +4191,11 @@
         <v>29</v>
       </c>
       <c r="D23" s="51" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E23" s="10"/>
       <c r="F23" s="10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G23" s="140" t="s">
         <v>39</v>
@@ -4142,7 +4207,7 @@
     </row>
     <row r="24" spans="1:10" ht="15">
       <c r="A24" s="56" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B24" s="57">
         <v>43432</v>
@@ -4151,13 +4216,13 @@
         <v>29</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G24" s="140"/>
       <c r="H24" s="17">
@@ -4167,7 +4232,7 @@
     </row>
     <row r="25" spans="1:10" ht="15">
       <c r="A25" s="56" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B25" s="57">
         <v>43434</v>
@@ -4176,13 +4241,13 @@
         <v>29</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G25" s="140"/>
       <c r="H25" s="17">
@@ -4192,7 +4257,7 @@
     </row>
     <row r="26" spans="1:10" ht="15">
       <c r="A26" s="56" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B26" s="57">
         <v>43437</v>
@@ -4201,13 +4266,13 @@
         <v>29</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G26" s="140"/>
       <c r="H26" s="17">
@@ -4217,7 +4282,7 @@
     </row>
     <row r="27" spans="1:10" ht="15">
       <c r="A27" s="56" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B27" s="57">
         <v>43439</v>
@@ -4226,13 +4291,13 @@
         <v>29</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G27" s="140"/>
       <c r="H27" s="17">
@@ -4241,7 +4306,7 @@
     </row>
     <row r="28" spans="1:10" ht="15">
       <c r="A28" s="56" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B28" s="57">
         <v>43441</v>
@@ -4250,13 +4315,13 @@
         <v>29</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G28" s="140"/>
       <c r="H28" s="17">
@@ -4265,7 +4330,7 @@
     </row>
     <row r="29" spans="1:10" ht="15">
       <c r="A29" s="56" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B29" s="57">
         <v>43444</v>
@@ -4274,13 +4339,13 @@
         <v>29</v>
       </c>
       <c r="D29" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="E29" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="E29" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="F29" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G29" s="140"/>
       <c r="H29" s="17">
@@ -4289,7 +4354,7 @@
     </row>
     <row r="30" spans="1:10" ht="15">
       <c r="A30" s="56" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B30" s="57">
         <v>43446</v>
@@ -4298,13 +4363,13 @@
         <v>29</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G30" s="140"/>
       <c r="H30" s="17">
@@ -4313,7 +4378,7 @@
     </row>
     <row r="31" spans="1:10" ht="15">
       <c r="A31" s="56" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B31" s="57">
         <v>43448</v>
@@ -4322,13 +4387,13 @@
         <v>29</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E31" s="67" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G31" s="140"/>
       <c r="H31" s="17">
@@ -4337,7 +4402,7 @@
     </row>
     <row r="32" spans="1:10" ht="15">
       <c r="A32" s="58" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B32" s="43">
         <v>43451</v>
@@ -4348,7 +4413,7 @@
       <c r="D32" s="28"/>
       <c r="E32" s="41"/>
       <c r="F32" s="41" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G32" s="140"/>
       <c r="H32" s="28">
@@ -4379,7 +4444,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <tabColor indexed="47"/>
   </sheetPr>
@@ -4406,7 +4471,7 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="144" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B1" s="144"/>
       <c r="C1" s="144"/>
@@ -4431,7 +4496,7 @@
         <v>4</v>
       </c>
       <c r="F2" s="30" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G2" s="30" t="s">
         <v>5</v>
@@ -4446,12 +4511,12 @@
         <v>43312</v>
       </c>
       <c r="C3" s="54" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D3" s="70"/>
       <c r="E3" s="54"/>
       <c r="F3" s="33" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G3" s="138" t="s">
         <v>11</v>
@@ -4469,12 +4534,12 @@
         <v>43314</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D4" s="45"/>
       <c r="E4" s="16"/>
       <c r="F4" s="36" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G4" s="138"/>
       <c r="H4" s="36">
@@ -4490,12 +4555,12 @@
         <v>43319</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D5" s="45"/>
       <c r="E5" s="16"/>
       <c r="F5" s="36" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G5" s="138"/>
       <c r="H5" s="36">
@@ -4511,12 +4576,12 @@
         <v>43321</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D6" s="45"/>
       <c r="E6" s="16"/>
       <c r="F6" s="36" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G6" s="138"/>
       <c r="H6" s="36">
@@ -4532,12 +4597,12 @@
         <v>43326</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D7" s="45"/>
       <c r="E7" s="16"/>
       <c r="F7" s="36" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G7" s="138"/>
       <c r="H7" s="36">
@@ -4553,12 +4618,12 @@
         <v>43328</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D8" s="45"/>
       <c r="E8" s="16"/>
       <c r="F8" s="36" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G8" s="138"/>
       <c r="H8" s="36">
@@ -4574,12 +4639,12 @@
         <v>43333</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D9" s="45"/>
       <c r="E9" s="16"/>
       <c r="F9" s="36" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G9" s="138"/>
       <c r="H9" s="36">
@@ -4594,12 +4659,12 @@
         <v>43335</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D10" s="45"/>
       <c r="E10" s="16"/>
       <c r="F10" s="36" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G10" s="138"/>
       <c r="H10" s="36">
@@ -4614,12 +4679,12 @@
         <v>43340</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D11" s="45"/>
       <c r="E11" s="16"/>
       <c r="F11" s="36" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G11" s="138"/>
       <c r="H11" s="36">
@@ -4635,12 +4700,12 @@
         <v>43342</v>
       </c>
       <c r="C12" s="20" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D12" s="59"/>
       <c r="E12" s="20"/>
       <c r="F12" s="44" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G12" s="138"/>
       <c r="H12" s="36">
@@ -4655,20 +4720,20 @@
     </row>
     <row r="13" spans="1:10" ht="15">
       <c r="A13" s="60" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B13" s="61">
         <v>43347</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E13" s="10"/>
       <c r="F13" s="10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G13" s="138" t="s">
         <v>31</v>
@@ -4680,19 +4745,19 @@
     </row>
     <row r="14" spans="1:10" ht="15">
       <c r="A14" s="62" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B14" s="63">
         <v>43349</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D14" s="17" t="s">
         <v>32</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G14" s="138"/>
       <c r="H14" s="36">
@@ -4702,19 +4767,19 @@
     </row>
     <row r="15" spans="1:10" ht="15">
       <c r="A15" s="62" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B15" s="63">
         <v>43354</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D15" s="15" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G15" s="138"/>
       <c r="H15" s="36">
@@ -4724,19 +4789,19 @@
     </row>
     <row r="16" spans="1:10" ht="15">
       <c r="A16" s="62" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B16" s="63">
         <v>43356</v>
       </c>
       <c r="C16" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D16" s="17" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G16" s="138"/>
       <c r="H16" s="36">
@@ -4746,22 +4811,22 @@
     </row>
     <row r="17" spans="1:11" ht="15">
       <c r="A17" s="62" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B17" s="63">
         <v>43361</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D17" s="15" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>33</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G17" s="138"/>
       <c r="H17" s="36">
@@ -4771,22 +4836,22 @@
     </row>
     <row r="18" spans="1:11" ht="15">
       <c r="A18" s="62" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B18" s="63">
         <v>43363</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D18" s="15" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>35</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G18" s="138"/>
       <c r="H18" s="36">
@@ -4796,22 +4861,22 @@
     </row>
     <row r="19" spans="1:11" ht="15">
       <c r="A19" s="62" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B19" s="63">
         <v>43368</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D19" s="15" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>37</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G19" s="138"/>
       <c r="H19" s="36">
@@ -4821,22 +4886,22 @@
     </row>
     <row r="20" spans="1:11" ht="15">
       <c r="A20" s="62" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B20" s="63">
         <v>43370</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D20" s="15" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>38</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G20" s="138"/>
       <c r="H20" s="36">
@@ -4846,22 +4911,22 @@
     </row>
     <row r="21" spans="1:11" ht="15">
       <c r="A21" s="62" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B21" s="63">
         <v>43375</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G21" s="138"/>
       <c r="H21" s="36">
@@ -4871,22 +4936,22 @@
     </row>
     <row r="22" spans="1:11" ht="15">
       <c r="A22" s="64" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B22" s="57">
         <v>43382</v>
       </c>
       <c r="C22" s="20" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D22" s="28" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E22" s="41" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F22" s="41" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G22" s="138"/>
       <c r="H22" s="36">
@@ -4899,25 +4964,25 @@
         <v>1200</v>
       </c>
       <c r="K22" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="15">
       <c r="A23" s="52" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B23" s="53">
         <v>43384</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D23" s="51" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E23" s="10"/>
       <c r="F23" s="33" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G23" s="138" t="s">
         <v>39</v>
@@ -4929,22 +4994,22 @@
     </row>
     <row r="24" spans="1:11" ht="15">
       <c r="A24" s="56" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B24" s="57">
         <v>43389</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F24" s="36" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G24" s="138"/>
       <c r="H24" s="36">
@@ -4954,22 +5019,22 @@
     </row>
     <row r="25" spans="1:11" ht="15">
       <c r="A25" s="56" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B25" s="57">
         <v>43391</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F25" s="36" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G25" s="138"/>
       <c r="H25" s="36">
@@ -4979,22 +5044,22 @@
     </row>
     <row r="26" spans="1:11" ht="15">
       <c r="A26" s="56" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B26" s="57">
         <v>43396</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F26" s="36" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G26" s="138"/>
       <c r="H26" s="36">
@@ -5004,22 +5069,22 @@
     </row>
     <row r="27" spans="1:11" ht="15">
       <c r="A27" s="56" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B27" s="57">
         <v>43398</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F27" s="36" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G27" s="138"/>
       <c r="H27" s="36">
@@ -5028,22 +5093,22 @@
     </row>
     <row r="28" spans="1:11" ht="15">
       <c r="A28" s="56" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B28" s="57">
         <v>43403</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F28" s="36" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G28" s="138"/>
       <c r="H28" s="36">
@@ -5052,22 +5117,22 @@
     </row>
     <row r="29" spans="1:11" ht="15">
       <c r="A29" s="56" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B29" s="63">
         <v>43405</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D29" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="E29" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="E29" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="F29" s="36" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G29" s="138"/>
       <c r="H29" s="36">
@@ -5076,22 +5141,22 @@
     </row>
     <row r="30" spans="1:11" ht="15">
       <c r="A30" s="56" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B30" s="63">
         <v>43417</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F30" s="36" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G30" s="138"/>
       <c r="H30" s="36">
@@ -5100,22 +5165,22 @@
     </row>
     <row r="31" spans="1:11" ht="15">
       <c r="A31" s="56" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B31" s="63">
         <v>43424</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D31" s="72" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E31" s="67" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F31" s="36" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G31" s="138"/>
       <c r="H31" s="36">
@@ -5124,20 +5189,20 @@
     </row>
     <row r="32" spans="1:11" s="27" customFormat="1" ht="15.75">
       <c r="A32" s="73" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B32" s="74">
         <v>43426</v>
       </c>
       <c r="C32" s="20" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D32" s="75" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E32" s="76"/>
       <c r="F32" s="77" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G32" s="138"/>
       <c r="H32" s="77">
@@ -5186,7 +5251,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <tabColor indexed="47"/>
   </sheetPr>
@@ -5211,7 +5276,7 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="144" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B1" s="144"/>
       <c r="C1" s="144"/>
@@ -5232,16 +5297,16 @@
       </c>
       <c r="D2" s="30"/>
       <c r="E2" s="30" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F2" s="30" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G2" s="30" t="s">
         <v>5</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="15">
@@ -5252,7 +5317,7 @@
         <v>43274</v>
       </c>
       <c r="C3" s="54" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D3" s="70"/>
       <c r="E3" s="70"/>
@@ -5271,7 +5336,7 @@
         <v>43281</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D4" s="45"/>
       <c r="E4" s="45"/>
@@ -5288,7 +5353,7 @@
         <v>43288</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D5" s="45"/>
       <c r="E5" s="45"/>
@@ -5305,7 +5370,7 @@
         <v>43295</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D6" s="45"/>
       <c r="E6" s="45"/>
@@ -5322,7 +5387,7 @@
         <v>43302</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D7" s="84"/>
       <c r="E7" s="84"/>
@@ -5339,7 +5404,7 @@
         <v>43309</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D8" s="84"/>
       <c r="E8" s="84"/>
@@ -5356,7 +5421,7 @@
         <v>43316</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D9" s="84"/>
       <c r="E9" s="84"/>
@@ -5374,7 +5439,7 @@
         <v>43323</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D10" s="84"/>
       <c r="E10" s="84"/>
@@ -5392,14 +5457,14 @@
         <v>43330</v>
       </c>
       <c r="C11" s="87" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D11" s="88" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E11" s="88"/>
       <c r="F11" s="89" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G11" s="145" t="s">
         <v>31</v>
@@ -5414,56 +5479,56 @@
         <v>43337</v>
       </c>
       <c r="C12" s="92" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D12" s="93" t="s">
         <v>32</v>
       </c>
       <c r="E12" s="93"/>
       <c r="F12" s="94" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G12" s="145"/>
       <c r="H12" s="2"/>
     </row>
     <row r="13" spans="1:9" ht="15">
       <c r="A13" s="90" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B13" s="91">
         <v>43344</v>
       </c>
       <c r="C13" s="92" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D13" s="93" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E13" s="93"/>
       <c r="F13" s="94" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G13" s="145"/>
       <c r="H13" s="2"/>
     </row>
     <row r="14" spans="1:9" ht="15">
       <c r="A14" s="90" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B14" s="91">
         <v>43358</v>
       </c>
       <c r="C14" s="92" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D14" s="93" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E14" s="93" t="s">
         <v>33</v>
       </c>
       <c r="F14" s="94" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G14" s="145"/>
       <c r="H14" s="71">
@@ -5475,88 +5540,88 @@
     </row>
     <row r="15" spans="1:9" ht="15">
       <c r="A15" s="90" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B15" s="95">
         <v>43365</v>
       </c>
       <c r="C15" s="92" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D15" s="93" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E15" s="93" t="s">
         <v>35</v>
       </c>
       <c r="F15" s="94" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G15" s="145"/>
       <c r="H15" s="2"/>
     </row>
     <row r="16" spans="1:9" ht="15">
       <c r="A16" s="90" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B16" s="95">
         <v>43372</v>
       </c>
       <c r="C16" s="92" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D16" s="93" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E16" s="93" t="s">
         <v>37</v>
       </c>
       <c r="F16" s="94" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G16" s="145"/>
       <c r="H16" s="2"/>
     </row>
     <row r="17" spans="1:9" ht="15">
       <c r="A17" s="90" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B17" s="95">
         <v>43386</v>
       </c>
       <c r="C17" s="92" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D17" s="93" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E17" s="93" t="s">
         <v>37</v>
       </c>
       <c r="F17" s="94" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G17" s="145"/>
       <c r="H17" s="2"/>
     </row>
     <row r="18" spans="1:9" ht="15">
       <c r="A18" s="96" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B18" s="97">
         <v>43393</v>
       </c>
       <c r="C18" s="98" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D18" s="49" t="s">
+        <v>130</v>
+      </c>
+      <c r="E18" s="49" t="s">
         <v>131</v>
       </c>
-      <c r="E18" s="49" t="s">
-        <v>132</v>
-      </c>
       <c r="F18" s="50" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G18" s="145"/>
       <c r="H18" s="71">
@@ -5568,7 +5633,7 @@
     </row>
     <row r="19" spans="1:9" ht="15">
       <c r="A19" s="62" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B19" s="99">
         <v>43414</v>
@@ -5577,11 +5642,11 @@
         <v>29</v>
       </c>
       <c r="D19" s="51" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E19" s="51"/>
       <c r="F19" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G19" s="138" t="s">
         <v>39</v>
@@ -5590,7 +5655,7 @@
     </row>
     <row r="20" spans="1:9" ht="15">
       <c r="A20" s="62" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B20" s="99">
         <v>43421</v>
@@ -5599,20 +5664,20 @@
         <v>29</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E20" s="17" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G20" s="138"/>
       <c r="H20" s="2"/>
     </row>
     <row r="21" spans="1:9" ht="15">
       <c r="A21" s="62" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B21" s="99">
         <v>43428</v>
@@ -5621,20 +5686,20 @@
         <v>29</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E21" s="17" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G21" s="138"/>
       <c r="H21" s="2"/>
     </row>
     <row r="22" spans="1:9" ht="15">
       <c r="A22" s="62" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B22" s="99">
         <v>43435</v>
@@ -5643,13 +5708,13 @@
         <v>29</v>
       </c>
       <c r="D22" s="17" t="s">
+        <v>134</v>
+      </c>
+      <c r="E22" s="17" t="s">
         <v>135</v>
       </c>
-      <c r="E22" s="17" t="s">
-        <v>136</v>
-      </c>
       <c r="F22" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G22" s="138"/>
       <c r="H22" s="65">
@@ -5661,7 +5726,7 @@
     </row>
     <row r="23" spans="1:9" ht="15">
       <c r="A23" s="62" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B23" s="101">
         <v>43442</v>
@@ -5670,20 +5735,20 @@
         <v>29</v>
       </c>
       <c r="D23" s="17" t="s">
+        <v>136</v>
+      </c>
+      <c r="E23" s="17" t="s">
         <v>137</v>
       </c>
-      <c r="E23" s="17" t="s">
-        <v>138</v>
-      </c>
       <c r="F23" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G23" s="138"/>
       <c r="H23" s="2"/>
     </row>
     <row r="24" spans="1:9" ht="15">
       <c r="A24" s="62" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B24" s="101">
         <v>43449</v>
@@ -5692,52 +5757,52 @@
         <v>29</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E24" s="17" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G24" s="138"/>
       <c r="H24" s="2"/>
     </row>
     <row r="25" spans="1:9" ht="15">
       <c r="A25" s="62" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B25" s="101">
         <v>43477</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="17" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E25" s="17" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G25" s="138"/>
     </row>
     <row r="26" spans="1:9" ht="15">
       <c r="A26" s="64" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B26" s="102">
         <v>43484</v>
       </c>
       <c r="C26" s="41"/>
       <c r="D26" s="28" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E26" s="28" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F26" s="41" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G26" s="138"/>
       <c r="I26" s="2">
@@ -5764,7 +5829,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr>
     <tabColor indexed="47"/>
   </sheetPr>
@@ -5791,7 +5856,7 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" s="146" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B1" s="146"/>
       <c r="C1" s="146"/>
@@ -5813,16 +5878,16 @@
       </c>
       <c r="D2" s="30"/>
       <c r="E2" s="30" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F2" s="30" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G2" s="30" t="s">
         <v>5</v>
       </c>
       <c r="H2" s="30" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I2" s="16"/>
     </row>
@@ -5832,7 +5897,7 @@
       </c>
       <c r="B3" s="80"/>
       <c r="C3" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D3" s="16"/>
       <c r="E3" s="16"/>
@@ -5840,10 +5905,10 @@
         <v>5</v>
       </c>
       <c r="G3" s="146" t="s">
+        <v>143</v>
+      </c>
+      <c r="J3" s="147" t="s">
         <v>144</v>
-      </c>
-      <c r="J3" s="147" t="s">
-        <v>145</v>
       </c>
       <c r="K3" s="147"/>
     </row>
@@ -5853,7 +5918,7 @@
       </c>
       <c r="B4" s="16"/>
       <c r="C4" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D4" s="16"/>
       <c r="E4" s="16"/>
@@ -5862,7 +5927,7 @@
       </c>
       <c r="G4" s="146"/>
       <c r="J4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="K4" s="55">
         <f>140/8</f>
@@ -5875,7 +5940,7 @@
       </c>
       <c r="B5" s="16"/>
       <c r="C5" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D5" s="16"/>
       <c r="E5" s="16"/>
@@ -5884,7 +5949,7 @@
       </c>
       <c r="G5" s="146"/>
       <c r="J5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K5" s="55">
         <f>K4</f>
@@ -5897,7 +5962,7 @@
       </c>
       <c r="B6" s="16"/>
       <c r="C6" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D6" s="16"/>
       <c r="E6" s="16"/>
@@ -5906,7 +5971,7 @@
       </c>
       <c r="G6" s="146"/>
       <c r="J6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="K6" s="55">
         <f>K4*2</f>
@@ -5919,7 +5984,7 @@
       </c>
       <c r="B7" s="54"/>
       <c r="C7" s="54" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D7" s="54"/>
       <c r="E7" s="54"/>
@@ -5930,7 +5995,7 @@
         <v>11</v>
       </c>
       <c r="J7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="K7" s="55">
         <f>K4*3</f>
@@ -5943,7 +6008,7 @@
       </c>
       <c r="B8" s="16"/>
       <c r="C8" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D8" s="16"/>
       <c r="E8" s="16"/>
@@ -5952,7 +6017,7 @@
       </c>
       <c r="G8" s="140"/>
       <c r="J8" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K8" s="55">
         <f>K4*4</f>
@@ -5965,7 +6030,7 @@
       </c>
       <c r="B9" s="16"/>
       <c r="C9" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D9" s="16"/>
       <c r="E9" s="16"/>
@@ -5974,7 +6039,7 @@
       </c>
       <c r="G9" s="140"/>
       <c r="J9" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K9" s="55">
         <f>K4*5</f>
@@ -5987,7 +6052,7 @@
       </c>
       <c r="B10" s="16"/>
       <c r="C10" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D10" s="16"/>
       <c r="E10" s="16"/>
@@ -5996,7 +6061,7 @@
       </c>
       <c r="G10" s="140"/>
       <c r="J10" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="K10" s="55">
         <f>K4*6</f>
@@ -6009,7 +6074,7 @@
       </c>
       <c r="B11" s="16"/>
       <c r="C11" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D11" s="16"/>
       <c r="E11" s="16"/>
@@ -6018,7 +6083,7 @@
       </c>
       <c r="G11" s="140"/>
       <c r="J11" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="K11" s="55">
         <f>K4*7</f>
@@ -6031,7 +6096,7 @@
       </c>
       <c r="B12" s="16"/>
       <c r="C12" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D12" s="16"/>
       <c r="E12" s="16"/>
@@ -6040,7 +6105,7 @@
       </c>
       <c r="G12" s="140"/>
       <c r="J12" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="K12" s="55">
         <f>K4*8</f>
@@ -6049,11 +6114,11 @@
     </row>
     <row r="13" spans="1:11" ht="15">
       <c r="A13" s="56" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B13" s="16"/>
       <c r="C13" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D13" s="16"/>
       <c r="E13" s="16"/>
@@ -6064,11 +6129,11 @@
     </row>
     <row r="14" spans="1:11" ht="15">
       <c r="A14" s="58" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B14" s="20"/>
       <c r="C14" s="20" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -6079,11 +6144,11 @@
     </row>
     <row r="15" spans="1:11" ht="15">
       <c r="A15" s="52" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B15" s="54"/>
       <c r="C15" s="54" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D15" s="54"/>
       <c r="E15" s="54"/>
@@ -6096,13 +6161,13 @@
     </row>
     <row r="16" spans="1:11" ht="15">
       <c r="A16" s="56" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B16" s="57">
         <v>43261</v>
       </c>
       <c r="C16" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D16" s="16"/>
       <c r="E16" s="16"/>
@@ -6113,13 +6178,13 @@
     </row>
     <row r="17" spans="1:10" ht="15">
       <c r="A17" s="56" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B17" s="57">
         <v>43268</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D17" s="16"/>
       <c r="E17" s="16"/>
@@ -6132,13 +6197,13 @@
     </row>
     <row r="18" spans="1:10" ht="15">
       <c r="A18" s="56" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B18" s="57">
         <v>43275</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D18" s="16"/>
       <c r="E18" s="16"/>
@@ -6149,16 +6214,16 @@
     </row>
     <row r="19" spans="1:10" ht="15">
       <c r="A19" s="62" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B19" s="63">
         <v>43282</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F19" s="2">
         <v>5</v>
@@ -6167,16 +6232,16 @@
     </row>
     <row r="20" spans="1:10" ht="15">
       <c r="A20" s="62" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B20" s="63">
         <v>43289</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F20" s="2">
         <v>6</v>
@@ -6185,16 +6250,16 @@
     </row>
     <row r="21" spans="1:10" ht="15">
       <c r="A21" s="62" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B21" s="63">
         <v>43296</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F21" s="2">
         <v>7</v>
@@ -6203,16 +6268,16 @@
     </row>
     <row r="22" spans="1:10" ht="15">
       <c r="A22" s="64" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B22" s="103">
         <v>43303</v>
       </c>
       <c r="C22" s="20" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D22" s="41" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E22" s="41"/>
       <c r="F22" s="41">
@@ -6222,16 +6287,16 @@
     </row>
     <row r="23" spans="1:10" ht="15">
       <c r="A23" s="60" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B23" s="53">
         <v>43310</v>
       </c>
       <c r="C23" s="54" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E23" s="10"/>
       <c r="F23" s="10">
@@ -6243,19 +6308,19 @@
     </row>
     <row r="24" spans="1:10" ht="15">
       <c r="A24" s="62" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B24" s="57">
         <v>43317</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F24" s="2">
         <v>2</v>
@@ -6264,19 +6329,19 @@
     </row>
     <row r="25" spans="1:10" ht="15">
       <c r="A25" s="62" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B25" s="57">
         <v>43331</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F25" s="2">
         <v>3</v>
@@ -6285,43 +6350,43 @@
     </row>
     <row r="26" spans="1:10" ht="15">
       <c r="A26" s="62" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B26" s="57">
         <v>43338</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F26" s="2">
         <v>4</v>
       </c>
       <c r="G26" s="140"/>
       <c r="H26" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="15">
       <c r="A27" s="62" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B27" s="63">
         <v>43345</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F27" s="2">
         <v>5</v>
@@ -6330,19 +6395,19 @@
     </row>
     <row r="28" spans="1:10" ht="15">
       <c r="A28" s="62" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B28" s="63">
         <v>43359</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F28" s="2">
         <v>6</v>
@@ -6351,19 +6416,19 @@
     </row>
     <row r="29" spans="1:10" ht="15">
       <c r="A29" s="62" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B29" s="63">
         <v>43373</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F29" s="2">
         <v>7</v>
@@ -6372,19 +6437,19 @@
     </row>
     <row r="30" spans="1:10" ht="15">
       <c r="A30" s="64" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B30" s="103">
         <v>43387</v>
       </c>
       <c r="C30" s="20" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D30" s="41" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E30" s="41" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F30" s="41">
         <v>8</v>
@@ -6397,7 +6462,7 @@
         <v>600</v>
       </c>
       <c r="J30" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
   </sheetData>

--- a/Cronograma aulas/Aulas v2.xlsx
+++ b/Cronograma aulas/Aulas v2.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Linux Sab Vesp\Documents\github\aulas-3way\Cronograma aulas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Development\github\aulas-3way\Cronograma aulas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C887D22F-8521-4E41-9213-72F52FCE2FB2}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="489" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="489"/>
   </bookViews>
   <sheets>
     <sheet name="t7_seg_e_qua" sheetId="1" r:id="rId1"/>
@@ -21,7 +20,7 @@
     <sheet name="t2_Sábado" sheetId="6" r:id="rId6"/>
     <sheet name="t1_Domingo_(finalizada)" sheetId="7" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -33,12 +32,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="D15" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000001000000}">
+    <comment ref="D15" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -56,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="726" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="728" uniqueCount="172">
   <si>
     <t>Segunda e Quarta – sala 04 (senha javaweb)</t>
   </si>
@@ -586,11 +585,14 @@
   <si>
     <t>Sábado vespertino – sala 01 (3waynet)</t>
   </si>
+  <si>
+    <t>Criação das entidades e configuração com o BD</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="[$R$-416]\ #,##0.00;[Red]\-[$R$-416]\ #,##0.00"/>
     <numFmt numFmtId="165" formatCode="m/d/yy"/>
@@ -1488,7 +1490,7 @@
         <xdr:cNvPr id="1026" name="shapetype_202" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002040000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000002040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1525,7 +1527,7 @@
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Escritório">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1563,7 +1565,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Escritório">
       <a:majorFont>
         <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1598,23 +1600,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1650,26 +1635,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Escritório">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1842,11 +1810,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A9" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="14.25"/>
@@ -2306,8 +2274,12 @@
       <c r="B23" s="126">
         <v>43738</v>
       </c>
-      <c r="C23" s="23"/>
-      <c r="D23" s="37"/>
+      <c r="C23" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="D23" s="37" t="s">
+        <v>171</v>
+      </c>
       <c r="E23" s="37"/>
       <c r="F23" s="138"/>
       <c r="G23" s="17">
@@ -2440,11 +2412,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView showGridLines="0" topLeftCell="A4" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="14.25"/>
@@ -2949,7 +2921,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor indexed="47"/>
   </sheetPr>
@@ -3655,7 +3627,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor indexed="47"/>
   </sheetPr>
@@ -4444,7 +4416,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor indexed="47"/>
   </sheetPr>
@@ -5251,7 +5223,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor indexed="47"/>
   </sheetPr>
@@ -5829,7 +5801,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor indexed="47"/>
   </sheetPr>

--- a/Cronograma aulas/Aulas v2.xlsx
+++ b/Cronograma aulas/Aulas v2.xlsx
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="728" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="730" uniqueCount="173">
   <si>
     <t>Segunda e Quarta – sala 04 (senha javaweb)</t>
   </si>
@@ -587,6 +587,9 @@
   </si>
   <si>
     <t>Criação das entidades e configuração com o BD</t>
+  </si>
+  <si>
+    <t>DAOs e Services</t>
   </si>
 </sst>
 </file>
@@ -1490,7 +1493,7 @@
         <xdr:cNvPr id="1026" name="shapetype_202" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000002040000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1814,7 +1817,7 @@
   <dimension ref="A1:H30"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A9" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="14.25"/>
@@ -2294,8 +2297,12 @@
       <c r="B24" s="126">
         <v>43740</v>
       </c>
-      <c r="C24" s="23"/>
-      <c r="D24" s="37"/>
+      <c r="C24" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="D24" s="37" t="s">
+        <v>172</v>
+      </c>
       <c r="E24" s="37"/>
       <c r="F24" s="138"/>
       <c r="G24" s="17">

--- a/Cronograma aulas/Aulas v2.xlsx
+++ b/Cronograma aulas/Aulas v2.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Development\github\aulas-3way\Cronograma aulas\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="489"/>
   </bookViews>
@@ -20,14 +15,7 @@
     <sheet name="t2_Sábado" sheetId="6" r:id="rId6"/>
     <sheet name="t1_Domingo_(finalizada)" sheetId="7" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="152511"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="114210"/>
 </workbook>
 </file>
 
@@ -37,7 +25,7 @@
     <author/>
   </authors>
   <commentList>
-    <comment ref="D15" authorId="0" shapeId="0">
+    <comment ref="D15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -595,7 +583,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="[$R$-416]\ #,##0.00;[Red]\-[$R$-416]\ #,##0.00"/>
     <numFmt numFmtId="165" formatCode="m/d/yy"/>
@@ -970,7 +958,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="18" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="148">
+  <cellXfs count="147">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1350,9 +1338,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="166" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1462,14 +1447,6 @@
       <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -1490,13 +1467,7 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1026" name="shapetype_202" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002040000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="1026" name="shapetype_202" hidden="1"/>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noSelect="1" noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -1528,9 +1499,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Escritório">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1568,9 +1539,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Escritório">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1602,10 +1573,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1637,10 +1607,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Escritório">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1813,11 +1782,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A9" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="14.25"/>
@@ -1832,15 +1801,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="138" t="s">
+      <c r="A1" s="137" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="138"/>
-      <c r="C1" s="138"/>
-      <c r="D1" s="138"/>
-      <c r="E1" s="138"/>
-      <c r="F1" s="138"/>
-      <c r="G1" s="138"/>
+      <c r="B1" s="137"/>
+      <c r="C1" s="137"/>
+      <c r="D1" s="137"/>
+      <c r="E1" s="137"/>
+      <c r="F1" s="137"/>
+      <c r="G1" s="137"/>
     </row>
     <row r="2" spans="1:8" ht="15">
       <c r="A2" s="68" t="s">
@@ -1880,7 +1849,7 @@
         <v>10</v>
       </c>
       <c r="E3" s="132"/>
-      <c r="F3" s="138" t="s">
+      <c r="F3" s="137" t="s">
         <v>11</v>
       </c>
       <c r="G3" s="11">
@@ -1901,7 +1870,7 @@
         <v>13</v>
       </c>
       <c r="E4" s="106"/>
-      <c r="F4" s="138"/>
+      <c r="F4" s="137"/>
       <c r="G4" s="17">
         <v>140</v>
       </c>
@@ -1920,7 +1889,7 @@
         <v>15</v>
       </c>
       <c r="E5" s="106"/>
-      <c r="F5" s="138"/>
+      <c r="F5" s="137"/>
       <c r="G5" s="17">
         <v>140</v>
       </c>
@@ -1939,7 +1908,7 @@
         <v>17</v>
       </c>
       <c r="E6" s="107"/>
-      <c r="F6" s="138"/>
+      <c r="F6" s="137"/>
       <c r="G6" s="17">
         <v>140</v>
       </c>
@@ -1958,7 +1927,7 @@
         <v>19</v>
       </c>
       <c r="E7" s="107"/>
-      <c r="F7" s="138"/>
+      <c r="F7" s="137"/>
       <c r="G7" s="17">
         <v>140</v>
       </c>
@@ -1977,7 +1946,7 @@
         <v>21</v>
       </c>
       <c r="E8" s="107"/>
-      <c r="F8" s="138"/>
+      <c r="F8" s="137"/>
       <c r="G8" s="17">
         <v>140</v>
       </c>
@@ -1996,7 +1965,7 @@
         <v>23</v>
       </c>
       <c r="E9" s="107"/>
-      <c r="F9" s="138"/>
+      <c r="F9" s="137"/>
       <c r="G9" s="17">
         <v>140</v>
       </c>
@@ -2015,7 +1984,7 @@
         <v>25</v>
       </c>
       <c r="E10" s="107"/>
-      <c r="F10" s="138"/>
+      <c r="F10" s="137"/>
       <c r="G10" s="17">
         <v>140</v>
       </c>
@@ -2032,7 +2001,7 @@
       </c>
       <c r="D11" s="17"/>
       <c r="E11" s="107"/>
-      <c r="F11" s="138"/>
+      <c r="F11" s="137"/>
       <c r="G11" s="17">
         <v>140</v>
       </c>
@@ -2052,7 +2021,7 @@
         <v>28</v>
       </c>
       <c r="E12" s="20"/>
-      <c r="F12" s="138"/>
+      <c r="F12" s="137"/>
       <c r="G12" s="17">
         <v>140</v>
       </c>
@@ -2072,7 +2041,7 @@
         <v>30</v>
       </c>
       <c r="E13" s="11"/>
-      <c r="F13" s="138" t="s">
+      <c r="F13" s="137" t="s">
         <v>31</v>
       </c>
       <c r="G13" s="17">
@@ -2094,7 +2063,7 @@
         <v>32</v>
       </c>
       <c r="E14" s="17"/>
-      <c r="F14" s="138"/>
+      <c r="F14" s="137"/>
       <c r="G14" s="17">
         <v>140</v>
       </c>
@@ -2114,7 +2083,7 @@
         <v>32</v>
       </c>
       <c r="E15" s="17"/>
-      <c r="F15" s="138"/>
+      <c r="F15" s="137"/>
       <c r="G15" s="17">
         <v>140</v>
       </c>
@@ -2134,7 +2103,7 @@
         <v>163</v>
       </c>
       <c r="E16" s="17"/>
-      <c r="F16" s="138"/>
+      <c r="F16" s="137"/>
       <c r="G16" s="17">
         <v>140</v>
       </c>
@@ -2156,7 +2125,7 @@
       <c r="E17" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="F17" s="138"/>
+      <c r="F17" s="137"/>
       <c r="G17" s="17">
         <v>140</v>
       </c>
@@ -2178,7 +2147,7 @@
       <c r="E18" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="F18" s="138"/>
+      <c r="F18" s="137"/>
       <c r="G18" s="17">
         <v>140</v>
       </c>
@@ -2200,7 +2169,7 @@
       <c r="E19" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="F19" s="138"/>
+      <c r="F19" s="137"/>
       <c r="G19" s="15">
         <v>140</v>
       </c>
@@ -2222,7 +2191,7 @@
       <c r="E20" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="F20" s="138"/>
+      <c r="F20" s="137"/>
       <c r="G20" s="130">
         <v>140</v>
       </c>
@@ -2242,7 +2211,7 @@
       <c r="E21" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="F21" s="138" t="s">
+      <c r="F21" s="137" t="s">
         <v>39</v>
       </c>
       <c r="G21" s="17">
@@ -2264,7 +2233,7 @@
         <v>169</v>
       </c>
       <c r="E22" s="37"/>
-      <c r="F22" s="138"/>
+      <c r="F22" s="137"/>
       <c r="G22" s="17">
         <v>140</v>
       </c>
@@ -2284,7 +2253,7 @@
         <v>171</v>
       </c>
       <c r="E23" s="37"/>
-      <c r="F23" s="138"/>
+      <c r="F23" s="137"/>
       <c r="G23" s="17">
         <v>140</v>
       </c>
@@ -2304,7 +2273,7 @@
         <v>172</v>
       </c>
       <c r="E24" s="37"/>
-      <c r="F24" s="138"/>
+      <c r="F24" s="137"/>
       <c r="G24" s="17">
         <v>140</v>
       </c>
@@ -2315,12 +2284,12 @@
         <v>18</v>
       </c>
       <c r="B25" s="126">
-        <v>43741</v>
+        <v>43745</v>
       </c>
       <c r="C25" s="23"/>
       <c r="D25" s="37"/>
       <c r="E25" s="37"/>
-      <c r="F25" s="138"/>
+      <c r="F25" s="137"/>
       <c r="G25" s="17">
         <v>140</v>
       </c>
@@ -2330,12 +2299,12 @@
         <v>20</v>
       </c>
       <c r="B26" s="126">
-        <v>43745</v>
+        <v>43747</v>
       </c>
       <c r="C26" s="23"/>
       <c r="D26" s="37"/>
       <c r="E26" s="37"/>
-      <c r="F26" s="138"/>
+      <c r="F26" s="137"/>
       <c r="G26" s="17">
         <v>140</v>
       </c>
@@ -2345,12 +2314,12 @@
         <v>22</v>
       </c>
       <c r="B27" s="126">
-        <v>43747</v>
+        <v>43748</v>
       </c>
       <c r="C27" s="23"/>
       <c r="D27" s="37"/>
       <c r="E27" s="37"/>
-      <c r="F27" s="138"/>
+      <c r="F27" s="137"/>
       <c r="G27" s="17">
         <v>140</v>
       </c>
@@ -2360,12 +2329,12 @@
         <v>24</v>
       </c>
       <c r="B28" s="126">
-        <v>43748</v>
+        <v>43752</v>
       </c>
       <c r="C28" s="23"/>
       <c r="D28" s="17"/>
       <c r="E28" s="37"/>
-      <c r="F28" s="138"/>
+      <c r="F28" s="137"/>
       <c r="G28" s="17">
         <v>140</v>
       </c>
@@ -2375,12 +2344,12 @@
         <v>26</v>
       </c>
       <c r="B29" s="126">
-        <v>43752</v>
+        <v>43754</v>
       </c>
       <c r="C29" s="23"/>
       <c r="D29" s="17"/>
       <c r="E29" s="37"/>
-      <c r="F29" s="138"/>
+      <c r="F29" s="137"/>
       <c r="G29" s="17">
         <v>140</v>
       </c>
@@ -2390,12 +2359,12 @@
         <v>27</v>
       </c>
       <c r="B30" s="131">
-        <v>43754</v>
+        <v>43755</v>
       </c>
       <c r="C30" s="123"/>
       <c r="D30" s="28"/>
       <c r="E30" s="133"/>
-      <c r="F30" s="138"/>
+      <c r="F30" s="137"/>
       <c r="G30" s="28">
         <v>140</v>
       </c>
@@ -2419,11 +2388,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A4" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="14.25"/>
@@ -2438,15 +2407,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="138" t="s">
+      <c r="A1" s="137" t="s">
         <v>170</v>
       </c>
-      <c r="B1" s="138"/>
-      <c r="C1" s="138"/>
-      <c r="D1" s="138"/>
-      <c r="E1" s="138"/>
-      <c r="F1" s="138"/>
-      <c r="G1" s="138"/>
+      <c r="B1" s="137"/>
+      <c r="C1" s="137"/>
+      <c r="D1" s="137"/>
+      <c r="E1" s="137"/>
+      <c r="F1" s="137"/>
+      <c r="G1" s="137"/>
     </row>
     <row r="2" spans="1:8" ht="15">
       <c r="A2" s="3" t="s">
@@ -2484,7 +2453,7 @@
       </c>
       <c r="D3" s="9"/>
       <c r="E3" s="32"/>
-      <c r="F3" s="138" t="s">
+      <c r="F3" s="137" t="s">
         <v>11</v>
       </c>
       <c r="G3" s="33">
@@ -2503,7 +2472,7 @@
       </c>
       <c r="D4" s="15"/>
       <c r="E4" s="35"/>
-      <c r="F4" s="138"/>
+      <c r="F4" s="137"/>
       <c r="G4" s="36">
         <v>175</v>
       </c>
@@ -2520,7 +2489,7 @@
       </c>
       <c r="D5" s="15"/>
       <c r="E5" s="35"/>
-      <c r="F5" s="138"/>
+      <c r="F5" s="137"/>
       <c r="G5" s="36">
         <v>175</v>
       </c>
@@ -2537,7 +2506,7 @@
       </c>
       <c r="D6" s="17"/>
       <c r="E6" s="37"/>
-      <c r="F6" s="138"/>
+      <c r="F6" s="137"/>
       <c r="G6" s="36">
         <v>175</v>
       </c>
@@ -2554,7 +2523,7 @@
       </c>
       <c r="D7" s="17"/>
       <c r="E7" s="37"/>
-      <c r="F7" s="138"/>
+      <c r="F7" s="137"/>
       <c r="G7" s="36">
         <v>175</v>
       </c>
@@ -2571,7 +2540,7 @@
       </c>
       <c r="D8" s="17"/>
       <c r="E8" s="37"/>
-      <c r="F8" s="138"/>
+      <c r="F8" s="137"/>
       <c r="G8" s="36">
         <v>175</v>
       </c>
@@ -2590,7 +2559,7 @@
         <v>40</v>
       </c>
       <c r="E9" s="37"/>
-      <c r="F9" s="138"/>
+      <c r="F9" s="137"/>
       <c r="G9" s="36">
         <v>175</v>
       </c>
@@ -2607,7 +2576,7 @@
       </c>
       <c r="D10" s="39"/>
       <c r="E10" s="40"/>
-      <c r="F10" s="138"/>
+      <c r="F10" s="137"/>
       <c r="G10" s="36">
         <v>175</v>
       </c>
@@ -2626,7 +2595,7 @@
         <v>41</v>
       </c>
       <c r="E11" s="2"/>
-      <c r="F11" s="138" t="s">
+      <c r="F11" s="137" t="s">
         <v>31</v>
       </c>
       <c r="G11" s="17">
@@ -2648,7 +2617,7 @@
         <v>32</v>
       </c>
       <c r="E12" s="2"/>
-      <c r="F12" s="138"/>
+      <c r="F12" s="137"/>
       <c r="G12" s="17">
         <v>175</v>
       </c>
@@ -2668,7 +2637,7 @@
         <v>43</v>
       </c>
       <c r="E13" s="2"/>
-      <c r="F13" s="138"/>
+      <c r="F13" s="137"/>
       <c r="G13" s="17">
         <v>175</v>
       </c>
@@ -2690,7 +2659,7 @@
       <c r="E14" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="F14" s="138"/>
+      <c r="F14" s="137"/>
       <c r="G14" s="17">
         <v>175</v>
       </c>
@@ -2712,7 +2681,7 @@
       <c r="E15" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="F15" s="138"/>
+      <c r="F15" s="137"/>
       <c r="G15" s="17">
         <v>175</v>
       </c>
@@ -2734,7 +2703,7 @@
       <c r="E16" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="F16" s="138"/>
+      <c r="F16" s="137"/>
       <c r="G16" s="17">
         <v>175</v>
       </c>
@@ -2756,7 +2725,7 @@
       <c r="E17" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="F17" s="138"/>
+      <c r="F17" s="137"/>
       <c r="G17" s="17">
         <v>175</v>
       </c>
@@ -2776,7 +2745,7 @@
       <c r="E18" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="F18" s="138"/>
+      <c r="F18" s="137"/>
       <c r="G18" s="17">
         <v>175</v>
       </c>
@@ -2794,7 +2763,7 @@
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="6"/>
-      <c r="F19" s="138" t="s">
+      <c r="F19" s="137" t="s">
         <v>39</v>
       </c>
       <c r="G19" s="36">
@@ -2812,7 +2781,7 @@
       <c r="C20" s="36"/>
       <c r="D20" s="107"/>
       <c r="E20" s="37"/>
-      <c r="F20" s="138"/>
+      <c r="F20" s="137"/>
       <c r="G20" s="36">
         <v>175</v>
       </c>
@@ -2828,7 +2797,7 @@
       <c r="C21" s="36"/>
       <c r="D21" s="107"/>
       <c r="E21" s="37"/>
-      <c r="F21" s="138"/>
+      <c r="F21" s="137"/>
       <c r="G21" s="36">
         <v>175</v>
       </c>
@@ -2838,13 +2807,13 @@
       <c r="A22" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="B22" s="137">
+      <c r="B22" s="136">
         <v>43757</v>
       </c>
       <c r="C22" s="36"/>
       <c r="D22" s="107"/>
       <c r="E22" s="37"/>
-      <c r="F22" s="138"/>
+      <c r="F22" s="137"/>
       <c r="G22" s="36">
         <v>175</v>
       </c>
@@ -2860,7 +2829,7 @@
       <c r="C23" s="134"/>
       <c r="D23" s="107"/>
       <c r="E23" s="37"/>
-      <c r="F23" s="138"/>
+      <c r="F23" s="137"/>
       <c r="G23" s="36">
         <v>175</v>
       </c>
@@ -2875,7 +2844,7 @@
       <c r="C24" s="36"/>
       <c r="D24" s="107"/>
       <c r="E24" s="37"/>
-      <c r="F24" s="138"/>
+      <c r="F24" s="137"/>
       <c r="G24" s="36">
         <v>175</v>
       </c>
@@ -2890,7 +2859,7 @@
       <c r="C25" s="36"/>
       <c r="D25" s="107"/>
       <c r="E25" s="37"/>
-      <c r="F25" s="138"/>
+      <c r="F25" s="137"/>
       <c r="G25" s="36">
         <v>175</v>
       </c>
@@ -2905,7 +2874,7 @@
       <c r="C26" s="44"/>
       <c r="D26" s="41"/>
       <c r="E26" s="40"/>
-      <c r="F26" s="138"/>
+      <c r="F26" s="137"/>
       <c r="G26" s="44">
         <v>175</v>
       </c>
@@ -2928,7 +2897,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor indexed="47"/>
   </sheetPr>
@@ -2951,16 +2920,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15">
-      <c r="A1" s="139" t="s">
+      <c r="A1" s="138" t="s">
         <v>75</v>
       </c>
-      <c r="B1" s="139"/>
-      <c r="C1" s="139"/>
-      <c r="D1" s="139"/>
-      <c r="E1" s="139"/>
-      <c r="F1" s="139"/>
-      <c r="G1" s="139"/>
-      <c r="H1" s="139"/>
+      <c r="B1" s="138"/>
+      <c r="C1" s="138"/>
+      <c r="D1" s="138"/>
+      <c r="E1" s="138"/>
+      <c r="F1" s="138"/>
+      <c r="G1" s="138"/>
+      <c r="H1" s="138"/>
     </row>
     <row r="2" spans="1:9" ht="15">
       <c r="A2" s="3" t="s">
@@ -3002,7 +2971,7 @@
       </c>
       <c r="E3" s="10"/>
       <c r="F3" s="10"/>
-      <c r="G3" s="140" t="s">
+      <c r="G3" s="139" t="s">
         <v>11</v>
       </c>
       <c r="H3" s="11">
@@ -3022,7 +2991,7 @@
       <c r="D4" s="45"/>
       <c r="E4" s="16"/>
       <c r="F4" s="2"/>
-      <c r="G4" s="140"/>
+      <c r="G4" s="139"/>
       <c r="H4" s="17">
         <v>140</v>
       </c>
@@ -3040,7 +3009,7 @@
       <c r="D5" s="45"/>
       <c r="E5" s="16"/>
       <c r="F5" s="2"/>
-      <c r="G5" s="140"/>
+      <c r="G5" s="139"/>
       <c r="H5" s="17">
         <v>140</v>
       </c>
@@ -3058,7 +3027,7 @@
       <c r="D6" s="45"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
-      <c r="G6" s="140"/>
+      <c r="G6" s="139"/>
       <c r="H6" s="17">
         <v>140</v>
       </c>
@@ -3078,7 +3047,7 @@
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
-      <c r="G7" s="140"/>
+      <c r="G7" s="139"/>
       <c r="H7" s="17">
         <v>140</v>
       </c>
@@ -3098,7 +3067,7 @@
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
-      <c r="G8" s="140"/>
+      <c r="G8" s="139"/>
       <c r="H8" s="17">
         <v>140</v>
       </c>
@@ -3118,7 +3087,7 @@
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
-      <c r="G9" s="140"/>
+      <c r="G9" s="139"/>
       <c r="H9" s="17">
         <v>140</v>
       </c>
@@ -3138,7 +3107,7 @@
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
-      <c r="G10" s="140"/>
+      <c r="G10" s="139"/>
       <c r="H10" s="17">
         <v>140</v>
       </c>
@@ -3156,7 +3125,7 @@
       <c r="D11" s="17"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
-      <c r="G11" s="140"/>
+      <c r="G11" s="139"/>
       <c r="H11" s="17">
         <v>140</v>
       </c>
@@ -3177,7 +3146,7 @@
       </c>
       <c r="E12" s="20"/>
       <c r="F12" s="41"/>
-      <c r="G12" s="140"/>
+      <c r="G12" s="139"/>
       <c r="H12" s="17">
         <v>140</v>
       </c>
@@ -3200,7 +3169,7 @@
       </c>
       <c r="E13" s="10"/>
       <c r="F13" s="10"/>
-      <c r="G13" s="140" t="s">
+      <c r="G13" s="139" t="s">
         <v>31</v>
       </c>
       <c r="H13" s="17">
@@ -3223,7 +3192,7 @@
       </c>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
-      <c r="G14" s="140"/>
+      <c r="G14" s="139"/>
       <c r="H14" s="17">
         <v>140</v>
       </c>
@@ -3244,7 +3213,7 @@
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
-      <c r="G15" s="140"/>
+      <c r="G15" s="139"/>
       <c r="H15" s="17">
         <v>140</v>
       </c>
@@ -3265,7 +3234,7 @@
       </c>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
-      <c r="G16" s="140"/>
+      <c r="G16" s="139"/>
       <c r="H16" s="17">
         <v>140</v>
       </c>
@@ -3288,7 +3257,7 @@
         <v>33</v>
       </c>
       <c r="F17" s="2"/>
-      <c r="G17" s="140"/>
+      <c r="G17" s="139"/>
       <c r="H17" s="17">
         <v>140</v>
       </c>
@@ -3311,7 +3280,7 @@
         <v>35</v>
       </c>
       <c r="F18" s="2"/>
-      <c r="G18" s="140"/>
+      <c r="G18" s="139"/>
       <c r="H18" s="17">
         <v>140</v>
       </c>
@@ -3334,7 +3303,7 @@
         <v>37</v>
       </c>
       <c r="F19" s="42"/>
-      <c r="G19" s="140"/>
+      <c r="G19" s="139"/>
       <c r="H19" s="48">
         <v>140</v>
       </c>
@@ -3357,7 +3326,7 @@
         <v>37</v>
       </c>
       <c r="F20" s="2"/>
-      <c r="G20" s="140"/>
+      <c r="G20" s="139"/>
       <c r="H20" s="17">
         <v>140</v>
       </c>
@@ -3380,7 +3349,7 @@
         <v>38</v>
       </c>
       <c r="F21" s="2"/>
-      <c r="G21" s="140"/>
+      <c r="G21" s="139"/>
       <c r="H21" s="17">
         <v>140</v>
       </c>
@@ -3403,7 +3372,7 @@
         <v>80</v>
       </c>
       <c r="F22" s="107"/>
-      <c r="G22" s="141"/>
+      <c r="G22" s="140"/>
       <c r="H22" s="17">
         <v>140</v>
       </c>
@@ -3428,7 +3397,7 @@
         <v>54</v>
       </c>
       <c r="F23" s="121"/>
-      <c r="G23" s="141" t="s">
+      <c r="G23" s="140" t="s">
         <v>39</v>
       </c>
       <c r="H23" s="17">
@@ -3449,7 +3418,7 @@
       </c>
       <c r="E24" s="107"/>
       <c r="F24" s="107"/>
-      <c r="G24" s="142"/>
+      <c r="G24" s="141"/>
       <c r="H24" s="17">
         <v>140</v>
       </c>
@@ -3470,7 +3439,7 @@
         <v>59</v>
       </c>
       <c r="F25" s="107"/>
-      <c r="G25" s="142"/>
+      <c r="G25" s="141"/>
       <c r="H25" s="17">
         <v>140</v>
       </c>
@@ -3491,7 +3460,7 @@
         <v>62</v>
       </c>
       <c r="F26" s="107"/>
-      <c r="G26" s="142"/>
+      <c r="G26" s="141"/>
       <c r="H26" s="17">
         <v>140</v>
       </c>
@@ -3512,7 +3481,7 @@
         <v>65</v>
       </c>
       <c r="F27" s="107"/>
-      <c r="G27" s="142"/>
+      <c r="G27" s="141"/>
       <c r="H27" s="17">
         <v>140</v>
       </c>
@@ -3532,7 +3501,7 @@
         <v>68</v>
       </c>
       <c r="F28" s="107"/>
-      <c r="G28" s="142"/>
+      <c r="G28" s="141"/>
       <c r="H28" s="17">
         <v>140</v>
       </c>
@@ -3552,7 +3521,7 @@
         <v>71</v>
       </c>
       <c r="F29" s="107"/>
-      <c r="G29" s="142"/>
+      <c r="G29" s="141"/>
       <c r="H29" s="17">
         <v>140</v>
       </c>
@@ -3572,7 +3541,7 @@
         <v>71</v>
       </c>
       <c r="F30" s="107"/>
-      <c r="G30" s="142"/>
+      <c r="G30" s="141"/>
       <c r="H30" s="17">
         <v>140</v>
       </c>
@@ -3592,7 +3561,7 @@
         <v>90</v>
       </c>
       <c r="F31" s="107"/>
-      <c r="G31" s="142"/>
+      <c r="G31" s="141"/>
       <c r="H31" s="17">
         <v>140</v>
       </c>
@@ -3610,7 +3579,7 @@
         <v>92</v>
       </c>
       <c r="F32" s="41"/>
-      <c r="G32" s="143"/>
+      <c r="G32" s="142"/>
       <c r="H32" s="28">
         <v>140</v>
       </c>
@@ -3634,7 +3603,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor indexed="47"/>
   </sheetPr>
@@ -3658,16 +3627,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12.6" customHeight="1">
-      <c r="A1" s="139" t="s">
+      <c r="A1" s="138" t="s">
         <v>93</v>
       </c>
-      <c r="B1" s="139"/>
-      <c r="C1" s="139"/>
-      <c r="D1" s="139"/>
-      <c r="E1" s="139"/>
-      <c r="F1" s="139"/>
-      <c r="G1" s="139"/>
-      <c r="H1" s="139"/>
+      <c r="B1" s="138"/>
+      <c r="C1" s="138"/>
+      <c r="D1" s="138"/>
+      <c r="E1" s="138"/>
+      <c r="F1" s="138"/>
+      <c r="G1" s="138"/>
+      <c r="H1" s="138"/>
     </row>
     <row r="2" spans="1:10" ht="15">
       <c r="A2" s="3" t="s">
@@ -3711,7 +3680,7 @@
       <c r="F3" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="G3" s="140" t="s">
+      <c r="G3" s="139" t="s">
         <v>11</v>
       </c>
       <c r="H3" s="11">
@@ -3734,7 +3703,7 @@
       <c r="F4" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="G4" s="140"/>
+      <c r="G4" s="139"/>
       <c r="H4" s="17">
         <v>140</v>
       </c>
@@ -3755,7 +3724,7 @@
       <c r="F5" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="G5" s="140"/>
+      <c r="G5" s="139"/>
       <c r="H5" s="17">
         <v>140</v>
       </c>
@@ -3777,7 +3746,7 @@
       <c r="F6" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="G6" s="140"/>
+      <c r="G6" s="139"/>
       <c r="H6" s="17">
         <v>140</v>
       </c>
@@ -3799,7 +3768,7 @@
       <c r="F7" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="G7" s="140"/>
+      <c r="G7" s="139"/>
       <c r="H7" s="17">
         <v>140</v>
       </c>
@@ -3821,7 +3790,7 @@
       <c r="F8" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="G8" s="140"/>
+      <c r="G8" s="139"/>
       <c r="H8" s="17">
         <v>140</v>
       </c>
@@ -3843,7 +3812,7 @@
       <c r="F9" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="G9" s="140"/>
+      <c r="G9" s="139"/>
       <c r="H9" s="17">
         <v>140</v>
       </c>
@@ -3864,7 +3833,7 @@
       <c r="F10" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="G10" s="140"/>
+      <c r="G10" s="139"/>
       <c r="H10" s="17">
         <v>140</v>
       </c>
@@ -3885,7 +3854,7 @@
       <c r="F11" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="G11" s="140"/>
+      <c r="G11" s="139"/>
       <c r="H11" s="17">
         <v>140</v>
       </c>
@@ -3906,7 +3875,7 @@
       <c r="F12" s="41" t="s">
         <v>106</v>
       </c>
-      <c r="G12" s="140"/>
+      <c r="G12" s="139"/>
       <c r="H12" s="17">
         <v>140</v>
       </c>
@@ -3928,7 +3897,7 @@
       <c r="F13" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="G13" s="140" t="s">
+      <c r="G13" s="139" t="s">
         <v>31</v>
       </c>
       <c r="H13" s="17">
@@ -3953,7 +3922,7 @@
       <c r="F14" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="G14" s="140"/>
+      <c r="G14" s="139"/>
       <c r="H14" s="17">
         <v>140</v>
       </c>
@@ -3976,7 +3945,7 @@
       <c r="F15" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="G15" s="140"/>
+      <c r="G15" s="139"/>
       <c r="H15" s="17">
         <v>140</v>
       </c>
@@ -3998,7 +3967,7 @@
       <c r="F16" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="G16" s="140"/>
+      <c r="G16" s="139"/>
       <c r="H16" s="17">
         <v>140</v>
       </c>
@@ -4023,7 +3992,7 @@
       <c r="F17" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="G17" s="140"/>
+      <c r="G17" s="139"/>
       <c r="H17" s="17">
         <v>140</v>
       </c>
@@ -4048,7 +4017,7 @@
       <c r="F18" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="G18" s="140"/>
+      <c r="G18" s="139"/>
       <c r="H18" s="17">
         <v>140</v>
       </c>
@@ -4073,7 +4042,7 @@
       <c r="F19" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="G19" s="140"/>
+      <c r="G19" s="139"/>
       <c r="H19" s="17">
         <v>140</v>
       </c>
@@ -4098,7 +4067,7 @@
       <c r="F20" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="G20" s="140"/>
+      <c r="G20" s="139"/>
       <c r="H20" s="17">
         <v>140</v>
       </c>
@@ -4123,7 +4092,7 @@
       <c r="F21" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="G21" s="140"/>
+      <c r="G21" s="139"/>
       <c r="H21" s="17">
         <v>140</v>
       </c>
@@ -4148,7 +4117,7 @@
       <c r="F22" s="41" t="s">
         <v>106</v>
       </c>
-      <c r="G22" s="140"/>
+      <c r="G22" s="139"/>
       <c r="H22" s="17">
         <v>140</v>
       </c>
@@ -4176,7 +4145,7 @@
       <c r="F23" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="G23" s="140" t="s">
+      <c r="G23" s="139" t="s">
         <v>39</v>
       </c>
       <c r="H23" s="17">
@@ -4203,7 +4172,7 @@
       <c r="F24" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="G24" s="140"/>
+      <c r="G24" s="139"/>
       <c r="H24" s="17">
         <v>140</v>
       </c>
@@ -4228,7 +4197,7 @@
       <c r="F25" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="G25" s="140"/>
+      <c r="G25" s="139"/>
       <c r="H25" s="17">
         <v>140</v>
       </c>
@@ -4253,7 +4222,7 @@
       <c r="F26" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="G26" s="140"/>
+      <c r="G26" s="139"/>
       <c r="H26" s="17">
         <v>140</v>
       </c>
@@ -4278,7 +4247,7 @@
       <c r="F27" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="G27" s="140"/>
+      <c r="G27" s="139"/>
       <c r="H27" s="17">
         <v>140</v>
       </c>
@@ -4302,7 +4271,7 @@
       <c r="F28" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="G28" s="140"/>
+      <c r="G28" s="139"/>
       <c r="H28" s="17">
         <v>140</v>
       </c>
@@ -4326,7 +4295,7 @@
       <c r="F29" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="G29" s="140"/>
+      <c r="G29" s="139"/>
       <c r="H29" s="17">
         <v>140</v>
       </c>
@@ -4350,7 +4319,7 @@
       <c r="F30" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="G30" s="140"/>
+      <c r="G30" s="139"/>
       <c r="H30" s="17">
         <v>140</v>
       </c>
@@ -4374,7 +4343,7 @@
       <c r="F31" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="G31" s="140"/>
+      <c r="G31" s="139"/>
       <c r="H31" s="17">
         <v>140</v>
       </c>
@@ -4394,7 +4363,7 @@
       <c r="F32" s="41" t="s">
         <v>106</v>
       </c>
-      <c r="G32" s="140"/>
+      <c r="G32" s="139"/>
       <c r="H32" s="28">
         <v>140</v>
       </c>
@@ -4423,7 +4392,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor indexed="47"/>
   </sheetPr>
@@ -4449,16 +4418,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="144" t="s">
+      <c r="A1" s="143" t="s">
         <v>112</v>
       </c>
-      <c r="B1" s="144"/>
-      <c r="C1" s="144"/>
-      <c r="D1" s="144"/>
-      <c r="E1" s="144"/>
-      <c r="F1" s="144"/>
-      <c r="G1" s="144"/>
-      <c r="H1" s="144"/>
+      <c r="B1" s="143"/>
+      <c r="C1" s="143"/>
+      <c r="D1" s="143"/>
+      <c r="E1" s="143"/>
+      <c r="F1" s="143"/>
+      <c r="G1" s="143"/>
+      <c r="H1" s="143"/>
     </row>
     <row r="2" spans="1:10" ht="15">
       <c r="A2" s="68" t="s">
@@ -4497,7 +4466,7 @@
       <c r="F3" s="33" t="s">
         <v>96</v>
       </c>
-      <c r="G3" s="138" t="s">
+      <c r="G3" s="137" t="s">
         <v>11</v>
       </c>
       <c r="H3" s="33">
@@ -4520,7 +4489,7 @@
       <c r="F4" s="36" t="s">
         <v>97</v>
       </c>
-      <c r="G4" s="138"/>
+      <c r="G4" s="137"/>
       <c r="H4" s="36">
         <v>120</v>
       </c>
@@ -4541,7 +4510,7 @@
       <c r="F5" s="36" t="s">
         <v>98</v>
       </c>
-      <c r="G5" s="138"/>
+      <c r="G5" s="137"/>
       <c r="H5" s="36">
         <v>120</v>
       </c>
@@ -4562,7 +4531,7 @@
       <c r="F6" s="36" t="s">
         <v>99</v>
       </c>
-      <c r="G6" s="138"/>
+      <c r="G6" s="137"/>
       <c r="H6" s="36">
         <v>120</v>
       </c>
@@ -4583,7 +4552,7 @@
       <c r="F7" s="36" t="s">
         <v>100</v>
       </c>
-      <c r="G7" s="138"/>
+      <c r="G7" s="137"/>
       <c r="H7" s="36">
         <v>120</v>
       </c>
@@ -4604,7 +4573,7 @@
       <c r="F8" s="36" t="s">
         <v>101</v>
       </c>
-      <c r="G8" s="138"/>
+      <c r="G8" s="137"/>
       <c r="H8" s="36">
         <v>120</v>
       </c>
@@ -4625,7 +4594,7 @@
       <c r="F9" s="36" t="s">
         <v>102</v>
       </c>
-      <c r="G9" s="138"/>
+      <c r="G9" s="137"/>
       <c r="H9" s="36">
         <v>120</v>
       </c>
@@ -4645,7 +4614,7 @@
       <c r="F10" s="36" t="s">
         <v>104</v>
       </c>
-      <c r="G10" s="138"/>
+      <c r="G10" s="137"/>
       <c r="H10" s="36">
         <v>120</v>
       </c>
@@ -4665,7 +4634,7 @@
       <c r="F11" s="36" t="s">
         <v>105</v>
       </c>
-      <c r="G11" s="138"/>
+      <c r="G11" s="137"/>
       <c r="H11" s="36">
         <v>120</v>
       </c>
@@ -4686,7 +4655,7 @@
       <c r="F12" s="44" t="s">
         <v>106</v>
       </c>
-      <c r="G12" s="138"/>
+      <c r="G12" s="137"/>
       <c r="H12" s="36">
         <v>120</v>
       </c>
@@ -4714,7 +4683,7 @@
       <c r="F13" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="G13" s="138" t="s">
+      <c r="G13" s="137" t="s">
         <v>31</v>
       </c>
       <c r="H13" s="36">
@@ -4738,7 +4707,7 @@
       <c r="F14" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="G14" s="138"/>
+      <c r="G14" s="137"/>
       <c r="H14" s="36">
         <v>120</v>
       </c>
@@ -4760,7 +4729,7 @@
       <c r="F15" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="G15" s="138"/>
+      <c r="G15" s="137"/>
       <c r="H15" s="36">
         <v>120</v>
       </c>
@@ -4782,7 +4751,7 @@
       <c r="F16" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="G16" s="138"/>
+      <c r="G16" s="137"/>
       <c r="H16" s="36">
         <v>120</v>
       </c>
@@ -4807,7 +4776,7 @@
       <c r="F17" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="G17" s="138"/>
+      <c r="G17" s="137"/>
       <c r="H17" s="36">
         <v>120</v>
       </c>
@@ -4832,7 +4801,7 @@
       <c r="F18" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="G18" s="138"/>
+      <c r="G18" s="137"/>
       <c r="H18" s="36">
         <v>120</v>
       </c>
@@ -4857,7 +4826,7 @@
       <c r="F19" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="G19" s="138"/>
+      <c r="G19" s="137"/>
       <c r="H19" s="36">
         <v>120</v>
       </c>
@@ -4882,7 +4851,7 @@
       <c r="F20" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="G20" s="138"/>
+      <c r="G20" s="137"/>
       <c r="H20" s="36">
         <v>120</v>
       </c>
@@ -4907,7 +4876,7 @@
       <c r="F21" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="G21" s="138"/>
+      <c r="G21" s="137"/>
       <c r="H21" s="36">
         <v>120</v>
       </c>
@@ -4932,7 +4901,7 @@
       <c r="F22" s="41" t="s">
         <v>106</v>
       </c>
-      <c r="G22" s="138"/>
+      <c r="G22" s="137"/>
       <c r="H22" s="36">
         <v>120</v>
       </c>
@@ -4963,7 +4932,7 @@
       <c r="F23" s="33" t="s">
         <v>96</v>
       </c>
-      <c r="G23" s="138" t="s">
+      <c r="G23" s="137" t="s">
         <v>39</v>
       </c>
       <c r="H23" s="36">
@@ -4990,7 +4959,7 @@
       <c r="F24" s="36" t="s">
         <v>97</v>
       </c>
-      <c r="G24" s="138"/>
+      <c r="G24" s="137"/>
       <c r="H24" s="36">
         <v>120</v>
       </c>
@@ -5015,7 +4984,7 @@
       <c r="F25" s="36" t="s">
         <v>98</v>
       </c>
-      <c r="G25" s="138"/>
+      <c r="G25" s="137"/>
       <c r="H25" s="36">
         <v>120</v>
       </c>
@@ -5040,7 +5009,7 @@
       <c r="F26" s="36" t="s">
         <v>99</v>
       </c>
-      <c r="G26" s="138"/>
+      <c r="G26" s="137"/>
       <c r="H26" s="36">
         <v>120</v>
       </c>
@@ -5065,7 +5034,7 @@
       <c r="F27" s="36" t="s">
         <v>100</v>
       </c>
-      <c r="G27" s="138"/>
+      <c r="G27" s="137"/>
       <c r="H27" s="36">
         <v>120</v>
       </c>
@@ -5089,7 +5058,7 @@
       <c r="F28" s="36" t="s">
         <v>101</v>
       </c>
-      <c r="G28" s="138"/>
+      <c r="G28" s="137"/>
       <c r="H28" s="36">
         <v>120</v>
       </c>
@@ -5113,7 +5082,7 @@
       <c r="F29" s="36" t="s">
         <v>102</v>
       </c>
-      <c r="G29" s="138"/>
+      <c r="G29" s="137"/>
       <c r="H29" s="36">
         <v>120</v>
       </c>
@@ -5137,7 +5106,7 @@
       <c r="F30" s="36" t="s">
         <v>104</v>
       </c>
-      <c r="G30" s="138"/>
+      <c r="G30" s="137"/>
       <c r="H30" s="36">
         <v>120</v>
       </c>
@@ -5161,7 +5130,7 @@
       <c r="F31" s="36" t="s">
         <v>105</v>
       </c>
-      <c r="G31" s="138"/>
+      <c r="G31" s="137"/>
       <c r="H31" s="36">
         <v>120</v>
       </c>
@@ -5183,7 +5152,7 @@
       <c r="F32" s="77" t="s">
         <v>106</v>
       </c>
-      <c r="G32" s="138"/>
+      <c r="G32" s="137"/>
       <c r="H32" s="77">
         <v>120</v>
       </c>
@@ -5230,7 +5199,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor indexed="47"/>
   </sheetPr>
@@ -5254,15 +5223,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="144" t="s">
+      <c r="A1" s="143" t="s">
         <v>124</v>
       </c>
-      <c r="B1" s="144"/>
-      <c r="C1" s="144"/>
-      <c r="D1" s="144"/>
-      <c r="E1" s="144"/>
-      <c r="F1" s="144"/>
-      <c r="G1" s="144"/>
+      <c r="B1" s="143"/>
+      <c r="C1" s="143"/>
+      <c r="D1" s="143"/>
+      <c r="E1" s="143"/>
+      <c r="F1" s="143"/>
+      <c r="G1" s="143"/>
     </row>
     <row r="2" spans="1:9" ht="15">
       <c r="A2" s="68" t="s">
@@ -5303,7 +5272,7 @@
       <c r="F3" s="10">
         <v>5</v>
       </c>
-      <c r="G3" s="138" t="s">
+      <c r="G3" s="137" t="s">
         <v>11</v>
       </c>
     </row>
@@ -5322,7 +5291,7 @@
       <c r="F4" s="2">
         <v>5</v>
       </c>
-      <c r="G4" s="138"/>
+      <c r="G4" s="137"/>
     </row>
     <row r="5" spans="1:9" ht="15">
       <c r="A5" s="62" t="s">
@@ -5339,7 +5308,7 @@
       <c r="F5" s="2">
         <v>5</v>
       </c>
-      <c r="G5" s="138"/>
+      <c r="G5" s="137"/>
     </row>
     <row r="6" spans="1:9" ht="15">
       <c r="A6" s="62" t="s">
@@ -5356,7 +5325,7 @@
       <c r="F6" s="2">
         <v>5</v>
       </c>
-      <c r="G6" s="138"/>
+      <c r="G6" s="137"/>
     </row>
     <row r="7" spans="1:9" ht="15">
       <c r="A7" s="62" t="s">
@@ -5373,7 +5342,7 @@
       <c r="F7" s="2">
         <v>5</v>
       </c>
-      <c r="G7" s="138"/>
+      <c r="G7" s="137"/>
     </row>
     <row r="8" spans="1:9" ht="15">
       <c r="A8" s="62" t="s">
@@ -5390,7 +5359,7 @@
       <c r="F8" s="2">
         <v>5</v>
       </c>
-      <c r="G8" s="138"/>
+      <c r="G8" s="137"/>
     </row>
     <row r="9" spans="1:9" ht="15">
       <c r="A9" s="62" t="s">
@@ -5407,7 +5376,7 @@
       <c r="F9" s="2">
         <v>5</v>
       </c>
-      <c r="G9" s="138"/>
+      <c r="G9" s="137"/>
       <c r="H9" s="2"/>
     </row>
     <row r="10" spans="1:9" ht="15">
@@ -5425,7 +5394,7 @@
       <c r="F10" s="2">
         <v>5</v>
       </c>
-      <c r="G10" s="138"/>
+      <c r="G10" s="137"/>
       <c r="H10" s="2"/>
     </row>
     <row r="11" spans="1:9" ht="15">
@@ -5445,7 +5414,7 @@
       <c r="F11" s="89" t="s">
         <v>96</v>
       </c>
-      <c r="G11" s="145" t="s">
+      <c r="G11" s="144" t="s">
         <v>31</v>
       </c>
       <c r="H11" s="2"/>
@@ -5467,7 +5436,7 @@
       <c r="F12" s="94" t="s">
         <v>97</v>
       </c>
-      <c r="G12" s="145"/>
+      <c r="G12" s="144"/>
       <c r="H12" s="2"/>
     </row>
     <row r="13" spans="1:9" ht="15">
@@ -5487,7 +5456,7 @@
       <c r="F13" s="94" t="s">
         <v>98</v>
       </c>
-      <c r="G13" s="145"/>
+      <c r="G13" s="144"/>
       <c r="H13" s="2"/>
     </row>
     <row r="14" spans="1:9" ht="15">
@@ -5509,7 +5478,7 @@
       <c r="F14" s="94" t="s">
         <v>99</v>
       </c>
-      <c r="G14" s="145"/>
+      <c r="G14" s="144"/>
       <c r="H14" s="71">
         <v>43371</v>
       </c>
@@ -5536,7 +5505,7 @@
       <c r="F15" s="94" t="s">
         <v>100</v>
       </c>
-      <c r="G15" s="145"/>
+      <c r="G15" s="144"/>
       <c r="H15" s="2"/>
     </row>
     <row r="16" spans="1:9" ht="15">
@@ -5558,7 +5527,7 @@
       <c r="F16" s="94" t="s">
         <v>101</v>
       </c>
-      <c r="G16" s="145"/>
+      <c r="G16" s="144"/>
       <c r="H16" s="2"/>
     </row>
     <row r="17" spans="1:9" ht="15">
@@ -5580,7 +5549,7 @@
       <c r="F17" s="94" t="s">
         <v>102</v>
       </c>
-      <c r="G17" s="145"/>
+      <c r="G17" s="144"/>
       <c r="H17" s="2"/>
     </row>
     <row r="18" spans="1:9" ht="15">
@@ -5602,7 +5571,7 @@
       <c r="F18" s="50" t="s">
         <v>104</v>
       </c>
-      <c r="G18" s="145"/>
+      <c r="G18" s="144"/>
       <c r="H18" s="71">
         <v>43409</v>
       </c>
@@ -5627,7 +5596,7 @@
       <c r="F19" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="G19" s="138" t="s">
+      <c r="G19" s="137" t="s">
         <v>39</v>
       </c>
       <c r="H19" s="2"/>
@@ -5651,7 +5620,7 @@
       <c r="F20" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="G20" s="138"/>
+      <c r="G20" s="137"/>
       <c r="H20" s="2"/>
     </row>
     <row r="21" spans="1:9" ht="15">
@@ -5673,7 +5642,7 @@
       <c r="F21" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="G21" s="138"/>
+      <c r="G21" s="137"/>
       <c r="H21" s="2"/>
     </row>
     <row r="22" spans="1:9" ht="15">
@@ -5695,7 +5664,7 @@
       <c r="F22" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="G22" s="138"/>
+      <c r="G22" s="137"/>
       <c r="H22" s="65">
         <v>43448</v>
       </c>
@@ -5722,7 +5691,7 @@
       <c r="F23" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="G23" s="138"/>
+      <c r="G23" s="137"/>
       <c r="H23" s="2"/>
     </row>
     <row r="24" spans="1:9" ht="15">
@@ -5744,7 +5713,7 @@
       <c r="F24" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="G24" s="138"/>
+      <c r="G24" s="137"/>
       <c r="H24" s="2"/>
     </row>
     <row r="25" spans="1:9" ht="15">
@@ -5764,7 +5733,7 @@
       <c r="F25" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="G25" s="138"/>
+      <c r="G25" s="137"/>
     </row>
     <row r="26" spans="1:9" ht="15">
       <c r="A26" s="64" t="s">
@@ -5783,7 +5752,7 @@
       <c r="F26" s="41" t="s">
         <v>104</v>
       </c>
-      <c r="G26" s="138"/>
+      <c r="G26" s="137"/>
       <c r="I26" s="2">
         <v>600</v>
       </c>
@@ -5808,7 +5777,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor indexed="47"/>
   </sheetPr>
@@ -5834,16 +5803,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="146" t="s">
+      <c r="A1" s="145" t="s">
         <v>141</v>
       </c>
-      <c r="B1" s="146"/>
-      <c r="C1" s="146"/>
-      <c r="D1" s="146"/>
-      <c r="E1" s="146"/>
-      <c r="F1" s="146"/>
-      <c r="G1" s="146"/>
-      <c r="H1" s="146"/>
+      <c r="B1" s="145"/>
+      <c r="C1" s="145"/>
+      <c r="D1" s="145"/>
+      <c r="E1" s="145"/>
+      <c r="F1" s="145"/>
+      <c r="G1" s="145"/>
+      <c r="H1" s="145"/>
     </row>
     <row r="2" spans="1:11" ht="15">
       <c r="A2" s="30" t="s">
@@ -5883,13 +5852,13 @@
       <c r="F3" s="2">
         <v>5</v>
       </c>
-      <c r="G3" s="146" t="s">
+      <c r="G3" s="145" t="s">
         <v>143</v>
       </c>
-      <c r="J3" s="147" t="s">
+      <c r="J3" s="146" t="s">
         <v>144</v>
       </c>
-      <c r="K3" s="147"/>
+      <c r="K3" s="146"/>
     </row>
     <row r="4" spans="1:11" ht="15">
       <c r="A4" s="80" t="s">
@@ -5904,7 +5873,7 @@
       <c r="F4" s="2">
         <v>5</v>
       </c>
-      <c r="G4" s="146"/>
+      <c r="G4" s="145"/>
       <c r="J4" t="s">
         <v>145</v>
       </c>
@@ -5926,7 +5895,7 @@
       <c r="F5" s="2">
         <v>5</v>
       </c>
-      <c r="G5" s="146"/>
+      <c r="G5" s="145"/>
       <c r="J5" t="s">
         <v>146</v>
       </c>
@@ -5948,7 +5917,7 @@
       <c r="F6" s="2">
         <v>5</v>
       </c>
-      <c r="G6" s="146"/>
+      <c r="G6" s="145"/>
       <c r="J6" t="s">
         <v>147</v>
       </c>
@@ -5970,7 +5939,7 @@
       <c r="F7" s="10">
         <v>5</v>
       </c>
-      <c r="G7" s="140" t="s">
+      <c r="G7" s="139" t="s">
         <v>11</v>
       </c>
       <c r="J7" t="s">
@@ -5994,7 +5963,7 @@
       <c r="F8" s="2">
         <v>5</v>
       </c>
-      <c r="G8" s="140"/>
+      <c r="G8" s="139"/>
       <c r="J8" t="s">
         <v>149</v>
       </c>
@@ -6016,7 +5985,7 @@
       <c r="F9" s="2">
         <v>5</v>
       </c>
-      <c r="G9" s="140"/>
+      <c r="G9" s="139"/>
       <c r="J9" t="s">
         <v>150</v>
       </c>
@@ -6038,7 +6007,7 @@
       <c r="F10" s="2">
         <v>5</v>
       </c>
-      <c r="G10" s="140"/>
+      <c r="G10" s="139"/>
       <c r="J10" t="s">
         <v>151</v>
       </c>
@@ -6060,7 +6029,7 @@
       <c r="F11" s="2">
         <v>5</v>
       </c>
-      <c r="G11" s="140"/>
+      <c r="G11" s="139"/>
       <c r="J11" t="s">
         <v>152</v>
       </c>
@@ -6082,7 +6051,7 @@
       <c r="F12" s="2">
         <v>5</v>
       </c>
-      <c r="G12" s="140"/>
+      <c r="G12" s="139"/>
       <c r="J12" t="s">
         <v>153</v>
       </c>
@@ -6104,7 +6073,7 @@
       <c r="F13" s="2">
         <v>5</v>
       </c>
-      <c r="G13" s="140"/>
+      <c r="G13" s="139"/>
     </row>
     <row r="14" spans="1:11" ht="15">
       <c r="A14" s="58" t="s">
@@ -6119,7 +6088,7 @@
       <c r="F14" s="41">
         <v>5</v>
       </c>
-      <c r="G14" s="140"/>
+      <c r="G14" s="139"/>
     </row>
     <row r="15" spans="1:11" ht="15">
       <c r="A15" s="52" t="s">
@@ -6134,7 +6103,7 @@
       <c r="F15" s="10">
         <v>1</v>
       </c>
-      <c r="G15" s="140" t="s">
+      <c r="G15" s="139" t="s">
         <v>31</v>
       </c>
     </row>
@@ -6153,7 +6122,7 @@
       <c r="F16" s="2">
         <v>2</v>
       </c>
-      <c r="G16" s="140"/>
+      <c r="G16" s="139"/>
     </row>
     <row r="17" spans="1:10" ht="15">
       <c r="A17" s="56" t="s">
@@ -6170,7 +6139,7 @@
       <c r="F17" s="2">
         <v>3</v>
       </c>
-      <c r="G17" s="140"/>
+      <c r="G17" s="139"/>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
     </row>
@@ -6189,7 +6158,7 @@
       <c r="F18" s="2">
         <v>4</v>
       </c>
-      <c r="G18" s="140"/>
+      <c r="G18" s="139"/>
     </row>
     <row r="19" spans="1:10" ht="15">
       <c r="A19" s="62" t="s">
@@ -6207,7 +6176,7 @@
       <c r="F19" s="2">
         <v>5</v>
       </c>
-      <c r="G19" s="140"/>
+      <c r="G19" s="139"/>
     </row>
     <row r="20" spans="1:10" ht="15">
       <c r="A20" s="62" t="s">
@@ -6225,7 +6194,7 @@
       <c r="F20" s="2">
         <v>6</v>
       </c>
-      <c r="G20" s="140"/>
+      <c r="G20" s="139"/>
     </row>
     <row r="21" spans="1:10" ht="15">
       <c r="A21" s="62" t="s">
@@ -6243,7 +6212,7 @@
       <c r="F21" s="2">
         <v>7</v>
       </c>
-      <c r="G21" s="140"/>
+      <c r="G21" s="139"/>
     </row>
     <row r="22" spans="1:10" ht="15">
       <c r="A22" s="64" t="s">
@@ -6262,7 +6231,7 @@
       <c r="F22" s="41">
         <v>8</v>
       </c>
-      <c r="G22" s="140"/>
+      <c r="G22" s="139"/>
     </row>
     <row r="23" spans="1:10" ht="15">
       <c r="A23" s="60" t="s">
@@ -6281,7 +6250,7 @@
       <c r="F23" s="10">
         <v>1</v>
       </c>
-      <c r="G23" s="140" t="s">
+      <c r="G23" s="139" t="s">
         <v>39</v>
       </c>
     </row>
@@ -6304,7 +6273,7 @@
       <c r="F24" s="2">
         <v>2</v>
       </c>
-      <c r="G24" s="140"/>
+      <c r="G24" s="139"/>
     </row>
     <row r="25" spans="1:10" ht="15">
       <c r="A25" s="62" t="s">
@@ -6325,7 +6294,7 @@
       <c r="F25" s="2">
         <v>3</v>
       </c>
-      <c r="G25" s="140"/>
+      <c r="G25" s="139"/>
     </row>
     <row r="26" spans="1:10" ht="15">
       <c r="A26" s="62" t="s">
@@ -6346,7 +6315,7 @@
       <c r="F26" s="2">
         <v>4</v>
       </c>
-      <c r="G26" s="140"/>
+      <c r="G26" s="139"/>
       <c r="H26" s="2" t="s">
         <v>158</v>
       </c>
@@ -6370,7 +6339,7 @@
       <c r="F27" s="2">
         <v>5</v>
       </c>
-      <c r="G27" s="140"/>
+      <c r="G27" s="139"/>
     </row>
     <row r="28" spans="1:10" ht="15">
       <c r="A28" s="62" t="s">
@@ -6391,7 +6360,7 @@
       <c r="F28" s="2">
         <v>6</v>
       </c>
-      <c r="G28" s="140"/>
+      <c r="G28" s="139"/>
     </row>
     <row r="29" spans="1:10" ht="15">
       <c r="A29" s="62" t="s">
@@ -6412,7 +6381,7 @@
       <c r="F29" s="2">
         <v>7</v>
       </c>
-      <c r="G29" s="140"/>
+      <c r="G29" s="139"/>
     </row>
     <row r="30" spans="1:10" ht="15">
       <c r="A30" s="64" t="s">
@@ -6433,7 +6402,7 @@
       <c r="F30" s="41">
         <v>8</v>
       </c>
-      <c r="G30" s="140"/>
+      <c r="G30" s="139"/>
       <c r="H30" s="71">
         <v>43396</v>
       </c>

--- a/Cronograma aulas/Aulas v2.xlsx
+++ b/Cronograma aulas/Aulas v2.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Development\github\aulas-3way\Cronograma aulas\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="489"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20610" windowHeight="8025" tabRatio="489" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="t7_seg_e_qua" sheetId="1" r:id="rId1"/>
@@ -15,7 +20,7 @@
     <sheet name="t2_Sábado" sheetId="6" r:id="rId6"/>
     <sheet name="t1_Domingo_(finalizada)" sheetId="7" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="114210"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -25,7 +30,7 @@
     <author/>
   </authors>
   <commentList>
-    <comment ref="D15" authorId="0">
+    <comment ref="D15" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -43,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="730" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="731" uniqueCount="173">
   <si>
     <t>Segunda e Quarta – sala 04 (senha javaweb)</t>
   </si>
@@ -583,7 +588,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="[$R$-416]\ #,##0.00;[Red]\-[$R$-416]\ #,##0.00"/>
     <numFmt numFmtId="165" formatCode="m/d/yy"/>
@@ -1447,6 +1452,14 @@
       <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1499,9 +1512,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Escritório">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1539,9 +1552,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Escritório">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1573,9 +1586,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1607,9 +1621,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Escritório">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1782,10 +1797,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A13" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
       <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
@@ -2388,11 +2403,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A4" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="14.25"/>
@@ -2778,7 +2793,9 @@
       <c r="B20" s="126">
         <v>43743</v>
       </c>
-      <c r="C20" s="36"/>
+      <c r="C20" s="36" t="s">
+        <v>29</v>
+      </c>
       <c r="D20" s="107"/>
       <c r="E20" s="37"/>
       <c r="F20" s="137"/>
@@ -2897,7 +2914,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor indexed="47"/>
   </sheetPr>
@@ -3603,7 +3620,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor indexed="47"/>
   </sheetPr>
@@ -4392,7 +4409,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor indexed="47"/>
   </sheetPr>
@@ -5199,7 +5216,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor indexed="47"/>
   </sheetPr>
@@ -5777,7 +5794,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor indexed="47"/>
   </sheetPr>

--- a/Cronograma aulas/Aulas v2.xlsx
+++ b/Cronograma aulas/Aulas v2.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Development\github\aulas-3way\Cronograma aulas\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20610" windowHeight="8025" tabRatio="489" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20610" windowHeight="8025" tabRatio="489"/>
   </bookViews>
   <sheets>
     <sheet name="t7_seg_e_qua" sheetId="1" r:id="rId1"/>
@@ -20,7 +15,7 @@
     <sheet name="t2_Sábado" sheetId="6" r:id="rId6"/>
     <sheet name="t1_Domingo_(finalizada)" sheetId="7" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="114210"/>
 </workbook>
 </file>
 
@@ -30,7 +25,7 @@
     <author/>
   </authors>
   <commentList>
-    <comment ref="D15" authorId="0" shapeId="0">
+    <comment ref="D15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -588,7 +583,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="[$R$-416]\ #,##0.00;[Red]\-[$R$-416]\ #,##0.00"/>
     <numFmt numFmtId="165" formatCode="m/d/yy"/>
@@ -1452,14 +1447,6 @@
       <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -1512,9 +1499,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Escritório">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1552,9 +1539,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Escritório">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1586,10 +1573,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1621,10 +1607,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Escritório">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1797,11 +1782,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A13" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="14.25"/>
@@ -2403,11 +2388,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView showGridLines="0" topLeftCell="A4" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="14.25"/>
@@ -2687,8 +2672,8 @@
       <c r="B15" s="126">
         <v>43694</v>
       </c>
-      <c r="C15" s="23" t="s">
-        <v>29</v>
+      <c r="C15" s="14" t="s">
+        <v>9</v>
       </c>
       <c r="D15" s="15" t="s">
         <v>48</v>
@@ -2709,8 +2694,8 @@
       <c r="B16" s="126">
         <v>43701</v>
       </c>
-      <c r="C16" s="36" t="s">
-        <v>29</v>
+      <c r="C16" s="14" t="s">
+        <v>9</v>
       </c>
       <c r="D16" s="17" t="s">
         <v>162</v>
@@ -2731,8 +2716,8 @@
       <c r="B17" s="128">
         <v>43722</v>
       </c>
-      <c r="C17" s="36" t="s">
-        <v>29</v>
+      <c r="C17" s="14" t="s">
+        <v>9</v>
       </c>
       <c r="D17" s="17" t="s">
         <v>168</v>
@@ -2754,7 +2739,7 @@
         <v>43729</v>
       </c>
       <c r="C18" s="36" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="D18" s="15"/>
       <c r="E18" s="2" t="s">
@@ -2914,7 +2899,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor indexed="47"/>
   </sheetPr>
@@ -3620,7 +3605,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor indexed="47"/>
   </sheetPr>
@@ -4409,7 +4394,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor indexed="47"/>
   </sheetPr>
@@ -5216,7 +5201,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor indexed="47"/>
   </sheetPr>
@@ -5794,7 +5779,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor indexed="47"/>
   </sheetPr>

--- a/Cronograma aulas/Aulas v2.xlsx
+++ b/Cronograma aulas/Aulas v2.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Development\github\aulas-3way\Cronograma aulas\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20610" windowHeight="8025" tabRatio="489"/>
   </bookViews>
@@ -15,7 +20,7 @@
     <sheet name="t2_Sábado" sheetId="6" r:id="rId6"/>
     <sheet name="t1_Domingo_(finalizada)" sheetId="7" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="114210"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -25,7 +30,7 @@
     <author/>
   </authors>
   <commentList>
-    <comment ref="D15" authorId="0">
+    <comment ref="D15" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -43,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="731" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="740" uniqueCount="176">
   <si>
     <t>Segunda e Quarta – sala 04 (senha javaweb)</t>
   </si>
@@ -579,11 +584,20 @@
   <si>
     <t>DAOs e Services</t>
   </si>
+  <si>
+    <t>Fragmentação home.html</t>
+  </si>
+  <si>
+    <t>Spring-thymeleaf</t>
+  </si>
+  <si>
+    <t>Fragmentação</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="[$R$-416]\ #,##0.00;[Red]\-[$R$-416]\ #,##0.00"/>
     <numFmt numFmtId="165" formatCode="m/d/yy"/>
@@ -1447,6 +1461,14 @@
       <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1499,9 +1521,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Escritório">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1539,9 +1561,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Escritório">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1573,9 +1595,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1607,9 +1630,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Escritório">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1782,11 +1806,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A9" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="14.25"/>
@@ -1795,7 +1819,7 @@
     <col min="2" max="2" width="10.375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.5" customWidth="1"/>
     <col min="4" max="4" width="94.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.125" customWidth="1"/>
     <col min="6" max="6" width="10.5" customWidth="1"/>
     <col min="7" max="7" width="7.75" customWidth="1"/>
   </cols>
@@ -2232,7 +2256,9 @@
       <c r="D22" s="12" t="s">
         <v>169</v>
       </c>
-      <c r="E22" s="37"/>
+      <c r="E22" s="37" t="s">
+        <v>174</v>
+      </c>
       <c r="F22" s="137"/>
       <c r="G22" s="17">
         <v>140</v>
@@ -2252,7 +2278,9 @@
       <c r="D23" s="37" t="s">
         <v>171</v>
       </c>
-      <c r="E23" s="37"/>
+      <c r="E23" s="37" t="s">
+        <v>174</v>
+      </c>
       <c r="F23" s="137"/>
       <c r="G23" s="17">
         <v>140</v>
@@ -2272,7 +2300,9 @@
       <c r="D24" s="37" t="s">
         <v>172</v>
       </c>
-      <c r="E24" s="37"/>
+      <c r="E24" s="37" t="s">
+        <v>174</v>
+      </c>
       <c r="F24" s="137"/>
       <c r="G24" s="17">
         <v>140</v>
@@ -2286,9 +2316,15 @@
       <c r="B25" s="126">
         <v>43745</v>
       </c>
-      <c r="C25" s="23"/>
-      <c r="D25" s="37"/>
-      <c r="E25" s="37"/>
+      <c r="C25" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="D25" s="37" t="s">
+        <v>173</v>
+      </c>
+      <c r="E25" s="37" t="s">
+        <v>174</v>
+      </c>
       <c r="F25" s="137"/>
       <c r="G25" s="17">
         <v>140</v>
@@ -2301,9 +2337,15 @@
       <c r="B26" s="126">
         <v>43747</v>
       </c>
-      <c r="C26" s="23"/>
-      <c r="D26" s="37"/>
-      <c r="E26" s="37"/>
+      <c r="C26" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="D26" s="37" t="s">
+        <v>175</v>
+      </c>
+      <c r="E26" s="37" t="s">
+        <v>174</v>
+      </c>
       <c r="F26" s="137"/>
       <c r="G26" s="17">
         <v>140</v>
@@ -2388,11 +2430,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A4" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="14.25"/>
@@ -2899,7 +2941,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor indexed="47"/>
   </sheetPr>
@@ -3605,7 +3647,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor indexed="47"/>
   </sheetPr>
@@ -4394,7 +4436,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor indexed="47"/>
   </sheetPr>
@@ -5201,7 +5243,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor indexed="47"/>
   </sheetPr>
@@ -5779,7 +5821,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor indexed="47"/>
   </sheetPr>

--- a/Cronograma aulas/Aulas v2.xlsx
+++ b/Cronograma aulas/Aulas v2.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Development\github\aulas-3way\Cronograma aulas\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20610" windowHeight="8025" tabRatio="489"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20610" windowHeight="8025" tabRatio="489" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="t7_seg_e_qua" sheetId="1" r:id="rId1"/>
@@ -30,7 +25,7 @@
     <author/>
   </authors>
   <commentList>
-    <comment ref="D15" authorId="0" shapeId="0">
+    <comment ref="D15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -597,7 +592,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="[$R$-416]\ #,##0.00;[Red]\-[$R$-416]\ #,##0.00"/>
     <numFmt numFmtId="165" formatCode="m/d/yy"/>
@@ -972,7 +967,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="18" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="147">
+  <cellXfs count="148">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1352,6 +1347,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="166" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1461,14 +1459,6 @@
       <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -1521,9 +1511,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Escritório">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1561,9 +1551,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Escritório">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1595,10 +1585,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1630,10 +1619,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Escritório">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1806,11 +1794,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A9" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView showGridLines="0" topLeftCell="A9" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="14.25"/>
@@ -1825,15 +1813,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="137" t="s">
+      <c r="A1" s="138" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="137"/>
-      <c r="C1" s="137"/>
-      <c r="D1" s="137"/>
-      <c r="E1" s="137"/>
-      <c r="F1" s="137"/>
-      <c r="G1" s="137"/>
+      <c r="B1" s="138"/>
+      <c r="C1" s="138"/>
+      <c r="D1" s="138"/>
+      <c r="E1" s="138"/>
+      <c r="F1" s="138"/>
+      <c r="G1" s="138"/>
     </row>
     <row r="2" spans="1:8" ht="15">
       <c r="A2" s="68" t="s">
@@ -1873,7 +1861,7 @@
         <v>10</v>
       </c>
       <c r="E3" s="132"/>
-      <c r="F3" s="137" t="s">
+      <c r="F3" s="138" t="s">
         <v>11</v>
       </c>
       <c r="G3" s="11">
@@ -1894,7 +1882,7 @@
         <v>13</v>
       </c>
       <c r="E4" s="106"/>
-      <c r="F4" s="137"/>
+      <c r="F4" s="138"/>
       <c r="G4" s="17">
         <v>140</v>
       </c>
@@ -1913,7 +1901,7 @@
         <v>15</v>
       </c>
       <c r="E5" s="106"/>
-      <c r="F5" s="137"/>
+      <c r="F5" s="138"/>
       <c r="G5" s="17">
         <v>140</v>
       </c>
@@ -1932,7 +1920,7 @@
         <v>17</v>
       </c>
       <c r="E6" s="107"/>
-      <c r="F6" s="137"/>
+      <c r="F6" s="138"/>
       <c r="G6" s="17">
         <v>140</v>
       </c>
@@ -1951,7 +1939,7 @@
         <v>19</v>
       </c>
       <c r="E7" s="107"/>
-      <c r="F7" s="137"/>
+      <c r="F7" s="138"/>
       <c r="G7" s="17">
         <v>140</v>
       </c>
@@ -1970,7 +1958,7 @@
         <v>21</v>
       </c>
       <c r="E8" s="107"/>
-      <c r="F8" s="137"/>
+      <c r="F8" s="138"/>
       <c r="G8" s="17">
         <v>140</v>
       </c>
@@ -1989,7 +1977,7 @@
         <v>23</v>
       </c>
       <c r="E9" s="107"/>
-      <c r="F9" s="137"/>
+      <c r="F9" s="138"/>
       <c r="G9" s="17">
         <v>140</v>
       </c>
@@ -2008,7 +1996,7 @@
         <v>25</v>
       </c>
       <c r="E10" s="107"/>
-      <c r="F10" s="137"/>
+      <c r="F10" s="138"/>
       <c r="G10" s="17">
         <v>140</v>
       </c>
@@ -2025,7 +2013,7 @@
       </c>
       <c r="D11" s="17"/>
       <c r="E11" s="107"/>
-      <c r="F11" s="137"/>
+      <c r="F11" s="138"/>
       <c r="G11" s="17">
         <v>140</v>
       </c>
@@ -2045,7 +2033,7 @@
         <v>28</v>
       </c>
       <c r="E12" s="20"/>
-      <c r="F12" s="137"/>
+      <c r="F12" s="138"/>
       <c r="G12" s="17">
         <v>140</v>
       </c>
@@ -2065,7 +2053,7 @@
         <v>30</v>
       </c>
       <c r="E13" s="11"/>
-      <c r="F13" s="137" t="s">
+      <c r="F13" s="138" t="s">
         <v>31</v>
       </c>
       <c r="G13" s="17">
@@ -2087,7 +2075,7 @@
         <v>32</v>
       </c>
       <c r="E14" s="17"/>
-      <c r="F14" s="137"/>
+      <c r="F14" s="138"/>
       <c r="G14" s="17">
         <v>140</v>
       </c>
@@ -2107,7 +2095,7 @@
         <v>32</v>
       </c>
       <c r="E15" s="17"/>
-      <c r="F15" s="137"/>
+      <c r="F15" s="138"/>
       <c r="G15" s="17">
         <v>140</v>
       </c>
@@ -2127,7 +2115,7 @@
         <v>163</v>
       </c>
       <c r="E16" s="17"/>
-      <c r="F16" s="137"/>
+      <c r="F16" s="138"/>
       <c r="G16" s="17">
         <v>140</v>
       </c>
@@ -2149,7 +2137,7 @@
       <c r="E17" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="F17" s="137"/>
+      <c r="F17" s="138"/>
       <c r="G17" s="17">
         <v>140</v>
       </c>
@@ -2171,7 +2159,7 @@
       <c r="E18" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="F18" s="137"/>
+      <c r="F18" s="138"/>
       <c r="G18" s="17">
         <v>140</v>
       </c>
@@ -2193,7 +2181,7 @@
       <c r="E19" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="F19" s="137"/>
+      <c r="F19" s="138"/>
       <c r="G19" s="15">
         <v>140</v>
       </c>
@@ -2215,7 +2203,7 @@
       <c r="E20" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="F20" s="137"/>
+      <c r="F20" s="138"/>
       <c r="G20" s="130">
         <v>140</v>
       </c>
@@ -2235,7 +2223,7 @@
       <c r="E21" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="F21" s="137" t="s">
+      <c r="F21" s="138" t="s">
         <v>39</v>
       </c>
       <c r="G21" s="17">
@@ -2259,7 +2247,7 @@
       <c r="E22" s="37" t="s">
         <v>174</v>
       </c>
-      <c r="F22" s="137"/>
+      <c r="F22" s="138"/>
       <c r="G22" s="17">
         <v>140</v>
       </c>
@@ -2281,7 +2269,7 @@
       <c r="E23" s="37" t="s">
         <v>174</v>
       </c>
-      <c r="F23" s="137"/>
+      <c r="F23" s="138"/>
       <c r="G23" s="17">
         <v>140</v>
       </c>
@@ -2303,7 +2291,7 @@
       <c r="E24" s="37" t="s">
         <v>174</v>
       </c>
-      <c r="F24" s="137"/>
+      <c r="F24" s="138"/>
       <c r="G24" s="17">
         <v>140</v>
       </c>
@@ -2325,7 +2313,7 @@
       <c r="E25" s="37" t="s">
         <v>174</v>
       </c>
-      <c r="F25" s="137"/>
+      <c r="F25" s="138"/>
       <c r="G25" s="17">
         <v>140</v>
       </c>
@@ -2346,7 +2334,7 @@
       <c r="E26" s="37" t="s">
         <v>174</v>
       </c>
-      <c r="F26" s="137"/>
+      <c r="F26" s="138"/>
       <c r="G26" s="17">
         <v>140</v>
       </c>
@@ -2361,7 +2349,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="37"/>
       <c r="E27" s="37"/>
-      <c r="F27" s="137"/>
+      <c r="F27" s="138"/>
       <c r="G27" s="17">
         <v>140</v>
       </c>
@@ -2376,7 +2364,7 @@
       <c r="C28" s="23"/>
       <c r="D28" s="17"/>
       <c r="E28" s="37"/>
-      <c r="F28" s="137"/>
+      <c r="F28" s="138"/>
       <c r="G28" s="17">
         <v>140</v>
       </c>
@@ -2391,7 +2379,7 @@
       <c r="C29" s="23"/>
       <c r="D29" s="17"/>
       <c r="E29" s="37"/>
-      <c r="F29" s="137"/>
+      <c r="F29" s="138"/>
       <c r="G29" s="17">
         <v>140</v>
       </c>
@@ -2406,7 +2394,7 @@
       <c r="C30" s="123"/>
       <c r="D30" s="28"/>
       <c r="E30" s="133"/>
-      <c r="F30" s="137"/>
+      <c r="F30" s="138"/>
       <c r="G30" s="28">
         <v>140</v>
       </c>
@@ -2430,11 +2418,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A4" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="14.25"/>
@@ -2449,15 +2437,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="137" t="s">
+      <c r="A1" s="138" t="s">
         <v>170</v>
       </c>
-      <c r="B1" s="137"/>
-      <c r="C1" s="137"/>
-      <c r="D1" s="137"/>
-      <c r="E1" s="137"/>
-      <c r="F1" s="137"/>
-      <c r="G1" s="137"/>
+      <c r="B1" s="138"/>
+      <c r="C1" s="138"/>
+      <c r="D1" s="138"/>
+      <c r="E1" s="138"/>
+      <c r="F1" s="138"/>
+      <c r="G1" s="138"/>
     </row>
     <row r="2" spans="1:8" ht="15">
       <c r="A2" s="3" t="s">
@@ -2495,7 +2483,7 @@
       </c>
       <c r="D3" s="9"/>
       <c r="E3" s="32"/>
-      <c r="F3" s="137" t="s">
+      <c r="F3" s="138" t="s">
         <v>11</v>
       </c>
       <c r="G3" s="33">
@@ -2514,7 +2502,7 @@
       </c>
       <c r="D4" s="15"/>
       <c r="E4" s="35"/>
-      <c r="F4" s="137"/>
+      <c r="F4" s="138"/>
       <c r="G4" s="36">
         <v>175</v>
       </c>
@@ -2531,7 +2519,7 @@
       </c>
       <c r="D5" s="15"/>
       <c r="E5" s="35"/>
-      <c r="F5" s="137"/>
+      <c r="F5" s="138"/>
       <c r="G5" s="36">
         <v>175</v>
       </c>
@@ -2548,7 +2536,7 @@
       </c>
       <c r="D6" s="17"/>
       <c r="E6" s="37"/>
-      <c r="F6" s="137"/>
+      <c r="F6" s="138"/>
       <c r="G6" s="36">
         <v>175</v>
       </c>
@@ -2565,7 +2553,7 @@
       </c>
       <c r="D7" s="17"/>
       <c r="E7" s="37"/>
-      <c r="F7" s="137"/>
+      <c r="F7" s="138"/>
       <c r="G7" s="36">
         <v>175</v>
       </c>
@@ -2582,7 +2570,7 @@
       </c>
       <c r="D8" s="17"/>
       <c r="E8" s="37"/>
-      <c r="F8" s="137"/>
+      <c r="F8" s="138"/>
       <c r="G8" s="36">
         <v>175</v>
       </c>
@@ -2601,7 +2589,7 @@
         <v>40</v>
       </c>
       <c r="E9" s="37"/>
-      <c r="F9" s="137"/>
+      <c r="F9" s="138"/>
       <c r="G9" s="36">
         <v>175</v>
       </c>
@@ -2618,7 +2606,7 @@
       </c>
       <c r="D10" s="39"/>
       <c r="E10" s="40"/>
-      <c r="F10" s="137"/>
+      <c r="F10" s="138"/>
       <c r="G10" s="36">
         <v>175</v>
       </c>
@@ -2637,7 +2625,7 @@
         <v>41</v>
       </c>
       <c r="E11" s="2"/>
-      <c r="F11" s="137" t="s">
+      <c r="F11" s="138" t="s">
         <v>31</v>
       </c>
       <c r="G11" s="17">
@@ -2659,7 +2647,7 @@
         <v>32</v>
       </c>
       <c r="E12" s="2"/>
-      <c r="F12" s="137"/>
+      <c r="F12" s="138"/>
       <c r="G12" s="17">
         <v>175</v>
       </c>
@@ -2679,7 +2667,7 @@
         <v>43</v>
       </c>
       <c r="E13" s="2"/>
-      <c r="F13" s="137"/>
+      <c r="F13" s="138"/>
       <c r="G13" s="17">
         <v>175</v>
       </c>
@@ -2701,7 +2689,7 @@
       <c r="E14" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="F14" s="137"/>
+      <c r="F14" s="138"/>
       <c r="G14" s="17">
         <v>175</v>
       </c>
@@ -2723,7 +2711,7 @@
       <c r="E15" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="F15" s="137"/>
+      <c r="F15" s="138"/>
       <c r="G15" s="17">
         <v>175</v>
       </c>
@@ -2745,7 +2733,7 @@
       <c r="E16" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="F16" s="137"/>
+      <c r="F16" s="138"/>
       <c r="G16" s="17">
         <v>175</v>
       </c>
@@ -2767,7 +2755,7 @@
       <c r="E17" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="F17" s="137"/>
+      <c r="F17" s="138"/>
       <c r="G17" s="17">
         <v>175</v>
       </c>
@@ -2787,7 +2775,7 @@
       <c r="E18" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="F18" s="137"/>
+      <c r="F18" s="138"/>
       <c r="G18" s="17">
         <v>175</v>
       </c>
@@ -2805,7 +2793,7 @@
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="6"/>
-      <c r="F19" s="137" t="s">
+      <c r="F19" s="138" t="s">
         <v>39</v>
       </c>
       <c r="G19" s="36">
@@ -2825,7 +2813,7 @@
       </c>
       <c r="D20" s="107"/>
       <c r="E20" s="37"/>
-      <c r="F20" s="137"/>
+      <c r="F20" s="138"/>
       <c r="G20" s="36">
         <v>175</v>
       </c>
@@ -2835,13 +2823,13 @@
       <c r="A21" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="B21" s="126">
+      <c r="B21" s="137">
         <v>43750</v>
       </c>
       <c r="C21" s="36"/>
       <c r="D21" s="107"/>
       <c r="E21" s="37"/>
-      <c r="F21" s="137"/>
+      <c r="F21" s="138"/>
       <c r="G21" s="36">
         <v>175</v>
       </c>
@@ -2857,7 +2845,7 @@
       <c r="C22" s="36"/>
       <c r="D22" s="107"/>
       <c r="E22" s="37"/>
-      <c r="F22" s="137"/>
+      <c r="F22" s="138"/>
       <c r="G22" s="36">
         <v>175</v>
       </c>
@@ -2873,7 +2861,7 @@
       <c r="C23" s="134"/>
       <c r="D23" s="107"/>
       <c r="E23" s="37"/>
-      <c r="F23" s="137"/>
+      <c r="F23" s="138"/>
       <c r="G23" s="36">
         <v>175</v>
       </c>
@@ -2888,7 +2876,7 @@
       <c r="C24" s="36"/>
       <c r="D24" s="107"/>
       <c r="E24" s="37"/>
-      <c r="F24" s="137"/>
+      <c r="F24" s="138"/>
       <c r="G24" s="36">
         <v>175</v>
       </c>
@@ -2903,7 +2891,7 @@
       <c r="C25" s="36"/>
       <c r="D25" s="107"/>
       <c r="E25" s="37"/>
-      <c r="F25" s="137"/>
+      <c r="F25" s="138"/>
       <c r="G25" s="36">
         <v>175</v>
       </c>
@@ -2918,7 +2906,7 @@
       <c r="C26" s="44"/>
       <c r="D26" s="41"/>
       <c r="E26" s="40"/>
-      <c r="F26" s="137"/>
+      <c r="F26" s="138"/>
       <c r="G26" s="44">
         <v>175</v>
       </c>
@@ -2941,7 +2929,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor indexed="47"/>
   </sheetPr>
@@ -2964,16 +2952,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15">
-      <c r="A1" s="138" t="s">
+      <c r="A1" s="139" t="s">
         <v>75</v>
       </c>
-      <c r="B1" s="138"/>
-      <c r="C1" s="138"/>
-      <c r="D1" s="138"/>
-      <c r="E1" s="138"/>
-      <c r="F1" s="138"/>
-      <c r="G1" s="138"/>
-      <c r="H1" s="138"/>
+      <c r="B1" s="139"/>
+      <c r="C1" s="139"/>
+      <c r="D1" s="139"/>
+      <c r="E1" s="139"/>
+      <c r="F1" s="139"/>
+      <c r="G1" s="139"/>
+      <c r="H1" s="139"/>
     </row>
     <row r="2" spans="1:9" ht="15">
       <c r="A2" s="3" t="s">
@@ -3015,7 +3003,7 @@
       </c>
       <c r="E3" s="10"/>
       <c r="F3" s="10"/>
-      <c r="G3" s="139" t="s">
+      <c r="G3" s="140" t="s">
         <v>11</v>
       </c>
       <c r="H3" s="11">
@@ -3035,7 +3023,7 @@
       <c r="D4" s="45"/>
       <c r="E4" s="16"/>
       <c r="F4" s="2"/>
-      <c r="G4" s="139"/>
+      <c r="G4" s="140"/>
       <c r="H4" s="17">
         <v>140</v>
       </c>
@@ -3053,7 +3041,7 @@
       <c r="D5" s="45"/>
       <c r="E5" s="16"/>
       <c r="F5" s="2"/>
-      <c r="G5" s="139"/>
+      <c r="G5" s="140"/>
       <c r="H5" s="17">
         <v>140</v>
       </c>
@@ -3071,7 +3059,7 @@
       <c r="D6" s="45"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
-      <c r="G6" s="139"/>
+      <c r="G6" s="140"/>
       <c r="H6" s="17">
         <v>140</v>
       </c>
@@ -3091,7 +3079,7 @@
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
-      <c r="G7" s="139"/>
+      <c r="G7" s="140"/>
       <c r="H7" s="17">
         <v>140</v>
       </c>
@@ -3111,7 +3099,7 @@
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
-      <c r="G8" s="139"/>
+      <c r="G8" s="140"/>
       <c r="H8" s="17">
         <v>140</v>
       </c>
@@ -3131,7 +3119,7 @@
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
-      <c r="G9" s="139"/>
+      <c r="G9" s="140"/>
       <c r="H9" s="17">
         <v>140</v>
       </c>
@@ -3151,7 +3139,7 @@
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
-      <c r="G10" s="139"/>
+      <c r="G10" s="140"/>
       <c r="H10" s="17">
         <v>140</v>
       </c>
@@ -3169,7 +3157,7 @@
       <c r="D11" s="17"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
-      <c r="G11" s="139"/>
+      <c r="G11" s="140"/>
       <c r="H11" s="17">
         <v>140</v>
       </c>
@@ -3190,7 +3178,7 @@
       </c>
       <c r="E12" s="20"/>
       <c r="F12" s="41"/>
-      <c r="G12" s="139"/>
+      <c r="G12" s="140"/>
       <c r="H12" s="17">
         <v>140</v>
       </c>
@@ -3213,7 +3201,7 @@
       </c>
       <c r="E13" s="10"/>
       <c r="F13" s="10"/>
-      <c r="G13" s="139" t="s">
+      <c r="G13" s="140" t="s">
         <v>31</v>
       </c>
       <c r="H13" s="17">
@@ -3236,7 +3224,7 @@
       </c>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
-      <c r="G14" s="139"/>
+      <c r="G14" s="140"/>
       <c r="H14" s="17">
         <v>140</v>
       </c>
@@ -3257,7 +3245,7 @@
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
-      <c r="G15" s="139"/>
+      <c r="G15" s="140"/>
       <c r="H15" s="17">
         <v>140</v>
       </c>
@@ -3278,7 +3266,7 @@
       </c>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
-      <c r="G16" s="139"/>
+      <c r="G16" s="140"/>
       <c r="H16" s="17">
         <v>140</v>
       </c>
@@ -3301,7 +3289,7 @@
         <v>33</v>
       </c>
       <c r="F17" s="2"/>
-      <c r="G17" s="139"/>
+      <c r="G17" s="140"/>
       <c r="H17" s="17">
         <v>140</v>
       </c>
@@ -3324,7 +3312,7 @@
         <v>35</v>
       </c>
       <c r="F18" s="2"/>
-      <c r="G18" s="139"/>
+      <c r="G18" s="140"/>
       <c r="H18" s="17">
         <v>140</v>
       </c>
@@ -3347,7 +3335,7 @@
         <v>37</v>
       </c>
       <c r="F19" s="42"/>
-      <c r="G19" s="139"/>
+      <c r="G19" s="140"/>
       <c r="H19" s="48">
         <v>140</v>
       </c>
@@ -3370,7 +3358,7 @@
         <v>37</v>
       </c>
       <c r="F20" s="2"/>
-      <c r="G20" s="139"/>
+      <c r="G20" s="140"/>
       <c r="H20" s="17">
         <v>140</v>
       </c>
@@ -3393,7 +3381,7 @@
         <v>38</v>
       </c>
       <c r="F21" s="2"/>
-      <c r="G21" s="139"/>
+      <c r="G21" s="140"/>
       <c r="H21" s="17">
         <v>140</v>
       </c>
@@ -3416,7 +3404,7 @@
         <v>80</v>
       </c>
       <c r="F22" s="107"/>
-      <c r="G22" s="140"/>
+      <c r="G22" s="141"/>
       <c r="H22" s="17">
         <v>140</v>
       </c>
@@ -3441,7 +3429,7 @@
         <v>54</v>
       </c>
       <c r="F23" s="121"/>
-      <c r="G23" s="140" t="s">
+      <c r="G23" s="141" t="s">
         <v>39</v>
       </c>
       <c r="H23" s="17">
@@ -3462,7 +3450,7 @@
       </c>
       <c r="E24" s="107"/>
       <c r="F24" s="107"/>
-      <c r="G24" s="141"/>
+      <c r="G24" s="142"/>
       <c r="H24" s="17">
         <v>140</v>
       </c>
@@ -3483,7 +3471,7 @@
         <v>59</v>
       </c>
       <c r="F25" s="107"/>
-      <c r="G25" s="141"/>
+      <c r="G25" s="142"/>
       <c r="H25" s="17">
         <v>140</v>
       </c>
@@ -3504,7 +3492,7 @@
         <v>62</v>
       </c>
       <c r="F26" s="107"/>
-      <c r="G26" s="141"/>
+      <c r="G26" s="142"/>
       <c r="H26" s="17">
         <v>140</v>
       </c>
@@ -3525,7 +3513,7 @@
         <v>65</v>
       </c>
       <c r="F27" s="107"/>
-      <c r="G27" s="141"/>
+      <c r="G27" s="142"/>
       <c r="H27" s="17">
         <v>140</v>
       </c>
@@ -3545,7 +3533,7 @@
         <v>68</v>
       </c>
       <c r="F28" s="107"/>
-      <c r="G28" s="141"/>
+      <c r="G28" s="142"/>
       <c r="H28" s="17">
         <v>140</v>
       </c>
@@ -3565,7 +3553,7 @@
         <v>71</v>
       </c>
       <c r="F29" s="107"/>
-      <c r="G29" s="141"/>
+      <c r="G29" s="142"/>
       <c r="H29" s="17">
         <v>140</v>
       </c>
@@ -3585,7 +3573,7 @@
         <v>71</v>
       </c>
       <c r="F30" s="107"/>
-      <c r="G30" s="141"/>
+      <c r="G30" s="142"/>
       <c r="H30" s="17">
         <v>140</v>
       </c>
@@ -3605,7 +3593,7 @@
         <v>90</v>
       </c>
       <c r="F31" s="107"/>
-      <c r="G31" s="141"/>
+      <c r="G31" s="142"/>
       <c r="H31" s="17">
         <v>140</v>
       </c>
@@ -3623,7 +3611,7 @@
         <v>92</v>
       </c>
       <c r="F32" s="41"/>
-      <c r="G32" s="142"/>
+      <c r="G32" s="143"/>
       <c r="H32" s="28">
         <v>140</v>
       </c>
@@ -3647,7 +3635,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor indexed="47"/>
   </sheetPr>
@@ -3671,16 +3659,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12.6" customHeight="1">
-      <c r="A1" s="138" t="s">
+      <c r="A1" s="139" t="s">
         <v>93</v>
       </c>
-      <c r="B1" s="138"/>
-      <c r="C1" s="138"/>
-      <c r="D1" s="138"/>
-      <c r="E1" s="138"/>
-      <c r="F1" s="138"/>
-      <c r="G1" s="138"/>
-      <c r="H1" s="138"/>
+      <c r="B1" s="139"/>
+      <c r="C1" s="139"/>
+      <c r="D1" s="139"/>
+      <c r="E1" s="139"/>
+      <c r="F1" s="139"/>
+      <c r="G1" s="139"/>
+      <c r="H1" s="139"/>
     </row>
     <row r="2" spans="1:10" ht="15">
       <c r="A2" s="3" t="s">
@@ -3724,7 +3712,7 @@
       <c r="F3" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="G3" s="139" t="s">
+      <c r="G3" s="140" t="s">
         <v>11</v>
       </c>
       <c r="H3" s="11">
@@ -3747,7 +3735,7 @@
       <c r="F4" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="G4" s="139"/>
+      <c r="G4" s="140"/>
       <c r="H4" s="17">
         <v>140</v>
       </c>
@@ -3768,7 +3756,7 @@
       <c r="F5" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="G5" s="139"/>
+      <c r="G5" s="140"/>
       <c r="H5" s="17">
         <v>140</v>
       </c>
@@ -3790,7 +3778,7 @@
       <c r="F6" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="G6" s="139"/>
+      <c r="G6" s="140"/>
       <c r="H6" s="17">
         <v>140</v>
       </c>
@@ -3812,7 +3800,7 @@
       <c r="F7" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="G7" s="139"/>
+      <c r="G7" s="140"/>
       <c r="H7" s="17">
         <v>140</v>
       </c>
@@ -3834,7 +3822,7 @@
       <c r="F8" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="G8" s="139"/>
+      <c r="G8" s="140"/>
       <c r="H8" s="17">
         <v>140</v>
       </c>
@@ -3856,7 +3844,7 @@
       <c r="F9" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="G9" s="139"/>
+      <c r="G9" s="140"/>
       <c r="H9" s="17">
         <v>140</v>
       </c>
@@ -3877,7 +3865,7 @@
       <c r="F10" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="G10" s="139"/>
+      <c r="G10" s="140"/>
       <c r="H10" s="17">
         <v>140</v>
       </c>
@@ -3898,7 +3886,7 @@
       <c r="F11" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="G11" s="139"/>
+      <c r="G11" s="140"/>
       <c r="H11" s="17">
         <v>140</v>
       </c>
@@ -3919,7 +3907,7 @@
       <c r="F12" s="41" t="s">
         <v>106</v>
       </c>
-      <c r="G12" s="139"/>
+      <c r="G12" s="140"/>
       <c r="H12" s="17">
         <v>140</v>
       </c>
@@ -3941,7 +3929,7 @@
       <c r="F13" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="G13" s="139" t="s">
+      <c r="G13" s="140" t="s">
         <v>31</v>
       </c>
       <c r="H13" s="17">
@@ -3966,7 +3954,7 @@
       <c r="F14" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="G14" s="139"/>
+      <c r="G14" s="140"/>
       <c r="H14" s="17">
         <v>140</v>
       </c>
@@ -3989,7 +3977,7 @@
       <c r="F15" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="G15" s="139"/>
+      <c r="G15" s="140"/>
       <c r="H15" s="17">
         <v>140</v>
       </c>
@@ -4011,7 +3999,7 @@
       <c r="F16" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="G16" s="139"/>
+      <c r="G16" s="140"/>
       <c r="H16" s="17">
         <v>140</v>
       </c>
@@ -4036,7 +4024,7 @@
       <c r="F17" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="G17" s="139"/>
+      <c r="G17" s="140"/>
       <c r="H17" s="17">
         <v>140</v>
       </c>
@@ -4061,7 +4049,7 @@
       <c r="F18" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="G18" s="139"/>
+      <c r="G18" s="140"/>
       <c r="H18" s="17">
         <v>140</v>
       </c>
@@ -4086,7 +4074,7 @@
       <c r="F19" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="G19" s="139"/>
+      <c r="G19" s="140"/>
       <c r="H19" s="17">
         <v>140</v>
       </c>
@@ -4111,7 +4099,7 @@
       <c r="F20" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="G20" s="139"/>
+      <c r="G20" s="140"/>
       <c r="H20" s="17">
         <v>140</v>
       </c>
@@ -4136,7 +4124,7 @@
       <c r="F21" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="G21" s="139"/>
+      <c r="G21" s="140"/>
       <c r="H21" s="17">
         <v>140</v>
       </c>
@@ -4161,7 +4149,7 @@
       <c r="F22" s="41" t="s">
         <v>106</v>
       </c>
-      <c r="G22" s="139"/>
+      <c r="G22" s="140"/>
       <c r="H22" s="17">
         <v>140</v>
       </c>
@@ -4189,7 +4177,7 @@
       <c r="F23" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="G23" s="139" t="s">
+      <c r="G23" s="140" t="s">
         <v>39</v>
       </c>
       <c r="H23" s="17">
@@ -4216,7 +4204,7 @@
       <c r="F24" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="G24" s="139"/>
+      <c r="G24" s="140"/>
       <c r="H24" s="17">
         <v>140</v>
       </c>
@@ -4241,7 +4229,7 @@
       <c r="F25" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="G25" s="139"/>
+      <c r="G25" s="140"/>
       <c r="H25" s="17">
         <v>140</v>
       </c>
@@ -4266,7 +4254,7 @@
       <c r="F26" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="G26" s="139"/>
+      <c r="G26" s="140"/>
       <c r="H26" s="17">
         <v>140</v>
       </c>
@@ -4291,7 +4279,7 @@
       <c r="F27" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="G27" s="139"/>
+      <c r="G27" s="140"/>
       <c r="H27" s="17">
         <v>140</v>
       </c>
@@ -4315,7 +4303,7 @@
       <c r="F28" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="G28" s="139"/>
+      <c r="G28" s="140"/>
       <c r="H28" s="17">
         <v>140</v>
       </c>
@@ -4339,7 +4327,7 @@
       <c r="F29" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="G29" s="139"/>
+      <c r="G29" s="140"/>
       <c r="H29" s="17">
         <v>140</v>
       </c>
@@ -4363,7 +4351,7 @@
       <c r="F30" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="G30" s="139"/>
+      <c r="G30" s="140"/>
       <c r="H30" s="17">
         <v>140</v>
       </c>
@@ -4387,7 +4375,7 @@
       <c r="F31" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="G31" s="139"/>
+      <c r="G31" s="140"/>
       <c r="H31" s="17">
         <v>140</v>
       </c>
@@ -4407,7 +4395,7 @@
       <c r="F32" s="41" t="s">
         <v>106</v>
       </c>
-      <c r="G32" s="139"/>
+      <c r="G32" s="140"/>
       <c r="H32" s="28">
         <v>140</v>
       </c>
@@ -4436,7 +4424,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor indexed="47"/>
   </sheetPr>
@@ -4462,16 +4450,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="143" t="s">
+      <c r="A1" s="144" t="s">
         <v>112</v>
       </c>
-      <c r="B1" s="143"/>
-      <c r="C1" s="143"/>
-      <c r="D1" s="143"/>
-      <c r="E1" s="143"/>
-      <c r="F1" s="143"/>
-      <c r="G1" s="143"/>
-      <c r="H1" s="143"/>
+      <c r="B1" s="144"/>
+      <c r="C1" s="144"/>
+      <c r="D1" s="144"/>
+      <c r="E1" s="144"/>
+      <c r="F1" s="144"/>
+      <c r="G1" s="144"/>
+      <c r="H1" s="144"/>
     </row>
     <row r="2" spans="1:10" ht="15">
       <c r="A2" s="68" t="s">
@@ -4510,7 +4498,7 @@
       <c r="F3" s="33" t="s">
         <v>96</v>
       </c>
-      <c r="G3" s="137" t="s">
+      <c r="G3" s="138" t="s">
         <v>11</v>
       </c>
       <c r="H3" s="33">
@@ -4533,7 +4521,7 @@
       <c r="F4" s="36" t="s">
         <v>97</v>
       </c>
-      <c r="G4" s="137"/>
+      <c r="G4" s="138"/>
       <c r="H4" s="36">
         <v>120</v>
       </c>
@@ -4554,7 +4542,7 @@
       <c r="F5" s="36" t="s">
         <v>98</v>
       </c>
-      <c r="G5" s="137"/>
+      <c r="G5" s="138"/>
       <c r="H5" s="36">
         <v>120</v>
       </c>
@@ -4575,7 +4563,7 @@
       <c r="F6" s="36" t="s">
         <v>99</v>
       </c>
-      <c r="G6" s="137"/>
+      <c r="G6" s="138"/>
       <c r="H6" s="36">
         <v>120</v>
       </c>
@@ -4596,7 +4584,7 @@
       <c r="F7" s="36" t="s">
         <v>100</v>
       </c>
-      <c r="G7" s="137"/>
+      <c r="G7" s="138"/>
       <c r="H7" s="36">
         <v>120</v>
       </c>
@@ -4617,7 +4605,7 @@
       <c r="F8" s="36" t="s">
         <v>101</v>
       </c>
-      <c r="G8" s="137"/>
+      <c r="G8" s="138"/>
       <c r="H8" s="36">
         <v>120</v>
       </c>
@@ -4638,7 +4626,7 @@
       <c r="F9" s="36" t="s">
         <v>102</v>
       </c>
-      <c r="G9" s="137"/>
+      <c r="G9" s="138"/>
       <c r="H9" s="36">
         <v>120</v>
       </c>
@@ -4658,7 +4646,7 @@
       <c r="F10" s="36" t="s">
         <v>104</v>
       </c>
-      <c r="G10" s="137"/>
+      <c r="G10" s="138"/>
       <c r="H10" s="36">
         <v>120</v>
       </c>
@@ -4678,7 +4666,7 @@
       <c r="F11" s="36" t="s">
         <v>105</v>
       </c>
-      <c r="G11" s="137"/>
+      <c r="G11" s="138"/>
       <c r="H11" s="36">
         <v>120</v>
       </c>
@@ -4699,7 +4687,7 @@
       <c r="F12" s="44" t="s">
         <v>106</v>
       </c>
-      <c r="G12" s="137"/>
+      <c r="G12" s="138"/>
       <c r="H12" s="36">
         <v>120</v>
       </c>
@@ -4727,7 +4715,7 @@
       <c r="F13" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="G13" s="137" t="s">
+      <c r="G13" s="138" t="s">
         <v>31</v>
       </c>
       <c r="H13" s="36">
@@ -4751,7 +4739,7 @@
       <c r="F14" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="G14" s="137"/>
+      <c r="G14" s="138"/>
       <c r="H14" s="36">
         <v>120</v>
       </c>
@@ -4773,7 +4761,7 @@
       <c r="F15" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="G15" s="137"/>
+      <c r="G15" s="138"/>
       <c r="H15" s="36">
         <v>120</v>
       </c>
@@ -4795,7 +4783,7 @@
       <c r="F16" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="G16" s="137"/>
+      <c r="G16" s="138"/>
       <c r="H16" s="36">
         <v>120</v>
       </c>
@@ -4820,7 +4808,7 @@
       <c r="F17" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="G17" s="137"/>
+      <c r="G17" s="138"/>
       <c r="H17" s="36">
         <v>120</v>
       </c>
@@ -4845,7 +4833,7 @@
       <c r="F18" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="G18" s="137"/>
+      <c r="G18" s="138"/>
       <c r="H18" s="36">
         <v>120</v>
       </c>
@@ -4870,7 +4858,7 @@
       <c r="F19" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="G19" s="137"/>
+      <c r="G19" s="138"/>
       <c r="H19" s="36">
         <v>120</v>
       </c>
@@ -4895,7 +4883,7 @@
       <c r="F20" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="G20" s="137"/>
+      <c r="G20" s="138"/>
       <c r="H20" s="36">
         <v>120</v>
       </c>
@@ -4920,7 +4908,7 @@
       <c r="F21" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="G21" s="137"/>
+      <c r="G21" s="138"/>
       <c r="H21" s="36">
         <v>120</v>
       </c>
@@ -4945,7 +4933,7 @@
       <c r="F22" s="41" t="s">
         <v>106</v>
       </c>
-      <c r="G22" s="137"/>
+      <c r="G22" s="138"/>
       <c r="H22" s="36">
         <v>120</v>
       </c>
@@ -4976,7 +4964,7 @@
       <c r="F23" s="33" t="s">
         <v>96</v>
       </c>
-      <c r="G23" s="137" t="s">
+      <c r="G23" s="138" t="s">
         <v>39</v>
       </c>
       <c r="H23" s="36">
@@ -5003,7 +4991,7 @@
       <c r="F24" s="36" t="s">
         <v>97</v>
       </c>
-      <c r="G24" s="137"/>
+      <c r="G24" s="138"/>
       <c r="H24" s="36">
         <v>120</v>
       </c>
@@ -5028,7 +5016,7 @@
       <c r="F25" s="36" t="s">
         <v>98</v>
       </c>
-      <c r="G25" s="137"/>
+      <c r="G25" s="138"/>
       <c r="H25" s="36">
         <v>120</v>
       </c>
@@ -5053,7 +5041,7 @@
       <c r="F26" s="36" t="s">
         <v>99</v>
       </c>
-      <c r="G26" s="137"/>
+      <c r="G26" s="138"/>
       <c r="H26" s="36">
         <v>120</v>
       </c>
@@ -5078,7 +5066,7 @@
       <c r="F27" s="36" t="s">
         <v>100</v>
       </c>
-      <c r="G27" s="137"/>
+      <c r="G27" s="138"/>
       <c r="H27" s="36">
         <v>120</v>
       </c>
@@ -5102,7 +5090,7 @@
       <c r="F28" s="36" t="s">
         <v>101</v>
       </c>
-      <c r="G28" s="137"/>
+      <c r="G28" s="138"/>
       <c r="H28" s="36">
         <v>120</v>
       </c>
@@ -5126,7 +5114,7 @@
       <c r="F29" s="36" t="s">
         <v>102</v>
       </c>
-      <c r="G29" s="137"/>
+      <c r="G29" s="138"/>
       <c r="H29" s="36">
         <v>120</v>
       </c>
@@ -5150,7 +5138,7 @@
       <c r="F30" s="36" t="s">
         <v>104</v>
       </c>
-      <c r="G30" s="137"/>
+      <c r="G30" s="138"/>
       <c r="H30" s="36">
         <v>120</v>
       </c>
@@ -5174,7 +5162,7 @@
       <c r="F31" s="36" t="s">
         <v>105</v>
       </c>
-      <c r="G31" s="137"/>
+      <c r="G31" s="138"/>
       <c r="H31" s="36">
         <v>120</v>
       </c>
@@ -5196,7 +5184,7 @@
       <c r="F32" s="77" t="s">
         <v>106</v>
       </c>
-      <c r="G32" s="137"/>
+      <c r="G32" s="138"/>
       <c r="H32" s="77">
         <v>120</v>
       </c>
@@ -5243,7 +5231,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor indexed="47"/>
   </sheetPr>
@@ -5267,15 +5255,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="143" t="s">
+      <c r="A1" s="144" t="s">
         <v>124</v>
       </c>
-      <c r="B1" s="143"/>
-      <c r="C1" s="143"/>
-      <c r="D1" s="143"/>
-      <c r="E1" s="143"/>
-      <c r="F1" s="143"/>
-      <c r="G1" s="143"/>
+      <c r="B1" s="144"/>
+      <c r="C1" s="144"/>
+      <c r="D1" s="144"/>
+      <c r="E1" s="144"/>
+      <c r="F1" s="144"/>
+      <c r="G1" s="144"/>
     </row>
     <row r="2" spans="1:9" ht="15">
       <c r="A2" s="68" t="s">
@@ -5316,7 +5304,7 @@
       <c r="F3" s="10">
         <v>5</v>
       </c>
-      <c r="G3" s="137" t="s">
+      <c r="G3" s="138" t="s">
         <v>11</v>
       </c>
     </row>
@@ -5335,7 +5323,7 @@
       <c r="F4" s="2">
         <v>5</v>
       </c>
-      <c r="G4" s="137"/>
+      <c r="G4" s="138"/>
     </row>
     <row r="5" spans="1:9" ht="15">
       <c r="A5" s="62" t="s">
@@ -5352,7 +5340,7 @@
       <c r="F5" s="2">
         <v>5</v>
       </c>
-      <c r="G5" s="137"/>
+      <c r="G5" s="138"/>
     </row>
     <row r="6" spans="1:9" ht="15">
       <c r="A6" s="62" t="s">
@@ -5369,7 +5357,7 @@
       <c r="F6" s="2">
         <v>5</v>
       </c>
-      <c r="G6" s="137"/>
+      <c r="G6" s="138"/>
     </row>
     <row r="7" spans="1:9" ht="15">
       <c r="A7" s="62" t="s">
@@ -5386,7 +5374,7 @@
       <c r="F7" s="2">
         <v>5</v>
       </c>
-      <c r="G7" s="137"/>
+      <c r="G7" s="138"/>
     </row>
     <row r="8" spans="1:9" ht="15">
       <c r="A8" s="62" t="s">
@@ -5403,7 +5391,7 @@
       <c r="F8" s="2">
         <v>5</v>
       </c>
-      <c r="G8" s="137"/>
+      <c r="G8" s="138"/>
     </row>
     <row r="9" spans="1:9" ht="15">
       <c r="A9" s="62" t="s">
@@ -5420,7 +5408,7 @@
       <c r="F9" s="2">
         <v>5</v>
       </c>
-      <c r="G9" s="137"/>
+      <c r="G9" s="138"/>
       <c r="H9" s="2"/>
     </row>
     <row r="10" spans="1:9" ht="15">
@@ -5438,7 +5426,7 @@
       <c r="F10" s="2">
         <v>5</v>
       </c>
-      <c r="G10" s="137"/>
+      <c r="G10" s="138"/>
       <c r="H10" s="2"/>
     </row>
     <row r="11" spans="1:9" ht="15">
@@ -5458,7 +5446,7 @@
       <c r="F11" s="89" t="s">
         <v>96</v>
       </c>
-      <c r="G11" s="144" t="s">
+      <c r="G11" s="145" t="s">
         <v>31</v>
       </c>
       <c r="H11" s="2"/>
@@ -5480,7 +5468,7 @@
       <c r="F12" s="94" t="s">
         <v>97</v>
       </c>
-      <c r="G12" s="144"/>
+      <c r="G12" s="145"/>
       <c r="H12" s="2"/>
     </row>
     <row r="13" spans="1:9" ht="15">
@@ -5500,7 +5488,7 @@
       <c r="F13" s="94" t="s">
         <v>98</v>
       </c>
-      <c r="G13" s="144"/>
+      <c r="G13" s="145"/>
       <c r="H13" s="2"/>
     </row>
     <row r="14" spans="1:9" ht="15">
@@ -5522,7 +5510,7 @@
       <c r="F14" s="94" t="s">
         <v>99</v>
       </c>
-      <c r="G14" s="144"/>
+      <c r="G14" s="145"/>
       <c r="H14" s="71">
         <v>43371</v>
       </c>
@@ -5549,7 +5537,7 @@
       <c r="F15" s="94" t="s">
         <v>100</v>
       </c>
-      <c r="G15" s="144"/>
+      <c r="G15" s="145"/>
       <c r="H15" s="2"/>
     </row>
     <row r="16" spans="1:9" ht="15">
@@ -5571,7 +5559,7 @@
       <c r="F16" s="94" t="s">
         <v>101</v>
       </c>
-      <c r="G16" s="144"/>
+      <c r="G16" s="145"/>
       <c r="H16" s="2"/>
     </row>
     <row r="17" spans="1:9" ht="15">
@@ -5593,7 +5581,7 @@
       <c r="F17" s="94" t="s">
         <v>102</v>
       </c>
-      <c r="G17" s="144"/>
+      <c r="G17" s="145"/>
       <c r="H17" s="2"/>
     </row>
     <row r="18" spans="1:9" ht="15">
@@ -5615,7 +5603,7 @@
       <c r="F18" s="50" t="s">
         <v>104</v>
       </c>
-      <c r="G18" s="144"/>
+      <c r="G18" s="145"/>
       <c r="H18" s="71">
         <v>43409</v>
       </c>
@@ -5640,7 +5628,7 @@
       <c r="F19" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="G19" s="137" t="s">
+      <c r="G19" s="138" t="s">
         <v>39</v>
       </c>
       <c r="H19" s="2"/>
@@ -5664,7 +5652,7 @@
       <c r="F20" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="G20" s="137"/>
+      <c r="G20" s="138"/>
       <c r="H20" s="2"/>
     </row>
     <row r="21" spans="1:9" ht="15">
@@ -5686,7 +5674,7 @@
       <c r="F21" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="G21" s="137"/>
+      <c r="G21" s="138"/>
       <c r="H21" s="2"/>
     </row>
     <row r="22" spans="1:9" ht="15">
@@ -5708,7 +5696,7 @@
       <c r="F22" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="G22" s="137"/>
+      <c r="G22" s="138"/>
       <c r="H22" s="65">
         <v>43448</v>
       </c>
@@ -5735,7 +5723,7 @@
       <c r="F23" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="G23" s="137"/>
+      <c r="G23" s="138"/>
       <c r="H23" s="2"/>
     </row>
     <row r="24" spans="1:9" ht="15">
@@ -5757,7 +5745,7 @@
       <c r="F24" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="G24" s="137"/>
+      <c r="G24" s="138"/>
       <c r="H24" s="2"/>
     </row>
     <row r="25" spans="1:9" ht="15">
@@ -5777,7 +5765,7 @@
       <c r="F25" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="G25" s="137"/>
+      <c r="G25" s="138"/>
     </row>
     <row r="26" spans="1:9" ht="15">
       <c r="A26" s="64" t="s">
@@ -5796,7 +5784,7 @@
       <c r="F26" s="41" t="s">
         <v>104</v>
       </c>
-      <c r="G26" s="137"/>
+      <c r="G26" s="138"/>
       <c r="I26" s="2">
         <v>600</v>
       </c>
@@ -5821,7 +5809,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor indexed="47"/>
   </sheetPr>
@@ -5847,16 +5835,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="145" t="s">
+      <c r="A1" s="146" t="s">
         <v>141</v>
       </c>
-      <c r="B1" s="145"/>
-      <c r="C1" s="145"/>
-      <c r="D1" s="145"/>
-      <c r="E1" s="145"/>
-      <c r="F1" s="145"/>
-      <c r="G1" s="145"/>
-      <c r="H1" s="145"/>
+      <c r="B1" s="146"/>
+      <c r="C1" s="146"/>
+      <c r="D1" s="146"/>
+      <c r="E1" s="146"/>
+      <c r="F1" s="146"/>
+      <c r="G1" s="146"/>
+      <c r="H1" s="146"/>
     </row>
     <row r="2" spans="1:11" ht="15">
       <c r="A2" s="30" t="s">
@@ -5896,13 +5884,13 @@
       <c r="F3" s="2">
         <v>5</v>
       </c>
-      <c r="G3" s="145" t="s">
+      <c r="G3" s="146" t="s">
         <v>143</v>
       </c>
-      <c r="J3" s="146" t="s">
+      <c r="J3" s="147" t="s">
         <v>144</v>
       </c>
-      <c r="K3" s="146"/>
+      <c r="K3" s="147"/>
     </row>
     <row r="4" spans="1:11" ht="15">
       <c r="A4" s="80" t="s">
@@ -5917,7 +5905,7 @@
       <c r="F4" s="2">
         <v>5</v>
       </c>
-      <c r="G4" s="145"/>
+      <c r="G4" s="146"/>
       <c r="J4" t="s">
         <v>145</v>
       </c>
@@ -5939,7 +5927,7 @@
       <c r="F5" s="2">
         <v>5</v>
       </c>
-      <c r="G5" s="145"/>
+      <c r="G5" s="146"/>
       <c r="J5" t="s">
         <v>146</v>
       </c>
@@ -5961,7 +5949,7 @@
       <c r="F6" s="2">
         <v>5</v>
       </c>
-      <c r="G6" s="145"/>
+      <c r="G6" s="146"/>
       <c r="J6" t="s">
         <v>147</v>
       </c>
@@ -5983,7 +5971,7 @@
       <c r="F7" s="10">
         <v>5</v>
       </c>
-      <c r="G7" s="139" t="s">
+      <c r="G7" s="140" t="s">
         <v>11</v>
       </c>
       <c r="J7" t="s">
@@ -6007,7 +5995,7 @@
       <c r="F8" s="2">
         <v>5</v>
       </c>
-      <c r="G8" s="139"/>
+      <c r="G8" s="140"/>
       <c r="J8" t="s">
         <v>149</v>
       </c>
@@ -6029,7 +6017,7 @@
       <c r="F9" s="2">
         <v>5</v>
       </c>
-      <c r="G9" s="139"/>
+      <c r="G9" s="140"/>
       <c r="J9" t="s">
         <v>150</v>
       </c>
@@ -6051,7 +6039,7 @@
       <c r="F10" s="2">
         <v>5</v>
       </c>
-      <c r="G10" s="139"/>
+      <c r="G10" s="140"/>
       <c r="J10" t="s">
         <v>151</v>
       </c>
@@ -6073,7 +6061,7 @@
       <c r="F11" s="2">
         <v>5</v>
       </c>
-      <c r="G11" s="139"/>
+      <c r="G11" s="140"/>
       <c r="J11" t="s">
         <v>152</v>
       </c>
@@ -6095,7 +6083,7 @@
       <c r="F12" s="2">
         <v>5</v>
       </c>
-      <c r="G12" s="139"/>
+      <c r="G12" s="140"/>
       <c r="J12" t="s">
         <v>153</v>
       </c>
@@ -6117,7 +6105,7 @@
       <c r="F13" s="2">
         <v>5</v>
       </c>
-      <c r="G13" s="139"/>
+      <c r="G13" s="140"/>
     </row>
     <row r="14" spans="1:11" ht="15">
       <c r="A14" s="58" t="s">
@@ -6132,7 +6120,7 @@
       <c r="F14" s="41">
         <v>5</v>
       </c>
-      <c r="G14" s="139"/>
+      <c r="G14" s="140"/>
     </row>
     <row r="15" spans="1:11" ht="15">
       <c r="A15" s="52" t="s">
@@ -6147,7 +6135,7 @@
       <c r="F15" s="10">
         <v>1</v>
       </c>
-      <c r="G15" s="139" t="s">
+      <c r="G15" s="140" t="s">
         <v>31</v>
       </c>
     </row>
@@ -6166,7 +6154,7 @@
       <c r="F16" s="2">
         <v>2</v>
       </c>
-      <c r="G16" s="139"/>
+      <c r="G16" s="140"/>
     </row>
     <row r="17" spans="1:10" ht="15">
       <c r="A17" s="56" t="s">
@@ -6183,7 +6171,7 @@
       <c r="F17" s="2">
         <v>3</v>
       </c>
-      <c r="G17" s="139"/>
+      <c r="G17" s="140"/>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
     </row>
@@ -6202,7 +6190,7 @@
       <c r="F18" s="2">
         <v>4</v>
       </c>
-      <c r="G18" s="139"/>
+      <c r="G18" s="140"/>
     </row>
     <row r="19" spans="1:10" ht="15">
       <c r="A19" s="62" t="s">
@@ -6220,7 +6208,7 @@
       <c r="F19" s="2">
         <v>5</v>
       </c>
-      <c r="G19" s="139"/>
+      <c r="G19" s="140"/>
     </row>
     <row r="20" spans="1:10" ht="15">
       <c r="A20" s="62" t="s">
@@ -6238,7 +6226,7 @@
       <c r="F20" s="2">
         <v>6</v>
       </c>
-      <c r="G20" s="139"/>
+      <c r="G20" s="140"/>
     </row>
     <row r="21" spans="1:10" ht="15">
       <c r="A21" s="62" t="s">
@@ -6256,7 +6244,7 @@
       <c r="F21" s="2">
         <v>7</v>
       </c>
-      <c r="G21" s="139"/>
+      <c r="G21" s="140"/>
     </row>
     <row r="22" spans="1:10" ht="15">
       <c r="A22" s="64" t="s">
@@ -6275,7 +6263,7 @@
       <c r="F22" s="41">
         <v>8</v>
       </c>
-      <c r="G22" s="139"/>
+      <c r="G22" s="140"/>
     </row>
     <row r="23" spans="1:10" ht="15">
       <c r="A23" s="60" t="s">
@@ -6294,7 +6282,7 @@
       <c r="F23" s="10">
         <v>1</v>
       </c>
-      <c r="G23" s="139" t="s">
+      <c r="G23" s="140" t="s">
         <v>39</v>
       </c>
     </row>
@@ -6317,7 +6305,7 @@
       <c r="F24" s="2">
         <v>2</v>
       </c>
-      <c r="G24" s="139"/>
+      <c r="G24" s="140"/>
     </row>
     <row r="25" spans="1:10" ht="15">
       <c r="A25" s="62" t="s">
@@ -6338,7 +6326,7 @@
       <c r="F25" s="2">
         <v>3</v>
       </c>
-      <c r="G25" s="139"/>
+      <c r="G25" s="140"/>
     </row>
     <row r="26" spans="1:10" ht="15">
       <c r="A26" s="62" t="s">
@@ -6359,7 +6347,7 @@
       <c r="F26" s="2">
         <v>4</v>
       </c>
-      <c r="G26" s="139"/>
+      <c r="G26" s="140"/>
       <c r="H26" s="2" t="s">
         <v>158</v>
       </c>
@@ -6383,7 +6371,7 @@
       <c r="F27" s="2">
         <v>5</v>
       </c>
-      <c r="G27" s="139"/>
+      <c r="G27" s="140"/>
     </row>
     <row r="28" spans="1:10" ht="15">
       <c r="A28" s="62" t="s">
@@ -6404,7 +6392,7 @@
       <c r="F28" s="2">
         <v>6</v>
       </c>
-      <c r="G28" s="139"/>
+      <c r="G28" s="140"/>
     </row>
     <row r="29" spans="1:10" ht="15">
       <c r="A29" s="62" t="s">
@@ -6425,7 +6413,7 @@
       <c r="F29" s="2">
         <v>7</v>
       </c>
-      <c r="G29" s="139"/>
+      <c r="G29" s="140"/>
     </row>
     <row r="30" spans="1:10" ht="15">
       <c r="A30" s="64" t="s">
@@ -6446,7 +6434,7 @@
       <c r="F30" s="41">
         <v>8</v>
       </c>
-      <c r="G30" s="139"/>
+      <c r="G30" s="140"/>
       <c r="H30" s="71">
         <v>43396</v>
       </c>

--- a/Cronograma aulas/Aulas v2.xlsx
+++ b/Cronograma aulas/Aulas v2.xlsx
@@ -15,7 +15,7 @@
     <sheet name="t2_Sábado" sheetId="6" r:id="rId6"/>
     <sheet name="t1_Domingo_(finalizada)" sheetId="7" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="114210"/>
 </workbook>
 </file>
 
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="740" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="746" uniqueCount="177">
   <si>
     <t>Segunda e Quarta – sala 04 (senha javaweb)</t>
   </si>
@@ -587,6 +587,9 @@
   </si>
   <si>
     <t>Fragmentação</t>
+  </si>
+  <si>
+    <t>CRUD Departamentos</t>
   </si>
 </sst>
 </file>
@@ -967,7 +970,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="18" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="148">
+  <cellXfs count="149">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1339,9 +1342,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1351,7 +1351,13 @@
     <xf numFmtId="166" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1798,7 +1804,7 @@
   <dimension ref="A1:H30"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A9" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="14.25"/>
@@ -1813,15 +1819,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="138" t="s">
+      <c r="A1" s="139" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="138"/>
-      <c r="C1" s="138"/>
-      <c r="D1" s="138"/>
-      <c r="E1" s="138"/>
-      <c r="F1" s="138"/>
-      <c r="G1" s="138"/>
+      <c r="B1" s="139"/>
+      <c r="C1" s="139"/>
+      <c r="D1" s="139"/>
+      <c r="E1" s="139"/>
+      <c r="F1" s="139"/>
+      <c r="G1" s="139"/>
     </row>
     <row r="2" spans="1:8" ht="15">
       <c r="A2" s="68" t="s">
@@ -1861,7 +1867,7 @@
         <v>10</v>
       </c>
       <c r="E3" s="132"/>
-      <c r="F3" s="138" t="s">
+      <c r="F3" s="139" t="s">
         <v>11</v>
       </c>
       <c r="G3" s="11">
@@ -1882,7 +1888,7 @@
         <v>13</v>
       </c>
       <c r="E4" s="106"/>
-      <c r="F4" s="138"/>
+      <c r="F4" s="139"/>
       <c r="G4" s="17">
         <v>140</v>
       </c>
@@ -1901,7 +1907,7 @@
         <v>15</v>
       </c>
       <c r="E5" s="106"/>
-      <c r="F5" s="138"/>
+      <c r="F5" s="139"/>
       <c r="G5" s="17">
         <v>140</v>
       </c>
@@ -1920,7 +1926,7 @@
         <v>17</v>
       </c>
       <c r="E6" s="107"/>
-      <c r="F6" s="138"/>
+      <c r="F6" s="139"/>
       <c r="G6" s="17">
         <v>140</v>
       </c>
@@ -1939,7 +1945,7 @@
         <v>19</v>
       </c>
       <c r="E7" s="107"/>
-      <c r="F7" s="138"/>
+      <c r="F7" s="139"/>
       <c r="G7" s="17">
         <v>140</v>
       </c>
@@ -1958,7 +1964,7 @@
         <v>21</v>
       </c>
       <c r="E8" s="107"/>
-      <c r="F8" s="138"/>
+      <c r="F8" s="139"/>
       <c r="G8" s="17">
         <v>140</v>
       </c>
@@ -1977,7 +1983,7 @@
         <v>23</v>
       </c>
       <c r="E9" s="107"/>
-      <c r="F9" s="138"/>
+      <c r="F9" s="139"/>
       <c r="G9" s="17">
         <v>140</v>
       </c>
@@ -1996,7 +2002,7 @@
         <v>25</v>
       </c>
       <c r="E10" s="107"/>
-      <c r="F10" s="138"/>
+      <c r="F10" s="139"/>
       <c r="G10" s="17">
         <v>140</v>
       </c>
@@ -2013,7 +2019,7 @@
       </c>
       <c r="D11" s="17"/>
       <c r="E11" s="107"/>
-      <c r="F11" s="138"/>
+      <c r="F11" s="139"/>
       <c r="G11" s="17">
         <v>140</v>
       </c>
@@ -2033,7 +2039,7 @@
         <v>28</v>
       </c>
       <c r="E12" s="20"/>
-      <c r="F12" s="138"/>
+      <c r="F12" s="139"/>
       <c r="G12" s="17">
         <v>140</v>
       </c>
@@ -2053,7 +2059,7 @@
         <v>30</v>
       </c>
       <c r="E13" s="11"/>
-      <c r="F13" s="138" t="s">
+      <c r="F13" s="139" t="s">
         <v>31</v>
       </c>
       <c r="G13" s="17">
@@ -2075,7 +2081,7 @@
         <v>32</v>
       </c>
       <c r="E14" s="17"/>
-      <c r="F14" s="138"/>
+      <c r="F14" s="139"/>
       <c r="G14" s="17">
         <v>140</v>
       </c>
@@ -2095,7 +2101,7 @@
         <v>32</v>
       </c>
       <c r="E15" s="17"/>
-      <c r="F15" s="138"/>
+      <c r="F15" s="139"/>
       <c r="G15" s="17">
         <v>140</v>
       </c>
@@ -2115,7 +2121,7 @@
         <v>163</v>
       </c>
       <c r="E16" s="17"/>
-      <c r="F16" s="138"/>
+      <c r="F16" s="139"/>
       <c r="G16" s="17">
         <v>140</v>
       </c>
@@ -2137,7 +2143,7 @@
       <c r="E17" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="F17" s="138"/>
+      <c r="F17" s="139"/>
       <c r="G17" s="17">
         <v>140</v>
       </c>
@@ -2159,7 +2165,7 @@
       <c r="E18" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="F18" s="138"/>
+      <c r="F18" s="139"/>
       <c r="G18" s="17">
         <v>140</v>
       </c>
@@ -2181,7 +2187,7 @@
       <c r="E19" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="F19" s="138"/>
+      <c r="F19" s="139"/>
       <c r="G19" s="15">
         <v>140</v>
       </c>
@@ -2194,7 +2200,7 @@
       <c r="B20" s="131">
         <v>43720</v>
       </c>
-      <c r="C20" s="135" t="s">
+      <c r="C20" s="134" t="s">
         <v>9</v>
       </c>
       <c r="D20" s="40" t="s">
@@ -2203,7 +2209,7 @@
       <c r="E20" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="F20" s="138"/>
+      <c r="F20" s="139"/>
       <c r="G20" s="130">
         <v>140</v>
       </c>
@@ -2223,7 +2229,7 @@
       <c r="E21" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="F21" s="138" t="s">
+      <c r="F21" s="139" t="s">
         <v>39</v>
       </c>
       <c r="G21" s="17">
@@ -2247,7 +2253,7 @@
       <c r="E22" s="37" t="s">
         <v>174</v>
       </c>
-      <c r="F22" s="138"/>
+      <c r="F22" s="139"/>
       <c r="G22" s="17">
         <v>140</v>
       </c>
@@ -2269,7 +2275,7 @@
       <c r="E23" s="37" t="s">
         <v>174</v>
       </c>
-      <c r="F23" s="138"/>
+      <c r="F23" s="139"/>
       <c r="G23" s="17">
         <v>140</v>
       </c>
@@ -2291,7 +2297,7 @@
       <c r="E24" s="37" t="s">
         <v>174</v>
       </c>
-      <c r="F24" s="138"/>
+      <c r="F24" s="139"/>
       <c r="G24" s="17">
         <v>140</v>
       </c>
@@ -2313,7 +2319,7 @@
       <c r="E25" s="37" t="s">
         <v>174</v>
       </c>
-      <c r="F25" s="138"/>
+      <c r="F25" s="139"/>
       <c r="G25" s="17">
         <v>140</v>
       </c>
@@ -2334,7 +2340,7 @@
       <c r="E26" s="37" t="s">
         <v>174</v>
       </c>
-      <c r="F26" s="138"/>
+      <c r="F26" s="139"/>
       <c r="G26" s="17">
         <v>140</v>
       </c>
@@ -2346,10 +2352,16 @@
       <c r="B27" s="126">
         <v>43748</v>
       </c>
-      <c r="C27" s="23"/>
-      <c r="D27" s="37"/>
-      <c r="E27" s="37"/>
-      <c r="F27" s="138"/>
+      <c r="C27" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="D27" s="37" t="s">
+        <v>176</v>
+      </c>
+      <c r="E27" s="37" t="s">
+        <v>174</v>
+      </c>
+      <c r="F27" s="139"/>
       <c r="G27" s="17">
         <v>140</v>
       </c>
@@ -2362,9 +2374,11 @@
         <v>43752</v>
       </c>
       <c r="C28" s="23"/>
-      <c r="D28" s="17"/>
-      <c r="E28" s="37"/>
-      <c r="F28" s="138"/>
+      <c r="D28" s="138"/>
+      <c r="E28" s="37" t="s">
+        <v>174</v>
+      </c>
+      <c r="F28" s="139"/>
       <c r="G28" s="17">
         <v>140</v>
       </c>
@@ -2378,8 +2392,10 @@
       </c>
       <c r="C29" s="23"/>
       <c r="D29" s="17"/>
-      <c r="E29" s="37"/>
-      <c r="F29" s="138"/>
+      <c r="E29" s="136" t="s">
+        <v>174</v>
+      </c>
+      <c r="F29" s="139"/>
       <c r="G29" s="17">
         <v>140</v>
       </c>
@@ -2393,8 +2409,10 @@
       </c>
       <c r="C30" s="123"/>
       <c r="D30" s="28"/>
-      <c r="E30" s="133"/>
-      <c r="F30" s="138"/>
+      <c r="E30" s="137" t="s">
+        <v>174</v>
+      </c>
+      <c r="F30" s="139"/>
       <c r="G30" s="28">
         <v>140</v>
       </c>
@@ -2422,7 +2440,7 @@
   <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="B24" sqref="B24:B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="14.25"/>
@@ -2437,15 +2455,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="138" t="s">
+      <c r="A1" s="139" t="s">
         <v>170</v>
       </c>
-      <c r="B1" s="138"/>
-      <c r="C1" s="138"/>
-      <c r="D1" s="138"/>
-      <c r="E1" s="138"/>
-      <c r="F1" s="138"/>
-      <c r="G1" s="138"/>
+      <c r="B1" s="139"/>
+      <c r="C1" s="139"/>
+      <c r="D1" s="139"/>
+      <c r="E1" s="139"/>
+      <c r="F1" s="139"/>
+      <c r="G1" s="139"/>
     </row>
     <row r="2" spans="1:8" ht="15">
       <c r="A2" s="3" t="s">
@@ -2483,7 +2501,7 @@
       </c>
       <c r="D3" s="9"/>
       <c r="E3" s="32"/>
-      <c r="F3" s="138" t="s">
+      <c r="F3" s="139" t="s">
         <v>11</v>
       </c>
       <c r="G3" s="33">
@@ -2502,7 +2520,7 @@
       </c>
       <c r="D4" s="15"/>
       <c r="E4" s="35"/>
-      <c r="F4" s="138"/>
+      <c r="F4" s="139"/>
       <c r="G4" s="36">
         <v>175</v>
       </c>
@@ -2519,7 +2537,7 @@
       </c>
       <c r="D5" s="15"/>
       <c r="E5" s="35"/>
-      <c r="F5" s="138"/>
+      <c r="F5" s="139"/>
       <c r="G5" s="36">
         <v>175</v>
       </c>
@@ -2536,7 +2554,7 @@
       </c>
       <c r="D6" s="17"/>
       <c r="E6" s="37"/>
-      <c r="F6" s="138"/>
+      <c r="F6" s="139"/>
       <c r="G6" s="36">
         <v>175</v>
       </c>
@@ -2553,7 +2571,7 @@
       </c>
       <c r="D7" s="17"/>
       <c r="E7" s="37"/>
-      <c r="F7" s="138"/>
+      <c r="F7" s="139"/>
       <c r="G7" s="36">
         <v>175</v>
       </c>
@@ -2570,7 +2588,7 @@
       </c>
       <c r="D8" s="17"/>
       <c r="E8" s="37"/>
-      <c r="F8" s="138"/>
+      <c r="F8" s="139"/>
       <c r="G8" s="36">
         <v>175</v>
       </c>
@@ -2589,7 +2607,7 @@
         <v>40</v>
       </c>
       <c r="E9" s="37"/>
-      <c r="F9" s="138"/>
+      <c r="F9" s="139"/>
       <c r="G9" s="36">
         <v>175</v>
       </c>
@@ -2606,7 +2624,7 @@
       </c>
       <c r="D10" s="39"/>
       <c r="E10" s="40"/>
-      <c r="F10" s="138"/>
+      <c r="F10" s="139"/>
       <c r="G10" s="36">
         <v>175</v>
       </c>
@@ -2625,7 +2643,7 @@
         <v>41</v>
       </c>
       <c r="E11" s="2"/>
-      <c r="F11" s="138" t="s">
+      <c r="F11" s="139" t="s">
         <v>31</v>
       </c>
       <c r="G11" s="17">
@@ -2647,7 +2665,7 @@
         <v>32</v>
       </c>
       <c r="E12" s="2"/>
-      <c r="F12" s="138"/>
+      <c r="F12" s="139"/>
       <c r="G12" s="17">
         <v>175</v>
       </c>
@@ -2667,7 +2685,7 @@
         <v>43</v>
       </c>
       <c r="E13" s="2"/>
-      <c r="F13" s="138"/>
+      <c r="F13" s="139"/>
       <c r="G13" s="17">
         <v>175</v>
       </c>
@@ -2689,7 +2707,7 @@
       <c r="E14" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="F14" s="138"/>
+      <c r="F14" s="139"/>
       <c r="G14" s="17">
         <v>175</v>
       </c>
@@ -2711,7 +2729,7 @@
       <c r="E15" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="F15" s="138"/>
+      <c r="F15" s="139"/>
       <c r="G15" s="17">
         <v>175</v>
       </c>
@@ -2733,7 +2751,7 @@
       <c r="E16" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="F16" s="138"/>
+      <c r="F16" s="139"/>
       <c r="G16" s="17">
         <v>175</v>
       </c>
@@ -2755,7 +2773,7 @@
       <c r="E17" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="F17" s="138"/>
+      <c r="F17" s="139"/>
       <c r="G17" s="17">
         <v>175</v>
       </c>
@@ -2775,7 +2793,7 @@
       <c r="E18" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="F18" s="138"/>
+      <c r="F18" s="139"/>
       <c r="G18" s="17">
         <v>175</v>
       </c>
@@ -2793,7 +2811,7 @@
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="6"/>
-      <c r="F19" s="138" t="s">
+      <c r="F19" s="139" t="s">
         <v>39</v>
       </c>
       <c r="G19" s="36">
@@ -2813,7 +2831,7 @@
       </c>
       <c r="D20" s="107"/>
       <c r="E20" s="37"/>
-      <c r="F20" s="138"/>
+      <c r="F20" s="139"/>
       <c r="G20" s="36">
         <v>175</v>
       </c>
@@ -2823,13 +2841,13 @@
       <c r="A21" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="B21" s="137">
+      <c r="B21" s="135">
         <v>43750</v>
       </c>
       <c r="C21" s="36"/>
       <c r="D21" s="107"/>
       <c r="E21" s="37"/>
-      <c r="F21" s="138"/>
+      <c r="F21" s="139"/>
       <c r="G21" s="36">
         <v>175</v>
       </c>
@@ -2839,13 +2857,13 @@
       <c r="A22" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="B22" s="136">
+      <c r="B22" s="135">
         <v>43757</v>
       </c>
       <c r="C22" s="36"/>
       <c r="D22" s="107"/>
       <c r="E22" s="37"/>
-      <c r="F22" s="138"/>
+      <c r="F22" s="139"/>
       <c r="G22" s="36">
         <v>175</v>
       </c>
@@ -2855,13 +2873,13 @@
       <c r="A23" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B23" s="136">
+      <c r="B23" s="135">
         <v>43764</v>
       </c>
-      <c r="C23" s="134"/>
+      <c r="C23" s="133"/>
       <c r="D23" s="107"/>
       <c r="E23" s="37"/>
-      <c r="F23" s="138"/>
+      <c r="F23" s="139"/>
       <c r="G23" s="36">
         <v>175</v>
       </c>
@@ -2876,7 +2894,7 @@
       <c r="C24" s="36"/>
       <c r="D24" s="107"/>
       <c r="E24" s="37"/>
-      <c r="F24" s="138"/>
+      <c r="F24" s="139"/>
       <c r="G24" s="36">
         <v>175</v>
       </c>
@@ -2891,7 +2909,7 @@
       <c r="C25" s="36"/>
       <c r="D25" s="107"/>
       <c r="E25" s="37"/>
-      <c r="F25" s="138"/>
+      <c r="F25" s="139"/>
       <c r="G25" s="36">
         <v>175</v>
       </c>
@@ -2906,7 +2924,7 @@
       <c r="C26" s="44"/>
       <c r="D26" s="41"/>
       <c r="E26" s="40"/>
-      <c r="F26" s="138"/>
+      <c r="F26" s="139"/>
       <c r="G26" s="44">
         <v>175</v>
       </c>
@@ -2952,16 +2970,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15">
-      <c r="A1" s="139" t="s">
+      <c r="A1" s="140" t="s">
         <v>75</v>
       </c>
-      <c r="B1" s="139"/>
-      <c r="C1" s="139"/>
-      <c r="D1" s="139"/>
-      <c r="E1" s="139"/>
-      <c r="F1" s="139"/>
-      <c r="G1" s="139"/>
-      <c r="H1" s="139"/>
+      <c r="B1" s="140"/>
+      <c r="C1" s="140"/>
+      <c r="D1" s="140"/>
+      <c r="E1" s="140"/>
+      <c r="F1" s="140"/>
+      <c r="G1" s="140"/>
+      <c r="H1" s="140"/>
     </row>
     <row r="2" spans="1:9" ht="15">
       <c r="A2" s="3" t="s">
@@ -3003,7 +3021,7 @@
       </c>
       <c r="E3" s="10"/>
       <c r="F3" s="10"/>
-      <c r="G3" s="140" t="s">
+      <c r="G3" s="141" t="s">
         <v>11</v>
       </c>
       <c r="H3" s="11">
@@ -3023,7 +3041,7 @@
       <c r="D4" s="45"/>
       <c r="E4" s="16"/>
       <c r="F4" s="2"/>
-      <c r="G4" s="140"/>
+      <c r="G4" s="141"/>
       <c r="H4" s="17">
         <v>140</v>
       </c>
@@ -3041,7 +3059,7 @@
       <c r="D5" s="45"/>
       <c r="E5" s="16"/>
       <c r="F5" s="2"/>
-      <c r="G5" s="140"/>
+      <c r="G5" s="141"/>
       <c r="H5" s="17">
         <v>140</v>
       </c>
@@ -3059,7 +3077,7 @@
       <c r="D6" s="45"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
-      <c r="G6" s="140"/>
+      <c r="G6" s="141"/>
       <c r="H6" s="17">
         <v>140</v>
       </c>
@@ -3079,7 +3097,7 @@
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
-      <c r="G7" s="140"/>
+      <c r="G7" s="141"/>
       <c r="H7" s="17">
         <v>140</v>
       </c>
@@ -3099,7 +3117,7 @@
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
-      <c r="G8" s="140"/>
+      <c r="G8" s="141"/>
       <c r="H8" s="17">
         <v>140</v>
       </c>
@@ -3119,7 +3137,7 @@
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
-      <c r="G9" s="140"/>
+      <c r="G9" s="141"/>
       <c r="H9" s="17">
         <v>140</v>
       </c>
@@ -3139,7 +3157,7 @@
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
-      <c r="G10" s="140"/>
+      <c r="G10" s="141"/>
       <c r="H10" s="17">
         <v>140</v>
       </c>
@@ -3157,7 +3175,7 @@
       <c r="D11" s="17"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
-      <c r="G11" s="140"/>
+      <c r="G11" s="141"/>
       <c r="H11" s="17">
         <v>140</v>
       </c>
@@ -3178,7 +3196,7 @@
       </c>
       <c r="E12" s="20"/>
       <c r="F12" s="41"/>
-      <c r="G12" s="140"/>
+      <c r="G12" s="141"/>
       <c r="H12" s="17">
         <v>140</v>
       </c>
@@ -3201,7 +3219,7 @@
       </c>
       <c r="E13" s="10"/>
       <c r="F13" s="10"/>
-      <c r="G13" s="140" t="s">
+      <c r="G13" s="141" t="s">
         <v>31</v>
       </c>
       <c r="H13" s="17">
@@ -3224,7 +3242,7 @@
       </c>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
-      <c r="G14" s="140"/>
+      <c r="G14" s="141"/>
       <c r="H14" s="17">
         <v>140</v>
       </c>
@@ -3245,7 +3263,7 @@
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
-      <c r="G15" s="140"/>
+      <c r="G15" s="141"/>
       <c r="H15" s="17">
         <v>140</v>
       </c>
@@ -3266,7 +3284,7 @@
       </c>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
-      <c r="G16" s="140"/>
+      <c r="G16" s="141"/>
       <c r="H16" s="17">
         <v>140</v>
       </c>
@@ -3289,7 +3307,7 @@
         <v>33</v>
       </c>
       <c r="F17" s="2"/>
-      <c r="G17" s="140"/>
+      <c r="G17" s="141"/>
       <c r="H17" s="17">
         <v>140</v>
       </c>
@@ -3312,7 +3330,7 @@
         <v>35</v>
       </c>
       <c r="F18" s="2"/>
-      <c r="G18" s="140"/>
+      <c r="G18" s="141"/>
       <c r="H18" s="17">
         <v>140</v>
       </c>
@@ -3335,7 +3353,7 @@
         <v>37</v>
       </c>
       <c r="F19" s="42"/>
-      <c r="G19" s="140"/>
+      <c r="G19" s="141"/>
       <c r="H19" s="48">
         <v>140</v>
       </c>
@@ -3358,7 +3376,7 @@
         <v>37</v>
       </c>
       <c r="F20" s="2"/>
-      <c r="G20" s="140"/>
+      <c r="G20" s="141"/>
       <c r="H20" s="17">
         <v>140</v>
       </c>
@@ -3381,7 +3399,7 @@
         <v>38</v>
       </c>
       <c r="F21" s="2"/>
-      <c r="G21" s="140"/>
+      <c r="G21" s="141"/>
       <c r="H21" s="17">
         <v>140</v>
       </c>
@@ -3404,7 +3422,7 @@
         <v>80</v>
       </c>
       <c r="F22" s="107"/>
-      <c r="G22" s="141"/>
+      <c r="G22" s="142"/>
       <c r="H22" s="17">
         <v>140</v>
       </c>
@@ -3429,7 +3447,7 @@
         <v>54</v>
       </c>
       <c r="F23" s="121"/>
-      <c r="G23" s="141" t="s">
+      <c r="G23" s="142" t="s">
         <v>39</v>
       </c>
       <c r="H23" s="17">
@@ -3450,7 +3468,7 @@
       </c>
       <c r="E24" s="107"/>
       <c r="F24" s="107"/>
-      <c r="G24" s="142"/>
+      <c r="G24" s="143"/>
       <c r="H24" s="17">
         <v>140</v>
       </c>
@@ -3471,7 +3489,7 @@
         <v>59</v>
       </c>
       <c r="F25" s="107"/>
-      <c r="G25" s="142"/>
+      <c r="G25" s="143"/>
       <c r="H25" s="17">
         <v>140</v>
       </c>
@@ -3492,7 +3510,7 @@
         <v>62</v>
       </c>
       <c r="F26" s="107"/>
-      <c r="G26" s="142"/>
+      <c r="G26" s="143"/>
       <c r="H26" s="17">
         <v>140</v>
       </c>
@@ -3513,7 +3531,7 @@
         <v>65</v>
       </c>
       <c r="F27" s="107"/>
-      <c r="G27" s="142"/>
+      <c r="G27" s="143"/>
       <c r="H27" s="17">
         <v>140</v>
       </c>
@@ -3533,7 +3551,7 @@
         <v>68</v>
       </c>
       <c r="F28" s="107"/>
-      <c r="G28" s="142"/>
+      <c r="G28" s="143"/>
       <c r="H28" s="17">
         <v>140</v>
       </c>
@@ -3553,7 +3571,7 @@
         <v>71</v>
       </c>
       <c r="F29" s="107"/>
-      <c r="G29" s="142"/>
+      <c r="G29" s="143"/>
       <c r="H29" s="17">
         <v>140</v>
       </c>
@@ -3573,7 +3591,7 @@
         <v>71</v>
       </c>
       <c r="F30" s="107"/>
-      <c r="G30" s="142"/>
+      <c r="G30" s="143"/>
       <c r="H30" s="17">
         <v>140</v>
       </c>
@@ -3593,7 +3611,7 @@
         <v>90</v>
       </c>
       <c r="F31" s="107"/>
-      <c r="G31" s="142"/>
+      <c r="G31" s="143"/>
       <c r="H31" s="17">
         <v>140</v>
       </c>
@@ -3611,7 +3629,7 @@
         <v>92</v>
       </c>
       <c r="F32" s="41"/>
-      <c r="G32" s="143"/>
+      <c r="G32" s="144"/>
       <c r="H32" s="28">
         <v>140</v>
       </c>
@@ -3659,16 +3677,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12.6" customHeight="1">
-      <c r="A1" s="139" t="s">
+      <c r="A1" s="140" t="s">
         <v>93</v>
       </c>
-      <c r="B1" s="139"/>
-      <c r="C1" s="139"/>
-      <c r="D1" s="139"/>
-      <c r="E1" s="139"/>
-      <c r="F1" s="139"/>
-      <c r="G1" s="139"/>
-      <c r="H1" s="139"/>
+      <c r="B1" s="140"/>
+      <c r="C1" s="140"/>
+      <c r="D1" s="140"/>
+      <c r="E1" s="140"/>
+      <c r="F1" s="140"/>
+      <c r="G1" s="140"/>
+      <c r="H1" s="140"/>
     </row>
     <row r="2" spans="1:10" ht="15">
       <c r="A2" s="3" t="s">
@@ -3712,7 +3730,7 @@
       <c r="F3" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="G3" s="140" t="s">
+      <c r="G3" s="141" t="s">
         <v>11</v>
       </c>
       <c r="H3" s="11">
@@ -3735,7 +3753,7 @@
       <c r="F4" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="G4" s="140"/>
+      <c r="G4" s="141"/>
       <c r="H4" s="17">
         <v>140</v>
       </c>
@@ -3756,7 +3774,7 @@
       <c r="F5" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="G5" s="140"/>
+      <c r="G5" s="141"/>
       <c r="H5" s="17">
         <v>140</v>
       </c>
@@ -3778,7 +3796,7 @@
       <c r="F6" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="G6" s="140"/>
+      <c r="G6" s="141"/>
       <c r="H6" s="17">
         <v>140</v>
       </c>
@@ -3800,7 +3818,7 @@
       <c r="F7" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="G7" s="140"/>
+      <c r="G7" s="141"/>
       <c r="H7" s="17">
         <v>140</v>
       </c>
@@ -3822,7 +3840,7 @@
       <c r="F8" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="G8" s="140"/>
+      <c r="G8" s="141"/>
       <c r="H8" s="17">
         <v>140</v>
       </c>
@@ -3844,7 +3862,7 @@
       <c r="F9" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="G9" s="140"/>
+      <c r="G9" s="141"/>
       <c r="H9" s="17">
         <v>140</v>
       </c>
@@ -3865,7 +3883,7 @@
       <c r="F10" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="G10" s="140"/>
+      <c r="G10" s="141"/>
       <c r="H10" s="17">
         <v>140</v>
       </c>
@@ -3886,7 +3904,7 @@
       <c r="F11" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="G11" s="140"/>
+      <c r="G11" s="141"/>
       <c r="H11" s="17">
         <v>140</v>
       </c>
@@ -3907,7 +3925,7 @@
       <c r="F12" s="41" t="s">
         <v>106</v>
       </c>
-      <c r="G12" s="140"/>
+      <c r="G12" s="141"/>
       <c r="H12" s="17">
         <v>140</v>
       </c>
@@ -3929,7 +3947,7 @@
       <c r="F13" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="G13" s="140" t="s">
+      <c r="G13" s="141" t="s">
         <v>31</v>
       </c>
       <c r="H13" s="17">
@@ -3954,7 +3972,7 @@
       <c r="F14" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="G14" s="140"/>
+      <c r="G14" s="141"/>
       <c r="H14" s="17">
         <v>140</v>
       </c>
@@ -3977,7 +3995,7 @@
       <c r="F15" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="G15" s="140"/>
+      <c r="G15" s="141"/>
       <c r="H15" s="17">
         <v>140</v>
       </c>
@@ -3999,7 +4017,7 @@
       <c r="F16" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="G16" s="140"/>
+      <c r="G16" s="141"/>
       <c r="H16" s="17">
         <v>140</v>
       </c>
@@ -4024,7 +4042,7 @@
       <c r="F17" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="G17" s="140"/>
+      <c r="G17" s="141"/>
       <c r="H17" s="17">
         <v>140</v>
       </c>
@@ -4049,7 +4067,7 @@
       <c r="F18" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="G18" s="140"/>
+      <c r="G18" s="141"/>
       <c r="H18" s="17">
         <v>140</v>
       </c>
@@ -4074,7 +4092,7 @@
       <c r="F19" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="G19" s="140"/>
+      <c r="G19" s="141"/>
       <c r="H19" s="17">
         <v>140</v>
       </c>
@@ -4099,7 +4117,7 @@
       <c r="F20" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="G20" s="140"/>
+      <c r="G20" s="141"/>
       <c r="H20" s="17">
         <v>140</v>
       </c>
@@ -4124,7 +4142,7 @@
       <c r="F21" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="G21" s="140"/>
+      <c r="G21" s="141"/>
       <c r="H21" s="17">
         <v>140</v>
       </c>
@@ -4149,7 +4167,7 @@
       <c r="F22" s="41" t="s">
         <v>106</v>
       </c>
-      <c r="G22" s="140"/>
+      <c r="G22" s="141"/>
       <c r="H22" s="17">
         <v>140</v>
       </c>
@@ -4177,7 +4195,7 @@
       <c r="F23" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="G23" s="140" t="s">
+      <c r="G23" s="141" t="s">
         <v>39</v>
       </c>
       <c r="H23" s="17">
@@ -4204,7 +4222,7 @@
       <c r="F24" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="G24" s="140"/>
+      <c r="G24" s="141"/>
       <c r="H24" s="17">
         <v>140</v>
       </c>
@@ -4229,7 +4247,7 @@
       <c r="F25" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="G25" s="140"/>
+      <c r="G25" s="141"/>
       <c r="H25" s="17">
         <v>140</v>
       </c>
@@ -4254,7 +4272,7 @@
       <c r="F26" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="G26" s="140"/>
+      <c r="G26" s="141"/>
       <c r="H26" s="17">
         <v>140</v>
       </c>
@@ -4279,7 +4297,7 @@
       <c r="F27" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="G27" s="140"/>
+      <c r="G27" s="141"/>
       <c r="H27" s="17">
         <v>140</v>
       </c>
@@ -4303,7 +4321,7 @@
       <c r="F28" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="G28" s="140"/>
+      <c r="G28" s="141"/>
       <c r="H28" s="17">
         <v>140</v>
       </c>
@@ -4327,7 +4345,7 @@
       <c r="F29" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="G29" s="140"/>
+      <c r="G29" s="141"/>
       <c r="H29" s="17">
         <v>140</v>
       </c>
@@ -4351,7 +4369,7 @@
       <c r="F30" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="G30" s="140"/>
+      <c r="G30" s="141"/>
       <c r="H30" s="17">
         <v>140</v>
       </c>
@@ -4375,7 +4393,7 @@
       <c r="F31" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="G31" s="140"/>
+      <c r="G31" s="141"/>
       <c r="H31" s="17">
         <v>140</v>
       </c>
@@ -4395,7 +4413,7 @@
       <c r="F32" s="41" t="s">
         <v>106</v>
       </c>
-      <c r="G32" s="140"/>
+      <c r="G32" s="141"/>
       <c r="H32" s="28">
         <v>140</v>
       </c>
@@ -4450,16 +4468,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="144" t="s">
+      <c r="A1" s="145" t="s">
         <v>112</v>
       </c>
-      <c r="B1" s="144"/>
-      <c r="C1" s="144"/>
-      <c r="D1" s="144"/>
-      <c r="E1" s="144"/>
-      <c r="F1" s="144"/>
-      <c r="G1" s="144"/>
-      <c r="H1" s="144"/>
+      <c r="B1" s="145"/>
+      <c r="C1" s="145"/>
+      <c r="D1" s="145"/>
+      <c r="E1" s="145"/>
+      <c r="F1" s="145"/>
+      <c r="G1" s="145"/>
+      <c r="H1" s="145"/>
     </row>
     <row r="2" spans="1:10" ht="15">
       <c r="A2" s="68" t="s">
@@ -4498,7 +4516,7 @@
       <c r="F3" s="33" t="s">
         <v>96</v>
       </c>
-      <c r="G3" s="138" t="s">
+      <c r="G3" s="139" t="s">
         <v>11</v>
       </c>
       <c r="H3" s="33">
@@ -4521,7 +4539,7 @@
       <c r="F4" s="36" t="s">
         <v>97</v>
       </c>
-      <c r="G4" s="138"/>
+      <c r="G4" s="139"/>
       <c r="H4" s="36">
         <v>120</v>
       </c>
@@ -4542,7 +4560,7 @@
       <c r="F5" s="36" t="s">
         <v>98</v>
       </c>
-      <c r="G5" s="138"/>
+      <c r="G5" s="139"/>
       <c r="H5" s="36">
         <v>120</v>
       </c>
@@ -4563,7 +4581,7 @@
       <c r="F6" s="36" t="s">
         <v>99</v>
       </c>
-      <c r="G6" s="138"/>
+      <c r="G6" s="139"/>
       <c r="H6" s="36">
         <v>120</v>
       </c>
@@ -4584,7 +4602,7 @@
       <c r="F7" s="36" t="s">
         <v>100</v>
       </c>
-      <c r="G7" s="138"/>
+      <c r="G7" s="139"/>
       <c r="H7" s="36">
         <v>120</v>
       </c>
@@ -4605,7 +4623,7 @@
       <c r="F8" s="36" t="s">
         <v>101</v>
       </c>
-      <c r="G8" s="138"/>
+      <c r="G8" s="139"/>
       <c r="H8" s="36">
         <v>120</v>
       </c>
@@ -4626,7 +4644,7 @@
       <c r="F9" s="36" t="s">
         <v>102</v>
       </c>
-      <c r="G9" s="138"/>
+      <c r="G9" s="139"/>
       <c r="H9" s="36">
         <v>120</v>
       </c>
@@ -4646,7 +4664,7 @@
       <c r="F10" s="36" t="s">
         <v>104</v>
       </c>
-      <c r="G10" s="138"/>
+      <c r="G10" s="139"/>
       <c r="H10" s="36">
         <v>120</v>
       </c>
@@ -4666,7 +4684,7 @@
       <c r="F11" s="36" t="s">
         <v>105</v>
       </c>
-      <c r="G11" s="138"/>
+      <c r="G11" s="139"/>
       <c r="H11" s="36">
         <v>120</v>
       </c>
@@ -4687,7 +4705,7 @@
       <c r="F12" s="44" t="s">
         <v>106</v>
       </c>
-      <c r="G12" s="138"/>
+      <c r="G12" s="139"/>
       <c r="H12" s="36">
         <v>120</v>
       </c>
@@ -4715,7 +4733,7 @@
       <c r="F13" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="G13" s="138" t="s">
+      <c r="G13" s="139" t="s">
         <v>31</v>
       </c>
       <c r="H13" s="36">
@@ -4739,7 +4757,7 @@
       <c r="F14" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="G14" s="138"/>
+      <c r="G14" s="139"/>
       <c r="H14" s="36">
         <v>120</v>
       </c>
@@ -4761,7 +4779,7 @@
       <c r="F15" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="G15" s="138"/>
+      <c r="G15" s="139"/>
       <c r="H15" s="36">
         <v>120</v>
       </c>
@@ -4783,7 +4801,7 @@
       <c r="F16" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="G16" s="138"/>
+      <c r="G16" s="139"/>
       <c r="H16" s="36">
         <v>120</v>
       </c>
@@ -4808,7 +4826,7 @@
       <c r="F17" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="G17" s="138"/>
+      <c r="G17" s="139"/>
       <c r="H17" s="36">
         <v>120</v>
       </c>
@@ -4833,7 +4851,7 @@
       <c r="F18" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="G18" s="138"/>
+      <c r="G18" s="139"/>
       <c r="H18" s="36">
         <v>120</v>
       </c>
@@ -4858,7 +4876,7 @@
       <c r="F19" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="G19" s="138"/>
+      <c r="G19" s="139"/>
       <c r="H19" s="36">
         <v>120</v>
       </c>
@@ -4883,7 +4901,7 @@
       <c r="F20" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="G20" s="138"/>
+      <c r="G20" s="139"/>
       <c r="H20" s="36">
         <v>120</v>
       </c>
@@ -4908,7 +4926,7 @@
       <c r="F21" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="G21" s="138"/>
+      <c r="G21" s="139"/>
       <c r="H21" s="36">
         <v>120</v>
       </c>
@@ -4933,7 +4951,7 @@
       <c r="F22" s="41" t="s">
         <v>106</v>
       </c>
-      <c r="G22" s="138"/>
+      <c r="G22" s="139"/>
       <c r="H22" s="36">
         <v>120</v>
       </c>
@@ -4964,7 +4982,7 @@
       <c r="F23" s="33" t="s">
         <v>96</v>
       </c>
-      <c r="G23" s="138" t="s">
+      <c r="G23" s="139" t="s">
         <v>39</v>
       </c>
       <c r="H23" s="36">
@@ -4991,7 +5009,7 @@
       <c r="F24" s="36" t="s">
         <v>97</v>
       </c>
-      <c r="G24" s="138"/>
+      <c r="G24" s="139"/>
       <c r="H24" s="36">
         <v>120</v>
       </c>
@@ -5016,7 +5034,7 @@
       <c r="F25" s="36" t="s">
         <v>98</v>
       </c>
-      <c r="G25" s="138"/>
+      <c r="G25" s="139"/>
       <c r="H25" s="36">
         <v>120</v>
       </c>
@@ -5041,7 +5059,7 @@
       <c r="F26" s="36" t="s">
         <v>99</v>
       </c>
-      <c r="G26" s="138"/>
+      <c r="G26" s="139"/>
       <c r="H26" s="36">
         <v>120</v>
       </c>
@@ -5066,7 +5084,7 @@
       <c r="F27" s="36" t="s">
         <v>100</v>
       </c>
-      <c r="G27" s="138"/>
+      <c r="G27" s="139"/>
       <c r="H27" s="36">
         <v>120</v>
       </c>
@@ -5090,7 +5108,7 @@
       <c r="F28" s="36" t="s">
         <v>101</v>
       </c>
-      <c r="G28" s="138"/>
+      <c r="G28" s="139"/>
       <c r="H28" s="36">
         <v>120</v>
       </c>
@@ -5114,7 +5132,7 @@
       <c r="F29" s="36" t="s">
         <v>102</v>
       </c>
-      <c r="G29" s="138"/>
+      <c r="G29" s="139"/>
       <c r="H29" s="36">
         <v>120</v>
       </c>
@@ -5138,7 +5156,7 @@
       <c r="F30" s="36" t="s">
         <v>104</v>
       </c>
-      <c r="G30" s="138"/>
+      <c r="G30" s="139"/>
       <c r="H30" s="36">
         <v>120</v>
       </c>
@@ -5162,7 +5180,7 @@
       <c r="F31" s="36" t="s">
         <v>105</v>
       </c>
-      <c r="G31" s="138"/>
+      <c r="G31" s="139"/>
       <c r="H31" s="36">
         <v>120</v>
       </c>
@@ -5184,7 +5202,7 @@
       <c r="F32" s="77" t="s">
         <v>106</v>
       </c>
-      <c r="G32" s="138"/>
+      <c r="G32" s="139"/>
       <c r="H32" s="77">
         <v>120</v>
       </c>
@@ -5255,15 +5273,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="144" t="s">
+      <c r="A1" s="145" t="s">
         <v>124</v>
       </c>
-      <c r="B1" s="144"/>
-      <c r="C1" s="144"/>
-      <c r="D1" s="144"/>
-      <c r="E1" s="144"/>
-      <c r="F1" s="144"/>
-      <c r="G1" s="144"/>
+      <c r="B1" s="145"/>
+      <c r="C1" s="145"/>
+      <c r="D1" s="145"/>
+      <c r="E1" s="145"/>
+      <c r="F1" s="145"/>
+      <c r="G1" s="145"/>
     </row>
     <row r="2" spans="1:9" ht="15">
       <c r="A2" s="68" t="s">
@@ -5304,7 +5322,7 @@
       <c r="F3" s="10">
         <v>5</v>
       </c>
-      <c r="G3" s="138" t="s">
+      <c r="G3" s="139" t="s">
         <v>11</v>
       </c>
     </row>
@@ -5323,7 +5341,7 @@
       <c r="F4" s="2">
         <v>5</v>
       </c>
-      <c r="G4" s="138"/>
+      <c r="G4" s="139"/>
     </row>
     <row r="5" spans="1:9" ht="15">
       <c r="A5" s="62" t="s">
@@ -5340,7 +5358,7 @@
       <c r="F5" s="2">
         <v>5</v>
       </c>
-      <c r="G5" s="138"/>
+      <c r="G5" s="139"/>
     </row>
     <row r="6" spans="1:9" ht="15">
       <c r="A6" s="62" t="s">
@@ -5357,7 +5375,7 @@
       <c r="F6" s="2">
         <v>5</v>
       </c>
-      <c r="G6" s="138"/>
+      <c r="G6" s="139"/>
     </row>
     <row r="7" spans="1:9" ht="15">
       <c r="A7" s="62" t="s">
@@ -5374,7 +5392,7 @@
       <c r="F7" s="2">
         <v>5</v>
       </c>
-      <c r="G7" s="138"/>
+      <c r="G7" s="139"/>
     </row>
     <row r="8" spans="1:9" ht="15">
       <c r="A8" s="62" t="s">
@@ -5391,7 +5409,7 @@
       <c r="F8" s="2">
         <v>5</v>
       </c>
-      <c r="G8" s="138"/>
+      <c r="G8" s="139"/>
     </row>
     <row r="9" spans="1:9" ht="15">
       <c r="A9" s="62" t="s">
@@ -5408,7 +5426,7 @@
       <c r="F9" s="2">
         <v>5</v>
       </c>
-      <c r="G9" s="138"/>
+      <c r="G9" s="139"/>
       <c r="H9" s="2"/>
     </row>
     <row r="10" spans="1:9" ht="15">
@@ -5426,7 +5444,7 @@
       <c r="F10" s="2">
         <v>5</v>
       </c>
-      <c r="G10" s="138"/>
+      <c r="G10" s="139"/>
       <c r="H10" s="2"/>
     </row>
     <row r="11" spans="1:9" ht="15">
@@ -5446,7 +5464,7 @@
       <c r="F11" s="89" t="s">
         <v>96</v>
       </c>
-      <c r="G11" s="145" t="s">
+      <c r="G11" s="146" t="s">
         <v>31</v>
       </c>
       <c r="H11" s="2"/>
@@ -5468,7 +5486,7 @@
       <c r="F12" s="94" t="s">
         <v>97</v>
       </c>
-      <c r="G12" s="145"/>
+      <c r="G12" s="146"/>
       <c r="H12" s="2"/>
     </row>
     <row r="13" spans="1:9" ht="15">
@@ -5488,7 +5506,7 @@
       <c r="F13" s="94" t="s">
         <v>98</v>
       </c>
-      <c r="G13" s="145"/>
+      <c r="G13" s="146"/>
       <c r="H13" s="2"/>
     </row>
     <row r="14" spans="1:9" ht="15">
@@ -5510,7 +5528,7 @@
       <c r="F14" s="94" t="s">
         <v>99</v>
       </c>
-      <c r="G14" s="145"/>
+      <c r="G14" s="146"/>
       <c r="H14" s="71">
         <v>43371</v>
       </c>
@@ -5537,7 +5555,7 @@
       <c r="F15" s="94" t="s">
         <v>100</v>
       </c>
-      <c r="G15" s="145"/>
+      <c r="G15" s="146"/>
       <c r="H15" s="2"/>
     </row>
     <row r="16" spans="1:9" ht="15">
@@ -5559,7 +5577,7 @@
       <c r="F16" s="94" t="s">
         <v>101</v>
       </c>
-      <c r="G16" s="145"/>
+      <c r="G16" s="146"/>
       <c r="H16" s="2"/>
     </row>
     <row r="17" spans="1:9" ht="15">
@@ -5581,7 +5599,7 @@
       <c r="F17" s="94" t="s">
         <v>102</v>
       </c>
-      <c r="G17" s="145"/>
+      <c r="G17" s="146"/>
       <c r="H17" s="2"/>
     </row>
     <row r="18" spans="1:9" ht="15">
@@ -5603,7 +5621,7 @@
       <c r="F18" s="50" t="s">
         <v>104</v>
       </c>
-      <c r="G18" s="145"/>
+      <c r="G18" s="146"/>
       <c r="H18" s="71">
         <v>43409</v>
       </c>
@@ -5628,7 +5646,7 @@
       <c r="F19" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="G19" s="138" t="s">
+      <c r="G19" s="139" t="s">
         <v>39</v>
       </c>
       <c r="H19" s="2"/>
@@ -5652,7 +5670,7 @@
       <c r="F20" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="G20" s="138"/>
+      <c r="G20" s="139"/>
       <c r="H20" s="2"/>
     </row>
     <row r="21" spans="1:9" ht="15">
@@ -5674,7 +5692,7 @@
       <c r="F21" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="G21" s="138"/>
+      <c r="G21" s="139"/>
       <c r="H21" s="2"/>
     </row>
     <row r="22" spans="1:9" ht="15">
@@ -5696,7 +5714,7 @@
       <c r="F22" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="G22" s="138"/>
+      <c r="G22" s="139"/>
       <c r="H22" s="65">
         <v>43448</v>
       </c>
@@ -5723,7 +5741,7 @@
       <c r="F23" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="G23" s="138"/>
+      <c r="G23" s="139"/>
       <c r="H23" s="2"/>
     </row>
     <row r="24" spans="1:9" ht="15">
@@ -5745,7 +5763,7 @@
       <c r="F24" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="G24" s="138"/>
+      <c r="G24" s="139"/>
       <c r="H24" s="2"/>
     </row>
     <row r="25" spans="1:9" ht="15">
@@ -5765,7 +5783,7 @@
       <c r="F25" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="G25" s="138"/>
+      <c r="G25" s="139"/>
     </row>
     <row r="26" spans="1:9" ht="15">
       <c r="A26" s="64" t="s">
@@ -5784,7 +5802,7 @@
       <c r="F26" s="41" t="s">
         <v>104</v>
       </c>
-      <c r="G26" s="138"/>
+      <c r="G26" s="139"/>
       <c r="I26" s="2">
         <v>600</v>
       </c>
@@ -5835,16 +5853,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="146" t="s">
+      <c r="A1" s="147" t="s">
         <v>141</v>
       </c>
-      <c r="B1" s="146"/>
-      <c r="C1" s="146"/>
-      <c r="D1" s="146"/>
-      <c r="E1" s="146"/>
-      <c r="F1" s="146"/>
-      <c r="G1" s="146"/>
-      <c r="H1" s="146"/>
+      <c r="B1" s="147"/>
+      <c r="C1" s="147"/>
+      <c r="D1" s="147"/>
+      <c r="E1" s="147"/>
+      <c r="F1" s="147"/>
+      <c r="G1" s="147"/>
+      <c r="H1" s="147"/>
     </row>
     <row r="2" spans="1:11" ht="15">
       <c r="A2" s="30" t="s">
@@ -5884,13 +5902,13 @@
       <c r="F3" s="2">
         <v>5</v>
       </c>
-      <c r="G3" s="146" t="s">
+      <c r="G3" s="147" t="s">
         <v>143</v>
       </c>
-      <c r="J3" s="147" t="s">
+      <c r="J3" s="148" t="s">
         <v>144</v>
       </c>
-      <c r="K3" s="147"/>
+      <c r="K3" s="148"/>
     </row>
     <row r="4" spans="1:11" ht="15">
       <c r="A4" s="80" t="s">
@@ -5905,7 +5923,7 @@
       <c r="F4" s="2">
         <v>5</v>
       </c>
-      <c r="G4" s="146"/>
+      <c r="G4" s="147"/>
       <c r="J4" t="s">
         <v>145</v>
       </c>
@@ -5927,7 +5945,7 @@
       <c r="F5" s="2">
         <v>5</v>
       </c>
-      <c r="G5" s="146"/>
+      <c r="G5" s="147"/>
       <c r="J5" t="s">
         <v>146</v>
       </c>
@@ -5949,7 +5967,7 @@
       <c r="F6" s="2">
         <v>5</v>
       </c>
-      <c r="G6" s="146"/>
+      <c r="G6" s="147"/>
       <c r="J6" t="s">
         <v>147</v>
       </c>
@@ -5971,7 +5989,7 @@
       <c r="F7" s="10">
         <v>5</v>
       </c>
-      <c r="G7" s="140" t="s">
+      <c r="G7" s="141" t="s">
         <v>11</v>
       </c>
       <c r="J7" t="s">
@@ -5995,7 +6013,7 @@
       <c r="F8" s="2">
         <v>5</v>
       </c>
-      <c r="G8" s="140"/>
+      <c r="G8" s="141"/>
       <c r="J8" t="s">
         <v>149</v>
       </c>
@@ -6017,7 +6035,7 @@
       <c r="F9" s="2">
         <v>5</v>
       </c>
-      <c r="G9" s="140"/>
+      <c r="G9" s="141"/>
       <c r="J9" t="s">
         <v>150</v>
       </c>
@@ -6039,7 +6057,7 @@
       <c r="F10" s="2">
         <v>5</v>
       </c>
-      <c r="G10" s="140"/>
+      <c r="G10" s="141"/>
       <c r="J10" t="s">
         <v>151</v>
       </c>
@@ -6061,7 +6079,7 @@
       <c r="F11" s="2">
         <v>5</v>
       </c>
-      <c r="G11" s="140"/>
+      <c r="G11" s="141"/>
       <c r="J11" t="s">
         <v>152</v>
       </c>
@@ -6083,7 +6101,7 @@
       <c r="F12" s="2">
         <v>5</v>
       </c>
-      <c r="G12" s="140"/>
+      <c r="G12" s="141"/>
       <c r="J12" t="s">
         <v>153</v>
       </c>
@@ -6105,7 +6123,7 @@
       <c r="F13" s="2">
         <v>5</v>
       </c>
-      <c r="G13" s="140"/>
+      <c r="G13" s="141"/>
     </row>
     <row r="14" spans="1:11" ht="15">
       <c r="A14" s="58" t="s">
@@ -6120,7 +6138,7 @@
       <c r="F14" s="41">
         <v>5</v>
       </c>
-      <c r="G14" s="140"/>
+      <c r="G14" s="141"/>
     </row>
     <row r="15" spans="1:11" ht="15">
       <c r="A15" s="52" t="s">
@@ -6135,7 +6153,7 @@
       <c r="F15" s="10">
         <v>1</v>
       </c>
-      <c r="G15" s="140" t="s">
+      <c r="G15" s="141" t="s">
         <v>31</v>
       </c>
     </row>
@@ -6154,7 +6172,7 @@
       <c r="F16" s="2">
         <v>2</v>
       </c>
-      <c r="G16" s="140"/>
+      <c r="G16" s="141"/>
     </row>
     <row r="17" spans="1:10" ht="15">
       <c r="A17" s="56" t="s">
@@ -6171,7 +6189,7 @@
       <c r="F17" s="2">
         <v>3</v>
       </c>
-      <c r="G17" s="140"/>
+      <c r="G17" s="141"/>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
     </row>
@@ -6190,7 +6208,7 @@
       <c r="F18" s="2">
         <v>4</v>
       </c>
-      <c r="G18" s="140"/>
+      <c r="G18" s="141"/>
     </row>
     <row r="19" spans="1:10" ht="15">
       <c r="A19" s="62" t="s">
@@ -6208,7 +6226,7 @@
       <c r="F19" s="2">
         <v>5</v>
       </c>
-      <c r="G19" s="140"/>
+      <c r="G19" s="141"/>
     </row>
     <row r="20" spans="1:10" ht="15">
       <c r="A20" s="62" t="s">
@@ -6226,7 +6244,7 @@
       <c r="F20" s="2">
         <v>6</v>
       </c>
-      <c r="G20" s="140"/>
+      <c r="G20" s="141"/>
     </row>
     <row r="21" spans="1:10" ht="15">
       <c r="A21" s="62" t="s">
@@ -6244,7 +6262,7 @@
       <c r="F21" s="2">
         <v>7</v>
       </c>
-      <c r="G21" s="140"/>
+      <c r="G21" s="141"/>
     </row>
     <row r="22" spans="1:10" ht="15">
       <c r="A22" s="64" t="s">
@@ -6263,7 +6281,7 @@
       <c r="F22" s="41">
         <v>8</v>
       </c>
-      <c r="G22" s="140"/>
+      <c r="G22" s="141"/>
     </row>
     <row r="23" spans="1:10" ht="15">
       <c r="A23" s="60" t="s">
@@ -6282,7 +6300,7 @@
       <c r="F23" s="10">
         <v>1</v>
       </c>
-      <c r="G23" s="140" t="s">
+      <c r="G23" s="141" t="s">
         <v>39</v>
       </c>
     </row>
@@ -6305,7 +6323,7 @@
       <c r="F24" s="2">
         <v>2</v>
       </c>
-      <c r="G24" s="140"/>
+      <c r="G24" s="141"/>
     </row>
     <row r="25" spans="1:10" ht="15">
       <c r="A25" s="62" t="s">
@@ -6326,7 +6344,7 @@
       <c r="F25" s="2">
         <v>3</v>
       </c>
-      <c r="G25" s="140"/>
+      <c r="G25" s="141"/>
     </row>
     <row r="26" spans="1:10" ht="15">
       <c r="A26" s="62" t="s">
@@ -6347,7 +6365,7 @@
       <c r="F26" s="2">
         <v>4</v>
       </c>
-      <c r="G26" s="140"/>
+      <c r="G26" s="141"/>
       <c r="H26" s="2" t="s">
         <v>158</v>
       </c>
@@ -6371,7 +6389,7 @@
       <c r="F27" s="2">
         <v>5</v>
       </c>
-      <c r="G27" s="140"/>
+      <c r="G27" s="141"/>
     </row>
     <row r="28" spans="1:10" ht="15">
       <c r="A28" s="62" t="s">
@@ -6392,7 +6410,7 @@
       <c r="F28" s="2">
         <v>6</v>
       </c>
-      <c r="G28" s="140"/>
+      <c r="G28" s="141"/>
     </row>
     <row r="29" spans="1:10" ht="15">
       <c r="A29" s="62" t="s">
@@ -6413,7 +6431,7 @@
       <c r="F29" s="2">
         <v>7</v>
       </c>
-      <c r="G29" s="140"/>
+      <c r="G29" s="141"/>
     </row>
     <row r="30" spans="1:10" ht="15">
       <c r="A30" s="64" t="s">
@@ -6434,7 +6452,7 @@
       <c r="F30" s="41">
         <v>8</v>
       </c>
-      <c r="G30" s="140"/>
+      <c r="G30" s="141"/>
       <c r="H30" s="71">
         <v>43396</v>
       </c>

--- a/Cronograma aulas/Aulas v2.xlsx
+++ b/Cronograma aulas/Aulas v2.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Development\github\aulas-3way\Cronograma aulas\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20610" windowHeight="8025" tabRatio="489" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20610" windowHeight="8025" tabRatio="489"/>
   </bookViews>
   <sheets>
     <sheet name="t7_seg_e_qua" sheetId="1" r:id="rId1"/>
@@ -15,7 +20,7 @@
     <sheet name="t2_Sábado" sheetId="6" r:id="rId6"/>
     <sheet name="t1_Domingo_(finalizada)" sheetId="7" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="114210"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -25,7 +30,7 @@
     <author/>
   </authors>
   <commentList>
-    <comment ref="D15" authorId="0">
+    <comment ref="D15" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -43,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="746" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="749" uniqueCount="177">
   <si>
     <t>Segunda e Quarta – sala 04 (senha javaweb)</t>
   </si>
@@ -595,7 +600,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="[$R$-416]\ #,##0.00;[Red]\-[$R$-416]\ #,##0.00"/>
     <numFmt numFmtId="165" formatCode="m/d/yy"/>
@@ -1465,6 +1470,14 @@
       <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1517,9 +1530,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Escritório">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1557,9 +1570,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Escritório">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1591,9 +1604,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1625,9 +1639,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Escritório">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1800,11 +1815,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A9" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A9" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="14.25"/>
@@ -2373,7 +2388,9 @@
       <c r="B28" s="126">
         <v>43752</v>
       </c>
-      <c r="C28" s="23"/>
+      <c r="C28" s="23" t="s">
+        <v>29</v>
+      </c>
       <c r="D28" s="138"/>
       <c r="E28" s="37" t="s">
         <v>174</v>
@@ -2390,7 +2407,9 @@
       <c r="B29" s="126">
         <v>43754</v>
       </c>
-      <c r="C29" s="23"/>
+      <c r="C29" s="23" t="s">
+        <v>29</v>
+      </c>
       <c r="D29" s="17"/>
       <c r="E29" s="136" t="s">
         <v>174</v>
@@ -2407,7 +2426,9 @@
       <c r="B30" s="131">
         <v>43755</v>
       </c>
-      <c r="C30" s="123"/>
+      <c r="C30" s="123" t="s">
+        <v>29</v>
+      </c>
       <c r="D30" s="28"/>
       <c r="E30" s="137" t="s">
         <v>174</v>
@@ -2436,10 +2457,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A4" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
       <selection activeCell="B24" sqref="B24:B26"/>
     </sheetView>
   </sheetViews>
@@ -2947,7 +2968,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor indexed="47"/>
   </sheetPr>
@@ -3653,7 +3674,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor indexed="47"/>
   </sheetPr>
@@ -4442,7 +4463,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor indexed="47"/>
   </sheetPr>
@@ -5249,7 +5270,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor indexed="47"/>
   </sheetPr>
@@ -5827,7 +5848,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor indexed="47"/>
   </sheetPr>

--- a/Cronograma aulas/Aulas v2.xlsx
+++ b/Cronograma aulas/Aulas v2.xlsx
@@ -9,11 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20610" windowHeight="8025" tabRatio="489"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="15450" windowHeight="7950" tabRatio="489"/>
   </bookViews>
   <sheets>
-    <sheet name="t7_seg_e_qua" sheetId="1" r:id="rId1"/>
-    <sheet name="t6_sab_vesp" sheetId="2" r:id="rId2"/>
+    <sheet name="t6_sab_vesp" sheetId="2" r:id="rId1"/>
+    <sheet name="t7_seg_e_qua" sheetId="1" r:id="rId2"/>
     <sheet name="t5_seg_e_qua" sheetId="3" r:id="rId3"/>
     <sheet name="t4_seg_qua_sex_(finalizada)" sheetId="4" r:id="rId4"/>
     <sheet name="t3_Ter_e_Qui_(finalizada)" sheetId="5" r:id="rId5"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="749" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="752" uniqueCount="178">
   <si>
     <t>Segunda e Quarta – sala 04 (senha javaweb)</t>
   </si>
@@ -596,6 +596,9 @@
   <si>
     <t>CRUD Departamentos</t>
   </si>
+  <si>
+    <t>23/11/19</t>
+  </si>
 </sst>
 </file>
 
@@ -606,7 +609,7 @@
     <numFmt numFmtId="165" formatCode="m/d/yy"/>
     <numFmt numFmtId="166" formatCode="dd/mm/yy;@"/>
   </numFmts>
-  <fonts count="19">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -709,6 +712,12 @@
     <font>
       <b/>
       <i/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Liberation Sans1"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -975,7 +984,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="18" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="149">
+  <cellXfs count="151">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1364,6 +1373,10 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1816,10 +1829,520 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H30"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A9" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="8.375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="10.75" customWidth="1"/>
+    <col min="3" max="3" width="10.5" customWidth="1"/>
+    <col min="4" max="4" width="84.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.75" customWidth="1"/>
+    <col min="6" max="6" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="141" t="s">
+        <v>170</v>
+      </c>
+      <c r="B1" s="141"/>
+      <c r="C1" s="141"/>
+      <c r="D1" s="141"/>
+      <c r="E1" s="141"/>
+      <c r="F1" s="141"/>
+      <c r="G1" s="141"/>
+    </row>
+    <row r="2" spans="1:8" ht="15">
+      <c r="A2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="127">
+        <v>43620</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="9"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="141" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="33">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="15">
+      <c r="A4" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="129">
+        <v>43596</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="15"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="141"/>
+      <c r="G4" s="36">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="15">
+      <c r="A5" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="129">
+        <v>43603</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="15"/>
+      <c r="E5" s="35"/>
+      <c r="F5" s="141"/>
+      <c r="G5" s="36">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="129">
+        <v>43617</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="17"/>
+      <c r="E6" s="37"/>
+      <c r="F6" s="141"/>
+      <c r="G6" s="36">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="129">
+        <v>43624</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="17"/>
+      <c r="E7" s="37"/>
+      <c r="F7" s="141"/>
+      <c r="G7" s="36">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="129">
+        <v>43631</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="17"/>
+      <c r="E8" s="37"/>
+      <c r="F8" s="141"/>
+      <c r="G8" s="36">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="129">
+        <v>43645</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="E9" s="37"/>
+      <c r="F9" s="141"/>
+      <c r="G9" s="36">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="129">
+        <v>43659</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="39"/>
+      <c r="E10" s="40"/>
+      <c r="F10" s="141"/>
+      <c r="G10" s="36">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="127">
+        <v>43666</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="E11" s="2"/>
+      <c r="F11" s="141" t="s">
+        <v>31</v>
+      </c>
+      <c r="G11" s="17">
+        <v>175</v>
+      </c>
+      <c r="H11" s="2"/>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="126">
+        <v>43673</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="E12" s="2"/>
+      <c r="F12" s="141"/>
+      <c r="G12" s="17">
+        <v>175</v>
+      </c>
+      <c r="H12" s="2"/>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="126">
+        <v>43680</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="E13" s="2"/>
+      <c r="F13" s="141"/>
+      <c r="G13" s="17">
+        <v>175</v>
+      </c>
+      <c r="H13" s="2"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="126">
+        <v>43687</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F14" s="141"/>
+      <c r="G14" s="17">
+        <v>175</v>
+      </c>
+      <c r="H14" s="2"/>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="126">
+        <v>43694</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F15" s="141"/>
+      <c r="G15" s="17">
+        <v>175</v>
+      </c>
+      <c r="H15" s="2"/>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" s="126">
+        <v>43701</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="17" t="s">
+        <v>162</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F16" s="141"/>
+      <c r="G16" s="17">
+        <v>175</v>
+      </c>
+      <c r="H16" s="2"/>
+    </row>
+    <row r="17" spans="1:8" s="26" customFormat="1">
+      <c r="A17" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" s="128">
+        <v>43722</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>168</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F17" s="141"/>
+      <c r="G17" s="17">
+        <v>175</v>
+      </c>
+      <c r="H17" s="25"/>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" s="131">
+        <v>43729</v>
+      </c>
+      <c r="C18" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" s="15"/>
+      <c r="E18" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F18" s="141"/>
+      <c r="G18" s="17">
+        <v>175</v>
+      </c>
+      <c r="H18" s="2"/>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19" s="126">
+        <v>43736</v>
+      </c>
+      <c r="C19" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="D19" s="8"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="141" t="s">
+        <v>39</v>
+      </c>
+      <c r="G19" s="36">
+        <v>175</v>
+      </c>
+      <c r="H19" s="2"/>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="B20" s="126">
+        <v>43743</v>
+      </c>
+      <c r="C20" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="D20" s="107"/>
+      <c r="E20" s="37"/>
+      <c r="F20" s="141"/>
+      <c r="G20" s="36">
+        <v>175</v>
+      </c>
+      <c r="H20" s="2"/>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="B21" s="126">
+        <v>43778</v>
+      </c>
+      <c r="C21" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="D21" s="107"/>
+      <c r="E21" s="37"/>
+      <c r="F21" s="141"/>
+      <c r="G21" s="36">
+        <v>175</v>
+      </c>
+      <c r="H21" s="2"/>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="B22" s="126" t="s">
+        <v>177</v>
+      </c>
+      <c r="C22" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="D22" s="107"/>
+      <c r="E22" s="37"/>
+      <c r="F22" s="141"/>
+      <c r="G22" s="36">
+        <v>175</v>
+      </c>
+      <c r="H22" s="2"/>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B23" s="135"/>
+      <c r="C23" s="133"/>
+      <c r="D23" s="107"/>
+      <c r="E23" s="37"/>
+      <c r="F23" s="141"/>
+      <c r="G23" s="36">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B24" s="126"/>
+      <c r="C24" s="36"/>
+      <c r="D24" s="107"/>
+      <c r="E24" s="37"/>
+      <c r="F24" s="141"/>
+      <c r="G24" s="36">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B25" s="126"/>
+      <c r="C25" s="36"/>
+      <c r="D25" s="107"/>
+      <c r="E25" s="37"/>
+      <c r="F25" s="141"/>
+      <c r="G25" s="36">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" s="131"/>
+      <c r="C26" s="44"/>
+      <c r="D26" s="41"/>
+      <c r="E26" s="40"/>
+      <c r="F26" s="141"/>
+      <c r="G26" s="44">
+        <v>175</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="F3:F10"/>
+    <mergeCell ref="F11:F18"/>
+    <mergeCell ref="F19:F26"/>
+  </mergeCells>
+  <phoneticPr fontId="0" type="noConversion"/>
+  <pageMargins left="0" right="0" top="0.13888888888888901" bottom="0.13888888888888901" header="0" footer="0"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"Arial,Normal"&amp;10&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Arial,Normal"&amp;10Página &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="0" tint="-0.249977111117893"/>
+  </sheetPr>
+  <dimension ref="A1:H31"/>
+  <sheetViews>
+    <sheetView showGridLines="0" topLeftCell="A9" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="14.25"/>
@@ -1834,15 +2357,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="139" t="s">
+      <c r="A1" s="141" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="139"/>
-      <c r="C1" s="139"/>
-      <c r="D1" s="139"/>
-      <c r="E1" s="139"/>
-      <c r="F1" s="139"/>
-      <c r="G1" s="139"/>
+      <c r="B1" s="141"/>
+      <c r="C1" s="141"/>
+      <c r="D1" s="141"/>
+      <c r="E1" s="141"/>
+      <c r="F1" s="141"/>
+      <c r="G1" s="141"/>
     </row>
     <row r="2" spans="1:8" ht="15">
       <c r="A2" s="68" t="s">
@@ -1882,7 +2405,7 @@
         <v>10</v>
       </c>
       <c r="E3" s="132"/>
-      <c r="F3" s="139" t="s">
+      <c r="F3" s="141" t="s">
         <v>11</v>
       </c>
       <c r="G3" s="11">
@@ -1903,7 +2426,7 @@
         <v>13</v>
       </c>
       <c r="E4" s="106"/>
-      <c r="F4" s="139"/>
+      <c r="F4" s="141"/>
       <c r="G4" s="17">
         <v>140</v>
       </c>
@@ -1922,7 +2445,7 @@
         <v>15</v>
       </c>
       <c r="E5" s="106"/>
-      <c r="F5" s="139"/>
+      <c r="F5" s="141"/>
       <c r="G5" s="17">
         <v>140</v>
       </c>
@@ -1941,7 +2464,7 @@
         <v>17</v>
       </c>
       <c r="E6" s="107"/>
-      <c r="F6" s="139"/>
+      <c r="F6" s="141"/>
       <c r="G6" s="17">
         <v>140</v>
       </c>
@@ -1960,7 +2483,7 @@
         <v>19</v>
       </c>
       <c r="E7" s="107"/>
-      <c r="F7" s="139"/>
+      <c r="F7" s="141"/>
       <c r="G7" s="17">
         <v>140</v>
       </c>
@@ -1979,7 +2502,7 @@
         <v>21</v>
       </c>
       <c r="E8" s="107"/>
-      <c r="F8" s="139"/>
+      <c r="F8" s="141"/>
       <c r="G8" s="17">
         <v>140</v>
       </c>
@@ -1998,7 +2521,7 @@
         <v>23</v>
       </c>
       <c r="E9" s="107"/>
-      <c r="F9" s="139"/>
+      <c r="F9" s="141"/>
       <c r="G9" s="17">
         <v>140</v>
       </c>
@@ -2017,7 +2540,7 @@
         <v>25</v>
       </c>
       <c r="E10" s="107"/>
-      <c r="F10" s="139"/>
+      <c r="F10" s="141"/>
       <c r="G10" s="17">
         <v>140</v>
       </c>
@@ -2034,7 +2557,7 @@
       </c>
       <c r="D11" s="17"/>
       <c r="E11" s="107"/>
-      <c r="F11" s="139"/>
+      <c r="F11" s="141"/>
       <c r="G11" s="17">
         <v>140</v>
       </c>
@@ -2054,7 +2577,7 @@
         <v>28</v>
       </c>
       <c r="E12" s="20"/>
-      <c r="F12" s="139"/>
+      <c r="F12" s="141"/>
       <c r="G12" s="17">
         <v>140</v>
       </c>
@@ -2074,7 +2597,7 @@
         <v>30</v>
       </c>
       <c r="E13" s="11"/>
-      <c r="F13" s="139" t="s">
+      <c r="F13" s="141" t="s">
         <v>31</v>
       </c>
       <c r="G13" s="17">
@@ -2096,7 +2619,7 @@
         <v>32</v>
       </c>
       <c r="E14" s="17"/>
-      <c r="F14" s="139"/>
+      <c r="F14" s="141"/>
       <c r="G14" s="17">
         <v>140</v>
       </c>
@@ -2116,7 +2639,7 @@
         <v>32</v>
       </c>
       <c r="E15" s="17"/>
-      <c r="F15" s="139"/>
+      <c r="F15" s="141"/>
       <c r="G15" s="17">
         <v>140</v>
       </c>
@@ -2136,7 +2659,7 @@
         <v>163</v>
       </c>
       <c r="E16" s="17"/>
-      <c r="F16" s="139"/>
+      <c r="F16" s="141"/>
       <c r="G16" s="17">
         <v>140</v>
       </c>
@@ -2158,7 +2681,7 @@
       <c r="E17" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="F17" s="139"/>
+      <c r="F17" s="141"/>
       <c r="G17" s="17">
         <v>140</v>
       </c>
@@ -2180,7 +2703,7 @@
       <c r="E18" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="F18" s="139"/>
+      <c r="F18" s="141"/>
       <c r="G18" s="17">
         <v>140</v>
       </c>
@@ -2202,7 +2725,7 @@
       <c r="E19" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="F19" s="139"/>
+      <c r="F19" s="141"/>
       <c r="G19" s="15">
         <v>140</v>
       </c>
@@ -2224,7 +2747,7 @@
       <c r="E20" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="F20" s="139"/>
+      <c r="F20" s="141"/>
       <c r="G20" s="130">
         <v>140</v>
       </c>
@@ -2237,14 +2760,14 @@
       <c r="B21" s="126">
         <v>43731</v>
       </c>
-      <c r="C21" s="23" t="s">
-        <v>29</v>
+      <c r="C21" s="22" t="s">
+        <v>9</v>
       </c>
       <c r="D21" s="108"/>
       <c r="E21" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="F21" s="139" t="s">
+      <c r="F21" s="141" t="s">
         <v>39</v>
       </c>
       <c r="G21" s="17">
@@ -2259,8 +2782,8 @@
       <c r="B22" s="126">
         <v>43733</v>
       </c>
-      <c r="C22" s="36" t="s">
-        <v>29</v>
+      <c r="C22" s="105" t="s">
+        <v>9</v>
       </c>
       <c r="D22" s="12" t="s">
         <v>169</v>
@@ -2268,7 +2791,7 @@
       <c r="E22" s="37" t="s">
         <v>174</v>
       </c>
-      <c r="F22" s="139"/>
+      <c r="F22" s="141"/>
       <c r="G22" s="17">
         <v>140</v>
       </c>
@@ -2281,8 +2804,8 @@
       <c r="B23" s="126">
         <v>43738</v>
       </c>
-      <c r="C23" s="23" t="s">
-        <v>29</v>
+      <c r="C23" s="105" t="s">
+        <v>9</v>
       </c>
       <c r="D23" s="37" t="s">
         <v>171</v>
@@ -2290,7 +2813,7 @@
       <c r="E23" s="37" t="s">
         <v>174</v>
       </c>
-      <c r="F23" s="139"/>
+      <c r="F23" s="141"/>
       <c r="G23" s="17">
         <v>140</v>
       </c>
@@ -2303,8 +2826,8 @@
       <c r="B24" s="126">
         <v>43740</v>
       </c>
-      <c r="C24" s="23" t="s">
-        <v>29</v>
+      <c r="C24" s="105" t="s">
+        <v>9</v>
       </c>
       <c r="D24" s="37" t="s">
         <v>172</v>
@@ -2312,7 +2835,7 @@
       <c r="E24" s="37" t="s">
         <v>174</v>
       </c>
-      <c r="F24" s="139"/>
+      <c r="F24" s="141"/>
       <c r="G24" s="17">
         <v>140</v>
       </c>
@@ -2325,8 +2848,8 @@
       <c r="B25" s="126">
         <v>43745</v>
       </c>
-      <c r="C25" s="23" t="s">
-        <v>29</v>
+      <c r="C25" s="105" t="s">
+        <v>9</v>
       </c>
       <c r="D25" s="37" t="s">
         <v>173</v>
@@ -2334,7 +2857,7 @@
       <c r="E25" s="37" t="s">
         <v>174</v>
       </c>
-      <c r="F25" s="139"/>
+      <c r="F25" s="141"/>
       <c r="G25" s="17">
         <v>140</v>
       </c>
@@ -2346,8 +2869,8 @@
       <c r="B26" s="126">
         <v>43747</v>
       </c>
-      <c r="C26" s="23" t="s">
-        <v>29</v>
+      <c r="C26" s="105" t="s">
+        <v>9</v>
       </c>
       <c r="D26" s="37" t="s">
         <v>175</v>
@@ -2355,7 +2878,7 @@
       <c r="E26" s="37" t="s">
         <v>174</v>
       </c>
-      <c r="F26" s="139"/>
+      <c r="F26" s="141"/>
       <c r="G26" s="17">
         <v>140</v>
       </c>
@@ -2367,8 +2890,8 @@
       <c r="B27" s="126">
         <v>43748</v>
       </c>
-      <c r="C27" s="36" t="s">
-        <v>29</v>
+      <c r="C27" s="105" t="s">
+        <v>9</v>
       </c>
       <c r="D27" s="37" t="s">
         <v>176</v>
@@ -2376,7 +2899,7 @@
       <c r="E27" s="37" t="s">
         <v>174</v>
       </c>
-      <c r="F27" s="139"/>
+      <c r="F27" s="141"/>
       <c r="G27" s="17">
         <v>140</v>
       </c>
@@ -2388,14 +2911,14 @@
       <c r="B28" s="126">
         <v>43752</v>
       </c>
-      <c r="C28" s="23" t="s">
-        <v>29</v>
+      <c r="C28" s="140" t="s">
+        <v>9</v>
       </c>
       <c r="D28" s="138"/>
       <c r="E28" s="37" t="s">
         <v>174</v>
       </c>
-      <c r="F28" s="139"/>
+      <c r="F28" s="141"/>
       <c r="G28" s="17">
         <v>140</v>
       </c>
@@ -2408,13 +2931,13 @@
         <v>43754</v>
       </c>
       <c r="C29" s="23" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="D29" s="17"/>
       <c r="E29" s="136" t="s">
         <v>174</v>
       </c>
-      <c r="F29" s="139"/>
+      <c r="F29" s="141"/>
       <c r="G29" s="17">
         <v>140</v>
       </c>
@@ -2427,17 +2950,20 @@
         <v>43755</v>
       </c>
       <c r="C30" s="123" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="D30" s="28"/>
       <c r="E30" s="137" t="s">
         <v>174</v>
       </c>
-      <c r="F30" s="139"/>
+      <c r="F30" s="141"/>
       <c r="G30" s="28">
         <v>140</v>
       </c>
       <c r="H30" s="29"/>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="C31" s="139"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -2445,517 +2971,6 @@
     <mergeCell ref="F3:F12"/>
     <mergeCell ref="F13:F20"/>
     <mergeCell ref="F21:F30"/>
-  </mergeCells>
-  <phoneticPr fontId="0" type="noConversion"/>
-  <pageMargins left="0" right="0" top="0.13888888888888901" bottom="0.13888888888888901" header="0" footer="0"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-  <headerFooter>
-    <oddHeader>&amp;C&amp;"Arial,Normal"&amp;10&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Arial,Normal"&amp;10Página &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H26"/>
-  <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A4" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24:B26"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="14.25"/>
-  <cols>
-    <col min="1" max="1" width="8.375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="10.75" customWidth="1"/>
-    <col min="3" max="3" width="10.5" customWidth="1"/>
-    <col min="4" max="4" width="84.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.75" customWidth="1"/>
-    <col min="6" max="6" width="11.125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.75" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" s="139" t="s">
-        <v>170</v>
-      </c>
-      <c r="B1" s="139"/>
-      <c r="C1" s="139"/>
-      <c r="D1" s="139"/>
-      <c r="E1" s="139"/>
-      <c r="F1" s="139"/>
-      <c r="G1" s="139"/>
-    </row>
-    <row r="2" spans="1:8" ht="15">
-      <c r="A2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="30" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="30" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="127">
-        <v>43620</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="9"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="139" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" s="33">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="15">
-      <c r="A4" s="34" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="129">
-        <v>43596</v>
-      </c>
-      <c r="C4" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="15"/>
-      <c r="E4" s="35"/>
-      <c r="F4" s="139"/>
-      <c r="G4" s="36">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="15">
-      <c r="A5" s="34" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="129">
-        <v>43603</v>
-      </c>
-      <c r="C5" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="15"/>
-      <c r="E5" s="35"/>
-      <c r="F5" s="139"/>
-      <c r="G5" s="36">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="34" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" s="129">
-        <v>43617</v>
-      </c>
-      <c r="C6" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="17"/>
-      <c r="E6" s="37"/>
-      <c r="F6" s="139"/>
-      <c r="G6" s="36">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" s="129">
-        <v>43624</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="17"/>
-      <c r="E7" s="37"/>
-      <c r="F7" s="139"/>
-      <c r="G7" s="36">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" s="129">
-        <v>43631</v>
-      </c>
-      <c r="C8" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="17"/>
-      <c r="E8" s="37"/>
-      <c r="F8" s="139"/>
-      <c r="G8" s="36">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" s="129">
-        <v>43645</v>
-      </c>
-      <c r="C9" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="38" t="s">
-        <v>40</v>
-      </c>
-      <c r="E9" s="37"/>
-      <c r="F9" s="139"/>
-      <c r="G9" s="36">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="B10" s="129">
-        <v>43659</v>
-      </c>
-      <c r="C10" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" s="39"/>
-      <c r="E10" s="40"/>
-      <c r="F10" s="139"/>
-      <c r="G10" s="36">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" s="127">
-        <v>43666</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="E11" s="2"/>
-      <c r="F11" s="139" t="s">
-        <v>31</v>
-      </c>
-      <c r="G11" s="17">
-        <v>175</v>
-      </c>
-      <c r="H11" s="2"/>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="34" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" s="126">
-        <v>43673</v>
-      </c>
-      <c r="C12" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="E12" s="2"/>
-      <c r="F12" s="139"/>
-      <c r="G12" s="17">
-        <v>175</v>
-      </c>
-      <c r="H12" s="2"/>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="34" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13" s="126">
-        <v>43680</v>
-      </c>
-      <c r="C13" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="E13" s="2"/>
-      <c r="F13" s="139"/>
-      <c r="G13" s="17">
-        <v>175</v>
-      </c>
-      <c r="H13" s="2"/>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" s="34" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14" s="126">
-        <v>43687</v>
-      </c>
-      <c r="C14" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="F14" s="139"/>
-      <c r="G14" s="17">
-        <v>175</v>
-      </c>
-      <c r="H14" s="2"/>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="B15" s="126">
-        <v>43694</v>
-      </c>
-      <c r="C15" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="D15" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="F15" s="139"/>
-      <c r="G15" s="17">
-        <v>175</v>
-      </c>
-      <c r="H15" s="2"/>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="B16" s="126">
-        <v>43701</v>
-      </c>
-      <c r="C16" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="D16" s="17" t="s">
-        <v>162</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="F16" s="139"/>
-      <c r="G16" s="17">
-        <v>175</v>
-      </c>
-      <c r="H16" s="2"/>
-    </row>
-    <row r="17" spans="1:8" s="26" customFormat="1">
-      <c r="A17" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B17" s="128">
-        <v>43722</v>
-      </c>
-      <c r="C17" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="D17" s="17" t="s">
-        <v>168</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="F17" s="139"/>
-      <c r="G17" s="17">
-        <v>175</v>
-      </c>
-      <c r="H17" s="25"/>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="A18" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="B18" s="131">
-        <v>43729</v>
-      </c>
-      <c r="C18" s="36" t="s">
-        <v>9</v>
-      </c>
-      <c r="D18" s="15"/>
-      <c r="E18" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="F18" s="139"/>
-      <c r="G18" s="17">
-        <v>175</v>
-      </c>
-      <c r="H18" s="2"/>
-    </row>
-    <row r="19" spans="1:8">
-      <c r="A19" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="B19" s="126">
-        <v>43736</v>
-      </c>
-      <c r="C19" s="33" t="s">
-        <v>29</v>
-      </c>
-      <c r="D19" s="8"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="139" t="s">
-        <v>39</v>
-      </c>
-      <c r="G19" s="36">
-        <v>175</v>
-      </c>
-      <c r="H19" s="2"/>
-    </row>
-    <row r="20" spans="1:8">
-      <c r="A20" s="34" t="s">
-        <v>12</v>
-      </c>
-      <c r="B20" s="126">
-        <v>43743</v>
-      </c>
-      <c r="C20" s="36" t="s">
-        <v>29</v>
-      </c>
-      <c r="D20" s="107"/>
-      <c r="E20" s="37"/>
-      <c r="F20" s="139"/>
-      <c r="G20" s="36">
-        <v>175</v>
-      </c>
-      <c r="H20" s="2"/>
-    </row>
-    <row r="21" spans="1:8">
-      <c r="A21" s="34" t="s">
-        <v>14</v>
-      </c>
-      <c r="B21" s="135">
-        <v>43750</v>
-      </c>
-      <c r="C21" s="36"/>
-      <c r="D21" s="107"/>
-      <c r="E21" s="37"/>
-      <c r="F21" s="139"/>
-      <c r="G21" s="36">
-        <v>175</v>
-      </c>
-      <c r="H21" s="2"/>
-    </row>
-    <row r="22" spans="1:8">
-      <c r="A22" s="34" t="s">
-        <v>16</v>
-      </c>
-      <c r="B22" s="135">
-        <v>43757</v>
-      </c>
-      <c r="C22" s="36"/>
-      <c r="D22" s="107"/>
-      <c r="E22" s="37"/>
-      <c r="F22" s="139"/>
-      <c r="G22" s="36">
-        <v>175</v>
-      </c>
-      <c r="H22" s="2"/>
-    </row>
-    <row r="23" spans="1:8">
-      <c r="A23" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="B23" s="135">
-        <v>43764</v>
-      </c>
-      <c r="C23" s="133"/>
-      <c r="D23" s="107"/>
-      <c r="E23" s="37"/>
-      <c r="F23" s="139"/>
-      <c r="G23" s="36">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
-      <c r="A24" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="B24" s="126">
-        <v>43771</v>
-      </c>
-      <c r="C24" s="36"/>
-      <c r="D24" s="107"/>
-      <c r="E24" s="37"/>
-      <c r="F24" s="139"/>
-      <c r="G24" s="36">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
-      <c r="A25" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B25" s="126">
-        <v>43778</v>
-      </c>
-      <c r="C25" s="36"/>
-      <c r="D25" s="107"/>
-      <c r="E25" s="37"/>
-      <c r="F25" s="139"/>
-      <c r="G25" s="36">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
-      <c r="A26" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" s="131">
-        <v>43785</v>
-      </c>
-      <c r="C26" s="44"/>
-      <c r="D26" s="41"/>
-      <c r="E26" s="40"/>
-      <c r="F26" s="139"/>
-      <c r="G26" s="44">
-        <v>175</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="F3:F10"/>
-    <mergeCell ref="F11:F18"/>
-    <mergeCell ref="F19:F26"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0" right="0" top="0.13888888888888901" bottom="0.13888888888888901" header="0" footer="0"/>
@@ -2991,16 +3006,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15">
-      <c r="A1" s="140" t="s">
+      <c r="A1" s="142" t="s">
         <v>75</v>
       </c>
-      <c r="B1" s="140"/>
-      <c r="C1" s="140"/>
-      <c r="D1" s="140"/>
-      <c r="E1" s="140"/>
-      <c r="F1" s="140"/>
-      <c r="G1" s="140"/>
-      <c r="H1" s="140"/>
+      <c r="B1" s="142"/>
+      <c r="C1" s="142"/>
+      <c r="D1" s="142"/>
+      <c r="E1" s="142"/>
+      <c r="F1" s="142"/>
+      <c r="G1" s="142"/>
+      <c r="H1" s="142"/>
     </row>
     <row r="2" spans="1:9" ht="15">
       <c r="A2" s="3" t="s">
@@ -3042,7 +3057,7 @@
       </c>
       <c r="E3" s="10"/>
       <c r="F3" s="10"/>
-      <c r="G3" s="141" t="s">
+      <c r="G3" s="143" t="s">
         <v>11</v>
       </c>
       <c r="H3" s="11">
@@ -3062,7 +3077,7 @@
       <c r="D4" s="45"/>
       <c r="E4" s="16"/>
       <c r="F4" s="2"/>
-      <c r="G4" s="141"/>
+      <c r="G4" s="143"/>
       <c r="H4" s="17">
         <v>140</v>
       </c>
@@ -3080,7 +3095,7 @@
       <c r="D5" s="45"/>
       <c r="E5" s="16"/>
       <c r="F5" s="2"/>
-      <c r="G5" s="141"/>
+      <c r="G5" s="143"/>
       <c r="H5" s="17">
         <v>140</v>
       </c>
@@ -3098,7 +3113,7 @@
       <c r="D6" s="45"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
-      <c r="G6" s="141"/>
+      <c r="G6" s="143"/>
       <c r="H6" s="17">
         <v>140</v>
       </c>
@@ -3118,7 +3133,7 @@
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
-      <c r="G7" s="141"/>
+      <c r="G7" s="143"/>
       <c r="H7" s="17">
         <v>140</v>
       </c>
@@ -3138,7 +3153,7 @@
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
-      <c r="G8" s="141"/>
+      <c r="G8" s="143"/>
       <c r="H8" s="17">
         <v>140</v>
       </c>
@@ -3158,7 +3173,7 @@
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
-      <c r="G9" s="141"/>
+      <c r="G9" s="143"/>
       <c r="H9" s="17">
         <v>140</v>
       </c>
@@ -3178,7 +3193,7 @@
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
-      <c r="G10" s="141"/>
+      <c r="G10" s="143"/>
       <c r="H10" s="17">
         <v>140</v>
       </c>
@@ -3196,7 +3211,7 @@
       <c r="D11" s="17"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
-      <c r="G11" s="141"/>
+      <c r="G11" s="143"/>
       <c r="H11" s="17">
         <v>140</v>
       </c>
@@ -3217,7 +3232,7 @@
       </c>
       <c r="E12" s="20"/>
       <c r="F12" s="41"/>
-      <c r="G12" s="141"/>
+      <c r="G12" s="143"/>
       <c r="H12" s="17">
         <v>140</v>
       </c>
@@ -3240,7 +3255,7 @@
       </c>
       <c r="E13" s="10"/>
       <c r="F13" s="10"/>
-      <c r="G13" s="141" t="s">
+      <c r="G13" s="143" t="s">
         <v>31</v>
       </c>
       <c r="H13" s="17">
@@ -3263,7 +3278,7 @@
       </c>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
-      <c r="G14" s="141"/>
+      <c r="G14" s="143"/>
       <c r="H14" s="17">
         <v>140</v>
       </c>
@@ -3284,7 +3299,7 @@
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
-      <c r="G15" s="141"/>
+      <c r="G15" s="143"/>
       <c r="H15" s="17">
         <v>140</v>
       </c>
@@ -3305,7 +3320,7 @@
       </c>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
-      <c r="G16" s="141"/>
+      <c r="G16" s="143"/>
       <c r="H16" s="17">
         <v>140</v>
       </c>
@@ -3328,7 +3343,7 @@
         <v>33</v>
       </c>
       <c r="F17" s="2"/>
-      <c r="G17" s="141"/>
+      <c r="G17" s="143"/>
       <c r="H17" s="17">
         <v>140</v>
       </c>
@@ -3351,7 +3366,7 @@
         <v>35</v>
       </c>
       <c r="F18" s="2"/>
-      <c r="G18" s="141"/>
+      <c r="G18" s="143"/>
       <c r="H18" s="17">
         <v>140</v>
       </c>
@@ -3374,7 +3389,7 @@
         <v>37</v>
       </c>
       <c r="F19" s="42"/>
-      <c r="G19" s="141"/>
+      <c r="G19" s="143"/>
       <c r="H19" s="48">
         <v>140</v>
       </c>
@@ -3397,7 +3412,7 @@
         <v>37</v>
       </c>
       <c r="F20" s="2"/>
-      <c r="G20" s="141"/>
+      <c r="G20" s="143"/>
       <c r="H20" s="17">
         <v>140</v>
       </c>
@@ -3420,7 +3435,7 @@
         <v>38</v>
       </c>
       <c r="F21" s="2"/>
-      <c r="G21" s="141"/>
+      <c r="G21" s="143"/>
       <c r="H21" s="17">
         <v>140</v>
       </c>
@@ -3443,7 +3458,7 @@
         <v>80</v>
       </c>
       <c r="F22" s="107"/>
-      <c r="G22" s="142"/>
+      <c r="G22" s="144"/>
       <c r="H22" s="17">
         <v>140</v>
       </c>
@@ -3468,7 +3483,7 @@
         <v>54</v>
       </c>
       <c r="F23" s="121"/>
-      <c r="G23" s="142" t="s">
+      <c r="G23" s="144" t="s">
         <v>39</v>
       </c>
       <c r="H23" s="17">
@@ -3489,7 +3504,7 @@
       </c>
       <c r="E24" s="107"/>
       <c r="F24" s="107"/>
-      <c r="G24" s="143"/>
+      <c r="G24" s="145"/>
       <c r="H24" s="17">
         <v>140</v>
       </c>
@@ -3510,7 +3525,7 @@
         <v>59</v>
       </c>
       <c r="F25" s="107"/>
-      <c r="G25" s="143"/>
+      <c r="G25" s="145"/>
       <c r="H25" s="17">
         <v>140</v>
       </c>
@@ -3531,7 +3546,7 @@
         <v>62</v>
       </c>
       <c r="F26" s="107"/>
-      <c r="G26" s="143"/>
+      <c r="G26" s="145"/>
       <c r="H26" s="17">
         <v>140</v>
       </c>
@@ -3552,7 +3567,7 @@
         <v>65</v>
       </c>
       <c r="F27" s="107"/>
-      <c r="G27" s="143"/>
+      <c r="G27" s="145"/>
       <c r="H27" s="17">
         <v>140</v>
       </c>
@@ -3572,7 +3587,7 @@
         <v>68</v>
       </c>
       <c r="F28" s="107"/>
-      <c r="G28" s="143"/>
+      <c r="G28" s="145"/>
       <c r="H28" s="17">
         <v>140</v>
       </c>
@@ -3592,7 +3607,7 @@
         <v>71</v>
       </c>
       <c r="F29" s="107"/>
-      <c r="G29" s="143"/>
+      <c r="G29" s="145"/>
       <c r="H29" s="17">
         <v>140</v>
       </c>
@@ -3612,7 +3627,7 @@
         <v>71</v>
       </c>
       <c r="F30" s="107"/>
-      <c r="G30" s="143"/>
+      <c r="G30" s="145"/>
       <c r="H30" s="17">
         <v>140</v>
       </c>
@@ -3632,7 +3647,7 @@
         <v>90</v>
       </c>
       <c r="F31" s="107"/>
-      <c r="G31" s="143"/>
+      <c r="G31" s="145"/>
       <c r="H31" s="17">
         <v>140</v>
       </c>
@@ -3650,7 +3665,7 @@
         <v>92</v>
       </c>
       <c r="F32" s="41"/>
-      <c r="G32" s="144"/>
+      <c r="G32" s="146"/>
       <c r="H32" s="28">
         <v>140</v>
       </c>
@@ -3698,16 +3713,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12.6" customHeight="1">
-      <c r="A1" s="140" t="s">
+      <c r="A1" s="142" t="s">
         <v>93</v>
       </c>
-      <c r="B1" s="140"/>
-      <c r="C1" s="140"/>
-      <c r="D1" s="140"/>
-      <c r="E1" s="140"/>
-      <c r="F1" s="140"/>
-      <c r="G1" s="140"/>
-      <c r="H1" s="140"/>
+      <c r="B1" s="142"/>
+      <c r="C1" s="142"/>
+      <c r="D1" s="142"/>
+      <c r="E1" s="142"/>
+      <c r="F1" s="142"/>
+      <c r="G1" s="142"/>
+      <c r="H1" s="142"/>
     </row>
     <row r="2" spans="1:10" ht="15">
       <c r="A2" s="3" t="s">
@@ -3751,7 +3766,7 @@
       <c r="F3" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="G3" s="141" t="s">
+      <c r="G3" s="143" t="s">
         <v>11</v>
       </c>
       <c r="H3" s="11">
@@ -3774,7 +3789,7 @@
       <c r="F4" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="G4" s="141"/>
+      <c r="G4" s="143"/>
       <c r="H4" s="17">
         <v>140</v>
       </c>
@@ -3795,7 +3810,7 @@
       <c r="F5" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="G5" s="141"/>
+      <c r="G5" s="143"/>
       <c r="H5" s="17">
         <v>140</v>
       </c>
@@ -3817,7 +3832,7 @@
       <c r="F6" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="G6" s="141"/>
+      <c r="G6" s="143"/>
       <c r="H6" s="17">
         <v>140</v>
       </c>
@@ -3839,7 +3854,7 @@
       <c r="F7" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="G7" s="141"/>
+      <c r="G7" s="143"/>
       <c r="H7" s="17">
         <v>140</v>
       </c>
@@ -3861,7 +3876,7 @@
       <c r="F8" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="G8" s="141"/>
+      <c r="G8" s="143"/>
       <c r="H8" s="17">
         <v>140</v>
       </c>
@@ -3883,7 +3898,7 @@
       <c r="F9" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="G9" s="141"/>
+      <c r="G9" s="143"/>
       <c r="H9" s="17">
         <v>140</v>
       </c>
@@ -3904,7 +3919,7 @@
       <c r="F10" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="G10" s="141"/>
+      <c r="G10" s="143"/>
       <c r="H10" s="17">
         <v>140</v>
       </c>
@@ -3925,7 +3940,7 @@
       <c r="F11" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="G11" s="141"/>
+      <c r="G11" s="143"/>
       <c r="H11" s="17">
         <v>140</v>
       </c>
@@ -3946,7 +3961,7 @@
       <c r="F12" s="41" t="s">
         <v>106</v>
       </c>
-      <c r="G12" s="141"/>
+      <c r="G12" s="143"/>
       <c r="H12" s="17">
         <v>140</v>
       </c>
@@ -3968,7 +3983,7 @@
       <c r="F13" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="G13" s="141" t="s">
+      <c r="G13" s="143" t="s">
         <v>31</v>
       </c>
       <c r="H13" s="17">
@@ -3993,7 +4008,7 @@
       <c r="F14" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="G14" s="141"/>
+      <c r="G14" s="143"/>
       <c r="H14" s="17">
         <v>140</v>
       </c>
@@ -4016,7 +4031,7 @@
       <c r="F15" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="G15" s="141"/>
+      <c r="G15" s="143"/>
       <c r="H15" s="17">
         <v>140</v>
       </c>
@@ -4038,7 +4053,7 @@
       <c r="F16" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="G16" s="141"/>
+      <c r="G16" s="143"/>
       <c r="H16" s="17">
         <v>140</v>
       </c>
@@ -4063,7 +4078,7 @@
       <c r="F17" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="G17" s="141"/>
+      <c r="G17" s="143"/>
       <c r="H17" s="17">
         <v>140</v>
       </c>
@@ -4088,7 +4103,7 @@
       <c r="F18" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="G18" s="141"/>
+      <c r="G18" s="143"/>
       <c r="H18" s="17">
         <v>140</v>
       </c>
@@ -4113,7 +4128,7 @@
       <c r="F19" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="G19" s="141"/>
+      <c r="G19" s="143"/>
       <c r="H19" s="17">
         <v>140</v>
       </c>
@@ -4138,7 +4153,7 @@
       <c r="F20" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="G20" s="141"/>
+      <c r="G20" s="143"/>
       <c r="H20" s="17">
         <v>140</v>
       </c>
@@ -4163,7 +4178,7 @@
       <c r="F21" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="G21" s="141"/>
+      <c r="G21" s="143"/>
       <c r="H21" s="17">
         <v>140</v>
       </c>
@@ -4188,7 +4203,7 @@
       <c r="F22" s="41" t="s">
         <v>106</v>
       </c>
-      <c r="G22" s="141"/>
+      <c r="G22" s="143"/>
       <c r="H22" s="17">
         <v>140</v>
       </c>
@@ -4216,7 +4231,7 @@
       <c r="F23" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="G23" s="141" t="s">
+      <c r="G23" s="143" t="s">
         <v>39</v>
       </c>
       <c r="H23" s="17">
@@ -4243,7 +4258,7 @@
       <c r="F24" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="G24" s="141"/>
+      <c r="G24" s="143"/>
       <c r="H24" s="17">
         <v>140</v>
       </c>
@@ -4268,7 +4283,7 @@
       <c r="F25" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="G25" s="141"/>
+      <c r="G25" s="143"/>
       <c r="H25" s="17">
         <v>140</v>
       </c>
@@ -4293,7 +4308,7 @@
       <c r="F26" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="G26" s="141"/>
+      <c r="G26" s="143"/>
       <c r="H26" s="17">
         <v>140</v>
       </c>
@@ -4318,7 +4333,7 @@
       <c r="F27" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="G27" s="141"/>
+      <c r="G27" s="143"/>
       <c r="H27" s="17">
         <v>140</v>
       </c>
@@ -4342,7 +4357,7 @@
       <c r="F28" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="G28" s="141"/>
+      <c r="G28" s="143"/>
       <c r="H28" s="17">
         <v>140</v>
       </c>
@@ -4366,7 +4381,7 @@
       <c r="F29" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="G29" s="141"/>
+      <c r="G29" s="143"/>
       <c r="H29" s="17">
         <v>140</v>
       </c>
@@ -4390,7 +4405,7 @@
       <c r="F30" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="G30" s="141"/>
+      <c r="G30" s="143"/>
       <c r="H30" s="17">
         <v>140</v>
       </c>
@@ -4414,7 +4429,7 @@
       <c r="F31" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="G31" s="141"/>
+      <c r="G31" s="143"/>
       <c r="H31" s="17">
         <v>140</v>
       </c>
@@ -4434,7 +4449,7 @@
       <c r="F32" s="41" t="s">
         <v>106</v>
       </c>
-      <c r="G32" s="141"/>
+      <c r="G32" s="143"/>
       <c r="H32" s="28">
         <v>140</v>
       </c>
@@ -4489,16 +4504,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="145" t="s">
+      <c r="A1" s="147" t="s">
         <v>112</v>
       </c>
-      <c r="B1" s="145"/>
-      <c r="C1" s="145"/>
-      <c r="D1" s="145"/>
-      <c r="E1" s="145"/>
-      <c r="F1" s="145"/>
-      <c r="G1" s="145"/>
-      <c r="H1" s="145"/>
+      <c r="B1" s="147"/>
+      <c r="C1" s="147"/>
+      <c r="D1" s="147"/>
+      <c r="E1" s="147"/>
+      <c r="F1" s="147"/>
+      <c r="G1" s="147"/>
+      <c r="H1" s="147"/>
     </row>
     <row r="2" spans="1:10" ht="15">
       <c r="A2" s="68" t="s">
@@ -4537,7 +4552,7 @@
       <c r="F3" s="33" t="s">
         <v>96</v>
       </c>
-      <c r="G3" s="139" t="s">
+      <c r="G3" s="141" t="s">
         <v>11</v>
       </c>
       <c r="H3" s="33">
@@ -4560,7 +4575,7 @@
       <c r="F4" s="36" t="s">
         <v>97</v>
       </c>
-      <c r="G4" s="139"/>
+      <c r="G4" s="141"/>
       <c r="H4" s="36">
         <v>120</v>
       </c>
@@ -4581,7 +4596,7 @@
       <c r="F5" s="36" t="s">
         <v>98</v>
       </c>
-      <c r="G5" s="139"/>
+      <c r="G5" s="141"/>
       <c r="H5" s="36">
         <v>120</v>
       </c>
@@ -4602,7 +4617,7 @@
       <c r="F6" s="36" t="s">
         <v>99</v>
       </c>
-      <c r="G6" s="139"/>
+      <c r="G6" s="141"/>
       <c r="H6" s="36">
         <v>120</v>
       </c>
@@ -4623,7 +4638,7 @@
       <c r="F7" s="36" t="s">
         <v>100</v>
       </c>
-      <c r="G7" s="139"/>
+      <c r="G7" s="141"/>
       <c r="H7" s="36">
         <v>120</v>
       </c>
@@ -4644,7 +4659,7 @@
       <c r="F8" s="36" t="s">
         <v>101</v>
       </c>
-      <c r="G8" s="139"/>
+      <c r="G8" s="141"/>
       <c r="H8" s="36">
         <v>120</v>
       </c>
@@ -4665,7 +4680,7 @@
       <c r="F9" s="36" t="s">
         <v>102</v>
       </c>
-      <c r="G9" s="139"/>
+      <c r="G9" s="141"/>
       <c r="H9" s="36">
         <v>120</v>
       </c>
@@ -4685,7 +4700,7 @@
       <c r="F10" s="36" t="s">
         <v>104</v>
       </c>
-      <c r="G10" s="139"/>
+      <c r="G10" s="141"/>
       <c r="H10" s="36">
         <v>120</v>
       </c>
@@ -4705,7 +4720,7 @@
       <c r="F11" s="36" t="s">
         <v>105</v>
       </c>
-      <c r="G11" s="139"/>
+      <c r="G11" s="141"/>
       <c r="H11" s="36">
         <v>120</v>
       </c>
@@ -4726,7 +4741,7 @@
       <c r="F12" s="44" t="s">
         <v>106</v>
       </c>
-      <c r="G12" s="139"/>
+      <c r="G12" s="141"/>
       <c r="H12" s="36">
         <v>120</v>
       </c>
@@ -4754,7 +4769,7 @@
       <c r="F13" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="G13" s="139" t="s">
+      <c r="G13" s="141" t="s">
         <v>31</v>
       </c>
       <c r="H13" s="36">
@@ -4778,7 +4793,7 @@
       <c r="F14" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="G14" s="139"/>
+      <c r="G14" s="141"/>
       <c r="H14" s="36">
         <v>120</v>
       </c>
@@ -4800,7 +4815,7 @@
       <c r="F15" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="G15" s="139"/>
+      <c r="G15" s="141"/>
       <c r="H15" s="36">
         <v>120</v>
       </c>
@@ -4822,7 +4837,7 @@
       <c r="F16" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="G16" s="139"/>
+      <c r="G16" s="141"/>
       <c r="H16" s="36">
         <v>120</v>
       </c>
@@ -4847,7 +4862,7 @@
       <c r="F17" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="G17" s="139"/>
+      <c r="G17" s="141"/>
       <c r="H17" s="36">
         <v>120</v>
       </c>
@@ -4872,7 +4887,7 @@
       <c r="F18" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="G18" s="139"/>
+      <c r="G18" s="141"/>
       <c r="H18" s="36">
         <v>120</v>
       </c>
@@ -4897,7 +4912,7 @@
       <c r="F19" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="G19" s="139"/>
+      <c r="G19" s="141"/>
       <c r="H19" s="36">
         <v>120</v>
       </c>
@@ -4922,7 +4937,7 @@
       <c r="F20" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="G20" s="139"/>
+      <c r="G20" s="141"/>
       <c r="H20" s="36">
         <v>120</v>
       </c>
@@ -4947,7 +4962,7 @@
       <c r="F21" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="G21" s="139"/>
+      <c r="G21" s="141"/>
       <c r="H21" s="36">
         <v>120</v>
       </c>
@@ -4972,7 +4987,7 @@
       <c r="F22" s="41" t="s">
         <v>106</v>
       </c>
-      <c r="G22" s="139"/>
+      <c r="G22" s="141"/>
       <c r="H22" s="36">
         <v>120</v>
       </c>
@@ -5003,7 +5018,7 @@
       <c r="F23" s="33" t="s">
         <v>96</v>
       </c>
-      <c r="G23" s="139" t="s">
+      <c r="G23" s="141" t="s">
         <v>39</v>
       </c>
       <c r="H23" s="36">
@@ -5030,7 +5045,7 @@
       <c r="F24" s="36" t="s">
         <v>97</v>
       </c>
-      <c r="G24" s="139"/>
+      <c r="G24" s="141"/>
       <c r="H24" s="36">
         <v>120</v>
       </c>
@@ -5055,7 +5070,7 @@
       <c r="F25" s="36" t="s">
         <v>98</v>
       </c>
-      <c r="G25" s="139"/>
+      <c r="G25" s="141"/>
       <c r="H25" s="36">
         <v>120</v>
       </c>
@@ -5080,7 +5095,7 @@
       <c r="F26" s="36" t="s">
         <v>99</v>
       </c>
-      <c r="G26" s="139"/>
+      <c r="G26" s="141"/>
       <c r="H26" s="36">
         <v>120</v>
       </c>
@@ -5105,7 +5120,7 @@
       <c r="F27" s="36" t="s">
         <v>100</v>
       </c>
-      <c r="G27" s="139"/>
+      <c r="G27" s="141"/>
       <c r="H27" s="36">
         <v>120</v>
       </c>
@@ -5129,7 +5144,7 @@
       <c r="F28" s="36" t="s">
         <v>101</v>
       </c>
-      <c r="G28" s="139"/>
+      <c r="G28" s="141"/>
       <c r="H28" s="36">
         <v>120</v>
       </c>
@@ -5153,7 +5168,7 @@
       <c r="F29" s="36" t="s">
         <v>102</v>
       </c>
-      <c r="G29" s="139"/>
+      <c r="G29" s="141"/>
       <c r="H29" s="36">
         <v>120</v>
       </c>
@@ -5177,7 +5192,7 @@
       <c r="F30" s="36" t="s">
         <v>104</v>
       </c>
-      <c r="G30" s="139"/>
+      <c r="G30" s="141"/>
       <c r="H30" s="36">
         <v>120</v>
       </c>
@@ -5201,7 +5216,7 @@
       <c r="F31" s="36" t="s">
         <v>105</v>
       </c>
-      <c r="G31" s="139"/>
+      <c r="G31" s="141"/>
       <c r="H31" s="36">
         <v>120</v>
       </c>
@@ -5223,7 +5238,7 @@
       <c r="F32" s="77" t="s">
         <v>106</v>
       </c>
-      <c r="G32" s="139"/>
+      <c r="G32" s="141"/>
       <c r="H32" s="77">
         <v>120</v>
       </c>
@@ -5294,15 +5309,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="145" t="s">
+      <c r="A1" s="147" t="s">
         <v>124</v>
       </c>
-      <c r="B1" s="145"/>
-      <c r="C1" s="145"/>
-      <c r="D1" s="145"/>
-      <c r="E1" s="145"/>
-      <c r="F1" s="145"/>
-      <c r="G1" s="145"/>
+      <c r="B1" s="147"/>
+      <c r="C1" s="147"/>
+      <c r="D1" s="147"/>
+      <c r="E1" s="147"/>
+      <c r="F1" s="147"/>
+      <c r="G1" s="147"/>
     </row>
     <row r="2" spans="1:9" ht="15">
       <c r="A2" s="68" t="s">
@@ -5343,7 +5358,7 @@
       <c r="F3" s="10">
         <v>5</v>
       </c>
-      <c r="G3" s="139" t="s">
+      <c r="G3" s="141" t="s">
         <v>11</v>
       </c>
     </row>
@@ -5362,7 +5377,7 @@
       <c r="F4" s="2">
         <v>5</v>
       </c>
-      <c r="G4" s="139"/>
+      <c r="G4" s="141"/>
     </row>
     <row r="5" spans="1:9" ht="15">
       <c r="A5" s="62" t="s">
@@ -5379,7 +5394,7 @@
       <c r="F5" s="2">
         <v>5</v>
       </c>
-      <c r="G5" s="139"/>
+      <c r="G5" s="141"/>
     </row>
     <row r="6" spans="1:9" ht="15">
       <c r="A6" s="62" t="s">
@@ -5396,7 +5411,7 @@
       <c r="F6" s="2">
         <v>5</v>
       </c>
-      <c r="G6" s="139"/>
+      <c r="G6" s="141"/>
     </row>
     <row r="7" spans="1:9" ht="15">
       <c r="A7" s="62" t="s">
@@ -5413,7 +5428,7 @@
       <c r="F7" s="2">
         <v>5</v>
       </c>
-      <c r="G7" s="139"/>
+      <c r="G7" s="141"/>
     </row>
     <row r="8" spans="1:9" ht="15">
       <c r="A8" s="62" t="s">
@@ -5430,7 +5445,7 @@
       <c r="F8" s="2">
         <v>5</v>
       </c>
-      <c r="G8" s="139"/>
+      <c r="G8" s="141"/>
     </row>
     <row r="9" spans="1:9" ht="15">
       <c r="A9" s="62" t="s">
@@ -5447,7 +5462,7 @@
       <c r="F9" s="2">
         <v>5</v>
       </c>
-      <c r="G9" s="139"/>
+      <c r="G9" s="141"/>
       <c r="H9" s="2"/>
     </row>
     <row r="10" spans="1:9" ht="15">
@@ -5465,7 +5480,7 @@
       <c r="F10" s="2">
         <v>5</v>
       </c>
-      <c r="G10" s="139"/>
+      <c r="G10" s="141"/>
       <c r="H10" s="2"/>
     </row>
     <row r="11" spans="1:9" ht="15">
@@ -5485,7 +5500,7 @@
       <c r="F11" s="89" t="s">
         <v>96</v>
       </c>
-      <c r="G11" s="146" t="s">
+      <c r="G11" s="148" t="s">
         <v>31</v>
       </c>
       <c r="H11" s="2"/>
@@ -5507,7 +5522,7 @@
       <c r="F12" s="94" t="s">
         <v>97</v>
       </c>
-      <c r="G12" s="146"/>
+      <c r="G12" s="148"/>
       <c r="H12" s="2"/>
     </row>
     <row r="13" spans="1:9" ht="15">
@@ -5527,7 +5542,7 @@
       <c r="F13" s="94" t="s">
         <v>98</v>
       </c>
-      <c r="G13" s="146"/>
+      <c r="G13" s="148"/>
       <c r="H13" s="2"/>
     </row>
     <row r="14" spans="1:9" ht="15">
@@ -5549,7 +5564,7 @@
       <c r="F14" s="94" t="s">
         <v>99</v>
       </c>
-      <c r="G14" s="146"/>
+      <c r="G14" s="148"/>
       <c r="H14" s="71">
         <v>43371</v>
       </c>
@@ -5576,7 +5591,7 @@
       <c r="F15" s="94" t="s">
         <v>100</v>
       </c>
-      <c r="G15" s="146"/>
+      <c r="G15" s="148"/>
       <c r="H15" s="2"/>
     </row>
     <row r="16" spans="1:9" ht="15">
@@ -5598,7 +5613,7 @@
       <c r="F16" s="94" t="s">
         <v>101</v>
       </c>
-      <c r="G16" s="146"/>
+      <c r="G16" s="148"/>
       <c r="H16" s="2"/>
     </row>
     <row r="17" spans="1:9" ht="15">
@@ -5620,7 +5635,7 @@
       <c r="F17" s="94" t="s">
         <v>102</v>
       </c>
-      <c r="G17" s="146"/>
+      <c r="G17" s="148"/>
       <c r="H17" s="2"/>
     </row>
     <row r="18" spans="1:9" ht="15">
@@ -5642,7 +5657,7 @@
       <c r="F18" s="50" t="s">
         <v>104</v>
       </c>
-      <c r="G18" s="146"/>
+      <c r="G18" s="148"/>
       <c r="H18" s="71">
         <v>43409</v>
       </c>
@@ -5667,7 +5682,7 @@
       <c r="F19" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="G19" s="139" t="s">
+      <c r="G19" s="141" t="s">
         <v>39</v>
       </c>
       <c r="H19" s="2"/>
@@ -5691,7 +5706,7 @@
       <c r="F20" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="G20" s="139"/>
+      <c r="G20" s="141"/>
       <c r="H20" s="2"/>
     </row>
     <row r="21" spans="1:9" ht="15">
@@ -5713,7 +5728,7 @@
       <c r="F21" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="G21" s="139"/>
+      <c r="G21" s="141"/>
       <c r="H21" s="2"/>
     </row>
     <row r="22" spans="1:9" ht="15">
@@ -5735,7 +5750,7 @@
       <c r="F22" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="G22" s="139"/>
+      <c r="G22" s="141"/>
       <c r="H22" s="65">
         <v>43448</v>
       </c>
@@ -5762,7 +5777,7 @@
       <c r="F23" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="G23" s="139"/>
+      <c r="G23" s="141"/>
       <c r="H23" s="2"/>
     </row>
     <row r="24" spans="1:9" ht="15">
@@ -5784,7 +5799,7 @@
       <c r="F24" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="G24" s="139"/>
+      <c r="G24" s="141"/>
       <c r="H24" s="2"/>
     </row>
     <row r="25" spans="1:9" ht="15">
@@ -5804,7 +5819,7 @@
       <c r="F25" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="G25" s="139"/>
+      <c r="G25" s="141"/>
     </row>
     <row r="26" spans="1:9" ht="15">
       <c r="A26" s="64" t="s">
@@ -5823,7 +5838,7 @@
       <c r="F26" s="41" t="s">
         <v>104</v>
       </c>
-      <c r="G26" s="139"/>
+      <c r="G26" s="141"/>
       <c r="I26" s="2">
         <v>600</v>
       </c>
@@ -5874,16 +5889,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="147" t="s">
+      <c r="A1" s="149" t="s">
         <v>141</v>
       </c>
-      <c r="B1" s="147"/>
-      <c r="C1" s="147"/>
-      <c r="D1" s="147"/>
-      <c r="E1" s="147"/>
-      <c r="F1" s="147"/>
-      <c r="G1" s="147"/>
-      <c r="H1" s="147"/>
+      <c r="B1" s="149"/>
+      <c r="C1" s="149"/>
+      <c r="D1" s="149"/>
+      <c r="E1" s="149"/>
+      <c r="F1" s="149"/>
+      <c r="G1" s="149"/>
+      <c r="H1" s="149"/>
     </row>
     <row r="2" spans="1:11" ht="15">
       <c r="A2" s="30" t="s">
@@ -5923,13 +5938,13 @@
       <c r="F3" s="2">
         <v>5</v>
       </c>
-      <c r="G3" s="147" t="s">
+      <c r="G3" s="149" t="s">
         <v>143</v>
       </c>
-      <c r="J3" s="148" t="s">
+      <c r="J3" s="150" t="s">
         <v>144</v>
       </c>
-      <c r="K3" s="148"/>
+      <c r="K3" s="150"/>
     </row>
     <row r="4" spans="1:11" ht="15">
       <c r="A4" s="80" t="s">
@@ -5944,7 +5959,7 @@
       <c r="F4" s="2">
         <v>5</v>
       </c>
-      <c r="G4" s="147"/>
+      <c r="G4" s="149"/>
       <c r="J4" t="s">
         <v>145</v>
       </c>
@@ -5966,7 +5981,7 @@
       <c r="F5" s="2">
         <v>5</v>
       </c>
-      <c r="G5" s="147"/>
+      <c r="G5" s="149"/>
       <c r="J5" t="s">
         <v>146</v>
       </c>
@@ -5988,7 +6003,7 @@
       <c r="F6" s="2">
         <v>5</v>
       </c>
-      <c r="G6" s="147"/>
+      <c r="G6" s="149"/>
       <c r="J6" t="s">
         <v>147</v>
       </c>
@@ -6010,7 +6025,7 @@
       <c r="F7" s="10">
         <v>5</v>
       </c>
-      <c r="G7" s="141" t="s">
+      <c r="G7" s="143" t="s">
         <v>11</v>
       </c>
       <c r="J7" t="s">
@@ -6034,7 +6049,7 @@
       <c r="F8" s="2">
         <v>5</v>
       </c>
-      <c r="G8" s="141"/>
+      <c r="G8" s="143"/>
       <c r="J8" t="s">
         <v>149</v>
       </c>
@@ -6056,7 +6071,7 @@
       <c r="F9" s="2">
         <v>5</v>
       </c>
-      <c r="G9" s="141"/>
+      <c r="G9" s="143"/>
       <c r="J9" t="s">
         <v>150</v>
       </c>
@@ -6078,7 +6093,7 @@
       <c r="F10" s="2">
         <v>5</v>
       </c>
-      <c r="G10" s="141"/>
+      <c r="G10" s="143"/>
       <c r="J10" t="s">
         <v>151</v>
       </c>
@@ -6100,7 +6115,7 @@
       <c r="F11" s="2">
         <v>5</v>
       </c>
-      <c r="G11" s="141"/>
+      <c r="G11" s="143"/>
       <c r="J11" t="s">
         <v>152</v>
       </c>
@@ -6122,7 +6137,7 @@
       <c r="F12" s="2">
         <v>5</v>
       </c>
-      <c r="G12" s="141"/>
+      <c r="G12" s="143"/>
       <c r="J12" t="s">
         <v>153</v>
       </c>
@@ -6144,7 +6159,7 @@
       <c r="F13" s="2">
         <v>5</v>
       </c>
-      <c r="G13" s="141"/>
+      <c r="G13" s="143"/>
     </row>
     <row r="14" spans="1:11" ht="15">
       <c r="A14" s="58" t="s">
@@ -6159,7 +6174,7 @@
       <c r="F14" s="41">
         <v>5</v>
       </c>
-      <c r="G14" s="141"/>
+      <c r="G14" s="143"/>
     </row>
     <row r="15" spans="1:11" ht="15">
       <c r="A15" s="52" t="s">
@@ -6174,7 +6189,7 @@
       <c r="F15" s="10">
         <v>1</v>
       </c>
-      <c r="G15" s="141" t="s">
+      <c r="G15" s="143" t="s">
         <v>31</v>
       </c>
     </row>
@@ -6193,7 +6208,7 @@
       <c r="F16" s="2">
         <v>2</v>
       </c>
-      <c r="G16" s="141"/>
+      <c r="G16" s="143"/>
     </row>
     <row r="17" spans="1:10" ht="15">
       <c r="A17" s="56" t="s">
@@ -6210,7 +6225,7 @@
       <c r="F17" s="2">
         <v>3</v>
       </c>
-      <c r="G17" s="141"/>
+      <c r="G17" s="143"/>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
     </row>
@@ -6229,7 +6244,7 @@
       <c r="F18" s="2">
         <v>4</v>
       </c>
-      <c r="G18" s="141"/>
+      <c r="G18" s="143"/>
     </row>
     <row r="19" spans="1:10" ht="15">
       <c r="A19" s="62" t="s">
@@ -6247,7 +6262,7 @@
       <c r="F19" s="2">
         <v>5</v>
       </c>
-      <c r="G19" s="141"/>
+      <c r="G19" s="143"/>
     </row>
     <row r="20" spans="1:10" ht="15">
       <c r="A20" s="62" t="s">
@@ -6265,7 +6280,7 @@
       <c r="F20" s="2">
         <v>6</v>
       </c>
-      <c r="G20" s="141"/>
+      <c r="G20" s="143"/>
     </row>
     <row r="21" spans="1:10" ht="15">
       <c r="A21" s="62" t="s">
@@ -6283,7 +6298,7 @@
       <c r="F21" s="2">
         <v>7</v>
       </c>
-      <c r="G21" s="141"/>
+      <c r="G21" s="143"/>
     </row>
     <row r="22" spans="1:10" ht="15">
       <c r="A22" s="64" t="s">
@@ -6302,7 +6317,7 @@
       <c r="F22" s="41">
         <v>8</v>
       </c>
-      <c r="G22" s="141"/>
+      <c r="G22" s="143"/>
     </row>
     <row r="23" spans="1:10" ht="15">
       <c r="A23" s="60" t="s">
@@ -6321,7 +6336,7 @@
       <c r="F23" s="10">
         <v>1</v>
       </c>
-      <c r="G23" s="141" t="s">
+      <c r="G23" s="143" t="s">
         <v>39</v>
       </c>
     </row>
@@ -6344,7 +6359,7 @@
       <c r="F24" s="2">
         <v>2</v>
       </c>
-      <c r="G24" s="141"/>
+      <c r="G24" s="143"/>
     </row>
     <row r="25" spans="1:10" ht="15">
       <c r="A25" s="62" t="s">
@@ -6365,7 +6380,7 @@
       <c r="F25" s="2">
         <v>3</v>
       </c>
-      <c r="G25" s="141"/>
+      <c r="G25" s="143"/>
     </row>
     <row r="26" spans="1:10" ht="15">
       <c r="A26" s="62" t="s">
@@ -6386,7 +6401,7 @@
       <c r="F26" s="2">
         <v>4</v>
       </c>
-      <c r="G26" s="141"/>
+      <c r="G26" s="143"/>
       <c r="H26" s="2" t="s">
         <v>158</v>
       </c>
@@ -6410,7 +6425,7 @@
       <c r="F27" s="2">
         <v>5</v>
       </c>
-      <c r="G27" s="141"/>
+      <c r="G27" s="143"/>
     </row>
     <row r="28" spans="1:10" ht="15">
       <c r="A28" s="62" t="s">
@@ -6431,7 +6446,7 @@
       <c r="F28" s="2">
         <v>6</v>
       </c>
-      <c r="G28" s="141"/>
+      <c r="G28" s="143"/>
     </row>
     <row r="29" spans="1:10" ht="15">
       <c r="A29" s="62" t="s">
@@ -6452,7 +6467,7 @@
       <c r="F29" s="2">
         <v>7</v>
       </c>
-      <c r="G29" s="141"/>
+      <c r="G29" s="143"/>
     </row>
     <row r="30" spans="1:10" ht="15">
       <c r="A30" s="64" t="s">
@@ -6473,7 +6488,7 @@
       <c r="F30" s="41">
         <v>8</v>
       </c>
-      <c r="G30" s="141"/>
+      <c r="G30" s="143"/>
       <c r="H30" s="71">
         <v>43396</v>
       </c>
